--- a/MUSCShield_form.xlsx
+++ b/MUSCShield_form.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugenem\Documents\Test Reports\Templates\MUSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugenem\Documents\GitHub\EquipTestingSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="9720" windowHeight="3270" tabRatio="549" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="9720" windowHeight="3270" tabRatio="549"/>
   </bookViews>
   <sheets>
-    <sheet name="ShieldForm" sheetId="1" r:id="rId1"/>
+    <sheet name="Table" sheetId="1" r:id="rId1"/>
     <sheet name="ShieldEvaluation" sheetId="2" r:id="rId2"/>
     <sheet name="FitParameters" sheetId="3" r:id="rId3"/>
     <sheet name="CT" sheetId="4" r:id="rId4"/>
@@ -25,13 +25,13 @@
     <definedName name="beta">#REF!</definedName>
     <definedName name="FitParams">FitParameters!$A$5:$AF$30</definedName>
     <definedName name="gamma">#REF!</definedName>
-    <definedName name="inch_value">ShieldForm!$AF$6:$AF$41</definedName>
+    <definedName name="inch_value">Table!$AF$6:$AF$41</definedName>
     <definedName name="minimum_Pb" localSheetId="3">[1]ShieldForm!$AG$6:$AG$41</definedName>
-    <definedName name="minimum_Pb">ShieldForm!$AG$6:$AG$41</definedName>
+    <definedName name="minimum_Pb">Table!$AG$6:$AG$41</definedName>
     <definedName name="mm_value" localSheetId="3">[1]ShieldForm!$AE$6:$AE$41</definedName>
-    <definedName name="mm_value">ShieldForm!$AE$6:$AE$41</definedName>
+    <definedName name="mm_value">Table!$AE$6:$AE$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">ShieldEvaluation!$A$1:$H$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ShieldForm!$A$1:$N$112</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Table!$A$1:$N$112</definedName>
     <definedName name="RefDist" localSheetId="3">[1]ShieldEvaluation!$F$16</definedName>
     <definedName name="RefDist">ShieldEvaluation!$F$16</definedName>
     <definedName name="RefExp" localSheetId="3">[1]ShieldEvaluation!$G$16</definedName>
@@ -1390,7 +1390,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1427,8 +1427,14 @@
         <bgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="43">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1888,15 +1894,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="58"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="295">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -2608,6 +2626,22 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2633,9 +2667,10 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal_Shield_form" xfId="3"/>
     <cellStyle name="Normal_shieldevaluation" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2652,6 +2687,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>139192</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5905500"/>
+          <a:ext cx="1666875" cy="545592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2705,8 +2789,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>155067</xdr:rowOff>
     </xdr:to>
@@ -2732,7 +2816,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7315200"/>
-          <a:ext cx="1828800" cy="545592"/>
+          <a:ext cx="1666875" cy="545592"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3429,8 +3513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT112"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3568,7 +3652,7 @@
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
+      <c r="B5" s="287"/>
       <c r="C5" s="62"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -3701,7 +3785,7 @@
       <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="36"/>
+      <c r="D8" s="289"/>
       <c r="O8" s="143" t="s">
         <v>22</v>
       </c>
@@ -3739,11 +3823,11 @@
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="36"/>
+      <c r="D9" s="289"/>
       <c r="G9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="39"/>
+      <c r="H9" s="288"/>
       <c r="I9" s="5"/>
       <c r="O9" s="143" t="s">
         <v>26</v>
@@ -3782,11 +3866,11 @@
       <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="36"/>
+      <c r="D10" s="289"/>
       <c r="G10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="39"/>
+      <c r="H10" s="288"/>
       <c r="I10" s="5"/>
       <c r="O10" s="143" t="s">
         <v>30</v>
@@ -4808,7 +4892,7 @@
       <c r="E26" s="63"/>
       <c r="F26" s="63"/>
       <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
+      <c r="H26" s="290"/>
       <c r="I26" s="63"/>
       <c r="J26" s="71" t="str">
         <f t="shared" ref="J26:J39" si="3">IF(Q26="","",IF($D$13&lt;40,0.00022,VLOOKUP($D$13,$V$16:$AB$38,Q26,FALSE)))</f>
@@ -4823,23 +4907,23 @@
         <v/>
       </c>
       <c r="M26" s="73" t="str">
-        <f t="shared" ref="M26:M39" si="5">IF(C26="","",(K26/(J26*$D$11*G26))*(D26^2)*(C26^2)*(400/$H$10))</f>
+        <f>IF(C26="","",(K26/(J26*$D$11*G26))*(D26^2)*(C26^2)*(400/$H$10))</f>
         <v/>
       </c>
       <c r="N26" s="73" t="str">
-        <f t="shared" ref="N26:N39" si="6">IF(E26="","",(K26*E26^2*60*$H$9)/($D$11*G26))</f>
+        <f t="shared" ref="N26:N39" si="5">IF(E26="","",(K26*E26^2*60*$H$9)/($D$11*G26))</f>
         <v/>
       </c>
       <c r="O26" s="74" t="str">
-        <f t="shared" ref="O26:O39" si="7">IF(N26="","",IF((-LN(N26)/LN(2))&lt;0,0,-LN(N26)/LN(2)))</f>
+        <f t="shared" ref="O26:O39" si="6">IF(N26="","",IF((-LN(N26)/LN(2))&lt;0,0,-LN(N26)/LN(2)))</f>
         <v/>
       </c>
       <c r="P26" s="75" t="str">
-        <f t="shared" ref="P26:P39" si="8">IF(L26="","",IF((-LN(L26)/LN(2))&lt;0,0,-LN(L26)/LN(2)))</f>
+        <f t="shared" ref="P26:P39" si="7">IF(L26="","",IF((-LN(L26)/LN(2))&lt;0,0,-LN(L26)/LN(2)))</f>
         <v/>
       </c>
       <c r="Q26" s="76" t="str">
-        <f t="shared" ref="Q26:Q39" si="9">IF(I26="","",IF(I26=30,2,IF(I26=45,3,IF(I26=4,11,IF(I26=90,5,IF(I26=120,6,7))))))</f>
+        <f t="shared" ref="Q26:Q39" si="8">IF(I26="","",IF(I26=30,2,IF(I26=45,3,IF(I26=4,11,IF(I26=90,5,IF(I26=120,6,7))))))</f>
         <v/>
       </c>
       <c r="R26"/>
@@ -4896,14 +4980,14 @@
       <c r="E27" s="63"/>
       <c r="F27" s="63"/>
       <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
+      <c r="H27" s="290"/>
       <c r="I27" s="63"/>
       <c r="J27" s="71" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K27" s="72" t="str">
-        <f t="shared" ref="K27:K39" si="10">IF(C27="","",IF(H27="U",0.02,0.1))</f>
+        <f t="shared" ref="K27:K39" si="9">IF(C27="","",IF(H27="U",0.02,0.1))</f>
         <v/>
       </c>
       <c r="L27" s="73" t="str">
@@ -4915,19 +4999,19 @@
         <v/>
       </c>
       <c r="N27" s="73" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="O27" s="74" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="O27" s="74" t="str">
+      <c r="P27" s="75" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P27" s="75" t="str">
+      <c r="Q27" s="76" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="Q27" s="76" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R27"/>
@@ -4984,14 +5068,14 @@
       <c r="E28" s="63"/>
       <c r="F28" s="63"/>
       <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
+      <c r="H28" s="290"/>
       <c r="I28" s="63"/>
       <c r="J28" s="71" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K28" s="72" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L28" s="73" t="str">
@@ -4999,23 +5083,23 @@
         <v/>
       </c>
       <c r="M28" s="73" t="str">
+        <f t="shared" ref="M28:M39" si="10">IF(C28="","",(K28/(J28*$D$11*G28))*(D28^2)*(C28^2)*(400/$H$10))</f>
+        <v/>
+      </c>
+      <c r="N28" s="73" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N28" s="73" t="str">
+      <c r="O28" s="74" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="O28" s="74" t="str">
+      <c r="P28" s="75" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P28" s="75" t="str">
+      <c r="Q28" s="76" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="Q28" s="76" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R28"/>
@@ -5066,14 +5150,14 @@
       <c r="E29" s="63"/>
       <c r="F29" s="63"/>
       <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
+      <c r="H29" s="290"/>
       <c r="I29" s="63"/>
       <c r="J29" s="71" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K29" s="72" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L29" s="73" t="str">
@@ -5081,23 +5165,23 @@
         <v/>
       </c>
       <c r="M29" s="73" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="N29" s="73" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N29" s="73" t="str">
+      <c r="O29" s="74" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="O29" s="74" t="str">
+      <c r="P29" s="75" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P29" s="75" t="str">
+      <c r="Q29" s="76" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="Q29" s="76" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R29"/>
@@ -5154,14 +5238,14 @@
       <c r="E30" s="63"/>
       <c r="F30" s="63"/>
       <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
+      <c r="H30" s="290"/>
       <c r="I30" s="63"/>
       <c r="J30" s="71" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K30" s="72" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L30" s="73" t="str">
@@ -5169,23 +5253,23 @@
         <v/>
       </c>
       <c r="M30" s="73" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="N30" s="73" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N30" s="73" t="str">
+      <c r="O30" s="74" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="O30" s="74" t="str">
+      <c r="P30" s="75" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P30" s="75" t="str">
+      <c r="Q30" s="76" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="Q30" s="76" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R30"/>
@@ -5242,14 +5326,14 @@
       <c r="E31" s="63"/>
       <c r="F31" s="63"/>
       <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
+      <c r="H31" s="290"/>
       <c r="I31" s="63"/>
       <c r="J31" s="71" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K31" s="72" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L31" s="73" t="str">
@@ -5257,23 +5341,23 @@
         <v/>
       </c>
       <c r="M31" s="73" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="N31" s="73" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N31" s="73" t="str">
+      <c r="O31" s="74" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="O31" s="74" t="str">
+      <c r="P31" s="75" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P31" s="75" t="str">
+      <c r="Q31" s="76" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="Q31" s="76" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R31"/>
@@ -5330,14 +5414,14 @@
       <c r="E32" s="63"/>
       <c r="F32" s="63"/>
       <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
+      <c r="H32" s="290"/>
       <c r="I32" s="63"/>
       <c r="J32" s="71" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K32" s="72" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L32" s="73" t="str">
@@ -5345,23 +5429,23 @@
         <v/>
       </c>
       <c r="M32" s="73" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="N32" s="73" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N32" s="73" t="str">
+      <c r="O32" s="74" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="O32" s="74" t="str">
+      <c r="P32" s="75" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P32" s="75" t="str">
+      <c r="Q32" s="76" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="Q32" s="76" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R32"/>
@@ -5425,7 +5509,7 @@
         <v/>
       </c>
       <c r="K33" s="72" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L33" s="73" t="str">
@@ -5433,23 +5517,23 @@
         <v/>
       </c>
       <c r="M33" s="73" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="N33" s="73" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N33" s="73" t="str">
+      <c r="O33" s="74" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="O33" s="74" t="str">
+      <c r="P33" s="75" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P33" s="75" t="str">
+      <c r="Q33" s="76" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="Q33" s="76" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R33"/>
@@ -5507,7 +5591,7 @@
         <v/>
       </c>
       <c r="K34" s="72" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L34" s="73" t="str">
@@ -5515,23 +5599,23 @@
         <v/>
       </c>
       <c r="M34" s="73" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="N34" s="73" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N34" s="73" t="str">
+      <c r="O34" s="74" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="O34" s="74" t="str">
+      <c r="P34" s="75" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P34" s="75" t="str">
+      <c r="Q34" s="76" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="Q34" s="76" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R34"/>
@@ -5595,7 +5679,7 @@
         <v/>
       </c>
       <c r="K35" s="72" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L35" s="73" t="str">
@@ -5603,23 +5687,23 @@
         <v/>
       </c>
       <c r="M35" s="73" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="N35" s="73" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N35" s="73" t="str">
+      <c r="O35" s="74" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="O35" s="74" t="str">
+      <c r="P35" s="75" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P35" s="75" t="str">
+      <c r="Q35" s="76" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="Q35" s="76" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R35"/>
@@ -5683,7 +5767,7 @@
         <v/>
       </c>
       <c r="K36" s="72" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L36" s="73" t="str">
@@ -5691,23 +5775,23 @@
         <v/>
       </c>
       <c r="M36" s="73" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="N36" s="73" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N36" s="73" t="str">
+      <c r="O36" s="74" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="O36" s="74" t="str">
+      <c r="P36" s="75" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P36" s="75" t="str">
+      <c r="Q36" s="76" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="Q36" s="76" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R36"/>
@@ -5771,7 +5855,7 @@
         <v/>
       </c>
       <c r="K37" s="72" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L37" s="73" t="str">
@@ -5779,23 +5863,23 @@
         <v/>
       </c>
       <c r="M37" s="73" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="N37" s="73" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N37" s="73" t="str">
+      <c r="O37" s="74" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="O37" s="74" t="str">
+      <c r="P37" s="75" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P37" s="75" t="str">
+      <c r="Q37" s="76" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="Q37" s="76" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R37"/>
@@ -5859,7 +5943,7 @@
         <v/>
       </c>
       <c r="K38" s="72" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L38" s="73" t="str">
@@ -5867,23 +5951,23 @@
         <v/>
       </c>
       <c r="M38" s="73" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="N38" s="73" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N38" s="73" t="str">
+      <c r="O38" s="74" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="O38" s="74" t="str">
+      <c r="P38" s="75" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P38" s="75" t="str">
+      <c r="Q38" s="76" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="Q38" s="76" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R38"/>
@@ -5941,7 +6025,7 @@
         <v/>
       </c>
       <c r="K39" s="72" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L39" s="73" t="str">
@@ -5949,23 +6033,23 @@
         <v/>
       </c>
       <c r="M39" s="73" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="N39" s="73" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N39" s="73" t="str">
+      <c r="O39" s="74" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="O39" s="74" t="str">
+      <c r="P39" s="75" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P39" s="75" t="str">
+      <c r="Q39" s="76" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="Q39" s="76" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R39"/>
@@ -6295,43 +6379,43 @@
         <v/>
       </c>
       <c r="E45" s="90" t="str">
-        <f t="shared" ref="E45:E58" si="16">IF($C26="","",IF((1/($B$17*$D$17))*LN(((($M26/$E$17)^-$D$17)+($C$17/$B$17))/(1+($C$17/$B$17)))&lt;0,0,(1/($B$17*$D$17))*LN(((($M26/$E$17)^-$D$17)+($C$17/$B$17))/(1+($C$17/$B$17)))))</f>
+        <f>IF($C26="","",IF((1/($B$17*$D$17))*LN(((($M26/$E$17)^-$D$17)+($C$17/$B$17))/(1+($C$17/$B$17)))&lt;0,0,(1/($B$17*$D$17))*LN(((($M26/$E$17)^-$D$17)+($C$17/$B$17))/(1+($C$17/$B$17)))))</f>
         <v/>
       </c>
       <c r="F45" s="91" t="str">
-        <f t="shared" ref="F45:F58" si="17">IF($C26="","",IF((1/($B$18*$D$18))*LN(((($M26/$E$18)^-$D$18)+($C$18/$B$18))/(1+($C$18/$B$18)))&lt;0,0,(1/($B$18*$D$18))*LN(((($M26/$E$18)^-$D$18)+($C$18/$B$18))/(1+($C$18/$B$18)))))</f>
+        <f t="shared" ref="F45:F58" si="16">IF($C26="","",IF((1/($B$18*$D$18))*LN(((($M26/$E$18)^-$D$18)+($C$18/$B$18))/(1+($C$18/$B$18)))&lt;0,0,(1/($B$18*$D$18))*LN(((($M26/$E$18)^-$D$18)+($C$18/$B$18))/(1+($C$18/$B$18)))))</f>
         <v/>
       </c>
       <c r="G45" s="92" t="str">
-        <f t="shared" ref="G45:G58" si="18">IF($C26="","",IF((1/($B$19*$D$19))*LN(((($M26/$E$19)^-$D$19)+($C$19/$B$19))/(1+($C$19/$B$19)))&lt;0,0,(1/($B$19*$D$19))*LN(((($M26/$E$19)^-$D$19)+($C$19/$B$19))/(1+($C$19/$B$19)))))</f>
+        <f t="shared" ref="G45:G58" si="17">IF($C26="","",IF((1/($B$19*$D$19))*LN(((($M26/$E$19)^-$D$19)+($C$19/$B$19))/(1+($C$19/$B$19)))&lt;0,0,(1/($B$19*$D$19))*LN(((($M26/$E$19)^-$D$19)+($C$19/$B$19))/(1+($C$19/$B$19)))))</f>
         <v/>
       </c>
       <c r="H45" s="93" t="str">
-        <f t="shared" ref="H45:H58" si="19">IF($N26="","",IF(-LN($N26)*$F$17/LN(2)&lt;0,0,-LN($N26)*$F$17/LN(2)))</f>
+        <f t="shared" ref="H45:H58" si="18">IF($N26="","",IF(-LN($N26)*$F$17/LN(2)&lt;0,0,-LN($N26)*$F$17/LN(2)))</f>
         <v/>
       </c>
       <c r="I45" s="93" t="str">
-        <f t="shared" ref="I45:I58" si="20">IF($N26="","",IF(-LN($N26)*$F$18/LN(2)&lt;0,0,-LN($N26)*$F$18/LN(2)))</f>
+        <f t="shared" ref="I45:I58" si="19">IF($N26="","",IF(-LN($N26)*$F$18/LN(2)&lt;0,0,-LN($N26)*$F$18/LN(2)))</f>
         <v/>
       </c>
       <c r="J45" s="93" t="str">
-        <f t="shared" ref="J45:J58" si="21">IF($N26="","",IF(-LN($N26)*$F$19/LN(2)&lt;0,0,-LN($N26)*$F$19/LN(2)))</f>
+        <f t="shared" ref="J45:J58" si="20">IF($N26="","",IF(-LN($N26)*$F$19/LN(2)&lt;0,0,-LN($N26)*$F$19/LN(2)))</f>
         <v/>
       </c>
       <c r="K45" s="90" t="str">
-        <f t="shared" ref="K45:K58" si="22">IF($E45="","",IF(AND($E45=0,$H45=0),0,IF(OR($E45=0,$H45=0),MAX($E45,$H45),IF(ABS($E45-$H45)&gt;$G$17,MAX($E45,$H45),(MAX($E45,$H45)+$F$17)))))</f>
+        <f t="shared" ref="K45:K58" si="21">IF($E45="","",IF(AND($E45=0,$H45=0),0,IF(OR($E45=0,$H45=0),MAX($E45,$H45),IF(ABS($E45-$H45)&gt;$G$17,MAX($E45,$H45),(MAX($E45,$H45)+$F$17)))))</f>
         <v/>
       </c>
       <c r="L45" s="91" t="str">
-        <f t="shared" ref="L45:L58" si="23">IF($F45="","",IF(AND($F45=0,$I45=0),0,IF(OR($F45=0,$I45=0),MAX($F45,$I45),IF(ABS($F45-$I45)&gt;$G$18,MAX($F45,$I45),(MAX($F45,$I45)+$F$18)))))</f>
+        <f t="shared" ref="L45:L58" si="22">IF($F45="","",IF(AND($F45=0,$I45=0),0,IF(OR($F45=0,$I45=0),MAX($F45,$I45),IF(ABS($F45-$I45)&gt;$G$18,MAX($F45,$I45),(MAX($F45,$I45)+$F$18)))))</f>
         <v/>
       </c>
       <c r="M45" s="91" t="str">
-        <f t="shared" ref="M45:M58" si="24">IF($G45="","",IF(AND($G45=0,$J45=0),0,IF(OR($G45=0,$J45=0),MAX($G45,$J45),IF(ABS($G45-$J45)&gt;$G$19,MAX($G45,$J45),(MAX($G45,$J45)+$F$19)))))</f>
+        <f t="shared" ref="M45:M58" si="23">IF($G45="","",IF(AND($G45=0,$J45=0),0,IF(OR($G45=0,$J45=0),MAX($G45,$J45),IF(ABS($G45-$J45)&gt;$G$19,MAX($G45,$J45),(MAX($G45,$J45)+$F$19)))))</f>
         <v/>
       </c>
       <c r="N45" s="94" t="str">
-        <f t="shared" ref="N45:N58" si="25">IF(AND(B45="",E45="",H45=""),"",IF(B45="",LOOKUP(K45,mm_value,minimum_Pb),LOOKUP(B45,mm_value,minimum_Pb)))</f>
+        <f t="shared" ref="N45:N58" si="24">IF(AND(B45="",E45="",H45=""),"",IF(B45="",LOOKUP(K45,mm_value,minimum_Pb),LOOKUP(B45,mm_value,minimum_Pb)))</f>
         <v/>
       </c>
       <c r="O45" s="114" t="s">
@@ -6437,7 +6521,7 @@
         <v/>
       </c>
       <c r="B46" s="90" t="str">
-        <f t="shared" ref="B46:B58" si="26">IF(OR($B27=0,$F27=""),"",(1/($B$17*$D$17))*LN(((($L27/$E$17)^-$D$17)+($C$17/$B$17))/(1+($C$17/$B$17))))</f>
+        <f t="shared" ref="B46:B58" si="25">IF(OR($B27=0,$F27=""),"",(1/($B$17*$D$17))*LN(((($L27/$E$17)^-$D$17)+($C$17/$B$17))/(1+($C$17/$B$17))))</f>
         <v/>
       </c>
       <c r="C46" s="91" t="str">
@@ -6449,43 +6533,43 @@
         <v/>
       </c>
       <c r="E46" s="90" t="str">
+        <f t="shared" ref="E46:E58" si="26">IF($C27="","",IF((1/($B$17*$D$17))*LN(((($M27/$E$17)^-$D$17)+($C$17/$B$17))/(1+($C$17/$B$17)))&lt;0,0,(1/($B$17*$D$17))*LN(((($M27/$E$17)^-$D$17)+($C$17/$B$17))/(1+($C$17/$B$17)))))</f>
+        <v/>
+      </c>
+      <c r="F46" s="91" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="F46" s="91" t="str">
+      <c r="G46" s="92" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="G46" s="92" t="str">
+      <c r="H46" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H46" s="93" t="str">
+      <c r="I46" s="93" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I46" s="93" t="str">
+      <c r="J46" s="93" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J46" s="93" t="str">
+      <c r="K46" s="90" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K46" s="90" t="str">
+      <c r="L46" s="91" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L46" s="91" t="str">
+      <c r="M46" s="91" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M46" s="91" t="str">
+      <c r="N46" s="94" t="str">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="N46" s="94" t="str">
-        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="O46" s="110">
@@ -6604,7 +6688,7 @@
         <v/>
       </c>
       <c r="B47" s="90" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C47" s="91" t="str">
@@ -6616,43 +6700,43 @@
         <v/>
       </c>
       <c r="E47" s="90" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="F47" s="91" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="F47" s="91" t="str">
+      <c r="G47" s="92" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="G47" s="92" t="str">
+      <c r="H47" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H47" s="93" t="str">
+      <c r="I47" s="93" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I47" s="93" t="str">
+      <c r="J47" s="93" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J47" s="93" t="str">
+      <c r="K47" s="90" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K47" s="90" t="str">
+      <c r="L47" s="91" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L47" s="91" t="str">
+      <c r="M47" s="91" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M47" s="91" t="str">
+      <c r="N47" s="94" t="str">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="N47" s="94" t="str">
-        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="O47" s="110">
@@ -6771,7 +6855,7 @@
         <v/>
       </c>
       <c r="B48" s="90" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C48" s="91" t="str">
@@ -6783,43 +6867,43 @@
         <v/>
       </c>
       <c r="E48" s="90" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="F48" s="91" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="F48" s="91" t="str">
+      <c r="G48" s="92" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="G48" s="92" t="str">
+      <c r="H48" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H48" s="93" t="str">
+      <c r="I48" s="93" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I48" s="93" t="str">
+      <c r="J48" s="93" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J48" s="93" t="str">
+      <c r="K48" s="90" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K48" s="90" t="str">
+      <c r="L48" s="91" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L48" s="91" t="str">
+      <c r="M48" s="91" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M48" s="91" t="str">
+      <c r="N48" s="94" t="str">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="N48" s="94" t="str">
-        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="O48" s="110">
@@ -6938,7 +7022,7 @@
         <v/>
       </c>
       <c r="B49" s="90" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C49" s="91" t="str">
@@ -6950,43 +7034,43 @@
         <v/>
       </c>
       <c r="E49" s="90" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="F49" s="91" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="F49" s="91" t="str">
+      <c r="G49" s="92" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="G49" s="92" t="str">
+      <c r="H49" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H49" s="93" t="str">
+      <c r="I49" s="93" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I49" s="93" t="str">
+      <c r="J49" s="93" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J49" s="93" t="str">
+      <c r="K49" s="90" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K49" s="90" t="str">
+      <c r="L49" s="91" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L49" s="91" t="str">
+      <c r="M49" s="91" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M49" s="91" t="str">
+      <c r="N49" s="94" t="str">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="N49" s="94" t="str">
-        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="O49" s="110">
@@ -7075,7 +7159,7 @@
         <v/>
       </c>
       <c r="B50" s="90" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C50" s="91" t="str">
@@ -7087,43 +7171,43 @@
         <v/>
       </c>
       <c r="E50" s="90" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="F50" s="91" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="F50" s="91" t="str">
+      <c r="G50" s="92" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="G50" s="92" t="str">
+      <c r="H50" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H50" s="93" t="str">
+      <c r="I50" s="93" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I50" s="93" t="str">
+      <c r="J50" s="93" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J50" s="93" t="str">
+      <c r="K50" s="90" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K50" s="90" t="str">
+      <c r="L50" s="91" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L50" s="91" t="str">
+      <c r="M50" s="91" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M50" s="91" t="str">
+      <c r="N50" s="94" t="str">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="N50" s="94" t="str">
-        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="O50" s="110">
@@ -7212,7 +7296,7 @@
         <v/>
       </c>
       <c r="B51" s="90" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C51" s="91" t="str">
@@ -7224,43 +7308,43 @@
         <v/>
       </c>
       <c r="E51" s="90" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="F51" s="91" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="F51" s="91" t="str">
+      <c r="G51" s="92" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="G51" s="92" t="str">
+      <c r="H51" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H51" s="93" t="str">
+      <c r="I51" s="93" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I51" s="93" t="str">
+      <c r="J51" s="93" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J51" s="93" t="str">
+      <c r="K51" s="90" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K51" s="90" t="str">
+      <c r="L51" s="91" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L51" s="91" t="str">
+      <c r="M51" s="91" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M51" s="91" t="str">
+      <c r="N51" s="94" t="str">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="N51" s="94" t="str">
-        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="O51" s="110">
@@ -7379,7 +7463,7 @@
         <v/>
       </c>
       <c r="B52" s="90" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C52" s="91" t="str">
@@ -7391,43 +7475,43 @@
         <v/>
       </c>
       <c r="E52" s="90" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="F52" s="91" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="F52" s="91" t="str">
+      <c r="G52" s="92" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="G52" s="92" t="str">
+      <c r="H52" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H52" s="93" t="str">
+      <c r="I52" s="93" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I52" s="93" t="str">
+      <c r="J52" s="93" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J52" s="93" t="str">
+      <c r="K52" s="90" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K52" s="90" t="str">
+      <c r="L52" s="91" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L52" s="91" t="str">
+      <c r="M52" s="91" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M52" s="91" t="str">
+      <c r="N52" s="94" t="str">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="N52" s="94" t="str">
-        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="O52" s="110">
@@ -7546,7 +7630,7 @@
         <v/>
       </c>
       <c r="B53" s="90" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C53" s="91" t="str">
@@ -7558,43 +7642,43 @@
         <v/>
       </c>
       <c r="E53" s="90" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="F53" s="91" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="F53" s="91" t="str">
+      <c r="G53" s="92" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="G53" s="92" t="str">
+      <c r="H53" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H53" s="93" t="str">
+      <c r="I53" s="93" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I53" s="93" t="str">
+      <c r="J53" s="93" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J53" s="93" t="str">
+      <c r="K53" s="90" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K53" s="90" t="str">
+      <c r="L53" s="91" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L53" s="91" t="str">
+      <c r="M53" s="91" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M53" s="91" t="str">
+      <c r="N53" s="94" t="str">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="N53" s="94" t="str">
-        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="O53" s="110">
@@ -7713,7 +7797,7 @@
         <v/>
       </c>
       <c r="B54" s="90" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C54" s="91" t="str">
@@ -7725,43 +7809,43 @@
         <v/>
       </c>
       <c r="E54" s="90" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="F54" s="91" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="F54" s="91" t="str">
+      <c r="G54" s="92" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="G54" s="92" t="str">
+      <c r="H54" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H54" s="93" t="str">
+      <c r="I54" s="93" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I54" s="93" t="str">
+      <c r="J54" s="93" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J54" s="93" t="str">
+      <c r="K54" s="90" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K54" s="90" t="str">
+      <c r="L54" s="91" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L54" s="91" t="str">
+      <c r="M54" s="91" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M54" s="91" t="str">
+      <c r="N54" s="94" t="str">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="N54" s="94" t="str">
-        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="O54" s="110">
@@ -7880,7 +7964,7 @@
         <v/>
       </c>
       <c r="B55" s="90" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C55" s="91" t="str">
@@ -7892,43 +7976,43 @@
         <v/>
       </c>
       <c r="E55" s="90" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="F55" s="91" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="F55" s="91" t="str">
+      <c r="G55" s="92" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="G55" s="92" t="str">
+      <c r="H55" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H55" s="93" t="str">
+      <c r="I55" s="93" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I55" s="93" t="str">
+      <c r="J55" s="93" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J55" s="93" t="str">
+      <c r="K55" s="90" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K55" s="90" t="str">
+      <c r="L55" s="91" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L55" s="91" t="str">
+      <c r="M55" s="91" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M55" s="91" t="str">
+      <c r="N55" s="94" t="str">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="N55" s="94" t="str">
-        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="O55" s="110">
@@ -8047,7 +8131,7 @@
         <v/>
       </c>
       <c r="B56" s="90" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C56" s="91" t="str">
@@ -8059,43 +8143,43 @@
         <v/>
       </c>
       <c r="E56" s="90" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="F56" s="91" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="F56" s="91" t="str">
+      <c r="G56" s="92" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="G56" s="92" t="str">
+      <c r="H56" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H56" s="93" t="str">
+      <c r="I56" s="93" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I56" s="93" t="str">
+      <c r="J56" s="93" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J56" s="93" t="str">
+      <c r="K56" s="90" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K56" s="90" t="str">
+      <c r="L56" s="91" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L56" s="91" t="str">
+      <c r="M56" s="91" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M56" s="91" t="str">
+      <c r="N56" s="94" t="str">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="N56" s="94" t="str">
-        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="O56" s="110">
@@ -8214,7 +8298,7 @@
         <v/>
       </c>
       <c r="B57" s="90" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C57" s="91" t="str">
@@ -8226,43 +8310,43 @@
         <v/>
       </c>
       <c r="E57" s="90" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="F57" s="91" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="F57" s="91" t="str">
+      <c r="G57" s="92" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="G57" s="92" t="str">
+      <c r="H57" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H57" s="93" t="str">
+      <c r="I57" s="93" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I57" s="93" t="str">
+      <c r="J57" s="93" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J57" s="93" t="str">
+      <c r="K57" s="90" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K57" s="90" t="str">
+      <c r="L57" s="91" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L57" s="91" t="str">
+      <c r="M57" s="91" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M57" s="91" t="str">
+      <c r="N57" s="94" t="str">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="N57" s="94" t="str">
-        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="O57" s="110">
@@ -8381,7 +8465,7 @@
         <v/>
       </c>
       <c r="B58" s="90" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C58" s="91" t="str">
@@ -8393,43 +8477,43 @@
         <v/>
       </c>
       <c r="E58" s="90" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="F58" s="91" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="F58" s="91" t="str">
+      <c r="G58" s="92" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="G58" s="92" t="str">
+      <c r="H58" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H58" s="93" t="str">
+      <c r="I58" s="93" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I58" s="93" t="str">
+      <c r="J58" s="93" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J58" s="93" t="str">
+      <c r="K58" s="90" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K58" s="90" t="str">
+      <c r="L58" s="91" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L58" s="91" t="str">
+      <c r="M58" s="91" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M58" s="91" t="str">
+      <c r="N58" s="94" t="str">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="N58" s="94" t="str">
-        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="O58" s="110">
@@ -12799,8 +12883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13188,7 +13272,7 @@
       <c r="E18" s="167" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="287" t="s">
+      <c r="F18" s="291" t="s">
         <v>122</v>
       </c>
       <c r="G18" s="167"/>
@@ -13238,7 +13322,7 @@
       <c r="E19" s="167" t="s">
         <v>114</v>
       </c>
-      <c r="F19" s="287"/>
+      <c r="F19" s="291"/>
       <c r="G19" s="167" t="s">
         <v>48</v>
       </c>
@@ -13271,22 +13355,22 @@
       <c r="E20" s="168" t="s">
         <v>184</v>
       </c>
-      <c r="F20" s="288"/>
+      <c r="F20" s="292"/>
       <c r="G20" s="168" t="s">
         <v>123</v>
       </c>
       <c r="H20" s="168" t="s">
         <v>119</v>
       </c>
-      <c r="L20" s="289" t="s">
+      <c r="L20" s="293" t="s">
         <v>124</v>
       </c>
-      <c r="M20" s="289"/>
-      <c r="N20" s="289"/>
-      <c r="O20" s="289"/>
-      <c r="P20" s="289"/>
-      <c r="Q20" s="289"/>
-      <c r="R20" s="289"/>
+      <c r="M20" s="293"/>
+      <c r="N20" s="293"/>
+      <c r="O20" s="293"/>
+      <c r="P20" s="293"/>
+      <c r="Q20" s="293"/>
+      <c r="R20" s="293"/>
       <c r="T20" s="158">
         <v>1.1906250009999999</v>
       </c>
@@ -13302,8 +13386,8 @@
       <c r="B21" s="165"/>
       <c r="C21" s="166"/>
       <c r="D21" s="169" t="str">
-        <f>IF(A21="","TBD",B21*RefOutput*(RefDist/C21)^2)</f>
-        <v>TBD</v>
+        <f t="shared" ref="D21:D28" si="0">IF(A21="","",B21*RefOutput*(RefDist/C21)^2)</f>
+        <v/>
       </c>
       <c r="E21" s="165"/>
       <c r="F21" s="170" t="str">
@@ -13311,11 +13395,11 @@
         <v/>
       </c>
       <c r="G21" s="171" t="str">
-        <f>IF(M22="","TBD",M22)</f>
-        <v>TBD</v>
+        <f>IF(M22="","",M22)</f>
+        <v/>
       </c>
       <c r="H21" s="172" t="str">
-        <f t="shared" ref="H21:H30" si="0">IF(M22="","",VLOOKUP(G21,$T$12:$U$47,2))</f>
+        <f t="shared" ref="H21:H30" si="1">IF(M22="","",VLOOKUP(G21,$T$12:$U$47,2))</f>
         <v/>
       </c>
       <c r="L21" s="147" t="s">
@@ -13354,8 +13438,8 @@
       <c r="B22" s="165"/>
       <c r="C22" s="166"/>
       <c r="D22" s="169" t="str">
-        <f t="shared" ref="D22:D28" si="1">IF(A22="","TBD",B22*RefOutput*(RefDist/C22)^2)</f>
-        <v>TBD</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="E22" s="165"/>
       <c r="F22" s="170" t="str">
@@ -13363,11 +13447,11 @@
         <v/>
       </c>
       <c r="G22" s="171" t="str">
-        <f t="shared" ref="G22:G28" si="3">IF(M23="","TBD",M23)</f>
-        <v>TBD</v>
+        <f t="shared" ref="G22:G28" si="3">IF(M23="","",M23)</f>
+        <v/>
       </c>
       <c r="H22" s="172" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L22" s="173" t="str">
@@ -13413,8 +13497,8 @@
       <c r="B23" s="165"/>
       <c r="C23" s="166"/>
       <c r="D23" s="169" t="str">
-        <f t="shared" si="1"/>
-        <v>TBD</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="E23" s="165"/>
       <c r="F23" s="170" t="str">
@@ -13423,10 +13507,10 @@
       </c>
       <c r="G23" s="171" t="str">
         <f t="shared" si="3"/>
-        <v>TBD</v>
+        <v/>
       </c>
       <c r="H23" s="172" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L23" s="173" t="str">
@@ -13472,8 +13556,8 @@
       <c r="B24" s="165"/>
       <c r="C24" s="166"/>
       <c r="D24" s="169" t="str">
-        <f t="shared" si="1"/>
-        <v>TBD</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="E24" s="165"/>
       <c r="F24" s="170" t="str">
@@ -13482,10 +13566,10 @@
       </c>
       <c r="G24" s="171" t="str">
         <f t="shared" si="3"/>
-        <v>TBD</v>
+        <v/>
       </c>
       <c r="H24" s="172" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L24" s="173" t="str">
@@ -13531,8 +13615,8 @@
       <c r="B25" s="165"/>
       <c r="C25" s="166"/>
       <c r="D25" s="169" t="str">
-        <f t="shared" si="1"/>
-        <v>TBD</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="E25" s="165"/>
       <c r="F25" s="170" t="str">
@@ -13541,10 +13625,10 @@
       </c>
       <c r="G25" s="171" t="str">
         <f t="shared" si="3"/>
-        <v>TBD</v>
+        <v/>
       </c>
       <c r="H25" s="172" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L25" s="173" t="str">
@@ -13590,8 +13674,8 @@
       <c r="B26" s="165"/>
       <c r="C26" s="166"/>
       <c r="D26" s="169" t="str">
-        <f t="shared" si="1"/>
-        <v>TBD</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="E26" s="165"/>
       <c r="F26" s="170" t="str">
@@ -13600,10 +13684,10 @@
       </c>
       <c r="G26" s="171" t="str">
         <f t="shared" si="3"/>
-        <v>TBD</v>
+        <v/>
       </c>
       <c r="H26" s="172" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L26" s="173" t="str">
@@ -13652,8 +13736,8 @@
       </c>
       <c r="C27" s="166"/>
       <c r="D27" s="169" t="str">
-        <f t="shared" si="1"/>
-        <v>TBD</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="E27" s="165"/>
       <c r="F27" s="170" t="str">
@@ -13662,10 +13746,10 @@
       </c>
       <c r="G27" s="171" t="str">
         <f t="shared" si="3"/>
-        <v>TBD</v>
+        <v/>
       </c>
       <c r="H27" s="172" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L27" s="173" t="str">
@@ -13714,8 +13798,8 @@
       </c>
       <c r="C28" s="166"/>
       <c r="D28" s="169" t="str">
-        <f t="shared" si="1"/>
-        <v>TBD</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="E28" s="165"/>
       <c r="F28" s="170" t="str">
@@ -13724,10 +13808,10 @@
       </c>
       <c r="G28" s="171" t="str">
         <f t="shared" si="3"/>
-        <v>TBD</v>
+        <v/>
       </c>
       <c r="H28" s="172" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L28" s="173" t="str">
@@ -13772,7 +13856,7 @@
       <c r="F29" s="171"/>
       <c r="G29" s="171"/>
       <c r="H29" s="172" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L29" s="173" t="str">
@@ -13817,7 +13901,7 @@
       <c r="F30" s="171"/>
       <c r="G30" s="171"/>
       <c r="H30" s="172" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L30" s="173" t="str">
@@ -14088,7 +14172,8 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;R&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -17485,14 +17570,14 @@
       <c r="M18" s="265"/>
       <c r="N18" s="264"/>
       <c r="P18" s="279"/>
-      <c r="Q18" s="290" t="s">
+      <c r="Q18" s="294" t="s">
         <v>176</v>
       </c>
-      <c r="R18" s="290"/>
-      <c r="S18" s="290"/>
-      <c r="T18" s="290"/>
-      <c r="U18" s="290"/>
-      <c r="V18" s="291"/>
+      <c r="R18" s="294"/>
+      <c r="S18" s="294"/>
+      <c r="T18" s="294"/>
+      <c r="U18" s="294"/>
+      <c r="V18" s="295"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="215"/>
@@ -17523,16 +17608,16 @@
       </c>
       <c r="N19" s="276"/>
       <c r="P19" s="215"/>
-      <c r="Q19" s="292" t="s">
+      <c r="Q19" s="296" t="s">
         <v>175</v>
       </c>
-      <c r="R19" s="292"/>
-      <c r="S19" s="292"/>
-      <c r="T19" s="293" t="s">
+      <c r="R19" s="296"/>
+      <c r="S19" s="296"/>
+      <c r="T19" s="297" t="s">
         <v>95</v>
       </c>
-      <c r="U19" s="293"/>
-      <c r="V19" s="294"/>
+      <c r="U19" s="297"/>
+      <c r="V19" s="298"/>
     </row>
     <row r="20" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="215"/>
@@ -17729,14 +17814,14 @@
       <c r="N24" s="216"/>
       <c r="O24" s="216"/>
       <c r="P24" s="254"/>
-      <c r="Q24" s="290" t="s">
+      <c r="Q24" s="294" t="s">
         <v>176</v>
       </c>
-      <c r="R24" s="290"/>
-      <c r="S24" s="290"/>
-      <c r="T24" s="290"/>
-      <c r="U24" s="290"/>
-      <c r="V24" s="291"/>
+      <c r="R24" s="294"/>
+      <c r="S24" s="294"/>
+      <c r="T24" s="294"/>
+      <c r="U24" s="294"/>
+      <c r="V24" s="295"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="223" t="s">

--- a/MUSCShield_form.xlsx
+++ b/MUSCShield_form.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="9720" windowHeight="3270" tabRatio="549"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="9720" windowHeight="3270" tabRatio="549" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -657,7 +657,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="184">
   <si>
     <t>Shielding Calculations</t>
   </si>
@@ -966,9 +966,6 @@
   </si>
   <si>
     <t>Eugene Mah, M.Sc.</t>
-  </si>
-  <si>
-    <t>Hospital</t>
   </si>
   <si>
     <t>Revision 1.0.2.25032002</t>
@@ -1914,7 +1911,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="301">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -2666,6 +2663,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="13" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2696,8 +2695,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>41275</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>650875</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>139192</xdr:rowOff>
     </xdr:to>
@@ -3513,9 +3512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:I32"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12883,14 +12880,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.6640625" style="145" customWidth="1"/>
-    <col min="2" max="4" width="10.6640625" style="145"/>
+    <col min="2" max="2" width="14" style="145" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="145"/>
+    <col min="4" max="4" width="12.6640625" style="145" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="145" customWidth="1"/>
     <col min="6" max="6" width="15.83203125" style="145" customWidth="1"/>
     <col min="7" max="19" width="10.6640625" style="145"/>
@@ -12902,18 +12901,19 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D1" s="205" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I1" s="146" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M1" s="147" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="144" t="s">
-        <v>103</v>
+      <c r="A2" s="144">
+        <f>Table!B3</f>
+        <v>0</v>
       </c>
       <c r="L2" s="147" t="s">
         <v>3</v>
@@ -12942,11 +12942,11 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="145" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="148"/>
       <c r="D5" s="149" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E5" s="150"/>
       <c r="L5" s="147" t="s">
@@ -12966,7 +12966,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="144" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L7" s="147" t="s">
         <v>22</v>
@@ -12985,7 +12985,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="145" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L9" s="147" t="s">
         <v>30</v>
@@ -13016,13 +13016,13 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="145" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="145" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="145" t="s">
+      <c r="F12" s="145" t="s">
         <v>110</v>
-      </c>
-      <c r="F12" s="145" t="s">
-        <v>111</v>
       </c>
       <c r="L12" s="155" t="s">
         <v>39</v>
@@ -13088,13 +13088,13 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14" s="145" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="145" t="s">
         <v>112</v>
       </c>
-      <c r="F14" s="145" t="s">
+      <c r="G14" s="145" t="s">
         <v>113</v>
-      </c>
-      <c r="G14" s="145" t="s">
-        <v>114</v>
       </c>
       <c r="L14" s="160" t="s">
         <v>50</v>
@@ -13131,25 +13131,25 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" s="145" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="145" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="145" t="s">
+      <c r="D15" s="145" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="145" t="s">
+      <c r="E15" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="145" t="s">
-        <v>118</v>
-      </c>
       <c r="F15" s="145" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G15" s="145" t="s">
+        <v>181</v>
+      </c>
+      <c r="H15" s="145" t="s">
         <v>182</v>
-      </c>
-      <c r="H15" s="145" t="s">
-        <v>183</v>
       </c>
       <c r="L15" s="164" t="s">
         <v>52</v>
@@ -13267,13 +13267,13 @@
       <c r="B18" s="167"/>
       <c r="C18" s="167"/>
       <c r="D18" s="167" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="167" t="s">
         <v>120</v>
       </c>
-      <c r="E18" s="167" t="s">
+      <c r="F18" s="291" t="s">
         <v>121</v>
-      </c>
-      <c r="F18" s="291" t="s">
-        <v>122</v>
       </c>
       <c r="G18" s="167"/>
       <c r="H18" s="167"/>
@@ -13314,13 +13314,13 @@
       <c r="A19" s="167"/>
       <c r="B19" s="167"/>
       <c r="C19" s="167" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="167" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="167" t="s">
-        <v>114</v>
-      </c>
       <c r="E19" s="167" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F19" s="291"/>
       <c r="G19" s="167" t="s">
@@ -13344,26 +13344,26 @@
         <v>67</v>
       </c>
       <c r="B20" s="168" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C20" s="168" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D20" s="168" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E20" s="168" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F20" s="292"/>
       <c r="G20" s="168" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" s="168" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="293" t="s">
         <v>123</v>
-      </c>
-      <c r="H20" s="168" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="293" t="s">
-        <v>124</v>
       </c>
       <c r="M20" s="293"/>
       <c r="N20" s="293"/>
@@ -13385,11 +13385,11 @@
       <c r="A21" s="165"/>
       <c r="B21" s="165"/>
       <c r="C21" s="166"/>
-      <c r="D21" s="169" t="str">
+      <c r="D21" s="299" t="str">
         <f t="shared" ref="D21:D28" si="0">IF(A21="","",B21*RefOutput*(RefDist/C21)^2)</f>
         <v/>
       </c>
-      <c r="E21" s="165"/>
+      <c r="E21" s="300"/>
       <c r="F21" s="170" t="str">
         <f>IF(OR(D21="TBD",D21=""),"",E21/(D21*1000))</f>
         <v/>
@@ -13403,7 +13403,7 @@
         <v/>
       </c>
       <c r="L21" s="147" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M21" s="147" t="s">
         <v>48</v>
@@ -13437,11 +13437,11 @@
       <c r="A22" s="165"/>
       <c r="B22" s="165"/>
       <c r="C22" s="166"/>
-      <c r="D22" s="169" t="str">
+      <c r="D22" s="299" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E22" s="165"/>
+      <c r="E22" s="300"/>
       <c r="F22" s="170" t="str">
         <f t="shared" ref="F22:F28" si="2">IF(OR(D22="TBD",D22=""),"",E22/(D22*1000))</f>
         <v/>
@@ -13496,11 +13496,11 @@
       <c r="A23" s="165"/>
       <c r="B23" s="165"/>
       <c r="C23" s="166"/>
-      <c r="D23" s="169" t="str">
+      <c r="D23" s="299" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E23" s="165"/>
+      <c r="E23" s="300"/>
       <c r="F23" s="170" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -13555,11 +13555,11 @@
       <c r="A24" s="165"/>
       <c r="B24" s="165"/>
       <c r="C24" s="166"/>
-      <c r="D24" s="169" t="str">
+      <c r="D24" s="299" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E24" s="165"/>
+      <c r="E24" s="300"/>
       <c r="F24" s="170" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -13614,11 +13614,11 @@
       <c r="A25" s="165"/>
       <c r="B25" s="165"/>
       <c r="C25" s="166"/>
-      <c r="D25" s="169" t="str">
+      <c r="D25" s="299" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E25" s="165"/>
+      <c r="E25" s="300"/>
       <c r="F25" s="170" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -13673,11 +13673,11 @@
       <c r="A26" s="165"/>
       <c r="B26" s="165"/>
       <c r="C26" s="166"/>
-      <c r="D26" s="169" t="str">
+      <c r="D26" s="299" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E26" s="165"/>
+      <c r="E26" s="300"/>
       <c r="F26" s="170" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -14012,7 +14012,7 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="145" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T34" s="158">
         <v>3.9687500010000001</v>
@@ -17305,13 +17305,13 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="209" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="209"/>
       <c r="C1" s="209"/>
       <c r="D1" s="209"/>
       <c r="J1" s="266" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K1" s="265"/>
       <c r="L1" s="265"/>
@@ -17325,13 +17325,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="211" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="209"/>
       <c r="C2" s="209"/>
       <c r="D2" s="209"/>
       <c r="J2" s="278" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K2" s="216"/>
       <c r="L2" s="216"/>
@@ -17345,13 +17345,13 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="209" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="209"/>
       <c r="C3" s="209"/>
       <c r="D3" s="209"/>
       <c r="J3" s="278" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K3" s="216"/>
       <c r="L3" s="216"/>
@@ -17365,7 +17365,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="J4" s="278" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K4" s="216"/>
       <c r="L4" s="216"/>
@@ -17379,7 +17379,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="J5" s="281" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K5" s="216"/>
       <c r="L5" s="216"/>
@@ -17393,10 +17393,10 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="209" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J6" s="281" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K6" s="216"/>
       <c r="L6" s="216"/>
@@ -17434,12 +17434,12 @@
     </row>
     <row r="9" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="209" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="J10" s="266" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K10" s="265"/>
       <c r="L10" s="265"/>
@@ -17453,7 +17453,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="J11" s="278" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K11" s="216"/>
       <c r="L11" s="216"/>
@@ -17467,7 +17467,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="J12" s="278" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K12" s="216"/>
       <c r="L12" s="216"/>
@@ -17481,10 +17481,10 @@
     </row>
     <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="212" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="213" t="s">
         <v>133</v>
-      </c>
-      <c r="B13" s="213" t="s">
-        <v>134</v>
       </c>
       <c r="C13" s="214"/>
       <c r="J13" s="278"/>
@@ -17503,7 +17503,7 @@
       <c r="B14" s="217"/>
       <c r="C14" s="218"/>
       <c r="J14" s="278" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K14" s="216"/>
       <c r="L14" s="216"/>
@@ -17520,7 +17520,7 @@
       <c r="B15" s="217"/>
       <c r="C15" s="218"/>
       <c r="J15" s="278" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K15" s="216"/>
       <c r="L15" s="216"/>
@@ -17537,7 +17537,7 @@
       <c r="B16" s="221"/>
       <c r="C16" s="222"/>
       <c r="J16" s="275" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K16" s="274"/>
       <c r="L16" s="274"/>
@@ -17552,7 +17552,7 @@
     <row r="17" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="223" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B18" s="224"/>
       <c r="C18" s="224"/>
@@ -17563,7 +17563,7 @@
       <c r="H18" s="216"/>
       <c r="I18" s="216"/>
       <c r="J18" s="266" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K18" s="265"/>
       <c r="L18" s="265"/>
@@ -17571,7 +17571,7 @@
       <c r="N18" s="264"/>
       <c r="P18" s="279"/>
       <c r="Q18" s="294" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R18" s="294"/>
       <c r="S18" s="294"/>
@@ -17582,12 +17582,12 @@
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="215"/>
       <c r="B19" s="269" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C19" s="39"/>
       <c r="D19" s="216"/>
       <c r="E19" s="269" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F19" s="235">
         <f>+C19*C20*5</f>
@@ -17597,19 +17597,19 @@
       <c r="H19" s="216"/>
       <c r="I19" s="216"/>
       <c r="J19" s="278" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K19" s="216"/>
       <c r="L19" s="261">
         <v>5</v>
       </c>
       <c r="M19" s="277" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N19" s="276"/>
       <c r="P19" s="215"/>
       <c r="Q19" s="296" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R19" s="296"/>
       <c r="S19" s="296"/>
@@ -17622,12 +17622,12 @@
     <row r="20" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="215"/>
       <c r="B20" s="269" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C20" s="39"/>
       <c r="D20" s="216"/>
       <c r="E20" s="270" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F20" s="235">
         <f>+F19*52</f>
@@ -17637,14 +17637,14 @@
       <c r="H20" s="216"/>
       <c r="I20" s="216"/>
       <c r="J20" s="275" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K20" s="274"/>
       <c r="L20" s="273">
         <v>1</v>
       </c>
       <c r="M20" s="272" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N20" s="271"/>
       <c r="P20" s="29" t="s">
@@ -17672,12 +17672,12 @@
     <row r="21" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="215"/>
       <c r="B21" s="268" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C21" s="39"/>
       <c r="D21" s="216"/>
       <c r="E21" s="270" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F21" s="235">
         <f>+F20*C22</f>
@@ -17711,12 +17711,12 @@
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="215"/>
       <c r="B22" s="269" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C22" s="39"/>
       <c r="D22" s="216"/>
       <c r="E22" s="268" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F22" s="267">
         <f>+F19*C22/60</f>
@@ -17726,7 +17726,7 @@
       <c r="H22" s="216"/>
       <c r="I22" s="216"/>
       <c r="J22" s="266" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K22" s="265"/>
       <c r="L22" s="264"/>
@@ -17761,7 +17761,7 @@
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="219"/>
       <c r="B23" s="230" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C23" s="39"/>
       <c r="D23" s="220"/>
@@ -17771,7 +17771,7 @@
       <c r="H23" s="216"/>
       <c r="I23" s="216"/>
       <c r="J23" s="260" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K23" s="226"/>
       <c r="L23" s="259">
@@ -17804,7 +17804,7 @@
     </row>
     <row r="24" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J24" s="257" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K24" s="256"/>
       <c r="L24" s="255">
@@ -17815,7 +17815,7 @@
       <c r="O24" s="216"/>
       <c r="P24" s="254"/>
       <c r="Q24" s="294" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R24" s="294"/>
       <c r="S24" s="294"/>
@@ -17825,7 +17825,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="223" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B25" s="227"/>
       <c r="C25" s="227"/>
@@ -17840,7 +17840,7 @@
       <c r="O25" s="216"/>
       <c r="P25" s="215"/>
       <c r="Q25" s="242" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R25" s="242"/>
       <c r="S25" s="242"/>
@@ -17856,15 +17856,15 @@
       <c r="C26" s="250"/>
       <c r="D26" s="250"/>
       <c r="E26" s="250" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F26" s="250"/>
       <c r="G26" s="250"/>
       <c r="H26" s="249" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L26" s="210" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P26" s="29" t="s">
         <v>37</v>
@@ -17891,24 +17891,24 @@
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="282"/>
       <c r="B27" s="250" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C27" s="235"/>
       <c r="D27" s="250"/>
       <c r="E27" s="250" t="s">
+        <v>160</v>
+      </c>
+      <c r="F27" s="250" t="s">
         <v>161</v>
       </c>
-      <c r="F27" s="250" t="s">
-        <v>162</v>
-      </c>
       <c r="G27" s="250" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H27" s="249" t="s">
         <v>48</v>
       </c>
       <c r="L27" s="210" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P27" s="248">
         <f>C23</f>
@@ -17941,46 +17941,46 @@
     </row>
     <row r="28" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="283" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" s="247" t="s">
         <v>165</v>
-      </c>
-      <c r="B28" s="247" t="s">
-        <v>166</v>
       </c>
       <c r="C28" s="247" t="s">
         <v>74</v>
       </c>
       <c r="D28" s="247" t="s">
+        <v>166</v>
+      </c>
+      <c r="E28" s="247" t="s">
         <v>167</v>
       </c>
-      <c r="E28" s="247" t="s">
+      <c r="F28" s="247" t="s">
         <v>168</v>
       </c>
-      <c r="F28" s="247" t="s">
+      <c r="G28" s="247" t="s">
         <v>169</v>
       </c>
-      <c r="G28" s="247" t="s">
-        <v>170</v>
-      </c>
       <c r="H28" s="246" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J28" s="210" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K28" s="210" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L28" s="210" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M28" s="236" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O28" s="236" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P28" s="236" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
@@ -18742,7 +18742,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="210" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J50" s="233"/>
       <c r="K50" s="235"/>

--- a/MUSCShield_form.xlsx
+++ b/MUSCShield_form.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="9720" windowHeight="3270" tabRatio="549" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="9720" windowHeight="3270" tabRatio="688" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -1856,7 +1856,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1899,8 +1899,20 @@
         <bgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="45">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -2380,6 +2392,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2395,7 +2440,7 @@
     </xf>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="333">
+  <cellXfs count="338">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -3125,40 +3170,7 @@
     </xf>
     <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="13" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3173,9 +3185,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="4" applyNumberFormat="1">
       <alignment horizontal="center"/>
@@ -3184,12 +3193,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="4" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="4" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3213,9 +3216,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3229,13 +3229,73 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="4" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="46" xfId="4" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="47" xfId="4" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="24" xfId="4" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="8" borderId="24" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="24" fillId="8" borderId="24" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="24" xfId="4" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -13144,7 +13204,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13154,65 +13214,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="324" t="s">
+      <c r="A1" s="310" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="324" t="s">
+      <c r="A2" s="310" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="324" t="s">
+      <c r="A3" s="310" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="324" t="s">
+      <c r="A4" s="310" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="324" t="s">
+      <c r="A5" s="310" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E6" s="325" t="s">
+      <c r="E6" s="328" t="s">
         <v>265</v>
       </c>
-      <c r="F6" s="325"/>
-      <c r="G6" s="325"/>
-      <c r="H6" s="325"/>
-      <c r="I6" s="325"/>
-    </row>
-    <row r="7" spans="1:9" s="322" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="331" t="s">
+      <c r="F6" s="328"/>
+      <c r="G6" s="328"/>
+      <c r="H6" s="328"/>
+      <c r="I6" s="328"/>
+    </row>
+    <row r="7" spans="1:9" s="308" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="315" t="s">
         <v>266</v>
       </c>
-      <c r="B7" s="331" t="s">
+      <c r="B7" s="315" t="s">
         <v>267</v>
       </c>
-      <c r="C7" s="331" t="s">
+      <c r="C7" s="315" t="s">
         <v>268</v>
       </c>
-      <c r="D7" s="331" t="s">
+      <c r="D7" s="315" t="s">
         <v>269</v>
       </c>
-      <c r="E7" s="331" t="s">
+      <c r="E7" s="315" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="331" t="s">
+      <c r="F7" s="315" t="s">
         <v>270</v>
       </c>
-      <c r="G7" s="331" t="s">
+      <c r="G7" s="315" t="s">
         <v>271</v>
       </c>
-      <c r="H7" s="331" t="s">
+      <c r="H7" s="315" t="s">
         <v>272</v>
       </c>
-      <c r="I7" s="331" t="s">
+      <c r="I7" s="315" t="s">
         <v>273</v>
       </c>
     </row>
@@ -13526,12 +13586,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="324" t="s">
+      <c r="A1" s="310" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="324" t="s">
+      <c r="A2" s="310" t="s">
         <v>275</v>
       </c>
     </row>
@@ -13629,65 +13689,65 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A1" s="324" t="s">
+      <c r="A1" s="310" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B4" s="325" t="s">
+      <c r="B4" s="328" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="325"/>
-      <c r="D4" s="325"/>
-      <c r="E4" s="325"/>
-      <c r="F4" s="325"/>
-      <c r="G4" s="325" t="s">
+      <c r="C4" s="328"/>
+      <c r="D4" s="328"/>
+      <c r="E4" s="328"/>
+      <c r="F4" s="328"/>
+      <c r="G4" s="328" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="325"/>
-      <c r="I4" s="325"/>
-      <c r="J4" s="325"/>
-      <c r="K4" s="325"/>
-      <c r="L4" s="325" t="s">
+      <c r="H4" s="328"/>
+      <c r="I4" s="328"/>
+      <c r="J4" s="328"/>
+      <c r="K4" s="328"/>
+      <c r="L4" s="328" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="325"/>
-      <c r="N4" s="325"/>
-      <c r="O4" s="325"/>
-      <c r="P4" s="325"/>
-      <c r="Q4" s="325" t="s">
+      <c r="M4" s="328"/>
+      <c r="N4" s="328"/>
+      <c r="O4" s="328"/>
+      <c r="P4" s="328"/>
+      <c r="Q4" s="328" t="s">
         <v>54</v>
       </c>
-      <c r="R4" s="325"/>
-      <c r="S4" s="325"/>
-      <c r="T4" s="325"/>
-      <c r="U4" s="325"/>
-      <c r="V4" s="325" t="s">
+      <c r="R4" s="328"/>
+      <c r="S4" s="328"/>
+      <c r="T4" s="328"/>
+      <c r="U4" s="328"/>
+      <c r="V4" s="328" t="s">
         <v>96</v>
       </c>
-      <c r="W4" s="325"/>
-      <c r="X4" s="325"/>
-      <c r="Y4" s="325"/>
-      <c r="Z4" s="325"/>
-      <c r="AA4" s="325" t="s">
+      <c r="W4" s="328"/>
+      <c r="X4" s="328"/>
+      <c r="Y4" s="328"/>
+      <c r="Z4" s="328"/>
+      <c r="AA4" s="328" t="s">
         <v>58</v>
       </c>
-      <c r="AB4" s="325"/>
-      <c r="AC4" s="325"/>
-      <c r="AD4" s="325"/>
-      <c r="AE4" s="325"/>
+      <c r="AB4" s="328"/>
+      <c r="AC4" s="328"/>
+      <c r="AD4" s="328"/>
+      <c r="AE4" s="328"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="329" t="s">
+      <c r="B5" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="329" t="s">
+      <c r="C5" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="329" t="s">
+      <c r="D5" s="314" t="s">
         <v>42</v>
       </c>
       <c r="E5" t="s">
@@ -13696,13 +13756,13 @@
       <c r="F5" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="329" t="s">
+      <c r="G5" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="329" t="s">
+      <c r="H5" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="329" t="s">
+      <c r="I5" s="314" t="s">
         <v>42</v>
       </c>
       <c r="J5" t="s">
@@ -13711,13 +13771,13 @@
       <c r="K5" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="329" t="s">
+      <c r="L5" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="329" t="s">
+      <c r="M5" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="329" t="s">
+      <c r="N5" s="314" t="s">
         <v>42</v>
       </c>
       <c r="O5" t="s">
@@ -13726,13 +13786,13 @@
       <c r="P5" t="s">
         <v>45</v>
       </c>
-      <c r="Q5" s="329" t="s">
+      <c r="Q5" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="R5" s="329" t="s">
+      <c r="R5" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="S5" s="329" t="s">
+      <c r="S5" s="314" t="s">
         <v>42</v>
       </c>
       <c r="T5" t="s">
@@ -13741,13 +13801,13 @@
       <c r="U5" t="s">
         <v>45</v>
       </c>
-      <c r="V5" s="329" t="s">
+      <c r="V5" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="W5" s="329" t="s">
+      <c r="W5" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="X5" s="329" t="s">
+      <c r="X5" s="314" t="s">
         <v>42</v>
       </c>
       <c r="Y5" t="s">
@@ -13756,13 +13816,13 @@
       <c r="Z5" t="s">
         <v>45</v>
       </c>
-      <c r="AA5" s="329" t="s">
+      <c r="AA5" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="AB5" s="329" t="s">
+      <c r="AB5" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="AC5" s="329" t="s">
+      <c r="AC5" s="314" t="s">
         <v>42</v>
       </c>
       <c r="AD5" t="s">
@@ -16153,7 +16213,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="324" t="s">
+      <c r="A34" s="310" t="s">
         <v>287</v>
       </c>
     </row>
@@ -16401,12 +16461,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="AA4:AE4"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G4:K4"/>
     <mergeCell ref="L4:P4"/>
     <mergeCell ref="Q4:U4"/>
     <mergeCell ref="V4:Z4"/>
-    <mergeCell ref="AA4:AE4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16426,7 +16486,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="324" t="s">
+      <c r="A1" s="310" t="s">
         <v>288</v>
       </c>
     </row>
@@ -16434,91 +16494,91 @@
       <c r="A3" s="330" t="s">
         <v>266</v>
       </c>
-      <c r="B3" s="325" t="s">
+      <c r="B3" s="328" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="325"/>
-      <c r="D3" s="325"/>
-      <c r="E3" s="325" t="s">
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="328" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="325"/>
-      <c r="G3" s="325"/>
-      <c r="H3" s="325" t="s">
+      <c r="F3" s="328"/>
+      <c r="G3" s="328"/>
+      <c r="H3" s="328" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="325"/>
-      <c r="J3" s="325"/>
-      <c r="K3" s="325" t="s">
+      <c r="I3" s="328"/>
+      <c r="J3" s="328"/>
+      <c r="K3" s="328" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="325"/>
-      <c r="M3" s="325"/>
-      <c r="N3" s="325" t="s">
+      <c r="L3" s="328"/>
+      <c r="M3" s="328"/>
+      <c r="N3" s="328" t="s">
         <v>96</v>
       </c>
-      <c r="O3" s="325"/>
-      <c r="P3" s="325"/>
-      <c r="Q3" s="325" t="s">
+      <c r="O3" s="328"/>
+      <c r="P3" s="328"/>
+      <c r="Q3" s="328" t="s">
         <v>58</v>
       </c>
-      <c r="R3" s="325"/>
-      <c r="S3" s="325"/>
+      <c r="R3" s="328"/>
+      <c r="S3" s="328"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="330"/>
-      <c r="B4" s="329" t="s">
+      <c r="B4" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="329" t="s">
+      <c r="C4" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="329" t="s">
+      <c r="D4" s="314" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="329" t="s">
+      <c r="E4" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="329" t="s">
+      <c r="F4" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="329" t="s">
+      <c r="G4" s="314" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="329" t="s">
+      <c r="H4" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="329" t="s">
+      <c r="I4" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="329" t="s">
+      <c r="J4" s="314" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="329" t="s">
+      <c r="K4" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="329" t="s">
+      <c r="L4" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="329" t="s">
+      <c r="M4" s="314" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="329" t="s">
+      <c r="N4" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="329" t="s">
+      <c r="O4" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="329" t="s">
+      <c r="P4" s="314" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="329" t="s">
+      <c r="Q4" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="329" t="s">
+      <c r="R4" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="329" t="s">
+      <c r="S4" s="314" t="s">
         <v>42</v>
       </c>
     </row>
@@ -17055,13 +17115,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17081,7 +17141,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="324" t="s">
+      <c r="A1" s="310" t="s">
         <v>297</v>
       </c>
     </row>
@@ -17089,91 +17149,91 @@
       <c r="A3" s="330" t="s">
         <v>266</v>
       </c>
-      <c r="B3" s="325" t="s">
+      <c r="B3" s="328" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="325"/>
-      <c r="D3" s="325"/>
-      <c r="E3" s="325" t="s">
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="328" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="325"/>
-      <c r="G3" s="325"/>
-      <c r="H3" s="325" t="s">
+      <c r="F3" s="328"/>
+      <c r="G3" s="328"/>
+      <c r="H3" s="328" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="325"/>
-      <c r="J3" s="325"/>
-      <c r="K3" s="325" t="s">
+      <c r="I3" s="328"/>
+      <c r="J3" s="328"/>
+      <c r="K3" s="328" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="325"/>
-      <c r="M3" s="325"/>
-      <c r="N3" s="325" t="s">
+      <c r="L3" s="328"/>
+      <c r="M3" s="328"/>
+      <c r="N3" s="328" t="s">
         <v>96</v>
       </c>
-      <c r="O3" s="325"/>
-      <c r="P3" s="325"/>
-      <c r="Q3" s="325" t="s">
+      <c r="O3" s="328"/>
+      <c r="P3" s="328"/>
+      <c r="Q3" s="328" t="s">
         <v>58</v>
       </c>
-      <c r="R3" s="325"/>
-      <c r="S3" s="325"/>
+      <c r="R3" s="328"/>
+      <c r="S3" s="328"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="330"/>
-      <c r="B4" s="329" t="s">
+      <c r="B4" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="329" t="s">
+      <c r="C4" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="329" t="s">
+      <c r="D4" s="314" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="329" t="s">
+      <c r="E4" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="329" t="s">
+      <c r="F4" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="329" t="s">
+      <c r="G4" s="314" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="329" t="s">
+      <c r="H4" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="329" t="s">
+      <c r="I4" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="329" t="s">
+      <c r="J4" s="314" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="329" t="s">
+      <c r="K4" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="329" t="s">
+      <c r="L4" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="329" t="s">
+      <c r="M4" s="314" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="329" t="s">
+      <c r="N4" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="329" t="s">
+      <c r="O4" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="329" t="s">
+      <c r="P4" s="314" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="329" t="s">
+      <c r="Q4" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="329" t="s">
+      <c r="R4" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="329" t="s">
+      <c r="S4" s="314" t="s">
         <v>42</v>
       </c>
     </row>
@@ -18064,13 +18124,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18080,105 +18140,105 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="324" t="s">
+      <c r="A1" s="310" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B2" s="325" t="s">
+      <c r="B2" s="328" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="325"/>
-      <c r="D2" s="325"/>
-      <c r="E2" s="325" t="s">
+      <c r="C2" s="328"/>
+      <c r="D2" s="328"/>
+      <c r="E2" s="328" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="325"/>
-      <c r="G2" s="325"/>
-      <c r="H2" s="325" t="s">
+      <c r="F2" s="328"/>
+      <c r="G2" s="328"/>
+      <c r="H2" s="328" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="325"/>
-      <c r="J2" s="325"/>
-      <c r="K2" s="325" t="s">
+      <c r="I2" s="328"/>
+      <c r="J2" s="328"/>
+      <c r="K2" s="328" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="325"/>
-      <c r="M2" s="325"/>
-      <c r="N2" s="325" t="s">
+      <c r="L2" s="328"/>
+      <c r="M2" s="328"/>
+      <c r="N2" s="328" t="s">
         <v>96</v>
       </c>
-      <c r="O2" s="325"/>
-      <c r="P2" s="325"/>
-      <c r="Q2" s="325" t="s">
+      <c r="O2" s="328"/>
+      <c r="P2" s="328"/>
+      <c r="Q2" s="328" t="s">
         <v>58</v>
       </c>
-      <c r="R2" s="325"/>
-      <c r="S2" s="325"/>
+      <c r="R2" s="328"/>
+      <c r="S2" s="328"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="329" t="s">
+      <c r="B3" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="329" t="s">
+      <c r="C3" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="329" t="s">
+      <c r="D3" s="314" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="329" t="s">
+      <c r="E3" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="329" t="s">
+      <c r="F3" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="329" t="s">
+      <c r="G3" s="314" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="329" t="s">
+      <c r="H3" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="329" t="s">
+      <c r="I3" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="329" t="s">
+      <c r="J3" s="314" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="329" t="s">
+      <c r="K3" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="329" t="s">
+      <c r="L3" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="329" t="s">
+      <c r="M3" s="314" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="329" t="s">
+      <c r="N3" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="329" t="s">
+      <c r="O3" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="329" t="s">
+      <c r="P3" s="314" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="329" t="s">
+      <c r="Q3" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="329" t="s">
+      <c r="R3" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="329" t="s">
+      <c r="S3" s="314" t="s">
         <v>42</v>
       </c>
     </row>
@@ -18422,103 +18482,103 @@
       <c r="A9" t="s">
         <v>299</v>
       </c>
-      <c r="B9" s="323" t="s">
+      <c r="B9" s="309" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="324" t="s">
+      <c r="A11" s="310" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="325" t="s">
+      <c r="B12" s="328" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="325"/>
-      <c r="D12" s="325"/>
-      <c r="E12" s="325" t="s">
+      <c r="C12" s="328"/>
+      <c r="D12" s="328"/>
+      <c r="E12" s="328" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="325"/>
-      <c r="G12" s="325"/>
-      <c r="H12" s="325" t="s">
+      <c r="F12" s="328"/>
+      <c r="G12" s="328"/>
+      <c r="H12" s="328" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="325"/>
-      <c r="J12" s="325"/>
-      <c r="K12" s="325" t="s">
+      <c r="I12" s="328"/>
+      <c r="J12" s="328"/>
+      <c r="K12" s="328" t="s">
         <v>54</v>
       </c>
-      <c r="L12" s="325"/>
-      <c r="M12" s="325"/>
-      <c r="N12" s="325" t="s">
+      <c r="L12" s="328"/>
+      <c r="M12" s="328"/>
+      <c r="N12" s="328" t="s">
         <v>96</v>
       </c>
-      <c r="O12" s="325"/>
-      <c r="P12" s="325"/>
-      <c r="Q12" s="325" t="s">
+      <c r="O12" s="328"/>
+      <c r="P12" s="328"/>
+      <c r="Q12" s="328" t="s">
         <v>58</v>
       </c>
-      <c r="R12" s="325"/>
-      <c r="S12" s="325"/>
+      <c r="R12" s="328"/>
+      <c r="S12" s="328"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="329" t="s">
+      <c r="B13" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="329" t="s">
+      <c r="C13" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="329" t="s">
+      <c r="D13" s="314" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="329" t="s">
+      <c r="E13" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="329" t="s">
+      <c r="F13" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="329" t="s">
+      <c r="G13" s="314" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="329" t="s">
+      <c r="H13" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="329" t="s">
+      <c r="I13" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="329" t="s">
+      <c r="J13" s="314" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="329" t="s">
+      <c r="K13" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="329" t="s">
+      <c r="L13" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="M13" s="329" t="s">
+      <c r="M13" s="314" t="s">
         <v>42</v>
       </c>
-      <c r="N13" s="329" t="s">
+      <c r="N13" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="329" t="s">
+      <c r="O13" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="P13" s="329" t="s">
+      <c r="P13" s="314" t="s">
         <v>42</v>
       </c>
-      <c r="Q13" s="329" t="s">
+      <c r="Q13" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="R13" s="329" t="s">
+      <c r="R13" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="329" t="s">
+      <c r="S13" s="314" t="s">
         <v>42</v>
       </c>
     </row>
@@ -18880,103 +18940,103 @@
       <c r="A21" t="s">
         <v>299</v>
       </c>
-      <c r="B21" s="323" t="s">
+      <c r="B21" s="309" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="324" t="s">
+      <c r="A23" s="310" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B24" s="325" t="s">
+      <c r="B24" s="328" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="325"/>
-      <c r="D24" s="325"/>
-      <c r="E24" s="325" t="s">
+      <c r="C24" s="328"/>
+      <c r="D24" s="328"/>
+      <c r="E24" s="328" t="s">
         <v>95</v>
       </c>
-      <c r="F24" s="325"/>
-      <c r="G24" s="325"/>
-      <c r="H24" s="325" t="s">
+      <c r="F24" s="328"/>
+      <c r="G24" s="328"/>
+      <c r="H24" s="328" t="s">
         <v>52</v>
       </c>
-      <c r="I24" s="325"/>
-      <c r="J24" s="325"/>
-      <c r="K24" s="325" t="s">
+      <c r="I24" s="328"/>
+      <c r="J24" s="328"/>
+      <c r="K24" s="328" t="s">
         <v>54</v>
       </c>
-      <c r="L24" s="325"/>
-      <c r="M24" s="325"/>
-      <c r="N24" s="325" t="s">
+      <c r="L24" s="328"/>
+      <c r="M24" s="328"/>
+      <c r="N24" s="328" t="s">
         <v>96</v>
       </c>
-      <c r="O24" s="325"/>
-      <c r="P24" s="325"/>
-      <c r="Q24" s="325" t="s">
+      <c r="O24" s="328"/>
+      <c r="P24" s="328"/>
+      <c r="Q24" s="328" t="s">
         <v>58</v>
       </c>
-      <c r="R24" s="325"/>
-      <c r="S24" s="325"/>
+      <c r="R24" s="328"/>
+      <c r="S24" s="328"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="329" t="s">
+      <c r="B25" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="329" t="s">
+      <c r="C25" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="329" t="s">
+      <c r="D25" s="314" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="329" t="s">
+      <c r="E25" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="329" t="s">
+      <c r="F25" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="329" t="s">
+      <c r="G25" s="314" t="s">
         <v>42</v>
       </c>
-      <c r="H25" s="329" t="s">
+      <c r="H25" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="329" t="s">
+      <c r="I25" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="J25" s="329" t="s">
+      <c r="J25" s="314" t="s">
         <v>42</v>
       </c>
-      <c r="K25" s="329" t="s">
+      <c r="K25" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="L25" s="329" t="s">
+      <c r="L25" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="M25" s="329" t="s">
+      <c r="M25" s="314" t="s">
         <v>42</v>
       </c>
-      <c r="N25" s="329" t="s">
+      <c r="N25" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="O25" s="329" t="s">
+      <c r="O25" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="P25" s="329" t="s">
+      <c r="P25" s="314" t="s">
         <v>42</v>
       </c>
-      <c r="Q25" s="329" t="s">
+      <c r="Q25" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="R25" s="329" t="s">
+      <c r="R25" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="S25" s="329" t="s">
+      <c r="S25" s="314" t="s">
         <v>42</v>
       </c>
     </row>
@@ -19220,17 +19280,12 @@
       <c r="A31" t="s">
         <v>299</v>
       </c>
-      <c r="B31" s="323" t="s">
+      <c r="B31" s="309" t="s">
         <v>302</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:P24"/>
     <mergeCell ref="Q24:S24"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="E12:G12"/>
@@ -19238,12 +19293,17 @@
     <mergeCell ref="K12:M12"/>
     <mergeCell ref="N12:P12"/>
     <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19253,1172 +19313,1063 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="302" customWidth="1"/>
-    <col min="2" max="1026" width="8.6640625" style="302" customWidth="1"/>
-    <col min="1027" max="16384" width="9.33203125" style="302"/>
+    <col min="1" max="1" width="13.5" style="293" customWidth="1"/>
+    <col min="2" max="1026" width="8.6640625" style="293" customWidth="1"/>
+    <col min="1027" max="16384" width="9.33203125" style="293"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="303" t="s">
+      <c r="B1" s="316" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="303"/>
-      <c r="D1" s="303" t="s">
+      <c r="C1" s="316"/>
+      <c r="D1" s="316" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="303"/>
-      <c r="F1" s="303"/>
-      <c r="H1" s="304" t="s">
+      <c r="E1" s="316"/>
+      <c r="F1" s="316"/>
+      <c r="H1" s="317" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="304"/>
-      <c r="J1" s="304"/>
-      <c r="K1" s="305"/>
-      <c r="M1" s="306"/>
+      <c r="I1" s="317"/>
+      <c r="J1" s="317"/>
+      <c r="K1" s="294"/>
+      <c r="M1" s="295"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="302" t="s">
+      <c r="B2" s="293" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="302" t="s">
+      <c r="C2" s="293" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="302" t="s">
+      <c r="D2" s="293" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="302" t="s">
+      <c r="E2" s="293" t="s">
         <v>188</v>
       </c>
-      <c r="F2" s="302" t="s">
+      <c r="F2" s="293" t="s">
         <v>188</v>
       </c>
-      <c r="H2" s="307" t="s">
+      <c r="H2" s="296" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="307" t="s">
+      <c r="I2" s="296" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="307" t="s">
+      <c r="J2" s="331" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="308"/>
-      <c r="M2" s="306"/>
+      <c r="K2" s="297"/>
+      <c r="M2" s="295"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="302" t="s">
+      <c r="A3" s="293" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="317"/>
-      <c r="C3" s="317"/>
-      <c r="D3" s="317"/>
-      <c r="E3" s="317"/>
-      <c r="F3" s="317"/>
-      <c r="G3" s="302" t="s">
+      <c r="B3" s="334"/>
+      <c r="C3" s="334"/>
+      <c r="D3" s="334"/>
+      <c r="E3" s="334"/>
+      <c r="F3" s="334"/>
+      <c r="G3" s="293" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="306"/>
+      <c r="H3" s="303"/>
+      <c r="I3" s="303"/>
+      <c r="J3" s="303"/>
+      <c r="M3" s="295"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="302" t="s">
+      <c r="A4" s="293" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="317"/>
-      <c r="C4" s="317"/>
-      <c r="D4" s="317"/>
-      <c r="E4" s="317"/>
-      <c r="F4" s="317"/>
-      <c r="G4" s="302" t="s">
+      <c r="B4" s="334"/>
+      <c r="C4" s="334"/>
+      <c r="D4" s="334"/>
+      <c r="E4" s="334"/>
+      <c r="F4" s="334"/>
+      <c r="G4" s="293" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="306"/>
+      <c r="H4" s="303"/>
+      <c r="I4" s="303"/>
+      <c r="J4" s="303"/>
+      <c r="M4" s="295"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="302" t="s">
+      <c r="A5" s="293" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="317"/>
-      <c r="C5" s="317"/>
-      <c r="D5" s="317"/>
-      <c r="E5" s="317"/>
-      <c r="F5" s="317"/>
-      <c r="H5" s="309" t="s">
+      <c r="B5" s="334"/>
+      <c r="C5" s="334"/>
+      <c r="D5" s="334"/>
+      <c r="E5" s="334"/>
+      <c r="F5" s="334"/>
+      <c r="H5" s="318" t="s">
         <v>185</v>
       </c>
-      <c r="I5" s="309"/>
-      <c r="J5" s="309"/>
-      <c r="K5" s="305"/>
-      <c r="M5" s="306"/>
+      <c r="I5" s="318"/>
+      <c r="J5" s="317"/>
+      <c r="K5" s="294"/>
+      <c r="M5" s="295"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="302" t="s">
+      <c r="A6" s="293" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="317"/>
-      <c r="C6" s="317"/>
-      <c r="D6" s="317">
-        <v>64</v>
-      </c>
-      <c r="E6" s="317">
-        <v>0.32</v>
-      </c>
-      <c r="F6" s="317">
-        <v>0.46</v>
-      </c>
-      <c r="H6" s="307" t="s">
+      <c r="B6" s="334"/>
+      <c r="C6" s="334"/>
+      <c r="D6" s="334"/>
+      <c r="E6" s="334"/>
+      <c r="F6" s="334"/>
+      <c r="H6" s="296" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="307" t="s">
+      <c r="I6" s="296" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="307" t="s">
+      <c r="J6" s="331" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="308"/>
-      <c r="M6" s="306"/>
+      <c r="K6" s="297"/>
+      <c r="M6" s="295"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="302" t="s">
+      <c r="A7" s="293" t="s">
         <v>193</v>
       </c>
-      <c r="B7" s="317"/>
-      <c r="C7" s="317"/>
-      <c r="D7" s="317"/>
-      <c r="E7" s="317"/>
-      <c r="F7" s="317"/>
-      <c r="G7" s="302" t="s">
+      <c r="B7" s="335"/>
+      <c r="C7" s="334"/>
+      <c r="D7" s="335"/>
+      <c r="E7" s="334"/>
+      <c r="F7" s="334"/>
+      <c r="G7" s="293" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="302">
-        <v>2.661</v>
-      </c>
-      <c r="I7" s="302">
-        <v>19.54</v>
-      </c>
-      <c r="J7" s="302">
-        <v>0.50939999999999996</v>
-      </c>
-      <c r="M7" s="306"/>
+      <c r="H7" s="303"/>
+      <c r="I7" s="303"/>
+      <c r="J7" s="303"/>
+      <c r="M7" s="295"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G8" s="302" t="s">
+      <c r="G8" s="293" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="302">
-        <v>4.2189999999999998E-2</v>
-      </c>
-      <c r="I8" s="302">
-        <v>0.15590000000000001</v>
-      </c>
-      <c r="J8" s="302">
-        <v>0.44719999999999999</v>
-      </c>
-      <c r="M8" s="306"/>
+      <c r="H8" s="303"/>
+      <c r="I8" s="303"/>
+      <c r="J8" s="303"/>
+      <c r="M8" s="295"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="302" t="s">
+      <c r="A9" s="293" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="302">
+      <c r="B9" s="332">
         <v>40</v>
       </c>
-      <c r="M9" s="310"/>
+      <c r="M9" s="298"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="302" t="s">
+      <c r="A10" s="293" t="s">
         <v>195</v>
       </c>
-      <c r="B10" s="302">
+      <c r="B10" s="333">
         <v>10000</v>
       </c>
-      <c r="C10" s="302" t="s">
+      <c r="C10" s="293" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="302" t="s">
+      <c r="B12" s="293" t="s">
         <v>197</v>
       </c>
-      <c r="C12" s="302" t="s">
+      <c r="C12" s="293" t="s">
         <v>198</v>
       </c>
-      <c r="D12" s="302" t="s">
+      <c r="D12" s="293" t="s">
         <v>199</v>
       </c>
-      <c r="E12" s="302" t="s">
+      <c r="E12" s="293" t="s">
         <v>200</v>
       </c>
-      <c r="F12" s="302" t="s">
+      <c r="F12" s="293" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="302" t="s">
+      <c r="G12" s="293" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="302" t="s">
+      <c r="A13" s="293" t="s">
         <v>201</v>
       </c>
-      <c r="B13" s="317"/>
-      <c r="C13" s="317"/>
-      <c r="D13" s="318">
-        <f>16.7*12*0.0254</f>
-        <v>5.0901599999999991</v>
-      </c>
-      <c r="E13" s="317"/>
-      <c r="F13" s="317">
-        <v>0.02</v>
-      </c>
-      <c r="G13" s="317">
-        <v>0.05</v>
-      </c>
+      <c r="B13" s="334"/>
+      <c r="C13" s="334"/>
+      <c r="D13" s="336"/>
+      <c r="E13" s="334"/>
+      <c r="F13" s="334"/>
+      <c r="G13" s="334"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="302" t="s">
+      <c r="A14" s="293" t="s">
         <v>202</v>
       </c>
-      <c r="B14" s="317"/>
-      <c r="C14" s="317"/>
-      <c r="D14" s="318">
-        <f>20.2*12*0.0254</f>
-        <v>6.1569599999999989</v>
-      </c>
-      <c r="E14" s="317"/>
-      <c r="F14" s="317">
-        <v>0.02</v>
-      </c>
-      <c r="G14" s="317">
-        <v>0.25</v>
-      </c>
+      <c r="B14" s="334"/>
+      <c r="C14" s="334"/>
+      <c r="D14" s="336"/>
+      <c r="E14" s="334"/>
+      <c r="F14" s="334"/>
+      <c r="G14" s="334"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="302" t="s">
+      <c r="A15" s="293" t="s">
         <v>203</v>
       </c>
-      <c r="B15" s="317"/>
-      <c r="C15" s="317"/>
-      <c r="D15" s="318">
-        <v>7</v>
-      </c>
-      <c r="E15" s="317"/>
-      <c r="F15" s="317">
-        <v>0.02</v>
-      </c>
-      <c r="G15" s="317">
-        <v>1</v>
-      </c>
+      <c r="B15" s="334"/>
+      <c r="C15" s="334"/>
+      <c r="D15" s="336"/>
+      <c r="E15" s="334"/>
+      <c r="F15" s="334"/>
+      <c r="G15" s="334"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="302" t="s">
+      <c r="A16" s="293" t="s">
         <v>204</v>
       </c>
-      <c r="B16" s="317"/>
-      <c r="C16" s="317"/>
-      <c r="D16" s="318">
-        <f>16.7*12*0.0254</f>
-        <v>5.0901599999999991</v>
-      </c>
-      <c r="E16" s="317"/>
-      <c r="F16" s="317">
-        <v>0.02</v>
-      </c>
-      <c r="G16" s="317">
-        <v>0.25</v>
-      </c>
+      <c r="B16" s="334"/>
+      <c r="C16" s="334"/>
+      <c r="D16" s="336"/>
+      <c r="E16" s="334"/>
+      <c r="F16" s="334"/>
+      <c r="G16" s="334"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="302" t="s">
+      <c r="A17" s="293" t="s">
         <v>205</v>
       </c>
-      <c r="B17" s="317"/>
-      <c r="C17" s="317"/>
-      <c r="D17" s="318">
-        <f>16.6*12*0.0254</f>
-        <v>5.0596800000000002</v>
-      </c>
-      <c r="E17" s="317"/>
-      <c r="F17" s="317">
-        <v>0.1</v>
-      </c>
-      <c r="G17" s="317">
-        <v>1</v>
-      </c>
+      <c r="B17" s="334"/>
+      <c r="C17" s="334"/>
+      <c r="D17" s="336"/>
+      <c r="E17" s="334"/>
+      <c r="F17" s="334"/>
+      <c r="G17" s="334"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="302" t="s">
+      <c r="A18" s="293" t="s">
         <v>206</v>
       </c>
-      <c r="B18" s="317"/>
-      <c r="C18" s="317"/>
-      <c r="D18" s="318">
-        <f>11.5*12*0.0254</f>
-        <v>3.5051999999999999</v>
-      </c>
-      <c r="E18" s="317"/>
-      <c r="F18" s="317">
-        <v>0.02</v>
-      </c>
-      <c r="G18" s="317">
-        <v>0.25</v>
-      </c>
+      <c r="B18" s="334"/>
+      <c r="C18" s="334"/>
+      <c r="D18" s="336"/>
+      <c r="E18" s="334"/>
+      <c r="F18" s="334"/>
+      <c r="G18" s="334"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="302" t="s">
+      <c r="A19" s="293" t="s">
         <v>207</v>
       </c>
-      <c r="B19" s="317"/>
-      <c r="C19" s="317"/>
-      <c r="D19" s="318">
-        <f>11.5*12*0.0254</f>
-        <v>3.5051999999999999</v>
-      </c>
-      <c r="E19" s="317"/>
-      <c r="F19" s="317">
-        <v>0.02</v>
-      </c>
-      <c r="G19" s="317">
-        <v>0.25</v>
-      </c>
+      <c r="B19" s="334"/>
+      <c r="C19" s="334"/>
+      <c r="D19" s="336"/>
+      <c r="E19" s="334"/>
+      <c r="F19" s="334"/>
+      <c r="G19" s="334"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="302" t="s">
+      <c r="A20" s="293" t="s">
         <v>208</v>
       </c>
-      <c r="B20" s="317"/>
-      <c r="C20" s="317"/>
-      <c r="D20" s="318">
-        <f>11.7*12*0.0254</f>
-        <v>3.5661599999999991</v>
-      </c>
-      <c r="E20" s="317"/>
-      <c r="F20" s="317">
-        <v>0.02</v>
-      </c>
-      <c r="G20" s="317">
-        <v>0.25</v>
-      </c>
+      <c r="B20" s="334"/>
+      <c r="C20" s="334"/>
+      <c r="D20" s="336"/>
+      <c r="E20" s="334"/>
+      <c r="F20" s="334"/>
+      <c r="G20" s="334"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="302" t="s">
+      <c r="A21" s="293" t="s">
         <v>209</v>
       </c>
-      <c r="B21" s="317"/>
-      <c r="C21" s="317"/>
-      <c r="D21" s="318">
-        <v>7</v>
-      </c>
-      <c r="E21" s="317"/>
-      <c r="F21" s="317">
-        <v>0.1</v>
-      </c>
-      <c r="G21" s="317">
-        <v>1</v>
-      </c>
+      <c r="B21" s="334"/>
+      <c r="C21" s="334"/>
+      <c r="D21" s="336"/>
+      <c r="E21" s="334"/>
+      <c r="F21" s="334"/>
+      <c r="G21" s="334"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="302" t="s">
+      <c r="A22" s="293" t="s">
         <v>210</v>
       </c>
-      <c r="B22" s="317"/>
-      <c r="C22" s="317"/>
-      <c r="D22" s="318">
-        <v>7</v>
-      </c>
-      <c r="E22" s="317"/>
-      <c r="F22" s="317">
-        <v>0.1</v>
-      </c>
-      <c r="G22" s="317">
-        <v>1</v>
-      </c>
+      <c r="B22" s="334"/>
+      <c r="C22" s="334"/>
+      <c r="D22" s="336"/>
+      <c r="E22" s="334"/>
+      <c r="F22" s="334"/>
+      <c r="G22" s="334"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="302" t="s">
+      <c r="A23" s="293" t="s">
         <v>211</v>
       </c>
-      <c r="B23" s="317"/>
-      <c r="C23" s="317"/>
-      <c r="D23" s="318">
-        <f>13.8*12*0.0254</f>
-        <v>4.2062400000000002</v>
-      </c>
-      <c r="E23" s="317"/>
-      <c r="F23" s="317">
-        <v>0.1</v>
-      </c>
-      <c r="G23" s="317">
-        <v>1</v>
-      </c>
+      <c r="B23" s="334"/>
+      <c r="C23" s="334"/>
+      <c r="D23" s="336"/>
+      <c r="E23" s="334"/>
+      <c r="F23" s="334"/>
+      <c r="G23" s="334"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="302" t="s">
+      <c r="A24" s="293" t="s">
         <v>212</v>
       </c>
-      <c r="B24" s="317"/>
-      <c r="C24" s="317"/>
-      <c r="D24" s="318">
-        <v>3.7</v>
-      </c>
-      <c r="E24" s="317"/>
-      <c r="F24" s="317">
-        <v>0.02</v>
-      </c>
-      <c r="G24" s="317">
-        <v>1</v>
-      </c>
+      <c r="B24" s="334"/>
+      <c r="C24" s="334"/>
+      <c r="D24" s="336"/>
+      <c r="E24" s="334"/>
+      <c r="F24" s="334"/>
+      <c r="G24" s="334"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="302" t="s">
+      <c r="A25" s="293" t="s">
         <v>213</v>
       </c>
-      <c r="B25" s="317"/>
-      <c r="C25" s="317"/>
-      <c r="D25" s="318">
-        <v>3.7</v>
-      </c>
-      <c r="E25" s="317"/>
-      <c r="F25" s="317">
-        <v>0.02</v>
-      </c>
-      <c r="G25" s="317">
-        <v>1</v>
-      </c>
+      <c r="B25" s="334"/>
+      <c r="C25" s="334"/>
+      <c r="D25" s="336"/>
+      <c r="E25" s="334"/>
+      <c r="F25" s="334"/>
+      <c r="G25" s="334"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G26" s="312" t="s">
+      <c r="G26" s="300" t="s">
         <v>48</v>
       </c>
-      <c r="H26" s="312" t="s">
+      <c r="H26" s="300" t="s">
         <v>50</v>
       </c>
-      <c r="J26" s="313"/>
+      <c r="J26" s="301"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="302" t="s">
+      <c r="B27" s="293" t="s">
         <v>214</v>
       </c>
-      <c r="C27" s="302" t="s">
+      <c r="C27" s="293" t="s">
         <v>215</v>
       </c>
-      <c r="D27" s="302" t="s">
+      <c r="D27" s="293" t="s">
         <v>216</v>
       </c>
-      <c r="E27" s="302" t="s">
+      <c r="E27" s="293" t="s">
         <v>217</v>
       </c>
-      <c r="F27" s="302" t="s">
+      <c r="F27" s="293" t="s">
         <v>218</v>
       </c>
-      <c r="G27" s="312" t="s">
+      <c r="G27" s="300" t="s">
         <v>219</v>
       </c>
-      <c r="H27" s="312" t="s">
+      <c r="H27" s="300" t="s">
         <v>219</v>
       </c>
-      <c r="J27" s="313"/>
+      <c r="J27" s="301"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="302" t="s">
+      <c r="A28" s="293" t="s">
         <v>201</v>
       </c>
-      <c r="B28" s="317">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C28" s="317">
-        <v>3</v>
-      </c>
-      <c r="D28" s="319">
+      <c r="B28" s="334"/>
+      <c r="C28" s="334"/>
+      <c r="D28" s="305" t="e">
         <f t="shared" ref="D28:D40" si="0">B28*(C28^2/D13^2)*$B$10</f>
-        <v>17.367993429378526</v>
-      </c>
-      <c r="E28" s="320">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E28" s="306" t="e">
         <f>D28*$B$9/1000</f>
-        <v>0.69471973717514102</v>
-      </c>
-      <c r="F28" s="320">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F28" s="306" t="e">
         <f t="shared" ref="F28:F40" si="1">F13/(G13*E28)</f>
-        <v>0.57577175167999972</v>
-      </c>
-      <c r="G28" s="319">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="305" t="e">
         <f>LN((F28^(-$J$7)+($I$7/$H$7))/(1+($I$7/$H$7)))/($H$7*$J$7)</f>
-        <v>2.8169392687442119E-2</v>
-      </c>
-      <c r="H28" s="317"/>
-      <c r="I28" s="321" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H28" s="337"/>
+      <c r="I28" s="307" t="e">
         <f t="shared" ref="I28:I38" si="2">LOOKUP(G28,mm_value,minimum_Pb)</f>
-        <v>&lt;=1/256"</v>
-      </c>
-      <c r="J28" s="313"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J28" s="301"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="302" t="s">
+      <c r="A29" s="293" t="s">
         <v>202</v>
       </c>
-      <c r="B29" s="317">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C29" s="317">
-        <v>3</v>
-      </c>
-      <c r="D29" s="319">
+      <c r="B29" s="334"/>
+      <c r="C29" s="334"/>
+      <c r="D29" s="305" t="e">
         <f t="shared" si="0"/>
-        <v>11.870796214879368</v>
-      </c>
-      <c r="E29" s="320">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E29" s="306" t="e">
         <f t="shared" ref="E29:E40" si="3">D29*$B$9/1000</f>
-        <v>0.47483184859517474</v>
-      </c>
-      <c r="F29" s="320">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F29" s="306" t="e">
         <f t="shared" si="1"/>
-        <v>0.1684806952959999</v>
-      </c>
-      <c r="G29" s="319">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="305" t="e">
         <f t="shared" ref="G29:G38" si="4">LN((F29^(-$J$7)+($I$7/$H$7))/(1+($I$7/$H$7)))/($H$7*$J$7)</f>
-        <v>0.12027668780373325</v>
-      </c>
-      <c r="H29" s="317"/>
-      <c r="I29" s="321">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" s="337"/>
+      <c r="I29" s="307" t="e">
         <f t="shared" si="2"/>
-        <v>7.8125E-3</v>
-      </c>
-      <c r="J29" s="313"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J29" s="301"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="302" t="s">
+      <c r="A30" s="293" t="s">
         <v>203</v>
       </c>
-      <c r="B30" s="317">
-        <v>5.1999999999999998E-3</v>
-      </c>
-      <c r="C30" s="317">
-        <v>3</v>
-      </c>
-      <c r="D30" s="319">
+      <c r="B30" s="334"/>
+      <c r="C30" s="334"/>
+      <c r="D30" s="305" t="e">
         <f t="shared" si="0"/>
-        <v>9.5510204081632661</v>
-      </c>
-      <c r="E30" s="320">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E30" s="306" t="e">
         <f t="shared" si="3"/>
-        <v>0.38204081632653064</v>
-      </c>
-      <c r="F30" s="320">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F30" s="306" t="e">
         <f t="shared" si="1"/>
-        <v>5.2350427350427345E-2</v>
-      </c>
-      <c r="G30" s="319">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G30" s="305" t="e">
         <f t="shared" si="4"/>
-        <v>0.25802700343464458</v>
-      </c>
-      <c r="H30" s="317"/>
-      <c r="I30" s="321">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H30" s="337"/>
+      <c r="I30" s="307" t="e">
         <f t="shared" si="2"/>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="J30" s="313"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J30" s="301"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="302" t="s">
+      <c r="A31" s="293" t="s">
         <v>204</v>
       </c>
-      <c r="B31" s="317">
-        <v>0.01</v>
-      </c>
-      <c r="C31" s="317">
-        <v>2</v>
-      </c>
-      <c r="D31" s="319">
+      <c r="B31" s="334"/>
+      <c r="C31" s="334"/>
+      <c r="D31" s="305" t="e">
         <f t="shared" si="0"/>
-        <v>15.4382163816698</v>
-      </c>
-      <c r="E31" s="320">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="306" t="e">
         <f t="shared" si="3"/>
-        <v>0.61752865526679201</v>
-      </c>
-      <c r="F31" s="320">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="306" t="e">
         <f t="shared" si="1"/>
-        <v>0.12954864412799996</v>
-      </c>
-      <c r="G31" s="319">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="305" t="e">
         <f t="shared" si="4"/>
-        <v>0.1464611534569096</v>
-      </c>
-      <c r="H31" s="317"/>
-      <c r="I31" s="321">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" s="337"/>
+      <c r="I31" s="307" t="e">
         <f t="shared" si="2"/>
-        <v>7.8125E-3</v>
-      </c>
-      <c r="J31" s="313"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J31" s="301"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="302" t="s">
+      <c r="A32" s="293" t="s">
         <v>205</v>
       </c>
-      <c r="B32" s="317">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C32" s="317">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D32" s="319">
+      <c r="B32" s="334"/>
+      <c r="C32" s="334"/>
+      <c r="D32" s="305" t="e">
         <f t="shared" si="0"/>
-        <v>10.331885270793007</v>
-      </c>
-      <c r="E32" s="320">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E32" s="306" t="e">
         <f t="shared" si="3"/>
-        <v>0.41327541083172031</v>
-      </c>
-      <c r="F32" s="320">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F32" s="306" t="e">
         <f t="shared" si="1"/>
-        <v>0.24196939227221176</v>
-      </c>
-      <c r="G32" s="319">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G32" s="305" t="e">
         <f t="shared" si="4"/>
-        <v>8.8252411221305296E-2</v>
-      </c>
-      <c r="H32" s="317"/>
-      <c r="I32" s="321" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" s="337"/>
+      <c r="I32" s="307" t="e">
         <f t="shared" si="2"/>
-        <v>&lt;=1/256"</v>
-      </c>
-      <c r="J32" s="313"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J32" s="301"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A33" s="302" t="s">
+      <c r="A33" s="293" t="s">
         <v>206</v>
       </c>
-      <c r="B33" s="317">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C33" s="317">
-        <v>2.9</v>
-      </c>
-      <c r="D33" s="319">
+      <c r="B33" s="334"/>
+      <c r="C33" s="334"/>
+      <c r="D33" s="305" t="e">
         <f t="shared" si="0"/>
-        <v>34.224758640653597</v>
-      </c>
-      <c r="E33" s="320">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E33" s="306" t="e">
         <f t="shared" si="3"/>
-        <v>1.3689903456261439</v>
-      </c>
-      <c r="F33" s="320">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F33" s="306" t="e">
         <f t="shared" si="1"/>
-        <v>5.8437227300832346E-2</v>
-      </c>
-      <c r="G33" s="319">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33" s="305" t="e">
         <f t="shared" si="4"/>
-        <v>0.24260654569881665</v>
-      </c>
-      <c r="H33" s="317"/>
-      <c r="I33" s="321">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H33" s="337"/>
+      <c r="I33" s="307" t="e">
         <f t="shared" si="2"/>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="J33" s="313"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J33" s="301"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A34" s="302" t="s">
+      <c r="A34" s="293" t="s">
         <v>207</v>
       </c>
-      <c r="B34" s="317">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="C34" s="317">
-        <v>3</v>
-      </c>
-      <c r="D34" s="319">
+      <c r="B34" s="334"/>
+      <c r="C34" s="334"/>
+      <c r="D34" s="305" t="e">
         <f t="shared" si="0"/>
-        <v>18.312891068126184</v>
-      </c>
-      <c r="E34" s="320">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E34" s="306" t="e">
         <f t="shared" si="3"/>
-        <v>0.73251564272504743</v>
-      </c>
-      <c r="F34" s="320">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F34" s="306" t="e">
         <f t="shared" si="1"/>
-        <v>0.10921268479999997</v>
-      </c>
-      <c r="G34" s="319">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G34" s="305" t="e">
         <f t="shared" si="4"/>
-        <v>0.16489039079767492</v>
-      </c>
-      <c r="H34" s="317"/>
-      <c r="I34" s="321">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H34" s="337"/>
+      <c r="I34" s="307" t="e">
         <f t="shared" si="2"/>
-        <v>7.8125E-3</v>
-      </c>
-      <c r="J34" s="313"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J34" s="301"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A35" s="302" t="s">
+      <c r="A35" s="293" t="s">
         <v>208</v>
       </c>
-      <c r="B35" s="317">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C35" s="317">
-        <v>2.9</v>
-      </c>
-      <c r="D35" s="319">
+      <c r="B35" s="334"/>
+      <c r="C35" s="334"/>
+      <c r="D35" s="305" t="e">
         <f t="shared" si="0"/>
-        <v>33.064682082156772</v>
-      </c>
-      <c r="E35" s="320">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E35" s="306" t="e">
         <f t="shared" si="3"/>
-        <v>1.3225872832862708</v>
-      </c>
-      <c r="F35" s="320">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F35" s="306" t="e">
         <f t="shared" si="1"/>
-        <v>6.0487501287039211E-2</v>
-      </c>
-      <c r="G35" s="319">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G35" s="305" t="e">
         <f t="shared" si="4"/>
-        <v>0.2378832106928368</v>
-      </c>
-      <c r="H35" s="317"/>
-      <c r="I35" s="321">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H35" s="337"/>
+      <c r="I35" s="307" t="e">
         <f t="shared" si="2"/>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="J35" s="313"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J35" s="301"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A36" s="302" t="s">
+      <c r="A36" s="293" t="s">
         <v>209</v>
       </c>
-      <c r="B36" s="317">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="C36" s="317">
-        <v>3</v>
-      </c>
-      <c r="D36" s="319">
+      <c r="B36" s="334"/>
+      <c r="C36" s="334"/>
+      <c r="D36" s="305" t="e">
         <f t="shared" si="0"/>
-        <v>4.591836734693878</v>
-      </c>
-      <c r="E36" s="320">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E36" s="306" t="e">
         <f t="shared" si="3"/>
-        <v>0.18367346938775511</v>
-      </c>
-      <c r="F36" s="320">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F36" s="306" t="e">
         <f t="shared" si="1"/>
-        <v>0.5444444444444444</v>
-      </c>
-      <c r="G36" s="319">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G36" s="305" t="e">
         <f t="shared" si="4"/>
-        <v>3.1421633959731653E-2</v>
-      </c>
-      <c r="H36" s="317"/>
-      <c r="I36" s="321" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36" s="337"/>
+      <c r="I36" s="307" t="e">
         <f t="shared" si="2"/>
-        <v>&lt;=1/256"</v>
-      </c>
-      <c r="J36" s="313"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J36" s="301"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A37" s="302" t="s">
+      <c r="A37" s="293" t="s">
         <v>210</v>
       </c>
-      <c r="B37" s="317">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C37" s="317">
-        <v>2.9</v>
-      </c>
-      <c r="D37" s="319">
+      <c r="B37" s="334"/>
+      <c r="C37" s="334"/>
+      <c r="D37" s="305" t="e">
         <f t="shared" si="0"/>
-        <v>8.5816326530612237</v>
-      </c>
-      <c r="E37" s="320">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E37" s="306" t="e">
         <f t="shared" si="3"/>
-        <v>0.34326530612244893</v>
-      </c>
-      <c r="F37" s="320">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F37" s="306" t="e">
         <f t="shared" si="1"/>
-        <v>0.29131985731272303</v>
-      </c>
-      <c r="G37" s="319">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G37" s="305" t="e">
         <f t="shared" si="4"/>
-        <v>7.3524281763345287E-2</v>
-      </c>
-      <c r="H37" s="317"/>
-      <c r="I37" s="321" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" s="337"/>
+      <c r="I37" s="307" t="e">
         <f t="shared" si="2"/>
-        <v>&lt;=1/256"</v>
-      </c>
-      <c r="J37" s="313"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J37" s="301"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A38" s="302" t="s">
+      <c r="A38" s="293" t="s">
         <v>211</v>
       </c>
-      <c r="B38" s="317">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C38" s="317">
-        <v>2.9</v>
-      </c>
-      <c r="D38" s="319">
+      <c r="B38" s="334"/>
+      <c r="C38" s="334"/>
+      <c r="D38" s="305" t="e">
         <f t="shared" si="0"/>
-        <v>23.767193500453889</v>
-      </c>
-      <c r="E38" s="320">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="306" t="e">
         <f t="shared" si="3"/>
-        <v>0.95068774001815548</v>
-      </c>
-      <c r="F38" s="320">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38" s="306" t="e">
         <f t="shared" si="1"/>
-        <v>0.10518700914149823</v>
-      </c>
-      <c r="G38" s="319">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G38" s="305" t="e">
         <f t="shared" si="4"/>
-        <v>0.16909842234703104</v>
-      </c>
-      <c r="H38" s="317"/>
-      <c r="I38" s="321">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H38" s="337"/>
+      <c r="I38" s="307" t="e">
         <f t="shared" si="2"/>
-        <v>7.8125E-3</v>
-      </c>
-      <c r="J38" s="313"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J38" s="301"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A39" s="302" t="s">
+      <c r="A39" s="293" t="s">
         <v>212</v>
       </c>
-      <c r="B39" s="317">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="C39" s="317">
-        <v>2</v>
-      </c>
-      <c r="D39" s="319">
+      <c r="B39" s="334"/>
+      <c r="C39" s="334"/>
+      <c r="D39" s="305" t="e">
         <f t="shared" si="0"/>
-        <v>7.3046018991964932</v>
-      </c>
-      <c r="E39" s="320">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E39" s="306" t="e">
         <f t="shared" si="3"/>
-        <v>0.29218407596785972</v>
-      </c>
-      <c r="F39" s="320">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F39" s="306" t="e">
         <f t="shared" si="1"/>
-        <v>6.8450000000000011E-2</v>
-      </c>
-      <c r="G39" s="317"/>
-      <c r="H39" s="318">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G39" s="337"/>
+      <c r="H39" s="304" t="e">
         <f>LN((F39^-$J$8+($I$8/$H$8))/(1+($I$8/$H$8)))/($H$8*$J$8)</f>
-        <v>21.263901443929615</v>
-      </c>
-      <c r="I39" s="317"/>
-      <c r="J39" s="313"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I39" s="337"/>
+      <c r="J39" s="301"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A40" s="302" t="s">
+      <c r="A40" s="293" t="s">
         <v>213</v>
       </c>
-      <c r="B40" s="317">
-        <v>1E-3</v>
-      </c>
-      <c r="C40" s="317">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D40" s="319">
+      <c r="B40" s="334"/>
+      <c r="C40" s="334"/>
+      <c r="D40" s="305" t="e">
         <f t="shared" si="0"/>
-        <v>3.8641344046749446</v>
-      </c>
-      <c r="E40" s="320">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E40" s="306" t="e">
         <f t="shared" si="3"/>
-        <v>0.15456537618699778</v>
-      </c>
-      <c r="F40" s="320">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F40" s="306" t="e">
         <f t="shared" si="1"/>
-        <v>0.1293950850661626</v>
-      </c>
-      <c r="G40" s="317"/>
-      <c r="H40" s="318">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G40" s="337"/>
+      <c r="H40" s="304" t="e">
         <f>LN((F40^-$J$8+($I$8/$H$8))/(1+($I$8/$H$8)))/($H$8*$J$8)</f>
-        <v>14.655004485888188</v>
-      </c>
-      <c r="I40" s="317"/>
-      <c r="J40" s="313"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I40" s="337"/>
+      <c r="J40" s="301"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="G41" s="312"/>
-      <c r="H41" s="312"/>
-      <c r="J41" s="313"/>
+      <c r="G41" s="300"/>
+      <c r="H41" s="300"/>
+      <c r="J41" s="301"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B42" s="302" t="s">
+      <c r="B42" s="293" t="s">
         <v>220</v>
       </c>
-      <c r="C42" s="302" t="s">
+      <c r="C42" s="293" t="s">
         <v>217</v>
       </c>
-      <c r="D42" s="312" t="s">
+      <c r="D42" s="300" t="s">
         <v>221</v>
       </c>
-      <c r="E42" s="312" t="s">
+      <c r="E42" s="300" t="s">
         <v>218</v>
       </c>
-      <c r="F42" s="312" t="s">
+      <c r="F42" s="300" t="s">
         <v>222</v>
       </c>
-      <c r="G42" s="312" t="s">
+      <c r="G42" s="300" t="s">
         <v>219</v>
       </c>
-      <c r="H42" s="312" t="s">
+      <c r="H42" s="300" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A43" s="302" t="s">
+      <c r="A43" s="293" t="s">
         <v>201</v>
       </c>
-      <c r="C43" s="315">
+      <c r="B43" s="303"/>
+      <c r="C43" s="306" t="e">
         <f t="shared" ref="C43:C55" si="5">$F$6*$B$9/(D13^2)</f>
-        <v>0.71015795355681088</v>
-      </c>
-      <c r="E43" s="315">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D43" s="303"/>
+      <c r="E43" s="306" t="e">
         <f t="shared" ref="E43:E55" si="6">F13/(G13*C43)</f>
-        <v>0.56325497446956496</v>
-      </c>
-      <c r="G43" s="314">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F43" s="303"/>
+      <c r="G43" s="305" t="e">
         <f>LN((E43^(-$J$7)+($I$7/$H$7))/(1+($I$7/$H$7)))/($H$7*$J$7)</f>
-        <v>2.9437742346683914E-2</v>
-      </c>
-      <c r="H43" s="314"/>
-      <c r="T43" s="316"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H43" s="305"/>
+      <c r="T43" s="302"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A44" s="302" t="s">
+      <c r="A44" s="293" t="s">
         <v>202</v>
       </c>
-      <c r="C44" s="315">
+      <c r="B44" s="303"/>
+      <c r="C44" s="306" t="e">
         <f t="shared" si="5"/>
-        <v>0.48538366745284528</v>
-      </c>
-      <c r="E44" s="315">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D44" s="303"/>
+      <c r="E44" s="306" t="e">
         <f t="shared" si="6"/>
-        <v>0.16481807148521732</v>
-      </c>
-      <c r="G44" s="314">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F44" s="303"/>
+      <c r="G44" s="305" t="e">
         <f t="shared" ref="G44:G45" si="7">LN((E44^-$J$7+($I$7/$H$7))/(1+($I$7/$H$7)))/($H$7*$J$7)</f>
-        <v>0.12236906709779417</v>
-      </c>
-      <c r="H44" s="314"/>
-      <c r="T44" s="316"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H44" s="305"/>
+      <c r="T44" s="302"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A45" s="302" t="s">
+      <c r="A45" s="293" t="s">
         <v>203</v>
       </c>
-      <c r="C45" s="315">
+      <c r="B45" s="303"/>
+      <c r="C45" s="306" t="e">
         <f t="shared" si="5"/>
-        <v>0.37551020408163271</v>
-      </c>
-      <c r="E45" s="315">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D45" s="303"/>
+      <c r="E45" s="306" t="e">
         <f t="shared" si="6"/>
-        <v>5.3260869565217382E-2</v>
-      </c>
-      <c r="G45" s="314">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F45" s="303"/>
+      <c r="G45" s="305" t="e">
         <f t="shared" si="7"/>
-        <v>0.25557393377807397</v>
-      </c>
-      <c r="H45" s="314"/>
-      <c r="T45" s="316"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H45" s="305"/>
+      <c r="T45" s="302"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A46" s="302" t="s">
+      <c r="A46" s="293" t="s">
         <v>204</v>
       </c>
-      <c r="C46" s="315">
+      <c r="B46" s="303"/>
+      <c r="C46" s="306" t="e">
         <f t="shared" si="5"/>
-        <v>0.71015795355681088</v>
-      </c>
-      <c r="E46" s="315">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D46" s="303"/>
+      <c r="E46" s="306" t="e">
         <f t="shared" si="6"/>
-        <v>0.11265099489391299</v>
-      </c>
-      <c r="G46" s="314">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F46" s="303"/>
+      <c r="G46" s="305" t="e">
         <f>LN((E46^-$J$7+($I$7/$H$7))/(1+($I$7/$H$7)))/($H$7*$J$7)</f>
-        <v>0.16145978951217221</v>
-      </c>
-      <c r="H46" s="314"/>
-      <c r="T46" s="316"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H46" s="305"/>
+      <c r="T46" s="302"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A47" s="302" t="s">
+      <c r="A47" s="293" t="s">
         <v>205</v>
       </c>
-      <c r="C47" s="315">
+      <c r="B47" s="303"/>
+      <c r="C47" s="306" t="e">
         <f t="shared" si="5"/>
-        <v>0.71873984492473109</v>
-      </c>
-      <c r="E47" s="315">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D47" s="303"/>
+      <c r="E47" s="306" t="e">
         <f t="shared" si="6"/>
-        <v>0.13913240055652173</v>
-      </c>
-      <c r="G47" s="314">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F47" s="303"/>
+      <c r="G47" s="305" t="e">
         <f>LN((E47^-$J$7+($I$7/$H$7))/(1+($I$7/$H$7)))/($H$7*$J$7)</f>
-        <v>0.13909326631297789</v>
-      </c>
-      <c r="H47" s="314"/>
-      <c r="T47" s="316"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H47" s="305"/>
+      <c r="T47" s="302"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A48" s="302" t="s">
+      <c r="A48" s="293" t="s">
         <v>206</v>
       </c>
-      <c r="C48" s="315">
+      <c r="B48" s="303"/>
+      <c r="C48" s="306" t="e">
         <f t="shared" si="5"/>
-        <v>1.4975875362378746</v>
-      </c>
-      <c r="E48" s="315">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="303"/>
+      <c r="E48" s="306" t="e">
         <f t="shared" si="6"/>
-        <v>5.3419247999999996E-2</v>
-      </c>
-      <c r="G48" s="314">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F48" s="303"/>
+      <c r="G48" s="305" t="e">
         <f>LN((E48^-$J$7+($I$7/$H$7))/(1+($I$7/$H$7)))/($H$7*$J$7)</f>
-        <v>0.25515283964542229</v>
-      </c>
-      <c r="H48" s="314"/>
-      <c r="T48" s="316"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H48" s="305"/>
+      <c r="T48" s="302"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A49" s="302" t="s">
+      <c r="A49" s="293" t="s">
         <v>207</v>
       </c>
-      <c r="C49" s="315">
+      <c r="B49" s="303"/>
+      <c r="C49" s="306" t="e">
         <f t="shared" si="5"/>
-        <v>1.4975875362378746</v>
-      </c>
-      <c r="E49" s="315">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D49" s="303"/>
+      <c r="E49" s="306" t="e">
         <f t="shared" si="6"/>
-        <v>5.3419247999999996E-2</v>
-      </c>
-      <c r="G49" s="314">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F49" s="303"/>
+      <c r="G49" s="305" t="e">
         <f t="shared" ref="G49:G52" si="8">LN((E49^-$J$7+($I$7/$H$7))/(1+($I$7/$H$7)))/($H$7*$J$7)</f>
-        <v>0.25515283964542229</v>
-      </c>
-      <c r="H49" s="314"/>
-      <c r="T49" s="316"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H49" s="305"/>
+      <c r="T49" s="302"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A50" s="302" t="s">
+      <c r="A50" s="293" t="s">
         <v>208</v>
       </c>
-      <c r="C50" s="315">
+      <c r="B50" s="303"/>
+      <c r="C50" s="306" t="e">
         <f t="shared" si="5"/>
-        <v>1.4468255655450288</v>
-      </c>
-      <c r="E50" s="315">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D50" s="303"/>
+      <c r="E50" s="306" t="e">
         <f t="shared" si="6"/>
-        <v>5.5293465850434757E-2</v>
-      </c>
-      <c r="G50" s="314">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F50" s="303"/>
+      <c r="G50" s="305" t="e">
         <f t="shared" si="8"/>
-        <v>0.25029138883959151</v>
-      </c>
-      <c r="H50" s="314"/>
-      <c r="T50" s="316"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H50" s="305"/>
+      <c r="T50" s="302"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A51" s="302" t="s">
+      <c r="A51" s="293" t="s">
         <v>209</v>
       </c>
-      <c r="C51" s="315">
+      <c r="B51" s="303"/>
+      <c r="C51" s="306" t="e">
         <f t="shared" si="5"/>
-        <v>0.37551020408163271</v>
-      </c>
-      <c r="E51" s="315">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D51" s="303"/>
+      <c r="E51" s="306" t="e">
         <f t="shared" si="6"/>
-        <v>0.26630434782608692</v>
-      </c>
-      <c r="G51" s="314">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F51" s="303"/>
+      <c r="G51" s="305" t="e">
         <f t="shared" si="8"/>
-        <v>8.0511339662411571E-2</v>
-      </c>
-      <c r="H51" s="314"/>
-      <c r="T51" s="316"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H51" s="305"/>
+      <c r="T51" s="302"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A52" s="302" t="s">
+      <c r="A52" s="293" t="s">
         <v>210</v>
       </c>
-      <c r="C52" s="315">
+      <c r="B52" s="303"/>
+      <c r="C52" s="306" t="e">
         <f t="shared" si="5"/>
-        <v>0.37551020408163271</v>
-      </c>
-      <c r="E52" s="315">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D52" s="303"/>
+      <c r="E52" s="306" t="e">
         <f t="shared" si="6"/>
-        <v>0.26630434782608692</v>
-      </c>
-      <c r="G52" s="314">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F52" s="303"/>
+      <c r="G52" s="305" t="e">
         <f t="shared" si="8"/>
-        <v>8.0511339662411571E-2</v>
-      </c>
-      <c r="H52" s="314"/>
-      <c r="T52" s="316"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H52" s="305"/>
+      <c r="T52" s="302"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A53" s="302" t="s">
+      <c r="A53" s="293" t="s">
         <v>211</v>
       </c>
-      <c r="C53" s="315">
+      <c r="B53" s="303"/>
+      <c r="C53" s="306" t="e">
         <f t="shared" si="5"/>
-        <v>1.0399913446096352</v>
-      </c>
-      <c r="E53" s="315">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="303"/>
+      <c r="E53" s="306" t="e">
         <f t="shared" si="6"/>
-        <v>9.6154646399999988E-2</v>
-      </c>
-      <c r="G53" s="314">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F53" s="303"/>
+      <c r="G53" s="305" t="e">
         <f>LN((E53^-$J$7+($I$7/$H$7))/(1+($I$7/$H$7)))/($H$7*$J$7)</f>
-        <v>0.17938851075060114</v>
-      </c>
-      <c r="H53" s="314"/>
-      <c r="T53" s="316"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H53" s="305"/>
+      <c r="T53" s="302"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A54" s="302" t="s">
+      <c r="A54" s="293" t="s">
         <v>212</v>
       </c>
-      <c r="C54" s="315">
+      <c r="B54" s="303"/>
+      <c r="C54" s="306" t="e">
         <f t="shared" si="5"/>
-        <v>1.3440467494521549</v>
-      </c>
-      <c r="E54" s="315">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D54" s="303"/>
+      <c r="E54" s="306" t="e">
         <f t="shared" si="6"/>
-        <v>1.4880434782608696E-2</v>
-      </c>
-      <c r="H54" s="311">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F54" s="303"/>
+      <c r="G54" s="303"/>
+      <c r="H54" s="304" t="e">
         <f>LN((E54^-$J$8+($I$8/$H$8))/(1+($I$8/$H$8)))/($H$8*$J$8)</f>
-        <v>41.430848433644101</v>
-      </c>
-      <c r="J54" s="311"/>
-      <c r="T54" s="316"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J54" s="299"/>
+      <c r="T54" s="302"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A55" s="302" t="s">
+      <c r="A55" s="293" t="s">
         <v>213</v>
       </c>
-      <c r="C55" s="315">
+      <c r="B55" s="303"/>
+      <c r="C55" s="306" t="e">
         <f t="shared" si="5"/>
-        <v>1.3440467494521549</v>
-      </c>
-      <c r="E55" s="315">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D55" s="303"/>
+      <c r="E55" s="306" t="e">
         <f t="shared" si="6"/>
-        <v>1.4880434782608696E-2</v>
-      </c>
-      <c r="H55" s="311">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F55" s="303"/>
+      <c r="G55" s="303"/>
+      <c r="H55" s="304" t="e">
         <f>LN((E55^-$J$8+($I$8/$H$8))/(1+($I$8/$H$8)))/($H$8*$J$8)</f>
-        <v>41.430848433644101</v>
-      </c>
-      <c r="J55" s="311"/>
-      <c r="T55" s="316"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J55" s="299"/>
+      <c r="T55" s="302"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -20729,14 +20680,14 @@
       <c r="M18" s="265"/>
       <c r="N18" s="264"/>
       <c r="P18" s="279"/>
-      <c r="Q18" s="296" t="s">
+      <c r="Q18" s="319" t="s">
         <v>174</v>
       </c>
-      <c r="R18" s="296"/>
-      <c r="S18" s="296"/>
-      <c r="T18" s="296"/>
-      <c r="U18" s="296"/>
-      <c r="V18" s="297"/>
+      <c r="R18" s="319"/>
+      <c r="S18" s="319"/>
+      <c r="T18" s="319"/>
+      <c r="U18" s="319"/>
+      <c r="V18" s="320"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="215"/>
@@ -20767,16 +20718,16 @@
       </c>
       <c r="N19" s="276"/>
       <c r="P19" s="215"/>
-      <c r="Q19" s="298" t="s">
+      <c r="Q19" s="321" t="s">
         <v>173</v>
       </c>
-      <c r="R19" s="298"/>
-      <c r="S19" s="298"/>
-      <c r="T19" s="299" t="s">
+      <c r="R19" s="321"/>
+      <c r="S19" s="321"/>
+      <c r="T19" s="322" t="s">
         <v>95</v>
       </c>
-      <c r="U19" s="299"/>
-      <c r="V19" s="300"/>
+      <c r="U19" s="322"/>
+      <c r="V19" s="323"/>
     </row>
     <row r="20" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="215"/>
@@ -20973,14 +20924,14 @@
       <c r="N24" s="216"/>
       <c r="O24" s="216"/>
       <c r="P24" s="254"/>
-      <c r="Q24" s="296" t="s">
+      <c r="Q24" s="319" t="s">
         <v>174</v>
       </c>
-      <c r="R24" s="296"/>
-      <c r="S24" s="296"/>
-      <c r="T24" s="296"/>
-      <c r="U24" s="296"/>
-      <c r="V24" s="297"/>
+      <c r="R24" s="319"/>
+      <c r="S24" s="319"/>
+      <c r="T24" s="319"/>
+      <c r="U24" s="319"/>
+      <c r="V24" s="320"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="223" t="s">
@@ -21066,7 +21017,7 @@
       <c r="H27" s="249" t="s">
         <v>48</v>
       </c>
-      <c r="J27" s="301" t="s">
+      <c r="J27" s="324" t="s">
         <v>163</v>
       </c>
       <c r="K27" s="210" t="s">
@@ -21129,7 +21080,7 @@
       <c r="H28" s="246" t="s">
         <v>122</v>
       </c>
-      <c r="J28" s="301"/>
+      <c r="J28" s="324"/>
       <c r="K28" s="210" t="s">
         <v>184</v>
       </c>
@@ -22453,7 +22404,7 @@
       <c r="E18" s="167" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="293" t="s">
+      <c r="F18" s="325" t="s">
         <v>121</v>
       </c>
       <c r="G18" s="167"/>
@@ -22503,7 +22454,7 @@
       <c r="E19" s="167" t="s">
         <v>113</v>
       </c>
-      <c r="F19" s="293"/>
+      <c r="F19" s="325"/>
       <c r="G19" s="167" t="s">
         <v>48</v>
       </c>
@@ -22536,22 +22487,22 @@
       <c r="E20" s="168" t="s">
         <v>182</v>
       </c>
-      <c r="F20" s="294"/>
+      <c r="F20" s="326"/>
       <c r="G20" s="168" t="s">
         <v>122</v>
       </c>
       <c r="H20" s="168" t="s">
         <v>118</v>
       </c>
-      <c r="L20" s="295" t="s">
+      <c r="L20" s="327" t="s">
         <v>123</v>
       </c>
-      <c r="M20" s="295"/>
-      <c r="N20" s="295"/>
-      <c r="O20" s="295"/>
-      <c r="P20" s="295"/>
-      <c r="Q20" s="295"/>
-      <c r="R20" s="295"/>
+      <c r="M20" s="327"/>
+      <c r="N20" s="327"/>
+      <c r="O20" s="327"/>
+      <c r="P20" s="327"/>
+      <c r="Q20" s="327"/>
+      <c r="R20" s="327"/>
       <c r="T20" s="158">
         <v>1.1906250009999999</v>
       </c>
@@ -26468,7 +26419,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="324" t="s">
+      <c r="A1" s="310" t="s">
         <v>223</v>
       </c>
     </row>
@@ -26480,8 +26431,8 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="322" t="s">
+    <row r="4" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="308" t="s">
         <v>230</v>
       </c>
       <c r="B4">
@@ -26489,7 +26440,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="322" t="s">
+      <c r="A5" s="308" t="s">
         <v>225</v>
       </c>
       <c r="B5">
@@ -26497,7 +26448,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="322" t="s">
+      <c r="A6" s="308" t="s">
         <v>226</v>
       </c>
       <c r="B6">
@@ -26505,23 +26456,23 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="322" t="s">
+      <c r="A7" s="308" t="s">
         <v>227</v>
       </c>
       <c r="B7">
         <v>0.125</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="322" t="s">
+    <row r="8" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="308" t="s">
         <v>228</v>
       </c>
       <c r="B8">
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="322" t="s">
+    <row r="9" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="308" t="s">
         <v>229</v>
       </c>
       <c r="B9">
@@ -26547,51 +26498,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="324" t="s">
+      <c r="A1" s="310" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="325" t="s">
+      <c r="B3" s="328" t="s">
         <v>232</v>
       </c>
-      <c r="C3" s="325"/>
-      <c r="D3" s="325"/>
-      <c r="E3" s="325" t="s">
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="328" t="s">
         <v>233</v>
       </c>
-      <c r="F3" s="325"/>
-      <c r="G3" s="325"/>
+      <c r="F3" s="328"/>
+      <c r="G3" s="328"/>
     </row>
     <row r="4" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="331" t="s">
+      <c r="A4" s="315" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="331" t="s">
+      <c r="B4" s="315" t="s">
         <v>234</v>
       </c>
-      <c r="C4" s="331" t="s">
+      <c r="C4" s="315" t="s">
         <v>235</v>
       </c>
-      <c r="D4" s="331" t="s">
+      <c r="D4" s="315" t="s">
         <v>236</v>
       </c>
-      <c r="E4" s="331" t="s">
+      <c r="E4" s="315" t="s">
         <v>237</v>
       </c>
-      <c r="F4" s="331" t="s">
+      <c r="F4" s="315" t="s">
         <v>238</v>
       </c>
-      <c r="G4" s="331" t="s">
+      <c r="G4" s="315" t="s">
         <v>239</v>
       </c>
-      <c r="H4" s="331" t="s">
+      <c r="H4" s="315" t="s">
         <v>240</v>
       </c>
-      <c r="I4" s="331" t="s">
+      <c r="I4" s="315" t="s">
         <v>241</v>
       </c>
-      <c r="J4" s="331" t="s">
+      <c r="J4" s="315" t="s">
         <v>242</v>
       </c>
     </row>
@@ -26599,31 +26550,31 @@
       <c r="A5">
         <v>25</v>
       </c>
-      <c r="B5" s="327">
+      <c r="B5" s="312">
         <v>0</v>
       </c>
-      <c r="C5" s="327">
+      <c r="C5" s="312">
         <v>0</v>
       </c>
-      <c r="D5" s="327">
+      <c r="D5" s="312">
         <v>0</v>
       </c>
-      <c r="E5" s="327">
+      <c r="E5" s="312">
         <v>0</v>
       </c>
-      <c r="F5" s="327">
+      <c r="F5" s="312">
         <v>0</v>
       </c>
-      <c r="G5" s="327">
+      <c r="G5" s="312">
         <v>0</v>
       </c>
-      <c r="H5" s="327">
+      <c r="H5" s="312">
         <v>0.92500000000000004</v>
       </c>
-      <c r="I5" s="327">
+      <c r="I5" s="312">
         <v>0</v>
       </c>
-      <c r="J5" s="327">
+      <c r="J5" s="312">
         <v>0</v>
       </c>
     </row>
@@ -26631,31 +26582,31 @@
       <c r="A6">
         <v>30</v>
       </c>
-      <c r="B6" s="327">
+      <c r="B6" s="312">
         <v>0</v>
       </c>
-      <c r="C6" s="327">
+      <c r="C6" s="312">
         <v>0</v>
       </c>
-      <c r="D6" s="327">
+      <c r="D6" s="312">
         <v>0</v>
       </c>
-      <c r="E6" s="327">
+      <c r="E6" s="312">
         <v>0</v>
       </c>
-      <c r="F6" s="327">
+      <c r="F6" s="312">
         <v>0</v>
       </c>
-      <c r="G6" s="327">
+      <c r="G6" s="312">
         <v>0</v>
       </c>
-      <c r="H6" s="327">
+      <c r="H6" s="312">
         <v>4.67</v>
       </c>
-      <c r="I6" s="327">
+      <c r="I6" s="312">
         <v>0</v>
       </c>
-      <c r="J6" s="327">
+      <c r="J6" s="312">
         <v>0</v>
       </c>
     </row>
@@ -26663,31 +26614,31 @@
       <c r="A7">
         <v>35</v>
       </c>
-      <c r="B7" s="327">
+      <c r="B7" s="312">
         <v>0</v>
       </c>
-      <c r="C7" s="327">
+      <c r="C7" s="312">
         <v>0</v>
       </c>
-      <c r="D7" s="327">
+      <c r="D7" s="312">
         <v>0</v>
       </c>
-      <c r="E7" s="327">
+      <c r="E7" s="312">
         <v>0</v>
       </c>
-      <c r="F7" s="327">
+      <c r="F7" s="312">
         <v>0</v>
       </c>
-      <c r="G7" s="327">
+      <c r="G7" s="312">
         <v>0</v>
       </c>
-      <c r="H7" s="327">
+      <c r="H7" s="312">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I7" s="327">
+      <c r="I7" s="312">
         <v>0</v>
       </c>
-      <c r="J7" s="327">
+      <c r="J7" s="312">
         <v>0</v>
       </c>
     </row>
@@ -26695,31 +26646,31 @@
       <c r="A8">
         <v>40</v>
       </c>
-      <c r="B8" s="327">
+      <c r="B8" s="312">
         <v>1.3799999999999999E-4</v>
       </c>
-      <c r="C8" s="327">
+      <c r="C8" s="312">
         <v>0</v>
       </c>
-      <c r="D8" s="327">
+      <c r="D8" s="312">
         <v>1.3799999999999999E-4</v>
       </c>
-      <c r="E8" s="327">
+      <c r="E8" s="312">
         <v>0</v>
       </c>
-      <c r="F8" s="327">
+      <c r="F8" s="312">
         <v>0</v>
       </c>
-      <c r="G8" s="327">
+      <c r="G8" s="312">
         <v>0</v>
       </c>
-      <c r="H8" s="327">
+      <c r="H8" s="312">
         <v>0</v>
       </c>
-      <c r="I8" s="327">
+      <c r="I8" s="312">
         <v>0</v>
       </c>
-      <c r="J8" s="327">
+      <c r="J8" s="312">
         <v>0</v>
       </c>
     </row>
@@ -26727,31 +26678,31 @@
       <c r="A9">
         <v>45</v>
       </c>
-      <c r="B9" s="327">
+      <c r="B9" s="312">
         <v>7.1000000000000002E-4</v>
       </c>
-      <c r="C9" s="327">
+      <c r="C9" s="312">
         <v>0</v>
       </c>
-      <c r="D9" s="327">
+      <c r="D9" s="312">
         <v>7.1000000000000002E-4</v>
       </c>
-      <c r="E9" s="327">
+      <c r="E9" s="312">
         <v>0</v>
       </c>
-      <c r="F9" s="327">
+      <c r="F9" s="312">
         <v>5.7799999999999995E-4</v>
       </c>
-      <c r="G9" s="327">
+      <c r="G9" s="312">
         <v>0</v>
       </c>
-      <c r="H9" s="327">
+      <c r="H9" s="312">
         <v>0</v>
       </c>
-      <c r="I9" s="327">
+      <c r="I9" s="312">
         <v>0</v>
       </c>
-      <c r="J9" s="327">
+      <c r="J9" s="312">
         <v>0</v>
       </c>
     </row>
@@ -26759,31 +26710,31 @@
       <c r="A10">
         <v>50</v>
       </c>
-      <c r="B10" s="327">
+      <c r="B10" s="312">
         <v>8.4799999999999997E-3</v>
       </c>
-      <c r="C10" s="327">
+      <c r="C10" s="312">
         <v>6.7799999999999996E-3</v>
       </c>
-      <c r="D10" s="327">
+      <c r="D10" s="312">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="E10" s="327">
+      <c r="E10" s="312">
         <v>0</v>
       </c>
-      <c r="F10" s="327">
+      <c r="F10" s="312">
         <v>7.6499999999999995E-4</v>
       </c>
-      <c r="G10" s="327">
+      <c r="G10" s="312">
         <v>0</v>
       </c>
-      <c r="H10" s="327">
+      <c r="H10" s="312">
         <v>0</v>
       </c>
-      <c r="I10" s="327">
+      <c r="I10" s="312">
         <v>0.34</v>
       </c>
-      <c r="J10" s="327">
+      <c r="J10" s="312">
         <v>8.9399999999999993E-2</v>
       </c>
     </row>
@@ -26791,31 +26742,31 @@
       <c r="A11">
         <v>55</v>
       </c>
-      <c r="B11" s="327">
+      <c r="B11" s="312">
         <v>1.09E-2</v>
       </c>
-      <c r="C11" s="327">
+      <c r="C11" s="312">
         <v>4.5600000000000003E-4</v>
       </c>
-      <c r="D11" s="327">
+      <c r="D11" s="312">
         <v>1.04E-2</v>
       </c>
-      <c r="E11" s="327">
+      <c r="E11" s="312">
         <v>7.0199999999999999E-2</v>
       </c>
-      <c r="F11" s="327">
+      <c r="F11" s="312">
         <v>7.2599999999999997E-4</v>
       </c>
-      <c r="G11" s="327">
+      <c r="G11" s="312">
         <v>0</v>
       </c>
-      <c r="H11" s="327">
+      <c r="H11" s="312">
         <v>0</v>
       </c>
-      <c r="I11" s="327">
+      <c r="I11" s="312">
         <v>0.42</v>
       </c>
-      <c r="J11" s="327">
+      <c r="J11" s="312">
         <v>3.9800000000000002E-2</v>
       </c>
     </row>
@@ -26823,31 +26774,31 @@
       <c r="A12">
         <v>60</v>
       </c>
-      <c r="B12" s="327">
+      <c r="B12" s="312">
         <v>9.8100000000000007E-2</v>
       </c>
-      <c r="C12" s="327">
+      <c r="C12" s="312">
         <v>8.9599999999999992E-3</v>
       </c>
-      <c r="D12" s="327">
+      <c r="D12" s="312">
         <v>8.9099999999999999E-2</v>
       </c>
-      <c r="E12" s="327">
+      <c r="E12" s="312">
         <v>0.113</v>
       </c>
-      <c r="F12" s="327">
+      <c r="F12" s="312">
         <v>1.52E-2</v>
       </c>
-      <c r="G12" s="327">
+      <c r="G12" s="312">
         <v>0</v>
       </c>
-      <c r="H12" s="327">
+      <c r="H12" s="312">
         <v>0</v>
       </c>
-      <c r="I12" s="327">
+      <c r="I12" s="312">
         <v>1.96</v>
       </c>
-      <c r="J12" s="327">
+      <c r="J12" s="312">
         <v>0.69899999999999995</v>
       </c>
     </row>
@@ -26855,31 +26806,31 @@
       <c r="A13">
         <v>65</v>
       </c>
-      <c r="B13" s="327">
+      <c r="B13" s="312">
         <v>0.104</v>
       </c>
-      <c r="C13" s="327">
+      <c r="C13" s="312">
         <v>3.4200000000000001E-2</v>
       </c>
-      <c r="D13" s="327">
+      <c r="D13" s="312">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E13" s="327">
+      <c r="E13" s="312">
         <v>0.187</v>
       </c>
-      <c r="F13" s="327">
+      <c r="F13" s="312">
         <v>2.52E-2</v>
       </c>
-      <c r="G13" s="327">
+      <c r="G13" s="312">
         <v>0</v>
       </c>
-      <c r="H13" s="327">
+      <c r="H13" s="312">
         <v>0</v>
       </c>
-      <c r="I13" s="327">
+      <c r="I13" s="312">
         <v>4.55</v>
       </c>
-      <c r="J13" s="327">
+      <c r="J13" s="312">
         <v>15</v>
       </c>
     </row>
@@ -26887,31 +26838,31 @@
       <c r="A14">
         <v>70</v>
       </c>
-      <c r="B14" s="327">
+      <c r="B14" s="312">
         <v>0.45800000000000002</v>
       </c>
-      <c r="C14" s="327">
+      <c r="C14" s="312">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="D14" s="327">
+      <c r="D14" s="312">
         <v>0.38500000000000001</v>
       </c>
-      <c r="E14" s="327">
+      <c r="E14" s="312">
         <v>0.14499999999999999</v>
       </c>
-      <c r="F14" s="327">
+      <c r="F14" s="312">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="G14" s="327">
+      <c r="G14" s="312">
         <v>2.0199999999999999E-2</v>
       </c>
-      <c r="H14" s="327">
+      <c r="H14" s="312">
         <v>0</v>
       </c>
-      <c r="I14" s="327">
+      <c r="I14" s="312">
         <v>6.03</v>
       </c>
-      <c r="J14" s="327">
+      <c r="J14" s="312">
         <v>12.2</v>
       </c>
     </row>
@@ -26919,31 +26870,31 @@
       <c r="A15">
         <v>75</v>
       </c>
-      <c r="B15" s="327">
+      <c r="B15" s="312">
         <v>0.501</v>
       </c>
-      <c r="C15" s="327">
+      <c r="C15" s="312">
         <v>9.5299999999999996E-2</v>
       </c>
-      <c r="D15" s="327">
+      <c r="D15" s="312">
         <v>0.40500000000000003</v>
       </c>
-      <c r="E15" s="327">
+      <c r="E15" s="312">
         <v>0.19400000000000001</v>
       </c>
-      <c r="F15" s="327">
+      <c r="F15" s="312">
         <v>0.224</v>
       </c>
-      <c r="G15" s="327">
+      <c r="G15" s="312">
         <v>2.3600000000000001E-3</v>
       </c>
-      <c r="H15" s="327">
+      <c r="H15" s="312">
         <v>0</v>
       </c>
-      <c r="I15" s="327">
+      <c r="I15" s="312">
         <v>8.02</v>
       </c>
-      <c r="J15" s="327">
+      <c r="J15" s="312">
         <v>15.3</v>
       </c>
     </row>
@@ -26951,31 +26902,31 @@
       <c r="A16">
         <v>80</v>
       </c>
-      <c r="B16" s="327">
+      <c r="B16" s="312">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C16" s="327">
+      <c r="C16" s="312">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D16" s="327">
+      <c r="D16" s="312">
         <v>0.42</v>
       </c>
-      <c r="E16" s="327">
+      <c r="E16" s="312">
         <v>1.72</v>
       </c>
-      <c r="F16" s="327">
+      <c r="F16" s="312">
         <v>0.42799999999999999</v>
       </c>
-      <c r="G16" s="327">
+      <c r="G16" s="312">
         <v>0</v>
       </c>
-      <c r="H16" s="327">
+      <c r="H16" s="312">
         <v>0</v>
       </c>
-      <c r="I16" s="327">
+      <c r="I16" s="312">
         <v>25.4</v>
       </c>
-      <c r="J16" s="327">
+      <c r="J16" s="312">
         <v>11</v>
       </c>
     </row>
@@ -26983,31 +26934,31 @@
       <c r="A17">
         <v>85</v>
       </c>
-      <c r="B17" s="327">
+      <c r="B17" s="312">
         <v>0.315</v>
       </c>
-      <c r="C17" s="327">
+      <c r="C17" s="312">
         <v>6.6199999999999995E-2</v>
       </c>
-      <c r="D17" s="327">
+      <c r="D17" s="312">
         <v>0.249</v>
       </c>
-      <c r="E17" s="327">
+      <c r="E17" s="312">
         <v>2.19</v>
       </c>
-      <c r="F17" s="327">
+      <c r="F17" s="312">
         <v>0.218</v>
       </c>
-      <c r="G17" s="327">
+      <c r="G17" s="312">
         <v>7.8299999999999995E-4</v>
       </c>
-      <c r="H17" s="327">
+      <c r="H17" s="312">
         <v>0</v>
       </c>
-      <c r="I17" s="327">
+      <c r="I17" s="312">
         <v>40.299999999999997</v>
       </c>
-      <c r="J17" s="327">
+      <c r="J17" s="312">
         <v>4.09</v>
       </c>
     </row>
@@ -27015,31 +26966,31 @@
       <c r="A18">
         <v>90</v>
       </c>
-      <c r="B18" s="327">
+      <c r="B18" s="312">
         <v>0.17599999999999999</v>
       </c>
-      <c r="C18" s="327">
+      <c r="C18" s="312">
         <v>1.41E-2</v>
       </c>
-      <c r="D18" s="327">
+      <c r="D18" s="312">
         <v>0.16200000000000001</v>
       </c>
-      <c r="E18" s="327">
+      <c r="E18" s="312">
         <v>1.46</v>
       </c>
-      <c r="F18" s="327">
+      <c r="F18" s="312">
         <v>5.33E-2</v>
       </c>
-      <c r="G18" s="327">
+      <c r="G18" s="312">
         <v>0</v>
       </c>
-      <c r="H18" s="327">
+      <c r="H18" s="312">
         <v>0</v>
       </c>
-      <c r="I18" s="327">
+      <c r="I18" s="312">
         <v>21</v>
       </c>
-      <c r="J18" s="327">
+      <c r="J18" s="312">
         <v>3.43</v>
       </c>
     </row>
@@ -27047,31 +26998,31 @@
       <c r="A19">
         <v>95</v>
       </c>
-      <c r="B19" s="327">
+      <c r="B19" s="312">
         <v>2.18E-2</v>
       </c>
-      <c r="C19" s="327">
+      <c r="C19" s="312">
         <v>3.5100000000000001E-3</v>
       </c>
-      <c r="D19" s="327">
+      <c r="D19" s="312">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="E19" s="327">
+      <c r="E19" s="312">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F19" s="327">
+      <c r="F19" s="312">
         <v>4.8899999999999999E-2</v>
       </c>
-      <c r="G19" s="327">
+      <c r="G19" s="312">
         <v>0</v>
       </c>
-      <c r="H19" s="327">
+      <c r="H19" s="312">
         <v>0</v>
       </c>
-      <c r="I19" s="327">
+      <c r="I19" s="312">
         <v>10.6</v>
       </c>
-      <c r="J19" s="327">
+      <c r="J19" s="312">
         <v>0.67300000000000004</v>
       </c>
     </row>
@@ -27079,31 +27030,31 @@
       <c r="A20">
         <v>100</v>
       </c>
-      <c r="B20" s="327">
+      <c r="B20" s="312">
         <v>1.55E-2</v>
       </c>
-      <c r="C20" s="327">
+      <c r="C20" s="312">
         <v>8.8400000000000002E-4</v>
       </c>
-      <c r="D20" s="327">
+      <c r="D20" s="312">
         <v>1.46E-2</v>
       </c>
-      <c r="E20" s="327">
+      <c r="E20" s="312">
         <v>1.1200000000000001</v>
       </c>
-      <c r="F20" s="327">
+      <c r="F20" s="312">
         <v>5.8700000000000002E-2</v>
       </c>
-      <c r="G20" s="327">
+      <c r="G20" s="312">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="H20" s="327">
+      <c r="H20" s="312">
         <v>0</v>
       </c>
-      <c r="I20" s="327">
+      <c r="I20" s="312">
         <v>7.4</v>
       </c>
-      <c r="J20" s="327">
+      <c r="J20" s="312">
         <v>1.53</v>
       </c>
     </row>
@@ -27111,31 +27062,31 @@
       <c r="A21">
         <v>105</v>
       </c>
-      <c r="B21" s="327">
+      <c r="B21" s="312">
         <v>3.48E-3</v>
       </c>
-      <c r="C21" s="327">
+      <c r="C21" s="312">
         <v>1.97E-3</v>
       </c>
-      <c r="D21" s="327">
+      <c r="D21" s="312">
         <v>1.5100000000000001E-3</v>
       </c>
-      <c r="E21" s="327">
+      <c r="E21" s="312">
         <v>0.96399999999999997</v>
       </c>
-      <c r="F21" s="327">
+      <c r="F21" s="312">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="G21" s="327">
+      <c r="G21" s="312">
         <v>0</v>
       </c>
-      <c r="H21" s="327">
+      <c r="H21" s="312">
         <v>0</v>
       </c>
-      <c r="I21" s="327">
+      <c r="I21" s="312">
         <v>7.02</v>
       </c>
-      <c r="J21" s="327">
+      <c r="J21" s="312">
         <v>9.2700000000000005E-2</v>
       </c>
     </row>
@@ -27143,31 +27094,31 @@
       <c r="A22">
         <v>110</v>
       </c>
-      <c r="B22" s="327">
+      <c r="B22" s="312">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="C22" s="327">
+      <c r="C22" s="312">
         <v>9.9100000000000004E-3</v>
       </c>
-      <c r="D22" s="327">
+      <c r="D22" s="312">
         <v>5.5099999999999995E-4</v>
       </c>
-      <c r="E22" s="327">
+      <c r="E22" s="312">
         <v>0.747</v>
       </c>
-      <c r="F22" s="327">
+      <c r="F22" s="312">
         <v>6.4600000000000005E-2</v>
       </c>
-      <c r="G22" s="327">
+      <c r="G22" s="312">
         <v>2.1399999999999999E-2</v>
       </c>
-      <c r="H22" s="327">
+      <c r="H22" s="312">
         <v>0</v>
       </c>
-      <c r="I22" s="327">
+      <c r="I22" s="312">
         <v>6.59</v>
       </c>
-      <c r="J22" s="327">
+      <c r="J22" s="312">
         <v>3.0499999999999999E-2</v>
       </c>
     </row>
@@ -27175,31 +27126,31 @@
       <c r="A23">
         <v>115</v>
       </c>
-      <c r="B23" s="327">
+      <c r="B23" s="312">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="C23" s="327">
+      <c r="C23" s="312">
         <v>3.7400000000000003E-2</v>
       </c>
-      <c r="D23" s="327">
+      <c r="D23" s="312">
         <v>3.6900000000000001E-3</v>
       </c>
-      <c r="E23" s="327">
+      <c r="E23" s="312">
         <v>1.44</v>
       </c>
-      <c r="F23" s="327">
+      <c r="F23" s="312">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="G23" s="327">
+      <c r="G23" s="312">
         <v>9.3600000000000003E-2</v>
       </c>
-      <c r="H23" s="327">
+      <c r="H23" s="312">
         <v>0</v>
       </c>
-      <c r="I23" s="327">
+      <c r="I23" s="312">
         <v>13.8</v>
       </c>
-      <c r="J23" s="327">
+      <c r="J23" s="312">
         <v>0</v>
       </c>
     </row>
@@ -27207,31 +27158,31 @@
       <c r="A24">
         <v>120</v>
       </c>
-      <c r="B24" s="327">
+      <c r="B24" s="312">
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="C24" s="327">
+      <c r="C24" s="312">
         <v>5.1200000000000002E-2</v>
       </c>
-      <c r="D24" s="327">
+      <c r="D24" s="312">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="E24" s="327">
+      <c r="E24" s="312">
         <v>0.93700000000000006</v>
       </c>
-      <c r="F24" s="327">
+      <c r="F24" s="312">
         <v>0.104</v>
       </c>
-      <c r="G24" s="327">
+      <c r="G24" s="312">
         <v>4.7399999999999998E-2</v>
       </c>
-      <c r="H24" s="327">
+      <c r="H24" s="312">
         <v>0</v>
       </c>
-      <c r="I24" s="327">
+      <c r="I24" s="312">
         <v>3.35</v>
       </c>
-      <c r="J24" s="327">
+      <c r="J24" s="312">
         <v>0</v>
       </c>
     </row>
@@ -27239,31 +27190,31 @@
       <c r="A25">
         <v>125</v>
       </c>
-      <c r="B25" s="327">
+      <c r="B25" s="312">
         <v>4.8399999999999999E-2</v>
       </c>
-      <c r="C25" s="327">
+      <c r="C25" s="312">
         <v>4.8099999999999997E-2</v>
       </c>
-      <c r="D25" s="327">
+      <c r="D25" s="312">
         <v>3.4699999999999998E-4</v>
       </c>
-      <c r="E25" s="327">
+      <c r="E25" s="312">
         <v>0.13800000000000001</v>
       </c>
-      <c r="F25" s="327">
+      <c r="F25" s="312">
         <v>8.1299999999999997E-2</v>
       </c>
-      <c r="G25" s="327">
+      <c r="G25" s="312">
         <v>0</v>
       </c>
-      <c r="H25" s="327">
+      <c r="H25" s="312">
         <v>0</v>
       </c>
-      <c r="I25" s="327">
+      <c r="I25" s="312">
         <v>2.75</v>
       </c>
-      <c r="J25" s="327">
+      <c r="J25" s="312">
         <v>0</v>
       </c>
     </row>
@@ -27271,31 +27222,31 @@
       <c r="A26">
         <v>130</v>
       </c>
-      <c r="B26" s="327">
+      <c r="B26" s="312">
         <v>1.8400000000000001E-3</v>
       </c>
-      <c r="C26" s="327">
+      <c r="C26" s="312">
         <v>1.7099999999999999E-3</v>
       </c>
-      <c r="D26" s="327">
+      <c r="D26" s="312">
         <v>1.25E-4</v>
       </c>
-      <c r="E26" s="327">
+      <c r="E26" s="312">
         <v>0.153</v>
       </c>
-      <c r="F26" s="327">
+      <c r="F26" s="312">
         <v>4.4600000000000001E-2</v>
       </c>
-      <c r="G26" s="327">
+      <c r="G26" s="312">
         <v>0</v>
       </c>
-      <c r="H26" s="327">
+      <c r="H26" s="312">
         <v>0</v>
       </c>
-      <c r="I26" s="327">
+      <c r="I26" s="312">
         <v>3.1E-2</v>
       </c>
-      <c r="J26" s="327">
+      <c r="J26" s="312">
         <v>0</v>
       </c>
     </row>
@@ -27303,31 +27254,31 @@
       <c r="A27">
         <v>135</v>
       </c>
-      <c r="B27" s="327">
+      <c r="B27" s="312">
         <v>7.7299999999999999E-3</v>
       </c>
-      <c r="C27" s="327">
+      <c r="C27" s="312">
         <v>7.7299999999999999E-3</v>
       </c>
-      <c r="D27" s="327">
+      <c r="D27" s="312">
         <v>0</v>
       </c>
-      <c r="E27" s="327">
+      <c r="E27" s="312">
         <v>0.14599999999999999</v>
       </c>
-      <c r="F27" s="327">
+      <c r="F27" s="312">
         <v>9.4699999999999993E-3</v>
       </c>
-      <c r="G27" s="327">
+      <c r="G27" s="312">
         <v>0</v>
       </c>
-      <c r="H27" s="327">
+      <c r="H27" s="312">
         <v>0</v>
       </c>
-      <c r="I27" s="327">
+      <c r="I27" s="312">
         <v>0</v>
       </c>
-      <c r="J27" s="327">
+      <c r="J27" s="312">
         <v>0</v>
       </c>
     </row>
@@ -27335,31 +27286,31 @@
       <c r="A28">
         <v>140</v>
       </c>
-      <c r="B28" s="327">
+      <c r="B28" s="312">
         <v>0</v>
       </c>
-      <c r="C28" s="327">
+      <c r="C28" s="312">
         <v>0</v>
       </c>
-      <c r="D28" s="327">
+      <c r="D28" s="312">
         <v>0</v>
       </c>
-      <c r="E28" s="327">
+      <c r="E28" s="312">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="F28" s="327">
+      <c r="F28" s="312">
         <v>4.2599999999999999E-3</v>
       </c>
-      <c r="G28" s="327">
+      <c r="G28" s="312">
         <v>0</v>
       </c>
-      <c r="H28" s="327">
+      <c r="H28" s="312">
         <v>0</v>
       </c>
-      <c r="I28" s="327">
+      <c r="I28" s="312">
         <v>0</v>
       </c>
-      <c r="J28" s="327">
+      <c r="J28" s="312">
         <v>0</v>
       </c>
     </row>
@@ -27367,39 +27318,39 @@
       <c r="A29" t="s">
         <v>243</v>
       </c>
-      <c r="B29" s="326">
+      <c r="B29" s="311">
         <f>SUM(B5:B28)</f>
         <v>2.4524780000000002</v>
       </c>
-      <c r="C29" s="326">
+      <c r="C29" s="311">
         <f t="shared" ref="C29:J29" si="0">SUM(C5:C28)</f>
         <v>0.60091000000000006</v>
       </c>
-      <c r="D29" s="326">
+      <c r="D29" s="311">
         <f t="shared" si="0"/>
         <v>1.8507709999999995</v>
       </c>
-      <c r="E29" s="326">
+      <c r="E29" s="311">
         <f t="shared" si="0"/>
         <v>12.8934</v>
       </c>
-      <c r="F29" s="326">
+      <c r="F29" s="311">
         <f t="shared" si="0"/>
         <v>1.5099989999999996</v>
       </c>
-      <c r="G29" s="326">
+      <c r="G29" s="311">
         <f t="shared" si="0"/>
         <v>0.21584300000000001</v>
       </c>
-      <c r="H29" s="326">
+      <c r="H29" s="311">
         <f t="shared" si="0"/>
         <v>6.6950000000000003</v>
       </c>
-      <c r="I29" s="326">
+      <c r="I29" s="311">
         <f t="shared" si="0"/>
         <v>159.56100000000001</v>
       </c>
-      <c r="J29" s="326">
+      <c r="J29" s="311">
         <f t="shared" si="0"/>
         <v>64.174399999999991</v>
       </c>
@@ -27408,11 +27359,11 @@
       <c r="A30" t="s">
         <v>244</v>
       </c>
-      <c r="B30" s="325">
+      <c r="B30" s="328">
         <v>110</v>
       </c>
-      <c r="C30" s="325"/>
-      <c r="D30" s="325"/>
+      <c r="C30" s="328"/>
+      <c r="D30" s="328"/>
       <c r="E30">
         <v>18</v>
       </c>
@@ -27457,42 +27408,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="324" t="s">
+      <c r="A1" s="310" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="324" t="s">
+      <c r="A2" s="310" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="332" t="s">
+      <c r="C3" s="329" t="s">
         <v>247</v>
       </c>
-      <c r="D3" s="332"/>
-      <c r="E3" s="332" t="s">
+      <c r="D3" s="329"/>
+      <c r="E3" s="329" t="s">
         <v>248</v>
       </c>
-      <c r="F3" s="332"/>
-    </row>
-    <row r="4" spans="1:6" s="322" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="331" t="s">
+      <c r="F3" s="329"/>
+    </row>
+    <row r="4" spans="1:6" s="308" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="315" t="s">
         <v>249</v>
       </c>
-      <c r="B4" s="331" t="s">
+      <c r="B4" s="315" t="s">
         <v>250</v>
       </c>
-      <c r="C4" s="331" t="s">
+      <c r="C4" s="315" t="s">
         <v>251</v>
       </c>
-      <c r="D4" s="331" t="s">
+      <c r="D4" s="315" t="s">
         <v>252</v>
       </c>
-      <c r="E4" s="331" t="s">
+      <c r="E4" s="315" t="s">
         <v>251</v>
       </c>
-      <c r="F4" s="331" t="s">
+      <c r="F4" s="315" t="s">
         <v>252</v>
       </c>
     </row>
@@ -27510,11 +27461,11 @@
       <c r="D5">
         <v>160</v>
       </c>
-      <c r="E5" s="328">
+      <c r="E5" s="313">
         <f>$B$5*C5</f>
         <v>72.109200000000001</v>
       </c>
-      <c r="F5" s="328">
+      <c r="F5" s="313">
         <f>$B$5*D5</f>
         <v>96.145600000000002</v>
       </c>
@@ -27533,11 +27484,11 @@
       <c r="D6">
         <v>160</v>
       </c>
-      <c r="E6" s="328">
+      <c r="E6" s="313">
         <f t="shared" ref="E6:E12" si="0">$B$5*C6</f>
         <v>72.109200000000001</v>
       </c>
-      <c r="F6" s="328">
+      <c r="F6" s="313">
         <f t="shared" ref="F6:F12" si="1">$B$5*D6</f>
         <v>96.145600000000002</v>
       </c>
@@ -27556,11 +27507,11 @@
       <c r="D7">
         <v>400</v>
       </c>
-      <c r="E7" s="328">
+      <c r="E7" s="313">
         <f t="shared" si="0"/>
         <v>120.18200000000002</v>
       </c>
-      <c r="F7" s="328">
+      <c r="F7" s="313">
         <f t="shared" si="1"/>
         <v>240.36400000000003</v>
       </c>
@@ -27579,11 +27530,11 @@
       <c r="D8">
         <v>30</v>
       </c>
-      <c r="E8" s="328">
+      <c r="E8" s="313">
         <f t="shared" si="0"/>
         <v>12.0182</v>
       </c>
-      <c r="F8" s="328">
+      <c r="F8" s="313">
         <f t="shared" si="1"/>
         <v>18.0273</v>
       </c>
@@ -27602,11 +27553,11 @@
       <c r="D9">
         <v>40</v>
       </c>
-      <c r="E9" s="328">
+      <c r="E9" s="313">
         <f t="shared" si="0"/>
         <v>15.022750000000002</v>
       </c>
-      <c r="F9" s="328">
+      <c r="F9" s="313">
         <f t="shared" si="1"/>
         <v>24.0364</v>
       </c>
@@ -27625,11 +27576,11 @@
       <c r="D10">
         <v>160</v>
       </c>
-      <c r="E10" s="328">
+      <c r="E10" s="313">
         <f t="shared" si="0"/>
         <v>48.072800000000001</v>
       </c>
-      <c r="F10" s="328">
+      <c r="F10" s="313">
         <f t="shared" si="1"/>
         <v>96.145600000000002</v>
       </c>
@@ -27648,11 +27599,11 @@
       <c r="D11">
         <v>30</v>
       </c>
-      <c r="E11" s="328">
+      <c r="E11" s="313">
         <f t="shared" si="0"/>
         <v>12.0182</v>
       </c>
-      <c r="F11" s="328">
+      <c r="F11" s="313">
         <f t="shared" si="1"/>
         <v>18.0273</v>
       </c>
@@ -27671,11 +27622,11 @@
       <c r="D12">
         <v>30</v>
       </c>
-      <c r="E12" s="328">
+      <c r="E12" s="313">
         <f t="shared" si="0"/>
         <v>12.0182</v>
       </c>
-      <c r="F12" s="328">
+      <c r="F12" s="313">
         <f t="shared" si="1"/>
         <v>18.0273</v>
       </c>
@@ -27704,7 +27655,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="324" t="s">
+      <c r="A1" s="310" t="s">
         <v>255</v>
       </c>
     </row>

--- a/MUSCShield_form.xlsx
+++ b/MUSCShield_form.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="9720" windowHeight="3270" tabRatio="688" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="9720" windowHeight="3270" tabRatio="688" firstSheet="8" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -720,7 +720,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="307">
   <si>
     <t>Shielding Calculations</t>
   </si>
@@ -1341,12 +1341,6 @@
     <t>RF Rad</t>
   </si>
   <si>
-    <t>Nfluoro</t>
-  </si>
-  <si>
-    <t>Mean DAP</t>
-  </si>
-  <si>
     <t>uGy-m^2</t>
   </si>
   <si>
@@ -1653,22 +1647,328 @@
     <t>Fits of transmission for broad-beam secondary transmission to Equation A.2 (thickness x is input in millimeters)</t>
   </si>
   <si>
-    <t>Fits of transmission for broad primary x-ray beams (for lead, concrete, gypsum wall board, steel, plate glass, and wood) to Equation A.2 (thickness x is input in mm) for W/Ag x-ray beams (mammography)</t>
-  </si>
-  <si>
     <t>Source:</t>
   </si>
   <si>
     <t>Li X, Zhang D, Liu B, “Workload and transmission data for the installation of a digital breast tomosynthesis system”, MedPhys 40(6) 063901-1</t>
   </si>
   <si>
-    <t>Fits of transmission for broad primary x-ray beams (for lead, concrete, gypsum wall board, steel, plate glass, and wood) to Equation A.2 (thickness x is input in mm) for W/Al x-ray beams (mammography)</t>
-  </si>
-  <si>
     <t>Li X, Zhang D, Liu B, “Transmission of broad W/Rh and W/Al (target/filter) x-ray beams operated at 25-29 kVp through common shielding materials”, MedPhys 39(7) 4132</t>
   </si>
   <si>
-    <t>Fits of transmission for broad primary x-ray beams (for lead, concrete, gypsum wall board, steel, plate glass, and wood) to Equation A.2 (thickness x is input in mm) for W/Rh x-ray beams (mammography)</t>
+    <t>Pts/wk</t>
+  </si>
+  <si>
+    <t>Mean DAP/pt</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table 1: Fitted results of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> for broad tungste-anode, aluminum-filter x-ray beams. Units of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> in mm^-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table 2: Fitted results of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> for broad tungste-anode, rhodium-filter x-ray beams. Units of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> in mm^-1</t>
+    </r>
+  </si>
+  <si>
+    <t>W/Rh</t>
+  </si>
+  <si>
+    <t>W/Al</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table 1: Fitted results of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> for broad tungste-anode, silver-filter x-ray beams. Units of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> in mm^-1</t>
+    </r>
+  </si>
+  <si>
+    <t>W/Ag</t>
   </si>
 </sst>
 </file>
@@ -3214,7 +3514,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3230,6 +3529,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="4" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="46" xfId="4" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="47" xfId="4" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="24" xfId="4" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="8" borderId="24" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="24" fillId="8" borderId="24" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="24" xfId="4" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3276,25 +3596,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="4" applyFont="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="46" xfId="4" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="47" xfId="4" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="24" xfId="4" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="24" fillId="8" borderId="24" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="24" fillId="8" borderId="24" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="24" xfId="4" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -13204,7 +13506,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13214,71 +13516,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="310" t="s">
+      <c r="A1" s="309" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="309" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="309" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="310" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="309" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="310" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="309" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="310" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E6" s="334" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="310" t="s">
+      <c r="F6" s="334"/>
+      <c r="G6" s="334"/>
+      <c r="H6" s="334"/>
+      <c r="I6" s="334"/>
+    </row>
+    <row r="7" spans="1:9" s="308" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="314" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E6" s="328" t="s">
+      <c r="B7" s="314" t="s">
         <v>265</v>
       </c>
-      <c r="F6" s="328"/>
-      <c r="G6" s="328"/>
-      <c r="H6" s="328"/>
-      <c r="I6" s="328"/>
-    </row>
-    <row r="7" spans="1:9" s="308" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="315" t="s">
+      <c r="C7" s="314" t="s">
         <v>266</v>
       </c>
-      <c r="B7" s="315" t="s">
+      <c r="D7" s="314" t="s">
         <v>267</v>
       </c>
-      <c r="C7" s="315" t="s">
+      <c r="E7" s="314" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="314" t="s">
         <v>268</v>
       </c>
-      <c r="D7" s="315" t="s">
+      <c r="G7" s="314" t="s">
         <v>269</v>
       </c>
-      <c r="E7" s="315" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="315" t="s">
+      <c r="H7" s="314" t="s">
         <v>270</v>
       </c>
-      <c r="G7" s="315" t="s">
+      <c r="I7" s="314" t="s">
         <v>271</v>
-      </c>
-      <c r="H7" s="315" t="s">
-        <v>272</v>
-      </c>
-      <c r="I7" s="315" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B8" s="208">
         <f>NCRP147_4.2!B29</f>
@@ -13310,7 +13612,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B9" s="208">
         <f>NCRP147_4.2!C29</f>
@@ -13342,7 +13644,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B10" s="208">
         <f>NCRP147_4.2!D29</f>
@@ -13374,7 +13676,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B11" s="208">
         <f>NCRP147_4.2!E29</f>
@@ -13406,7 +13708,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B12" s="208">
         <f>NCRP147_4.2!F29</f>
@@ -13438,7 +13740,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B13" s="208">
         <f>NCRP147_4.2!G29</f>
@@ -13470,7 +13772,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B14" s="208">
         <f>NCRP147_4.2!H29</f>
@@ -13502,7 +13804,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B15" s="208">
         <f>NCRP147_4.2!I29</f>
@@ -13534,7 +13836,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B16" s="208">
         <f>NCRP147_4.2!J29</f>
@@ -13586,32 +13888,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="310" t="s">
-        <v>274</v>
+      <c r="A1" s="309" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="310" t="s">
-        <v>275</v>
+      <c r="A2" s="309" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C4" t="s">
         <v>276</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>277</v>
-      </c>
-      <c r="C4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D4" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B5">
         <v>60</v>
@@ -13625,7 +13927,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B6">
         <v>15</v>
@@ -13639,7 +13941,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B7">
         <v>25</v>
@@ -13653,7 +13955,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B8">
         <v>25</v>
@@ -13667,7 +13969,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D9">
         <v>550</v>
@@ -13689,65 +13991,65 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A1" s="310" t="s">
-        <v>285</v>
+      <c r="A1" s="309" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B4" s="328" t="s">
+      <c r="B4" s="334" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="328"/>
-      <c r="D4" s="328"/>
-      <c r="E4" s="328"/>
-      <c r="F4" s="328"/>
-      <c r="G4" s="328" t="s">
+      <c r="C4" s="334"/>
+      <c r="D4" s="334"/>
+      <c r="E4" s="334"/>
+      <c r="F4" s="334"/>
+      <c r="G4" s="334" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="328"/>
-      <c r="I4" s="328"/>
-      <c r="J4" s="328"/>
-      <c r="K4" s="328"/>
-      <c r="L4" s="328" t="s">
+      <c r="H4" s="334"/>
+      <c r="I4" s="334"/>
+      <c r="J4" s="334"/>
+      <c r="K4" s="334"/>
+      <c r="L4" s="334" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="328"/>
-      <c r="N4" s="328"/>
-      <c r="O4" s="328"/>
-      <c r="P4" s="328"/>
-      <c r="Q4" s="328" t="s">
+      <c r="M4" s="334"/>
+      <c r="N4" s="334"/>
+      <c r="O4" s="334"/>
+      <c r="P4" s="334"/>
+      <c r="Q4" s="334" t="s">
         <v>54</v>
       </c>
-      <c r="R4" s="328"/>
-      <c r="S4" s="328"/>
-      <c r="T4" s="328"/>
-      <c r="U4" s="328"/>
-      <c r="V4" s="328" t="s">
+      <c r="R4" s="334"/>
+      <c r="S4" s="334"/>
+      <c r="T4" s="334"/>
+      <c r="U4" s="334"/>
+      <c r="V4" s="334" t="s">
         <v>96</v>
       </c>
-      <c r="W4" s="328"/>
-      <c r="X4" s="328"/>
-      <c r="Y4" s="328"/>
-      <c r="Z4" s="328"/>
-      <c r="AA4" s="328" t="s">
+      <c r="W4" s="334"/>
+      <c r="X4" s="334"/>
+      <c r="Y4" s="334"/>
+      <c r="Z4" s="334"/>
+      <c r="AA4" s="334" t="s">
         <v>58</v>
       </c>
-      <c r="AB4" s="328"/>
-      <c r="AC4" s="328"/>
-      <c r="AD4" s="328"/>
-      <c r="AE4" s="328"/>
+      <c r="AB4" s="334"/>
+      <c r="AC4" s="334"/>
+      <c r="AD4" s="334"/>
+      <c r="AE4" s="334"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="314" t="s">
+      <c r="B5" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="314" t="s">
+      <c r="C5" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="314" t="s">
+      <c r="D5" s="313" t="s">
         <v>42</v>
       </c>
       <c r="E5" t="s">
@@ -13756,13 +14058,13 @@
       <c r="F5" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="314" t="s">
+      <c r="G5" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="314" t="s">
+      <c r="H5" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="314" t="s">
+      <c r="I5" s="313" t="s">
         <v>42</v>
       </c>
       <c r="J5" t="s">
@@ -13771,13 +14073,13 @@
       <c r="K5" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="314" t="s">
+      <c r="L5" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="314" t="s">
+      <c r="M5" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="314" t="s">
+      <c r="N5" s="313" t="s">
         <v>42</v>
       </c>
       <c r="O5" t="s">
@@ -13786,13 +14088,13 @@
       <c r="P5" t="s">
         <v>45</v>
       </c>
-      <c r="Q5" s="314" t="s">
+      <c r="Q5" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="R5" s="314" t="s">
+      <c r="R5" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="S5" s="314" t="s">
+      <c r="S5" s="313" t="s">
         <v>42</v>
       </c>
       <c r="T5" t="s">
@@ -13801,13 +14103,13 @@
       <c r="U5" t="s">
         <v>45</v>
       </c>
-      <c r="V5" s="314" t="s">
+      <c r="V5" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="W5" s="314" t="s">
+      <c r="W5" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="X5" s="314" t="s">
+      <c r="X5" s="313" t="s">
         <v>42</v>
       </c>
       <c r="Y5" t="s">
@@ -13816,13 +14118,13 @@
       <c r="Z5" t="s">
         <v>45</v>
       </c>
-      <c r="AA5" s="314" t="s">
+      <c r="AA5" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="AB5" s="314" t="s">
+      <c r="AB5" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="AC5" s="314" t="s">
+      <c r="AC5" s="313" t="s">
         <v>42</v>
       </c>
       <c r="AD5" t="s">
@@ -14122,10 +14424,10 @@
         <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G9">
         <v>0.12970000000000001</v>
@@ -14143,28 +14445,28 @@
         <v>17.753161858088198</v>
       </c>
       <c r="O9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="P9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="T9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="U9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="Y9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="Z9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AD9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AE9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
@@ -14172,10 +14474,10 @@
         <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G10">
         <v>0.1095</v>
@@ -14193,28 +14495,28 @@
         <v>21.0281743652424</v>
       </c>
       <c r="O10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="P10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="T10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="U10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="Y10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="Z10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AD10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AE10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
@@ -16213,8 +16515,8 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="310" t="s">
-        <v>287</v>
+      <c r="A34" s="309" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -16477,7 +16779,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:S4"/>
+      <selection activeCell="H11" sqref="H11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16486,105 +16788,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="310" t="s">
-        <v>288</v>
+      <c r="A1" s="309" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="330" t="s">
-        <v>266</v>
-      </c>
-      <c r="B3" s="328" t="s">
+      <c r="A3" s="336" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" s="334" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="328" t="s">
+      <c r="C3" s="334"/>
+      <c r="D3" s="334"/>
+      <c r="E3" s="334" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="328"/>
-      <c r="G3" s="328"/>
-      <c r="H3" s="328" t="s">
+      <c r="F3" s="334"/>
+      <c r="G3" s="334"/>
+      <c r="H3" s="334" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="328"/>
-      <c r="J3" s="328"/>
-      <c r="K3" s="328" t="s">
+      <c r="I3" s="334"/>
+      <c r="J3" s="334"/>
+      <c r="K3" s="334" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="328"/>
-      <c r="M3" s="328"/>
-      <c r="N3" s="328" t="s">
+      <c r="L3" s="334"/>
+      <c r="M3" s="334"/>
+      <c r="N3" s="334" t="s">
         <v>96</v>
       </c>
-      <c r="O3" s="328"/>
-      <c r="P3" s="328"/>
-      <c r="Q3" s="328" t="s">
+      <c r="O3" s="334"/>
+      <c r="P3" s="334"/>
+      <c r="Q3" s="334" t="s">
         <v>58</v>
       </c>
-      <c r="R3" s="328"/>
-      <c r="S3" s="328"/>
+      <c r="R3" s="334"/>
+      <c r="S3" s="334"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="330"/>
-      <c r="B4" s="314" t="s">
+      <c r="A4" s="336"/>
+      <c r="B4" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="314" t="s">
+      <c r="C4" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="314" t="s">
+      <c r="D4" s="313" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="314" t="s">
+      <c r="E4" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="314" t="s">
+      <c r="F4" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="314" t="s">
+      <c r="G4" s="313" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="314" t="s">
+      <c r="H4" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="314" t="s">
+      <c r="I4" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="314" t="s">
+      <c r="J4" s="313" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="314" t="s">
+      <c r="K4" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="314" t="s">
+      <c r="L4" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="314" t="s">
+      <c r="M4" s="313" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="314" t="s">
+      <c r="N4" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="314" t="s">
+      <c r="O4" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="314" t="s">
+      <c r="P4" s="313" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="314" t="s">
+      <c r="Q4" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="314" t="s">
+      <c r="R4" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="314" t="s">
+      <c r="S4" s="313" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B5">
         <v>2.3460000000000001</v>
@@ -16643,7 +16945,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B6">
         <v>2.2639999999999998</v>
@@ -16702,7 +17004,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B7">
         <v>2.6509999999999998</v>
@@ -16761,7 +17063,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B8">
         <v>2.347</v>
@@ -16820,7 +17122,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B9">
         <v>2.2949999999999999</v>
@@ -16879,7 +17181,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B10">
         <v>2.2829999999999999</v>
@@ -16938,7 +17240,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B11">
         <v>30.6</v>
@@ -16997,7 +17299,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B12">
         <v>2.3889999999999998</v>
@@ -17056,7 +17358,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B13">
         <v>2.7280000000000002</v>
@@ -17132,7 +17434,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:S4"/>
+      <selection activeCell="Q17" sqref="Q17:S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17141,99 +17443,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="310" t="s">
-        <v>297</v>
+      <c r="A1" s="309" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="330" t="s">
-        <v>266</v>
-      </c>
-      <c r="B3" s="328" t="s">
+      <c r="A3" s="336" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" s="334" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="328" t="s">
+      <c r="C3" s="334"/>
+      <c r="D3" s="334"/>
+      <c r="E3" s="334" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="328"/>
-      <c r="G3" s="328"/>
-      <c r="H3" s="328" t="s">
+      <c r="F3" s="334"/>
+      <c r="G3" s="334"/>
+      <c r="H3" s="334" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="328"/>
-      <c r="J3" s="328"/>
-      <c r="K3" s="328" t="s">
+      <c r="I3" s="334"/>
+      <c r="J3" s="334"/>
+      <c r="K3" s="334" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="328"/>
-      <c r="M3" s="328"/>
-      <c r="N3" s="328" t="s">
+      <c r="L3" s="334"/>
+      <c r="M3" s="334"/>
+      <c r="N3" s="334" t="s">
         <v>96</v>
       </c>
-      <c r="O3" s="328"/>
-      <c r="P3" s="328"/>
-      <c r="Q3" s="328" t="s">
+      <c r="O3" s="334"/>
+      <c r="P3" s="334"/>
+      <c r="Q3" s="334" t="s">
         <v>58</v>
       </c>
-      <c r="R3" s="328"/>
-      <c r="S3" s="328"/>
+      <c r="R3" s="334"/>
+      <c r="S3" s="334"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="330"/>
-      <c r="B4" s="314" t="s">
+      <c r="A4" s="336"/>
+      <c r="B4" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="314" t="s">
+      <c r="C4" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="314" t="s">
+      <c r="D4" s="313" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="314" t="s">
+      <c r="E4" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="314" t="s">
+      <c r="F4" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="314" t="s">
+      <c r="G4" s="313" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="314" t="s">
+      <c r="H4" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="314" t="s">
+      <c r="I4" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="314" t="s">
+      <c r="J4" s="313" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="314" t="s">
+      <c r="K4" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="314" t="s">
+      <c r="L4" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="314" t="s">
+      <c r="M4" s="313" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="314" t="s">
+      <c r="N4" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="314" t="s">
+      <c r="O4" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="314" t="s">
+      <c r="P4" s="313" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="314" t="s">
+      <c r="Q4" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="314" t="s">
+      <c r="R4" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="314" t="s">
+      <c r="S4" s="313" t="s">
         <v>42</v>
       </c>
     </row>
@@ -17593,7 +17895,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B11">
         <v>2.298</v>
@@ -17652,7 +17954,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B12">
         <v>2.2559999999999998</v>
@@ -17711,7 +18013,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B13">
         <v>2.5129999999999999</v>
@@ -17770,7 +18072,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B14">
         <v>2.3220000000000001</v>
@@ -17829,7 +18131,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B15">
         <v>2.2719999999999998</v>
@@ -17888,7 +18190,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B16">
         <v>2.2879999999999998</v>
@@ -17947,7 +18249,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B17">
         <v>29.91</v>
@@ -18006,7 +18308,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B18">
         <v>2.3540000000000001</v>
@@ -18065,7 +18367,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B19">
         <v>2.661</v>
@@ -18140,105 +18442,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="310" t="s">
-        <v>298</v>
+      <c r="A1" s="309" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B2" s="328" t="s">
+      <c r="A2" s="337" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2" s="334" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="328"/>
-      <c r="D2" s="328"/>
-      <c r="E2" s="328" t="s">
+      <c r="C2" s="334"/>
+      <c r="D2" s="334"/>
+      <c r="E2" s="334" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="328"/>
-      <c r="G2" s="328"/>
-      <c r="H2" s="328" t="s">
+      <c r="F2" s="334"/>
+      <c r="G2" s="334"/>
+      <c r="H2" s="334" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="328"/>
-      <c r="J2" s="328"/>
-      <c r="K2" s="328" t="s">
+      <c r="I2" s="334"/>
+      <c r="J2" s="334"/>
+      <c r="K2" s="334" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="328"/>
-      <c r="M2" s="328"/>
-      <c r="N2" s="328" t="s">
+      <c r="L2" s="334"/>
+      <c r="M2" s="334"/>
+      <c r="N2" s="334" t="s">
         <v>96</v>
       </c>
-      <c r="O2" s="328"/>
-      <c r="P2" s="328"/>
-      <c r="Q2" s="328" t="s">
+      <c r="O2" s="334"/>
+      <c r="P2" s="334"/>
+      <c r="Q2" s="334" t="s">
         <v>58</v>
       </c>
-      <c r="R2" s="328"/>
-      <c r="S2" s="328"/>
+      <c r="R2" s="334"/>
+      <c r="S2" s="334"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="314" t="s">
+      <c r="B3" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="314" t="s">
+      <c r="C3" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="314" t="s">
+      <c r="D3" s="313" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="314" t="s">
+      <c r="E3" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="314" t="s">
+      <c r="F3" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="314" t="s">
+      <c r="G3" s="313" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="314" t="s">
+      <c r="H3" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="314" t="s">
+      <c r="I3" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="314" t="s">
+      <c r="J3" s="313" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="314" t="s">
+      <c r="K3" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="314" t="s">
+      <c r="L3" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="314" t="s">
+      <c r="M3" s="313" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="314" t="s">
+      <c r="N3" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="314" t="s">
+      <c r="O3" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="314" t="s">
+      <c r="P3" s="313" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="314" t="s">
+      <c r="Q3" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="314" t="s">
+      <c r="R3" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="314" t="s">
+      <c r="S3" s="313" t="s">
         <v>42</v>
       </c>
     </row>
@@ -18479,106 +18784,109 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>299</v>
+      <c r="A9" s="337" t="s">
+        <v>296</v>
       </c>
       <c r="B9" s="309" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="310" t="s">
+      <c r="A11" s="309" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="328" t="s">
+      <c r="A12" s="337" t="s">
+        <v>304</v>
+      </c>
+      <c r="B12" s="334" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="328"/>
-      <c r="D12" s="328"/>
-      <c r="E12" s="328" t="s">
+      <c r="C12" s="334"/>
+      <c r="D12" s="334"/>
+      <c r="E12" s="334" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="328"/>
-      <c r="G12" s="328"/>
-      <c r="H12" s="328" t="s">
+      <c r="F12" s="334"/>
+      <c r="G12" s="334"/>
+      <c r="H12" s="334" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="328"/>
-      <c r="J12" s="328"/>
-      <c r="K12" s="328" t="s">
+      <c r="I12" s="334"/>
+      <c r="J12" s="334"/>
+      <c r="K12" s="334" t="s">
         <v>54</v>
       </c>
-      <c r="L12" s="328"/>
-      <c r="M12" s="328"/>
-      <c r="N12" s="328" t="s">
+      <c r="L12" s="334"/>
+      <c r="M12" s="334"/>
+      <c r="N12" s="334" t="s">
         <v>96</v>
       </c>
-      <c r="O12" s="328"/>
-      <c r="P12" s="328"/>
-      <c r="Q12" s="328" t="s">
+      <c r="O12" s="334"/>
+      <c r="P12" s="334"/>
+      <c r="Q12" s="334" t="s">
         <v>58</v>
       </c>
-      <c r="R12" s="328"/>
-      <c r="S12" s="328"/>
+      <c r="R12" s="334"/>
+      <c r="S12" s="334"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="314" t="s">
+      <c r="B13" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="314" t="s">
+      <c r="C13" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="314" t="s">
+      <c r="D13" s="313" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="314" t="s">
+      <c r="E13" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="314" t="s">
+      <c r="F13" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="314" t="s">
+      <c r="G13" s="313" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="314" t="s">
+      <c r="H13" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="314" t="s">
+      <c r="I13" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="314" t="s">
+      <c r="J13" s="313" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="314" t="s">
+      <c r="K13" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="314" t="s">
+      <c r="L13" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="M13" s="314" t="s">
+      <c r="M13" s="313" t="s">
         <v>42</v>
       </c>
-      <c r="N13" s="314" t="s">
+      <c r="N13" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="314" t="s">
+      <c r="O13" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="P13" s="314" t="s">
+      <c r="P13" s="313" t="s">
         <v>42</v>
       </c>
-      <c r="Q13" s="314" t="s">
+      <c r="Q13" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="R13" s="314" t="s">
+      <c r="R13" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="314" t="s">
+      <c r="S13" s="313" t="s">
         <v>42</v>
       </c>
     </row>
@@ -18937,106 +19245,109 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>299</v>
+      <c r="A21" s="337" t="s">
+        <v>296</v>
       </c>
       <c r="B21" s="309" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="309" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="310" t="s">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="337" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B24" s="328" t="s">
+      <c r="B24" s="334" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="328"/>
-      <c r="D24" s="328"/>
-      <c r="E24" s="328" t="s">
+      <c r="C24" s="334"/>
+      <c r="D24" s="334"/>
+      <c r="E24" s="334" t="s">
         <v>95</v>
       </c>
-      <c r="F24" s="328"/>
-      <c r="G24" s="328"/>
-      <c r="H24" s="328" t="s">
+      <c r="F24" s="334"/>
+      <c r="G24" s="334"/>
+      <c r="H24" s="334" t="s">
         <v>52</v>
       </c>
-      <c r="I24" s="328"/>
-      <c r="J24" s="328"/>
-      <c r="K24" s="328" t="s">
+      <c r="I24" s="334"/>
+      <c r="J24" s="334"/>
+      <c r="K24" s="334" t="s">
         <v>54</v>
       </c>
-      <c r="L24" s="328"/>
-      <c r="M24" s="328"/>
-      <c r="N24" s="328" t="s">
+      <c r="L24" s="334"/>
+      <c r="M24" s="334"/>
+      <c r="N24" s="334" t="s">
         <v>96</v>
       </c>
-      <c r="O24" s="328"/>
-      <c r="P24" s="328"/>
-      <c r="Q24" s="328" t="s">
+      <c r="O24" s="334"/>
+      <c r="P24" s="334"/>
+      <c r="Q24" s="334" t="s">
         <v>58</v>
       </c>
-      <c r="R24" s="328"/>
-      <c r="S24" s="328"/>
+      <c r="R24" s="334"/>
+      <c r="S24" s="334"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="314" t="s">
+      <c r="B25" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="314" t="s">
+      <c r="C25" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="314" t="s">
+      <c r="D25" s="313" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="314" t="s">
+      <c r="E25" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="314" t="s">
+      <c r="F25" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="314" t="s">
+      <c r="G25" s="313" t="s">
         <v>42</v>
       </c>
-      <c r="H25" s="314" t="s">
+      <c r="H25" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="314" t="s">
+      <c r="I25" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="J25" s="314" t="s">
+      <c r="J25" s="313" t="s">
         <v>42</v>
       </c>
-      <c r="K25" s="314" t="s">
+      <c r="K25" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="L25" s="314" t="s">
+      <c r="L25" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="M25" s="314" t="s">
+      <c r="M25" s="313" t="s">
         <v>42</v>
       </c>
-      <c r="N25" s="314" t="s">
+      <c r="N25" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="O25" s="314" t="s">
+      <c r="O25" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="P25" s="314" t="s">
+      <c r="P25" s="313" t="s">
         <v>42</v>
       </c>
-      <c r="Q25" s="314" t="s">
+      <c r="Q25" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="R25" s="314" t="s">
+      <c r="R25" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="S25" s="314" t="s">
+      <c r="S25" s="313" t="s">
         <v>42</v>
       </c>
     </row>
@@ -19277,11 +19588,11 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>299</v>
+      <c r="A31" s="337" t="s">
+        <v>296</v>
       </c>
       <c r="B31" s="309" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -19313,9 +19624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -19325,20 +19634,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="316" t="s">
+      <c r="B1" s="322" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="316"/>
-      <c r="D1" s="316" t="s">
+      <c r="C1" s="322"/>
+      <c r="D1" s="322" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="316"/>
-      <c r="F1" s="316"/>
-      <c r="H1" s="317" t="s">
+      <c r="E1" s="322"/>
+      <c r="F1" s="322"/>
+      <c r="H1" s="323" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="317"/>
-      <c r="J1" s="317"/>
+      <c r="I1" s="323"/>
+      <c r="J1" s="323"/>
       <c r="K1" s="294"/>
       <c r="M1" s="295"/>
     </row>
@@ -19364,7 +19673,7 @@
       <c r="I2" s="296" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="331" t="s">
+      <c r="J2" s="315" t="s">
         <v>42</v>
       </c>
       <c r="K2" s="297"/>
@@ -19374,11 +19683,11 @@
       <c r="A3" s="293" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="334"/>
-      <c r="C3" s="334"/>
-      <c r="D3" s="334"/>
-      <c r="E3" s="334"/>
-      <c r="F3" s="334"/>
+      <c r="B3" s="318"/>
+      <c r="C3" s="318"/>
+      <c r="D3" s="318"/>
+      <c r="E3" s="318"/>
+      <c r="F3" s="318"/>
       <c r="G3" s="293" t="s">
         <v>14</v>
       </c>
@@ -19391,11 +19700,11 @@
       <c r="A4" s="293" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="334"/>
-      <c r="C4" s="334"/>
-      <c r="D4" s="334"/>
-      <c r="E4" s="334"/>
-      <c r="F4" s="334"/>
+      <c r="B4" s="318"/>
+      <c r="C4" s="318"/>
+      <c r="D4" s="318"/>
+      <c r="E4" s="318"/>
+      <c r="F4" s="318"/>
       <c r="G4" s="293" t="s">
         <v>50</v>
       </c>
@@ -19408,16 +19717,16 @@
       <c r="A5" s="293" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="334"/>
-      <c r="C5" s="334"/>
-      <c r="D5" s="334"/>
-      <c r="E5" s="334"/>
-      <c r="F5" s="334"/>
-      <c r="H5" s="318" t="s">
+      <c r="B5" s="318"/>
+      <c r="C5" s="318"/>
+      <c r="D5" s="318"/>
+      <c r="E5" s="318"/>
+      <c r="F5" s="318"/>
+      <c r="H5" s="324" t="s">
         <v>185</v>
       </c>
-      <c r="I5" s="318"/>
-      <c r="J5" s="317"/>
+      <c r="I5" s="324"/>
+      <c r="J5" s="323"/>
       <c r="K5" s="294"/>
       <c r="M5" s="295"/>
     </row>
@@ -19425,18 +19734,18 @@
       <c r="A6" s="293" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="334"/>
-      <c r="C6" s="334"/>
-      <c r="D6" s="334"/>
-      <c r="E6" s="334"/>
-      <c r="F6" s="334"/>
+      <c r="B6" s="318"/>
+      <c r="C6" s="318"/>
+      <c r="D6" s="318"/>
+      <c r="E6" s="318"/>
+      <c r="F6" s="318"/>
       <c r="H6" s="296" t="s">
         <v>40</v>
       </c>
       <c r="I6" s="296" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="331" t="s">
+      <c r="J6" s="315" t="s">
         <v>42</v>
       </c>
       <c r="K6" s="297"/>
@@ -19446,11 +19755,11 @@
       <c r="A7" s="293" t="s">
         <v>193</v>
       </c>
-      <c r="B7" s="335"/>
-      <c r="C7" s="334"/>
-      <c r="D7" s="335"/>
-      <c r="E7" s="334"/>
-      <c r="F7" s="334"/>
+      <c r="B7" s="319"/>
+      <c r="C7" s="318"/>
+      <c r="D7" s="319"/>
+      <c r="E7" s="318"/>
+      <c r="F7" s="318"/>
       <c r="G7" s="293" t="s">
         <v>14</v>
       </c>
@@ -19470,36 +19779,36 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="293" t="s">
-        <v>194</v>
-      </c>
-      <c r="B9" s="332">
+        <v>299</v>
+      </c>
+      <c r="B9" s="316">
         <v>40</v>
       </c>
       <c r="M9" s="298"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="293" t="s">
-        <v>195</v>
-      </c>
-      <c r="B10" s="333">
+        <v>300</v>
+      </c>
+      <c r="B10" s="317">
         <v>10000</v>
       </c>
       <c r="C10" s="293" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" s="293" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="293" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="293" t="s">
         <v>197</v>
       </c>
-      <c r="C12" s="293" t="s">
+      <c r="E12" s="293" t="s">
         <v>198</v>
-      </c>
-      <c r="D12" s="293" t="s">
-        <v>199</v>
-      </c>
-      <c r="E12" s="293" t="s">
-        <v>200</v>
       </c>
       <c r="F12" s="293" t="s">
         <v>62</v>
@@ -19510,146 +19819,146 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="293" t="s">
-        <v>201</v>
-      </c>
-      <c r="B13" s="334"/>
-      <c r="C13" s="334"/>
-      <c r="D13" s="336"/>
-      <c r="E13" s="334"/>
-      <c r="F13" s="334"/>
-      <c r="G13" s="334"/>
+        <v>199</v>
+      </c>
+      <c r="B13" s="318"/>
+      <c r="C13" s="318"/>
+      <c r="D13" s="320"/>
+      <c r="E13" s="318"/>
+      <c r="F13" s="318"/>
+      <c r="G13" s="318"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="293" t="s">
-        <v>202</v>
-      </c>
-      <c r="B14" s="334"/>
-      <c r="C14" s="334"/>
-      <c r="D14" s="336"/>
-      <c r="E14" s="334"/>
-      <c r="F14" s="334"/>
-      <c r="G14" s="334"/>
+        <v>200</v>
+      </c>
+      <c r="B14" s="318"/>
+      <c r="C14" s="318"/>
+      <c r="D14" s="320"/>
+      <c r="E14" s="318"/>
+      <c r="F14" s="318"/>
+      <c r="G14" s="318"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="293" t="s">
-        <v>203</v>
-      </c>
-      <c r="B15" s="334"/>
-      <c r="C15" s="334"/>
-      <c r="D15" s="336"/>
-      <c r="E15" s="334"/>
-      <c r="F15" s="334"/>
-      <c r="G15" s="334"/>
+        <v>201</v>
+      </c>
+      <c r="B15" s="318"/>
+      <c r="C15" s="318"/>
+      <c r="D15" s="320"/>
+      <c r="E15" s="318"/>
+      <c r="F15" s="318"/>
+      <c r="G15" s="318"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="293" t="s">
-        <v>204</v>
-      </c>
-      <c r="B16" s="334"/>
-      <c r="C16" s="334"/>
-      <c r="D16" s="336"/>
-      <c r="E16" s="334"/>
-      <c r="F16" s="334"/>
-      <c r="G16" s="334"/>
+        <v>202</v>
+      </c>
+      <c r="B16" s="318"/>
+      <c r="C16" s="318"/>
+      <c r="D16" s="320"/>
+      <c r="E16" s="318"/>
+      <c r="F16" s="318"/>
+      <c r="G16" s="318"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="293" t="s">
-        <v>205</v>
-      </c>
-      <c r="B17" s="334"/>
-      <c r="C17" s="334"/>
-      <c r="D17" s="336"/>
-      <c r="E17" s="334"/>
-      <c r="F17" s="334"/>
-      <c r="G17" s="334"/>
+        <v>203</v>
+      </c>
+      <c r="B17" s="318"/>
+      <c r="C17" s="318"/>
+      <c r="D17" s="320"/>
+      <c r="E17" s="318"/>
+      <c r="F17" s="318"/>
+      <c r="G17" s="318"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="293" t="s">
-        <v>206</v>
-      </c>
-      <c r="B18" s="334"/>
-      <c r="C18" s="334"/>
-      <c r="D18" s="336"/>
-      <c r="E18" s="334"/>
-      <c r="F18" s="334"/>
-      <c r="G18" s="334"/>
+        <v>204</v>
+      </c>
+      <c r="B18" s="318"/>
+      <c r="C18" s="318"/>
+      <c r="D18" s="320"/>
+      <c r="E18" s="318"/>
+      <c r="F18" s="318"/>
+      <c r="G18" s="318"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="293" t="s">
-        <v>207</v>
-      </c>
-      <c r="B19" s="334"/>
-      <c r="C19" s="334"/>
-      <c r="D19" s="336"/>
-      <c r="E19" s="334"/>
-      <c r="F19" s="334"/>
-      <c r="G19" s="334"/>
+        <v>205</v>
+      </c>
+      <c r="B19" s="318"/>
+      <c r="C19" s="318"/>
+      <c r="D19" s="320"/>
+      <c r="E19" s="318"/>
+      <c r="F19" s="318"/>
+      <c r="G19" s="318"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="293" t="s">
-        <v>208</v>
-      </c>
-      <c r="B20" s="334"/>
-      <c r="C20" s="334"/>
-      <c r="D20" s="336"/>
-      <c r="E20" s="334"/>
-      <c r="F20" s="334"/>
-      <c r="G20" s="334"/>
+        <v>206</v>
+      </c>
+      <c r="B20" s="318"/>
+      <c r="C20" s="318"/>
+      <c r="D20" s="320"/>
+      <c r="E20" s="318"/>
+      <c r="F20" s="318"/>
+      <c r="G20" s="318"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="293" t="s">
-        <v>209</v>
-      </c>
-      <c r="B21" s="334"/>
-      <c r="C21" s="334"/>
-      <c r="D21" s="336"/>
-      <c r="E21" s="334"/>
-      <c r="F21" s="334"/>
-      <c r="G21" s="334"/>
+        <v>207</v>
+      </c>
+      <c r="B21" s="318"/>
+      <c r="C21" s="318"/>
+      <c r="D21" s="320"/>
+      <c r="E21" s="318"/>
+      <c r="F21" s="318"/>
+      <c r="G21" s="318"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="293" t="s">
-        <v>210</v>
-      </c>
-      <c r="B22" s="334"/>
-      <c r="C22" s="334"/>
-      <c r="D22" s="336"/>
-      <c r="E22" s="334"/>
-      <c r="F22" s="334"/>
-      <c r="G22" s="334"/>
+        <v>208</v>
+      </c>
+      <c r="B22" s="318"/>
+      <c r="C22" s="318"/>
+      <c r="D22" s="320"/>
+      <c r="E22" s="318"/>
+      <c r="F22" s="318"/>
+      <c r="G22" s="318"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="293" t="s">
-        <v>211</v>
-      </c>
-      <c r="B23" s="334"/>
-      <c r="C23" s="334"/>
-      <c r="D23" s="336"/>
-      <c r="E23" s="334"/>
-      <c r="F23" s="334"/>
-      <c r="G23" s="334"/>
+        <v>209</v>
+      </c>
+      <c r="B23" s="318"/>
+      <c r="C23" s="318"/>
+      <c r="D23" s="320"/>
+      <c r="E23" s="318"/>
+      <c r="F23" s="318"/>
+      <c r="G23" s="318"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="293" t="s">
-        <v>212</v>
-      </c>
-      <c r="B24" s="334"/>
-      <c r="C24" s="334"/>
-      <c r="D24" s="336"/>
-      <c r="E24" s="334"/>
-      <c r="F24" s="334"/>
-      <c r="G24" s="334"/>
+        <v>210</v>
+      </c>
+      <c r="B24" s="318"/>
+      <c r="C24" s="318"/>
+      <c r="D24" s="320"/>
+      <c r="E24" s="318"/>
+      <c r="F24" s="318"/>
+      <c r="G24" s="318"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="293" t="s">
-        <v>213</v>
-      </c>
-      <c r="B25" s="334"/>
-      <c r="C25" s="334"/>
-      <c r="D25" s="336"/>
-      <c r="E25" s="334"/>
-      <c r="F25" s="334"/>
-      <c r="G25" s="334"/>
+        <v>211</v>
+      </c>
+      <c r="B25" s="318"/>
+      <c r="C25" s="318"/>
+      <c r="D25" s="320"/>
+      <c r="E25" s="318"/>
+      <c r="F25" s="318"/>
+      <c r="G25" s="318"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G26" s="300" t="s">
@@ -19662,36 +19971,37 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B27" s="293" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" s="293" t="s">
+        <v>213</v>
+      </c>
+      <c r="D27" s="293" t="s">
         <v>214</v>
       </c>
-      <c r="C27" s="293" t="s">
+      <c r="E27" s="293" t="s">
         <v>215</v>
       </c>
-      <c r="D27" s="293" t="s">
+      <c r="F27" s="293" t="s">
         <v>216</v>
       </c>
-      <c r="E27" s="293" t="s">
+      <c r="G27" s="300" t="s">
         <v>217</v>
       </c>
-      <c r="F27" s="293" t="s">
-        <v>218</v>
-      </c>
-      <c r="G27" s="300" t="s">
-        <v>219</v>
-      </c>
       <c r="H27" s="300" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J27" s="301"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="293" t="s">
-        <v>201</v>
-      </c>
-      <c r="B28" s="334"/>
-      <c r="C28" s="334"/>
+      <c r="A28" s="293" t="str">
+        <f>IF(A13="","",A13)</f>
+        <v>Wall A</v>
+      </c>
+      <c r="B28" s="318"/>
+      <c r="C28" s="318"/>
       <c r="D28" s="305" t="e">
-        <f t="shared" ref="D28:D40" si="0">B28*(C28^2/D13^2)*$B$10</f>
+        <f>B28*$B$10*(C28^2/D13^2)+12/(D13^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E28" s="306" t="e">
@@ -19699,360 +20009,372 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="306" t="e">
-        <f t="shared" ref="F28:F40" si="1">F13/(G13*E28)</f>
+        <f t="shared" ref="F28:F40" si="0">F13/(G13*E28)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G28" s="305" t="e">
         <f>LN((F28^(-$J$7)+($I$7/$H$7))/(1+($I$7/$H$7)))/($H$7*$J$7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="337"/>
+      <c r="H28" s="321"/>
       <c r="I28" s="307" t="e">
-        <f t="shared" ref="I28:I38" si="2">LOOKUP(G28,mm_value,minimum_Pb)</f>
+        <f t="shared" ref="I28:I38" si="1">LOOKUP(G28,mm_value,minimum_Pb)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J28" s="301"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="293" t="s">
-        <v>202</v>
-      </c>
-      <c r="B29" s="334"/>
-      <c r="C29" s="334"/>
+      <c r="A29" s="293" t="str">
+        <f t="shared" ref="A29:A40" si="2">IF(A14="","",A14)</f>
+        <v>Wall A (Hall)</v>
+      </c>
+      <c r="B29" s="318"/>
+      <c r="C29" s="318"/>
       <c r="D29" s="305" t="e">
+        <f t="shared" ref="D29:D40" si="3">B29*$B$10*(C29^2/D14^2)+12/(D14^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E29" s="306" t="e">
+        <f t="shared" ref="E29:E40" si="4">D29*$B$9/1000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F29" s="306" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E29" s="306" t="e">
-        <f t="shared" ref="E29:E40" si="3">D29*$B$9/1000</f>
+      <c r="G29" s="305" t="e">
+        <f t="shared" ref="G29:G38" si="5">LN((F29^(-$J$7)+($I$7/$H$7))/(1+($I$7/$H$7)))/($H$7*$J$7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F29" s="306" t="e">
+      <c r="H29" s="321"/>
+      <c r="I29" s="307" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G29" s="305" t="e">
-        <f t="shared" ref="G29:G38" si="4">LN((F29^(-$J$7)+($I$7/$H$7))/(1+($I$7/$H$7)))/($H$7*$J$7)</f>
+      <c r="J29" s="301"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="293" t="str">
+        <f t="shared" si="2"/>
+        <v>Wall A (Tech)</v>
+      </c>
+      <c r="B30" s="318"/>
+      <c r="C30" s="318"/>
+      <c r="D30" s="305" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="337"/>
-      <c r="I29" s="307" t="e">
-        <f t="shared" si="2"/>
+      <c r="E30" s="306" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J29" s="301"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="293" t="s">
-        <v>203</v>
-      </c>
-      <c r="B30" s="334"/>
-      <c r="C30" s="334"/>
-      <c r="D30" s="305" t="e">
+      <c r="F30" s="306" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E30" s="306" t="e">
+      <c r="G30" s="305" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H30" s="321"/>
+      <c r="I30" s="307" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J30" s="301"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="293" t="str">
+        <f t="shared" si="2"/>
+        <v>Door A</v>
+      </c>
+      <c r="B31" s="318"/>
+      <c r="C31" s="318"/>
+      <c r="D31" s="305" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F30" s="306" t="e">
+      <c r="E31" s="306" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="306" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="305" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" s="321"/>
+      <c r="I31" s="307" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="305" t="e">
+      <c r="J31" s="301"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="293" t="str">
+        <f t="shared" si="2"/>
+        <v>Wall B</v>
+      </c>
+      <c r="B32" s="318"/>
+      <c r="C32" s="318"/>
+      <c r="D32" s="305" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E32" s="306" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="337"/>
-      <c r="I30" s="307" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J30" s="301"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="293" t="s">
-        <v>204</v>
-      </c>
-      <c r="B31" s="334"/>
-      <c r="C31" s="334"/>
-      <c r="D31" s="305" t="e">
+      <c r="F32" s="306" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="306" t="e">
+      <c r="G32" s="305" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" s="321"/>
+      <c r="I32" s="307" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J32" s="301"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33" s="293" t="str">
+        <f t="shared" si="2"/>
+        <v>Wall C</v>
+      </c>
+      <c r="B33" s="318"/>
+      <c r="C33" s="318"/>
+      <c r="D33" s="305" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F31" s="306" t="e">
+      <c r="E33" s="306" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F33" s="306" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33" s="305" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H33" s="321"/>
+      <c r="I33" s="307" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="305" t="e">
+      <c r="J33" s="301"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A34" s="293" t="str">
+        <f t="shared" si="2"/>
+        <v>Wall D</v>
+      </c>
+      <c r="B34" s="318"/>
+      <c r="C34" s="318"/>
+      <c r="D34" s="305" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E34" s="306" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="337"/>
-      <c r="I31" s="307" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J31" s="301"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="293" t="s">
-        <v>205</v>
-      </c>
-      <c r="B32" s="334"/>
-      <c r="C32" s="334"/>
-      <c r="D32" s="305" t="e">
+      <c r="F34" s="306" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E32" s="306" t="e">
+      <c r="G34" s="305" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H34" s="321"/>
+      <c r="I34" s="307" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J34" s="301"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35" s="293" t="str">
+        <f t="shared" si="2"/>
+        <v>Door D</v>
+      </c>
+      <c r="B35" s="318"/>
+      <c r="C35" s="318"/>
+      <c r="D35" s="305" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F32" s="306" t="e">
+      <c r="E35" s="306" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F35" s="306" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G35" s="305" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H35" s="321"/>
+      <c r="I35" s="307" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="305" t="e">
+      <c r="J35" s="301"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36" s="293" t="str">
+        <f t="shared" si="2"/>
+        <v>Wall D (CT)</v>
+      </c>
+      <c r="B36" s="318"/>
+      <c r="C36" s="318"/>
+      <c r="D36" s="305" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E36" s="306" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="337"/>
-      <c r="I32" s="307" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J32" s="301"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A33" s="293" t="s">
-        <v>206</v>
-      </c>
-      <c r="B33" s="334"/>
-      <c r="C33" s="334"/>
-      <c r="D33" s="305" t="e">
+      <c r="F36" s="306" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E33" s="306" t="e">
+      <c r="G36" s="305" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36" s="321"/>
+      <c r="I36" s="307" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J36" s="301"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37" s="293" t="str">
+        <f t="shared" si="2"/>
+        <v>Wall D(CT)</v>
+      </c>
+      <c r="B37" s="318"/>
+      <c r="C37" s="318"/>
+      <c r="D37" s="305" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F33" s="306" t="e">
+      <c r="E37" s="306" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F37" s="306" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G37" s="305" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" s="321"/>
+      <c r="I37" s="307" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G33" s="305" t="e">
+      <c r="J37" s="301"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38" s="293" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="B38" s="318"/>
+      <c r="C38" s="318"/>
+      <c r="D38" s="305" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="306" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="337"/>
-      <c r="I33" s="307" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J33" s="301"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A34" s="293" t="s">
-        <v>207</v>
-      </c>
-      <c r="B34" s="334"/>
-      <c r="C34" s="334"/>
-      <c r="D34" s="305" t="e">
+      <c r="F38" s="306" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E34" s="306" t="e">
+      <c r="G38" s="305" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H38" s="321"/>
+      <c r="I38" s="307" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J38" s="301"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39" s="293" t="str">
+        <f t="shared" si="2"/>
+        <v>Floor</v>
+      </c>
+      <c r="B39" s="318"/>
+      <c r="C39" s="318"/>
+      <c r="D39" s="305" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F34" s="306" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G34" s="305" t="e">
+      <c r="E39" s="306" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="337"/>
-      <c r="I34" s="307" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J34" s="301"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A35" s="293" t="s">
-        <v>208</v>
-      </c>
-      <c r="B35" s="334"/>
-      <c r="C35" s="334"/>
-      <c r="D35" s="305" t="e">
+      <c r="F39" s="306" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E35" s="306" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F35" s="306" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G35" s="305" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" s="337"/>
-      <c r="I35" s="307" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J35" s="301"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A36" s="293" t="s">
-        <v>209</v>
-      </c>
-      <c r="B36" s="334"/>
-      <c r="C36" s="334"/>
-      <c r="D36" s="305" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E36" s="306" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F36" s="306" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G36" s="305" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" s="337"/>
-      <c r="I36" s="307" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J36" s="301"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A37" s="293" t="s">
-        <v>210</v>
-      </c>
-      <c r="B37" s="334"/>
-      <c r="C37" s="334"/>
-      <c r="D37" s="305" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E37" s="306" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F37" s="306" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G37" s="305" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H37" s="337"/>
-      <c r="I37" s="307" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J37" s="301"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A38" s="293" t="s">
-        <v>211</v>
-      </c>
-      <c r="B38" s="334"/>
-      <c r="C38" s="334"/>
-      <c r="D38" s="305" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E38" s="306" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F38" s="306" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G38" s="305" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H38" s="337"/>
-      <c r="I38" s="307" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J38" s="301"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A39" s="293" t="s">
-        <v>212</v>
-      </c>
-      <c r="B39" s="334"/>
-      <c r="C39" s="334"/>
-      <c r="D39" s="305" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E39" s="306" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F39" s="306" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G39" s="337"/>
+      <c r="G39" s="321"/>
       <c r="H39" s="304" t="e">
         <f>LN((F39^-$J$8+($I$8/$H$8))/(1+($I$8/$H$8)))/($H$8*$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="337"/>
+      <c r="I39" s="321"/>
       <c r="J39" s="301"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A40" s="293" t="s">
-        <v>213</v>
-      </c>
-      <c r="B40" s="334"/>
-      <c r="C40" s="334"/>
+      <c r="A40" s="293" t="str">
+        <f t="shared" si="2"/>
+        <v>Ceiling</v>
+      </c>
+      <c r="B40" s="318"/>
+      <c r="C40" s="318"/>
       <c r="D40" s="305" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E40" s="306" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F40" s="306" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="306" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F40" s="306" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G40" s="337"/>
+      <c r="G40" s="321"/>
       <c r="H40" s="304" t="e">
         <f>LN((F40^-$J$8+($I$8/$H$8))/(1+($I$8/$H$8)))/($H$8*$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="337"/>
+      <c r="I40" s="321"/>
       <c r="J40" s="301"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
@@ -20062,39 +20384,40 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B42" s="293" t="s">
+        <v>218</v>
+      </c>
+      <c r="C42" s="293" t="s">
+        <v>215</v>
+      </c>
+      <c r="D42" s="300" t="s">
+        <v>219</v>
+      </c>
+      <c r="E42" s="300" t="s">
+        <v>216</v>
+      </c>
+      <c r="F42" s="300" t="s">
         <v>220</v>
       </c>
-      <c r="C42" s="293" t="s">
+      <c r="G42" s="300" t="s">
         <v>217</v>
       </c>
-      <c r="D42" s="300" t="s">
-        <v>221</v>
-      </c>
-      <c r="E42" s="300" t="s">
-        <v>218</v>
-      </c>
-      <c r="F42" s="300" t="s">
-        <v>222</v>
-      </c>
-      <c r="G42" s="300" t="s">
-        <v>219</v>
-      </c>
       <c r="H42" s="300" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A43" s="293" t="s">
-        <v>201</v>
+      <c r="A43" s="293" t="str">
+        <f>IF(A28="","",A28)</f>
+        <v>Wall A</v>
       </c>
       <c r="B43" s="303"/>
       <c r="C43" s="306" t="e">
-        <f t="shared" ref="C43:C55" si="5">$F$6*$B$9/(D13^2)</f>
+        <f t="shared" ref="C43:C55" si="6">$F$6*$B$9/(D13^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D43" s="303"/>
       <c r="E43" s="306" t="e">
-        <f t="shared" ref="E43:E55" si="6">F13/(G13*C43)</f>
+        <f t="shared" ref="E43:E55" si="7">F13/(G13*C43)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F43" s="303"/>
@@ -20106,61 +20429,64 @@
       <c r="T43" s="302"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A44" s="293" t="s">
-        <v>202</v>
+      <c r="A44" s="293" t="str">
+        <f t="shared" ref="A44:A55" si="8">IF(A29="","",A29)</f>
+        <v>Wall A (Hall)</v>
       </c>
       <c r="B44" s="303"/>
       <c r="C44" s="306" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D44" s="303"/>
       <c r="E44" s="306" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F44" s="303"/>
+      <c r="G44" s="305" t="e">
+        <f t="shared" ref="G44:G45" si="9">LN((E44^-$J$7+($I$7/$H$7))/(1+($I$7/$H$7)))/($H$7*$J$7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H44" s="305"/>
+      <c r="T44" s="302"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A45" s="293" t="str">
+        <f t="shared" si="8"/>
+        <v>Wall A (Tech)</v>
+      </c>
+      <c r="B45" s="303"/>
+      <c r="C45" s="306" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F44" s="303"/>
-      <c r="G44" s="305" t="e">
-        <f t="shared" ref="G44:G45" si="7">LN((E44^-$J$7+($I$7/$H$7))/(1+($I$7/$H$7)))/($H$7*$J$7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H44" s="305"/>
-      <c r="T44" s="302"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A45" s="293" t="s">
-        <v>203</v>
-      </c>
-      <c r="B45" s="303"/>
-      <c r="C45" s="306" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="D45" s="303"/>
       <c r="E45" s="306" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F45" s="303"/>
+      <c r="G45" s="305" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H45" s="305"/>
+      <c r="T45" s="302"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A46" s="293" t="str">
+        <f t="shared" si="8"/>
+        <v>Door A</v>
+      </c>
+      <c r="B46" s="303"/>
+      <c r="C46" s="306" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F45" s="303"/>
-      <c r="G45" s="305" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H45" s="305"/>
-      <c r="T45" s="302"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A46" s="293" t="s">
-        <v>204</v>
-      </c>
-      <c r="B46" s="303"/>
-      <c r="C46" s="306" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="D46" s="303"/>
       <c r="E46" s="306" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F46" s="303"/>
@@ -20172,17 +20498,18 @@
       <c r="T46" s="302"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A47" s="293" t="s">
-        <v>205</v>
+      <c r="A47" s="293" t="str">
+        <f t="shared" si="8"/>
+        <v>Wall B</v>
       </c>
       <c r="B47" s="303"/>
       <c r="C47" s="306" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D47" s="303"/>
       <c r="E47" s="306" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F47" s="303"/>
@@ -20194,17 +20521,18 @@
       <c r="T47" s="302"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A48" s="293" t="s">
-        <v>206</v>
+      <c r="A48" s="293" t="str">
+        <f t="shared" si="8"/>
+        <v>Wall C</v>
       </c>
       <c r="B48" s="303"/>
       <c r="C48" s="306" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D48" s="303"/>
       <c r="E48" s="306" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F48" s="303"/>
@@ -20216,105 +20544,110 @@
       <c r="T48" s="302"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A49" s="293" t="s">
-        <v>207</v>
+      <c r="A49" s="293" t="str">
+        <f t="shared" si="8"/>
+        <v>Wall D</v>
       </c>
       <c r="B49" s="303"/>
       <c r="C49" s="306" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D49" s="303"/>
       <c r="E49" s="306" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F49" s="303"/>
+      <c r="G49" s="305" t="e">
+        <f t="shared" ref="G49:G52" si="10">LN((E49^-$J$7+($I$7/$H$7))/(1+($I$7/$H$7)))/($H$7*$J$7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H49" s="305"/>
+      <c r="T49" s="302"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A50" s="293" t="str">
+        <f t="shared" si="8"/>
+        <v>Door D</v>
+      </c>
+      <c r="B50" s="303"/>
+      <c r="C50" s="306" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F49" s="303"/>
-      <c r="G49" s="305" t="e">
-        <f t="shared" ref="G49:G52" si="8">LN((E49^-$J$7+($I$7/$H$7))/(1+($I$7/$H$7)))/($H$7*$J$7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H49" s="305"/>
-      <c r="T49" s="302"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A50" s="293" t="s">
-        <v>208</v>
-      </c>
-      <c r="B50" s="303"/>
-      <c r="C50" s="306" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="D50" s="303"/>
       <c r="E50" s="306" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F50" s="303"/>
+      <c r="G50" s="305" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H50" s="305"/>
+      <c r="T50" s="302"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A51" s="293" t="str">
+        <f t="shared" si="8"/>
+        <v>Wall D (CT)</v>
+      </c>
+      <c r="B51" s="303"/>
+      <c r="C51" s="306" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F50" s="303"/>
-      <c r="G50" s="305" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H50" s="305"/>
-      <c r="T50" s="302"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A51" s="293" t="s">
-        <v>209</v>
-      </c>
-      <c r="B51" s="303"/>
-      <c r="C51" s="306" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="D51" s="303"/>
       <c r="E51" s="306" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F51" s="303"/>
+      <c r="G51" s="305" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H51" s="305"/>
+      <c r="T51" s="302"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A52" s="293" t="str">
+        <f t="shared" si="8"/>
+        <v>Wall D(CT)</v>
+      </c>
+      <c r="B52" s="303"/>
+      <c r="C52" s="306" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F51" s="303"/>
-      <c r="G51" s="305" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H51" s="305"/>
-      <c r="T51" s="302"/>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A52" s="293" t="s">
-        <v>210</v>
-      </c>
-      <c r="B52" s="303"/>
-      <c r="C52" s="306" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="D52" s="303"/>
       <c r="E52" s="306" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F52" s="303"/>
+      <c r="G52" s="305" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H52" s="305"/>
+      <c r="T52" s="302"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A53" s="293" t="str">
+        <f t="shared" si="8"/>
+        <v>Control</v>
+      </c>
+      <c r="B53" s="303"/>
+      <c r="C53" s="306" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F52" s="303"/>
-      <c r="G52" s="305" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H52" s="305"/>
-      <c r="T52" s="302"/>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A53" s="293" t="s">
-        <v>211</v>
-      </c>
-      <c r="B53" s="303"/>
-      <c r="C53" s="306" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="D53" s="303"/>
       <c r="E53" s="306" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F53" s="303"/>
@@ -20326,17 +20659,18 @@
       <c r="T53" s="302"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A54" s="293" t="s">
-        <v>212</v>
+      <c r="A54" s="293" t="str">
+        <f t="shared" si="8"/>
+        <v>Floor</v>
       </c>
       <c r="B54" s="303"/>
       <c r="C54" s="306" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D54" s="303"/>
       <c r="E54" s="306" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F54" s="303"/>
@@ -20349,17 +20683,18 @@
       <c r="T54" s="302"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A55" s="293" t="s">
-        <v>213</v>
+      <c r="A55" s="293" t="str">
+        <f t="shared" si="8"/>
+        <v>Ceiling</v>
       </c>
       <c r="B55" s="303"/>
       <c r="C55" s="306" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D55" s="303"/>
       <c r="E55" s="306" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F55" s="303"/>
@@ -20680,14 +21015,14 @@
       <c r="M18" s="265"/>
       <c r="N18" s="264"/>
       <c r="P18" s="279"/>
-      <c r="Q18" s="319" t="s">
+      <c r="Q18" s="325" t="s">
         <v>174</v>
       </c>
-      <c r="R18" s="319"/>
-      <c r="S18" s="319"/>
-      <c r="T18" s="319"/>
-      <c r="U18" s="319"/>
-      <c r="V18" s="320"/>
+      <c r="R18" s="325"/>
+      <c r="S18" s="325"/>
+      <c r="T18" s="325"/>
+      <c r="U18" s="325"/>
+      <c r="V18" s="326"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="215"/>
@@ -20718,16 +21053,16 @@
       </c>
       <c r="N19" s="276"/>
       <c r="P19" s="215"/>
-      <c r="Q19" s="321" t="s">
+      <c r="Q19" s="327" t="s">
         <v>173</v>
       </c>
-      <c r="R19" s="321"/>
-      <c r="S19" s="321"/>
-      <c r="T19" s="322" t="s">
+      <c r="R19" s="327"/>
+      <c r="S19" s="327"/>
+      <c r="T19" s="328" t="s">
         <v>95</v>
       </c>
-      <c r="U19" s="322"/>
-      <c r="V19" s="323"/>
+      <c r="U19" s="328"/>
+      <c r="V19" s="329"/>
     </row>
     <row r="20" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="215"/>
@@ -20924,14 +21259,14 @@
       <c r="N24" s="216"/>
       <c r="O24" s="216"/>
       <c r="P24" s="254"/>
-      <c r="Q24" s="319" t="s">
+      <c r="Q24" s="325" t="s">
         <v>174</v>
       </c>
-      <c r="R24" s="319"/>
-      <c r="S24" s="319"/>
-      <c r="T24" s="319"/>
-      <c r="U24" s="319"/>
-      <c r="V24" s="320"/>
+      <c r="R24" s="325"/>
+      <c r="S24" s="325"/>
+      <c r="T24" s="325"/>
+      <c r="U24" s="325"/>
+      <c r="V24" s="326"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="223" t="s">
@@ -21017,7 +21352,7 @@
       <c r="H27" s="249" t="s">
         <v>48</v>
       </c>
-      <c r="J27" s="324" t="s">
+      <c r="J27" s="330" t="s">
         <v>163</v>
       </c>
       <c r="K27" s="210" t="s">
@@ -21080,7 +21415,7 @@
       <c r="H28" s="246" t="s">
         <v>122</v>
       </c>
-      <c r="J28" s="324"/>
+      <c r="J28" s="330"/>
       <c r="K28" s="210" t="s">
         <v>184</v>
       </c>
@@ -22404,7 +22739,7 @@
       <c r="E18" s="167" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="325" t="s">
+      <c r="F18" s="331" t="s">
         <v>121</v>
       </c>
       <c r="G18" s="167"/>
@@ -22454,7 +22789,7 @@
       <c r="E19" s="167" t="s">
         <v>113</v>
       </c>
-      <c r="F19" s="325"/>
+      <c r="F19" s="331"/>
       <c r="G19" s="167" t="s">
         <v>48</v>
       </c>
@@ -22487,22 +22822,22 @@
       <c r="E20" s="168" t="s">
         <v>182</v>
       </c>
-      <c r="F20" s="326"/>
+      <c r="F20" s="332"/>
       <c r="G20" s="168" t="s">
         <v>122</v>
       </c>
       <c r="H20" s="168" t="s">
         <v>118</v>
       </c>
-      <c r="L20" s="327" t="s">
+      <c r="L20" s="333" t="s">
         <v>123</v>
       </c>
-      <c r="M20" s="327"/>
-      <c r="N20" s="327"/>
-      <c r="O20" s="327"/>
-      <c r="P20" s="327"/>
-      <c r="Q20" s="327"/>
-      <c r="R20" s="327"/>
+      <c r="M20" s="333"/>
+      <c r="N20" s="333"/>
+      <c r="O20" s="333"/>
+      <c r="P20" s="333"/>
+      <c r="Q20" s="333"/>
+      <c r="R20" s="333"/>
       <c r="T20" s="158">
         <v>1.1906250009999999</v>
       </c>
@@ -26419,8 +26754,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="310" t="s">
-        <v>223</v>
+      <c r="A1" s="309" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -26428,12 +26763,12 @@
         <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="308" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -26441,7 +26776,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="308" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -26449,7 +26784,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="308" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B6">
         <v>0.2</v>
@@ -26457,7 +26792,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="308" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B7">
         <v>0.125</v>
@@ -26465,7 +26800,7 @@
     </row>
     <row r="8" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="308" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B8">
         <v>0.05</v>
@@ -26473,7 +26808,7 @@
     </row>
     <row r="9" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="308" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B9">
         <v>2.5000000000000001E-2</v>
@@ -26498,83 +26833,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="310" t="s">
+      <c r="A1" s="309" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="334" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="334"/>
+      <c r="D3" s="334"/>
+      <c r="E3" s="334" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="328" t="s">
+      <c r="F3" s="334"/>
+      <c r="G3" s="334"/>
+    </row>
+    <row r="4" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="314" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="314" t="s">
         <v>232</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="328" t="s">
+      <c r="C4" s="314" t="s">
         <v>233</v>
       </c>
-      <c r="F3" s="328"/>
-      <c r="G3" s="328"/>
-    </row>
-    <row r="4" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="315" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="315" t="s">
+      <c r="D4" s="314" t="s">
         <v>234</v>
       </c>
-      <c r="C4" s="315" t="s">
+      <c r="E4" s="314" t="s">
         <v>235</v>
       </c>
-      <c r="D4" s="315" t="s">
+      <c r="F4" s="314" t="s">
         <v>236</v>
       </c>
-      <c r="E4" s="315" t="s">
+      <c r="G4" s="314" t="s">
         <v>237</v>
       </c>
-      <c r="F4" s="315" t="s">
+      <c r="H4" s="314" t="s">
         <v>238</v>
       </c>
-      <c r="G4" s="315" t="s">
+      <c r="I4" s="314" t="s">
         <v>239</v>
       </c>
-      <c r="H4" s="315" t="s">
+      <c r="J4" s="314" t="s">
         <v>240</v>
-      </c>
-      <c r="I4" s="315" t="s">
-        <v>241</v>
-      </c>
-      <c r="J4" s="315" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>25</v>
       </c>
-      <c r="B5" s="312">
+      <c r="B5" s="311">
         <v>0</v>
       </c>
-      <c r="C5" s="312">
+      <c r="C5" s="311">
         <v>0</v>
       </c>
-      <c r="D5" s="312">
+      <c r="D5" s="311">
         <v>0</v>
       </c>
-      <c r="E5" s="312">
+      <c r="E5" s="311">
         <v>0</v>
       </c>
-      <c r="F5" s="312">
+      <c r="F5" s="311">
         <v>0</v>
       </c>
-      <c r="G5" s="312">
+      <c r="G5" s="311">
         <v>0</v>
       </c>
-      <c r="H5" s="312">
+      <c r="H5" s="311">
         <v>0.92500000000000004</v>
       </c>
-      <c r="I5" s="312">
+      <c r="I5" s="311">
         <v>0</v>
       </c>
-      <c r="J5" s="312">
+      <c r="J5" s="311">
         <v>0</v>
       </c>
     </row>
@@ -26582,31 +26917,31 @@
       <c r="A6">
         <v>30</v>
       </c>
-      <c r="B6" s="312">
+      <c r="B6" s="311">
         <v>0</v>
       </c>
-      <c r="C6" s="312">
+      <c r="C6" s="311">
         <v>0</v>
       </c>
-      <c r="D6" s="312">
+      <c r="D6" s="311">
         <v>0</v>
       </c>
-      <c r="E6" s="312">
+      <c r="E6" s="311">
         <v>0</v>
       </c>
-      <c r="F6" s="312">
+      <c r="F6" s="311">
         <v>0</v>
       </c>
-      <c r="G6" s="312">
+      <c r="G6" s="311">
         <v>0</v>
       </c>
-      <c r="H6" s="312">
+      <c r="H6" s="311">
         <v>4.67</v>
       </c>
-      <c r="I6" s="312">
+      <c r="I6" s="311">
         <v>0</v>
       </c>
-      <c r="J6" s="312">
+      <c r="J6" s="311">
         <v>0</v>
       </c>
     </row>
@@ -26614,31 +26949,31 @@
       <c r="A7">
         <v>35</v>
       </c>
-      <c r="B7" s="312">
+      <c r="B7" s="311">
         <v>0</v>
       </c>
-      <c r="C7" s="312">
+      <c r="C7" s="311">
         <v>0</v>
       </c>
-      <c r="D7" s="312">
+      <c r="D7" s="311">
         <v>0</v>
       </c>
-      <c r="E7" s="312">
+      <c r="E7" s="311">
         <v>0</v>
       </c>
-      <c r="F7" s="312">
+      <c r="F7" s="311">
         <v>0</v>
       </c>
-      <c r="G7" s="312">
+      <c r="G7" s="311">
         <v>0</v>
       </c>
-      <c r="H7" s="312">
+      <c r="H7" s="311">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I7" s="312">
+      <c r="I7" s="311">
         <v>0</v>
       </c>
-      <c r="J7" s="312">
+      <c r="J7" s="311">
         <v>0</v>
       </c>
     </row>
@@ -26646,31 +26981,31 @@
       <c r="A8">
         <v>40</v>
       </c>
-      <c r="B8" s="312">
+      <c r="B8" s="311">
         <v>1.3799999999999999E-4</v>
       </c>
-      <c r="C8" s="312">
+      <c r="C8" s="311">
         <v>0</v>
       </c>
-      <c r="D8" s="312">
+      <c r="D8" s="311">
         <v>1.3799999999999999E-4</v>
       </c>
-      <c r="E8" s="312">
+      <c r="E8" s="311">
         <v>0</v>
       </c>
-      <c r="F8" s="312">
+      <c r="F8" s="311">
         <v>0</v>
       </c>
-      <c r="G8" s="312">
+      <c r="G8" s="311">
         <v>0</v>
       </c>
-      <c r="H8" s="312">
+      <c r="H8" s="311">
         <v>0</v>
       </c>
-      <c r="I8" s="312">
+      <c r="I8" s="311">
         <v>0</v>
       </c>
-      <c r="J8" s="312">
+      <c r="J8" s="311">
         <v>0</v>
       </c>
     </row>
@@ -26678,31 +27013,31 @@
       <c r="A9">
         <v>45</v>
       </c>
-      <c r="B9" s="312">
+      <c r="B9" s="311">
         <v>7.1000000000000002E-4</v>
       </c>
-      <c r="C9" s="312">
+      <c r="C9" s="311">
         <v>0</v>
       </c>
-      <c r="D9" s="312">
+      <c r="D9" s="311">
         <v>7.1000000000000002E-4</v>
       </c>
-      <c r="E9" s="312">
+      <c r="E9" s="311">
         <v>0</v>
       </c>
-      <c r="F9" s="312">
+      <c r="F9" s="311">
         <v>5.7799999999999995E-4</v>
       </c>
-      <c r="G9" s="312">
+      <c r="G9" s="311">
         <v>0</v>
       </c>
-      <c r="H9" s="312">
+      <c r="H9" s="311">
         <v>0</v>
       </c>
-      <c r="I9" s="312">
+      <c r="I9" s="311">
         <v>0</v>
       </c>
-      <c r="J9" s="312">
+      <c r="J9" s="311">
         <v>0</v>
       </c>
     </row>
@@ -26710,31 +27045,31 @@
       <c r="A10">
         <v>50</v>
       </c>
-      <c r="B10" s="312">
+      <c r="B10" s="311">
         <v>8.4799999999999997E-3</v>
       </c>
-      <c r="C10" s="312">
+      <c r="C10" s="311">
         <v>6.7799999999999996E-3</v>
       </c>
-      <c r="D10" s="312">
+      <c r="D10" s="311">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="E10" s="312">
+      <c r="E10" s="311">
         <v>0</v>
       </c>
-      <c r="F10" s="312">
+      <c r="F10" s="311">
         <v>7.6499999999999995E-4</v>
       </c>
-      <c r="G10" s="312">
+      <c r="G10" s="311">
         <v>0</v>
       </c>
-      <c r="H10" s="312">
+      <c r="H10" s="311">
         <v>0</v>
       </c>
-      <c r="I10" s="312">
+      <c r="I10" s="311">
         <v>0.34</v>
       </c>
-      <c r="J10" s="312">
+      <c r="J10" s="311">
         <v>8.9399999999999993E-2</v>
       </c>
     </row>
@@ -26742,31 +27077,31 @@
       <c r="A11">
         <v>55</v>
       </c>
-      <c r="B11" s="312">
+      <c r="B11" s="311">
         <v>1.09E-2</v>
       </c>
-      <c r="C11" s="312">
+      <c r="C11" s="311">
         <v>4.5600000000000003E-4</v>
       </c>
-      <c r="D11" s="312">
+      <c r="D11" s="311">
         <v>1.04E-2</v>
       </c>
-      <c r="E11" s="312">
+      <c r="E11" s="311">
         <v>7.0199999999999999E-2</v>
       </c>
-      <c r="F11" s="312">
+      <c r="F11" s="311">
         <v>7.2599999999999997E-4</v>
       </c>
-      <c r="G11" s="312">
+      <c r="G11" s="311">
         <v>0</v>
       </c>
-      <c r="H11" s="312">
+      <c r="H11" s="311">
         <v>0</v>
       </c>
-      <c r="I11" s="312">
+      <c r="I11" s="311">
         <v>0.42</v>
       </c>
-      <c r="J11" s="312">
+      <c r="J11" s="311">
         <v>3.9800000000000002E-2</v>
       </c>
     </row>
@@ -26774,31 +27109,31 @@
       <c r="A12">
         <v>60</v>
       </c>
-      <c r="B12" s="312">
+      <c r="B12" s="311">
         <v>9.8100000000000007E-2</v>
       </c>
-      <c r="C12" s="312">
+      <c r="C12" s="311">
         <v>8.9599999999999992E-3</v>
       </c>
-      <c r="D12" s="312">
+      <c r="D12" s="311">
         <v>8.9099999999999999E-2</v>
       </c>
-      <c r="E12" s="312">
+      <c r="E12" s="311">
         <v>0.113</v>
       </c>
-      <c r="F12" s="312">
+      <c r="F12" s="311">
         <v>1.52E-2</v>
       </c>
-      <c r="G12" s="312">
+      <c r="G12" s="311">
         <v>0</v>
       </c>
-      <c r="H12" s="312">
+      <c r="H12" s="311">
         <v>0</v>
       </c>
-      <c r="I12" s="312">
+      <c r="I12" s="311">
         <v>1.96</v>
       </c>
-      <c r="J12" s="312">
+      <c r="J12" s="311">
         <v>0.69899999999999995</v>
       </c>
     </row>
@@ -26806,31 +27141,31 @@
       <c r="A13">
         <v>65</v>
       </c>
-      <c r="B13" s="312">
+      <c r="B13" s="311">
         <v>0.104</v>
       </c>
-      <c r="C13" s="312">
+      <c r="C13" s="311">
         <v>3.4200000000000001E-2</v>
       </c>
-      <c r="D13" s="312">
+      <c r="D13" s="311">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E13" s="312">
+      <c r="E13" s="311">
         <v>0.187</v>
       </c>
-      <c r="F13" s="312">
+      <c r="F13" s="311">
         <v>2.52E-2</v>
       </c>
-      <c r="G13" s="312">
+      <c r="G13" s="311">
         <v>0</v>
       </c>
-      <c r="H13" s="312">
+      <c r="H13" s="311">
         <v>0</v>
       </c>
-      <c r="I13" s="312">
+      <c r="I13" s="311">
         <v>4.55</v>
       </c>
-      <c r="J13" s="312">
+      <c r="J13" s="311">
         <v>15</v>
       </c>
     </row>
@@ -26838,31 +27173,31 @@
       <c r="A14">
         <v>70</v>
       </c>
-      <c r="B14" s="312">
+      <c r="B14" s="311">
         <v>0.45800000000000002</v>
       </c>
-      <c r="C14" s="312">
+      <c r="C14" s="311">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="D14" s="312">
+      <c r="D14" s="311">
         <v>0.38500000000000001</v>
       </c>
-      <c r="E14" s="312">
+      <c r="E14" s="311">
         <v>0.14499999999999999</v>
       </c>
-      <c r="F14" s="312">
+      <c r="F14" s="311">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="G14" s="312">
+      <c r="G14" s="311">
         <v>2.0199999999999999E-2</v>
       </c>
-      <c r="H14" s="312">
+      <c r="H14" s="311">
         <v>0</v>
       </c>
-      <c r="I14" s="312">
+      <c r="I14" s="311">
         <v>6.03</v>
       </c>
-      <c r="J14" s="312">
+      <c r="J14" s="311">
         <v>12.2</v>
       </c>
     </row>
@@ -26870,31 +27205,31 @@
       <c r="A15">
         <v>75</v>
       </c>
-      <c r="B15" s="312">
+      <c r="B15" s="311">
         <v>0.501</v>
       </c>
-      <c r="C15" s="312">
+      <c r="C15" s="311">
         <v>9.5299999999999996E-2</v>
       </c>
-      <c r="D15" s="312">
+      <c r="D15" s="311">
         <v>0.40500000000000003</v>
       </c>
-      <c r="E15" s="312">
+      <c r="E15" s="311">
         <v>0.19400000000000001</v>
       </c>
-      <c r="F15" s="312">
+      <c r="F15" s="311">
         <v>0.224</v>
       </c>
-      <c r="G15" s="312">
+      <c r="G15" s="311">
         <v>2.3600000000000001E-3</v>
       </c>
-      <c r="H15" s="312">
+      <c r="H15" s="311">
         <v>0</v>
       </c>
-      <c r="I15" s="312">
+      <c r="I15" s="311">
         <v>8.02</v>
       </c>
-      <c r="J15" s="312">
+      <c r="J15" s="311">
         <v>15.3</v>
       </c>
     </row>
@@ -26902,31 +27237,31 @@
       <c r="A16">
         <v>80</v>
       </c>
-      <c r="B16" s="312">
+      <c r="B16" s="311">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C16" s="312">
+      <c r="C16" s="311">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D16" s="312">
+      <c r="D16" s="311">
         <v>0.42</v>
       </c>
-      <c r="E16" s="312">
+      <c r="E16" s="311">
         <v>1.72</v>
       </c>
-      <c r="F16" s="312">
+      <c r="F16" s="311">
         <v>0.42799999999999999</v>
       </c>
-      <c r="G16" s="312">
+      <c r="G16" s="311">
         <v>0</v>
       </c>
-      <c r="H16" s="312">
+      <c r="H16" s="311">
         <v>0</v>
       </c>
-      <c r="I16" s="312">
+      <c r="I16" s="311">
         <v>25.4</v>
       </c>
-      <c r="J16" s="312">
+      <c r="J16" s="311">
         <v>11</v>
       </c>
     </row>
@@ -26934,31 +27269,31 @@
       <c r="A17">
         <v>85</v>
       </c>
-      <c r="B17" s="312">
+      <c r="B17" s="311">
         <v>0.315</v>
       </c>
-      <c r="C17" s="312">
+      <c r="C17" s="311">
         <v>6.6199999999999995E-2</v>
       </c>
-      <c r="D17" s="312">
+      <c r="D17" s="311">
         <v>0.249</v>
       </c>
-      <c r="E17" s="312">
+      <c r="E17" s="311">
         <v>2.19</v>
       </c>
-      <c r="F17" s="312">
+      <c r="F17" s="311">
         <v>0.218</v>
       </c>
-      <c r="G17" s="312">
+      <c r="G17" s="311">
         <v>7.8299999999999995E-4</v>
       </c>
-      <c r="H17" s="312">
+      <c r="H17" s="311">
         <v>0</v>
       </c>
-      <c r="I17" s="312">
+      <c r="I17" s="311">
         <v>40.299999999999997</v>
       </c>
-      <c r="J17" s="312">
+      <c r="J17" s="311">
         <v>4.09</v>
       </c>
     </row>
@@ -26966,31 +27301,31 @@
       <c r="A18">
         <v>90</v>
       </c>
-      <c r="B18" s="312">
+      <c r="B18" s="311">
         <v>0.17599999999999999</v>
       </c>
-      <c r="C18" s="312">
+      <c r="C18" s="311">
         <v>1.41E-2</v>
       </c>
-      <c r="D18" s="312">
+      <c r="D18" s="311">
         <v>0.16200000000000001</v>
       </c>
-      <c r="E18" s="312">
+      <c r="E18" s="311">
         <v>1.46</v>
       </c>
-      <c r="F18" s="312">
+      <c r="F18" s="311">
         <v>5.33E-2</v>
       </c>
-      <c r="G18" s="312">
+      <c r="G18" s="311">
         <v>0</v>
       </c>
-      <c r="H18" s="312">
+      <c r="H18" s="311">
         <v>0</v>
       </c>
-      <c r="I18" s="312">
+      <c r="I18" s="311">
         <v>21</v>
       </c>
-      <c r="J18" s="312">
+      <c r="J18" s="311">
         <v>3.43</v>
       </c>
     </row>
@@ -26998,31 +27333,31 @@
       <c r="A19">
         <v>95</v>
       </c>
-      <c r="B19" s="312">
+      <c r="B19" s="311">
         <v>2.18E-2</v>
       </c>
-      <c r="C19" s="312">
+      <c r="C19" s="311">
         <v>3.5100000000000001E-3</v>
       </c>
-      <c r="D19" s="312">
+      <c r="D19" s="311">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="E19" s="312">
+      <c r="E19" s="311">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F19" s="312">
+      <c r="F19" s="311">
         <v>4.8899999999999999E-2</v>
       </c>
-      <c r="G19" s="312">
+      <c r="G19" s="311">
         <v>0</v>
       </c>
-      <c r="H19" s="312">
+      <c r="H19" s="311">
         <v>0</v>
       </c>
-      <c r="I19" s="312">
+      <c r="I19" s="311">
         <v>10.6</v>
       </c>
-      <c r="J19" s="312">
+      <c r="J19" s="311">
         <v>0.67300000000000004</v>
       </c>
     </row>
@@ -27030,31 +27365,31 @@
       <c r="A20">
         <v>100</v>
       </c>
-      <c r="B20" s="312">
+      <c r="B20" s="311">
         <v>1.55E-2</v>
       </c>
-      <c r="C20" s="312">
+      <c r="C20" s="311">
         <v>8.8400000000000002E-4</v>
       </c>
-      <c r="D20" s="312">
+      <c r="D20" s="311">
         <v>1.46E-2</v>
       </c>
-      <c r="E20" s="312">
+      <c r="E20" s="311">
         <v>1.1200000000000001</v>
       </c>
-      <c r="F20" s="312">
+      <c r="F20" s="311">
         <v>5.8700000000000002E-2</v>
       </c>
-      <c r="G20" s="312">
+      <c r="G20" s="311">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="H20" s="312">
+      <c r="H20" s="311">
         <v>0</v>
       </c>
-      <c r="I20" s="312">
+      <c r="I20" s="311">
         <v>7.4</v>
       </c>
-      <c r="J20" s="312">
+      <c r="J20" s="311">
         <v>1.53</v>
       </c>
     </row>
@@ -27062,31 +27397,31 @@
       <c r="A21">
         <v>105</v>
       </c>
-      <c r="B21" s="312">
+      <c r="B21" s="311">
         <v>3.48E-3</v>
       </c>
-      <c r="C21" s="312">
+      <c r="C21" s="311">
         <v>1.97E-3</v>
       </c>
-      <c r="D21" s="312">
+      <c r="D21" s="311">
         <v>1.5100000000000001E-3</v>
       </c>
-      <c r="E21" s="312">
+      <c r="E21" s="311">
         <v>0.96399999999999997</v>
       </c>
-      <c r="F21" s="312">
+      <c r="F21" s="311">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="G21" s="312">
+      <c r="G21" s="311">
         <v>0</v>
       </c>
-      <c r="H21" s="312">
+      <c r="H21" s="311">
         <v>0</v>
       </c>
-      <c r="I21" s="312">
+      <c r="I21" s="311">
         <v>7.02</v>
       </c>
-      <c r="J21" s="312">
+      <c r="J21" s="311">
         <v>9.2700000000000005E-2</v>
       </c>
     </row>
@@ -27094,31 +27429,31 @@
       <c r="A22">
         <v>110</v>
       </c>
-      <c r="B22" s="312">
+      <c r="B22" s="311">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="C22" s="312">
+      <c r="C22" s="311">
         <v>9.9100000000000004E-3</v>
       </c>
-      <c r="D22" s="312">
+      <c r="D22" s="311">
         <v>5.5099999999999995E-4</v>
       </c>
-      <c r="E22" s="312">
+      <c r="E22" s="311">
         <v>0.747</v>
       </c>
-      <c r="F22" s="312">
+      <c r="F22" s="311">
         <v>6.4600000000000005E-2</v>
       </c>
-      <c r="G22" s="312">
+      <c r="G22" s="311">
         <v>2.1399999999999999E-2</v>
       </c>
-      <c r="H22" s="312">
+      <c r="H22" s="311">
         <v>0</v>
       </c>
-      <c r="I22" s="312">
+      <c r="I22" s="311">
         <v>6.59</v>
       </c>
-      <c r="J22" s="312">
+      <c r="J22" s="311">
         <v>3.0499999999999999E-2</v>
       </c>
     </row>
@@ -27126,31 +27461,31 @@
       <c r="A23">
         <v>115</v>
       </c>
-      <c r="B23" s="312">
+      <c r="B23" s="311">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="C23" s="312">
+      <c r="C23" s="311">
         <v>3.7400000000000003E-2</v>
       </c>
-      <c r="D23" s="312">
+      <c r="D23" s="311">
         <v>3.6900000000000001E-3</v>
       </c>
-      <c r="E23" s="312">
+      <c r="E23" s="311">
         <v>1.44</v>
       </c>
-      <c r="F23" s="312">
+      <c r="F23" s="311">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="G23" s="312">
+      <c r="G23" s="311">
         <v>9.3600000000000003E-2</v>
       </c>
-      <c r="H23" s="312">
+      <c r="H23" s="311">
         <v>0</v>
       </c>
-      <c r="I23" s="312">
+      <c r="I23" s="311">
         <v>13.8</v>
       </c>
-      <c r="J23" s="312">
+      <c r="J23" s="311">
         <v>0</v>
       </c>
     </row>
@@ -27158,31 +27493,31 @@
       <c r="A24">
         <v>120</v>
       </c>
-      <c r="B24" s="312">
+      <c r="B24" s="311">
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="C24" s="312">
+      <c r="C24" s="311">
         <v>5.1200000000000002E-2</v>
       </c>
-      <c r="D24" s="312">
+      <c r="D24" s="311">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="E24" s="312">
+      <c r="E24" s="311">
         <v>0.93700000000000006</v>
       </c>
-      <c r="F24" s="312">
+      <c r="F24" s="311">
         <v>0.104</v>
       </c>
-      <c r="G24" s="312">
+      <c r="G24" s="311">
         <v>4.7399999999999998E-2</v>
       </c>
-      <c r="H24" s="312">
+      <c r="H24" s="311">
         <v>0</v>
       </c>
-      <c r="I24" s="312">
+      <c r="I24" s="311">
         <v>3.35</v>
       </c>
-      <c r="J24" s="312">
+      <c r="J24" s="311">
         <v>0</v>
       </c>
     </row>
@@ -27190,31 +27525,31 @@
       <c r="A25">
         <v>125</v>
       </c>
-      <c r="B25" s="312">
+      <c r="B25" s="311">
         <v>4.8399999999999999E-2</v>
       </c>
-      <c r="C25" s="312">
+      <c r="C25" s="311">
         <v>4.8099999999999997E-2</v>
       </c>
-      <c r="D25" s="312">
+      <c r="D25" s="311">
         <v>3.4699999999999998E-4</v>
       </c>
-      <c r="E25" s="312">
+      <c r="E25" s="311">
         <v>0.13800000000000001</v>
       </c>
-      <c r="F25" s="312">
+      <c r="F25" s="311">
         <v>8.1299999999999997E-2</v>
       </c>
-      <c r="G25" s="312">
+      <c r="G25" s="311">
         <v>0</v>
       </c>
-      <c r="H25" s="312">
+      <c r="H25" s="311">
         <v>0</v>
       </c>
-      <c r="I25" s="312">
+      <c r="I25" s="311">
         <v>2.75</v>
       </c>
-      <c r="J25" s="312">
+      <c r="J25" s="311">
         <v>0</v>
       </c>
     </row>
@@ -27222,31 +27557,31 @@
       <c r="A26">
         <v>130</v>
       </c>
-      <c r="B26" s="312">
+      <c r="B26" s="311">
         <v>1.8400000000000001E-3</v>
       </c>
-      <c r="C26" s="312">
+      <c r="C26" s="311">
         <v>1.7099999999999999E-3</v>
       </c>
-      <c r="D26" s="312">
+      <c r="D26" s="311">
         <v>1.25E-4</v>
       </c>
-      <c r="E26" s="312">
+      <c r="E26" s="311">
         <v>0.153</v>
       </c>
-      <c r="F26" s="312">
+      <c r="F26" s="311">
         <v>4.4600000000000001E-2</v>
       </c>
-      <c r="G26" s="312">
+      <c r="G26" s="311">
         <v>0</v>
       </c>
-      <c r="H26" s="312">
+      <c r="H26" s="311">
         <v>0</v>
       </c>
-      <c r="I26" s="312">
+      <c r="I26" s="311">
         <v>3.1E-2</v>
       </c>
-      <c r="J26" s="312">
+      <c r="J26" s="311">
         <v>0</v>
       </c>
     </row>
@@ -27254,31 +27589,31 @@
       <c r="A27">
         <v>135</v>
       </c>
-      <c r="B27" s="312">
+      <c r="B27" s="311">
         <v>7.7299999999999999E-3</v>
       </c>
-      <c r="C27" s="312">
+      <c r="C27" s="311">
         <v>7.7299999999999999E-3</v>
       </c>
-      <c r="D27" s="312">
+      <c r="D27" s="311">
         <v>0</v>
       </c>
-      <c r="E27" s="312">
+      <c r="E27" s="311">
         <v>0.14599999999999999</v>
       </c>
-      <c r="F27" s="312">
+      <c r="F27" s="311">
         <v>9.4699999999999993E-3</v>
       </c>
-      <c r="G27" s="312">
+      <c r="G27" s="311">
         <v>0</v>
       </c>
-      <c r="H27" s="312">
+      <c r="H27" s="311">
         <v>0</v>
       </c>
-      <c r="I27" s="312">
+      <c r="I27" s="311">
         <v>0</v>
       </c>
-      <c r="J27" s="312">
+      <c r="J27" s="311">
         <v>0</v>
       </c>
     </row>
@@ -27286,84 +27621,84 @@
       <c r="A28">
         <v>140</v>
       </c>
-      <c r="B28" s="312">
+      <c r="B28" s="311">
         <v>0</v>
       </c>
-      <c r="C28" s="312">
+      <c r="C28" s="311">
         <v>0</v>
       </c>
-      <c r="D28" s="312">
+      <c r="D28" s="311">
         <v>0</v>
       </c>
-      <c r="E28" s="312">
+      <c r="E28" s="311">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="F28" s="312">
+      <c r="F28" s="311">
         <v>4.2599999999999999E-3</v>
       </c>
-      <c r="G28" s="312">
+      <c r="G28" s="311">
         <v>0</v>
       </c>
-      <c r="H28" s="312">
+      <c r="H28" s="311">
         <v>0</v>
       </c>
-      <c r="I28" s="312">
+      <c r="I28" s="311">
         <v>0</v>
       </c>
-      <c r="J28" s="312">
+      <c r="J28" s="311">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>243</v>
-      </c>
-      <c r="B29" s="311">
+        <v>241</v>
+      </c>
+      <c r="B29" s="310">
         <f>SUM(B5:B28)</f>
         <v>2.4524780000000002</v>
       </c>
-      <c r="C29" s="311">
+      <c r="C29" s="310">
         <f t="shared" ref="C29:J29" si="0">SUM(C5:C28)</f>
         <v>0.60091000000000006</v>
       </c>
-      <c r="D29" s="311">
+      <c r="D29" s="310">
         <f t="shared" si="0"/>
         <v>1.8507709999999995</v>
       </c>
-      <c r="E29" s="311">
+      <c r="E29" s="310">
         <f t="shared" si="0"/>
         <v>12.8934</v>
       </c>
-      <c r="F29" s="311">
+      <c r="F29" s="310">
         <f t="shared" si="0"/>
         <v>1.5099989999999996</v>
       </c>
-      <c r="G29" s="311">
+      <c r="G29" s="310">
         <f t="shared" si="0"/>
         <v>0.21584300000000001</v>
       </c>
-      <c r="H29" s="311">
+      <c r="H29" s="310">
         <f t="shared" si="0"/>
         <v>6.6950000000000003</v>
       </c>
-      <c r="I29" s="311">
+      <c r="I29" s="310">
         <f t="shared" si="0"/>
         <v>159.56100000000001</v>
       </c>
-      <c r="J29" s="311">
+      <c r="J29" s="310">
         <f t="shared" si="0"/>
         <v>64.174399999999991</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>244</v>
-      </c>
-      <c r="B30" s="328">
+        <v>242</v>
+      </c>
+      <c r="B30" s="334">
         <v>110</v>
       </c>
-      <c r="C30" s="328"/>
-      <c r="D30" s="328"/>
+      <c r="C30" s="334"/>
+      <c r="D30" s="334"/>
       <c r="E30">
         <v>18</v>
       </c>
@@ -27398,7 +27733,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:F3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27408,48 +27743,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="310" t="s">
+      <c r="A1" s="309" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="309" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="335" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="310" t="s">
+      <c r="D3" s="335"/>
+      <c r="E3" s="335" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="329" t="s">
+      <c r="F3" s="335"/>
+    </row>
+    <row r="4" spans="1:6" s="308" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="314" t="s">
         <v>247</v>
       </c>
-      <c r="D3" s="329"/>
-      <c r="E3" s="329" t="s">
+      <c r="B4" s="314" t="s">
         <v>248</v>
       </c>
-      <c r="F3" s="329"/>
-    </row>
-    <row r="4" spans="1:6" s="308" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="315" t="s">
+      <c r="C4" s="314" t="s">
         <v>249</v>
       </c>
-      <c r="B4" s="315" t="s">
+      <c r="D4" s="314" t="s">
         <v>250</v>
       </c>
-      <c r="C4" s="315" t="s">
-        <v>251</v>
-      </c>
-      <c r="D4" s="315" t="s">
-        <v>252</v>
-      </c>
-      <c r="E4" s="315" t="s">
-        <v>251</v>
-      </c>
-      <c r="F4" s="315" t="s">
-        <v>252</v>
+      <c r="E4" s="314" t="s">
+        <v>249</v>
+      </c>
+      <c r="F4" s="314" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B5" s="208">
         <f>NCRP147_4.2!C29</f>
@@ -27461,18 +27796,18 @@
       <c r="D5">
         <v>160</v>
       </c>
-      <c r="E5" s="313">
+      <c r="E5" s="312">
         <f>$B$5*C5</f>
         <v>72.109200000000001</v>
       </c>
-      <c r="F5" s="313">
+      <c r="F5" s="312">
         <f>$B$5*D5</f>
         <v>96.145600000000002</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B6" s="208">
         <f>NCRP147_4.2!D29</f>
@@ -27484,18 +27819,18 @@
       <c r="D6">
         <v>160</v>
       </c>
-      <c r="E6" s="313">
+      <c r="E6" s="312">
         <f t="shared" ref="E6:E12" si="0">$B$5*C6</f>
         <v>72.109200000000001</v>
       </c>
-      <c r="F6" s="313">
+      <c r="F6" s="312">
         <f t="shared" ref="F6:F12" si="1">$B$5*D6</f>
         <v>96.145600000000002</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B7" s="208">
         <f>NCRP147_4.2!G29</f>
@@ -27507,18 +27842,18 @@
       <c r="D7">
         <v>400</v>
       </c>
-      <c r="E7" s="313">
+      <c r="E7" s="312">
         <f t="shared" si="0"/>
         <v>120.18200000000002</v>
       </c>
-      <c r="F7" s="313">
+      <c r="F7" s="312">
         <f t="shared" si="1"/>
         <v>240.36400000000003</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B8" s="208">
         <f>NCRP147_4.2!E29</f>
@@ -27530,18 +27865,18 @@
       <c r="D8">
         <v>30</v>
       </c>
-      <c r="E8" s="313">
+      <c r="E8" s="312">
         <f t="shared" si="0"/>
         <v>12.0182</v>
       </c>
-      <c r="F8" s="313">
+      <c r="F8" s="312">
         <f t="shared" si="1"/>
         <v>18.0273</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B9" s="208">
         <f>NCRP147_4.2!F29</f>
@@ -27553,18 +27888,18 @@
       <c r="D9">
         <v>40</v>
       </c>
-      <c r="E9" s="313">
+      <c r="E9" s="312">
         <f t="shared" si="0"/>
         <v>15.022750000000002</v>
       </c>
-      <c r="F9" s="313">
+      <c r="F9" s="312">
         <f t="shared" si="1"/>
         <v>24.0364</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B10" s="208">
         <f>NCRP147_4.2!H29</f>
@@ -27576,18 +27911,18 @@
       <c r="D10">
         <v>160</v>
       </c>
-      <c r="E10" s="313">
+      <c r="E10" s="312">
         <f t="shared" si="0"/>
         <v>48.072800000000001</v>
       </c>
-      <c r="F10" s="313">
+      <c r="F10" s="312">
         <f t="shared" si="1"/>
         <v>96.145600000000002</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B11" s="208">
         <f>NCRP147_4.2!I29</f>
@@ -27599,18 +27934,18 @@
       <c r="D11">
         <v>30</v>
       </c>
-      <c r="E11" s="313">
+      <c r="E11" s="312">
         <f t="shared" si="0"/>
         <v>12.0182</v>
       </c>
-      <c r="F11" s="313">
+      <c r="F11" s="312">
         <f t="shared" si="1"/>
         <v>18.0273</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B12" s="208">
         <f>NCRP147_4.2!J29</f>
@@ -27622,11 +27957,11 @@
       <c r="D12">
         <v>30</v>
       </c>
-      <c r="E12" s="313">
+      <c r="E12" s="312">
         <f t="shared" si="0"/>
         <v>12.0182</v>
       </c>
-      <c r="F12" s="313">
+      <c r="F12" s="312">
         <f t="shared" si="1"/>
         <v>18.0273</v>
       </c>
@@ -27655,8 +27990,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="310" t="s">
-        <v>255</v>
+      <c r="A1" s="309" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -27664,12 +27999,12 @@
         <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B4">
         <v>0.89</v>
@@ -27677,7 +28012,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B5">
         <v>0.09</v>
@@ -27685,7 +28020,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B6">
         <v>0.02</v>
@@ -27693,7 +28028,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B7">
         <v>1</v>

--- a/MUSCShield_form.xlsx
+++ b/MUSCShield_form.xlsx
@@ -720,7 +720,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="309">
   <si>
     <t>Shielding Calculations</t>
   </si>
@@ -1660,106 +1660,6 @@
   </si>
   <si>
     <t>Mean DAP/pt</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Table 1: Fitted results of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>g</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> for broad tungste-anode, aluminum-filter x-ray beams. Units of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> in mm^-1</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1868,6 +1768,71 @@
     <t>W/Al</t>
   </si>
   <si>
+    <t>W/Ag</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table V: Fitting parameters </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> for the transmission of the primary radiation generated by the combined workload distribution [Table IV(c).</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Table 1: Fitted results of </t>
     </r>
@@ -1926,7 +1891,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> for broad tungste-anode, silver-filter x-ray beams. Units of </t>
+      <t xml:space="preserve"> for broad tungsten-anode, silver-filter x-ray beams. Units of </t>
     </r>
     <r>
       <rPr>
@@ -1968,7 +1933,107 @@
     </r>
   </si>
   <si>
-    <t>W/Ag</t>
+    <r>
+      <t xml:space="preserve">Table 1: Fitted results of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> for broad tungsten-anode, aluminum-filter x-ray beams. Units of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> in mm^-1</t>
+    </r>
+  </si>
+  <si>
+    <t>W/Rh, W/Ag, W/Al</t>
   </si>
 </sst>
 </file>
@@ -3551,6 +3616,9 @@
     <xf numFmtId="0" fontId="24" fillId="9" borderId="24" xfId="4" applyFill="1" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3595,9 +3663,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -13541,13 +13606,13 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E6" s="334" t="s">
+      <c r="E6" s="335" t="s">
         <v>263</v>
       </c>
-      <c r="F6" s="334"/>
-      <c r="G6" s="334"/>
-      <c r="H6" s="334"/>
-      <c r="I6" s="334"/>
+      <c r="F6" s="335"/>
+      <c r="G6" s="335"/>
+      <c r="H6" s="335"/>
+      <c r="I6" s="335"/>
     </row>
     <row r="7" spans="1:9" s="308" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="314" t="s">
@@ -13996,48 +14061,48 @@
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B4" s="334" t="s">
+      <c r="B4" s="335" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="334"/>
-      <c r="D4" s="334"/>
-      <c r="E4" s="334"/>
-      <c r="F4" s="334"/>
-      <c r="G4" s="334" t="s">
+      <c r="C4" s="335"/>
+      <c r="D4" s="335"/>
+      <c r="E4" s="335"/>
+      <c r="F4" s="335"/>
+      <c r="G4" s="335" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="334"/>
-      <c r="I4" s="334"/>
-      <c r="J4" s="334"/>
-      <c r="K4" s="334"/>
-      <c r="L4" s="334" t="s">
+      <c r="H4" s="335"/>
+      <c r="I4" s="335"/>
+      <c r="J4" s="335"/>
+      <c r="K4" s="335"/>
+      <c r="L4" s="335" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="334"/>
-      <c r="N4" s="334"/>
-      <c r="O4" s="334"/>
-      <c r="P4" s="334"/>
-      <c r="Q4" s="334" t="s">
+      <c r="M4" s="335"/>
+      <c r="N4" s="335"/>
+      <c r="O4" s="335"/>
+      <c r="P4" s="335"/>
+      <c r="Q4" s="335" t="s">
         <v>54</v>
       </c>
-      <c r="R4" s="334"/>
-      <c r="S4" s="334"/>
-      <c r="T4" s="334"/>
-      <c r="U4" s="334"/>
-      <c r="V4" s="334" t="s">
+      <c r="R4" s="335"/>
+      <c r="S4" s="335"/>
+      <c r="T4" s="335"/>
+      <c r="U4" s="335"/>
+      <c r="V4" s="335" t="s">
         <v>96</v>
       </c>
-      <c r="W4" s="334"/>
-      <c r="X4" s="334"/>
-      <c r="Y4" s="334"/>
-      <c r="Z4" s="334"/>
-      <c r="AA4" s="334" t="s">
+      <c r="W4" s="335"/>
+      <c r="X4" s="335"/>
+      <c r="Y4" s="335"/>
+      <c r="Z4" s="335"/>
+      <c r="AA4" s="335" t="s">
         <v>58</v>
       </c>
-      <c r="AB4" s="334"/>
-      <c r="AC4" s="334"/>
-      <c r="AD4" s="334"/>
-      <c r="AE4" s="334"/>
+      <c r="AB4" s="335"/>
+      <c r="AC4" s="335"/>
+      <c r="AD4" s="335"/>
+      <c r="AE4" s="335"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -16793,42 +16858,42 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="336" t="s">
+      <c r="A3" s="337" t="s">
         <v>264</v>
       </c>
-      <c r="B3" s="334" t="s">
+      <c r="B3" s="335" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="334"/>
-      <c r="D3" s="334"/>
-      <c r="E3" s="334" t="s">
+      <c r="C3" s="335"/>
+      <c r="D3" s="335"/>
+      <c r="E3" s="335" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="334"/>
-      <c r="G3" s="334"/>
-      <c r="H3" s="334" t="s">
+      <c r="F3" s="335"/>
+      <c r="G3" s="335"/>
+      <c r="H3" s="335" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="334"/>
-      <c r="J3" s="334"/>
-      <c r="K3" s="334" t="s">
+      <c r="I3" s="335"/>
+      <c r="J3" s="335"/>
+      <c r="K3" s="335" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="334"/>
-      <c r="M3" s="334"/>
-      <c r="N3" s="334" t="s">
+      <c r="L3" s="335"/>
+      <c r="M3" s="335"/>
+      <c r="N3" s="335" t="s">
         <v>96</v>
       </c>
-      <c r="O3" s="334"/>
-      <c r="P3" s="334"/>
-      <c r="Q3" s="334" t="s">
+      <c r="O3" s="335"/>
+      <c r="P3" s="335"/>
+      <c r="Q3" s="335" t="s">
         <v>58</v>
       </c>
-      <c r="R3" s="334"/>
-      <c r="S3" s="334"/>
+      <c r="R3" s="335"/>
+      <c r="S3" s="335"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="336"/>
+      <c r="A4" s="337"/>
       <c r="B4" s="313" t="s">
         <v>40</v>
       </c>
@@ -17448,42 +17513,42 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="336" t="s">
+      <c r="A3" s="337" t="s">
         <v>264</v>
       </c>
-      <c r="B3" s="334" t="s">
+      <c r="B3" s="335" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="334"/>
-      <c r="D3" s="334"/>
-      <c r="E3" s="334" t="s">
+      <c r="C3" s="335"/>
+      <c r="D3" s="335"/>
+      <c r="E3" s="335" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="334"/>
-      <c r="G3" s="334"/>
-      <c r="H3" s="334" t="s">
+      <c r="F3" s="335"/>
+      <c r="G3" s="335"/>
+      <c r="H3" s="335" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="334"/>
-      <c r="J3" s="334"/>
-      <c r="K3" s="334" t="s">
+      <c r="I3" s="335"/>
+      <c r="J3" s="335"/>
+      <c r="K3" s="335" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="334"/>
-      <c r="M3" s="334"/>
-      <c r="N3" s="334" t="s">
+      <c r="L3" s="335"/>
+      <c r="M3" s="335"/>
+      <c r="N3" s="335" t="s">
         <v>96</v>
       </c>
-      <c r="O3" s="334"/>
-      <c r="P3" s="334"/>
-      <c r="Q3" s="334" t="s">
+      <c r="O3" s="335"/>
+      <c r="P3" s="335"/>
+      <c r="Q3" s="335" t="s">
         <v>58</v>
       </c>
-      <c r="R3" s="334"/>
-      <c r="S3" s="334"/>
+      <c r="R3" s="335"/>
+      <c r="S3" s="335"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="336"/>
+      <c r="A4" s="337"/>
       <c r="B4" s="313" t="s">
         <v>40</v>
       </c>
@@ -18440,53 +18505,53 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="309" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="337" t="s">
-        <v>306</v>
-      </c>
-      <c r="B2" s="334" t="s">
+      <c r="A2" s="322" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="335" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="334"/>
-      <c r="D2" s="334"/>
-      <c r="E2" s="334" t="s">
+      <c r="C2" s="335"/>
+      <c r="D2" s="335"/>
+      <c r="E2" s="335" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="334"/>
-      <c r="G2" s="334"/>
-      <c r="H2" s="334" t="s">
+      <c r="F2" s="335"/>
+      <c r="G2" s="335"/>
+      <c r="H2" s="335" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="334"/>
-      <c r="J2" s="334"/>
-      <c r="K2" s="334" t="s">
+      <c r="I2" s="335"/>
+      <c r="J2" s="335"/>
+      <c r="K2" s="335" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="334"/>
-      <c r="M2" s="334"/>
-      <c r="N2" s="334" t="s">
+      <c r="L2" s="335"/>
+      <c r="M2" s="335"/>
+      <c r="N2" s="335" t="s">
         <v>96</v>
       </c>
-      <c r="O2" s="334"/>
-      <c r="P2" s="334"/>
-      <c r="Q2" s="334" t="s">
+      <c r="O2" s="335"/>
+      <c r="P2" s="335"/>
+      <c r="Q2" s="335" t="s">
         <v>58</v>
       </c>
-      <c r="R2" s="334"/>
-      <c r="S2" s="334"/>
+      <c r="R2" s="335"/>
+      <c r="S2" s="335"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -18784,7 +18849,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="337" t="s">
+      <c r="A9" s="322" t="s">
         <v>296</v>
       </c>
       <c r="B9" s="309" t="s">
@@ -18793,43 +18858,43 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="309" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="337" t="s">
-        <v>304</v>
-      </c>
-      <c r="B12" s="334" t="s">
+      <c r="A12" s="322" t="s">
+        <v>303</v>
+      </c>
+      <c r="B12" s="335" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="334"/>
-      <c r="D12" s="334"/>
-      <c r="E12" s="334" t="s">
+      <c r="C12" s="335"/>
+      <c r="D12" s="335"/>
+      <c r="E12" s="335" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="334"/>
-      <c r="G12" s="334"/>
-      <c r="H12" s="334" t="s">
+      <c r="F12" s="335"/>
+      <c r="G12" s="335"/>
+      <c r="H12" s="335" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="334"/>
-      <c r="J12" s="334"/>
-      <c r="K12" s="334" t="s">
+      <c r="I12" s="335"/>
+      <c r="J12" s="335"/>
+      <c r="K12" s="335" t="s">
         <v>54</v>
       </c>
-      <c r="L12" s="334"/>
-      <c r="M12" s="334"/>
-      <c r="N12" s="334" t="s">
+      <c r="L12" s="335"/>
+      <c r="M12" s="335"/>
+      <c r="N12" s="335" t="s">
         <v>96</v>
       </c>
-      <c r="O12" s="334"/>
-      <c r="P12" s="334"/>
-      <c r="Q12" s="334" t="s">
+      <c r="O12" s="335"/>
+      <c r="P12" s="335"/>
+      <c r="Q12" s="335" t="s">
         <v>58</v>
       </c>
-      <c r="R12" s="334"/>
-      <c r="S12" s="334"/>
+      <c r="R12" s="335"/>
+      <c r="S12" s="335"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -19245,7 +19310,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="337" t="s">
+      <c r="A21" s="322" t="s">
         <v>296</v>
       </c>
       <c r="B21" s="309" t="s">
@@ -19254,43 +19319,43 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="309" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="322" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="337" t="s">
-        <v>303</v>
-      </c>
-      <c r="B24" s="334" t="s">
+      <c r="B24" s="335" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="334"/>
-      <c r="D24" s="334"/>
-      <c r="E24" s="334" t="s">
+      <c r="C24" s="335"/>
+      <c r="D24" s="335"/>
+      <c r="E24" s="335" t="s">
         <v>95</v>
       </c>
-      <c r="F24" s="334"/>
-      <c r="G24" s="334"/>
-      <c r="H24" s="334" t="s">
+      <c r="F24" s="335"/>
+      <c r="G24" s="335"/>
+      <c r="H24" s="335" t="s">
         <v>52</v>
       </c>
-      <c r="I24" s="334"/>
-      <c r="J24" s="334"/>
-      <c r="K24" s="334" t="s">
+      <c r="I24" s="335"/>
+      <c r="J24" s="335"/>
+      <c r="K24" s="335" t="s">
         <v>54</v>
       </c>
-      <c r="L24" s="334"/>
-      <c r="M24" s="334"/>
-      <c r="N24" s="334" t="s">
+      <c r="L24" s="335"/>
+      <c r="M24" s="335"/>
+      <c r="N24" s="335" t="s">
         <v>96</v>
       </c>
-      <c r="O24" s="334"/>
-      <c r="P24" s="334"/>
-      <c r="Q24" s="334" t="s">
+      <c r="O24" s="335"/>
+      <c r="P24" s="335"/>
+      <c r="Q24" s="335" t="s">
         <v>58</v>
       </c>
-      <c r="R24" s="334"/>
-      <c r="S24" s="334"/>
+      <c r="R24" s="335"/>
+      <c r="S24" s="335"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -19588,15 +19653,246 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="337" t="s">
+      <c r="A31" s="322" t="s">
         <v>296</v>
       </c>
       <c r="B31" s="309" t="s">
         <v>298</v>
       </c>
     </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33" s="309" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C34" s="335" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="335"/>
+      <c r="E34" s="335"/>
+      <c r="F34" s="335" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" s="335"/>
+      <c r="H34" s="335"/>
+      <c r="I34" s="335" t="s">
+        <v>52</v>
+      </c>
+      <c r="J34" s="335"/>
+      <c r="K34" s="335"/>
+      <c r="L34" s="335" t="s">
+        <v>54</v>
+      </c>
+      <c r="M34" s="335"/>
+      <c r="N34" s="335"/>
+      <c r="O34" s="335" t="s">
+        <v>96</v>
+      </c>
+      <c r="P34" s="335"/>
+      <c r="Q34" s="335"/>
+      <c r="R34" s="335" t="s">
+        <v>58</v>
+      </c>
+      <c r="S34" s="335"/>
+      <c r="T34" s="335"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C35" s="313" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="313" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="313" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="313" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="313" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="313" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35" s="313" t="s">
+        <v>40</v>
+      </c>
+      <c r="J35" s="313" t="s">
+        <v>41</v>
+      </c>
+      <c r="K35" s="313" t="s">
+        <v>42</v>
+      </c>
+      <c r="L35" s="313" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="313" t="s">
+        <v>41</v>
+      </c>
+      <c r="N35" s="313" t="s">
+        <v>42</v>
+      </c>
+      <c r="O35" s="313" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="313" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q35" s="313" t="s">
+        <v>42</v>
+      </c>
+      <c r="R35" s="313" t="s">
+        <v>40</v>
+      </c>
+      <c r="S35" s="313" t="s">
+        <v>41</v>
+      </c>
+      <c r="T35" s="313" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C36">
+        <v>13.33</v>
+      </c>
+      <c r="D36">
+        <v>65.260000000000005</v>
+      </c>
+      <c r="E36">
+        <v>0.21190000000000001</v>
+      </c>
+      <c r="F36">
+        <v>0.1338</v>
+      </c>
+      <c r="G36">
+        <v>0.63460000000000005</v>
+      </c>
+      <c r="H36">
+        <v>0.37769999999999998</v>
+      </c>
+      <c r="I36">
+        <v>6.343E-2</v>
+      </c>
+      <c r="J36">
+        <v>0.34150000000000003</v>
+      </c>
+      <c r="K36">
+        <v>0.37080000000000002</v>
+      </c>
+      <c r="L36">
+        <v>2.56</v>
+      </c>
+      <c r="M36">
+        <v>13.66</v>
+      </c>
+      <c r="N36">
+        <v>0.27239999999999998</v>
+      </c>
+      <c r="O36">
+        <v>0.1444</v>
+      </c>
+      <c r="P36">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="Q36">
+        <v>0.37140000000000001</v>
+      </c>
+      <c r="R36">
+        <v>1.285E-2</v>
+      </c>
+      <c r="S36">
+        <v>1.41E-2</v>
+      </c>
+      <c r="T36">
+        <v>0.3422</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>303</v>
+      </c>
+      <c r="C37">
+        <v>12.22</v>
+      </c>
+      <c r="D37">
+        <v>53.6</v>
+      </c>
+      <c r="E37">
+        <v>0.1948</v>
+      </c>
+      <c r="F37">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="G37">
+        <v>0.50849999999999995</v>
+      </c>
+      <c r="H37">
+        <v>0.39279999999999998</v>
+      </c>
+      <c r="I37">
+        <v>6.3539999999999999E-2</v>
+      </c>
+      <c r="J37">
+        <v>0.27439999999999998</v>
+      </c>
+      <c r="K37">
+        <v>0.38429999999999997</v>
+      </c>
+      <c r="L37">
+        <v>2.4220000000000002</v>
+      </c>
+      <c r="M37">
+        <v>10.91</v>
+      </c>
+      <c r="N37">
+        <v>0.2576</v>
+      </c>
+      <c r="O37">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="P37">
+        <v>0.54120000000000001</v>
+      </c>
+      <c r="Q37">
+        <v>0.37990000000000002</v>
+      </c>
+      <c r="R37">
+        <v>1.2970000000000001E-2</v>
+      </c>
+      <c r="S37">
+        <v>1.057E-2</v>
+      </c>
+      <c r="T37">
+        <v>0.40100000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39" s="322" t="s">
+        <v>296</v>
+      </c>
+      <c r="B39" s="309" t="s">
+        <v>297</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="24">
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q24:S24"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="E12:G12"/>
@@ -19609,12 +19905,6 @@
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="K24:M24"/>
     <mergeCell ref="N24:P24"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19634,20 +19924,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="322" t="s">
+      <c r="B1" s="323" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="322"/>
-      <c r="D1" s="322" t="s">
+      <c r="C1" s="323"/>
+      <c r="D1" s="323" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="322"/>
-      <c r="F1" s="322"/>
-      <c r="H1" s="323" t="s">
+      <c r="E1" s="323"/>
+      <c r="F1" s="323"/>
+      <c r="H1" s="324" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="323"/>
-      <c r="J1" s="323"/>
+      <c r="I1" s="324"/>
+      <c r="J1" s="324"/>
       <c r="K1" s="294"/>
       <c r="M1" s="295"/>
     </row>
@@ -19722,11 +20012,11 @@
       <c r="D5" s="318"/>
       <c r="E5" s="318"/>
       <c r="F5" s="318"/>
-      <c r="H5" s="324" t="s">
+      <c r="H5" s="325" t="s">
         <v>185</v>
       </c>
-      <c r="I5" s="324"/>
-      <c r="J5" s="323"/>
+      <c r="I5" s="325"/>
+      <c r="J5" s="324"/>
       <c r="K5" s="294"/>
       <c r="M5" s="295"/>
     </row>
@@ -21015,14 +21305,14 @@
       <c r="M18" s="265"/>
       <c r="N18" s="264"/>
       <c r="P18" s="279"/>
-      <c r="Q18" s="325" t="s">
+      <c r="Q18" s="326" t="s">
         <v>174</v>
       </c>
-      <c r="R18" s="325"/>
-      <c r="S18" s="325"/>
-      <c r="T18" s="325"/>
-      <c r="U18" s="325"/>
-      <c r="V18" s="326"/>
+      <c r="R18" s="326"/>
+      <c r="S18" s="326"/>
+      <c r="T18" s="326"/>
+      <c r="U18" s="326"/>
+      <c r="V18" s="327"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="215"/>
@@ -21053,16 +21343,16 @@
       </c>
       <c r="N19" s="276"/>
       <c r="P19" s="215"/>
-      <c r="Q19" s="327" t="s">
+      <c r="Q19" s="328" t="s">
         <v>173</v>
       </c>
-      <c r="R19" s="327"/>
-      <c r="S19" s="327"/>
-      <c r="T19" s="328" t="s">
+      <c r="R19" s="328"/>
+      <c r="S19" s="328"/>
+      <c r="T19" s="329" t="s">
         <v>95</v>
       </c>
-      <c r="U19" s="328"/>
-      <c r="V19" s="329"/>
+      <c r="U19" s="329"/>
+      <c r="V19" s="330"/>
     </row>
     <row r="20" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="215"/>
@@ -21259,14 +21549,14 @@
       <c r="N24" s="216"/>
       <c r="O24" s="216"/>
       <c r="P24" s="254"/>
-      <c r="Q24" s="325" t="s">
+      <c r="Q24" s="326" t="s">
         <v>174</v>
       </c>
-      <c r="R24" s="325"/>
-      <c r="S24" s="325"/>
-      <c r="T24" s="325"/>
-      <c r="U24" s="325"/>
-      <c r="V24" s="326"/>
+      <c r="R24" s="326"/>
+      <c r="S24" s="326"/>
+      <c r="T24" s="326"/>
+      <c r="U24" s="326"/>
+      <c r="V24" s="327"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="223" t="s">
@@ -21352,7 +21642,7 @@
       <c r="H27" s="249" t="s">
         <v>48</v>
       </c>
-      <c r="J27" s="330" t="s">
+      <c r="J27" s="331" t="s">
         <v>163</v>
       </c>
       <c r="K27" s="210" t="s">
@@ -21415,7 +21705,7 @@
       <c r="H28" s="246" t="s">
         <v>122</v>
       </c>
-      <c r="J28" s="330"/>
+      <c r="J28" s="331"/>
       <c r="K28" s="210" t="s">
         <v>184</v>
       </c>
@@ -22739,7 +23029,7 @@
       <c r="E18" s="167" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="331" t="s">
+      <c r="F18" s="332" t="s">
         <v>121</v>
       </c>
       <c r="G18" s="167"/>
@@ -22789,7 +23079,7 @@
       <c r="E19" s="167" t="s">
         <v>113</v>
       </c>
-      <c r="F19" s="331"/>
+      <c r="F19" s="332"/>
       <c r="G19" s="167" t="s">
         <v>48</v>
       </c>
@@ -22822,22 +23112,22 @@
       <c r="E20" s="168" t="s">
         <v>182</v>
       </c>
-      <c r="F20" s="332"/>
+      <c r="F20" s="333"/>
       <c r="G20" s="168" t="s">
         <v>122</v>
       </c>
       <c r="H20" s="168" t="s">
         <v>118</v>
       </c>
-      <c r="L20" s="333" t="s">
+      <c r="L20" s="334" t="s">
         <v>123</v>
       </c>
-      <c r="M20" s="333"/>
-      <c r="N20" s="333"/>
-      <c r="O20" s="333"/>
-      <c r="P20" s="333"/>
-      <c r="Q20" s="333"/>
-      <c r="R20" s="333"/>
+      <c r="M20" s="334"/>
+      <c r="N20" s="334"/>
+      <c r="O20" s="334"/>
+      <c r="P20" s="334"/>
+      <c r="Q20" s="334"/>
+      <c r="R20" s="334"/>
       <c r="T20" s="158">
         <v>1.1906250009999999</v>
       </c>
@@ -26838,16 +27128,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="334" t="s">
+      <c r="B3" s="335" t="s">
         <v>230</v>
       </c>
-      <c r="C3" s="334"/>
-      <c r="D3" s="334"/>
-      <c r="E3" s="334" t="s">
+      <c r="C3" s="335"/>
+      <c r="D3" s="335"/>
+      <c r="E3" s="335" t="s">
         <v>231</v>
       </c>
-      <c r="F3" s="334"/>
-      <c r="G3" s="334"/>
+      <c r="F3" s="335"/>
+      <c r="G3" s="335"/>
     </row>
     <row r="4" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="314" t="s">
@@ -27694,11 +27984,11 @@
       <c r="A30" t="s">
         <v>242</v>
       </c>
-      <c r="B30" s="334">
+      <c r="B30" s="335">
         <v>110</v>
       </c>
-      <c r="C30" s="334"/>
-      <c r="D30" s="334"/>
+      <c r="C30" s="335"/>
+      <c r="D30" s="335"/>
       <c r="E30">
         <v>18</v>
       </c>
@@ -27753,14 +28043,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="335" t="s">
+      <c r="C3" s="336" t="s">
         <v>245</v>
       </c>
-      <c r="D3" s="335"/>
-      <c r="E3" s="335" t="s">
+      <c r="D3" s="336"/>
+      <c r="E3" s="336" t="s">
         <v>246</v>
       </c>
-      <c r="F3" s="335"/>
+      <c r="F3" s="336"/>
     </row>
     <row r="4" spans="1:6" s="308" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="314" t="s">

--- a/MUSCShield_form.xlsx
+++ b/MUSCShield_form.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="9720" windowHeight="3270" tabRatio="688" firstSheet="8" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="9720" windowHeight="3270" tabRatio="688" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -21,25 +21,35 @@
     <sheet name="NCRP147_4.2" sheetId="17" r:id="rId7"/>
     <sheet name="NCRP147_4.3" sheetId="18" r:id="rId8"/>
     <sheet name="NCRP147_4.4" sheetId="19" r:id="rId9"/>
-    <sheet name="NCRP147_4.7" sheetId="20" r:id="rId10"/>
-    <sheet name="NCRP147_5.2" sheetId="21" r:id="rId11"/>
-    <sheet name="NCRP147_A1" sheetId="22" r:id="rId12"/>
-    <sheet name="NCRP147_B1" sheetId="23" r:id="rId13"/>
-    <sheet name="NCRP147_C1" sheetId="24" r:id="rId14"/>
-    <sheet name="W_Rh_Al_Ag" sheetId="25" r:id="rId15"/>
+    <sheet name="NCRP147_4.5" sheetId="26" r:id="rId10"/>
+    <sheet name="NCRP147_4.7" sheetId="20" r:id="rId11"/>
+    <sheet name="NCRP147_5.2" sheetId="21" r:id="rId12"/>
+    <sheet name="NCRP147_A1" sheetId="22" r:id="rId13"/>
+    <sheet name="NCRP147_B1" sheetId="23" r:id="rId14"/>
+    <sheet name="NCRP147_C1" sheetId="24" r:id="rId15"/>
+    <sheet name="W_Rh_Al_Ag" sheetId="25" r:id="rId16"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId17"/>
+  </externalReferences>
   <definedNames>
     <definedName name="FitParams">FitParameters!$A$5:$AF$30</definedName>
     <definedName name="inch_value">Table!$AF$6:$AF$41</definedName>
+    <definedName name="minimum_Pb" localSheetId="9">[1]Table!$AG$6:$AG$41</definedName>
     <definedName name="minimum_Pb">Table!$AG$6:$AG$41</definedName>
+    <definedName name="mm_value" localSheetId="9">[1]Table!$AE$6:$AE$41</definedName>
     <definedName name="mm_value">Table!$AE$6:$AE$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">CT!$A$1:$V$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">RadFluoro!$A$1:$J$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">ShieldEvaluation!$A$1:$H$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Table!$A$1:$N$112</definedName>
+    <definedName name="RefDist" localSheetId="9">[1]ShieldEvaluation!$F$16</definedName>
     <definedName name="RefDist">ShieldEvaluation!$F$16</definedName>
+    <definedName name="RefExp" localSheetId="9">[1]ShieldEvaluation!$G$16</definedName>
     <definedName name="RefExp">ShieldEvaluation!$G$16</definedName>
+    <definedName name="RefkV" localSheetId="9">[1]ShieldEvaluation!$C$16</definedName>
     <definedName name="RefkV">ShieldEvaluation!$C$16</definedName>
+    <definedName name="RefOutput" localSheetId="9">[1]ShieldEvaluation!$H$16</definedName>
     <definedName name="RefOutput">ShieldEvaluation!$H$16</definedName>
   </definedNames>
   <calcPr calcId="162913" iterateCount="1"/>
@@ -720,7 +730,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="314">
   <si>
     <t>Shielding Calculations</t>
   </si>
@@ -2034,6 +2044,21 @@
   </si>
   <si>
     <t>W/Rh, W/Ag, W/Al</t>
+  </si>
+  <si>
+    <t>Unshielded primary air kerma per patient [K1_p (in mGy/pt) for the indicated workload [Wnorm (mA-min/pt)] and workload distribution, normalized to primary beam distance d_p = 1m</t>
+  </si>
+  <si>
+    <t>Wnorm (mA-min/pt)</t>
+  </si>
+  <si>
+    <t>K1_p (mGy/pt)</t>
+  </si>
+  <si>
+    <t>b/a</t>
+  </si>
+  <si>
+    <t>ag</t>
   </si>
 </sst>
 </file>
@@ -3538,16 +3563,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
@@ -3619,10 +3638,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3663,6 +3682,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3826,6 +3851,341 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Table"/>
+      <sheetName val="RadFluoro"/>
+      <sheetName val="CT"/>
+      <sheetName val="ShieldEvaluation"/>
+      <sheetName val="FitParameters"/>
+      <sheetName val="NCRP147_4.1"/>
+      <sheetName val="NCRP147_4.2"/>
+      <sheetName val="NCRP147_4.3"/>
+      <sheetName val="NCRP147_4.4"/>
+      <sheetName val="NCRP147_4.5"/>
+      <sheetName val="NCRP147_4.7"/>
+      <sheetName val="NCRP147_5.2"/>
+      <sheetName val="NCRP147_A1"/>
+      <sheetName val="NCRP147_B1"/>
+      <sheetName val="NCRP147_C1"/>
+      <sheetName val="W_Rh_Al_Ag"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="AE6">
+            <v>-25.4</v>
+          </cell>
+          <cell r="AG6" t="str">
+            <v>0"</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="AE7">
+            <v>0</v>
+          </cell>
+          <cell r="AG7" t="str">
+            <v>&lt;=1/256"</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="AE8">
+            <v>9.9218750999999994E-2</v>
+          </cell>
+          <cell r="AG8">
+            <v>7.8125E-3</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="AE9">
+            <v>0.19843750099999999</v>
+          </cell>
+          <cell r="AG9">
+            <v>1.5625E-2</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="AE10">
+            <v>0.39687500100000001</v>
+          </cell>
+          <cell r="AG10">
+            <v>3.125E-2</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AE11">
+            <v>0.59531250099999988</v>
+          </cell>
+          <cell r="AG11">
+            <v>3.125E-2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AE12">
+            <v>0.79375000099999993</v>
+          </cell>
+          <cell r="AG12">
+            <v>3.125E-2</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AE13">
+            <v>0.99218750099999997</v>
+          </cell>
+          <cell r="AG13">
+            <v>6.25E-2</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="AE14">
+            <v>1.1906250009999999</v>
+          </cell>
+          <cell r="AG14">
+            <v>6.25E-2</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="AE15">
+            <v>1.3890625009999999</v>
+          </cell>
+          <cell r="AG15">
+            <v>6.25E-2</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="AE16">
+            <v>1.587500001</v>
+          </cell>
+          <cell r="AG16">
+            <v>6.25E-2</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="AE17">
+            <v>1.785937501</v>
+          </cell>
+          <cell r="AG17">
+            <v>9.375E-2</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="AE18">
+            <v>1.9843750010000001</v>
+          </cell>
+          <cell r="AG18">
+            <v>9.375E-2</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="AE19">
+            <v>2.1828125009999999</v>
+          </cell>
+          <cell r="AG19">
+            <v>9.375E-2</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="AE20">
+            <v>2.3812500009999997</v>
+          </cell>
+          <cell r="AG20">
+            <v>9.375E-2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="AE21">
+            <v>2.579687501</v>
+          </cell>
+          <cell r="AG21">
+            <v>0.125</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="AE22">
+            <v>2.7781250009999998</v>
+          </cell>
+          <cell r="AG22">
+            <v>0.125</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="AE23">
+            <v>2.9765625010000001</v>
+          </cell>
+          <cell r="AG23">
+            <v>0.125</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="AE24">
+            <v>3.1750000009999999</v>
+          </cell>
+          <cell r="AG24">
+            <v>0.125</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="AE25">
+            <v>3.3734375009999997</v>
+          </cell>
+          <cell r="AG25">
+            <v>0.15625</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="AE26">
+            <v>3.571875001</v>
+          </cell>
+          <cell r="AG26">
+            <v>0.15625</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="AE27">
+            <v>3.7703125009999998</v>
+          </cell>
+          <cell r="AG27">
+            <v>0.15625</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="AE28">
+            <v>3.9687500010000001</v>
+          </cell>
+          <cell r="AG28">
+            <v>0.15625</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="AE29">
+            <v>4.1671875009999999</v>
+          </cell>
+          <cell r="AG29">
+            <v>0.1875</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="AE30">
+            <v>4.3656250009999997</v>
+          </cell>
+          <cell r="AG30">
+            <v>0.1875</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="AE31">
+            <v>4.5640625009999995</v>
+          </cell>
+          <cell r="AG31">
+            <v>0.1875</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="AE32">
+            <v>4.7625000009999994</v>
+          </cell>
+          <cell r="AG32">
+            <v>0.1875</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="AE33">
+            <v>4.9609375010000001</v>
+          </cell>
+          <cell r="AG33">
+            <v>0.21875</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="AE34">
+            <v>5.1593750009999999</v>
+          </cell>
+          <cell r="AG34">
+            <v>0.21875</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="AE35">
+            <v>5.3578125009999997</v>
+          </cell>
+          <cell r="AG35">
+            <v>0.21875</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="AE36">
+            <v>5.5562500009999995</v>
+          </cell>
+          <cell r="AG36">
+            <v>0.21875</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="AE37">
+            <v>5.7546875009999994</v>
+          </cell>
+          <cell r="AG37">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="AE38">
+            <v>5.9531250010000001</v>
+          </cell>
+          <cell r="AG38">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="AE39">
+            <v>6.1515625009999999</v>
+          </cell>
+          <cell r="AG39">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="AE40">
+            <v>6.3500000009999997</v>
+          </cell>
+          <cell r="AG40" t="str">
+            <v>&gt;=1/4"</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="AE41">
+            <v>25.400000000999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="16">
+          <cell r="H16" t="str">
+            <v/>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13568,6 +13928,83 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="54" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="321" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" s="321" t="s">
+        <v>310</v>
+      </c>
+      <c r="C3" s="321" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B4">
+        <v>0.6</v>
+      </c>
+      <c r="C4">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5">
+        <v>1.9</v>
+      </c>
+      <c r="C5">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6">
+        <v>1.5</v>
+      </c>
+      <c r="C6">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7">
+        <v>0.22</v>
+      </c>
+      <c r="C7">
+        <v>1.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13581,65 +14018,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="309" t="s">
+      <c r="A1" s="307" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="307" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="309" t="s">
+      <c r="A3" s="307" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="309" t="s">
+      <c r="A4" s="307" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="309" t="s">
+      <c r="A5" s="307" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E6" s="335" t="s">
+      <c r="E6" s="333" t="s">
         <v>263</v>
       </c>
-      <c r="F6" s="335"/>
-      <c r="G6" s="335"/>
-      <c r="H6" s="335"/>
-      <c r="I6" s="335"/>
-    </row>
-    <row r="7" spans="1:9" s="308" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="314" t="s">
+      <c r="F6" s="333"/>
+      <c r="G6" s="333"/>
+      <c r="H6" s="333"/>
+      <c r="I6" s="333"/>
+    </row>
+    <row r="7" spans="1:9" s="306" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="312" t="s">
         <v>264</v>
       </c>
-      <c r="B7" s="314" t="s">
+      <c r="B7" s="312" t="s">
         <v>265</v>
       </c>
-      <c r="C7" s="314" t="s">
+      <c r="C7" s="312" t="s">
         <v>266</v>
       </c>
-      <c r="D7" s="314" t="s">
+      <c r="D7" s="312" t="s">
         <v>267</v>
       </c>
-      <c r="E7" s="314" t="s">
+      <c r="E7" s="312" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="314" t="s">
+      <c r="F7" s="312" t="s">
         <v>268</v>
       </c>
-      <c r="G7" s="314" t="s">
+      <c r="G7" s="312" t="s">
         <v>269</v>
       </c>
-      <c r="H7" s="314" t="s">
+      <c r="H7" s="312" t="s">
         <v>270</v>
       </c>
-      <c r="I7" s="314" t="s">
+      <c r="I7" s="312" t="s">
         <v>271</v>
       </c>
     </row>
@@ -13939,7 +14376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -13953,12 +14390,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="309" t="s">
+      <c r="A1" s="307" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="307" t="s">
         <v>273</v>
       </c>
     </row>
@@ -14045,7 +14482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE61"/>
   <sheetViews>
@@ -14056,65 +14493,65 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A1" s="309" t="s">
+      <c r="A1" s="307" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B4" s="335" t="s">
+      <c r="B4" s="333" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="335"/>
-      <c r="D4" s="335"/>
-      <c r="E4" s="335"/>
-      <c r="F4" s="335"/>
-      <c r="G4" s="335" t="s">
+      <c r="C4" s="333"/>
+      <c r="D4" s="333"/>
+      <c r="E4" s="333"/>
+      <c r="F4" s="333"/>
+      <c r="G4" s="333" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="335"/>
-      <c r="I4" s="335"/>
-      <c r="J4" s="335"/>
-      <c r="K4" s="335"/>
-      <c r="L4" s="335" t="s">
+      <c r="H4" s="333"/>
+      <c r="I4" s="333"/>
+      <c r="J4" s="333"/>
+      <c r="K4" s="333"/>
+      <c r="L4" s="333" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="335"/>
-      <c r="N4" s="335"/>
-      <c r="O4" s="335"/>
-      <c r="P4" s="335"/>
-      <c r="Q4" s="335" t="s">
+      <c r="M4" s="333"/>
+      <c r="N4" s="333"/>
+      <c r="O4" s="333"/>
+      <c r="P4" s="333"/>
+      <c r="Q4" s="333" t="s">
         <v>54</v>
       </c>
-      <c r="R4" s="335"/>
-      <c r="S4" s="335"/>
-      <c r="T4" s="335"/>
-      <c r="U4" s="335"/>
-      <c r="V4" s="335" t="s">
+      <c r="R4" s="333"/>
+      <c r="S4" s="333"/>
+      <c r="T4" s="333"/>
+      <c r="U4" s="333"/>
+      <c r="V4" s="333" t="s">
         <v>96</v>
       </c>
-      <c r="W4" s="335"/>
-      <c r="X4" s="335"/>
-      <c r="Y4" s="335"/>
-      <c r="Z4" s="335"/>
-      <c r="AA4" s="335" t="s">
+      <c r="W4" s="333"/>
+      <c r="X4" s="333"/>
+      <c r="Y4" s="333"/>
+      <c r="Z4" s="333"/>
+      <c r="AA4" s="333" t="s">
         <v>58</v>
       </c>
-      <c r="AB4" s="335"/>
-      <c r="AC4" s="335"/>
-      <c r="AD4" s="335"/>
-      <c r="AE4" s="335"/>
+      <c r="AB4" s="333"/>
+      <c r="AC4" s="333"/>
+      <c r="AD4" s="333"/>
+      <c r="AE4" s="333"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="313" t="s">
+      <c r="B5" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="313" t="s">
+      <c r="C5" s="311" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="313" t="s">
+      <c r="D5" s="311" t="s">
         <v>42</v>
       </c>
       <c r="E5" t="s">
@@ -14123,13 +14560,13 @@
       <c r="F5" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="313" t="s">
+      <c r="G5" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="313" t="s">
+      <c r="H5" s="311" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="313" t="s">
+      <c r="I5" s="311" t="s">
         <v>42</v>
       </c>
       <c r="J5" t="s">
@@ -14138,13 +14575,13 @@
       <c r="K5" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="313" t="s">
+      <c r="L5" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="313" t="s">
+      <c r="M5" s="311" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="313" t="s">
+      <c r="N5" s="311" t="s">
         <v>42</v>
       </c>
       <c r="O5" t="s">
@@ -14153,13 +14590,13 @@
       <c r="P5" t="s">
         <v>45</v>
       </c>
-      <c r="Q5" s="313" t="s">
+      <c r="Q5" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="R5" s="313" t="s">
+      <c r="R5" s="311" t="s">
         <v>41</v>
       </c>
-      <c r="S5" s="313" t="s">
+      <c r="S5" s="311" t="s">
         <v>42</v>
       </c>
       <c r="T5" t="s">
@@ -14168,13 +14605,13 @@
       <c r="U5" t="s">
         <v>45</v>
       </c>
-      <c r="V5" s="313" t="s">
+      <c r="V5" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="W5" s="313" t="s">
+      <c r="W5" s="311" t="s">
         <v>41</v>
       </c>
-      <c r="X5" s="313" t="s">
+      <c r="X5" s="311" t="s">
         <v>42</v>
       </c>
       <c r="Y5" t="s">
@@ -14183,13 +14620,13 @@
       <c r="Z5" t="s">
         <v>45</v>
       </c>
-      <c r="AA5" s="313" t="s">
+      <c r="AA5" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="AB5" s="313" t="s">
+      <c r="AB5" s="311" t="s">
         <v>41</v>
       </c>
-      <c r="AC5" s="313" t="s">
+      <c r="AC5" s="311" t="s">
         <v>42</v>
       </c>
       <c r="AD5" t="s">
@@ -16580,7 +17017,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="309" t="s">
+      <c r="A34" s="307" t="s">
         <v>285</v>
       </c>
     </row>
@@ -16839,7 +17276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S13"/>
   <sheetViews>
@@ -16853,99 +17290,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="309" t="s">
+      <c r="A1" s="307" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="337" t="s">
+      <c r="A3" s="335" t="s">
         <v>264</v>
       </c>
-      <c r="B3" s="335" t="s">
+      <c r="B3" s="333" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="335"/>
-      <c r="D3" s="335"/>
-      <c r="E3" s="335" t="s">
+      <c r="C3" s="333"/>
+      <c r="D3" s="333"/>
+      <c r="E3" s="333" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="335"/>
-      <c r="G3" s="335"/>
-      <c r="H3" s="335" t="s">
+      <c r="F3" s="333"/>
+      <c r="G3" s="333"/>
+      <c r="H3" s="333" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="335"/>
-      <c r="J3" s="335"/>
-      <c r="K3" s="335" t="s">
+      <c r="I3" s="333"/>
+      <c r="J3" s="333"/>
+      <c r="K3" s="333" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="335"/>
-      <c r="M3" s="335"/>
-      <c r="N3" s="335" t="s">
+      <c r="L3" s="333"/>
+      <c r="M3" s="333"/>
+      <c r="N3" s="333" t="s">
         <v>96</v>
       </c>
-      <c r="O3" s="335"/>
-      <c r="P3" s="335"/>
-      <c r="Q3" s="335" t="s">
+      <c r="O3" s="333"/>
+      <c r="P3" s="333"/>
+      <c r="Q3" s="333" t="s">
         <v>58</v>
       </c>
-      <c r="R3" s="335"/>
-      <c r="S3" s="335"/>
+      <c r="R3" s="333"/>
+      <c r="S3" s="333"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="337"/>
-      <c r="B4" s="313" t="s">
+      <c r="A4" s="335"/>
+      <c r="B4" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="313" t="s">
+      <c r="C4" s="311" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="313" t="s">
+      <c r="D4" s="311" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="313" t="s">
+      <c r="E4" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="313" t="s">
+      <c r="F4" s="311" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="313" t="s">
+      <c r="G4" s="311" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="313" t="s">
+      <c r="H4" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="313" t="s">
+      <c r="I4" s="311" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="313" t="s">
+      <c r="J4" s="311" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="313" t="s">
+      <c r="K4" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="313" t="s">
+      <c r="L4" s="311" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="313" t="s">
+      <c r="M4" s="311" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="313" t="s">
+      <c r="N4" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="313" t="s">
+      <c r="O4" s="311" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="313" t="s">
+      <c r="P4" s="311" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="313" t="s">
+      <c r="Q4" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="313" t="s">
+      <c r="R4" s="311" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="313" t="s">
+      <c r="S4" s="311" t="s">
         <v>42</v>
       </c>
     </row>
@@ -17478,1015 +17915,6 @@
       </c>
       <c r="S13">
         <v>0.97540000000000004</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17:S17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="309" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="337" t="s">
-        <v>264</v>
-      </c>
-      <c r="B3" s="335" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="335"/>
-      <c r="D3" s="335"/>
-      <c r="E3" s="335" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="335"/>
-      <c r="G3" s="335"/>
-      <c r="H3" s="335" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="335"/>
-      <c r="J3" s="335"/>
-      <c r="K3" s="335" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="335"/>
-      <c r="M3" s="335"/>
-      <c r="N3" s="335" t="s">
-        <v>96</v>
-      </c>
-      <c r="O3" s="335"/>
-      <c r="P3" s="335"/>
-      <c r="Q3" s="335" t="s">
-        <v>58</v>
-      </c>
-      <c r="R3" s="335"/>
-      <c r="S3" s="335"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="337"/>
-      <c r="B4" s="313" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="313" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="313" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="313" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="313" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="313" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="313" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="313" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="313" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="313" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="313" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" s="313" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="313" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="313" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" s="313" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="313" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" s="313" t="s">
-        <v>41</v>
-      </c>
-      <c r="S4" s="313" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>30</v>
-      </c>
-      <c r="B5">
-        <v>38.79</v>
-      </c>
-      <c r="C5">
-        <v>180</v>
-      </c>
-      <c r="D5">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="E5">
-        <v>0.31740000000000002</v>
-      </c>
-      <c r="F5">
-        <v>1.724</v>
-      </c>
-      <c r="G5">
-        <v>0.3705</v>
-      </c>
-      <c r="H5">
-        <v>0.1198</v>
-      </c>
-      <c r="I5">
-        <v>0.7137</v>
-      </c>
-      <c r="J5">
-        <v>0.37030000000000002</v>
-      </c>
-      <c r="K5">
-        <v>7.4080000000000004</v>
-      </c>
-      <c r="L5">
-        <v>42.49</v>
-      </c>
-      <c r="M5">
-        <v>0.40610000000000002</v>
-      </c>
-      <c r="N5">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="O5">
-        <v>1.62</v>
-      </c>
-      <c r="P5">
-        <v>0.37930000000000003</v>
-      </c>
-      <c r="Q5">
-        <v>2.1579999999999998E-2</v>
-      </c>
-      <c r="R5">
-        <v>3.9710000000000002E-2</v>
-      </c>
-      <c r="S5">
-        <v>0.28520000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>50</v>
-      </c>
-      <c r="B6">
-        <v>8.8010000000000002</v>
-      </c>
-      <c r="C6">
-        <v>27.28</v>
-      </c>
-      <c r="D6">
-        <v>0.29570000000000002</v>
-      </c>
-      <c r="E6">
-        <v>9.0300000000000005E-2</v>
-      </c>
-      <c r="F6">
-        <v>0.17119999999999999</v>
-      </c>
-      <c r="G6">
-        <v>0.2324</v>
-      </c>
-      <c r="H6">
-        <v>3.8800000000000001E-2</v>
-      </c>
-      <c r="I6">
-        <v>8.7300000000000003E-2</v>
-      </c>
-      <c r="J6">
-        <v>0.51049999999999995</v>
-      </c>
-      <c r="K6">
-        <v>1.8169999999999999</v>
-      </c>
-      <c r="L6">
-        <v>4.84</v>
-      </c>
-      <c r="M6">
-        <v>0.40210000000000001</v>
-      </c>
-      <c r="N6">
-        <v>9.7210000000000005E-2</v>
-      </c>
-      <c r="O6">
-        <v>0.1799</v>
-      </c>
-      <c r="P6">
-        <v>0.49120000000000003</v>
-      </c>
-      <c r="Q6">
-        <v>1.076E-2</v>
-      </c>
-      <c r="R6">
-        <v>1.8619999999999999E-3</v>
-      </c>
-      <c r="S6">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>70</v>
-      </c>
-      <c r="B7">
-        <v>5.3689999999999998</v>
-      </c>
-      <c r="C7">
-        <v>23.49</v>
-      </c>
-      <c r="D7">
-        <v>0.58830000000000005</v>
-      </c>
-      <c r="E7">
-        <v>5.0900000000000001E-2</v>
-      </c>
-      <c r="F7">
-        <v>0.16969999999999999</v>
-      </c>
-      <c r="G7">
-        <v>0.38490000000000002</v>
-      </c>
-      <c r="H7">
-        <v>2.3E-2</v>
-      </c>
-      <c r="I7">
-        <v>7.1599999999999997E-2</v>
-      </c>
-      <c r="J7">
-        <v>0.73</v>
-      </c>
-      <c r="K7">
-        <v>0.71489999999999998</v>
-      </c>
-      <c r="L7">
-        <v>3.7890000000000001</v>
-      </c>
-      <c r="M7">
-        <v>0.53810000000000002</v>
-      </c>
-      <c r="N7">
-        <v>5.7910000000000003E-2</v>
-      </c>
-      <c r="O7">
-        <v>0.13569999999999999</v>
-      </c>
-      <c r="P7">
-        <v>0.5968</v>
-      </c>
-      <c r="Q7">
-        <v>8.5500000000000003E-3</v>
-      </c>
-      <c r="R7">
-        <v>5.3899999999999998E-4</v>
-      </c>
-      <c r="S7">
-        <v>1.194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>100</v>
-      </c>
-      <c r="B8">
-        <v>2.5070000000000001</v>
-      </c>
-      <c r="C8">
-        <v>15.33</v>
-      </c>
-      <c r="D8">
-        <v>0.91239999999999999</v>
-      </c>
-      <c r="E8">
-        <v>3.95E-2</v>
-      </c>
-      <c r="F8">
-        <v>8.4400000000000003E-2</v>
-      </c>
-      <c r="G8">
-        <v>0.51910000000000001</v>
-      </c>
-      <c r="H8">
-        <v>1.47E-2</v>
-      </c>
-      <c r="I8">
-        <v>0.04</v>
-      </c>
-      <c r="J8">
-        <v>0.97519999999999996</v>
-      </c>
-      <c r="K8">
-        <v>0.34239999999999998</v>
-      </c>
-      <c r="L8">
-        <v>2.456</v>
-      </c>
-      <c r="M8">
-        <v>0.93879999999999997</v>
-      </c>
-      <c r="N8">
-        <v>4.2790000000000002E-2</v>
-      </c>
-      <c r="O8">
-        <v>8.9480000000000004E-2</v>
-      </c>
-      <c r="P8">
-        <v>1.0289999999999999</v>
-      </c>
-      <c r="Q8">
-        <v>7.2300000000000003E-3</v>
-      </c>
-      <c r="R8">
-        <v>8.9400000000000005E-4</v>
-      </c>
-      <c r="S8">
-        <v>1.3160000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>125</v>
-      </c>
-      <c r="B9">
-        <v>2.2330000000000001</v>
-      </c>
-      <c r="C9">
-        <v>7.8879999999999999</v>
-      </c>
-      <c r="D9">
-        <v>0.72950000000000004</v>
-      </c>
-      <c r="E9">
-        <v>3.5099999999999999E-2</v>
-      </c>
-      <c r="F9">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="G9">
-        <v>0.78320000000000001</v>
-      </c>
-      <c r="H9">
-        <v>1.2E-2</v>
-      </c>
-      <c r="I9">
-        <v>2.6700000000000002E-2</v>
-      </c>
-      <c r="J9">
-        <v>10.79</v>
-      </c>
-      <c r="K9">
-        <v>0.21379999999999999</v>
-      </c>
-      <c r="L9">
-        <v>1.69</v>
-      </c>
-      <c r="M9">
-        <v>1.0860000000000001</v>
-      </c>
-      <c r="N9">
-        <v>3.6540000000000003E-2</v>
-      </c>
-      <c r="O9">
-        <v>5.79E-2</v>
-      </c>
-      <c r="P9">
-        <v>1.093</v>
-      </c>
-      <c r="Q9">
-        <v>6.587E-3</v>
-      </c>
-      <c r="R9">
-        <v>-1.14E-3</v>
-      </c>
-      <c r="S9">
-        <v>1.1719999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>150</v>
-      </c>
-      <c r="B10">
-        <v>1.7909999999999999</v>
-      </c>
-      <c r="C10">
-        <v>5.4779999999999998</v>
-      </c>
-      <c r="D10">
-        <v>0.56779999999999997</v>
-      </c>
-      <c r="E10">
-        <v>3.2399999999999998E-2</v>
-      </c>
-      <c r="F10">
-        <v>7.7499999999999999E-2</v>
-      </c>
-      <c r="G10">
-        <v>1.5660000000000001</v>
-      </c>
-      <c r="H10">
-        <v>1.04E-2</v>
-      </c>
-      <c r="I10">
-        <v>2.0199999999999999E-2</v>
-      </c>
-      <c r="J10">
-        <v>1.135</v>
-      </c>
-      <c r="K10">
-        <v>0.15110000000000001</v>
-      </c>
-      <c r="L10">
-        <v>1.1240000000000001</v>
-      </c>
-      <c r="M10">
-        <v>1.151</v>
-      </c>
-      <c r="N10">
-        <v>3.2669999999999998E-2</v>
-      </c>
-      <c r="O10">
-        <v>4.0739999999999998E-2</v>
-      </c>
-      <c r="P10">
-        <v>1.1339999999999999</v>
-      </c>
-      <c r="Q10">
-        <v>6.0270000000000002E-3</v>
-      </c>
-      <c r="R10">
-        <v>-1.6299999999999999E-3</v>
-      </c>
-      <c r="S10">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>287</v>
-      </c>
-      <c r="B11">
-        <v>2.298</v>
-      </c>
-      <c r="C11">
-        <v>17.38</v>
-      </c>
-      <c r="D11">
-        <v>0.61929999999999996</v>
-      </c>
-      <c r="E11">
-        <v>3.61E-2</v>
-      </c>
-      <c r="F11">
-        <v>0.14330000000000001</v>
-      </c>
-      <c r="G11">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="H11">
-        <v>1.38E-2</v>
-      </c>
-      <c r="I11">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="J11">
-        <v>0.79369999999999996</v>
-      </c>
-      <c r="K11">
-        <v>0.21909999999999999</v>
-      </c>
-      <c r="L11">
-        <v>3.49</v>
-      </c>
-      <c r="M11">
-        <v>0.73580000000000001</v>
-      </c>
-      <c r="N11">
-        <v>3.8730000000000001E-2</v>
-      </c>
-      <c r="O11">
-        <v>0.10539999999999999</v>
-      </c>
-      <c r="P11">
-        <v>0.63970000000000005</v>
-      </c>
-      <c r="Q11">
-        <v>7.5519999999999997E-3</v>
-      </c>
-      <c r="R11">
-        <v>7.3700000000000002E-4</v>
-      </c>
-      <c r="S11">
-        <v>1.044</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>288</v>
-      </c>
-      <c r="B12">
-        <v>2.2559999999999998</v>
-      </c>
-      <c r="C12">
-        <v>13.8</v>
-      </c>
-      <c r="D12">
-        <v>0.88370000000000004</v>
-      </c>
-      <c r="E12">
-        <v>3.56E-2</v>
-      </c>
-      <c r="F12">
-        <v>0.1079</v>
-      </c>
-      <c r="G12">
-        <v>0.77049999999999996</v>
-      </c>
-      <c r="H12">
-        <v>1.2699999999999999E-2</v>
-      </c>
-      <c r="I12">
-        <v>4.4499999999999998E-2</v>
-      </c>
-      <c r="J12">
-        <v>1.0489999999999999</v>
-      </c>
-      <c r="K12">
-        <v>0.22109999999999999</v>
-      </c>
-      <c r="L12">
-        <v>2.8359999999999999</v>
-      </c>
-      <c r="M12">
-        <v>1.123</v>
-      </c>
-      <c r="N12">
-        <v>3.7490000000000002E-2</v>
-      </c>
-      <c r="O12">
-        <v>8.7099999999999997E-2</v>
-      </c>
-      <c r="P12">
-        <v>0.90859999999999996</v>
-      </c>
-      <c r="Q12">
-        <v>7.058E-3</v>
-      </c>
-      <c r="R12">
-        <v>2.2900000000000001E-4</v>
-      </c>
-      <c r="S12">
-        <v>1.875</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>289</v>
-      </c>
-      <c r="B13">
-        <v>2.5129999999999999</v>
-      </c>
-      <c r="C13">
-        <v>17.34</v>
-      </c>
-      <c r="D13">
-        <v>0.49940000000000001</v>
-      </c>
-      <c r="E13">
-        <v>3.9199999999999999E-2</v>
-      </c>
-      <c r="F13">
-        <v>0.1464</v>
-      </c>
-      <c r="G13">
-        <v>0.4486</v>
-      </c>
-      <c r="H13">
-        <v>1.6400000000000001E-2</v>
-      </c>
-      <c r="I13">
-        <v>6.08E-2</v>
-      </c>
-      <c r="J13">
-        <v>0.74719999999999998</v>
-      </c>
-      <c r="K13">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="L13">
-        <v>3.012</v>
-      </c>
-      <c r="M13">
-        <v>0.50190000000000001</v>
-      </c>
-      <c r="N13">
-        <v>4.299E-2</v>
-      </c>
-      <c r="O13">
-        <v>0.107</v>
-      </c>
-      <c r="P13">
-        <v>0.55379999999999996</v>
-      </c>
-      <c r="Q13">
-        <v>7.8869999999999999E-3</v>
-      </c>
-      <c r="R13">
-        <v>8.7699999999999996E-4</v>
-      </c>
-      <c r="S13">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>290</v>
-      </c>
-      <c r="B14">
-        <v>2.3220000000000001</v>
-      </c>
-      <c r="C14">
-        <v>12.91</v>
-      </c>
-      <c r="D14">
-        <v>0.75749999999999995</v>
-      </c>
-      <c r="E14">
-        <v>3.6299999999999999E-2</v>
-      </c>
-      <c r="F14">
-        <v>9.3600000000000003E-2</v>
-      </c>
-      <c r="G14">
-        <v>0.59550000000000003</v>
-      </c>
-      <c r="H14">
-        <v>1.3299999999999999E-2</v>
-      </c>
-      <c r="I14">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="J14">
-        <v>0.95660000000000001</v>
-      </c>
-      <c r="K14">
-        <v>0.2331</v>
-      </c>
-      <c r="L14">
-        <v>2.2130000000000001</v>
-      </c>
-      <c r="M14">
-        <v>0.80510000000000004</v>
-      </c>
-      <c r="N14">
-        <v>3.8859999999999999E-2</v>
-      </c>
-      <c r="O14">
-        <v>8.0909999999999996E-2</v>
-      </c>
-      <c r="P14">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="Q14">
-        <v>7.0569999999999999E-3</v>
-      </c>
-      <c r="R14">
-        <v>4.2200000000000001E-4</v>
-      </c>
-      <c r="S14">
-        <v>1.6639999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>236</v>
-      </c>
-      <c r="B15">
-        <v>2.2719999999999998</v>
-      </c>
-      <c r="C15">
-        <v>13.6</v>
-      </c>
-      <c r="D15">
-        <v>0.71840000000000004</v>
-      </c>
-      <c r="E15">
-        <v>3.56E-2</v>
-      </c>
-      <c r="F15">
-        <v>0.1114</v>
-      </c>
-      <c r="G15">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="H15">
-        <v>1.29E-2</v>
-      </c>
-      <c r="I15">
-        <v>4.5699999999999998E-2</v>
-      </c>
-      <c r="J15">
-        <v>0.9355</v>
-      </c>
-      <c r="K15">
-        <v>0.21490000000000001</v>
-      </c>
-      <c r="L15">
-        <v>2.6949999999999998</v>
-      </c>
-      <c r="M15">
-        <v>0.87680000000000002</v>
-      </c>
-      <c r="N15">
-        <v>3.7620000000000001E-2</v>
-      </c>
-      <c r="O15">
-        <v>8.8569999999999996E-2</v>
-      </c>
-      <c r="P15">
-        <v>0.80869999999999997</v>
-      </c>
-      <c r="Q15">
-        <v>7.1019999999999998E-3</v>
-      </c>
-      <c r="R15">
-        <v>3.4499999999999998E-4</v>
-      </c>
-      <c r="S15">
-        <v>1.698</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>291</v>
-      </c>
-      <c r="B16">
-        <v>2.2879999999999998</v>
-      </c>
-      <c r="C16">
-        <v>9.8480000000000008</v>
-      </c>
-      <c r="D16">
-        <v>1.054</v>
-      </c>
-      <c r="E16">
-        <v>3.6400000000000002E-2</v>
-      </c>
-      <c r="F16">
-        <v>6.59E-2</v>
-      </c>
-      <c r="G16">
-        <v>0.75429999999999997</v>
-      </c>
-      <c r="H16">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="I16">
-        <v>2.9700000000000001E-2</v>
-      </c>
-      <c r="J16">
-        <v>1.1950000000000001</v>
-      </c>
-      <c r="K16">
-        <v>0.25180000000000002</v>
-      </c>
-      <c r="L16">
-        <v>1.829</v>
-      </c>
-      <c r="M16">
-        <v>1.2729999999999999</v>
-      </c>
-      <c r="N16">
-        <v>3.866E-2</v>
-      </c>
-      <c r="O16">
-        <v>6.2700000000000006E-2</v>
-      </c>
-      <c r="P16">
-        <v>1.1279999999999999</v>
-      </c>
-      <c r="Q16">
-        <v>7.4850000000000003E-3</v>
-      </c>
-      <c r="R16">
-        <v>-8.0999999999999996E-4</v>
-      </c>
-      <c r="S16">
-        <v>9.4589999999999994E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>292</v>
-      </c>
-      <c r="B17">
-        <v>29.91</v>
-      </c>
-      <c r="C17">
-        <v>184.4</v>
-      </c>
-      <c r="D17">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="E17">
-        <v>0.25390000000000001</v>
-      </c>
-      <c r="F17">
-        <v>1.8411</v>
-      </c>
-      <c r="G17">
-        <v>0.39240000000000003</v>
-      </c>
-      <c r="H17">
-        <v>8.8300000000000003E-2</v>
-      </c>
-      <c r="I17">
-        <v>0.75260000000000005</v>
-      </c>
-      <c r="J17">
-        <v>0.37859999999999999</v>
-      </c>
-      <c r="K17">
-        <v>5.7889999999999997</v>
-      </c>
-      <c r="L17">
-        <v>44.12</v>
-      </c>
-      <c r="M17">
-        <v>0.41239999999999999</v>
-      </c>
-      <c r="N17">
-        <v>0.2404</v>
-      </c>
-      <c r="O17">
-        <v>1.7090000000000001</v>
-      </c>
-      <c r="P17">
-        <v>0.39179999999999998</v>
-      </c>
-      <c r="Q17">
-        <v>1.8880000000000001E-2</v>
-      </c>
-      <c r="R17">
-        <v>4.172E-2</v>
-      </c>
-      <c r="S17">
-        <v>0.2903</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>293</v>
-      </c>
-      <c r="B18">
-        <v>2.3540000000000001</v>
-      </c>
-      <c r="C18">
-        <v>14.94</v>
-      </c>
-      <c r="D18">
-        <v>0.74809999999999999</v>
-      </c>
-      <c r="E18">
-        <v>3.7100000000000001E-2</v>
-      </c>
-      <c r="F18">
-        <v>0.1067</v>
-      </c>
-      <c r="G18">
-        <v>0.57330000000000003</v>
-      </c>
-      <c r="H18">
-        <v>1.3899999999999999E-2</v>
-      </c>
-      <c r="I18">
-        <v>4.6399999999999997E-2</v>
-      </c>
-      <c r="J18">
-        <v>0.91849999999999998</v>
-      </c>
-      <c r="K18">
-        <v>0.253</v>
-      </c>
-      <c r="L18">
-        <v>2.5920000000000001</v>
-      </c>
-      <c r="M18">
-        <v>0.79990000000000006</v>
-      </c>
-      <c r="N18">
-        <v>4.0009999999999997E-2</v>
-      </c>
-      <c r="O18">
-        <v>9.0300000000000005E-2</v>
-      </c>
-      <c r="P18">
-        <v>0.80189999999999995</v>
-      </c>
-      <c r="Q18">
-        <v>7.2659999999999999E-3</v>
-      </c>
-      <c r="R18">
-        <v>6.7400000000000001E-4</v>
-      </c>
-      <c r="S18">
-        <v>1.2335</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>294</v>
-      </c>
-      <c r="B19">
-        <v>2.661</v>
-      </c>
-      <c r="C19">
-        <v>19.54</v>
-      </c>
-      <c r="D19">
-        <v>0.50939999999999996</v>
-      </c>
-      <c r="E19">
-        <v>4.2189999999999998E-2</v>
-      </c>
-      <c r="F19">
-        <v>0.15590000000000001</v>
-      </c>
-      <c r="G19">
-        <v>0.44719999999999999</v>
-      </c>
-      <c r="H19">
-        <v>1.7469999999999999E-2</v>
-      </c>
-      <c r="I19">
-        <v>6.4219999999999999E-2</v>
-      </c>
-      <c r="J19">
-        <v>0.72989999999999999</v>
-      </c>
-      <c r="K19">
-        <v>0.3579</v>
-      </c>
-      <c r="L19">
-        <v>3.4660000000000002</v>
-      </c>
-      <c r="M19">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N19">
-        <v>4.6120000000000001E-2</v>
-      </c>
-      <c r="O19">
-        <v>0.1198</v>
-      </c>
-      <c r="P19">
-        <v>0.5907</v>
-      </c>
-      <c r="Q19">
-        <v>8.0789999999999994E-3</v>
-      </c>
-      <c r="R19">
-        <v>8.4699999999999999E-4</v>
-      </c>
-      <c r="S19">
-        <v>0.97419999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -18505,110 +17933,1119 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17:S17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="307" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="335" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" s="333" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="333"/>
+      <c r="D3" s="333"/>
+      <c r="E3" s="333" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="333"/>
+      <c r="G3" s="333"/>
+      <c r="H3" s="333" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="333"/>
+      <c r="J3" s="333"/>
+      <c r="K3" s="333" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="333"/>
+      <c r="M3" s="333"/>
+      <c r="N3" s="333" t="s">
+        <v>96</v>
+      </c>
+      <c r="O3" s="333"/>
+      <c r="P3" s="333"/>
+      <c r="Q3" s="333" t="s">
+        <v>58</v>
+      </c>
+      <c r="R3" s="333"/>
+      <c r="S3" s="333"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="335"/>
+      <c r="B4" s="311" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="311" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="311" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="311" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="311" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="311" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="311" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="311" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="311" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="311" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="311" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="311" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="311" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="311" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="311" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="311" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="311" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4" s="311" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>38.79</v>
+      </c>
+      <c r="C5">
+        <v>180</v>
+      </c>
+      <c r="D5">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="E5">
+        <v>0.31740000000000002</v>
+      </c>
+      <c r="F5">
+        <v>1.724</v>
+      </c>
+      <c r="G5">
+        <v>0.3705</v>
+      </c>
+      <c r="H5">
+        <v>0.1198</v>
+      </c>
+      <c r="I5">
+        <v>0.7137</v>
+      </c>
+      <c r="J5">
+        <v>0.37030000000000002</v>
+      </c>
+      <c r="K5">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="L5">
+        <v>42.49</v>
+      </c>
+      <c r="M5">
+        <v>0.40610000000000002</v>
+      </c>
+      <c r="N5">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="O5">
+        <v>1.62</v>
+      </c>
+      <c r="P5">
+        <v>0.37930000000000003</v>
+      </c>
+      <c r="Q5">
+        <v>2.1579999999999998E-2</v>
+      </c>
+      <c r="R5">
+        <v>3.9710000000000002E-2</v>
+      </c>
+      <c r="S5">
+        <v>0.28520000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>8.8010000000000002</v>
+      </c>
+      <c r="C6">
+        <v>27.28</v>
+      </c>
+      <c r="D6">
+        <v>0.29570000000000002</v>
+      </c>
+      <c r="E6">
+        <v>9.0300000000000005E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.17119999999999999</v>
+      </c>
+      <c r="G6">
+        <v>0.2324</v>
+      </c>
+      <c r="H6">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="I6">
+        <v>8.7300000000000003E-2</v>
+      </c>
+      <c r="J6">
+        <v>0.51049999999999995</v>
+      </c>
+      <c r="K6">
+        <v>1.8169999999999999</v>
+      </c>
+      <c r="L6">
+        <v>4.84</v>
+      </c>
+      <c r="M6">
+        <v>0.40210000000000001</v>
+      </c>
+      <c r="N6">
+        <v>9.7210000000000005E-2</v>
+      </c>
+      <c r="O6">
+        <v>0.1799</v>
+      </c>
+      <c r="P6">
+        <v>0.49120000000000003</v>
+      </c>
+      <c r="Q6">
+        <v>1.076E-2</v>
+      </c>
+      <c r="R6">
+        <v>1.8619999999999999E-3</v>
+      </c>
+      <c r="S6">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>70</v>
+      </c>
+      <c r="B7">
+        <v>5.3689999999999998</v>
+      </c>
+      <c r="C7">
+        <v>23.49</v>
+      </c>
+      <c r="D7">
+        <v>0.58830000000000005</v>
+      </c>
+      <c r="E7">
+        <v>5.0900000000000001E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.16969999999999999</v>
+      </c>
+      <c r="G7">
+        <v>0.38490000000000002</v>
+      </c>
+      <c r="H7">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I7">
+        <v>7.1599999999999997E-2</v>
+      </c>
+      <c r="J7">
+        <v>0.73</v>
+      </c>
+      <c r="K7">
+        <v>0.71489999999999998</v>
+      </c>
+      <c r="L7">
+        <v>3.7890000000000001</v>
+      </c>
+      <c r="M7">
+        <v>0.53810000000000002</v>
+      </c>
+      <c r="N7">
+        <v>5.7910000000000003E-2</v>
+      </c>
+      <c r="O7">
+        <v>0.13569999999999999</v>
+      </c>
+      <c r="P7">
+        <v>0.5968</v>
+      </c>
+      <c r="Q7">
+        <v>8.5500000000000003E-3</v>
+      </c>
+      <c r="R7">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="S7">
+        <v>1.194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>2.5070000000000001</v>
+      </c>
+      <c r="C8">
+        <v>15.33</v>
+      </c>
+      <c r="D8">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="E8">
+        <v>3.95E-2</v>
+      </c>
+      <c r="F8">
+        <v>8.4400000000000003E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.51910000000000001</v>
+      </c>
+      <c r="H8">
+        <v>1.47E-2</v>
+      </c>
+      <c r="I8">
+        <v>0.04</v>
+      </c>
+      <c r="J8">
+        <v>0.97519999999999996</v>
+      </c>
+      <c r="K8">
+        <v>0.34239999999999998</v>
+      </c>
+      <c r="L8">
+        <v>2.456</v>
+      </c>
+      <c r="M8">
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="N8">
+        <v>4.2790000000000002E-2</v>
+      </c>
+      <c r="O8">
+        <v>8.9480000000000004E-2</v>
+      </c>
+      <c r="P8">
+        <v>1.0289999999999999</v>
+      </c>
+      <c r="Q8">
+        <v>7.2300000000000003E-3</v>
+      </c>
+      <c r="R8">
+        <v>8.9400000000000005E-4</v>
+      </c>
+      <c r="S8">
+        <v>1.3160000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>125</v>
+      </c>
+      <c r="B9">
+        <v>2.2330000000000001</v>
+      </c>
+      <c r="C9">
+        <v>7.8879999999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.72950000000000004</v>
+      </c>
+      <c r="E9">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="F9">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.78320000000000001</v>
+      </c>
+      <c r="H9">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I9">
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="J9">
+        <v>10.79</v>
+      </c>
+      <c r="K9">
+        <v>0.21379999999999999</v>
+      </c>
+      <c r="L9">
+        <v>1.69</v>
+      </c>
+      <c r="M9">
+        <v>1.0860000000000001</v>
+      </c>
+      <c r="N9">
+        <v>3.6540000000000003E-2</v>
+      </c>
+      <c r="O9">
+        <v>5.79E-2</v>
+      </c>
+      <c r="P9">
+        <v>1.093</v>
+      </c>
+      <c r="Q9">
+        <v>6.587E-3</v>
+      </c>
+      <c r="R9">
+        <v>-1.14E-3</v>
+      </c>
+      <c r="S9">
+        <v>1.1719999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>150</v>
+      </c>
+      <c r="B10">
+        <v>1.7909999999999999</v>
+      </c>
+      <c r="C10">
+        <v>5.4779999999999998</v>
+      </c>
+      <c r="D10">
+        <v>0.56779999999999997</v>
+      </c>
+      <c r="E10">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="F10">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G10">
+        <v>1.5660000000000001</v>
+      </c>
+      <c r="H10">
+        <v>1.04E-2</v>
+      </c>
+      <c r="I10">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="J10">
+        <v>1.135</v>
+      </c>
+      <c r="K10">
+        <v>0.15110000000000001</v>
+      </c>
+      <c r="L10">
+        <v>1.1240000000000001</v>
+      </c>
+      <c r="M10">
+        <v>1.151</v>
+      </c>
+      <c r="N10">
+        <v>3.2669999999999998E-2</v>
+      </c>
+      <c r="O10">
+        <v>4.0739999999999998E-2</v>
+      </c>
+      <c r="P10">
+        <v>1.1339999999999999</v>
+      </c>
+      <c r="Q10">
+        <v>6.0270000000000002E-3</v>
+      </c>
+      <c r="R10">
+        <v>-1.6299999999999999E-3</v>
+      </c>
+      <c r="S10">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B11">
+        <v>2.298</v>
+      </c>
+      <c r="C11">
+        <v>17.38</v>
+      </c>
+      <c r="D11">
+        <v>0.61929999999999996</v>
+      </c>
+      <c r="E11">
+        <v>3.61E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.14330000000000001</v>
+      </c>
+      <c r="G11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H11">
+        <v>1.38E-2</v>
+      </c>
+      <c r="I11">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="J11">
+        <v>0.79369999999999996</v>
+      </c>
+      <c r="K11">
+        <v>0.21909999999999999</v>
+      </c>
+      <c r="L11">
+        <v>3.49</v>
+      </c>
+      <c r="M11">
+        <v>0.73580000000000001</v>
+      </c>
+      <c r="N11">
+        <v>3.8730000000000001E-2</v>
+      </c>
+      <c r="O11">
+        <v>0.10539999999999999</v>
+      </c>
+      <c r="P11">
+        <v>0.63970000000000005</v>
+      </c>
+      <c r="Q11">
+        <v>7.5519999999999997E-3</v>
+      </c>
+      <c r="R11">
+        <v>7.3700000000000002E-4</v>
+      </c>
+      <c r="S11">
+        <v>1.044</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>288</v>
+      </c>
+      <c r="B12">
+        <v>2.2559999999999998</v>
+      </c>
+      <c r="C12">
+        <v>13.8</v>
+      </c>
+      <c r="D12">
+        <v>0.88370000000000004</v>
+      </c>
+      <c r="E12">
+        <v>3.56E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.1079</v>
+      </c>
+      <c r="G12">
+        <v>0.77049999999999996</v>
+      </c>
+      <c r="H12">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="I12">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="J12">
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="K12">
+        <v>0.22109999999999999</v>
+      </c>
+      <c r="L12">
+        <v>2.8359999999999999</v>
+      </c>
+      <c r="M12">
+        <v>1.123</v>
+      </c>
+      <c r="N12">
+        <v>3.7490000000000002E-2</v>
+      </c>
+      <c r="O12">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="P12">
+        <v>0.90859999999999996</v>
+      </c>
+      <c r="Q12">
+        <v>7.058E-3</v>
+      </c>
+      <c r="R12">
+        <v>2.2900000000000001E-4</v>
+      </c>
+      <c r="S12">
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>289</v>
+      </c>
+      <c r="B13">
+        <v>2.5129999999999999</v>
+      </c>
+      <c r="C13">
+        <v>17.34</v>
+      </c>
+      <c r="D13">
+        <v>0.49940000000000001</v>
+      </c>
+      <c r="E13">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.1464</v>
+      </c>
+      <c r="G13">
+        <v>0.4486</v>
+      </c>
+      <c r="H13">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="I13">
+        <v>6.08E-2</v>
+      </c>
+      <c r="J13">
+        <v>0.74719999999999998</v>
+      </c>
+      <c r="K13">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="L13">
+        <v>3.012</v>
+      </c>
+      <c r="M13">
+        <v>0.50190000000000001</v>
+      </c>
+      <c r="N13">
+        <v>4.299E-2</v>
+      </c>
+      <c r="O13">
+        <v>0.107</v>
+      </c>
+      <c r="P13">
+        <v>0.55379999999999996</v>
+      </c>
+      <c r="Q13">
+        <v>7.8869999999999999E-3</v>
+      </c>
+      <c r="R13">
+        <v>8.7699999999999996E-4</v>
+      </c>
+      <c r="S13">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>290</v>
+      </c>
+      <c r="B14">
+        <v>2.3220000000000001</v>
+      </c>
+      <c r="C14">
+        <v>12.91</v>
+      </c>
+      <c r="D14">
+        <v>0.75749999999999995</v>
+      </c>
+      <c r="E14">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="F14">
+        <v>9.3600000000000003E-2</v>
+      </c>
+      <c r="G14">
+        <v>0.59550000000000003</v>
+      </c>
+      <c r="H14">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="I14">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="J14">
+        <v>0.95660000000000001</v>
+      </c>
+      <c r="K14">
+        <v>0.2331</v>
+      </c>
+      <c r="L14">
+        <v>2.2130000000000001</v>
+      </c>
+      <c r="M14">
+        <v>0.80510000000000004</v>
+      </c>
+      <c r="N14">
+        <v>3.8859999999999999E-2</v>
+      </c>
+      <c r="O14">
+        <v>8.0909999999999996E-2</v>
+      </c>
+      <c r="P14">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="Q14">
+        <v>7.0569999999999999E-3</v>
+      </c>
+      <c r="R14">
+        <v>4.2200000000000001E-4</v>
+      </c>
+      <c r="S14">
+        <v>1.6639999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15">
+        <v>2.2719999999999998</v>
+      </c>
+      <c r="C15">
+        <v>13.6</v>
+      </c>
+      <c r="D15">
+        <v>0.71840000000000004</v>
+      </c>
+      <c r="E15">
+        <v>3.56E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.1114</v>
+      </c>
+      <c r="G15">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="H15">
+        <v>1.29E-2</v>
+      </c>
+      <c r="I15">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="J15">
+        <v>0.9355</v>
+      </c>
+      <c r="K15">
+        <v>0.21490000000000001</v>
+      </c>
+      <c r="L15">
+        <v>2.6949999999999998</v>
+      </c>
+      <c r="M15">
+        <v>0.87680000000000002</v>
+      </c>
+      <c r="N15">
+        <v>3.7620000000000001E-2</v>
+      </c>
+      <c r="O15">
+        <v>8.8569999999999996E-2</v>
+      </c>
+      <c r="P15">
+        <v>0.80869999999999997</v>
+      </c>
+      <c r="Q15">
+        <v>7.1019999999999998E-3</v>
+      </c>
+      <c r="R15">
+        <v>3.4499999999999998E-4</v>
+      </c>
+      <c r="S15">
+        <v>1.698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>291</v>
+      </c>
+      <c r="B16">
+        <v>2.2879999999999998</v>
+      </c>
+      <c r="C16">
+        <v>9.8480000000000008</v>
+      </c>
+      <c r="D16">
+        <v>1.054</v>
+      </c>
+      <c r="E16">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="F16">
+        <v>6.59E-2</v>
+      </c>
+      <c r="G16">
+        <v>0.75429999999999997</v>
+      </c>
+      <c r="H16">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I16">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="J16">
+        <v>1.1950000000000001</v>
+      </c>
+      <c r="K16">
+        <v>0.25180000000000002</v>
+      </c>
+      <c r="L16">
+        <v>1.829</v>
+      </c>
+      <c r="M16">
+        <v>1.2729999999999999</v>
+      </c>
+      <c r="N16">
+        <v>3.866E-2</v>
+      </c>
+      <c r="O16">
+        <v>6.2700000000000006E-2</v>
+      </c>
+      <c r="P16">
+        <v>1.1279999999999999</v>
+      </c>
+      <c r="Q16">
+        <v>7.4850000000000003E-3</v>
+      </c>
+      <c r="R16">
+        <v>-8.0999999999999996E-4</v>
+      </c>
+      <c r="S16">
+        <v>9.4589999999999994E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>292</v>
+      </c>
+      <c r="B17">
+        <v>29.91</v>
+      </c>
+      <c r="C17">
+        <v>184.4</v>
+      </c>
+      <c r="D17">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="E17">
+        <v>0.25390000000000001</v>
+      </c>
+      <c r="F17">
+        <v>1.8411</v>
+      </c>
+      <c r="G17">
+        <v>0.39240000000000003</v>
+      </c>
+      <c r="H17">
+        <v>8.8300000000000003E-2</v>
+      </c>
+      <c r="I17">
+        <v>0.75260000000000005</v>
+      </c>
+      <c r="J17">
+        <v>0.37859999999999999</v>
+      </c>
+      <c r="K17">
+        <v>5.7889999999999997</v>
+      </c>
+      <c r="L17">
+        <v>44.12</v>
+      </c>
+      <c r="M17">
+        <v>0.41239999999999999</v>
+      </c>
+      <c r="N17">
+        <v>0.2404</v>
+      </c>
+      <c r="O17">
+        <v>1.7090000000000001</v>
+      </c>
+      <c r="P17">
+        <v>0.39179999999999998</v>
+      </c>
+      <c r="Q17">
+        <v>1.8880000000000001E-2</v>
+      </c>
+      <c r="R17">
+        <v>4.172E-2</v>
+      </c>
+      <c r="S17">
+        <v>0.2903</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>293</v>
+      </c>
+      <c r="B18">
+        <v>2.3540000000000001</v>
+      </c>
+      <c r="C18">
+        <v>14.94</v>
+      </c>
+      <c r="D18">
+        <v>0.74809999999999999</v>
+      </c>
+      <c r="E18">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="F18">
+        <v>0.1067</v>
+      </c>
+      <c r="G18">
+        <v>0.57330000000000003</v>
+      </c>
+      <c r="H18">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="I18">
+        <v>4.6399999999999997E-2</v>
+      </c>
+      <c r="J18">
+        <v>0.91849999999999998</v>
+      </c>
+      <c r="K18">
+        <v>0.253</v>
+      </c>
+      <c r="L18">
+        <v>2.5920000000000001</v>
+      </c>
+      <c r="M18">
+        <v>0.79990000000000006</v>
+      </c>
+      <c r="N18">
+        <v>4.0009999999999997E-2</v>
+      </c>
+      <c r="O18">
+        <v>9.0300000000000005E-2</v>
+      </c>
+      <c r="P18">
+        <v>0.80189999999999995</v>
+      </c>
+      <c r="Q18">
+        <v>7.2659999999999999E-3</v>
+      </c>
+      <c r="R18">
+        <v>6.7400000000000001E-4</v>
+      </c>
+      <c r="S18">
+        <v>1.2335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>294</v>
+      </c>
+      <c r="B19">
+        <v>2.661</v>
+      </c>
+      <c r="C19">
+        <v>19.54</v>
+      </c>
+      <c r="D19">
+        <v>0.50939999999999996</v>
+      </c>
+      <c r="E19">
+        <v>4.2189999999999998E-2</v>
+      </c>
+      <c r="F19">
+        <v>0.15590000000000001</v>
+      </c>
+      <c r="G19">
+        <v>0.44719999999999999</v>
+      </c>
+      <c r="H19">
+        <v>1.7469999999999999E-2</v>
+      </c>
+      <c r="I19">
+        <v>6.4219999999999999E-2</v>
+      </c>
+      <c r="J19">
+        <v>0.72989999999999999</v>
+      </c>
+      <c r="K19">
+        <v>0.3579</v>
+      </c>
+      <c r="L19">
+        <v>3.4660000000000002</v>
+      </c>
+      <c r="M19">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N19">
+        <v>4.6120000000000001E-2</v>
+      </c>
+      <c r="O19">
+        <v>0.1198</v>
+      </c>
+      <c r="P19">
+        <v>0.5907</v>
+      </c>
+      <c r="Q19">
+        <v>8.0789999999999994E-3</v>
+      </c>
+      <c r="R19">
+        <v>8.4699999999999999E-4</v>
+      </c>
+      <c r="S19">
+        <v>0.97419999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A39" sqref="A39:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="309" t="s">
+      <c r="A1" s="307" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="322" t="s">
+      <c r="A2" s="320" t="s">
         <v>304</v>
       </c>
-      <c r="B2" s="335" t="s">
+      <c r="B2" s="333" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="335"/>
-      <c r="D2" s="335"/>
-      <c r="E2" s="335" t="s">
+      <c r="C2" s="333"/>
+      <c r="D2" s="333"/>
+      <c r="E2" s="333" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="335"/>
-      <c r="G2" s="335"/>
-      <c r="H2" s="335" t="s">
+      <c r="F2" s="333"/>
+      <c r="G2" s="333"/>
+      <c r="H2" s="333" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="335"/>
-      <c r="J2" s="335"/>
-      <c r="K2" s="335" t="s">
+      <c r="I2" s="333"/>
+      <c r="J2" s="333"/>
+      <c r="K2" s="333" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="335"/>
-      <c r="M2" s="335"/>
-      <c r="N2" s="335" t="s">
+      <c r="L2" s="333"/>
+      <c r="M2" s="333"/>
+      <c r="N2" s="333" t="s">
         <v>96</v>
       </c>
-      <c r="O2" s="335"/>
-      <c r="P2" s="335"/>
-      <c r="Q2" s="335" t="s">
+      <c r="O2" s="333"/>
+      <c r="P2" s="333"/>
+      <c r="Q2" s="333" t="s">
         <v>58</v>
       </c>
-      <c r="R2" s="335"/>
-      <c r="S2" s="335"/>
+      <c r="R2" s="333"/>
+      <c r="S2" s="333"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="313" t="s">
+      <c r="B3" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="313" t="s">
+      <c r="C3" s="311" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="313" t="s">
+      <c r="D3" s="311" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="313" t="s">
+      <c r="E3" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="313" t="s">
+      <c r="F3" s="311" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="313" t="s">
+      <c r="G3" s="311" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="313" t="s">
+      <c r="H3" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="313" t="s">
+      <c r="I3" s="311" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="313" t="s">
+      <c r="J3" s="311" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="313" t="s">
+      <c r="K3" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="313" t="s">
+      <c r="L3" s="311" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="313" t="s">
+      <c r="M3" s="311" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="313" t="s">
+      <c r="N3" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="313" t="s">
+      <c r="O3" s="311" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="313" t="s">
+      <c r="P3" s="311" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="313" t="s">
+      <c r="Q3" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="313" t="s">
+      <c r="R3" s="311" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="313" t="s">
+      <c r="S3" s="311" t="s">
         <v>42</v>
       </c>
     </row>
@@ -18849,109 +19286,109 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="322" t="s">
+      <c r="A9" s="320" t="s">
         <v>296</v>
       </c>
-      <c r="B9" s="309" t="s">
+      <c r="B9" s="307" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="309" t="s">
+      <c r="A11" s="307" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="322" t="s">
+      <c r="A12" s="320" t="s">
         <v>303</v>
       </c>
-      <c r="B12" s="335" t="s">
+      <c r="B12" s="333" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="335"/>
-      <c r="D12" s="335"/>
-      <c r="E12" s="335" t="s">
+      <c r="C12" s="333"/>
+      <c r="D12" s="333"/>
+      <c r="E12" s="333" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="335"/>
-      <c r="G12" s="335"/>
-      <c r="H12" s="335" t="s">
+      <c r="F12" s="333"/>
+      <c r="G12" s="333"/>
+      <c r="H12" s="333" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="335"/>
-      <c r="J12" s="335"/>
-      <c r="K12" s="335" t="s">
+      <c r="I12" s="333"/>
+      <c r="J12" s="333"/>
+      <c r="K12" s="333" t="s">
         <v>54</v>
       </c>
-      <c r="L12" s="335"/>
-      <c r="M12" s="335"/>
-      <c r="N12" s="335" t="s">
+      <c r="L12" s="333"/>
+      <c r="M12" s="333"/>
+      <c r="N12" s="333" t="s">
         <v>96</v>
       </c>
-      <c r="O12" s="335"/>
-      <c r="P12" s="335"/>
-      <c r="Q12" s="335" t="s">
+      <c r="O12" s="333"/>
+      <c r="P12" s="333"/>
+      <c r="Q12" s="333" t="s">
         <v>58</v>
       </c>
-      <c r="R12" s="335"/>
-      <c r="S12" s="335"/>
+      <c r="R12" s="333"/>
+      <c r="S12" s="333"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="313" t="s">
+      <c r="B13" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="313" t="s">
+      <c r="C13" s="311" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="313" t="s">
+      <c r="D13" s="311" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="313" t="s">
+      <c r="E13" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="313" t="s">
+      <c r="F13" s="311" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="313" t="s">
+      <c r="G13" s="311" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="313" t="s">
+      <c r="H13" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="313" t="s">
+      <c r="I13" s="311" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="313" t="s">
+      <c r="J13" s="311" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="313" t="s">
+      <c r="K13" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="313" t="s">
+      <c r="L13" s="311" t="s">
         <v>41</v>
       </c>
-      <c r="M13" s="313" t="s">
+      <c r="M13" s="311" t="s">
         <v>42</v>
       </c>
-      <c r="N13" s="313" t="s">
+      <c r="N13" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="313" t="s">
+      <c r="O13" s="311" t="s">
         <v>41</v>
       </c>
-      <c r="P13" s="313" t="s">
+      <c r="P13" s="311" t="s">
         <v>42</v>
       </c>
-      <c r="Q13" s="313" t="s">
+      <c r="Q13" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="R13" s="313" t="s">
+      <c r="R13" s="311" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="313" t="s">
+      <c r="S13" s="311" t="s">
         <v>42</v>
       </c>
     </row>
@@ -19310,109 +19747,109 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="322" t="s">
+      <c r="A21" s="320" t="s">
         <v>296</v>
       </c>
-      <c r="B21" s="309" t="s">
+      <c r="B21" s="307" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="309" t="s">
+      <c r="A23" s="307" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="322" t="s">
+      <c r="A24" s="320" t="s">
         <v>302</v>
       </c>
-      <c r="B24" s="335" t="s">
+      <c r="B24" s="333" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="335"/>
-      <c r="D24" s="335"/>
-      <c r="E24" s="335" t="s">
+      <c r="C24" s="333"/>
+      <c r="D24" s="333"/>
+      <c r="E24" s="333" t="s">
         <v>95</v>
       </c>
-      <c r="F24" s="335"/>
-      <c r="G24" s="335"/>
-      <c r="H24" s="335" t="s">
+      <c r="F24" s="333"/>
+      <c r="G24" s="333"/>
+      <c r="H24" s="333" t="s">
         <v>52</v>
       </c>
-      <c r="I24" s="335"/>
-      <c r="J24" s="335"/>
-      <c r="K24" s="335" t="s">
+      <c r="I24" s="333"/>
+      <c r="J24" s="333"/>
+      <c r="K24" s="333" t="s">
         <v>54</v>
       </c>
-      <c r="L24" s="335"/>
-      <c r="M24" s="335"/>
-      <c r="N24" s="335" t="s">
+      <c r="L24" s="333"/>
+      <c r="M24" s="333"/>
+      <c r="N24" s="333" t="s">
         <v>96</v>
       </c>
-      <c r="O24" s="335"/>
-      <c r="P24" s="335"/>
-      <c r="Q24" s="335" t="s">
+      <c r="O24" s="333"/>
+      <c r="P24" s="333"/>
+      <c r="Q24" s="333" t="s">
         <v>58</v>
       </c>
-      <c r="R24" s="335"/>
-      <c r="S24" s="335"/>
+      <c r="R24" s="333"/>
+      <c r="S24" s="333"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="313" t="s">
+      <c r="B25" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="313" t="s">
+      <c r="C25" s="311" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="313" t="s">
+      <c r="D25" s="311" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="313" t="s">
+      <c r="E25" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="313" t="s">
+      <c r="F25" s="311" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="313" t="s">
+      <c r="G25" s="311" t="s">
         <v>42</v>
       </c>
-      <c r="H25" s="313" t="s">
+      <c r="H25" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="313" t="s">
+      <c r="I25" s="311" t="s">
         <v>41</v>
       </c>
-      <c r="J25" s="313" t="s">
+      <c r="J25" s="311" t="s">
         <v>42</v>
       </c>
-      <c r="K25" s="313" t="s">
+      <c r="K25" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="L25" s="313" t="s">
+      <c r="L25" s="311" t="s">
         <v>41</v>
       </c>
-      <c r="M25" s="313" t="s">
+      <c r="M25" s="311" t="s">
         <v>42</v>
       </c>
-      <c r="N25" s="313" t="s">
+      <c r="N25" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="O25" s="313" t="s">
+      <c r="O25" s="311" t="s">
         <v>41</v>
       </c>
-      <c r="P25" s="313" t="s">
+      <c r="P25" s="311" t="s">
         <v>42</v>
       </c>
-      <c r="Q25" s="313" t="s">
+      <c r="Q25" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="R25" s="313" t="s">
+      <c r="R25" s="311" t="s">
         <v>41</v>
       </c>
-      <c r="S25" s="313" t="s">
+      <c r="S25" s="311" t="s">
         <v>42</v>
       </c>
     </row>
@@ -19653,103 +20090,103 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="322" t="s">
+      <c r="A31" s="320" t="s">
         <v>296</v>
       </c>
-      <c r="B31" s="309" t="s">
+      <c r="B31" s="307" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A33" s="309" t="s">
+      <c r="A33" s="307" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C34" s="335" t="s">
+      <c r="C34" s="333" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="335"/>
-      <c r="E34" s="335"/>
-      <c r="F34" s="335" t="s">
+      <c r="D34" s="333"/>
+      <c r="E34" s="333"/>
+      <c r="F34" s="333" t="s">
         <v>95</v>
       </c>
-      <c r="G34" s="335"/>
-      <c r="H34" s="335"/>
-      <c r="I34" s="335" t="s">
+      <c r="G34" s="333"/>
+      <c r="H34" s="333"/>
+      <c r="I34" s="333" t="s">
         <v>52</v>
       </c>
-      <c r="J34" s="335"/>
-      <c r="K34" s="335"/>
-      <c r="L34" s="335" t="s">
+      <c r="J34" s="333"/>
+      <c r="K34" s="333"/>
+      <c r="L34" s="333" t="s">
         <v>54</v>
       </c>
-      <c r="M34" s="335"/>
-      <c r="N34" s="335"/>
-      <c r="O34" s="335" t="s">
+      <c r="M34" s="333"/>
+      <c r="N34" s="333"/>
+      <c r="O34" s="333" t="s">
         <v>96</v>
       </c>
-      <c r="P34" s="335"/>
-      <c r="Q34" s="335"/>
-      <c r="R34" s="335" t="s">
+      <c r="P34" s="333"/>
+      <c r="Q34" s="333"/>
+      <c r="R34" s="333" t="s">
         <v>58</v>
       </c>
-      <c r="S34" s="335"/>
-      <c r="T34" s="335"/>
+      <c r="S34" s="333"/>
+      <c r="T34" s="333"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C35" s="313" t="s">
+      <c r="C35" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="313" t="s">
+      <c r="D35" s="311" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="313" t="s">
+      <c r="E35" s="311" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="313" t="s">
+      <c r="F35" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="G35" s="313" t="s">
+      <c r="G35" s="311" t="s">
         <v>41</v>
       </c>
-      <c r="H35" s="313" t="s">
+      <c r="H35" s="311" t="s">
         <v>42</v>
       </c>
-      <c r="I35" s="313" t="s">
+      <c r="I35" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="J35" s="313" t="s">
+      <c r="J35" s="311" t="s">
         <v>41</v>
       </c>
-      <c r="K35" s="313" t="s">
+      <c r="K35" s="311" t="s">
         <v>42</v>
       </c>
-      <c r="L35" s="313" t="s">
+      <c r="L35" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="M35" s="313" t="s">
+      <c r="M35" s="311" t="s">
         <v>41</v>
       </c>
-      <c r="N35" s="313" t="s">
+      <c r="N35" s="311" t="s">
         <v>42</v>
       </c>
-      <c r="O35" s="313" t="s">
+      <c r="O35" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="P35" s="313" t="s">
+      <c r="P35" s="311" t="s">
         <v>41</v>
       </c>
-      <c r="Q35" s="313" t="s">
+      <c r="Q35" s="311" t="s">
         <v>42</v>
       </c>
-      <c r="R35" s="313" t="s">
+      <c r="R35" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="S35" s="313" t="s">
+      <c r="S35" s="311" t="s">
         <v>41</v>
       </c>
-      <c r="T35" s="313" t="s">
+      <c r="T35" s="311" t="s">
         <v>42</v>
       </c>
     </row>
@@ -19872,27 +20309,15 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A39" s="322" t="s">
+      <c r="A39" s="320" t="s">
         <v>296</v>
       </c>
-      <c r="B39" s="309" t="s">
+      <c r="B39" s="307" t="s">
         <v>297</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q24:S24"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="E12:G12"/>
@@ -19905,6 +20330,18 @@
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="K24:M24"/>
     <mergeCell ref="N24:P24"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="O34:Q34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19914,7 +20351,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -19924,22 +20363,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="323" t="s">
+      <c r="B1" s="322" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="323"/>
-      <c r="D1" s="323" t="s">
+      <c r="C1" s="322"/>
+      <c r="D1" s="322" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="323"/>
-      <c r="F1" s="323"/>
-      <c r="H1" s="324" t="s">
+      <c r="E1" s="322"/>
+      <c r="F1" s="322"/>
+      <c r="H1" s="323" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="324"/>
-      <c r="J1" s="324"/>
-      <c r="K1" s="294"/>
-      <c r="M1" s="295"/>
+      <c r="I1" s="322"/>
+      <c r="J1" s="322"/>
+      <c r="K1" s="322"/>
+      <c r="L1" s="322"/>
+      <c r="M1" s="294"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="293" t="s">
@@ -19957,130 +20397,173 @@
       <c r="F2" s="293" t="s">
         <v>188</v>
       </c>
-      <c r="H2" s="296" t="s">
+      <c r="H2" s="295" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="296" t="s">
+      <c r="I2" s="295" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="315" t="s">
+      <c r="J2" s="313" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="297"/>
-      <c r="M2" s="295"/>
+      <c r="K2" s="313" t="s">
+        <v>312</v>
+      </c>
+      <c r="L2" s="313" t="s">
+        <v>313</v>
+      </c>
+      <c r="M2" s="294"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="293" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="318"/>
-      <c r="C3" s="318"/>
-      <c r="D3" s="318"/>
-      <c r="E3" s="318"/>
-      <c r="F3" s="318"/>
+      <c r="B3" s="316"/>
+      <c r="C3" s="316"/>
+      <c r="D3" s="316"/>
+      <c r="E3" s="316"/>
+      <c r="F3" s="316"/>
       <c r="G3" s="293" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="303"/>
-      <c r="I3" s="303"/>
-      <c r="J3" s="303"/>
-      <c r="M3" s="295"/>
+      <c r="H3" s="301"/>
+      <c r="I3" s="301"/>
+      <c r="J3" s="301"/>
+      <c r="K3" s="301" t="e">
+        <f>I3/H3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L3" s="301">
+        <f>H3*J3</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="294"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="293" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="318"/>
-      <c r="C4" s="318"/>
-      <c r="D4" s="318"/>
-      <c r="E4" s="318"/>
-      <c r="F4" s="318"/>
+      <c r="B4" s="316"/>
+      <c r="C4" s="316"/>
+      <c r="D4" s="316"/>
+      <c r="E4" s="316"/>
+      <c r="F4" s="316"/>
       <c r="G4" s="293" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="303"/>
-      <c r="I4" s="303"/>
-      <c r="J4" s="303"/>
-      <c r="M4" s="295"/>
+      <c r="H4" s="301"/>
+      <c r="I4" s="301"/>
+      <c r="J4" s="301"/>
+      <c r="K4" s="301" t="e">
+        <f>I4/H4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L4" s="301">
+        <f>H4*J4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="294"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="293" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="318"/>
-      <c r="C5" s="318"/>
-      <c r="D5" s="318"/>
-      <c r="E5" s="318"/>
-      <c r="F5" s="318"/>
-      <c r="H5" s="325" t="s">
+      <c r="B5" s="316"/>
+      <c r="C5" s="316"/>
+      <c r="D5" s="316"/>
+      <c r="E5" s="316"/>
+      <c r="F5" s="316"/>
+      <c r="H5" s="336" t="s">
         <v>185</v>
       </c>
-      <c r="I5" s="325"/>
-      <c r="J5" s="324"/>
-      <c r="K5" s="294"/>
-      <c r="M5" s="295"/>
+      <c r="I5" s="337"/>
+      <c r="J5" s="337"/>
+      <c r="K5" s="337"/>
+      <c r="L5" s="337"/>
+      <c r="M5" s="294"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="293" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="318"/>
-      <c r="C6" s="318"/>
-      <c r="D6" s="318"/>
-      <c r="E6" s="318"/>
-      <c r="F6" s="318"/>
-      <c r="H6" s="296" t="s">
+      <c r="B6" s="316"/>
+      <c r="C6" s="316"/>
+      <c r="D6" s="316"/>
+      <c r="E6" s="316"/>
+      <c r="F6" s="316"/>
+      <c r="H6" s="295" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="296" t="s">
+      <c r="I6" s="295" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="315" t="s">
+      <c r="J6" s="313" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="297"/>
-      <c r="M6" s="295"/>
+      <c r="K6" s="313" t="s">
+        <v>312</v>
+      </c>
+      <c r="L6" s="313" t="s">
+        <v>313</v>
+      </c>
+      <c r="M6" s="294"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="293" t="s">
         <v>193</v>
       </c>
-      <c r="B7" s="319"/>
-      <c r="C7" s="318"/>
-      <c r="D7" s="319"/>
-      <c r="E7" s="318"/>
-      <c r="F7" s="318"/>
+      <c r="B7" s="317"/>
+      <c r="C7" s="316"/>
+      <c r="D7" s="317"/>
+      <c r="E7" s="316"/>
+      <c r="F7" s="316"/>
       <c r="G7" s="293" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="303"/>
-      <c r="I7" s="303"/>
-      <c r="J7" s="303"/>
-      <c r="M7" s="295"/>
+      <c r="H7" s="301"/>
+      <c r="I7" s="301"/>
+      <c r="J7" s="301"/>
+      <c r="K7" s="301" t="e">
+        <f>I7/H7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L7" s="301">
+        <f>H7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="294"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G8" s="293" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="303"/>
-      <c r="I8" s="303"/>
-      <c r="J8" s="303"/>
-      <c r="M8" s="295"/>
+      <c r="H8" s="301"/>
+      <c r="I8" s="301"/>
+      <c r="J8" s="301"/>
+      <c r="K8" s="301" t="e">
+        <f>I8/H8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L8" s="301">
+        <f>H8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="294"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="293" t="s">
         <v>299</v>
       </c>
-      <c r="B9" s="316">
+      <c r="B9" s="314">
         <v>40</v>
       </c>
-      <c r="M9" s="298"/>
+      <c r="M9" s="296"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="293" t="s">
         <v>300</v>
       </c>
-      <c r="B10" s="317">
+      <c r="B10" s="315">
         <v>10000</v>
       </c>
       <c r="C10" s="293" t="s">
@@ -20111,153 +20594,153 @@
       <c r="A13" s="293" t="s">
         <v>199</v>
       </c>
-      <c r="B13" s="318"/>
-      <c r="C13" s="318"/>
-      <c r="D13" s="320"/>
-      <c r="E13" s="318"/>
-      <c r="F13" s="318"/>
-      <c r="G13" s="318"/>
+      <c r="B13" s="316"/>
+      <c r="C13" s="316"/>
+      <c r="D13" s="318"/>
+      <c r="E13" s="316"/>
+      <c r="F13" s="316"/>
+      <c r="G13" s="316"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="293" t="s">
         <v>200</v>
       </c>
-      <c r="B14" s="318"/>
-      <c r="C14" s="318"/>
-      <c r="D14" s="320"/>
-      <c r="E14" s="318"/>
-      <c r="F14" s="318"/>
-      <c r="G14" s="318"/>
+      <c r="B14" s="316"/>
+      <c r="C14" s="316"/>
+      <c r="D14" s="318"/>
+      <c r="E14" s="316"/>
+      <c r="F14" s="316"/>
+      <c r="G14" s="316"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="293" t="s">
         <v>201</v>
       </c>
-      <c r="B15" s="318"/>
-      <c r="C15" s="318"/>
-      <c r="D15" s="320"/>
-      <c r="E15" s="318"/>
-      <c r="F15" s="318"/>
-      <c r="G15" s="318"/>
+      <c r="B15" s="316"/>
+      <c r="C15" s="316"/>
+      <c r="D15" s="318"/>
+      <c r="E15" s="316"/>
+      <c r="F15" s="316"/>
+      <c r="G15" s="316"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="293" t="s">
         <v>202</v>
       </c>
-      <c r="B16" s="318"/>
-      <c r="C16" s="318"/>
-      <c r="D16" s="320"/>
-      <c r="E16" s="318"/>
-      <c r="F16" s="318"/>
-      <c r="G16" s="318"/>
+      <c r="B16" s="316"/>
+      <c r="C16" s="316"/>
+      <c r="D16" s="318"/>
+      <c r="E16" s="316"/>
+      <c r="F16" s="316"/>
+      <c r="G16" s="316"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="293" t="s">
         <v>203</v>
       </c>
-      <c r="B17" s="318"/>
-      <c r="C17" s="318"/>
-      <c r="D17" s="320"/>
-      <c r="E17" s="318"/>
-      <c r="F17" s="318"/>
-      <c r="G17" s="318"/>
+      <c r="B17" s="316"/>
+      <c r="C17" s="316"/>
+      <c r="D17" s="318"/>
+      <c r="E17" s="316"/>
+      <c r="F17" s="316"/>
+      <c r="G17" s="316"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="293" t="s">
         <v>204</v>
       </c>
-      <c r="B18" s="318"/>
-      <c r="C18" s="318"/>
-      <c r="D18" s="320"/>
-      <c r="E18" s="318"/>
-      <c r="F18" s="318"/>
-      <c r="G18" s="318"/>
+      <c r="B18" s="316"/>
+      <c r="C18" s="316"/>
+      <c r="D18" s="318"/>
+      <c r="E18" s="316"/>
+      <c r="F18" s="316"/>
+      <c r="G18" s="316"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="293" t="s">
         <v>205</v>
       </c>
-      <c r="B19" s="318"/>
-      <c r="C19" s="318"/>
-      <c r="D19" s="320"/>
-      <c r="E19" s="318"/>
-      <c r="F19" s="318"/>
-      <c r="G19" s="318"/>
+      <c r="B19" s="316"/>
+      <c r="C19" s="316"/>
+      <c r="D19" s="318"/>
+      <c r="E19" s="316"/>
+      <c r="F19" s="316"/>
+      <c r="G19" s="316"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="293" t="s">
         <v>206</v>
       </c>
-      <c r="B20" s="318"/>
-      <c r="C20" s="318"/>
-      <c r="D20" s="320"/>
-      <c r="E20" s="318"/>
-      <c r="F20" s="318"/>
-      <c r="G20" s="318"/>
+      <c r="B20" s="316"/>
+      <c r="C20" s="316"/>
+      <c r="D20" s="318"/>
+      <c r="E20" s="316"/>
+      <c r="F20" s="316"/>
+      <c r="G20" s="316"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="293" t="s">
         <v>207</v>
       </c>
-      <c r="B21" s="318"/>
-      <c r="C21" s="318"/>
-      <c r="D21" s="320"/>
-      <c r="E21" s="318"/>
-      <c r="F21" s="318"/>
-      <c r="G21" s="318"/>
+      <c r="B21" s="316"/>
+      <c r="C21" s="316"/>
+      <c r="D21" s="318"/>
+      <c r="E21" s="316"/>
+      <c r="F21" s="316"/>
+      <c r="G21" s="316"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="293" t="s">
         <v>208</v>
       </c>
-      <c r="B22" s="318"/>
-      <c r="C22" s="318"/>
-      <c r="D22" s="320"/>
-      <c r="E22" s="318"/>
-      <c r="F22" s="318"/>
-      <c r="G22" s="318"/>
+      <c r="B22" s="316"/>
+      <c r="C22" s="316"/>
+      <c r="D22" s="318"/>
+      <c r="E22" s="316"/>
+      <c r="F22" s="316"/>
+      <c r="G22" s="316"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="293" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="318"/>
-      <c r="C23" s="318"/>
-      <c r="D23" s="320"/>
-      <c r="E23" s="318"/>
-      <c r="F23" s="318"/>
-      <c r="G23" s="318"/>
+      <c r="B23" s="316"/>
+      <c r="C23" s="316"/>
+      <c r="D23" s="318"/>
+      <c r="E23" s="316"/>
+      <c r="F23" s="316"/>
+      <c r="G23" s="316"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="293" t="s">
         <v>210</v>
       </c>
-      <c r="B24" s="318"/>
-      <c r="C24" s="318"/>
-      <c r="D24" s="320"/>
-      <c r="E24" s="318"/>
-      <c r="F24" s="318"/>
-      <c r="G24" s="318"/>
+      <c r="B24" s="316"/>
+      <c r="C24" s="316"/>
+      <c r="D24" s="318"/>
+      <c r="E24" s="316"/>
+      <c r="F24" s="316"/>
+      <c r="G24" s="316"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="293" t="s">
         <v>211</v>
       </c>
-      <c r="B25" s="318"/>
-      <c r="C25" s="318"/>
-      <c r="D25" s="320"/>
-      <c r="E25" s="318"/>
-      <c r="F25" s="318"/>
-      <c r="G25" s="318"/>
+      <c r="B25" s="316"/>
+      <c r="C25" s="316"/>
+      <c r="D25" s="318"/>
+      <c r="E25" s="316"/>
+      <c r="F25" s="316"/>
+      <c r="G25" s="316"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G26" s="300" t="s">
+      <c r="G26" s="298" t="s">
         <v>48</v>
       </c>
-      <c r="H26" s="300" t="s">
+      <c r="H26" s="298" t="s">
         <v>50</v>
       </c>
-      <c r="J26" s="301"/>
+      <c r="J26" s="299"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B27" s="293" t="s">
@@ -20275,402 +20758,402 @@
       <c r="F27" s="293" t="s">
         <v>216</v>
       </c>
-      <c r="G27" s="300" t="s">
+      <c r="G27" s="298" t="s">
         <v>217</v>
       </c>
-      <c r="H27" s="300" t="s">
+      <c r="H27" s="298" t="s">
         <v>217</v>
       </c>
-      <c r="J27" s="301"/>
+      <c r="J27" s="299"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="293" t="str">
         <f>IF(A13="","",A13)</f>
         <v>Wall A</v>
       </c>
-      <c r="B28" s="318"/>
-      <c r="C28" s="318"/>
-      <c r="D28" s="305" t="e">
+      <c r="B28" s="316"/>
+      <c r="C28" s="316"/>
+      <c r="D28" s="303" t="e">
         <f>B28*$B$10*(C28^2/D13^2)+12/(D13^2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E28" s="306" t="e">
+      <c r="E28" s="304" t="e">
         <f>D28*$B$9/1000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F28" s="306" t="e">
+      <c r="F28" s="304" t="e">
         <f t="shared" ref="F28:F40" si="0">F13/(G13*E28)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G28" s="305" t="e">
+      <c r="G28" s="303" t="e">
         <f>LN((F28^(-$J$7)+($I$7/$H$7))/(1+($I$7/$H$7)))/($H$7*$J$7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="321"/>
-      <c r="I28" s="307" t="e">
+      <c r="H28" s="319"/>
+      <c r="I28" s="305" t="e">
         <f t="shared" ref="I28:I38" si="1">LOOKUP(G28,mm_value,minimum_Pb)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J28" s="301"/>
+      <c r="J28" s="299"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="293" t="str">
         <f t="shared" ref="A29:A40" si="2">IF(A14="","",A14)</f>
         <v>Wall A (Hall)</v>
       </c>
-      <c r="B29" s="318"/>
-      <c r="C29" s="318"/>
-      <c r="D29" s="305" t="e">
+      <c r="B29" s="316"/>
+      <c r="C29" s="316"/>
+      <c r="D29" s="303" t="e">
         <f t="shared" ref="D29:D40" si="3">B29*$B$10*(C29^2/D14^2)+12/(D14^2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E29" s="306" t="e">
+      <c r="E29" s="304" t="e">
         <f t="shared" ref="E29:E40" si="4">D29*$B$9/1000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F29" s="306" t="e">
+      <c r="F29" s="304" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G29" s="305" t="e">
+      <c r="G29" s="303" t="e">
         <f t="shared" ref="G29:G38" si="5">LN((F29^(-$J$7)+($I$7/$H$7))/(1+($I$7/$H$7)))/($H$7*$J$7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="321"/>
-      <c r="I29" s="307" t="e">
+      <c r="H29" s="319"/>
+      <c r="I29" s="305" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J29" s="301"/>
+      <c r="J29" s="299"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="293" t="str">
         <f t="shared" si="2"/>
         <v>Wall A (Tech)</v>
       </c>
-      <c r="B30" s="318"/>
-      <c r="C30" s="318"/>
-      <c r="D30" s="305" t="e">
+      <c r="B30" s="316"/>
+      <c r="C30" s="316"/>
+      <c r="D30" s="303" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E30" s="306" t="e">
+      <c r="E30" s="304" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F30" s="306" t="e">
+      <c r="F30" s="304" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="305" t="e">
+      <c r="G30" s="303" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="321"/>
-      <c r="I30" s="307" t="e">
+      <c r="H30" s="319"/>
+      <c r="I30" s="305" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J30" s="301"/>
+      <c r="J30" s="299"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="293" t="str">
         <f t="shared" si="2"/>
         <v>Door A</v>
       </c>
-      <c r="B31" s="318"/>
-      <c r="C31" s="318"/>
-      <c r="D31" s="305" t="e">
+      <c r="B31" s="316"/>
+      <c r="C31" s="316"/>
+      <c r="D31" s="303" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="306" t="e">
+      <c r="E31" s="304" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F31" s="306" t="e">
+      <c r="F31" s="304" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="305" t="e">
+      <c r="G31" s="303" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="321"/>
-      <c r="I31" s="307" t="e">
+      <c r="H31" s="319"/>
+      <c r="I31" s="305" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J31" s="301"/>
+      <c r="J31" s="299"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="293" t="str">
         <f t="shared" si="2"/>
         <v>Wall B</v>
       </c>
-      <c r="B32" s="318"/>
-      <c r="C32" s="318"/>
-      <c r="D32" s="305" t="e">
+      <c r="B32" s="316"/>
+      <c r="C32" s="316"/>
+      <c r="D32" s="303" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E32" s="306" t="e">
+      <c r="E32" s="304" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F32" s="306" t="e">
+      <c r="F32" s="304" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="305" t="e">
+      <c r="G32" s="303" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="321"/>
-      <c r="I32" s="307" t="e">
+      <c r="H32" s="319"/>
+      <c r="I32" s="305" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J32" s="301"/>
+      <c r="J32" s="299"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="293" t="str">
         <f t="shared" si="2"/>
         <v>Wall C</v>
       </c>
-      <c r="B33" s="318"/>
-      <c r="C33" s="318"/>
-      <c r="D33" s="305" t="e">
+      <c r="B33" s="316"/>
+      <c r="C33" s="316"/>
+      <c r="D33" s="303" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E33" s="306" t="e">
+      <c r="E33" s="304" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F33" s="306" t="e">
+      <c r="F33" s="304" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G33" s="305" t="e">
+      <c r="G33" s="303" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="321"/>
-      <c r="I33" s="307" t="e">
+      <c r="H33" s="319"/>
+      <c r="I33" s="305" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J33" s="301"/>
+      <c r="J33" s="299"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="293" t="str">
         <f t="shared" si="2"/>
         <v>Wall D</v>
       </c>
-      <c r="B34" s="318"/>
-      <c r="C34" s="318"/>
-      <c r="D34" s="305" t="e">
+      <c r="B34" s="316"/>
+      <c r="C34" s="316"/>
+      <c r="D34" s="303" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E34" s="306" t="e">
+      <c r="E34" s="304" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F34" s="306" t="e">
+      <c r="F34" s="304" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G34" s="305" t="e">
+      <c r="G34" s="303" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="321"/>
-      <c r="I34" s="307" t="e">
+      <c r="H34" s="319"/>
+      <c r="I34" s="305" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J34" s="301"/>
+      <c r="J34" s="299"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="293" t="str">
         <f t="shared" si="2"/>
         <v>Door D</v>
       </c>
-      <c r="B35" s="318"/>
-      <c r="C35" s="318"/>
-      <c r="D35" s="305" t="e">
+      <c r="B35" s="316"/>
+      <c r="C35" s="316"/>
+      <c r="D35" s="303" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E35" s="306" t="e">
+      <c r="E35" s="304" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F35" s="306" t="e">
+      <c r="F35" s="304" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G35" s="305" t="e">
+      <c r="G35" s="303" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="321"/>
-      <c r="I35" s="307" t="e">
+      <c r="H35" s="319"/>
+      <c r="I35" s="305" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J35" s="301"/>
+      <c r="J35" s="299"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="293" t="str">
         <f t="shared" si="2"/>
         <v>Wall D (CT)</v>
       </c>
-      <c r="B36" s="318"/>
-      <c r="C36" s="318"/>
-      <c r="D36" s="305" t="e">
+      <c r="B36" s="316"/>
+      <c r="C36" s="316"/>
+      <c r="D36" s="303" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E36" s="306" t="e">
+      <c r="E36" s="304" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F36" s="306" t="e">
+      <c r="F36" s="304" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G36" s="305" t="e">
+      <c r="G36" s="303" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="321"/>
-      <c r="I36" s="307" t="e">
+      <c r="H36" s="319"/>
+      <c r="I36" s="305" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J36" s="301"/>
+      <c r="J36" s="299"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="293" t="str">
         <f t="shared" si="2"/>
         <v>Wall D(CT)</v>
       </c>
-      <c r="B37" s="318"/>
-      <c r="C37" s="318"/>
-      <c r="D37" s="305" t="e">
+      <c r="B37" s="316"/>
+      <c r="C37" s="316"/>
+      <c r="D37" s="303" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E37" s="306" t="e">
+      <c r="E37" s="304" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F37" s="306" t="e">
+      <c r="F37" s="304" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G37" s="305" t="e">
+      <c r="G37" s="303" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="321"/>
-      <c r="I37" s="307" t="e">
+      <c r="H37" s="319"/>
+      <c r="I37" s="305" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J37" s="301"/>
+      <c r="J37" s="299"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="293" t="str">
         <f t="shared" si="2"/>
         <v>Control</v>
       </c>
-      <c r="B38" s="318"/>
-      <c r="C38" s="318"/>
-      <c r="D38" s="305" t="e">
+      <c r="B38" s="316"/>
+      <c r="C38" s="316"/>
+      <c r="D38" s="303" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="306" t="e">
+      <c r="E38" s="304" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="306" t="e">
+      <c r="F38" s="304" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="305" t="e">
+      <c r="G38" s="303" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="321"/>
-      <c r="I38" s="307" t="e">
+      <c r="H38" s="319"/>
+      <c r="I38" s="305" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J38" s="301"/>
+      <c r="J38" s="299"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="293" t="str">
         <f t="shared" si="2"/>
         <v>Floor</v>
       </c>
-      <c r="B39" s="318"/>
-      <c r="C39" s="318"/>
-      <c r="D39" s="305" t="e">
+      <c r="B39" s="316"/>
+      <c r="C39" s="316"/>
+      <c r="D39" s="303" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="306" t="e">
+      <c r="E39" s="304" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F39" s="306" t="e">
+      <c r="F39" s="304" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G39" s="321"/>
-      <c r="H39" s="304" t="e">
+      <c r="G39" s="319"/>
+      <c r="H39" s="302" t="e">
         <f>LN((F39^-$J$8+($I$8/$H$8))/(1+($I$8/$H$8)))/($H$8*$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="321"/>
-      <c r="J39" s="301"/>
+      <c r="I39" s="319"/>
+      <c r="J39" s="299"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="293" t="str">
         <f t="shared" si="2"/>
         <v>Ceiling</v>
       </c>
-      <c r="B40" s="318"/>
-      <c r="C40" s="318"/>
-      <c r="D40" s="305" t="e">
+      <c r="B40" s="316"/>
+      <c r="C40" s="316"/>
+      <c r="D40" s="303" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="306" t="e">
+      <c r="E40" s="304" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F40" s="306" t="e">
+      <c r="F40" s="304" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G40" s="321"/>
-      <c r="H40" s="304" t="e">
+      <c r="G40" s="319"/>
+      <c r="H40" s="302" t="e">
         <f>LN((F40^-$J$8+($I$8/$H$8))/(1+($I$8/$H$8)))/($H$8*$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="321"/>
-      <c r="J40" s="301"/>
+      <c r="I40" s="319"/>
+      <c r="J40" s="299"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="G41" s="300"/>
-      <c r="H41" s="300"/>
-      <c r="J41" s="301"/>
+      <c r="G41" s="298"/>
+      <c r="H41" s="298"/>
+      <c r="J41" s="299"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B42" s="293" t="s">
@@ -20679,19 +21162,19 @@
       <c r="C42" s="293" t="s">
         <v>215</v>
       </c>
-      <c r="D42" s="300" t="s">
+      <c r="D42" s="298" t="s">
         <v>219</v>
       </c>
-      <c r="E42" s="300" t="s">
+      <c r="E42" s="298" t="s">
         <v>216</v>
       </c>
-      <c r="F42" s="300" t="s">
+      <c r="F42" s="298" t="s">
         <v>220</v>
       </c>
-      <c r="G42" s="300" t="s">
+      <c r="G42" s="298" t="s">
         <v>217</v>
       </c>
-      <c r="H42" s="300" t="s">
+      <c r="H42" s="298" t="s">
         <v>217</v>
       </c>
     </row>
@@ -20700,308 +21183,308 @@
         <f>IF(A28="","",A28)</f>
         <v>Wall A</v>
       </c>
-      <c r="B43" s="303"/>
-      <c r="C43" s="306" t="e">
+      <c r="B43" s="301"/>
+      <c r="C43" s="304" t="e">
         <f t="shared" ref="C43:C55" si="6">$F$6*$B$9/(D13^2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D43" s="303"/>
-      <c r="E43" s="306" t="e">
+      <c r="D43" s="301"/>
+      <c r="E43" s="304" t="e">
         <f t="shared" ref="E43:E55" si="7">F13/(G13*C43)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F43" s="303"/>
-      <c r="G43" s="305" t="e">
+      <c r="F43" s="301"/>
+      <c r="G43" s="303" t="e">
         <f>LN((E43^(-$J$7)+($I$7/$H$7))/(1+($I$7/$H$7)))/($H$7*$J$7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="305"/>
-      <c r="T43" s="302"/>
+      <c r="H43" s="303"/>
+      <c r="T43" s="300"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="293" t="str">
         <f t="shared" ref="A44:A55" si="8">IF(A29="","",A29)</f>
         <v>Wall A (Hall)</v>
       </c>
-      <c r="B44" s="303"/>
-      <c r="C44" s="306" t="e">
+      <c r="B44" s="301"/>
+      <c r="C44" s="304" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D44" s="303"/>
-      <c r="E44" s="306" t="e">
+      <c r="D44" s="301"/>
+      <c r="E44" s="304" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F44" s="303"/>
-      <c r="G44" s="305" t="e">
+      <c r="F44" s="301"/>
+      <c r="G44" s="303" t="e">
         <f t="shared" ref="G44:G45" si="9">LN((E44^-$J$7+($I$7/$H$7))/(1+($I$7/$H$7)))/($H$7*$J$7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H44" s="305"/>
-      <c r="T44" s="302"/>
+      <c r="H44" s="303"/>
+      <c r="T44" s="300"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="293" t="str">
         <f t="shared" si="8"/>
         <v>Wall A (Tech)</v>
       </c>
-      <c r="B45" s="303"/>
-      <c r="C45" s="306" t="e">
+      <c r="B45" s="301"/>
+      <c r="C45" s="304" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D45" s="303"/>
-      <c r="E45" s="306" t="e">
+      <c r="D45" s="301"/>
+      <c r="E45" s="304" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F45" s="303"/>
-      <c r="G45" s="305" t="e">
+      <c r="F45" s="301"/>
+      <c r="G45" s="303" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H45" s="305"/>
-      <c r="T45" s="302"/>
+      <c r="H45" s="303"/>
+      <c r="T45" s="300"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="293" t="str">
         <f t="shared" si="8"/>
         <v>Door A</v>
       </c>
-      <c r="B46" s="303"/>
-      <c r="C46" s="306" t="e">
+      <c r="B46" s="301"/>
+      <c r="C46" s="304" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D46" s="303"/>
-      <c r="E46" s="306" t="e">
+      <c r="D46" s="301"/>
+      <c r="E46" s="304" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F46" s="303"/>
-      <c r="G46" s="305" t="e">
+      <c r="F46" s="301"/>
+      <c r="G46" s="303" t="e">
         <f>LN((E46^-$J$7+($I$7/$H$7))/(1+($I$7/$H$7)))/($H$7*$J$7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H46" s="305"/>
-      <c r="T46" s="302"/>
+      <c r="H46" s="303"/>
+      <c r="T46" s="300"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="293" t="str">
         <f t="shared" si="8"/>
         <v>Wall B</v>
       </c>
-      <c r="B47" s="303"/>
-      <c r="C47" s="306" t="e">
+      <c r="B47" s="301"/>
+      <c r="C47" s="304" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D47" s="303"/>
-      <c r="E47" s="306" t="e">
+      <c r="D47" s="301"/>
+      <c r="E47" s="304" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F47" s="303"/>
-      <c r="G47" s="305" t="e">
+      <c r="F47" s="301"/>
+      <c r="G47" s="303" t="e">
         <f>LN((E47^-$J$7+($I$7/$H$7))/(1+($I$7/$H$7)))/($H$7*$J$7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H47" s="305"/>
-      <c r="T47" s="302"/>
+      <c r="H47" s="303"/>
+      <c r="T47" s="300"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="293" t="str">
         <f t="shared" si="8"/>
         <v>Wall C</v>
       </c>
-      <c r="B48" s="303"/>
-      <c r="C48" s="306" t="e">
+      <c r="B48" s="301"/>
+      <c r="C48" s="304" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="303"/>
-      <c r="E48" s="306" t="e">
+      <c r="D48" s="301"/>
+      <c r="E48" s="304" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F48" s="303"/>
-      <c r="G48" s="305" t="e">
+      <c r="F48" s="301"/>
+      <c r="G48" s="303" t="e">
         <f>LN((E48^-$J$7+($I$7/$H$7))/(1+($I$7/$H$7)))/($H$7*$J$7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H48" s="305"/>
-      <c r="T48" s="302"/>
+      <c r="H48" s="303"/>
+      <c r="T48" s="300"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="293" t="str">
         <f t="shared" si="8"/>
         <v>Wall D</v>
       </c>
-      <c r="B49" s="303"/>
-      <c r="C49" s="306" t="e">
+      <c r="B49" s="301"/>
+      <c r="C49" s="304" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D49" s="303"/>
-      <c r="E49" s="306" t="e">
+      <c r="D49" s="301"/>
+      <c r="E49" s="304" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F49" s="303"/>
-      <c r="G49" s="305" t="e">
+      <c r="F49" s="301"/>
+      <c r="G49" s="303" t="e">
         <f t="shared" ref="G49:G52" si="10">LN((E49^-$J$7+($I$7/$H$7))/(1+($I$7/$H$7)))/($H$7*$J$7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H49" s="305"/>
-      <c r="T49" s="302"/>
+      <c r="H49" s="303"/>
+      <c r="T49" s="300"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="293" t="str">
         <f t="shared" si="8"/>
         <v>Door D</v>
       </c>
-      <c r="B50" s="303"/>
-      <c r="C50" s="306" t="e">
+      <c r="B50" s="301"/>
+      <c r="C50" s="304" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D50" s="303"/>
-      <c r="E50" s="306" t="e">
+      <c r="D50" s="301"/>
+      <c r="E50" s="304" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F50" s="303"/>
-      <c r="G50" s="305" t="e">
+      <c r="F50" s="301"/>
+      <c r="G50" s="303" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H50" s="305"/>
-      <c r="T50" s="302"/>
+      <c r="H50" s="303"/>
+      <c r="T50" s="300"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="293" t="str">
         <f t="shared" si="8"/>
         <v>Wall D (CT)</v>
       </c>
-      <c r="B51" s="303"/>
-      <c r="C51" s="306" t="e">
+      <c r="B51" s="301"/>
+      <c r="C51" s="304" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D51" s="303"/>
-      <c r="E51" s="306" t="e">
+      <c r="D51" s="301"/>
+      <c r="E51" s="304" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F51" s="303"/>
-      <c r="G51" s="305" t="e">
+      <c r="F51" s="301"/>
+      <c r="G51" s="303" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H51" s="305"/>
-      <c r="T51" s="302"/>
+      <c r="H51" s="303"/>
+      <c r="T51" s="300"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="293" t="str">
         <f t="shared" si="8"/>
         <v>Wall D(CT)</v>
       </c>
-      <c r="B52" s="303"/>
-      <c r="C52" s="306" t="e">
+      <c r="B52" s="301"/>
+      <c r="C52" s="304" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D52" s="303"/>
-      <c r="E52" s="306" t="e">
+      <c r="D52" s="301"/>
+      <c r="E52" s="304" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F52" s="303"/>
-      <c r="G52" s="305" t="e">
+      <c r="F52" s="301"/>
+      <c r="G52" s="303" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H52" s="305"/>
-      <c r="T52" s="302"/>
+      <c r="H52" s="303"/>
+      <c r="T52" s="300"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="293" t="str">
         <f t="shared" si="8"/>
         <v>Control</v>
       </c>
-      <c r="B53" s="303"/>
-      <c r="C53" s="306" t="e">
+      <c r="B53" s="301"/>
+      <c r="C53" s="304" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="303"/>
-      <c r="E53" s="306" t="e">
+      <c r="D53" s="301"/>
+      <c r="E53" s="304" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F53" s="303"/>
-      <c r="G53" s="305" t="e">
+      <c r="F53" s="301"/>
+      <c r="G53" s="303" t="e">
         <f>LN((E53^-$J$7+($I$7/$H$7))/(1+($I$7/$H$7)))/($H$7*$J$7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H53" s="305"/>
-      <c r="T53" s="302"/>
+      <c r="H53" s="303"/>
+      <c r="T53" s="300"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="293" t="str">
         <f t="shared" si="8"/>
         <v>Floor</v>
       </c>
-      <c r="B54" s="303"/>
-      <c r="C54" s="306" t="e">
+      <c r="B54" s="301"/>
+      <c r="C54" s="304" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D54" s="303"/>
-      <c r="E54" s="306" t="e">
+      <c r="D54" s="301"/>
+      <c r="E54" s="304" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F54" s="303"/>
-      <c r="G54" s="303"/>
-      <c r="H54" s="304" t="e">
+      <c r="F54" s="301"/>
+      <c r="G54" s="301"/>
+      <c r="H54" s="302" t="e">
         <f>LN((E54^-$J$8+($I$8/$H$8))/(1+($I$8/$H$8)))/($H$8*$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J54" s="299"/>
-      <c r="T54" s="302"/>
+      <c r="J54" s="297"/>
+      <c r="T54" s="300"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="293" t="str">
         <f t="shared" si="8"/>
         <v>Ceiling</v>
       </c>
-      <c r="B55" s="303"/>
-      <c r="C55" s="306" t="e">
+      <c r="B55" s="301"/>
+      <c r="C55" s="304" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D55" s="303"/>
-      <c r="E55" s="306" t="e">
+      <c r="D55" s="301"/>
+      <c r="E55" s="304" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F55" s="303"/>
-      <c r="G55" s="303"/>
-      <c r="H55" s="304" t="e">
+      <c r="F55" s="301"/>
+      <c r="G55" s="301"/>
+      <c r="H55" s="302" t="e">
         <f>LN((E55^-$J$8+($I$8/$H$8))/(1+($I$8/$H$8)))/($H$8*$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J55" s="299"/>
-      <c r="T55" s="302"/>
+      <c r="J55" s="297"/>
+      <c r="T55" s="300"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -21305,14 +21788,14 @@
       <c r="M18" s="265"/>
       <c r="N18" s="264"/>
       <c r="P18" s="279"/>
-      <c r="Q18" s="326" t="s">
+      <c r="Q18" s="324" t="s">
         <v>174</v>
       </c>
-      <c r="R18" s="326"/>
-      <c r="S18" s="326"/>
-      <c r="T18" s="326"/>
-      <c r="U18" s="326"/>
-      <c r="V18" s="327"/>
+      <c r="R18" s="324"/>
+      <c r="S18" s="324"/>
+      <c r="T18" s="324"/>
+      <c r="U18" s="324"/>
+      <c r="V18" s="325"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="215"/>
@@ -21343,16 +21826,16 @@
       </c>
       <c r="N19" s="276"/>
       <c r="P19" s="215"/>
-      <c r="Q19" s="328" t="s">
+      <c r="Q19" s="326" t="s">
         <v>173</v>
       </c>
-      <c r="R19" s="328"/>
-      <c r="S19" s="328"/>
-      <c r="T19" s="329" t="s">
+      <c r="R19" s="326"/>
+      <c r="S19" s="326"/>
+      <c r="T19" s="327" t="s">
         <v>95</v>
       </c>
-      <c r="U19" s="329"/>
-      <c r="V19" s="330"/>
+      <c r="U19" s="327"/>
+      <c r="V19" s="328"/>
     </row>
     <row r="20" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="215"/>
@@ -21549,14 +22032,14 @@
       <c r="N24" s="216"/>
       <c r="O24" s="216"/>
       <c r="P24" s="254"/>
-      <c r="Q24" s="326" t="s">
+      <c r="Q24" s="324" t="s">
         <v>174</v>
       </c>
-      <c r="R24" s="326"/>
-      <c r="S24" s="326"/>
-      <c r="T24" s="326"/>
-      <c r="U24" s="326"/>
-      <c r="V24" s="327"/>
+      <c r="R24" s="324"/>
+      <c r="S24" s="324"/>
+      <c r="T24" s="324"/>
+      <c r="U24" s="324"/>
+      <c r="V24" s="325"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="223" t="s">
@@ -21642,7 +22125,7 @@
       <c r="H27" s="249" t="s">
         <v>48</v>
       </c>
-      <c r="J27" s="331" t="s">
+      <c r="J27" s="329" t="s">
         <v>163</v>
       </c>
       <c r="K27" s="210" t="s">
@@ -21705,7 +22188,7 @@
       <c r="H28" s="246" t="s">
         <v>122</v>
       </c>
-      <c r="J28" s="331"/>
+      <c r="J28" s="329"/>
       <c r="K28" s="210" t="s">
         <v>184</v>
       </c>
@@ -23029,7 +23512,7 @@
       <c r="E18" s="167" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="332" t="s">
+      <c r="F18" s="330" t="s">
         <v>121</v>
       </c>
       <c r="G18" s="167"/>
@@ -23079,7 +23562,7 @@
       <c r="E19" s="167" t="s">
         <v>113</v>
       </c>
-      <c r="F19" s="332"/>
+      <c r="F19" s="330"/>
       <c r="G19" s="167" t="s">
         <v>48</v>
       </c>
@@ -23112,22 +23595,22 @@
       <c r="E20" s="168" t="s">
         <v>182</v>
       </c>
-      <c r="F20" s="333"/>
+      <c r="F20" s="331"/>
       <c r="G20" s="168" t="s">
         <v>122</v>
       </c>
       <c r="H20" s="168" t="s">
         <v>118</v>
       </c>
-      <c r="L20" s="334" t="s">
+      <c r="L20" s="332" t="s">
         <v>123</v>
       </c>
-      <c r="M20" s="334"/>
-      <c r="N20" s="334"/>
-      <c r="O20" s="334"/>
-      <c r="P20" s="334"/>
-      <c r="Q20" s="334"/>
-      <c r="R20" s="334"/>
+      <c r="M20" s="332"/>
+      <c r="N20" s="332"/>
+      <c r="O20" s="332"/>
+      <c r="P20" s="332"/>
+      <c r="Q20" s="332"/>
+      <c r="R20" s="332"/>
       <c r="T20" s="158">
         <v>1.1906250009999999</v>
       </c>
@@ -27044,7 +27527,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="309" t="s">
+      <c r="A1" s="307" t="s">
         <v>221</v>
       </c>
     </row>
@@ -27057,7 +27540,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="308" t="s">
+      <c r="A4" s="306" t="s">
         <v>228</v>
       </c>
       <c r="B4">
@@ -27065,7 +27548,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="308" t="s">
+      <c r="A5" s="306" t="s">
         <v>223</v>
       </c>
       <c r="B5">
@@ -27073,7 +27556,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="308" t="s">
+      <c r="A6" s="306" t="s">
         <v>224</v>
       </c>
       <c r="B6">
@@ -27081,7 +27564,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="308" t="s">
+      <c r="A7" s="306" t="s">
         <v>225</v>
       </c>
       <c r="B7">
@@ -27089,7 +27572,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="308" t="s">
+      <c r="A8" s="306" t="s">
         <v>226</v>
       </c>
       <c r="B8">
@@ -27097,7 +27580,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="308" t="s">
+      <c r="A9" s="306" t="s">
         <v>227</v>
       </c>
       <c r="B9">
@@ -27123,51 +27606,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="309" t="s">
+      <c r="A1" s="307" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="335" t="s">
+      <c r="B3" s="333" t="s">
         <v>230</v>
       </c>
-      <c r="C3" s="335"/>
-      <c r="D3" s="335"/>
-      <c r="E3" s="335" t="s">
+      <c r="C3" s="333"/>
+      <c r="D3" s="333"/>
+      <c r="E3" s="333" t="s">
         <v>231</v>
       </c>
-      <c r="F3" s="335"/>
-      <c r="G3" s="335"/>
+      <c r="F3" s="333"/>
+      <c r="G3" s="333"/>
     </row>
     <row r="4" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="314" t="s">
+      <c r="A4" s="312" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="314" t="s">
+      <c r="B4" s="312" t="s">
         <v>232</v>
       </c>
-      <c r="C4" s="314" t="s">
+      <c r="C4" s="312" t="s">
         <v>233</v>
       </c>
-      <c r="D4" s="314" t="s">
+      <c r="D4" s="312" t="s">
         <v>234</v>
       </c>
-      <c r="E4" s="314" t="s">
+      <c r="E4" s="312" t="s">
         <v>235</v>
       </c>
-      <c r="F4" s="314" t="s">
+      <c r="F4" s="312" t="s">
         <v>236</v>
       </c>
-      <c r="G4" s="314" t="s">
+      <c r="G4" s="312" t="s">
         <v>237</v>
       </c>
-      <c r="H4" s="314" t="s">
+      <c r="H4" s="312" t="s">
         <v>238</v>
       </c>
-      <c r="I4" s="314" t="s">
+      <c r="I4" s="312" t="s">
         <v>239</v>
       </c>
-      <c r="J4" s="314" t="s">
+      <c r="J4" s="312" t="s">
         <v>240</v>
       </c>
     </row>
@@ -27175,31 +27658,31 @@
       <c r="A5">
         <v>25</v>
       </c>
-      <c r="B5" s="311">
+      <c r="B5" s="309">
         <v>0</v>
       </c>
-      <c r="C5" s="311">
+      <c r="C5" s="309">
         <v>0</v>
       </c>
-      <c r="D5" s="311">
+      <c r="D5" s="309">
         <v>0</v>
       </c>
-      <c r="E5" s="311">
+      <c r="E5" s="309">
         <v>0</v>
       </c>
-      <c r="F5" s="311">
+      <c r="F5" s="309">
         <v>0</v>
       </c>
-      <c r="G5" s="311">
+      <c r="G5" s="309">
         <v>0</v>
       </c>
-      <c r="H5" s="311">
+      <c r="H5" s="309">
         <v>0.92500000000000004</v>
       </c>
-      <c r="I5" s="311">
+      <c r="I5" s="309">
         <v>0</v>
       </c>
-      <c r="J5" s="311">
+      <c r="J5" s="309">
         <v>0</v>
       </c>
     </row>
@@ -27207,31 +27690,31 @@
       <c r="A6">
         <v>30</v>
       </c>
-      <c r="B6" s="311">
+      <c r="B6" s="309">
         <v>0</v>
       </c>
-      <c r="C6" s="311">
+      <c r="C6" s="309">
         <v>0</v>
       </c>
-      <c r="D6" s="311">
+      <c r="D6" s="309">
         <v>0</v>
       </c>
-      <c r="E6" s="311">
+      <c r="E6" s="309">
         <v>0</v>
       </c>
-      <c r="F6" s="311">
+      <c r="F6" s="309">
         <v>0</v>
       </c>
-      <c r="G6" s="311">
+      <c r="G6" s="309">
         <v>0</v>
       </c>
-      <c r="H6" s="311">
+      <c r="H6" s="309">
         <v>4.67</v>
       </c>
-      <c r="I6" s="311">
+      <c r="I6" s="309">
         <v>0</v>
       </c>
-      <c r="J6" s="311">
+      <c r="J6" s="309">
         <v>0</v>
       </c>
     </row>
@@ -27239,31 +27722,31 @@
       <c r="A7">
         <v>35</v>
       </c>
-      <c r="B7" s="311">
+      <c r="B7" s="309">
         <v>0</v>
       </c>
-      <c r="C7" s="311">
+      <c r="C7" s="309">
         <v>0</v>
       </c>
-      <c r="D7" s="311">
+      <c r="D7" s="309">
         <v>0</v>
       </c>
-      <c r="E7" s="311">
+      <c r="E7" s="309">
         <v>0</v>
       </c>
-      <c r="F7" s="311">
+      <c r="F7" s="309">
         <v>0</v>
       </c>
-      <c r="G7" s="311">
+      <c r="G7" s="309">
         <v>0</v>
       </c>
-      <c r="H7" s="311">
+      <c r="H7" s="309">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I7" s="311">
+      <c r="I7" s="309">
         <v>0</v>
       </c>
-      <c r="J7" s="311">
+      <c r="J7" s="309">
         <v>0</v>
       </c>
     </row>
@@ -27271,31 +27754,31 @@
       <c r="A8">
         <v>40</v>
       </c>
-      <c r="B8" s="311">
+      <c r="B8" s="309">
         <v>1.3799999999999999E-4</v>
       </c>
-      <c r="C8" s="311">
+      <c r="C8" s="309">
         <v>0</v>
       </c>
-      <c r="D8" s="311">
+      <c r="D8" s="309">
         <v>1.3799999999999999E-4</v>
       </c>
-      <c r="E8" s="311">
+      <c r="E8" s="309">
         <v>0</v>
       </c>
-      <c r="F8" s="311">
+      <c r="F8" s="309">
         <v>0</v>
       </c>
-      <c r="G8" s="311">
+      <c r="G8" s="309">
         <v>0</v>
       </c>
-      <c r="H8" s="311">
+      <c r="H8" s="309">
         <v>0</v>
       </c>
-      <c r="I8" s="311">
+      <c r="I8" s="309">
         <v>0</v>
       </c>
-      <c r="J8" s="311">
+      <c r="J8" s="309">
         <v>0</v>
       </c>
     </row>
@@ -27303,31 +27786,31 @@
       <c r="A9">
         <v>45</v>
       </c>
-      <c r="B9" s="311">
+      <c r="B9" s="309">
         <v>7.1000000000000002E-4</v>
       </c>
-      <c r="C9" s="311">
+      <c r="C9" s="309">
         <v>0</v>
       </c>
-      <c r="D9" s="311">
+      <c r="D9" s="309">
         <v>7.1000000000000002E-4</v>
       </c>
-      <c r="E9" s="311">
+      <c r="E9" s="309">
         <v>0</v>
       </c>
-      <c r="F9" s="311">
+      <c r="F9" s="309">
         <v>5.7799999999999995E-4</v>
       </c>
-      <c r="G9" s="311">
+      <c r="G9" s="309">
         <v>0</v>
       </c>
-      <c r="H9" s="311">
+      <c r="H9" s="309">
         <v>0</v>
       </c>
-      <c r="I9" s="311">
+      <c r="I9" s="309">
         <v>0</v>
       </c>
-      <c r="J9" s="311">
+      <c r="J9" s="309">
         <v>0</v>
       </c>
     </row>
@@ -27335,31 +27818,31 @@
       <c r="A10">
         <v>50</v>
       </c>
-      <c r="B10" s="311">
+      <c r="B10" s="309">
         <v>8.4799999999999997E-3</v>
       </c>
-      <c r="C10" s="311">
+      <c r="C10" s="309">
         <v>6.7799999999999996E-3</v>
       </c>
-      <c r="D10" s="311">
+      <c r="D10" s="309">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="E10" s="311">
+      <c r="E10" s="309">
         <v>0</v>
       </c>
-      <c r="F10" s="311">
+      <c r="F10" s="309">
         <v>7.6499999999999995E-4</v>
       </c>
-      <c r="G10" s="311">
+      <c r="G10" s="309">
         <v>0</v>
       </c>
-      <c r="H10" s="311">
+      <c r="H10" s="309">
         <v>0</v>
       </c>
-      <c r="I10" s="311">
+      <c r="I10" s="309">
         <v>0.34</v>
       </c>
-      <c r="J10" s="311">
+      <c r="J10" s="309">
         <v>8.9399999999999993E-2</v>
       </c>
     </row>
@@ -27367,31 +27850,31 @@
       <c r="A11">
         <v>55</v>
       </c>
-      <c r="B11" s="311">
+      <c r="B11" s="309">
         <v>1.09E-2</v>
       </c>
-      <c r="C11" s="311">
+      <c r="C11" s="309">
         <v>4.5600000000000003E-4</v>
       </c>
-      <c r="D11" s="311">
+      <c r="D11" s="309">
         <v>1.04E-2</v>
       </c>
-      <c r="E11" s="311">
+      <c r="E11" s="309">
         <v>7.0199999999999999E-2</v>
       </c>
-      <c r="F11" s="311">
+      <c r="F11" s="309">
         <v>7.2599999999999997E-4</v>
       </c>
-      <c r="G11" s="311">
+      <c r="G11" s="309">
         <v>0</v>
       </c>
-      <c r="H11" s="311">
+      <c r="H11" s="309">
         <v>0</v>
       </c>
-      <c r="I11" s="311">
+      <c r="I11" s="309">
         <v>0.42</v>
       </c>
-      <c r="J11" s="311">
+      <c r="J11" s="309">
         <v>3.9800000000000002E-2</v>
       </c>
     </row>
@@ -27399,31 +27882,31 @@
       <c r="A12">
         <v>60</v>
       </c>
-      <c r="B12" s="311">
+      <c r="B12" s="309">
         <v>9.8100000000000007E-2</v>
       </c>
-      <c r="C12" s="311">
+      <c r="C12" s="309">
         <v>8.9599999999999992E-3</v>
       </c>
-      <c r="D12" s="311">
+      <c r="D12" s="309">
         <v>8.9099999999999999E-2</v>
       </c>
-      <c r="E12" s="311">
+      <c r="E12" s="309">
         <v>0.113</v>
       </c>
-      <c r="F12" s="311">
+      <c r="F12" s="309">
         <v>1.52E-2</v>
       </c>
-      <c r="G12" s="311">
+      <c r="G12" s="309">
         <v>0</v>
       </c>
-      <c r="H12" s="311">
+      <c r="H12" s="309">
         <v>0</v>
       </c>
-      <c r="I12" s="311">
+      <c r="I12" s="309">
         <v>1.96</v>
       </c>
-      <c r="J12" s="311">
+      <c r="J12" s="309">
         <v>0.69899999999999995</v>
       </c>
     </row>
@@ -27431,31 +27914,31 @@
       <c r="A13">
         <v>65</v>
       </c>
-      <c r="B13" s="311">
+      <c r="B13" s="309">
         <v>0.104</v>
       </c>
-      <c r="C13" s="311">
+      <c r="C13" s="309">
         <v>3.4200000000000001E-2</v>
       </c>
-      <c r="D13" s="311">
+      <c r="D13" s="309">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E13" s="311">
+      <c r="E13" s="309">
         <v>0.187</v>
       </c>
-      <c r="F13" s="311">
+      <c r="F13" s="309">
         <v>2.52E-2</v>
       </c>
-      <c r="G13" s="311">
+      <c r="G13" s="309">
         <v>0</v>
       </c>
-      <c r="H13" s="311">
+      <c r="H13" s="309">
         <v>0</v>
       </c>
-      <c r="I13" s="311">
+      <c r="I13" s="309">
         <v>4.55</v>
       </c>
-      <c r="J13" s="311">
+      <c r="J13" s="309">
         <v>15</v>
       </c>
     </row>
@@ -27463,31 +27946,31 @@
       <c r="A14">
         <v>70</v>
       </c>
-      <c r="B14" s="311">
+      <c r="B14" s="309">
         <v>0.45800000000000002</v>
       </c>
-      <c r="C14" s="311">
+      <c r="C14" s="309">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="D14" s="311">
+      <c r="D14" s="309">
         <v>0.38500000000000001</v>
       </c>
-      <c r="E14" s="311">
+      <c r="E14" s="309">
         <v>0.14499999999999999</v>
       </c>
-      <c r="F14" s="311">
+      <c r="F14" s="309">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="G14" s="311">
+      <c r="G14" s="309">
         <v>2.0199999999999999E-2</v>
       </c>
-      <c r="H14" s="311">
+      <c r="H14" s="309">
         <v>0</v>
       </c>
-      <c r="I14" s="311">
+      <c r="I14" s="309">
         <v>6.03</v>
       </c>
-      <c r="J14" s="311">
+      <c r="J14" s="309">
         <v>12.2</v>
       </c>
     </row>
@@ -27495,31 +27978,31 @@
       <c r="A15">
         <v>75</v>
       </c>
-      <c r="B15" s="311">
+      <c r="B15" s="309">
         <v>0.501</v>
       </c>
-      <c r="C15" s="311">
+      <c r="C15" s="309">
         <v>9.5299999999999996E-2</v>
       </c>
-      <c r="D15" s="311">
+      <c r="D15" s="309">
         <v>0.40500000000000003</v>
       </c>
-      <c r="E15" s="311">
+      <c r="E15" s="309">
         <v>0.19400000000000001</v>
       </c>
-      <c r="F15" s="311">
+      <c r="F15" s="309">
         <v>0.224</v>
       </c>
-      <c r="G15" s="311">
+      <c r="G15" s="309">
         <v>2.3600000000000001E-3</v>
       </c>
-      <c r="H15" s="311">
+      <c r="H15" s="309">
         <v>0</v>
       </c>
-      <c r="I15" s="311">
+      <c r="I15" s="309">
         <v>8.02</v>
       </c>
-      <c r="J15" s="311">
+      <c r="J15" s="309">
         <v>15.3</v>
       </c>
     </row>
@@ -27527,31 +28010,31 @@
       <c r="A16">
         <v>80</v>
       </c>
-      <c r="B16" s="311">
+      <c r="B16" s="309">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C16" s="311">
+      <c r="C16" s="309">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D16" s="311">
+      <c r="D16" s="309">
         <v>0.42</v>
       </c>
-      <c r="E16" s="311">
+      <c r="E16" s="309">
         <v>1.72</v>
       </c>
-      <c r="F16" s="311">
+      <c r="F16" s="309">
         <v>0.42799999999999999</v>
       </c>
-      <c r="G16" s="311">
+      <c r="G16" s="309">
         <v>0</v>
       </c>
-      <c r="H16" s="311">
+      <c r="H16" s="309">
         <v>0</v>
       </c>
-      <c r="I16" s="311">
+      <c r="I16" s="309">
         <v>25.4</v>
       </c>
-      <c r="J16" s="311">
+      <c r="J16" s="309">
         <v>11</v>
       </c>
     </row>
@@ -27559,31 +28042,31 @@
       <c r="A17">
         <v>85</v>
       </c>
-      <c r="B17" s="311">
+      <c r="B17" s="309">
         <v>0.315</v>
       </c>
-      <c r="C17" s="311">
+      <c r="C17" s="309">
         <v>6.6199999999999995E-2</v>
       </c>
-      <c r="D17" s="311">
+      <c r="D17" s="309">
         <v>0.249</v>
       </c>
-      <c r="E17" s="311">
+      <c r="E17" s="309">
         <v>2.19</v>
       </c>
-      <c r="F17" s="311">
+      <c r="F17" s="309">
         <v>0.218</v>
       </c>
-      <c r="G17" s="311">
+      <c r="G17" s="309">
         <v>7.8299999999999995E-4</v>
       </c>
-      <c r="H17" s="311">
+      <c r="H17" s="309">
         <v>0</v>
       </c>
-      <c r="I17" s="311">
+      <c r="I17" s="309">
         <v>40.299999999999997</v>
       </c>
-      <c r="J17" s="311">
+      <c r="J17" s="309">
         <v>4.09</v>
       </c>
     </row>
@@ -27591,31 +28074,31 @@
       <c r="A18">
         <v>90</v>
       </c>
-      <c r="B18" s="311">
+      <c r="B18" s="309">
         <v>0.17599999999999999</v>
       </c>
-      <c r="C18" s="311">
+      <c r="C18" s="309">
         <v>1.41E-2</v>
       </c>
-      <c r="D18" s="311">
+      <c r="D18" s="309">
         <v>0.16200000000000001</v>
       </c>
-      <c r="E18" s="311">
+      <c r="E18" s="309">
         <v>1.46</v>
       </c>
-      <c r="F18" s="311">
+      <c r="F18" s="309">
         <v>5.33E-2</v>
       </c>
-      <c r="G18" s="311">
+      <c r="G18" s="309">
         <v>0</v>
       </c>
-      <c r="H18" s="311">
+      <c r="H18" s="309">
         <v>0</v>
       </c>
-      <c r="I18" s="311">
+      <c r="I18" s="309">
         <v>21</v>
       </c>
-      <c r="J18" s="311">
+      <c r="J18" s="309">
         <v>3.43</v>
       </c>
     </row>
@@ -27623,31 +28106,31 @@
       <c r="A19">
         <v>95</v>
       </c>
-      <c r="B19" s="311">
+      <c r="B19" s="309">
         <v>2.18E-2</v>
       </c>
-      <c r="C19" s="311">
+      <c r="C19" s="309">
         <v>3.5100000000000001E-3</v>
       </c>
-      <c r="D19" s="311">
+      <c r="D19" s="309">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="E19" s="311">
+      <c r="E19" s="309">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F19" s="311">
+      <c r="F19" s="309">
         <v>4.8899999999999999E-2</v>
       </c>
-      <c r="G19" s="311">
+      <c r="G19" s="309">
         <v>0</v>
       </c>
-      <c r="H19" s="311">
+      <c r="H19" s="309">
         <v>0</v>
       </c>
-      <c r="I19" s="311">
+      <c r="I19" s="309">
         <v>10.6</v>
       </c>
-      <c r="J19" s="311">
+      <c r="J19" s="309">
         <v>0.67300000000000004</v>
       </c>
     </row>
@@ -27655,31 +28138,31 @@
       <c r="A20">
         <v>100</v>
       </c>
-      <c r="B20" s="311">
+      <c r="B20" s="309">
         <v>1.55E-2</v>
       </c>
-      <c r="C20" s="311">
+      <c r="C20" s="309">
         <v>8.8400000000000002E-4</v>
       </c>
-      <c r="D20" s="311">
+      <c r="D20" s="309">
         <v>1.46E-2</v>
       </c>
-      <c r="E20" s="311">
+      <c r="E20" s="309">
         <v>1.1200000000000001</v>
       </c>
-      <c r="F20" s="311">
+      <c r="F20" s="309">
         <v>5.8700000000000002E-2</v>
       </c>
-      <c r="G20" s="311">
+      <c r="G20" s="309">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="H20" s="311">
+      <c r="H20" s="309">
         <v>0</v>
       </c>
-      <c r="I20" s="311">
+      <c r="I20" s="309">
         <v>7.4</v>
       </c>
-      <c r="J20" s="311">
+      <c r="J20" s="309">
         <v>1.53</v>
       </c>
     </row>
@@ -27687,31 +28170,31 @@
       <c r="A21">
         <v>105</v>
       </c>
-      <c r="B21" s="311">
+      <c r="B21" s="309">
         <v>3.48E-3</v>
       </c>
-      <c r="C21" s="311">
+      <c r="C21" s="309">
         <v>1.97E-3</v>
       </c>
-      <c r="D21" s="311">
+      <c r="D21" s="309">
         <v>1.5100000000000001E-3</v>
       </c>
-      <c r="E21" s="311">
+      <c r="E21" s="309">
         <v>0.96399999999999997</v>
       </c>
-      <c r="F21" s="311">
+      <c r="F21" s="309">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="G21" s="311">
+      <c r="G21" s="309">
         <v>0</v>
       </c>
-      <c r="H21" s="311">
+      <c r="H21" s="309">
         <v>0</v>
       </c>
-      <c r="I21" s="311">
+      <c r="I21" s="309">
         <v>7.02</v>
       </c>
-      <c r="J21" s="311">
+      <c r="J21" s="309">
         <v>9.2700000000000005E-2</v>
       </c>
     </row>
@@ -27719,31 +28202,31 @@
       <c r="A22">
         <v>110</v>
       </c>
-      <c r="B22" s="311">
+      <c r="B22" s="309">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="C22" s="311">
+      <c r="C22" s="309">
         <v>9.9100000000000004E-3</v>
       </c>
-      <c r="D22" s="311">
+      <c r="D22" s="309">
         <v>5.5099999999999995E-4</v>
       </c>
-      <c r="E22" s="311">
+      <c r="E22" s="309">
         <v>0.747</v>
       </c>
-      <c r="F22" s="311">
+      <c r="F22" s="309">
         <v>6.4600000000000005E-2</v>
       </c>
-      <c r="G22" s="311">
+      <c r="G22" s="309">
         <v>2.1399999999999999E-2</v>
       </c>
-      <c r="H22" s="311">
+      <c r="H22" s="309">
         <v>0</v>
       </c>
-      <c r="I22" s="311">
+      <c r="I22" s="309">
         <v>6.59</v>
       </c>
-      <c r="J22" s="311">
+      <c r="J22" s="309">
         <v>3.0499999999999999E-2</v>
       </c>
     </row>
@@ -27751,31 +28234,31 @@
       <c r="A23">
         <v>115</v>
       </c>
-      <c r="B23" s="311">
+      <c r="B23" s="309">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="C23" s="311">
+      <c r="C23" s="309">
         <v>3.7400000000000003E-2</v>
       </c>
-      <c r="D23" s="311">
+      <c r="D23" s="309">
         <v>3.6900000000000001E-3</v>
       </c>
-      <c r="E23" s="311">
+      <c r="E23" s="309">
         <v>1.44</v>
       </c>
-      <c r="F23" s="311">
+      <c r="F23" s="309">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="G23" s="311">
+      <c r="G23" s="309">
         <v>9.3600000000000003E-2</v>
       </c>
-      <c r="H23" s="311">
+      <c r="H23" s="309">
         <v>0</v>
       </c>
-      <c r="I23" s="311">
+      <c r="I23" s="309">
         <v>13.8</v>
       </c>
-      <c r="J23" s="311">
+      <c r="J23" s="309">
         <v>0</v>
       </c>
     </row>
@@ -27783,31 +28266,31 @@
       <c r="A24">
         <v>120</v>
       </c>
-      <c r="B24" s="311">
+      <c r="B24" s="309">
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="C24" s="311">
+      <c r="C24" s="309">
         <v>5.1200000000000002E-2</v>
       </c>
-      <c r="D24" s="311">
+      <c r="D24" s="309">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="E24" s="311">
+      <c r="E24" s="309">
         <v>0.93700000000000006</v>
       </c>
-      <c r="F24" s="311">
+      <c r="F24" s="309">
         <v>0.104</v>
       </c>
-      <c r="G24" s="311">
+      <c r="G24" s="309">
         <v>4.7399999999999998E-2</v>
       </c>
-      <c r="H24" s="311">
+      <c r="H24" s="309">
         <v>0</v>
       </c>
-      <c r="I24" s="311">
+      <c r="I24" s="309">
         <v>3.35</v>
       </c>
-      <c r="J24" s="311">
+      <c r="J24" s="309">
         <v>0</v>
       </c>
     </row>
@@ -27815,31 +28298,31 @@
       <c r="A25">
         <v>125</v>
       </c>
-      <c r="B25" s="311">
+      <c r="B25" s="309">
         <v>4.8399999999999999E-2</v>
       </c>
-      <c r="C25" s="311">
+      <c r="C25" s="309">
         <v>4.8099999999999997E-2</v>
       </c>
-      <c r="D25" s="311">
+      <c r="D25" s="309">
         <v>3.4699999999999998E-4</v>
       </c>
-      <c r="E25" s="311">
+      <c r="E25" s="309">
         <v>0.13800000000000001</v>
       </c>
-      <c r="F25" s="311">
+      <c r="F25" s="309">
         <v>8.1299999999999997E-2</v>
       </c>
-      <c r="G25" s="311">
+      <c r="G25" s="309">
         <v>0</v>
       </c>
-      <c r="H25" s="311">
+      <c r="H25" s="309">
         <v>0</v>
       </c>
-      <c r="I25" s="311">
+      <c r="I25" s="309">
         <v>2.75</v>
       </c>
-      <c r="J25" s="311">
+      <c r="J25" s="309">
         <v>0</v>
       </c>
     </row>
@@ -27847,31 +28330,31 @@
       <c r="A26">
         <v>130</v>
       </c>
-      <c r="B26" s="311">
+      <c r="B26" s="309">
         <v>1.8400000000000001E-3</v>
       </c>
-      <c r="C26" s="311">
+      <c r="C26" s="309">
         <v>1.7099999999999999E-3</v>
       </c>
-      <c r="D26" s="311">
+      <c r="D26" s="309">
         <v>1.25E-4</v>
       </c>
-      <c r="E26" s="311">
+      <c r="E26" s="309">
         <v>0.153</v>
       </c>
-      <c r="F26" s="311">
+      <c r="F26" s="309">
         <v>4.4600000000000001E-2</v>
       </c>
-      <c r="G26" s="311">
+      <c r="G26" s="309">
         <v>0</v>
       </c>
-      <c r="H26" s="311">
+      <c r="H26" s="309">
         <v>0</v>
       </c>
-      <c r="I26" s="311">
+      <c r="I26" s="309">
         <v>3.1E-2</v>
       </c>
-      <c r="J26" s="311">
+      <c r="J26" s="309">
         <v>0</v>
       </c>
     </row>
@@ -27879,31 +28362,31 @@
       <c r="A27">
         <v>135</v>
       </c>
-      <c r="B27" s="311">
+      <c r="B27" s="309">
         <v>7.7299999999999999E-3</v>
       </c>
-      <c r="C27" s="311">
+      <c r="C27" s="309">
         <v>7.7299999999999999E-3</v>
       </c>
-      <c r="D27" s="311">
+      <c r="D27" s="309">
         <v>0</v>
       </c>
-      <c r="E27" s="311">
+      <c r="E27" s="309">
         <v>0.14599999999999999</v>
       </c>
-      <c r="F27" s="311">
+      <c r="F27" s="309">
         <v>9.4699999999999993E-3</v>
       </c>
-      <c r="G27" s="311">
+      <c r="G27" s="309">
         <v>0</v>
       </c>
-      <c r="H27" s="311">
+      <c r="H27" s="309">
         <v>0</v>
       </c>
-      <c r="I27" s="311">
+      <c r="I27" s="309">
         <v>0</v>
       </c>
-      <c r="J27" s="311">
+      <c r="J27" s="309">
         <v>0</v>
       </c>
     </row>
@@ -27911,31 +28394,31 @@
       <c r="A28">
         <v>140</v>
       </c>
-      <c r="B28" s="311">
+      <c r="B28" s="309">
         <v>0</v>
       </c>
-      <c r="C28" s="311">
+      <c r="C28" s="309">
         <v>0</v>
       </c>
-      <c r="D28" s="311">
+      <c r="D28" s="309">
         <v>0</v>
       </c>
-      <c r="E28" s="311">
+      <c r="E28" s="309">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="F28" s="311">
+      <c r="F28" s="309">
         <v>4.2599999999999999E-3</v>
       </c>
-      <c r="G28" s="311">
+      <c r="G28" s="309">
         <v>0</v>
       </c>
-      <c r="H28" s="311">
+      <c r="H28" s="309">
         <v>0</v>
       </c>
-      <c r="I28" s="311">
+      <c r="I28" s="309">
         <v>0</v>
       </c>
-      <c r="J28" s="311">
+      <c r="J28" s="309">
         <v>0</v>
       </c>
     </row>
@@ -27943,39 +28426,39 @@
       <c r="A29" t="s">
         <v>241</v>
       </c>
-      <c r="B29" s="310">
+      <c r="B29" s="308">
         <f>SUM(B5:B28)</f>
         <v>2.4524780000000002</v>
       </c>
-      <c r="C29" s="310">
+      <c r="C29" s="308">
         <f t="shared" ref="C29:J29" si="0">SUM(C5:C28)</f>
         <v>0.60091000000000006</v>
       </c>
-      <c r="D29" s="310">
+      <c r="D29" s="308">
         <f t="shared" si="0"/>
         <v>1.8507709999999995</v>
       </c>
-      <c r="E29" s="310">
+      <c r="E29" s="308">
         <f t="shared" si="0"/>
         <v>12.8934</v>
       </c>
-      <c r="F29" s="310">
+      <c r="F29" s="308">
         <f t="shared" si="0"/>
         <v>1.5099989999999996</v>
       </c>
-      <c r="G29" s="310">
+      <c r="G29" s="308">
         <f t="shared" si="0"/>
         <v>0.21584300000000001</v>
       </c>
-      <c r="H29" s="310">
+      <c r="H29" s="308">
         <f t="shared" si="0"/>
         <v>6.6950000000000003</v>
       </c>
-      <c r="I29" s="310">
+      <c r="I29" s="308">
         <f t="shared" si="0"/>
         <v>159.56100000000001</v>
       </c>
-      <c r="J29" s="310">
+      <c r="J29" s="308">
         <f t="shared" si="0"/>
         <v>64.174399999999991</v>
       </c>
@@ -27984,11 +28467,11 @@
       <c r="A30" t="s">
         <v>242</v>
       </c>
-      <c r="B30" s="335">
+      <c r="B30" s="333">
         <v>110</v>
       </c>
-      <c r="C30" s="335"/>
-      <c r="D30" s="335"/>
+      <c r="C30" s="333"/>
+      <c r="D30" s="333"/>
       <c r="E30">
         <v>18</v>
       </c>
@@ -28033,42 +28516,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="309" t="s">
+      <c r="A1" s="307" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="307" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="336" t="s">
+      <c r="C3" s="334" t="s">
         <v>245</v>
       </c>
-      <c r="D3" s="336"/>
-      <c r="E3" s="336" t="s">
+      <c r="D3" s="334"/>
+      <c r="E3" s="334" t="s">
         <v>246</v>
       </c>
-      <c r="F3" s="336"/>
-    </row>
-    <row r="4" spans="1:6" s="308" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="314" t="s">
+      <c r="F3" s="334"/>
+    </row>
+    <row r="4" spans="1:6" s="306" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="312" t="s">
         <v>247</v>
       </c>
-      <c r="B4" s="314" t="s">
+      <c r="B4" s="312" t="s">
         <v>248</v>
       </c>
-      <c r="C4" s="314" t="s">
+      <c r="C4" s="312" t="s">
         <v>249</v>
       </c>
-      <c r="D4" s="314" t="s">
+      <c r="D4" s="312" t="s">
         <v>250</v>
       </c>
-      <c r="E4" s="314" t="s">
+      <c r="E4" s="312" t="s">
         <v>249</v>
       </c>
-      <c r="F4" s="314" t="s">
+      <c r="F4" s="312" t="s">
         <v>250</v>
       </c>
     </row>
@@ -28086,11 +28569,11 @@
       <c r="D5">
         <v>160</v>
       </c>
-      <c r="E5" s="312">
+      <c r="E5" s="310">
         <f>$B$5*C5</f>
         <v>72.109200000000001</v>
       </c>
-      <c r="F5" s="312">
+      <c r="F5" s="310">
         <f>$B$5*D5</f>
         <v>96.145600000000002</v>
       </c>
@@ -28109,11 +28592,11 @@
       <c r="D6">
         <v>160</v>
       </c>
-      <c r="E6" s="312">
+      <c r="E6" s="310">
         <f t="shared" ref="E6:E12" si="0">$B$5*C6</f>
         <v>72.109200000000001</v>
       </c>
-      <c r="F6" s="312">
+      <c r="F6" s="310">
         <f t="shared" ref="F6:F12" si="1">$B$5*D6</f>
         <v>96.145600000000002</v>
       </c>
@@ -28132,11 +28615,11 @@
       <c r="D7">
         <v>400</v>
       </c>
-      <c r="E7" s="312">
+      <c r="E7" s="310">
         <f t="shared" si="0"/>
         <v>120.18200000000002</v>
       </c>
-      <c r="F7" s="312">
+      <c r="F7" s="310">
         <f t="shared" si="1"/>
         <v>240.36400000000003</v>
       </c>
@@ -28155,11 +28638,11 @@
       <c r="D8">
         <v>30</v>
       </c>
-      <c r="E8" s="312">
+      <c r="E8" s="310">
         <f t="shared" si="0"/>
         <v>12.0182</v>
       </c>
-      <c r="F8" s="312">
+      <c r="F8" s="310">
         <f t="shared" si="1"/>
         <v>18.0273</v>
       </c>
@@ -28178,11 +28661,11 @@
       <c r="D9">
         <v>40</v>
       </c>
-      <c r="E9" s="312">
+      <c r="E9" s="310">
         <f t="shared" si="0"/>
         <v>15.022750000000002</v>
       </c>
-      <c r="F9" s="312">
+      <c r="F9" s="310">
         <f t="shared" si="1"/>
         <v>24.0364</v>
       </c>
@@ -28201,11 +28684,11 @@
       <c r="D10">
         <v>160</v>
       </c>
-      <c r="E10" s="312">
+      <c r="E10" s="310">
         <f t="shared" si="0"/>
         <v>48.072800000000001</v>
       </c>
-      <c r="F10" s="312">
+      <c r="F10" s="310">
         <f t="shared" si="1"/>
         <v>96.145600000000002</v>
       </c>
@@ -28224,11 +28707,11 @@
       <c r="D11">
         <v>30</v>
       </c>
-      <c r="E11" s="312">
+      <c r="E11" s="310">
         <f t="shared" si="0"/>
         <v>12.0182</v>
       </c>
-      <c r="F11" s="312">
+      <c r="F11" s="310">
         <f t="shared" si="1"/>
         <v>18.0273</v>
       </c>
@@ -28247,11 +28730,11 @@
       <c r="D12">
         <v>30</v>
       </c>
-      <c r="E12" s="312">
+      <c r="E12" s="310">
         <f t="shared" si="0"/>
         <v>12.0182</v>
       </c>
-      <c r="F12" s="312">
+      <c r="F12" s="310">
         <f t="shared" si="1"/>
         <v>18.0273</v>
       </c>
@@ -28280,7 +28763,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="309" t="s">
+      <c r="A1" s="307" t="s">
         <v>253</v>
       </c>
     </row>

--- a/MUSCShield_form.xlsx
+++ b/MUSCShield_form.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="9720" windowHeight="3270" tabRatio="688" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="9720" windowHeight="3270" tabRatio="688" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -22,34 +22,42 @@
     <sheet name="NCRP147_4.3" sheetId="18" r:id="rId8"/>
     <sheet name="NCRP147_4.4" sheetId="19" r:id="rId9"/>
     <sheet name="NCRP147_4.5" sheetId="26" r:id="rId10"/>
-    <sheet name="NCRP147_4.7" sheetId="20" r:id="rId11"/>
-    <sheet name="NCRP147_5.2" sheetId="21" r:id="rId12"/>
-    <sheet name="NCRP147_A1" sheetId="22" r:id="rId13"/>
-    <sheet name="NCRP147_B1" sheetId="23" r:id="rId14"/>
-    <sheet name="NCRP147_C1" sheetId="24" r:id="rId15"/>
-    <sheet name="W_Rh_Al_Ag" sheetId="25" r:id="rId16"/>
+    <sheet name="NCRP147_4.6" sheetId="27" r:id="rId11"/>
+    <sheet name="NCRP147_4.7" sheetId="20" r:id="rId12"/>
+    <sheet name="NCRP147_5.2" sheetId="21" r:id="rId13"/>
+    <sheet name="NCRP147_A1" sheetId="22" r:id="rId14"/>
+    <sheet name="NCRP147_B1" sheetId="23" r:id="rId15"/>
+    <sheet name="NCRP147_C1" sheetId="24" r:id="rId16"/>
+    <sheet name="W_Rh_Al_Ag" sheetId="25" r:id="rId17"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
   </externalReferences>
   <definedNames>
     <definedName name="FitParams">FitParameters!$A$5:$AF$30</definedName>
     <definedName name="inch_value">Table!$AF$6:$AF$41</definedName>
     <definedName name="minimum_Pb" localSheetId="9">[1]Table!$AG$6:$AG$41</definedName>
+    <definedName name="minimum_Pb" localSheetId="10">[2]Table!$AG$6:$AG$41</definedName>
     <definedName name="minimum_Pb">Table!$AG$6:$AG$41</definedName>
     <definedName name="mm_value" localSheetId="9">[1]Table!$AE$6:$AE$41</definedName>
+    <definedName name="mm_value" localSheetId="10">[2]Table!$AE$6:$AE$41</definedName>
     <definedName name="mm_value">Table!$AE$6:$AE$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">CT!$A$1:$V$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">RadFluoro!$A$1:$J$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">ShieldEvaluation!$A$1:$H$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Table!$A$1:$N$112</definedName>
     <definedName name="RefDist" localSheetId="9">[1]ShieldEvaluation!$F$16</definedName>
+    <definedName name="RefDist" localSheetId="10">[2]ShieldEvaluation!$F$16</definedName>
     <definedName name="RefDist">ShieldEvaluation!$F$16</definedName>
     <definedName name="RefExp" localSheetId="9">[1]ShieldEvaluation!$G$16</definedName>
+    <definedName name="RefExp" localSheetId="10">[2]ShieldEvaluation!$G$16</definedName>
     <definedName name="RefExp">ShieldEvaluation!$G$16</definedName>
     <definedName name="RefkV" localSheetId="9">[1]ShieldEvaluation!$C$16</definedName>
+    <definedName name="RefkV" localSheetId="10">[2]ShieldEvaluation!$C$16</definedName>
     <definedName name="RefkV">ShieldEvaluation!$C$16</definedName>
     <definedName name="RefOutput" localSheetId="9">[1]ShieldEvaluation!$H$16</definedName>
+    <definedName name="RefOutput" localSheetId="10">[2]ShieldEvaluation!$H$16</definedName>
     <definedName name="RefOutput">ShieldEvaluation!$H$16</definedName>
   </definedNames>
   <calcPr calcId="162913" iterateCount="1"/>
@@ -730,7 +738,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="319">
   <si>
     <t>Shielding Calculations</t>
   </si>
@@ -1156,9 +1164,6 @@
   </si>
   <si>
     <t>Design Method</t>
-  </si>
-  <si>
-    <t>Siemens template (attached) gives the exposure at various distances per 1000 mAs rotation.</t>
   </si>
   <si>
     <t>Using the number of roations per year one can calculate the exposure at the isodose distance.</t>
@@ -2059,6 +2064,24 @@
   </si>
   <si>
     <t>ag</t>
+  </si>
+  <si>
+    <t>Siemens template (attached) gives the scatter air kerma (uGy) at various distances per mAs rotation.</t>
+  </si>
+  <si>
+    <t>Equivalent thickness of primary beam preshielding</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Image receptor in radiographic table or wall mounted cassette holder (attenuation by grid, cassette and image-receptor supporting structures)</t>
+  </si>
+  <si>
+    <t>Cross-table lateral (attenuation by grid and cassette only)</t>
+  </si>
+  <si>
+    <t>Steel (mm)</t>
   </si>
 </sst>
 </file>
@@ -2830,7 +2853,7 @@
     </xf>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="338">
+  <cellXfs count="340">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -3446,9 +3469,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3641,10 +3661,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3683,12 +3715,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4166,9 +4193,7 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="16">
-          <cell r="H16" t="str">
-            <v/>
-          </cell>
+          <cell r="H16"/>
         </row>
       </sheetData>
       <sheetData sheetId="4"/>
@@ -4183,6 +4208,345 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Table"/>
+      <sheetName val="RadFluoro"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="CT"/>
+      <sheetName val="ShieldEvaluation"/>
+      <sheetName val="FitParameters"/>
+      <sheetName val="NCRP147_4.1"/>
+      <sheetName val="NCRP147_4.2"/>
+      <sheetName val="NCRP147_4.3"/>
+      <sheetName val="NCRP147_4.4"/>
+      <sheetName val="NCRP147_4.5"/>
+      <sheetName val="NCRP147_4.6"/>
+      <sheetName val="NCRP147_4.7"/>
+      <sheetName val="NCRP147_5.2"/>
+      <sheetName val="NCRP147_A1"/>
+      <sheetName val="NCRP147_B1"/>
+      <sheetName val="NCRP147_C1"/>
+      <sheetName val="W_Rh_Al_Ag"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="AE6">
+            <v>-25.4</v>
+          </cell>
+          <cell r="AG6" t="str">
+            <v>0"</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="AE7">
+            <v>0</v>
+          </cell>
+          <cell r="AG7" t="str">
+            <v>&lt;=1/256"</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="AE8">
+            <v>9.9218750999999994E-2</v>
+          </cell>
+          <cell r="AG8">
+            <v>7.8125E-3</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="AE9">
+            <v>0.19843750099999999</v>
+          </cell>
+          <cell r="AG9">
+            <v>1.5625E-2</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="AE10">
+            <v>0.39687500100000001</v>
+          </cell>
+          <cell r="AG10">
+            <v>3.125E-2</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AE11">
+            <v>0.59531250099999988</v>
+          </cell>
+          <cell r="AG11">
+            <v>3.125E-2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AE12">
+            <v>0.79375000099999993</v>
+          </cell>
+          <cell r="AG12">
+            <v>3.125E-2</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AE13">
+            <v>0.99218750099999997</v>
+          </cell>
+          <cell r="AG13">
+            <v>6.25E-2</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="AE14">
+            <v>1.1906250009999999</v>
+          </cell>
+          <cell r="AG14">
+            <v>6.25E-2</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="AE15">
+            <v>1.3890625009999999</v>
+          </cell>
+          <cell r="AG15">
+            <v>6.25E-2</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="AE16">
+            <v>1.587500001</v>
+          </cell>
+          <cell r="AG16">
+            <v>6.25E-2</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="AE17">
+            <v>1.785937501</v>
+          </cell>
+          <cell r="AG17">
+            <v>9.375E-2</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="AE18">
+            <v>1.9843750010000001</v>
+          </cell>
+          <cell r="AG18">
+            <v>9.375E-2</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="AE19">
+            <v>2.1828125009999999</v>
+          </cell>
+          <cell r="AG19">
+            <v>9.375E-2</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="AE20">
+            <v>2.3812500009999997</v>
+          </cell>
+          <cell r="AG20">
+            <v>9.375E-2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="AE21">
+            <v>2.579687501</v>
+          </cell>
+          <cell r="AG21">
+            <v>0.125</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="AE22">
+            <v>2.7781250009999998</v>
+          </cell>
+          <cell r="AG22">
+            <v>0.125</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="AE23">
+            <v>2.9765625010000001</v>
+          </cell>
+          <cell r="AG23">
+            <v>0.125</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="AE24">
+            <v>3.1750000009999999</v>
+          </cell>
+          <cell r="AG24">
+            <v>0.125</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="AE25">
+            <v>3.3734375009999997</v>
+          </cell>
+          <cell r="AG25">
+            <v>0.15625</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="AE26">
+            <v>3.571875001</v>
+          </cell>
+          <cell r="AG26">
+            <v>0.15625</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="AE27">
+            <v>3.7703125009999998</v>
+          </cell>
+          <cell r="AG27">
+            <v>0.15625</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="AE28">
+            <v>3.9687500010000001</v>
+          </cell>
+          <cell r="AG28">
+            <v>0.15625</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="AE29">
+            <v>4.1671875009999999</v>
+          </cell>
+          <cell r="AG29">
+            <v>0.1875</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="AE30">
+            <v>4.3656250009999997</v>
+          </cell>
+          <cell r="AG30">
+            <v>0.1875</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="AE31">
+            <v>4.5640625009999995</v>
+          </cell>
+          <cell r="AG31">
+            <v>0.1875</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="AE32">
+            <v>4.7625000009999994</v>
+          </cell>
+          <cell r="AG32">
+            <v>0.1875</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="AE33">
+            <v>4.9609375010000001</v>
+          </cell>
+          <cell r="AG33">
+            <v>0.21875</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="AE34">
+            <v>5.1593750009999999</v>
+          </cell>
+          <cell r="AG34">
+            <v>0.21875</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="AE35">
+            <v>5.3578125009999997</v>
+          </cell>
+          <cell r="AG35">
+            <v>0.21875</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="AE36">
+            <v>5.5562500009999995</v>
+          </cell>
+          <cell r="AG36">
+            <v>0.21875</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="AE37">
+            <v>5.7546875009999994</v>
+          </cell>
+          <cell r="AG37">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="AE38">
+            <v>5.9531250010000001</v>
+          </cell>
+          <cell r="AG38">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="AE39">
+            <v>6.1515625009999999</v>
+          </cell>
+          <cell r="AG39">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="AE40">
+            <v>6.3500000009999997</v>
+          </cell>
+          <cell r="AG40" t="str">
+            <v>&gt;=1/4"</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="AE41">
+            <v>25.400000000999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="16">
+          <cell r="H16" t="str">
+            <v/>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4699,7 +5063,7 @@
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="287"/>
+      <c r="B5" s="286"/>
       <c r="C5" s="62"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -4832,7 +5196,7 @@
       <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="289"/>
+      <c r="D8" s="288"/>
       <c r="O8" s="143" t="s">
         <v>22</v>
       </c>
@@ -4870,11 +5234,11 @@
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="289"/>
+      <c r="D9" s="288"/>
       <c r="G9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="288"/>
+      <c r="H9" s="287"/>
       <c r="I9" s="5"/>
       <c r="O9" s="143" t="s">
         <v>26</v>
@@ -4913,11 +5277,11 @@
       <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="289"/>
+      <c r="D10" s="288"/>
       <c r="G10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="288"/>
+      <c r="H10" s="287"/>
       <c r="I10" s="5"/>
       <c r="O10" s="143" t="s">
         <v>30</v>
@@ -5939,7 +6303,7 @@
       <c r="E26" s="63"/>
       <c r="F26" s="63"/>
       <c r="G26" s="63"/>
-      <c r="H26" s="290"/>
+      <c r="H26" s="289"/>
       <c r="I26" s="63"/>
       <c r="J26" s="71" t="str">
         <f t="shared" ref="J26:J39" si="3">IF(Q26="","",IF($D$13&lt;40,0.00022,VLOOKUP($D$13,$V$16:$AB$38,Q26,FALSE)))</f>
@@ -6027,7 +6391,7 @@
       <c r="E27" s="63"/>
       <c r="F27" s="63"/>
       <c r="G27" s="63"/>
-      <c r="H27" s="290"/>
+      <c r="H27" s="289"/>
       <c r="I27" s="63"/>
       <c r="J27" s="71" t="str">
         <f t="shared" si="3"/>
@@ -6115,7 +6479,7 @@
       <c r="E28" s="63"/>
       <c r="F28" s="63"/>
       <c r="G28" s="63"/>
-      <c r="H28" s="290"/>
+      <c r="H28" s="289"/>
       <c r="I28" s="63"/>
       <c r="J28" s="71" t="str">
         <f t="shared" si="3"/>
@@ -6197,7 +6561,7 @@
       <c r="E29" s="63"/>
       <c r="F29" s="63"/>
       <c r="G29" s="63"/>
-      <c r="H29" s="290"/>
+      <c r="H29" s="289"/>
       <c r="I29" s="63"/>
       <c r="J29" s="71" t="str">
         <f t="shared" si="3"/>
@@ -6285,7 +6649,7 @@
       <c r="E30" s="63"/>
       <c r="F30" s="63"/>
       <c r="G30" s="63"/>
-      <c r="H30" s="290"/>
+      <c r="H30" s="289"/>
       <c r="I30" s="63"/>
       <c r="J30" s="71" t="str">
         <f t="shared" si="3"/>
@@ -6373,7 +6737,7 @@
       <c r="E31" s="63"/>
       <c r="F31" s="63"/>
       <c r="G31" s="63"/>
-      <c r="H31" s="290"/>
+      <c r="H31" s="289"/>
       <c r="I31" s="63"/>
       <c r="J31" s="71" t="str">
         <f t="shared" si="3"/>
@@ -6461,7 +6825,7 @@
       <c r="E32" s="63"/>
       <c r="F32" s="63"/>
       <c r="G32" s="63"/>
-      <c r="H32" s="290"/>
+      <c r="H32" s="289"/>
       <c r="I32" s="63"/>
       <c r="J32" s="71" t="str">
         <f t="shared" si="3"/>
@@ -13940,23 +14304,23 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="320" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="320" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="321" t="s">
-        <v>264</v>
-      </c>
-      <c r="B3" s="321" t="s">
+      <c r="C3" s="320" t="s">
         <v>310</v>
-      </c>
-      <c r="C3" s="321" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B4">
         <v>0.6</v>
@@ -13967,7 +14331,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B5">
         <v>1.9</v>
@@ -13978,7 +14342,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B6">
         <v>1.5</v>
@@ -13989,7 +14353,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B7">
         <v>0.22</v>
@@ -14004,6 +14368,76 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="306" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="339"/>
+      <c r="C2" s="339"/>
+      <c r="D2" s="339"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="321" t="s">
+        <v>316</v>
+      </c>
+      <c r="B4" s="322">
+        <v>0.85</v>
+      </c>
+      <c r="C4" s="322">
+        <v>72</v>
+      </c>
+      <c r="D4" s="322">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="321" t="s">
+        <v>317</v>
+      </c>
+      <c r="B5" s="322">
+        <v>0.3</v>
+      </c>
+      <c r="C5" s="322">
+        <v>30</v>
+      </c>
+      <c r="D5" s="322">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
@@ -14018,71 +14452,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="307" t="s">
+      <c r="A1" s="306" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="306" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="307" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="306" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="307" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="306" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="307" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="306" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="307" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E6" s="336" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E6" s="333" t="s">
+      <c r="F6" s="336"/>
+      <c r="G6" s="336"/>
+      <c r="H6" s="336"/>
+      <c r="I6" s="336"/>
+    </row>
+    <row r="7" spans="1:9" s="305" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="311" t="s">
         <v>263</v>
       </c>
-      <c r="F6" s="333"/>
-      <c r="G6" s="333"/>
-      <c r="H6" s="333"/>
-      <c r="I6" s="333"/>
-    </row>
-    <row r="7" spans="1:9" s="306" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="312" t="s">
+      <c r="B7" s="311" t="s">
         <v>264</v>
       </c>
-      <c r="B7" s="312" t="s">
+      <c r="C7" s="311" t="s">
         <v>265</v>
       </c>
-      <c r="C7" s="312" t="s">
+      <c r="D7" s="311" t="s">
         <v>266</v>
       </c>
-      <c r="D7" s="312" t="s">
+      <c r="E7" s="311" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="311" t="s">
         <v>267</v>
       </c>
-      <c r="E7" s="312" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="312" t="s">
+      <c r="G7" s="311" t="s">
         <v>268</v>
       </c>
-      <c r="G7" s="312" t="s">
+      <c r="H7" s="311" t="s">
         <v>269</v>
       </c>
-      <c r="H7" s="312" t="s">
+      <c r="I7" s="311" t="s">
         <v>270</v>
-      </c>
-      <c r="I7" s="312" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B8" s="208">
         <f>NCRP147_4.2!B29</f>
@@ -14114,7 +14548,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B9" s="208">
         <f>NCRP147_4.2!C29</f>
@@ -14146,7 +14580,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B10" s="208">
         <f>NCRP147_4.2!D29</f>
@@ -14178,7 +14612,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B11" s="208">
         <f>NCRP147_4.2!E29</f>
@@ -14210,7 +14644,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B12" s="208">
         <f>NCRP147_4.2!F29</f>
@@ -14242,7 +14676,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B13" s="208">
         <f>NCRP147_4.2!G29</f>
@@ -14274,7 +14708,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B14" s="208">
         <f>NCRP147_4.2!H29</f>
@@ -14306,7 +14740,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B15" s="208">
         <f>NCRP147_4.2!I29</f>
@@ -14338,7 +14772,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B16" s="208">
         <f>NCRP147_4.2!J29</f>
@@ -14376,7 +14810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -14390,32 +14824,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="307" t="s">
+      <c r="A1" s="306" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="306" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="307" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B4" t="s">
         <v>274</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>275</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>276</v>
-      </c>
-      <c r="D4" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B5">
         <v>60</v>
@@ -14429,7 +14863,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B6">
         <v>15</v>
@@ -14443,7 +14877,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B7">
         <v>25</v>
@@ -14457,7 +14891,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B8">
         <v>25</v>
@@ -14471,7 +14905,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D9">
         <v>550</v>
@@ -14482,7 +14916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE61"/>
   <sheetViews>
@@ -14493,65 +14927,65 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A1" s="307" t="s">
-        <v>283</v>
+      <c r="A1" s="306" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B4" s="333" t="s">
+      <c r="B4" s="336" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="333"/>
-      <c r="D4" s="333"/>
-      <c r="E4" s="333"/>
-      <c r="F4" s="333"/>
-      <c r="G4" s="333" t="s">
+      <c r="C4" s="336"/>
+      <c r="D4" s="336"/>
+      <c r="E4" s="336"/>
+      <c r="F4" s="336"/>
+      <c r="G4" s="336" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="333"/>
-      <c r="I4" s="333"/>
-      <c r="J4" s="333"/>
-      <c r="K4" s="333"/>
-      <c r="L4" s="333" t="s">
+      <c r="H4" s="336"/>
+      <c r="I4" s="336"/>
+      <c r="J4" s="336"/>
+      <c r="K4" s="336"/>
+      <c r="L4" s="336" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="333"/>
-      <c r="N4" s="333"/>
-      <c r="O4" s="333"/>
-      <c r="P4" s="333"/>
-      <c r="Q4" s="333" t="s">
+      <c r="M4" s="336"/>
+      <c r="N4" s="336"/>
+      <c r="O4" s="336"/>
+      <c r="P4" s="336"/>
+      <c r="Q4" s="336" t="s">
         <v>54</v>
       </c>
-      <c r="R4" s="333"/>
-      <c r="S4" s="333"/>
-      <c r="T4" s="333"/>
-      <c r="U4" s="333"/>
-      <c r="V4" s="333" t="s">
+      <c r="R4" s="336"/>
+      <c r="S4" s="336"/>
+      <c r="T4" s="336"/>
+      <c r="U4" s="336"/>
+      <c r="V4" s="336" t="s">
         <v>96</v>
       </c>
-      <c r="W4" s="333"/>
-      <c r="X4" s="333"/>
-      <c r="Y4" s="333"/>
-      <c r="Z4" s="333"/>
-      <c r="AA4" s="333" t="s">
+      <c r="W4" s="336"/>
+      <c r="X4" s="336"/>
+      <c r="Y4" s="336"/>
+      <c r="Z4" s="336"/>
+      <c r="AA4" s="336" t="s">
         <v>58</v>
       </c>
-      <c r="AB4" s="333"/>
-      <c r="AC4" s="333"/>
-      <c r="AD4" s="333"/>
-      <c r="AE4" s="333"/>
+      <c r="AB4" s="336"/>
+      <c r="AC4" s="336"/>
+      <c r="AD4" s="336"/>
+      <c r="AE4" s="336"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="311" t="s">
+      <c r="B5" s="310" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="311" t="s">
+      <c r="C5" s="310" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="311" t="s">
+      <c r="D5" s="310" t="s">
         <v>42</v>
       </c>
       <c r="E5" t="s">
@@ -14560,13 +14994,13 @@
       <c r="F5" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="311" t="s">
+      <c r="G5" s="310" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="311" t="s">
+      <c r="H5" s="310" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="311" t="s">
+      <c r="I5" s="310" t="s">
         <v>42</v>
       </c>
       <c r="J5" t="s">
@@ -14575,13 +15009,13 @@
       <c r="K5" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="311" t="s">
+      <c r="L5" s="310" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="311" t="s">
+      <c r="M5" s="310" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="311" t="s">
+      <c r="N5" s="310" t="s">
         <v>42</v>
       </c>
       <c r="O5" t="s">
@@ -14590,13 +15024,13 @@
       <c r="P5" t="s">
         <v>45</v>
       </c>
-      <c r="Q5" s="311" t="s">
+      <c r="Q5" s="310" t="s">
         <v>40</v>
       </c>
-      <c r="R5" s="311" t="s">
+      <c r="R5" s="310" t="s">
         <v>41</v>
       </c>
-      <c r="S5" s="311" t="s">
+      <c r="S5" s="310" t="s">
         <v>42</v>
       </c>
       <c r="T5" t="s">
@@ -14605,13 +15039,13 @@
       <c r="U5" t="s">
         <v>45</v>
       </c>
-      <c r="V5" s="311" t="s">
+      <c r="V5" s="310" t="s">
         <v>40</v>
       </c>
-      <c r="W5" s="311" t="s">
+      <c r="W5" s="310" t="s">
         <v>41</v>
       </c>
-      <c r="X5" s="311" t="s">
+      <c r="X5" s="310" t="s">
         <v>42</v>
       </c>
       <c r="Y5" t="s">
@@ -14620,13 +15054,13 @@
       <c r="Z5" t="s">
         <v>45</v>
       </c>
-      <c r="AA5" s="311" t="s">
+      <c r="AA5" s="310" t="s">
         <v>40</v>
       </c>
-      <c r="AB5" s="311" t="s">
+      <c r="AB5" s="310" t="s">
         <v>41</v>
       </c>
-      <c r="AC5" s="311" t="s">
+      <c r="AC5" s="310" t="s">
         <v>42</v>
       </c>
       <c r="AD5" t="s">
@@ -14926,10 +15360,10 @@
         <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G9">
         <v>0.12970000000000001</v>
@@ -14947,28 +15381,28 @@
         <v>17.753161858088198</v>
       </c>
       <c r="O9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
@@ -14976,10 +15410,10 @@
         <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G10">
         <v>0.1095</v>
@@ -14997,28 +15431,28 @@
         <v>21.0281743652424</v>
       </c>
       <c r="O10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
@@ -17017,8 +17451,8 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="307" t="s">
-        <v>285</v>
+      <c r="A34" s="306" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -17276,7 +17710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S13"/>
   <sheetViews>
@@ -17290,105 +17724,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="307" t="s">
-        <v>286</v>
+      <c r="A1" s="306" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="335" t="s">
-        <v>264</v>
-      </c>
-      <c r="B3" s="333" t="s">
+      <c r="A3" s="338" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="336" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="333"/>
-      <c r="D3" s="333"/>
-      <c r="E3" s="333" t="s">
+      <c r="C3" s="336"/>
+      <c r="D3" s="336"/>
+      <c r="E3" s="336" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="333"/>
-      <c r="G3" s="333"/>
-      <c r="H3" s="333" t="s">
+      <c r="F3" s="336"/>
+      <c r="G3" s="336"/>
+      <c r="H3" s="336" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="333"/>
-      <c r="J3" s="333"/>
-      <c r="K3" s="333" t="s">
+      <c r="I3" s="336"/>
+      <c r="J3" s="336"/>
+      <c r="K3" s="336" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="333"/>
-      <c r="M3" s="333"/>
-      <c r="N3" s="333" t="s">
+      <c r="L3" s="336"/>
+      <c r="M3" s="336"/>
+      <c r="N3" s="336" t="s">
         <v>96</v>
       </c>
-      <c r="O3" s="333"/>
-      <c r="P3" s="333"/>
-      <c r="Q3" s="333" t="s">
+      <c r="O3" s="336"/>
+      <c r="P3" s="336"/>
+      <c r="Q3" s="336" t="s">
         <v>58</v>
       </c>
-      <c r="R3" s="333"/>
-      <c r="S3" s="333"/>
+      <c r="R3" s="336"/>
+      <c r="S3" s="336"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="335"/>
-      <c r="B4" s="311" t="s">
+      <c r="A4" s="338"/>
+      <c r="B4" s="310" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="311" t="s">
+      <c r="C4" s="310" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="311" t="s">
+      <c r="D4" s="310" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="311" t="s">
+      <c r="E4" s="310" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="311" t="s">
+      <c r="F4" s="310" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="311" t="s">
+      <c r="G4" s="310" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="311" t="s">
+      <c r="H4" s="310" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="311" t="s">
+      <c r="I4" s="310" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="311" t="s">
+      <c r="J4" s="310" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="311" t="s">
+      <c r="K4" s="310" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="311" t="s">
+      <c r="L4" s="310" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="311" t="s">
+      <c r="M4" s="310" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="311" t="s">
+      <c r="N4" s="310" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="311" t="s">
+      <c r="O4" s="310" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="311" t="s">
+      <c r="P4" s="310" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="311" t="s">
+      <c r="Q4" s="310" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="311" t="s">
+      <c r="R4" s="310" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="311" t="s">
+      <c r="S4" s="310" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B5">
         <v>2.3460000000000001</v>
@@ -17447,7 +17881,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B6">
         <v>2.2639999999999998</v>
@@ -17506,7 +17940,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B7">
         <v>2.6509999999999998</v>
@@ -17565,7 +17999,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B8">
         <v>2.347</v>
@@ -17624,7 +18058,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B9">
         <v>2.2949999999999999</v>
@@ -17683,7 +18117,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B10">
         <v>2.2829999999999999</v>
@@ -17742,7 +18176,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B11">
         <v>30.6</v>
@@ -17801,7 +18235,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B12">
         <v>2.3889999999999998</v>
@@ -17860,7 +18294,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B13">
         <v>2.7280000000000002</v>
@@ -17915,1015 +18349,6 @@
       </c>
       <c r="S13">
         <v>0.97540000000000004</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17:S17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="307" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="335" t="s">
-        <v>264</v>
-      </c>
-      <c r="B3" s="333" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="333"/>
-      <c r="D3" s="333"/>
-      <c r="E3" s="333" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="333"/>
-      <c r="G3" s="333"/>
-      <c r="H3" s="333" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="333"/>
-      <c r="J3" s="333"/>
-      <c r="K3" s="333" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="333"/>
-      <c r="M3" s="333"/>
-      <c r="N3" s="333" t="s">
-        <v>96</v>
-      </c>
-      <c r="O3" s="333"/>
-      <c r="P3" s="333"/>
-      <c r="Q3" s="333" t="s">
-        <v>58</v>
-      </c>
-      <c r="R3" s="333"/>
-      <c r="S3" s="333"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="335"/>
-      <c r="B4" s="311" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="311" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="311" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="311" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="311" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="311" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="311" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="311" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="311" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="311" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="311" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" s="311" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="311" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="311" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" s="311" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="311" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" s="311" t="s">
-        <v>41</v>
-      </c>
-      <c r="S4" s="311" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>30</v>
-      </c>
-      <c r="B5">
-        <v>38.79</v>
-      </c>
-      <c r="C5">
-        <v>180</v>
-      </c>
-      <c r="D5">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="E5">
-        <v>0.31740000000000002</v>
-      </c>
-      <c r="F5">
-        <v>1.724</v>
-      </c>
-      <c r="G5">
-        <v>0.3705</v>
-      </c>
-      <c r="H5">
-        <v>0.1198</v>
-      </c>
-      <c r="I5">
-        <v>0.7137</v>
-      </c>
-      <c r="J5">
-        <v>0.37030000000000002</v>
-      </c>
-      <c r="K5">
-        <v>7.4080000000000004</v>
-      </c>
-      <c r="L5">
-        <v>42.49</v>
-      </c>
-      <c r="M5">
-        <v>0.40610000000000002</v>
-      </c>
-      <c r="N5">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="O5">
-        <v>1.62</v>
-      </c>
-      <c r="P5">
-        <v>0.37930000000000003</v>
-      </c>
-      <c r="Q5">
-        <v>2.1579999999999998E-2</v>
-      </c>
-      <c r="R5">
-        <v>3.9710000000000002E-2</v>
-      </c>
-      <c r="S5">
-        <v>0.28520000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>50</v>
-      </c>
-      <c r="B6">
-        <v>8.8010000000000002</v>
-      </c>
-      <c r="C6">
-        <v>27.28</v>
-      </c>
-      <c r="D6">
-        <v>0.29570000000000002</v>
-      </c>
-      <c r="E6">
-        <v>9.0300000000000005E-2</v>
-      </c>
-      <c r="F6">
-        <v>0.17119999999999999</v>
-      </c>
-      <c r="G6">
-        <v>0.2324</v>
-      </c>
-      <c r="H6">
-        <v>3.8800000000000001E-2</v>
-      </c>
-      <c r="I6">
-        <v>8.7300000000000003E-2</v>
-      </c>
-      <c r="J6">
-        <v>0.51049999999999995</v>
-      </c>
-      <c r="K6">
-        <v>1.8169999999999999</v>
-      </c>
-      <c r="L6">
-        <v>4.84</v>
-      </c>
-      <c r="M6">
-        <v>0.40210000000000001</v>
-      </c>
-      <c r="N6">
-        <v>9.7210000000000005E-2</v>
-      </c>
-      <c r="O6">
-        <v>0.1799</v>
-      </c>
-      <c r="P6">
-        <v>0.49120000000000003</v>
-      </c>
-      <c r="Q6">
-        <v>1.076E-2</v>
-      </c>
-      <c r="R6">
-        <v>1.8619999999999999E-3</v>
-      </c>
-      <c r="S6">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>70</v>
-      </c>
-      <c r="B7">
-        <v>5.3689999999999998</v>
-      </c>
-      <c r="C7">
-        <v>23.49</v>
-      </c>
-      <c r="D7">
-        <v>0.58830000000000005</v>
-      </c>
-      <c r="E7">
-        <v>5.0900000000000001E-2</v>
-      </c>
-      <c r="F7">
-        <v>0.16969999999999999</v>
-      </c>
-      <c r="G7">
-        <v>0.38490000000000002</v>
-      </c>
-      <c r="H7">
-        <v>2.3E-2</v>
-      </c>
-      <c r="I7">
-        <v>7.1599999999999997E-2</v>
-      </c>
-      <c r="J7">
-        <v>0.73</v>
-      </c>
-      <c r="K7">
-        <v>0.71489999999999998</v>
-      </c>
-      <c r="L7">
-        <v>3.7890000000000001</v>
-      </c>
-      <c r="M7">
-        <v>0.53810000000000002</v>
-      </c>
-      <c r="N7">
-        <v>5.7910000000000003E-2</v>
-      </c>
-      <c r="O7">
-        <v>0.13569999999999999</v>
-      </c>
-      <c r="P7">
-        <v>0.5968</v>
-      </c>
-      <c r="Q7">
-        <v>8.5500000000000003E-3</v>
-      </c>
-      <c r="R7">
-        <v>5.3899999999999998E-4</v>
-      </c>
-      <c r="S7">
-        <v>1.194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>100</v>
-      </c>
-      <c r="B8">
-        <v>2.5070000000000001</v>
-      </c>
-      <c r="C8">
-        <v>15.33</v>
-      </c>
-      <c r="D8">
-        <v>0.91239999999999999</v>
-      </c>
-      <c r="E8">
-        <v>3.95E-2</v>
-      </c>
-      <c r="F8">
-        <v>8.4400000000000003E-2</v>
-      </c>
-      <c r="G8">
-        <v>0.51910000000000001</v>
-      </c>
-      <c r="H8">
-        <v>1.47E-2</v>
-      </c>
-      <c r="I8">
-        <v>0.04</v>
-      </c>
-      <c r="J8">
-        <v>0.97519999999999996</v>
-      </c>
-      <c r="K8">
-        <v>0.34239999999999998</v>
-      </c>
-      <c r="L8">
-        <v>2.456</v>
-      </c>
-      <c r="M8">
-        <v>0.93879999999999997</v>
-      </c>
-      <c r="N8">
-        <v>4.2790000000000002E-2</v>
-      </c>
-      <c r="O8">
-        <v>8.9480000000000004E-2</v>
-      </c>
-      <c r="P8">
-        <v>1.0289999999999999</v>
-      </c>
-      <c r="Q8">
-        <v>7.2300000000000003E-3</v>
-      </c>
-      <c r="R8">
-        <v>8.9400000000000005E-4</v>
-      </c>
-      <c r="S8">
-        <v>1.3160000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>125</v>
-      </c>
-      <c r="B9">
-        <v>2.2330000000000001</v>
-      </c>
-      <c r="C9">
-        <v>7.8879999999999999</v>
-      </c>
-      <c r="D9">
-        <v>0.72950000000000004</v>
-      </c>
-      <c r="E9">
-        <v>3.5099999999999999E-2</v>
-      </c>
-      <c r="F9">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="G9">
-        <v>0.78320000000000001</v>
-      </c>
-      <c r="H9">
-        <v>1.2E-2</v>
-      </c>
-      <c r="I9">
-        <v>2.6700000000000002E-2</v>
-      </c>
-      <c r="J9">
-        <v>10.79</v>
-      </c>
-      <c r="K9">
-        <v>0.21379999999999999</v>
-      </c>
-      <c r="L9">
-        <v>1.69</v>
-      </c>
-      <c r="M9">
-        <v>1.0860000000000001</v>
-      </c>
-      <c r="N9">
-        <v>3.6540000000000003E-2</v>
-      </c>
-      <c r="O9">
-        <v>5.79E-2</v>
-      </c>
-      <c r="P9">
-        <v>1.093</v>
-      </c>
-      <c r="Q9">
-        <v>6.587E-3</v>
-      </c>
-      <c r="R9">
-        <v>-1.14E-3</v>
-      </c>
-      <c r="S9">
-        <v>1.1719999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>150</v>
-      </c>
-      <c r="B10">
-        <v>1.7909999999999999</v>
-      </c>
-      <c r="C10">
-        <v>5.4779999999999998</v>
-      </c>
-      <c r="D10">
-        <v>0.56779999999999997</v>
-      </c>
-      <c r="E10">
-        <v>3.2399999999999998E-2</v>
-      </c>
-      <c r="F10">
-        <v>7.7499999999999999E-2</v>
-      </c>
-      <c r="G10">
-        <v>1.5660000000000001</v>
-      </c>
-      <c r="H10">
-        <v>1.04E-2</v>
-      </c>
-      <c r="I10">
-        <v>2.0199999999999999E-2</v>
-      </c>
-      <c r="J10">
-        <v>1.135</v>
-      </c>
-      <c r="K10">
-        <v>0.15110000000000001</v>
-      </c>
-      <c r="L10">
-        <v>1.1240000000000001</v>
-      </c>
-      <c r="M10">
-        <v>1.151</v>
-      </c>
-      <c r="N10">
-        <v>3.2669999999999998E-2</v>
-      </c>
-      <c r="O10">
-        <v>4.0739999999999998E-2</v>
-      </c>
-      <c r="P10">
-        <v>1.1339999999999999</v>
-      </c>
-      <c r="Q10">
-        <v>6.0270000000000002E-3</v>
-      </c>
-      <c r="R10">
-        <v>-1.6299999999999999E-3</v>
-      </c>
-      <c r="S10">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>287</v>
-      </c>
-      <c r="B11">
-        <v>2.298</v>
-      </c>
-      <c r="C11">
-        <v>17.38</v>
-      </c>
-      <c r="D11">
-        <v>0.61929999999999996</v>
-      </c>
-      <c r="E11">
-        <v>3.61E-2</v>
-      </c>
-      <c r="F11">
-        <v>0.14330000000000001</v>
-      </c>
-      <c r="G11">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="H11">
-        <v>1.38E-2</v>
-      </c>
-      <c r="I11">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="J11">
-        <v>0.79369999999999996</v>
-      </c>
-      <c r="K11">
-        <v>0.21909999999999999</v>
-      </c>
-      <c r="L11">
-        <v>3.49</v>
-      </c>
-      <c r="M11">
-        <v>0.73580000000000001</v>
-      </c>
-      <c r="N11">
-        <v>3.8730000000000001E-2</v>
-      </c>
-      <c r="O11">
-        <v>0.10539999999999999</v>
-      </c>
-      <c r="P11">
-        <v>0.63970000000000005</v>
-      </c>
-      <c r="Q11">
-        <v>7.5519999999999997E-3</v>
-      </c>
-      <c r="R11">
-        <v>7.3700000000000002E-4</v>
-      </c>
-      <c r="S11">
-        <v>1.044</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>288</v>
-      </c>
-      <c r="B12">
-        <v>2.2559999999999998</v>
-      </c>
-      <c r="C12">
-        <v>13.8</v>
-      </c>
-      <c r="D12">
-        <v>0.88370000000000004</v>
-      </c>
-      <c r="E12">
-        <v>3.56E-2</v>
-      </c>
-      <c r="F12">
-        <v>0.1079</v>
-      </c>
-      <c r="G12">
-        <v>0.77049999999999996</v>
-      </c>
-      <c r="H12">
-        <v>1.2699999999999999E-2</v>
-      </c>
-      <c r="I12">
-        <v>4.4499999999999998E-2</v>
-      </c>
-      <c r="J12">
-        <v>1.0489999999999999</v>
-      </c>
-      <c r="K12">
-        <v>0.22109999999999999</v>
-      </c>
-      <c r="L12">
-        <v>2.8359999999999999</v>
-      </c>
-      <c r="M12">
-        <v>1.123</v>
-      </c>
-      <c r="N12">
-        <v>3.7490000000000002E-2</v>
-      </c>
-      <c r="O12">
-        <v>8.7099999999999997E-2</v>
-      </c>
-      <c r="P12">
-        <v>0.90859999999999996</v>
-      </c>
-      <c r="Q12">
-        <v>7.058E-3</v>
-      </c>
-      <c r="R12">
-        <v>2.2900000000000001E-4</v>
-      </c>
-      <c r="S12">
-        <v>1.875</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>289</v>
-      </c>
-      <c r="B13">
-        <v>2.5129999999999999</v>
-      </c>
-      <c r="C13">
-        <v>17.34</v>
-      </c>
-      <c r="D13">
-        <v>0.49940000000000001</v>
-      </c>
-      <c r="E13">
-        <v>3.9199999999999999E-2</v>
-      </c>
-      <c r="F13">
-        <v>0.1464</v>
-      </c>
-      <c r="G13">
-        <v>0.4486</v>
-      </c>
-      <c r="H13">
-        <v>1.6400000000000001E-2</v>
-      </c>
-      <c r="I13">
-        <v>6.08E-2</v>
-      </c>
-      <c r="J13">
-        <v>0.74719999999999998</v>
-      </c>
-      <c r="K13">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="L13">
-        <v>3.012</v>
-      </c>
-      <c r="M13">
-        <v>0.50190000000000001</v>
-      </c>
-      <c r="N13">
-        <v>4.299E-2</v>
-      </c>
-      <c r="O13">
-        <v>0.107</v>
-      </c>
-      <c r="P13">
-        <v>0.55379999999999996</v>
-      </c>
-      <c r="Q13">
-        <v>7.8869999999999999E-3</v>
-      </c>
-      <c r="R13">
-        <v>8.7699999999999996E-4</v>
-      </c>
-      <c r="S13">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>290</v>
-      </c>
-      <c r="B14">
-        <v>2.3220000000000001</v>
-      </c>
-      <c r="C14">
-        <v>12.91</v>
-      </c>
-      <c r="D14">
-        <v>0.75749999999999995</v>
-      </c>
-      <c r="E14">
-        <v>3.6299999999999999E-2</v>
-      </c>
-      <c r="F14">
-        <v>9.3600000000000003E-2</v>
-      </c>
-      <c r="G14">
-        <v>0.59550000000000003</v>
-      </c>
-      <c r="H14">
-        <v>1.3299999999999999E-2</v>
-      </c>
-      <c r="I14">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="J14">
-        <v>0.95660000000000001</v>
-      </c>
-      <c r="K14">
-        <v>0.2331</v>
-      </c>
-      <c r="L14">
-        <v>2.2130000000000001</v>
-      </c>
-      <c r="M14">
-        <v>0.80510000000000004</v>
-      </c>
-      <c r="N14">
-        <v>3.8859999999999999E-2</v>
-      </c>
-      <c r="O14">
-        <v>8.0909999999999996E-2</v>
-      </c>
-      <c r="P14">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="Q14">
-        <v>7.0569999999999999E-3</v>
-      </c>
-      <c r="R14">
-        <v>4.2200000000000001E-4</v>
-      </c>
-      <c r="S14">
-        <v>1.6639999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>236</v>
-      </c>
-      <c r="B15">
-        <v>2.2719999999999998</v>
-      </c>
-      <c r="C15">
-        <v>13.6</v>
-      </c>
-      <c r="D15">
-        <v>0.71840000000000004</v>
-      </c>
-      <c r="E15">
-        <v>3.56E-2</v>
-      </c>
-      <c r="F15">
-        <v>0.1114</v>
-      </c>
-      <c r="G15">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="H15">
-        <v>1.29E-2</v>
-      </c>
-      <c r="I15">
-        <v>4.5699999999999998E-2</v>
-      </c>
-      <c r="J15">
-        <v>0.9355</v>
-      </c>
-      <c r="K15">
-        <v>0.21490000000000001</v>
-      </c>
-      <c r="L15">
-        <v>2.6949999999999998</v>
-      </c>
-      <c r="M15">
-        <v>0.87680000000000002</v>
-      </c>
-      <c r="N15">
-        <v>3.7620000000000001E-2</v>
-      </c>
-      <c r="O15">
-        <v>8.8569999999999996E-2</v>
-      </c>
-      <c r="P15">
-        <v>0.80869999999999997</v>
-      </c>
-      <c r="Q15">
-        <v>7.1019999999999998E-3</v>
-      </c>
-      <c r="R15">
-        <v>3.4499999999999998E-4</v>
-      </c>
-      <c r="S15">
-        <v>1.698</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>291</v>
-      </c>
-      <c r="B16">
-        <v>2.2879999999999998</v>
-      </c>
-      <c r="C16">
-        <v>9.8480000000000008</v>
-      </c>
-      <c r="D16">
-        <v>1.054</v>
-      </c>
-      <c r="E16">
-        <v>3.6400000000000002E-2</v>
-      </c>
-      <c r="F16">
-        <v>6.59E-2</v>
-      </c>
-      <c r="G16">
-        <v>0.75429999999999997</v>
-      </c>
-      <c r="H16">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="I16">
-        <v>2.9700000000000001E-2</v>
-      </c>
-      <c r="J16">
-        <v>1.1950000000000001</v>
-      </c>
-      <c r="K16">
-        <v>0.25180000000000002</v>
-      </c>
-      <c r="L16">
-        <v>1.829</v>
-      </c>
-      <c r="M16">
-        <v>1.2729999999999999</v>
-      </c>
-      <c r="N16">
-        <v>3.866E-2</v>
-      </c>
-      <c r="O16">
-        <v>6.2700000000000006E-2</v>
-      </c>
-      <c r="P16">
-        <v>1.1279999999999999</v>
-      </c>
-      <c r="Q16">
-        <v>7.4850000000000003E-3</v>
-      </c>
-      <c r="R16">
-        <v>-8.0999999999999996E-4</v>
-      </c>
-      <c r="S16">
-        <v>9.4589999999999994E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>292</v>
-      </c>
-      <c r="B17">
-        <v>29.91</v>
-      </c>
-      <c r="C17">
-        <v>184.4</v>
-      </c>
-      <c r="D17">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="E17">
-        <v>0.25390000000000001</v>
-      </c>
-      <c r="F17">
-        <v>1.8411</v>
-      </c>
-      <c r="G17">
-        <v>0.39240000000000003</v>
-      </c>
-      <c r="H17">
-        <v>8.8300000000000003E-2</v>
-      </c>
-      <c r="I17">
-        <v>0.75260000000000005</v>
-      </c>
-      <c r="J17">
-        <v>0.37859999999999999</v>
-      </c>
-      <c r="K17">
-        <v>5.7889999999999997</v>
-      </c>
-      <c r="L17">
-        <v>44.12</v>
-      </c>
-      <c r="M17">
-        <v>0.41239999999999999</v>
-      </c>
-      <c r="N17">
-        <v>0.2404</v>
-      </c>
-      <c r="O17">
-        <v>1.7090000000000001</v>
-      </c>
-      <c r="P17">
-        <v>0.39179999999999998</v>
-      </c>
-      <c r="Q17">
-        <v>1.8880000000000001E-2</v>
-      </c>
-      <c r="R17">
-        <v>4.172E-2</v>
-      </c>
-      <c r="S17">
-        <v>0.2903</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>293</v>
-      </c>
-      <c r="B18">
-        <v>2.3540000000000001</v>
-      </c>
-      <c r="C18">
-        <v>14.94</v>
-      </c>
-      <c r="D18">
-        <v>0.74809999999999999</v>
-      </c>
-      <c r="E18">
-        <v>3.7100000000000001E-2</v>
-      </c>
-      <c r="F18">
-        <v>0.1067</v>
-      </c>
-      <c r="G18">
-        <v>0.57330000000000003</v>
-      </c>
-      <c r="H18">
-        <v>1.3899999999999999E-2</v>
-      </c>
-      <c r="I18">
-        <v>4.6399999999999997E-2</v>
-      </c>
-      <c r="J18">
-        <v>0.91849999999999998</v>
-      </c>
-      <c r="K18">
-        <v>0.253</v>
-      </c>
-      <c r="L18">
-        <v>2.5920000000000001</v>
-      </c>
-      <c r="M18">
-        <v>0.79990000000000006</v>
-      </c>
-      <c r="N18">
-        <v>4.0009999999999997E-2</v>
-      </c>
-      <c r="O18">
-        <v>9.0300000000000005E-2</v>
-      </c>
-      <c r="P18">
-        <v>0.80189999999999995</v>
-      </c>
-      <c r="Q18">
-        <v>7.2659999999999999E-3</v>
-      </c>
-      <c r="R18">
-        <v>6.7400000000000001E-4</v>
-      </c>
-      <c r="S18">
-        <v>1.2335</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>294</v>
-      </c>
-      <c r="B19">
-        <v>2.661</v>
-      </c>
-      <c r="C19">
-        <v>19.54</v>
-      </c>
-      <c r="D19">
-        <v>0.50939999999999996</v>
-      </c>
-      <c r="E19">
-        <v>4.2189999999999998E-2</v>
-      </c>
-      <c r="F19">
-        <v>0.15590000000000001</v>
-      </c>
-      <c r="G19">
-        <v>0.44719999999999999</v>
-      </c>
-      <c r="H19">
-        <v>1.7469999999999999E-2</v>
-      </c>
-      <c r="I19">
-        <v>6.4219999999999999E-2</v>
-      </c>
-      <c r="J19">
-        <v>0.72989999999999999</v>
-      </c>
-      <c r="K19">
-        <v>0.3579</v>
-      </c>
-      <c r="L19">
-        <v>3.4660000000000002</v>
-      </c>
-      <c r="M19">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N19">
-        <v>4.6120000000000001E-2</v>
-      </c>
-      <c r="O19">
-        <v>0.1198</v>
-      </c>
-      <c r="P19">
-        <v>0.5907</v>
-      </c>
-      <c r="Q19">
-        <v>8.0789999999999994E-3</v>
-      </c>
-      <c r="R19">
-        <v>8.4699999999999999E-4</v>
-      </c>
-      <c r="S19">
-        <v>0.97419999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -18942,6 +18367,1015 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17:S17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="306" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="338" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="336" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="336"/>
+      <c r="D3" s="336"/>
+      <c r="E3" s="336" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="336"/>
+      <c r="G3" s="336"/>
+      <c r="H3" s="336" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="336"/>
+      <c r="J3" s="336"/>
+      <c r="K3" s="336" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="336"/>
+      <c r="M3" s="336"/>
+      <c r="N3" s="336" t="s">
+        <v>96</v>
+      </c>
+      <c r="O3" s="336"/>
+      <c r="P3" s="336"/>
+      <c r="Q3" s="336" t="s">
+        <v>58</v>
+      </c>
+      <c r="R3" s="336"/>
+      <c r="S3" s="336"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="338"/>
+      <c r="B4" s="310" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="310" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="310" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="310" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="310" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="310" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="310" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="310" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="310" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="310" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="310" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="310" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="310" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="310" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="310" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="310" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="310" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4" s="310" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>38.79</v>
+      </c>
+      <c r="C5">
+        <v>180</v>
+      </c>
+      <c r="D5">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="E5">
+        <v>0.31740000000000002</v>
+      </c>
+      <c r="F5">
+        <v>1.724</v>
+      </c>
+      <c r="G5">
+        <v>0.3705</v>
+      </c>
+      <c r="H5">
+        <v>0.1198</v>
+      </c>
+      <c r="I5">
+        <v>0.7137</v>
+      </c>
+      <c r="J5">
+        <v>0.37030000000000002</v>
+      </c>
+      <c r="K5">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="L5">
+        <v>42.49</v>
+      </c>
+      <c r="M5">
+        <v>0.40610000000000002</v>
+      </c>
+      <c r="N5">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="O5">
+        <v>1.62</v>
+      </c>
+      <c r="P5">
+        <v>0.37930000000000003</v>
+      </c>
+      <c r="Q5">
+        <v>2.1579999999999998E-2</v>
+      </c>
+      <c r="R5">
+        <v>3.9710000000000002E-2</v>
+      </c>
+      <c r="S5">
+        <v>0.28520000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>8.8010000000000002</v>
+      </c>
+      <c r="C6">
+        <v>27.28</v>
+      </c>
+      <c r="D6">
+        <v>0.29570000000000002</v>
+      </c>
+      <c r="E6">
+        <v>9.0300000000000005E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.17119999999999999</v>
+      </c>
+      <c r="G6">
+        <v>0.2324</v>
+      </c>
+      <c r="H6">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="I6">
+        <v>8.7300000000000003E-2</v>
+      </c>
+      <c r="J6">
+        <v>0.51049999999999995</v>
+      </c>
+      <c r="K6">
+        <v>1.8169999999999999</v>
+      </c>
+      <c r="L6">
+        <v>4.84</v>
+      </c>
+      <c r="M6">
+        <v>0.40210000000000001</v>
+      </c>
+      <c r="N6">
+        <v>9.7210000000000005E-2</v>
+      </c>
+      <c r="O6">
+        <v>0.1799</v>
+      </c>
+      <c r="P6">
+        <v>0.49120000000000003</v>
+      </c>
+      <c r="Q6">
+        <v>1.076E-2</v>
+      </c>
+      <c r="R6">
+        <v>1.8619999999999999E-3</v>
+      </c>
+      <c r="S6">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>70</v>
+      </c>
+      <c r="B7">
+        <v>5.3689999999999998</v>
+      </c>
+      <c r="C7">
+        <v>23.49</v>
+      </c>
+      <c r="D7">
+        <v>0.58830000000000005</v>
+      </c>
+      <c r="E7">
+        <v>5.0900000000000001E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.16969999999999999</v>
+      </c>
+      <c r="G7">
+        <v>0.38490000000000002</v>
+      </c>
+      <c r="H7">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I7">
+        <v>7.1599999999999997E-2</v>
+      </c>
+      <c r="J7">
+        <v>0.73</v>
+      </c>
+      <c r="K7">
+        <v>0.71489999999999998</v>
+      </c>
+      <c r="L7">
+        <v>3.7890000000000001</v>
+      </c>
+      <c r="M7">
+        <v>0.53810000000000002</v>
+      </c>
+      <c r="N7">
+        <v>5.7910000000000003E-2</v>
+      </c>
+      <c r="O7">
+        <v>0.13569999999999999</v>
+      </c>
+      <c r="P7">
+        <v>0.5968</v>
+      </c>
+      <c r="Q7">
+        <v>8.5500000000000003E-3</v>
+      </c>
+      <c r="R7">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="S7">
+        <v>1.194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>2.5070000000000001</v>
+      </c>
+      <c r="C8">
+        <v>15.33</v>
+      </c>
+      <c r="D8">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="E8">
+        <v>3.95E-2</v>
+      </c>
+      <c r="F8">
+        <v>8.4400000000000003E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.51910000000000001</v>
+      </c>
+      <c r="H8">
+        <v>1.47E-2</v>
+      </c>
+      <c r="I8">
+        <v>0.04</v>
+      </c>
+      <c r="J8">
+        <v>0.97519999999999996</v>
+      </c>
+      <c r="K8">
+        <v>0.34239999999999998</v>
+      </c>
+      <c r="L8">
+        <v>2.456</v>
+      </c>
+      <c r="M8">
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="N8">
+        <v>4.2790000000000002E-2</v>
+      </c>
+      <c r="O8">
+        <v>8.9480000000000004E-2</v>
+      </c>
+      <c r="P8">
+        <v>1.0289999999999999</v>
+      </c>
+      <c r="Q8">
+        <v>7.2300000000000003E-3</v>
+      </c>
+      <c r="R8">
+        <v>8.9400000000000005E-4</v>
+      </c>
+      <c r="S8">
+        <v>1.3160000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>125</v>
+      </c>
+      <c r="B9">
+        <v>2.2330000000000001</v>
+      </c>
+      <c r="C9">
+        <v>7.8879999999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.72950000000000004</v>
+      </c>
+      <c r="E9">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="F9">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.78320000000000001</v>
+      </c>
+      <c r="H9">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I9">
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="J9">
+        <v>10.79</v>
+      </c>
+      <c r="K9">
+        <v>0.21379999999999999</v>
+      </c>
+      <c r="L9">
+        <v>1.69</v>
+      </c>
+      <c r="M9">
+        <v>1.0860000000000001</v>
+      </c>
+      <c r="N9">
+        <v>3.6540000000000003E-2</v>
+      </c>
+      <c r="O9">
+        <v>5.79E-2</v>
+      </c>
+      <c r="P9">
+        <v>1.093</v>
+      </c>
+      <c r="Q9">
+        <v>6.587E-3</v>
+      </c>
+      <c r="R9">
+        <v>-1.14E-3</v>
+      </c>
+      <c r="S9">
+        <v>1.1719999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>150</v>
+      </c>
+      <c r="B10">
+        <v>1.7909999999999999</v>
+      </c>
+      <c r="C10">
+        <v>5.4779999999999998</v>
+      </c>
+      <c r="D10">
+        <v>0.56779999999999997</v>
+      </c>
+      <c r="E10">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="F10">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G10">
+        <v>1.5660000000000001</v>
+      </c>
+      <c r="H10">
+        <v>1.04E-2</v>
+      </c>
+      <c r="I10">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="J10">
+        <v>1.135</v>
+      </c>
+      <c r="K10">
+        <v>0.15110000000000001</v>
+      </c>
+      <c r="L10">
+        <v>1.1240000000000001</v>
+      </c>
+      <c r="M10">
+        <v>1.151</v>
+      </c>
+      <c r="N10">
+        <v>3.2669999999999998E-2</v>
+      </c>
+      <c r="O10">
+        <v>4.0739999999999998E-2</v>
+      </c>
+      <c r="P10">
+        <v>1.1339999999999999</v>
+      </c>
+      <c r="Q10">
+        <v>6.0270000000000002E-3</v>
+      </c>
+      <c r="R10">
+        <v>-1.6299999999999999E-3</v>
+      </c>
+      <c r="S10">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>286</v>
+      </c>
+      <c r="B11">
+        <v>2.298</v>
+      </c>
+      <c r="C11">
+        <v>17.38</v>
+      </c>
+      <c r="D11">
+        <v>0.61929999999999996</v>
+      </c>
+      <c r="E11">
+        <v>3.61E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.14330000000000001</v>
+      </c>
+      <c r="G11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H11">
+        <v>1.38E-2</v>
+      </c>
+      <c r="I11">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="J11">
+        <v>0.79369999999999996</v>
+      </c>
+      <c r="K11">
+        <v>0.21909999999999999</v>
+      </c>
+      <c r="L11">
+        <v>3.49</v>
+      </c>
+      <c r="M11">
+        <v>0.73580000000000001</v>
+      </c>
+      <c r="N11">
+        <v>3.8730000000000001E-2</v>
+      </c>
+      <c r="O11">
+        <v>0.10539999999999999</v>
+      </c>
+      <c r="P11">
+        <v>0.63970000000000005</v>
+      </c>
+      <c r="Q11">
+        <v>7.5519999999999997E-3</v>
+      </c>
+      <c r="R11">
+        <v>7.3700000000000002E-4</v>
+      </c>
+      <c r="S11">
+        <v>1.044</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>287</v>
+      </c>
+      <c r="B12">
+        <v>2.2559999999999998</v>
+      </c>
+      <c r="C12">
+        <v>13.8</v>
+      </c>
+      <c r="D12">
+        <v>0.88370000000000004</v>
+      </c>
+      <c r="E12">
+        <v>3.56E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.1079</v>
+      </c>
+      <c r="G12">
+        <v>0.77049999999999996</v>
+      </c>
+      <c r="H12">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="I12">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="J12">
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="K12">
+        <v>0.22109999999999999</v>
+      </c>
+      <c r="L12">
+        <v>2.8359999999999999</v>
+      </c>
+      <c r="M12">
+        <v>1.123</v>
+      </c>
+      <c r="N12">
+        <v>3.7490000000000002E-2</v>
+      </c>
+      <c r="O12">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="P12">
+        <v>0.90859999999999996</v>
+      </c>
+      <c r="Q12">
+        <v>7.058E-3</v>
+      </c>
+      <c r="R12">
+        <v>2.2900000000000001E-4</v>
+      </c>
+      <c r="S12">
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>288</v>
+      </c>
+      <c r="B13">
+        <v>2.5129999999999999</v>
+      </c>
+      <c r="C13">
+        <v>17.34</v>
+      </c>
+      <c r="D13">
+        <v>0.49940000000000001</v>
+      </c>
+      <c r="E13">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.1464</v>
+      </c>
+      <c r="G13">
+        <v>0.4486</v>
+      </c>
+      <c r="H13">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="I13">
+        <v>6.08E-2</v>
+      </c>
+      <c r="J13">
+        <v>0.74719999999999998</v>
+      </c>
+      <c r="K13">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="L13">
+        <v>3.012</v>
+      </c>
+      <c r="M13">
+        <v>0.50190000000000001</v>
+      </c>
+      <c r="N13">
+        <v>4.299E-2</v>
+      </c>
+      <c r="O13">
+        <v>0.107</v>
+      </c>
+      <c r="P13">
+        <v>0.55379999999999996</v>
+      </c>
+      <c r="Q13">
+        <v>7.8869999999999999E-3</v>
+      </c>
+      <c r="R13">
+        <v>8.7699999999999996E-4</v>
+      </c>
+      <c r="S13">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>289</v>
+      </c>
+      <c r="B14">
+        <v>2.3220000000000001</v>
+      </c>
+      <c r="C14">
+        <v>12.91</v>
+      </c>
+      <c r="D14">
+        <v>0.75749999999999995</v>
+      </c>
+      <c r="E14">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="F14">
+        <v>9.3600000000000003E-2</v>
+      </c>
+      <c r="G14">
+        <v>0.59550000000000003</v>
+      </c>
+      <c r="H14">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="I14">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="J14">
+        <v>0.95660000000000001</v>
+      </c>
+      <c r="K14">
+        <v>0.2331</v>
+      </c>
+      <c r="L14">
+        <v>2.2130000000000001</v>
+      </c>
+      <c r="M14">
+        <v>0.80510000000000004</v>
+      </c>
+      <c r="N14">
+        <v>3.8859999999999999E-2</v>
+      </c>
+      <c r="O14">
+        <v>8.0909999999999996E-2</v>
+      </c>
+      <c r="P14">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="Q14">
+        <v>7.0569999999999999E-3</v>
+      </c>
+      <c r="R14">
+        <v>4.2200000000000001E-4</v>
+      </c>
+      <c r="S14">
+        <v>1.6639999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B15">
+        <v>2.2719999999999998</v>
+      </c>
+      <c r="C15">
+        <v>13.6</v>
+      </c>
+      <c r="D15">
+        <v>0.71840000000000004</v>
+      </c>
+      <c r="E15">
+        <v>3.56E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.1114</v>
+      </c>
+      <c r="G15">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="H15">
+        <v>1.29E-2</v>
+      </c>
+      <c r="I15">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="J15">
+        <v>0.9355</v>
+      </c>
+      <c r="K15">
+        <v>0.21490000000000001</v>
+      </c>
+      <c r="L15">
+        <v>2.6949999999999998</v>
+      </c>
+      <c r="M15">
+        <v>0.87680000000000002</v>
+      </c>
+      <c r="N15">
+        <v>3.7620000000000001E-2</v>
+      </c>
+      <c r="O15">
+        <v>8.8569999999999996E-2</v>
+      </c>
+      <c r="P15">
+        <v>0.80869999999999997</v>
+      </c>
+      <c r="Q15">
+        <v>7.1019999999999998E-3</v>
+      </c>
+      <c r="R15">
+        <v>3.4499999999999998E-4</v>
+      </c>
+      <c r="S15">
+        <v>1.698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>290</v>
+      </c>
+      <c r="B16">
+        <v>2.2879999999999998</v>
+      </c>
+      <c r="C16">
+        <v>9.8480000000000008</v>
+      </c>
+      <c r="D16">
+        <v>1.054</v>
+      </c>
+      <c r="E16">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="F16">
+        <v>6.59E-2</v>
+      </c>
+      <c r="G16">
+        <v>0.75429999999999997</v>
+      </c>
+      <c r="H16">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I16">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="J16">
+        <v>1.1950000000000001</v>
+      </c>
+      <c r="K16">
+        <v>0.25180000000000002</v>
+      </c>
+      <c r="L16">
+        <v>1.829</v>
+      </c>
+      <c r="M16">
+        <v>1.2729999999999999</v>
+      </c>
+      <c r="N16">
+        <v>3.866E-2</v>
+      </c>
+      <c r="O16">
+        <v>6.2700000000000006E-2</v>
+      </c>
+      <c r="P16">
+        <v>1.1279999999999999</v>
+      </c>
+      <c r="Q16">
+        <v>7.4850000000000003E-3</v>
+      </c>
+      <c r="R16">
+        <v>-8.0999999999999996E-4</v>
+      </c>
+      <c r="S16">
+        <v>9.4589999999999994E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>291</v>
+      </c>
+      <c r="B17">
+        <v>29.91</v>
+      </c>
+      <c r="C17">
+        <v>184.4</v>
+      </c>
+      <c r="D17">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="E17">
+        <v>0.25390000000000001</v>
+      </c>
+      <c r="F17">
+        <v>1.8411</v>
+      </c>
+      <c r="G17">
+        <v>0.39240000000000003</v>
+      </c>
+      <c r="H17">
+        <v>8.8300000000000003E-2</v>
+      </c>
+      <c r="I17">
+        <v>0.75260000000000005</v>
+      </c>
+      <c r="J17">
+        <v>0.37859999999999999</v>
+      </c>
+      <c r="K17">
+        <v>5.7889999999999997</v>
+      </c>
+      <c r="L17">
+        <v>44.12</v>
+      </c>
+      <c r="M17">
+        <v>0.41239999999999999</v>
+      </c>
+      <c r="N17">
+        <v>0.2404</v>
+      </c>
+      <c r="O17">
+        <v>1.7090000000000001</v>
+      </c>
+      <c r="P17">
+        <v>0.39179999999999998</v>
+      </c>
+      <c r="Q17">
+        <v>1.8880000000000001E-2</v>
+      </c>
+      <c r="R17">
+        <v>4.172E-2</v>
+      </c>
+      <c r="S17">
+        <v>0.2903</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>292</v>
+      </c>
+      <c r="B18">
+        <v>2.3540000000000001</v>
+      </c>
+      <c r="C18">
+        <v>14.94</v>
+      </c>
+      <c r="D18">
+        <v>0.74809999999999999</v>
+      </c>
+      <c r="E18">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="F18">
+        <v>0.1067</v>
+      </c>
+      <c r="G18">
+        <v>0.57330000000000003</v>
+      </c>
+      <c r="H18">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="I18">
+        <v>4.6399999999999997E-2</v>
+      </c>
+      <c r="J18">
+        <v>0.91849999999999998</v>
+      </c>
+      <c r="K18">
+        <v>0.253</v>
+      </c>
+      <c r="L18">
+        <v>2.5920000000000001</v>
+      </c>
+      <c r="M18">
+        <v>0.79990000000000006</v>
+      </c>
+      <c r="N18">
+        <v>4.0009999999999997E-2</v>
+      </c>
+      <c r="O18">
+        <v>9.0300000000000005E-2</v>
+      </c>
+      <c r="P18">
+        <v>0.80189999999999995</v>
+      </c>
+      <c r="Q18">
+        <v>7.2659999999999999E-3</v>
+      </c>
+      <c r="R18">
+        <v>6.7400000000000001E-4</v>
+      </c>
+      <c r="S18">
+        <v>1.2335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>293</v>
+      </c>
+      <c r="B19">
+        <v>2.661</v>
+      </c>
+      <c r="C19">
+        <v>19.54</v>
+      </c>
+      <c r="D19">
+        <v>0.50939999999999996</v>
+      </c>
+      <c r="E19">
+        <v>4.2189999999999998E-2</v>
+      </c>
+      <c r="F19">
+        <v>0.15590000000000001</v>
+      </c>
+      <c r="G19">
+        <v>0.44719999999999999</v>
+      </c>
+      <c r="H19">
+        <v>1.7469999999999999E-2</v>
+      </c>
+      <c r="I19">
+        <v>6.4219999999999999E-2</v>
+      </c>
+      <c r="J19">
+        <v>0.72989999999999999</v>
+      </c>
+      <c r="K19">
+        <v>0.3579</v>
+      </c>
+      <c r="L19">
+        <v>3.4660000000000002</v>
+      </c>
+      <c r="M19">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N19">
+        <v>4.6120000000000001E-2</v>
+      </c>
+      <c r="O19">
+        <v>0.1198</v>
+      </c>
+      <c r="P19">
+        <v>0.5907</v>
+      </c>
+      <c r="Q19">
+        <v>8.0789999999999994E-3</v>
+      </c>
+      <c r="R19">
+        <v>8.4699999999999999E-4</v>
+      </c>
+      <c r="S19">
+        <v>0.97419999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -18951,101 +19385,101 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="307" t="s">
-        <v>306</v>
+      <c r="A1" s="306" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="320" t="s">
-        <v>304</v>
-      </c>
-      <c r="B2" s="333" t="s">
+      <c r="A2" s="319" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="336" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="333"/>
-      <c r="D2" s="333"/>
-      <c r="E2" s="333" t="s">
+      <c r="C2" s="336"/>
+      <c r="D2" s="336"/>
+      <c r="E2" s="336" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="333"/>
-      <c r="G2" s="333"/>
-      <c r="H2" s="333" t="s">
+      <c r="F2" s="336"/>
+      <c r="G2" s="336"/>
+      <c r="H2" s="336" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="333"/>
-      <c r="J2" s="333"/>
-      <c r="K2" s="333" t="s">
+      <c r="I2" s="336"/>
+      <c r="J2" s="336"/>
+      <c r="K2" s="336" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="333"/>
-      <c r="M2" s="333"/>
-      <c r="N2" s="333" t="s">
+      <c r="L2" s="336"/>
+      <c r="M2" s="336"/>
+      <c r="N2" s="336" t="s">
         <v>96</v>
       </c>
-      <c r="O2" s="333"/>
-      <c r="P2" s="333"/>
-      <c r="Q2" s="333" t="s">
+      <c r="O2" s="336"/>
+      <c r="P2" s="336"/>
+      <c r="Q2" s="336" t="s">
         <v>58</v>
       </c>
-      <c r="R2" s="333"/>
-      <c r="S2" s="333"/>
+      <c r="R2" s="336"/>
+      <c r="S2" s="336"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="311" t="s">
+      <c r="B3" s="310" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="311" t="s">
+      <c r="C3" s="310" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="311" t="s">
+      <c r="D3" s="310" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="311" t="s">
+      <c r="E3" s="310" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="311" t="s">
+      <c r="F3" s="310" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="311" t="s">
+      <c r="G3" s="310" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="311" t="s">
+      <c r="H3" s="310" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="311" t="s">
+      <c r="I3" s="310" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="311" t="s">
+      <c r="J3" s="310" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="311" t="s">
+      <c r="K3" s="310" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="311" t="s">
+      <c r="L3" s="310" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="311" t="s">
+      <c r="M3" s="310" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="311" t="s">
+      <c r="N3" s="310" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="311" t="s">
+      <c r="O3" s="310" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="311" t="s">
+      <c r="P3" s="310" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="311" t="s">
+      <c r="Q3" s="310" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="311" t="s">
+      <c r="R3" s="310" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="311" t="s">
+      <c r="S3" s="310" t="s">
         <v>42</v>
       </c>
     </row>
@@ -19286,109 +19720,109 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="320" t="s">
+      <c r="A9" s="319" t="s">
+        <v>295</v>
+      </c>
+      <c r="B9" s="306" t="s">
         <v>296</v>
       </c>
-      <c r="B9" s="307" t="s">
-        <v>297</v>
-      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="307" t="s">
-        <v>307</v>
+      <c r="A11" s="306" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="320" t="s">
-        <v>303</v>
-      </c>
-      <c r="B12" s="333" t="s">
+      <c r="A12" s="319" t="s">
+        <v>302</v>
+      </c>
+      <c r="B12" s="336" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="333"/>
-      <c r="D12" s="333"/>
-      <c r="E12" s="333" t="s">
+      <c r="C12" s="336"/>
+      <c r="D12" s="336"/>
+      <c r="E12" s="336" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="333"/>
-      <c r="G12" s="333"/>
-      <c r="H12" s="333" t="s">
+      <c r="F12" s="336"/>
+      <c r="G12" s="336"/>
+      <c r="H12" s="336" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="333"/>
-      <c r="J12" s="333"/>
-      <c r="K12" s="333" t="s">
+      <c r="I12" s="336"/>
+      <c r="J12" s="336"/>
+      <c r="K12" s="336" t="s">
         <v>54</v>
       </c>
-      <c r="L12" s="333"/>
-      <c r="M12" s="333"/>
-      <c r="N12" s="333" t="s">
+      <c r="L12" s="336"/>
+      <c r="M12" s="336"/>
+      <c r="N12" s="336" t="s">
         <v>96</v>
       </c>
-      <c r="O12" s="333"/>
-      <c r="P12" s="333"/>
-      <c r="Q12" s="333" t="s">
+      <c r="O12" s="336"/>
+      <c r="P12" s="336"/>
+      <c r="Q12" s="336" t="s">
         <v>58</v>
       </c>
-      <c r="R12" s="333"/>
-      <c r="S12" s="333"/>
+      <c r="R12" s="336"/>
+      <c r="S12" s="336"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="311" t="s">
+      <c r="B13" s="310" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="311" t="s">
+      <c r="C13" s="310" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="311" t="s">
+      <c r="D13" s="310" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="311" t="s">
+      <c r="E13" s="310" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="311" t="s">
+      <c r="F13" s="310" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="311" t="s">
+      <c r="G13" s="310" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="311" t="s">
+      <c r="H13" s="310" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="311" t="s">
+      <c r="I13" s="310" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="311" t="s">
+      <c r="J13" s="310" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="311" t="s">
+      <c r="K13" s="310" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="311" t="s">
+      <c r="L13" s="310" t="s">
         <v>41</v>
       </c>
-      <c r="M13" s="311" t="s">
+      <c r="M13" s="310" t="s">
         <v>42</v>
       </c>
-      <c r="N13" s="311" t="s">
+      <c r="N13" s="310" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="311" t="s">
+      <c r="O13" s="310" t="s">
         <v>41</v>
       </c>
-      <c r="P13" s="311" t="s">
+      <c r="P13" s="310" t="s">
         <v>42</v>
       </c>
-      <c r="Q13" s="311" t="s">
+      <c r="Q13" s="310" t="s">
         <v>40</v>
       </c>
-      <c r="R13" s="311" t="s">
+      <c r="R13" s="310" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="311" t="s">
+      <c r="S13" s="310" t="s">
         <v>42</v>
       </c>
     </row>
@@ -19747,109 +20181,109 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="320" t="s">
-        <v>296</v>
-      </c>
-      <c r="B21" s="307" t="s">
-        <v>298</v>
+      <c r="A21" s="319" t="s">
+        <v>295</v>
+      </c>
+      <c r="B21" s="306" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="307" t="s">
+      <c r="A23" s="306" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="319" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="320" t="s">
-        <v>302</v>
-      </c>
-      <c r="B24" s="333" t="s">
+      <c r="B24" s="336" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="333"/>
-      <c r="D24" s="333"/>
-      <c r="E24" s="333" t="s">
+      <c r="C24" s="336"/>
+      <c r="D24" s="336"/>
+      <c r="E24" s="336" t="s">
         <v>95</v>
       </c>
-      <c r="F24" s="333"/>
-      <c r="G24" s="333"/>
-      <c r="H24" s="333" t="s">
+      <c r="F24" s="336"/>
+      <c r="G24" s="336"/>
+      <c r="H24" s="336" t="s">
         <v>52</v>
       </c>
-      <c r="I24" s="333"/>
-      <c r="J24" s="333"/>
-      <c r="K24" s="333" t="s">
+      <c r="I24" s="336"/>
+      <c r="J24" s="336"/>
+      <c r="K24" s="336" t="s">
         <v>54</v>
       </c>
-      <c r="L24" s="333"/>
-      <c r="M24" s="333"/>
-      <c r="N24" s="333" t="s">
+      <c r="L24" s="336"/>
+      <c r="M24" s="336"/>
+      <c r="N24" s="336" t="s">
         <v>96</v>
       </c>
-      <c r="O24" s="333"/>
-      <c r="P24" s="333"/>
-      <c r="Q24" s="333" t="s">
+      <c r="O24" s="336"/>
+      <c r="P24" s="336"/>
+      <c r="Q24" s="336" t="s">
         <v>58</v>
       </c>
-      <c r="R24" s="333"/>
-      <c r="S24" s="333"/>
+      <c r="R24" s="336"/>
+      <c r="S24" s="336"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="311" t="s">
+      <c r="B25" s="310" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="311" t="s">
+      <c r="C25" s="310" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="311" t="s">
+      <c r="D25" s="310" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="311" t="s">
+      <c r="E25" s="310" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="311" t="s">
+      <c r="F25" s="310" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="311" t="s">
+      <c r="G25" s="310" t="s">
         <v>42</v>
       </c>
-      <c r="H25" s="311" t="s">
+      <c r="H25" s="310" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="311" t="s">
+      <c r="I25" s="310" t="s">
         <v>41</v>
       </c>
-      <c r="J25" s="311" t="s">
+      <c r="J25" s="310" t="s">
         <v>42</v>
       </c>
-      <c r="K25" s="311" t="s">
+      <c r="K25" s="310" t="s">
         <v>40</v>
       </c>
-      <c r="L25" s="311" t="s">
+      <c r="L25" s="310" t="s">
         <v>41</v>
       </c>
-      <c r="M25" s="311" t="s">
+      <c r="M25" s="310" t="s">
         <v>42</v>
       </c>
-      <c r="N25" s="311" t="s">
+      <c r="N25" s="310" t="s">
         <v>40</v>
       </c>
-      <c r="O25" s="311" t="s">
+      <c r="O25" s="310" t="s">
         <v>41</v>
       </c>
-      <c r="P25" s="311" t="s">
+      <c r="P25" s="310" t="s">
         <v>42</v>
       </c>
-      <c r="Q25" s="311" t="s">
+      <c r="Q25" s="310" t="s">
         <v>40</v>
       </c>
-      <c r="R25" s="311" t="s">
+      <c r="R25" s="310" t="s">
         <v>41</v>
       </c>
-      <c r="S25" s="311" t="s">
+      <c r="S25" s="310" t="s">
         <v>42</v>
       </c>
     </row>
@@ -20090,109 +20524,109 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="320" t="s">
-        <v>296</v>
-      </c>
-      <c r="B31" s="307" t="s">
-        <v>298</v>
+      <c r="A31" s="319" t="s">
+        <v>295</v>
+      </c>
+      <c r="B31" s="306" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A33" s="307" t="s">
-        <v>305</v>
+      <c r="A33" s="306" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C34" s="333" t="s">
+      <c r="C34" s="336" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="333"/>
-      <c r="E34" s="333"/>
-      <c r="F34" s="333" t="s">
+      <c r="D34" s="336"/>
+      <c r="E34" s="336"/>
+      <c r="F34" s="336" t="s">
         <v>95</v>
       </c>
-      <c r="G34" s="333"/>
-      <c r="H34" s="333"/>
-      <c r="I34" s="333" t="s">
+      <c r="G34" s="336"/>
+      <c r="H34" s="336"/>
+      <c r="I34" s="336" t="s">
         <v>52</v>
       </c>
-      <c r="J34" s="333"/>
-      <c r="K34" s="333"/>
-      <c r="L34" s="333" t="s">
+      <c r="J34" s="336"/>
+      <c r="K34" s="336"/>
+      <c r="L34" s="336" t="s">
         <v>54</v>
       </c>
-      <c r="M34" s="333"/>
-      <c r="N34" s="333"/>
-      <c r="O34" s="333" t="s">
+      <c r="M34" s="336"/>
+      <c r="N34" s="336"/>
+      <c r="O34" s="336" t="s">
         <v>96</v>
       </c>
-      <c r="P34" s="333"/>
-      <c r="Q34" s="333"/>
-      <c r="R34" s="333" t="s">
+      <c r="P34" s="336"/>
+      <c r="Q34" s="336"/>
+      <c r="R34" s="336" t="s">
         <v>58</v>
       </c>
-      <c r="S34" s="333"/>
-      <c r="T34" s="333"/>
+      <c r="S34" s="336"/>
+      <c r="T34" s="336"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C35" s="311" t="s">
+      <c r="C35" s="310" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="311" t="s">
+      <c r="D35" s="310" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="311" t="s">
+      <c r="E35" s="310" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="311" t="s">
+      <c r="F35" s="310" t="s">
         <v>40</v>
       </c>
-      <c r="G35" s="311" t="s">
+      <c r="G35" s="310" t="s">
         <v>41</v>
       </c>
-      <c r="H35" s="311" t="s">
+      <c r="H35" s="310" t="s">
         <v>42</v>
       </c>
-      <c r="I35" s="311" t="s">
+      <c r="I35" s="310" t="s">
         <v>40</v>
       </c>
-      <c r="J35" s="311" t="s">
+      <c r="J35" s="310" t="s">
         <v>41</v>
       </c>
-      <c r="K35" s="311" t="s">
+      <c r="K35" s="310" t="s">
         <v>42</v>
       </c>
-      <c r="L35" s="311" t="s">
+      <c r="L35" s="310" t="s">
         <v>40</v>
       </c>
-      <c r="M35" s="311" t="s">
+      <c r="M35" s="310" t="s">
         <v>41</v>
       </c>
-      <c r="N35" s="311" t="s">
+      <c r="N35" s="310" t="s">
         <v>42</v>
       </c>
-      <c r="O35" s="311" t="s">
+      <c r="O35" s="310" t="s">
         <v>40</v>
       </c>
-      <c r="P35" s="311" t="s">
+      <c r="P35" s="310" t="s">
         <v>41</v>
       </c>
-      <c r="Q35" s="311" t="s">
+      <c r="Q35" s="310" t="s">
         <v>42</v>
       </c>
-      <c r="R35" s="311" t="s">
+      <c r="R35" s="310" t="s">
         <v>40</v>
       </c>
-      <c r="S35" s="311" t="s">
+      <c r="S35" s="310" t="s">
         <v>41</v>
       </c>
-      <c r="T35" s="311" t="s">
+      <c r="T35" s="310" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C36">
         <v>13.33</v>
@@ -20251,7 +20685,7 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C37">
         <v>12.22</v>
@@ -20309,15 +20743,27 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A39" s="320" t="s">
+      <c r="A39" s="319" t="s">
+        <v>295</v>
+      </c>
+      <c r="B39" s="306" t="s">
         <v>296</v>
-      </c>
-      <c r="B39" s="307" t="s">
-        <v>297</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q24:S24"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="E12:G12"/>
@@ -20330,18 +20776,6 @@
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="K24:M24"/>
     <mergeCell ref="N24:P24"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="O34:Q34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20351,1133 +20785,1133 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="293" customWidth="1"/>
-    <col min="2" max="1026" width="8.6640625" style="293" customWidth="1"/>
-    <col min="1027" max="16384" width="9.33203125" style="293"/>
+    <col min="1" max="1" width="13.5" style="292" customWidth="1"/>
+    <col min="2" max="1026" width="8.6640625" style="292" customWidth="1"/>
+    <col min="1027" max="16384" width="9.33203125" style="292"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="322" t="s">
+      <c r="B1" s="323" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="322"/>
-      <c r="D1" s="322" t="s">
+      <c r="C1" s="323"/>
+      <c r="D1" s="323" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="323"/>
+      <c r="F1" s="323"/>
+      <c r="H1" s="324" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="323"/>
+      <c r="J1" s="323"/>
+      <c r="K1" s="323"/>
+      <c r="L1" s="323"/>
+      <c r="M1" s="293"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="292" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="322"/>
-      <c r="F1" s="322"/>
-      <c r="H1" s="323" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="322"/>
-      <c r="J1" s="322"/>
-      <c r="K1" s="322"/>
-      <c r="L1" s="322"/>
-      <c r="M1" s="294"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="293" t="s">
+      <c r="C2" s="292" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="293" t="s">
+      <c r="D2" s="292" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="292" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="293" t="s">
-        <v>186</v>
-      </c>
-      <c r="E2" s="293" t="s">
+      <c r="F2" s="292" t="s">
+        <v>187</v>
+      </c>
+      <c r="H2" s="294" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="294" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="312" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="312" t="s">
+        <v>311</v>
+      </c>
+      <c r="L2" s="312" t="s">
+        <v>312</v>
+      </c>
+      <c r="M2" s="293"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="292" t="s">
         <v>188</v>
       </c>
-      <c r="F2" s="293" t="s">
-        <v>188</v>
-      </c>
-      <c r="H2" s="295" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="295" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="313" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="313" t="s">
-        <v>312</v>
-      </c>
-      <c r="L2" s="313" t="s">
-        <v>313</v>
-      </c>
-      <c r="M2" s="294"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="293" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3" s="316"/>
-      <c r="C3" s="316"/>
-      <c r="D3" s="316"/>
-      <c r="E3" s="316"/>
-      <c r="F3" s="316"/>
-      <c r="G3" s="293" t="s">
+      <c r="B3" s="315"/>
+      <c r="C3" s="315"/>
+      <c r="D3" s="315"/>
+      <c r="E3" s="315"/>
+      <c r="F3" s="315"/>
+      <c r="G3" s="292" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="301"/>
-      <c r="I3" s="301"/>
-      <c r="J3" s="301"/>
-      <c r="K3" s="301" t="e">
+      <c r="H3" s="300"/>
+      <c r="I3" s="300"/>
+      <c r="J3" s="300"/>
+      <c r="K3" s="300" t="e">
         <f>I3/H3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="301">
+      <c r="L3" s="300">
         <f>H3*J3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="294"/>
+      <c r="M3" s="293"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="293" t="s">
-        <v>190</v>
-      </c>
-      <c r="B4" s="316"/>
-      <c r="C4" s="316"/>
-      <c r="D4" s="316"/>
-      <c r="E4" s="316"/>
-      <c r="F4" s="316"/>
-      <c r="G4" s="293" t="s">
+      <c r="A4" s="292" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="315"/>
+      <c r="C4" s="315"/>
+      <c r="D4" s="315"/>
+      <c r="E4" s="315"/>
+      <c r="F4" s="315"/>
+      <c r="G4" s="292" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="301"/>
-      <c r="I4" s="301"/>
-      <c r="J4" s="301"/>
-      <c r="K4" s="301" t="e">
+      <c r="H4" s="300"/>
+      <c r="I4" s="300"/>
+      <c r="J4" s="300"/>
+      <c r="K4" s="300" t="e">
         <f>I4/H4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="301">
+      <c r="L4" s="300">
         <f>H4*J4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="294"/>
+      <c r="M4" s="293"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="293" t="s">
+      <c r="A5" s="292" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="315"/>
+      <c r="C5" s="315"/>
+      <c r="D5" s="315"/>
+      <c r="E5" s="315"/>
+      <c r="F5" s="315"/>
+      <c r="H5" s="325" t="s">
+        <v>184</v>
+      </c>
+      <c r="I5" s="326"/>
+      <c r="J5" s="326"/>
+      <c r="K5" s="326"/>
+      <c r="L5" s="326"/>
+      <c r="M5" s="293"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="292" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="316"/>
-      <c r="C5" s="316"/>
-      <c r="D5" s="316"/>
-      <c r="E5" s="316"/>
-      <c r="F5" s="316"/>
-      <c r="H5" s="336" t="s">
-        <v>185</v>
-      </c>
-      <c r="I5" s="337"/>
-      <c r="J5" s="337"/>
-      <c r="K5" s="337"/>
-      <c r="L5" s="337"/>
-      <c r="M5" s="294"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="293" t="s">
+      <c r="B6" s="315"/>
+      <c r="C6" s="315"/>
+      <c r="D6" s="315"/>
+      <c r="E6" s="315"/>
+      <c r="F6" s="315"/>
+      <c r="H6" s="294" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="294" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="312" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="312" t="s">
+        <v>311</v>
+      </c>
+      <c r="L6" s="312" t="s">
+        <v>312</v>
+      </c>
+      <c r="M6" s="293"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="292" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="316"/>
-      <c r="C6" s="316"/>
-      <c r="D6" s="316"/>
-      <c r="E6" s="316"/>
-      <c r="F6" s="316"/>
-      <c r="H6" s="295" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="295" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="313" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="313" t="s">
-        <v>312</v>
-      </c>
-      <c r="L6" s="313" t="s">
-        <v>313</v>
-      </c>
-      <c r="M6" s="294"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="293" t="s">
-        <v>193</v>
-      </c>
-      <c r="B7" s="317"/>
-      <c r="C7" s="316"/>
-      <c r="D7" s="317"/>
-      <c r="E7" s="316"/>
-      <c r="F7" s="316"/>
-      <c r="G7" s="293" t="s">
+      <c r="B7" s="316"/>
+      <c r="C7" s="315"/>
+      <c r="D7" s="316"/>
+      <c r="E7" s="315"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="292" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="301"/>
-      <c r="I7" s="301"/>
-      <c r="J7" s="301"/>
-      <c r="K7" s="301" t="e">
+      <c r="H7" s="300"/>
+      <c r="I7" s="300"/>
+      <c r="J7" s="300"/>
+      <c r="K7" s="300" t="e">
         <f>I7/H7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="301">
+      <c r="L7" s="300">
         <f>H7*J7</f>
         <v>0</v>
       </c>
-      <c r="M7" s="294"/>
+      <c r="M7" s="293"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G8" s="293" t="s">
+      <c r="G8" s="292" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="301"/>
-      <c r="I8" s="301"/>
-      <c r="J8" s="301"/>
-      <c r="K8" s="301" t="e">
+      <c r="H8" s="300"/>
+      <c r="I8" s="300"/>
+      <c r="J8" s="300"/>
+      <c r="K8" s="300" t="e">
         <f>I8/H8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="301">
+      <c r="L8" s="300">
         <f>H8*J8</f>
         <v>0</v>
       </c>
-      <c r="M8" s="294"/>
+      <c r="M8" s="293"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="293" t="s">
+      <c r="A9" s="292" t="s">
+        <v>298</v>
+      </c>
+      <c r="B9" s="313">
+        <v>40</v>
+      </c>
+      <c r="M9" s="295"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="292" t="s">
         <v>299</v>
       </c>
-      <c r="B9" s="314">
-        <v>40</v>
-      </c>
-      <c r="M9" s="296"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="293" t="s">
-        <v>300</v>
-      </c>
-      <c r="B10" s="315">
+      <c r="B10" s="314">
         <v>10000</v>
       </c>
-      <c r="C10" s="293" t="s">
+      <c r="C10" s="292" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="292" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="293" t="s">
+      <c r="C12" s="292" t="s">
         <v>195</v>
       </c>
-      <c r="C12" s="293" t="s">
+      <c r="D12" s="292" t="s">
         <v>196</v>
       </c>
-      <c r="D12" s="293" t="s">
+      <c r="E12" s="292" t="s">
         <v>197</v>
       </c>
-      <c r="E12" s="293" t="s">
+      <c r="F12" s="292" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="292" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="292" t="s">
         <v>198</v>
       </c>
-      <c r="F12" s="293" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="293" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="293" t="s">
+      <c r="B13" s="315"/>
+      <c r="C13" s="315"/>
+      <c r="D13" s="317"/>
+      <c r="E13" s="315"/>
+      <c r="F13" s="315"/>
+      <c r="G13" s="315"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="292" t="s">
         <v>199</v>
       </c>
-      <c r="B13" s="316"/>
-      <c r="C13" s="316"/>
-      <c r="D13" s="318"/>
-      <c r="E13" s="316"/>
-      <c r="F13" s="316"/>
-      <c r="G13" s="316"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="293" t="s">
+      <c r="B14" s="315"/>
+      <c r="C14" s="315"/>
+      <c r="D14" s="317"/>
+      <c r="E14" s="315"/>
+      <c r="F14" s="315"/>
+      <c r="G14" s="315"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="292" t="s">
         <v>200</v>
       </c>
-      <c r="B14" s="316"/>
-      <c r="C14" s="316"/>
-      <c r="D14" s="318"/>
-      <c r="E14" s="316"/>
-      <c r="F14" s="316"/>
-      <c r="G14" s="316"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="293" t="s">
+      <c r="B15" s="315"/>
+      <c r="C15" s="315"/>
+      <c r="D15" s="317"/>
+      <c r="E15" s="315"/>
+      <c r="F15" s="315"/>
+      <c r="G15" s="315"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="292" t="s">
         <v>201</v>
       </c>
-      <c r="B15" s="316"/>
-      <c r="C15" s="316"/>
-      <c r="D15" s="318"/>
-      <c r="E15" s="316"/>
-      <c r="F15" s="316"/>
-      <c r="G15" s="316"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="293" t="s">
+      <c r="B16" s="315"/>
+      <c r="C16" s="315"/>
+      <c r="D16" s="317"/>
+      <c r="E16" s="315"/>
+      <c r="F16" s="315"/>
+      <c r="G16" s="315"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="292" t="s">
         <v>202</v>
       </c>
-      <c r="B16" s="316"/>
-      <c r="C16" s="316"/>
-      <c r="D16" s="318"/>
-      <c r="E16" s="316"/>
-      <c r="F16" s="316"/>
-      <c r="G16" s="316"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="293" t="s">
+      <c r="B17" s="315"/>
+      <c r="C17" s="315"/>
+      <c r="D17" s="317"/>
+      <c r="E17" s="315"/>
+      <c r="F17" s="315"/>
+      <c r="G17" s="315"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="292" t="s">
         <v>203</v>
       </c>
-      <c r="B17" s="316"/>
-      <c r="C17" s="316"/>
-      <c r="D17" s="318"/>
-      <c r="E17" s="316"/>
-      <c r="F17" s="316"/>
-      <c r="G17" s="316"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="293" t="s">
+      <c r="B18" s="315"/>
+      <c r="C18" s="315"/>
+      <c r="D18" s="317"/>
+      <c r="E18" s="315"/>
+      <c r="F18" s="315"/>
+      <c r="G18" s="315"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="292" t="s">
         <v>204</v>
       </c>
-      <c r="B18" s="316"/>
-      <c r="C18" s="316"/>
-      <c r="D18" s="318"/>
-      <c r="E18" s="316"/>
-      <c r="F18" s="316"/>
-      <c r="G18" s="316"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="293" t="s">
+      <c r="B19" s="315"/>
+      <c r="C19" s="315"/>
+      <c r="D19" s="317"/>
+      <c r="E19" s="315"/>
+      <c r="F19" s="315"/>
+      <c r="G19" s="315"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="292" t="s">
         <v>205</v>
       </c>
-      <c r="B19" s="316"/>
-      <c r="C19" s="316"/>
-      <c r="D19" s="318"/>
-      <c r="E19" s="316"/>
-      <c r="F19" s="316"/>
-      <c r="G19" s="316"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="293" t="s">
+      <c r="B20" s="315"/>
+      <c r="C20" s="315"/>
+      <c r="D20" s="317"/>
+      <c r="E20" s="315"/>
+      <c r="F20" s="315"/>
+      <c r="G20" s="315"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="292" t="s">
         <v>206</v>
       </c>
-      <c r="B20" s="316"/>
-      <c r="C20" s="316"/>
-      <c r="D20" s="318"/>
-      <c r="E20" s="316"/>
-      <c r="F20" s="316"/>
-      <c r="G20" s="316"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="293" t="s">
+      <c r="B21" s="315"/>
+      <c r="C21" s="315"/>
+      <c r="D21" s="317"/>
+      <c r="E21" s="315"/>
+      <c r="F21" s="315"/>
+      <c r="G21" s="315"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="292" t="s">
         <v>207</v>
       </c>
-      <c r="B21" s="316"/>
-      <c r="C21" s="316"/>
-      <c r="D21" s="318"/>
-      <c r="E21" s="316"/>
-      <c r="F21" s="316"/>
-      <c r="G21" s="316"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="293" t="s">
+      <c r="B22" s="315"/>
+      <c r="C22" s="315"/>
+      <c r="D22" s="317"/>
+      <c r="E22" s="315"/>
+      <c r="F22" s="315"/>
+      <c r="G22" s="315"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="292" t="s">
         <v>208</v>
       </c>
-      <c r="B22" s="316"/>
-      <c r="C22" s="316"/>
-      <c r="D22" s="318"/>
-      <c r="E22" s="316"/>
-      <c r="F22" s="316"/>
-      <c r="G22" s="316"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="293" t="s">
+      <c r="B23" s="315"/>
+      <c r="C23" s="315"/>
+      <c r="D23" s="317"/>
+      <c r="E23" s="315"/>
+      <c r="F23" s="315"/>
+      <c r="G23" s="315"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="292" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="316"/>
-      <c r="C23" s="316"/>
-      <c r="D23" s="318"/>
-      <c r="E23" s="316"/>
-      <c r="F23" s="316"/>
-      <c r="G23" s="316"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="293" t="s">
+      <c r="B24" s="315"/>
+      <c r="C24" s="315"/>
+      <c r="D24" s="317"/>
+      <c r="E24" s="315"/>
+      <c r="F24" s="315"/>
+      <c r="G24" s="315"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="292" t="s">
         <v>210</v>
       </c>
-      <c r="B24" s="316"/>
-      <c r="C24" s="316"/>
-      <c r="D24" s="318"/>
-      <c r="E24" s="316"/>
-      <c r="F24" s="316"/>
-      <c r="G24" s="316"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="293" t="s">
+      <c r="B25" s="315"/>
+      <c r="C25" s="315"/>
+      <c r="D25" s="317"/>
+      <c r="E25" s="315"/>
+      <c r="F25" s="315"/>
+      <c r="G25" s="315"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G26" s="297" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="297" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" s="298"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="292" t="s">
         <v>211</v>
       </c>
-      <c r="B25" s="316"/>
-      <c r="C25" s="316"/>
-      <c r="D25" s="318"/>
-      <c r="E25" s="316"/>
-      <c r="F25" s="316"/>
-      <c r="G25" s="316"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G26" s="298" t="s">
-        <v>48</v>
-      </c>
-      <c r="H26" s="298" t="s">
-        <v>50</v>
-      </c>
-      <c r="J26" s="299"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="293" t="s">
+      <c r="C27" s="292" t="s">
         <v>212</v>
       </c>
-      <c r="C27" s="293" t="s">
+      <c r="D27" s="292" t="s">
         <v>213</v>
       </c>
-      <c r="D27" s="293" t="s">
+      <c r="E27" s="292" t="s">
         <v>214</v>
       </c>
-      <c r="E27" s="293" t="s">
+      <c r="F27" s="292" t="s">
         <v>215</v>
       </c>
-      <c r="F27" s="293" t="s">
+      <c r="G27" s="297" t="s">
         <v>216</v>
       </c>
-      <c r="G27" s="298" t="s">
-        <v>217</v>
-      </c>
-      <c r="H27" s="298" t="s">
-        <v>217</v>
-      </c>
-      <c r="J27" s="299"/>
+      <c r="H27" s="297" t="s">
+        <v>216</v>
+      </c>
+      <c r="J27" s="298"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="293" t="str">
+      <c r="A28" s="292" t="str">
         <f>IF(A13="","",A13)</f>
         <v>Wall A</v>
       </c>
-      <c r="B28" s="316"/>
-      <c r="C28" s="316"/>
-      <c r="D28" s="303" t="e">
+      <c r="B28" s="315"/>
+      <c r="C28" s="315"/>
+      <c r="D28" s="302" t="e">
         <f>B28*$B$10*(C28^2/D13^2)+12/(D13^2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E28" s="304" t="e">
+      <c r="E28" s="303" t="e">
         <f>D28*$B$9/1000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F28" s="304" t="e">
+      <c r="F28" s="303" t="e">
         <f t="shared" ref="F28:F40" si="0">F13/(G13*E28)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G28" s="303" t="e">
+      <c r="G28" s="302" t="e">
         <f>LN((F28^(-$J$7)+($I$7/$H$7))/(1+($I$7/$H$7)))/($H$7*$J$7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="319"/>
-      <c r="I28" s="305" t="e">
+      <c r="H28" s="318"/>
+      <c r="I28" s="304" t="e">
         <f t="shared" ref="I28:I38" si="1">LOOKUP(G28,mm_value,minimum_Pb)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J28" s="299"/>
+      <c r="J28" s="298"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="293" t="str">
+      <c r="A29" s="292" t="str">
         <f t="shared" ref="A29:A40" si="2">IF(A14="","",A14)</f>
         <v>Wall A (Hall)</v>
       </c>
-      <c r="B29" s="316"/>
-      <c r="C29" s="316"/>
-      <c r="D29" s="303" t="e">
+      <c r="B29" s="315"/>
+      <c r="C29" s="315"/>
+      <c r="D29" s="302" t="e">
         <f t="shared" ref="D29:D40" si="3">B29*$B$10*(C29^2/D14^2)+12/(D14^2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E29" s="304" t="e">
+      <c r="E29" s="303" t="e">
         <f t="shared" ref="E29:E40" si="4">D29*$B$9/1000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F29" s="304" t="e">
+      <c r="F29" s="303" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G29" s="303" t="e">
+      <c r="G29" s="302" t="e">
         <f t="shared" ref="G29:G38" si="5">LN((F29^(-$J$7)+($I$7/$H$7))/(1+($I$7/$H$7)))/($H$7*$J$7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="319"/>
-      <c r="I29" s="305" t="e">
+      <c r="H29" s="318"/>
+      <c r="I29" s="304" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J29" s="299"/>
+      <c r="J29" s="298"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="293" t="str">
+      <c r="A30" s="292" t="str">
         <f t="shared" si="2"/>
         <v>Wall A (Tech)</v>
       </c>
-      <c r="B30" s="316"/>
-      <c r="C30" s="316"/>
-      <c r="D30" s="303" t="e">
+      <c r="B30" s="315"/>
+      <c r="C30" s="315"/>
+      <c r="D30" s="302" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E30" s="304" t="e">
+      <c r="E30" s="303" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F30" s="304" t="e">
+      <c r="F30" s="303" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="303" t="e">
+      <c r="G30" s="302" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="319"/>
-      <c r="I30" s="305" t="e">
+      <c r="H30" s="318"/>
+      <c r="I30" s="304" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J30" s="299"/>
+      <c r="J30" s="298"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="293" t="str">
+      <c r="A31" s="292" t="str">
         <f t="shared" si="2"/>
         <v>Door A</v>
       </c>
-      <c r="B31" s="316"/>
-      <c r="C31" s="316"/>
-      <c r="D31" s="303" t="e">
+      <c r="B31" s="315"/>
+      <c r="C31" s="315"/>
+      <c r="D31" s="302" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="304" t="e">
+      <c r="E31" s="303" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F31" s="304" t="e">
+      <c r="F31" s="303" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="303" t="e">
+      <c r="G31" s="302" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="319"/>
-      <c r="I31" s="305" t="e">
+      <c r="H31" s="318"/>
+      <c r="I31" s="304" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J31" s="299"/>
+      <c r="J31" s="298"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="293" t="str">
+      <c r="A32" s="292" t="str">
         <f t="shared" si="2"/>
         <v>Wall B</v>
       </c>
-      <c r="B32" s="316"/>
-      <c r="C32" s="316"/>
-      <c r="D32" s="303" t="e">
+      <c r="B32" s="315"/>
+      <c r="C32" s="315"/>
+      <c r="D32" s="302" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E32" s="304" t="e">
+      <c r="E32" s="303" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F32" s="304" t="e">
+      <c r="F32" s="303" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="303" t="e">
+      <c r="G32" s="302" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="319"/>
-      <c r="I32" s="305" t="e">
+      <c r="H32" s="318"/>
+      <c r="I32" s="304" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J32" s="299"/>
+      <c r="J32" s="298"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A33" s="293" t="str">
+      <c r="A33" s="292" t="str">
         <f t="shared" si="2"/>
         <v>Wall C</v>
       </c>
-      <c r="B33" s="316"/>
-      <c r="C33" s="316"/>
-      <c r="D33" s="303" t="e">
+      <c r="B33" s="315"/>
+      <c r="C33" s="315"/>
+      <c r="D33" s="302" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E33" s="304" t="e">
+      <c r="E33" s="303" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F33" s="304" t="e">
+      <c r="F33" s="303" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G33" s="303" t="e">
+      <c r="G33" s="302" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="319"/>
-      <c r="I33" s="305" t="e">
+      <c r="H33" s="318"/>
+      <c r="I33" s="304" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J33" s="299"/>
+      <c r="J33" s="298"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A34" s="293" t="str">
+      <c r="A34" s="292" t="str">
         <f t="shared" si="2"/>
         <v>Wall D</v>
       </c>
-      <c r="B34" s="316"/>
-      <c r="C34" s="316"/>
-      <c r="D34" s="303" t="e">
+      <c r="B34" s="315"/>
+      <c r="C34" s="315"/>
+      <c r="D34" s="302" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E34" s="304" t="e">
+      <c r="E34" s="303" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F34" s="304" t="e">
+      <c r="F34" s="303" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G34" s="303" t="e">
+      <c r="G34" s="302" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="319"/>
-      <c r="I34" s="305" t="e">
+      <c r="H34" s="318"/>
+      <c r="I34" s="304" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J34" s="299"/>
+      <c r="J34" s="298"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A35" s="293" t="str">
+      <c r="A35" s="292" t="str">
         <f t="shared" si="2"/>
         <v>Door D</v>
       </c>
-      <c r="B35" s="316"/>
-      <c r="C35" s="316"/>
-      <c r="D35" s="303" t="e">
+      <c r="B35" s="315"/>
+      <c r="C35" s="315"/>
+      <c r="D35" s="302" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E35" s="304" t="e">
+      <c r="E35" s="303" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F35" s="304" t="e">
+      <c r="F35" s="303" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G35" s="303" t="e">
+      <c r="G35" s="302" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="319"/>
-      <c r="I35" s="305" t="e">
+      <c r="H35" s="318"/>
+      <c r="I35" s="304" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J35" s="299"/>
+      <c r="J35" s="298"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A36" s="293" t="str">
+      <c r="A36" s="292" t="str">
         <f t="shared" si="2"/>
         <v>Wall D (CT)</v>
       </c>
-      <c r="B36" s="316"/>
-      <c r="C36" s="316"/>
-      <c r="D36" s="303" t="e">
+      <c r="B36" s="315"/>
+      <c r="C36" s="315"/>
+      <c r="D36" s="302" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E36" s="304" t="e">
+      <c r="E36" s="303" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F36" s="304" t="e">
+      <c r="F36" s="303" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G36" s="303" t="e">
+      <c r="G36" s="302" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="319"/>
-      <c r="I36" s="305" t="e">
+      <c r="H36" s="318"/>
+      <c r="I36" s="304" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J36" s="299"/>
+      <c r="J36" s="298"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A37" s="293" t="str">
+      <c r="A37" s="292" t="str">
         <f t="shared" si="2"/>
         <v>Wall D(CT)</v>
       </c>
-      <c r="B37" s="316"/>
-      <c r="C37" s="316"/>
-      <c r="D37" s="303" t="e">
+      <c r="B37" s="315"/>
+      <c r="C37" s="315"/>
+      <c r="D37" s="302" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E37" s="304" t="e">
+      <c r="E37" s="303" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F37" s="304" t="e">
+      <c r="F37" s="303" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G37" s="303" t="e">
+      <c r="G37" s="302" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="319"/>
-      <c r="I37" s="305" t="e">
+      <c r="H37" s="318"/>
+      <c r="I37" s="304" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J37" s="299"/>
+      <c r="J37" s="298"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A38" s="293" t="str">
+      <c r="A38" s="292" t="str">
         <f t="shared" si="2"/>
         <v>Control</v>
       </c>
-      <c r="B38" s="316"/>
-      <c r="C38" s="316"/>
-      <c r="D38" s="303" t="e">
+      <c r="B38" s="315"/>
+      <c r="C38" s="315"/>
+      <c r="D38" s="302" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="304" t="e">
+      <c r="E38" s="303" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="304" t="e">
+      <c r="F38" s="303" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="303" t="e">
+      <c r="G38" s="302" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="319"/>
-      <c r="I38" s="305" t="e">
+      <c r="H38" s="318"/>
+      <c r="I38" s="304" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J38" s="299"/>
+      <c r="J38" s="298"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A39" s="293" t="str">
+      <c r="A39" s="292" t="str">
         <f t="shared" si="2"/>
         <v>Floor</v>
       </c>
-      <c r="B39" s="316"/>
-      <c r="C39" s="316"/>
-      <c r="D39" s="303" t="e">
+      <c r="B39" s="315"/>
+      <c r="C39" s="315"/>
+      <c r="D39" s="302" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="304" t="e">
+      <c r="E39" s="303" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F39" s="304" t="e">
+      <c r="F39" s="303" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G39" s="319"/>
-      <c r="H39" s="302" t="e">
+      <c r="G39" s="318"/>
+      <c r="H39" s="301" t="e">
         <f>LN((F39^-$J$8+($I$8/$H$8))/(1+($I$8/$H$8)))/($H$8*$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="319"/>
-      <c r="J39" s="299"/>
+      <c r="I39" s="318"/>
+      <c r="J39" s="298"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A40" s="293" t="str">
+      <c r="A40" s="292" t="str">
         <f t="shared" si="2"/>
         <v>Ceiling</v>
       </c>
-      <c r="B40" s="316"/>
-      <c r="C40" s="316"/>
-      <c r="D40" s="303" t="e">
+      <c r="B40" s="315"/>
+      <c r="C40" s="315"/>
+      <c r="D40" s="302" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="304" t="e">
+      <c r="E40" s="303" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F40" s="304" t="e">
+      <c r="F40" s="303" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G40" s="319"/>
-      <c r="H40" s="302" t="e">
+      <c r="G40" s="318"/>
+      <c r="H40" s="301" t="e">
         <f>LN((F40^-$J$8+($I$8/$H$8))/(1+($I$8/$H$8)))/($H$8*$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="319"/>
-      <c r="J40" s="299"/>
+      <c r="I40" s="318"/>
+      <c r="J40" s="298"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="G41" s="298"/>
-      <c r="H41" s="298"/>
-      <c r="J41" s="299"/>
+      <c r="G41" s="297"/>
+      <c r="H41" s="297"/>
+      <c r="J41" s="298"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B42" s="293" t="s">
+      <c r="B42" s="292" t="s">
+        <v>217</v>
+      </c>
+      <c r="C42" s="292" t="s">
+        <v>214</v>
+      </c>
+      <c r="D42" s="297" t="s">
         <v>218</v>
       </c>
-      <c r="C42" s="293" t="s">
+      <c r="E42" s="297" t="s">
         <v>215</v>
       </c>
-      <c r="D42" s="298" t="s">
+      <c r="F42" s="297" t="s">
         <v>219</v>
       </c>
-      <c r="E42" s="298" t="s">
+      <c r="G42" s="297" t="s">
         <v>216</v>
       </c>
-      <c r="F42" s="298" t="s">
-        <v>220</v>
-      </c>
-      <c r="G42" s="298" t="s">
-        <v>217</v>
-      </c>
-      <c r="H42" s="298" t="s">
-        <v>217</v>
+      <c r="H42" s="297" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A43" s="293" t="str">
+      <c r="A43" s="292" t="str">
         <f>IF(A28="","",A28)</f>
         <v>Wall A</v>
       </c>
-      <c r="B43" s="301"/>
-      <c r="C43" s="304" t="e">
+      <c r="B43" s="300"/>
+      <c r="C43" s="303" t="e">
         <f t="shared" ref="C43:C55" si="6">$F$6*$B$9/(D13^2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D43" s="301"/>
-      <c r="E43" s="304" t="e">
+      <c r="D43" s="300"/>
+      <c r="E43" s="303" t="e">
         <f t="shared" ref="E43:E55" si="7">F13/(G13*C43)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F43" s="301"/>
-      <c r="G43" s="303" t="e">
+      <c r="F43" s="300"/>
+      <c r="G43" s="302" t="e">
         <f>LN((E43^(-$J$7)+($I$7/$H$7))/(1+($I$7/$H$7)))/($H$7*$J$7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="303"/>
-      <c r="T43" s="300"/>
+      <c r="H43" s="302"/>
+      <c r="T43" s="299"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A44" s="293" t="str">
+      <c r="A44" s="292" t="str">
         <f t="shared" ref="A44:A55" si="8">IF(A29="","",A29)</f>
         <v>Wall A (Hall)</v>
       </c>
-      <c r="B44" s="301"/>
-      <c r="C44" s="304" t="e">
+      <c r="B44" s="300"/>
+      <c r="C44" s="303" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D44" s="301"/>
-      <c r="E44" s="304" t="e">
+      <c r="D44" s="300"/>
+      <c r="E44" s="303" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F44" s="301"/>
-      <c r="G44" s="303" t="e">
+      <c r="F44" s="300"/>
+      <c r="G44" s="302" t="e">
         <f t="shared" ref="G44:G45" si="9">LN((E44^-$J$7+($I$7/$H$7))/(1+($I$7/$H$7)))/($H$7*$J$7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H44" s="303"/>
-      <c r="T44" s="300"/>
+      <c r="H44" s="302"/>
+      <c r="T44" s="299"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A45" s="293" t="str">
+      <c r="A45" s="292" t="str">
         <f t="shared" si="8"/>
         <v>Wall A (Tech)</v>
       </c>
-      <c r="B45" s="301"/>
-      <c r="C45" s="304" t="e">
+      <c r="B45" s="300"/>
+      <c r="C45" s="303" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D45" s="301"/>
-      <c r="E45" s="304" t="e">
+      <c r="D45" s="300"/>
+      <c r="E45" s="303" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F45" s="301"/>
-      <c r="G45" s="303" t="e">
+      <c r="F45" s="300"/>
+      <c r="G45" s="302" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H45" s="303"/>
-      <c r="T45" s="300"/>
+      <c r="H45" s="302"/>
+      <c r="T45" s="299"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A46" s="293" t="str">
+      <c r="A46" s="292" t="str">
         <f t="shared" si="8"/>
         <v>Door A</v>
       </c>
-      <c r="B46" s="301"/>
-      <c r="C46" s="304" t="e">
+      <c r="B46" s="300"/>
+      <c r="C46" s="303" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D46" s="301"/>
-      <c r="E46" s="304" t="e">
+      <c r="D46" s="300"/>
+      <c r="E46" s="303" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F46" s="301"/>
-      <c r="G46" s="303" t="e">
+      <c r="F46" s="300"/>
+      <c r="G46" s="302" t="e">
         <f>LN((E46^-$J$7+($I$7/$H$7))/(1+($I$7/$H$7)))/($H$7*$J$7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H46" s="303"/>
-      <c r="T46" s="300"/>
+      <c r="H46" s="302"/>
+      <c r="T46" s="299"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A47" s="293" t="str">
+      <c r="A47" s="292" t="str">
         <f t="shared" si="8"/>
         <v>Wall B</v>
       </c>
-      <c r="B47" s="301"/>
-      <c r="C47" s="304" t="e">
+      <c r="B47" s="300"/>
+      <c r="C47" s="303" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D47" s="301"/>
-      <c r="E47" s="304" t="e">
+      <c r="D47" s="300"/>
+      <c r="E47" s="303" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F47" s="301"/>
-      <c r="G47" s="303" t="e">
+      <c r="F47" s="300"/>
+      <c r="G47" s="302" t="e">
         <f>LN((E47^-$J$7+($I$7/$H$7))/(1+($I$7/$H$7)))/($H$7*$J$7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H47" s="303"/>
-      <c r="T47" s="300"/>
+      <c r="H47" s="302"/>
+      <c r="T47" s="299"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A48" s="293" t="str">
+      <c r="A48" s="292" t="str">
         <f t="shared" si="8"/>
         <v>Wall C</v>
       </c>
-      <c r="B48" s="301"/>
-      <c r="C48" s="304" t="e">
+      <c r="B48" s="300"/>
+      <c r="C48" s="303" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="301"/>
-      <c r="E48" s="304" t="e">
+      <c r="D48" s="300"/>
+      <c r="E48" s="303" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F48" s="301"/>
-      <c r="G48" s="303" t="e">
+      <c r="F48" s="300"/>
+      <c r="G48" s="302" t="e">
         <f>LN((E48^-$J$7+($I$7/$H$7))/(1+($I$7/$H$7)))/($H$7*$J$7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H48" s="303"/>
-      <c r="T48" s="300"/>
+      <c r="H48" s="302"/>
+      <c r="T48" s="299"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A49" s="293" t="str">
+      <c r="A49" s="292" t="str">
         <f t="shared" si="8"/>
         <v>Wall D</v>
       </c>
-      <c r="B49" s="301"/>
-      <c r="C49" s="304" t="e">
+      <c r="B49" s="300"/>
+      <c r="C49" s="303" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D49" s="301"/>
-      <c r="E49" s="304" t="e">
+      <c r="D49" s="300"/>
+      <c r="E49" s="303" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F49" s="301"/>
-      <c r="G49" s="303" t="e">
+      <c r="F49" s="300"/>
+      <c r="G49" s="302" t="e">
         <f t="shared" ref="G49:G52" si="10">LN((E49^-$J$7+($I$7/$H$7))/(1+($I$7/$H$7)))/($H$7*$J$7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H49" s="303"/>
-      <c r="T49" s="300"/>
+      <c r="H49" s="302"/>
+      <c r="T49" s="299"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A50" s="293" t="str">
+      <c r="A50" s="292" t="str">
         <f t="shared" si="8"/>
         <v>Door D</v>
       </c>
-      <c r="B50" s="301"/>
-      <c r="C50" s="304" t="e">
+      <c r="B50" s="300"/>
+      <c r="C50" s="303" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D50" s="301"/>
-      <c r="E50" s="304" t="e">
+      <c r="D50" s="300"/>
+      <c r="E50" s="303" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F50" s="301"/>
-      <c r="G50" s="303" t="e">
+      <c r="F50" s="300"/>
+      <c r="G50" s="302" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H50" s="303"/>
-      <c r="T50" s="300"/>
+      <c r="H50" s="302"/>
+      <c r="T50" s="299"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A51" s="293" t="str">
+      <c r="A51" s="292" t="str">
         <f t="shared" si="8"/>
         <v>Wall D (CT)</v>
       </c>
-      <c r="B51" s="301"/>
-      <c r="C51" s="304" t="e">
+      <c r="B51" s="300"/>
+      <c r="C51" s="303" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D51" s="301"/>
-      <c r="E51" s="304" t="e">
+      <c r="D51" s="300"/>
+      <c r="E51" s="303" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F51" s="301"/>
-      <c r="G51" s="303" t="e">
+      <c r="F51" s="300"/>
+      <c r="G51" s="302" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H51" s="303"/>
-      <c r="T51" s="300"/>
+      <c r="H51" s="302"/>
+      <c r="T51" s="299"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A52" s="293" t="str">
+      <c r="A52" s="292" t="str">
         <f t="shared" si="8"/>
         <v>Wall D(CT)</v>
       </c>
-      <c r="B52" s="301"/>
-      <c r="C52" s="304" t="e">
+      <c r="B52" s="300"/>
+      <c r="C52" s="303" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D52" s="301"/>
-      <c r="E52" s="304" t="e">
+      <c r="D52" s="300"/>
+      <c r="E52" s="303" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F52" s="301"/>
-      <c r="G52" s="303" t="e">
+      <c r="F52" s="300"/>
+      <c r="G52" s="302" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H52" s="303"/>
-      <c r="T52" s="300"/>
+      <c r="H52" s="302"/>
+      <c r="T52" s="299"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A53" s="293" t="str">
+      <c r="A53" s="292" t="str">
         <f t="shared" si="8"/>
         <v>Control</v>
       </c>
-      <c r="B53" s="301"/>
-      <c r="C53" s="304" t="e">
+      <c r="B53" s="300"/>
+      <c r="C53" s="303" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="301"/>
-      <c r="E53" s="304" t="e">
+      <c r="D53" s="300"/>
+      <c r="E53" s="303" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F53" s="301"/>
-      <c r="G53" s="303" t="e">
+      <c r="F53" s="300"/>
+      <c r="G53" s="302" t="e">
         <f>LN((E53^-$J$7+($I$7/$H$7))/(1+($I$7/$H$7)))/($H$7*$J$7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H53" s="303"/>
-      <c r="T53" s="300"/>
+      <c r="H53" s="302"/>
+      <c r="T53" s="299"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A54" s="293" t="str">
+      <c r="A54" s="292" t="str">
         <f t="shared" si="8"/>
         <v>Floor</v>
       </c>
-      <c r="B54" s="301"/>
-      <c r="C54" s="304" t="e">
+      <c r="B54" s="300"/>
+      <c r="C54" s="303" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D54" s="301"/>
-      <c r="E54" s="304" t="e">
+      <c r="D54" s="300"/>
+      <c r="E54" s="303" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F54" s="301"/>
-      <c r="G54" s="301"/>
-      <c r="H54" s="302" t="e">
+      <c r="F54" s="300"/>
+      <c r="G54" s="300"/>
+      <c r="H54" s="301" t="e">
         <f>LN((E54^-$J$8+($I$8/$H$8))/(1+($I$8/$H$8)))/($H$8*$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J54" s="297"/>
-      <c r="T54" s="300"/>
+      <c r="J54" s="296"/>
+      <c r="T54" s="299"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A55" s="293" t="str">
+      <c r="A55" s="292" t="str">
         <f t="shared" si="8"/>
         <v>Ceiling</v>
       </c>
-      <c r="B55" s="301"/>
-      <c r="C55" s="304" t="e">
+      <c r="B55" s="300"/>
+      <c r="C55" s="303" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D55" s="301"/>
-      <c r="E55" s="304" t="e">
+      <c r="D55" s="300"/>
+      <c r="E55" s="303" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F55" s="301"/>
-      <c r="G55" s="301"/>
-      <c r="H55" s="302" t="e">
+      <c r="F55" s="300"/>
+      <c r="G55" s="300"/>
+      <c r="H55" s="301" t="e">
         <f>LN((E55^-$J$8+($I$8/$H$8))/(1+($I$8/$H$8)))/($H$8*$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J55" s="297"/>
-      <c r="T55" s="300"/>
+      <c r="J55" s="296"/>
+      <c r="T55" s="299"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -21499,8 +21933,8 @@
   </sheetPr>
   <dimension ref="A1:V71"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30:K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21528,18 +21962,18 @@
       <c r="B1" s="209"/>
       <c r="C1" s="209"/>
       <c r="D1" s="209"/>
-      <c r="J1" s="266" t="s">
+      <c r="J1" s="265" t="s">
         <v>141</v>
       </c>
-      <c r="K1" s="265"/>
-      <c r="L1" s="265"/>
-      <c r="M1" s="265"/>
-      <c r="N1" s="265"/>
-      <c r="O1" s="265"/>
-      <c r="P1" s="265"/>
-      <c r="Q1" s="265"/>
-      <c r="R1" s="265"/>
-      <c r="S1" s="264"/>
+      <c r="K1" s="264"/>
+      <c r="L1" s="264"/>
+      <c r="M1" s="264"/>
+      <c r="N1" s="264"/>
+      <c r="O1" s="264"/>
+      <c r="P1" s="264"/>
+      <c r="Q1" s="264"/>
+      <c r="R1" s="264"/>
+      <c r="S1" s="263"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="211" t="s">
@@ -21548,8 +21982,8 @@
       <c r="B2" s="209"/>
       <c r="C2" s="209"/>
       <c r="D2" s="209"/>
-      <c r="J2" s="278" t="s">
-        <v>142</v>
+      <c r="J2" s="277" t="s">
+        <v>313</v>
       </c>
       <c r="K2" s="216"/>
       <c r="L2" s="216"/>
@@ -21559,7 +21993,7 @@
       <c r="P2" s="216"/>
       <c r="Q2" s="216"/>
       <c r="R2" s="216"/>
-      <c r="S2" s="276"/>
+      <c r="S2" s="275"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="209" t="s">
@@ -21568,8 +22002,8 @@
       <c r="B3" s="209"/>
       <c r="C3" s="209"/>
       <c r="D3" s="209"/>
-      <c r="J3" s="278" t="s">
-        <v>143</v>
+      <c r="J3" s="277" t="s">
+        <v>142</v>
       </c>
       <c r="K3" s="216"/>
       <c r="L3" s="216"/>
@@ -21579,11 +22013,11 @@
       <c r="P3" s="216"/>
       <c r="Q3" s="216"/>
       <c r="R3" s="216"/>
-      <c r="S3" s="276"/>
+      <c r="S3" s="275"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="J4" s="278" t="s">
-        <v>144</v>
+      <c r="J4" s="277" t="s">
+        <v>143</v>
       </c>
       <c r="K4" s="216"/>
       <c r="L4" s="216"/>
@@ -21593,11 +22027,11 @@
       <c r="P4" s="216"/>
       <c r="Q4" s="216"/>
       <c r="R4" s="216"/>
-      <c r="S4" s="276"/>
+      <c r="S4" s="275"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="J5" s="281" t="s">
-        <v>179</v>
+      <c r="J5" s="280" t="s">
+        <v>178</v>
       </c>
       <c r="K5" s="216"/>
       <c r="L5" s="216"/>
@@ -21607,14 +22041,14 @@
       <c r="P5" s="216"/>
       <c r="Q5" s="216"/>
       <c r="R5" s="216"/>
-      <c r="S5" s="276"/>
+      <c r="S5" s="275"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="209" t="s">
         <v>130</v>
       </c>
-      <c r="J6" s="281" t="s">
-        <v>178</v>
+      <c r="J6" s="280" t="s">
+        <v>177</v>
       </c>
       <c r="K6" s="216"/>
       <c r="L6" s="216"/>
@@ -21624,10 +22058,10 @@
       <c r="P6" s="216"/>
       <c r="Q6" s="216"/>
       <c r="R6" s="216"/>
-      <c r="S6" s="276"/>
+      <c r="S6" s="275"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="J7" s="278"/>
+      <c r="J7" s="277"/>
       <c r="K7" s="216"/>
       <c r="L7" s="216"/>
       <c r="M7" s="216"/>
@@ -21636,19 +22070,19 @@
       <c r="P7" s="216"/>
       <c r="Q7" s="216"/>
       <c r="R7" s="216"/>
-      <c r="S7" s="276"/>
+      <c r="S7" s="275"/>
     </row>
     <row r="8" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J8" s="275"/>
-      <c r="K8" s="274"/>
-      <c r="L8" s="274"/>
-      <c r="M8" s="274"/>
-      <c r="N8" s="274"/>
-      <c r="O8" s="274"/>
-      <c r="P8" s="274"/>
-      <c r="Q8" s="274"/>
-      <c r="R8" s="274"/>
-      <c r="S8" s="271"/>
+      <c r="J8" s="274"/>
+      <c r="K8" s="273"/>
+      <c r="L8" s="273"/>
+      <c r="M8" s="273"/>
+      <c r="N8" s="273"/>
+      <c r="O8" s="273"/>
+      <c r="P8" s="273"/>
+      <c r="Q8" s="273"/>
+      <c r="R8" s="273"/>
+      <c r="S8" s="270"/>
     </row>
     <row r="9" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="209" t="s">
@@ -21656,22 +22090,22 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="J10" s="266" t="s">
+      <c r="J10" s="265" t="s">
+        <v>144</v>
+      </c>
+      <c r="K10" s="264"/>
+      <c r="L10" s="264"/>
+      <c r="M10" s="264"/>
+      <c r="N10" s="264"/>
+      <c r="O10" s="264"/>
+      <c r="P10" s="264"/>
+      <c r="Q10" s="264"/>
+      <c r="R10" s="264"/>
+      <c r="S10" s="263"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="J11" s="277" t="s">
         <v>145</v>
-      </c>
-      <c r="K10" s="265"/>
-      <c r="L10" s="265"/>
-      <c r="M10" s="265"/>
-      <c r="N10" s="265"/>
-      <c r="O10" s="265"/>
-      <c r="P10" s="265"/>
-      <c r="Q10" s="265"/>
-      <c r="R10" s="265"/>
-      <c r="S10" s="264"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="J11" s="278" t="s">
-        <v>146</v>
       </c>
       <c r="K11" s="216"/>
       <c r="L11" s="216"/>
@@ -21681,11 +22115,11 @@
       <c r="P11" s="216"/>
       <c r="Q11" s="216"/>
       <c r="R11" s="216"/>
-      <c r="S11" s="276"/>
+      <c r="S11" s="275"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="J12" s="278" t="s">
-        <v>147</v>
+      <c r="J12" s="277" t="s">
+        <v>146</v>
       </c>
       <c r="K12" s="216"/>
       <c r="L12" s="216"/>
@@ -21695,7 +22129,7 @@
       <c r="P12" s="216"/>
       <c r="Q12" s="216"/>
       <c r="R12" s="216"/>
-      <c r="S12" s="276"/>
+      <c r="S12" s="275"/>
     </row>
     <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="212" t="s">
@@ -21705,7 +22139,7 @@
         <v>133</v>
       </c>
       <c r="C13" s="214"/>
-      <c r="J13" s="278"/>
+      <c r="J13" s="277"/>
       <c r="K13" s="216"/>
       <c r="L13" s="216"/>
       <c r="M13" s="216"/>
@@ -21714,14 +22148,14 @@
       <c r="P13" s="216"/>
       <c r="Q13" s="216"/>
       <c r="R13" s="216"/>
-      <c r="S13" s="276"/>
+      <c r="S13" s="275"/>
     </row>
     <row r="14" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="280"/>
+      <c r="A14" s="279"/>
       <c r="B14" s="217"/>
       <c r="C14" s="218"/>
-      <c r="J14" s="278" t="s">
-        <v>148</v>
+      <c r="J14" s="277" t="s">
+        <v>147</v>
       </c>
       <c r="K14" s="216"/>
       <c r="L14" s="216"/>
@@ -21731,14 +22165,14 @@
       <c r="P14" s="216"/>
       <c r="Q14" s="216"/>
       <c r="R14" s="216"/>
-      <c r="S14" s="276"/>
+      <c r="S14" s="275"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="280"/>
+      <c r="A15" s="279"/>
       <c r="B15" s="217"/>
       <c r="C15" s="218"/>
-      <c r="J15" s="278" t="s">
-        <v>149</v>
+      <c r="J15" s="277" t="s">
+        <v>148</v>
       </c>
       <c r="K15" s="216"/>
       <c r="L15" s="216"/>
@@ -21748,24 +22182,24 @@
       <c r="P15" s="216"/>
       <c r="Q15" s="216"/>
       <c r="R15" s="216"/>
-      <c r="S15" s="276"/>
+      <c r="S15" s="275"/>
     </row>
     <row r="16" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="219"/>
       <c r="B16" s="221"/>
       <c r="C16" s="222"/>
-      <c r="J16" s="275" t="s">
-        <v>150</v>
-      </c>
-      <c r="K16" s="274"/>
-      <c r="L16" s="274"/>
-      <c r="M16" s="274"/>
-      <c r="N16" s="274"/>
-      <c r="O16" s="274"/>
-      <c r="P16" s="274"/>
-      <c r="Q16" s="274"/>
-      <c r="R16" s="274"/>
-      <c r="S16" s="271"/>
+      <c r="J16" s="274" t="s">
+        <v>149</v>
+      </c>
+      <c r="K16" s="273"/>
+      <c r="L16" s="273"/>
+      <c r="M16" s="273"/>
+      <c r="N16" s="273"/>
+      <c r="O16" s="273"/>
+      <c r="P16" s="273"/>
+      <c r="Q16" s="273"/>
+      <c r="R16" s="273"/>
+      <c r="S16" s="270"/>
     </row>
     <row r="17" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
@@ -21780,31 +22214,31 @@
       <c r="G18" s="215"/>
       <c r="H18" s="216"/>
       <c r="I18" s="216"/>
-      <c r="J18" s="266" t="s">
-        <v>151</v>
-      </c>
-      <c r="K18" s="265"/>
-      <c r="L18" s="265"/>
-      <c r="M18" s="265"/>
-      <c r="N18" s="264"/>
-      <c r="P18" s="279"/>
-      <c r="Q18" s="324" t="s">
-        <v>174</v>
-      </c>
-      <c r="R18" s="324"/>
-      <c r="S18" s="324"/>
-      <c r="T18" s="324"/>
-      <c r="U18" s="324"/>
-      <c r="V18" s="325"/>
+      <c r="J18" s="265" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" s="264"/>
+      <c r="L18" s="264"/>
+      <c r="M18" s="264"/>
+      <c r="N18" s="263"/>
+      <c r="P18" s="278"/>
+      <c r="Q18" s="327" t="s">
+        <v>173</v>
+      </c>
+      <c r="R18" s="327"/>
+      <c r="S18" s="327"/>
+      <c r="T18" s="327"/>
+      <c r="U18" s="327"/>
+      <c r="V18" s="328"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="215"/>
-      <c r="B19" s="269" t="s">
+      <c r="B19" s="268" t="s">
         <v>135</v>
       </c>
       <c r="C19" s="39"/>
       <c r="D19" s="216"/>
-      <c r="E19" s="269" t="s">
+      <c r="E19" s="268" t="s">
         <v>138</v>
       </c>
       <c r="F19" s="235">
@@ -21814,37 +22248,37 @@
       <c r="G19" s="215"/>
       <c r="H19" s="216"/>
       <c r="I19" s="216"/>
-      <c r="J19" s="278" t="s">
-        <v>152</v>
+      <c r="J19" s="277" t="s">
+        <v>151</v>
       </c>
       <c r="K19" s="216"/>
-      <c r="L19" s="261">
+      <c r="L19" s="260">
         <v>5</v>
       </c>
-      <c r="M19" s="277" t="s">
-        <v>177</v>
-      </c>
-      <c r="N19" s="276"/>
+      <c r="M19" s="276" t="s">
+        <v>176</v>
+      </c>
+      <c r="N19" s="275"/>
       <c r="P19" s="215"/>
-      <c r="Q19" s="326" t="s">
-        <v>173</v>
-      </c>
-      <c r="R19" s="326"/>
-      <c r="S19" s="326"/>
-      <c r="T19" s="327" t="s">
+      <c r="Q19" s="329" t="s">
+        <v>172</v>
+      </c>
+      <c r="R19" s="329"/>
+      <c r="S19" s="329"/>
+      <c r="T19" s="330" t="s">
         <v>95</v>
       </c>
-      <c r="U19" s="327"/>
-      <c r="V19" s="328"/>
+      <c r="U19" s="330"/>
+      <c r="V19" s="331"/>
     </row>
     <row r="20" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="215"/>
-      <c r="B20" s="269" t="s">
+      <c r="B20" s="268" t="s">
         <v>136</v>
       </c>
       <c r="C20" s="39"/>
       <c r="D20" s="216"/>
-      <c r="E20" s="270" t="s">
+      <c r="E20" s="269" t="s">
         <v>139</v>
       </c>
       <c r="F20" s="235">
@@ -21854,17 +22288,17 @@
       <c r="G20" s="215"/>
       <c r="H20" s="216"/>
       <c r="I20" s="216"/>
-      <c r="J20" s="275" t="s">
-        <v>153</v>
-      </c>
-      <c r="K20" s="274"/>
-      <c r="L20" s="273">
+      <c r="J20" s="274" t="s">
+        <v>152</v>
+      </c>
+      <c r="K20" s="273"/>
+      <c r="L20" s="272">
         <v>1</v>
       </c>
-      <c r="M20" s="272" t="s">
-        <v>177</v>
-      </c>
-      <c r="N20" s="271"/>
+      <c r="M20" s="271" t="s">
+        <v>176</v>
+      </c>
+      <c r="N20" s="270"/>
       <c r="P20" s="29" t="s">
         <v>37</v>
       </c>
@@ -21874,7 +22308,7 @@
       <c r="R20" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="S20" s="251" t="s">
+      <c r="S20" s="250" t="s">
         <v>42</v>
       </c>
       <c r="T20" s="15" t="s">
@@ -21883,18 +22317,18 @@
       <c r="U20" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="V20" s="251" t="s">
+      <c r="V20" s="250" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="215"/>
-      <c r="B21" s="268" t="s">
-        <v>176</v>
+      <c r="B21" s="267" t="s">
+        <v>175</v>
       </c>
       <c r="C21" s="39"/>
       <c r="D21" s="216"/>
-      <c r="E21" s="270" t="s">
+      <c r="E21" s="269" t="s">
         <v>140</v>
       </c>
       <c r="F21" s="235">
@@ -21904,74 +22338,74 @@
       <c r="G21" s="215"/>
       <c r="H21" s="216"/>
       <c r="I21" s="216"/>
-      <c r="P21" s="248">
+      <c r="P21" s="247">
         <v>120</v>
       </c>
-      <c r="Q21" s="248">
+      <c r="Q21" s="247">
         <v>2.246</v>
       </c>
-      <c r="R21" s="248">
+      <c r="R21" s="247">
         <v>5.73</v>
       </c>
-      <c r="S21" s="248">
+      <c r="S21" s="247">
         <v>0.54700000000000004</v>
       </c>
-      <c r="T21" s="258">
+      <c r="T21" s="257">
         <v>3.8300000000000001E-2</v>
       </c>
-      <c r="U21" s="248">
+      <c r="U21" s="247">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="V21" s="248">
+      <c r="V21" s="247">
         <v>0.65800000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="215"/>
-      <c r="B22" s="269" t="s">
+      <c r="B22" s="268" t="s">
         <v>137</v>
       </c>
       <c r="C22" s="39"/>
       <c r="D22" s="216"/>
-      <c r="E22" s="268" t="s">
-        <v>175</v>
-      </c>
-      <c r="F22" s="267">
+      <c r="E22" s="267" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22" s="266">
         <f>+F19*C22/60</f>
         <v>0</v>
       </c>
       <c r="G22" s="215"/>
       <c r="H22" s="216"/>
       <c r="I22" s="216"/>
-      <c r="J22" s="266" t="s">
-        <v>154</v>
-      </c>
-      <c r="K22" s="265"/>
-      <c r="L22" s="264"/>
-      <c r="P22" s="248">
+      <c r="J22" s="265" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="264"/>
+      <c r="L22" s="263"/>
+      <c r="P22" s="247">
         <v>130</v>
       </c>
-      <c r="Q22" s="262">
+      <c r="Q22" s="261">
         <f>AVERAGE(Q21,Q23)</f>
         <v>2.1274999999999999</v>
       </c>
-      <c r="R22" s="248">
+      <c r="R22" s="247">
         <f t="shared" ref="R22:S22" si="0">AVERAGE(R21,R23)</f>
         <v>4.8600000000000003</v>
       </c>
-      <c r="S22" s="262">
+      <c r="S22" s="261">
         <f t="shared" si="0"/>
         <v>0.44450000000000001</v>
       </c>
-      <c r="T22" s="263">
+      <c r="T22" s="262">
         <f>AVERAGE(T21,T23)</f>
         <v>3.5949999999999996E-2</v>
       </c>
-      <c r="U22" s="248">
+      <c r="U22" s="247">
         <f t="shared" ref="U22:V22" si="1">AVERAGE(U21,U23)</f>
         <v>1.32E-2</v>
       </c>
-      <c r="V22" s="262">
+      <c r="V22" s="261">
         <f t="shared" si="1"/>
         <v>0.58850000000000002</v>
       </c>
@@ -21988,62 +22422,62 @@
       <c r="G23" s="215"/>
       <c r="H23" s="216"/>
       <c r="I23" s="216"/>
-      <c r="J23" s="260" t="s">
-        <v>155</v>
+      <c r="J23" s="259" t="s">
+        <v>154</v>
       </c>
       <c r="K23" s="226"/>
-      <c r="L23" s="259">
+      <c r="L23" s="258">
         <v>0.27</v>
       </c>
       <c r="M23" s="216"/>
       <c r="N23" s="216"/>
       <c r="O23" s="216"/>
-      <c r="P23" s="248">
+      <c r="P23" s="247">
         <v>140</v>
       </c>
-      <c r="Q23" s="248">
+      <c r="Q23" s="247">
         <v>2.0089999999999999</v>
       </c>
-      <c r="R23" s="248">
+      <c r="R23" s="247">
         <v>3.99</v>
       </c>
-      <c r="S23" s="248">
+      <c r="S23" s="247">
         <v>0.34200000000000003</v>
       </c>
-      <c r="T23" s="258">
+      <c r="T23" s="257">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="U23" s="248">
+      <c r="U23" s="247">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="V23" s="248">
+      <c r="V23" s="247">
         <v>0.51900000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J24" s="257" t="s">
-        <v>156</v>
-      </c>
-      <c r="K24" s="256"/>
-      <c r="L24" s="255">
+      <c r="J24" s="256" t="s">
+        <v>155</v>
+      </c>
+      <c r="K24" s="255"/>
+      <c r="L24" s="254">
         <v>0.79730000000000001</v>
       </c>
       <c r="M24" s="216"/>
       <c r="N24" s="216"/>
       <c r="O24" s="216"/>
-      <c r="P24" s="254"/>
-      <c r="Q24" s="324" t="s">
-        <v>174</v>
-      </c>
-      <c r="R24" s="324"/>
-      <c r="S24" s="324"/>
-      <c r="T24" s="324"/>
-      <c r="U24" s="324"/>
-      <c r="V24" s="325"/>
+      <c r="P24" s="253"/>
+      <c r="Q24" s="327" t="s">
+        <v>173</v>
+      </c>
+      <c r="R24" s="327"/>
+      <c r="S24" s="327"/>
+      <c r="T24" s="327"/>
+      <c r="U24" s="327"/>
+      <c r="V24" s="328"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="223" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B25" s="227"/>
       <c r="C25" s="227"/>
@@ -22058,28 +22492,28 @@
       <c r="O25" s="216"/>
       <c r="P25" s="215"/>
       <c r="Q25" s="242" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R25" s="242"/>
       <c r="S25" s="242"/>
-      <c r="T25" s="253" t="s">
+      <c r="T25" s="252" t="s">
         <v>95</v>
       </c>
-      <c r="U25" s="253"/>
-      <c r="V25" s="252"/>
+      <c r="U25" s="252"/>
+      <c r="V25" s="251"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A26" s="282"/>
-      <c r="B26" s="250"/>
-      <c r="C26" s="250"/>
-      <c r="D26" s="250"/>
-      <c r="E26" s="250" t="s">
+      <c r="A26" s="281"/>
+      <c r="B26" s="249"/>
+      <c r="C26" s="249"/>
+      <c r="D26" s="249"/>
+      <c r="E26" s="249" t="s">
+        <v>157</v>
+      </c>
+      <c r="F26" s="249"/>
+      <c r="G26" s="249"/>
+      <c r="H26" s="248" t="s">
         <v>158</v>
-      </c>
-      <c r="F26" s="250"/>
-      <c r="G26" s="250"/>
-      <c r="H26" s="249" t="s">
-        <v>159</v>
       </c>
       <c r="L26" s="210" t="s">
         <v>113</v>
@@ -22087,126 +22521,126 @@
       <c r="P26" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="Q26" s="251" t="s">
+      <c r="Q26" s="250" t="s">
         <v>40</v>
       </c>
-      <c r="R26" s="251" t="s">
+      <c r="R26" s="250" t="s">
         <v>41</v>
       </c>
-      <c r="S26" s="251" t="s">
+      <c r="S26" s="250" t="s">
         <v>42</v>
       </c>
-      <c r="T26" s="251" t="s">
+      <c r="T26" s="250" t="s">
         <v>40</v>
       </c>
-      <c r="U26" s="251" t="s">
+      <c r="U26" s="250" t="s">
         <v>41</v>
       </c>
-      <c r="V26" s="251" t="s">
+      <c r="V26" s="250" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="282"/>
-      <c r="B27" s="250" t="s">
+      <c r="A27" s="281"/>
+      <c r="B27" s="249" t="s">
         <v>112</v>
       </c>
       <c r="C27" s="235"/>
-      <c r="D27" s="250"/>
-      <c r="E27" s="250" t="s">
+      <c r="D27" s="249"/>
+      <c r="E27" s="249" t="s">
+        <v>159</v>
+      </c>
+      <c r="F27" s="249" t="s">
         <v>160</v>
       </c>
-      <c r="F27" s="250" t="s">
+      <c r="G27" s="249" t="s">
+        <v>160</v>
+      </c>
+      <c r="H27" s="248" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" s="332" t="s">
+        <v>162</v>
+      </c>
+      <c r="K27" s="210" t="s">
+        <v>157</v>
+      </c>
+      <c r="L27" s="210" t="s">
         <v>161</v>
       </c>
-      <c r="G27" s="250" t="s">
-        <v>161</v>
-      </c>
-      <c r="H27" s="249" t="s">
-        <v>48</v>
-      </c>
-      <c r="J27" s="329" t="s">
-        <v>163</v>
-      </c>
-      <c r="K27" s="210" t="s">
-        <v>158</v>
-      </c>
-      <c r="L27" s="210" t="s">
-        <v>162</v>
-      </c>
-      <c r="P27" s="248">
+      <c r="P27" s="247">
         <f>C23</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="248" t="str">
+      <c r="Q27" s="247" t="str">
         <f>IF($C$23="","",VLOOKUP($C$23,$P$21:$S$23,2))</f>
         <v/>
       </c>
-      <c r="R27" s="248" t="str">
+      <c r="R27" s="247" t="str">
         <f>IF($C$23="","",VLOOKUP($C$23,$P$21:$S$23,3))</f>
         <v/>
       </c>
-      <c r="S27" s="248" t="str">
+      <c r="S27" s="247" t="str">
         <f>IF($C$23="","",VLOOKUP($C$23,$P$21:$S$23,4))</f>
         <v/>
       </c>
-      <c r="T27" s="248" t="str">
+      <c r="T27" s="247" t="str">
         <f>IF($C$23="","",VLOOKUP($C$23,$P$21:$V$23,5))</f>
         <v/>
       </c>
-      <c r="U27" s="248" t="str">
+      <c r="U27" s="247" t="str">
         <f>IF($C$23="","",VLOOKUP($C$23,$P$21:$V$23,6))</f>
         <v/>
       </c>
-      <c r="V27" s="248" t="str">
+      <c r="V27" s="247" t="str">
         <f>IF($C$23="","",VLOOKUP($C$23,$P$21:$V$23,7))</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="283" t="s">
+      <c r="A28" s="282" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" s="246" t="s">
         <v>164</v>
       </c>
-      <c r="B28" s="247" t="s">
+      <c r="C28" s="246" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="246" t="s">
         <v>165</v>
       </c>
-      <c r="C28" s="247" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="247" t="s">
+      <c r="E28" s="246" t="s">
         <v>166</v>
       </c>
-      <c r="E28" s="247" t="s">
+      <c r="F28" s="246" t="s">
+        <v>182</v>
+      </c>
+      <c r="G28" s="246" t="s">
         <v>167</v>
       </c>
-      <c r="F28" s="247" t="s">
+      <c r="H28" s="245" t="s">
+        <v>122</v>
+      </c>
+      <c r="J28" s="332"/>
+      <c r="K28" s="210" t="s">
         <v>183</v>
       </c>
-      <c r="G28" s="247" t="s">
-        <v>168</v>
-      </c>
-      <c r="H28" s="246" t="s">
-        <v>122</v>
-      </c>
-      <c r="J28" s="329"/>
-      <c r="K28" s="210" t="s">
-        <v>184</v>
-      </c>
       <c r="L28" s="210" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M28" s="236" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O28" s="236" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P28" s="236" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A29" s="284"/>
+      <c r="A29" s="283"/>
       <c r="B29" s="207"/>
       <c r="C29" s="207"/>
       <c r="D29" s="207"/>
@@ -22224,7 +22658,7 @@
         <f t="shared" ref="J29:J43" si="4">+(G29/B29)^2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29" s="245" t="e">
+      <c r="K29" s="244" t="e">
         <f>+J29*(F29/1000)</f>
         <v>#DIV/0!</v>
       </c>
@@ -22250,7 +22684,7 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A30" s="284"/>
+      <c r="A30" s="283"/>
       <c r="B30" s="207"/>
       <c r="C30" s="207"/>
       <c r="D30" s="207"/>
@@ -22294,7 +22728,7 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A31" s="284"/>
+      <c r="A31" s="283"/>
       <c r="B31" s="207"/>
       <c r="C31" s="207"/>
       <c r="D31" s="207"/>
@@ -22338,7 +22772,7 @@
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A32" s="284"/>
+      <c r="A32" s="283"/>
       <c r="B32" s="207"/>
       <c r="C32" s="207"/>
       <c r="D32" s="207"/>
@@ -22382,7 +22816,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="284"/>
+      <c r="A33" s="283"/>
       <c r="B33" s="207"/>
       <c r="C33" s="207"/>
       <c r="D33" s="207"/>
@@ -22426,7 +22860,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="284"/>
+      <c r="A34" s="283"/>
       <c r="B34" s="207"/>
       <c r="C34" s="207"/>
       <c r="D34" s="207"/>
@@ -22470,7 +22904,7 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="284"/>
+      <c r="A35" s="283"/>
       <c r="B35" s="207"/>
       <c r="C35" s="207"/>
       <c r="D35" s="207"/>
@@ -22514,7 +22948,7 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="284"/>
+      <c r="A36" s="283"/>
       <c r="B36" s="207"/>
       <c r="C36" s="207"/>
       <c r="D36" s="207"/>
@@ -22558,7 +22992,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="284"/>
+      <c r="A37" s="283"/>
       <c r="B37" s="207"/>
       <c r="C37" s="207"/>
       <c r="D37" s="207"/>
@@ -22602,7 +23036,7 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="284"/>
+      <c r="A38" s="283"/>
       <c r="B38" s="207"/>
       <c r="C38" s="207"/>
       <c r="D38" s="207"/>
@@ -22620,7 +23054,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="235" t="e">
+      <c r="K38" s="244" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -22646,7 +23080,7 @@
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="284"/>
+      <c r="A39" s="283"/>
       <c r="B39" s="207"/>
       <c r="C39" s="207"/>
       <c r="D39" s="207"/>
@@ -22664,7 +23098,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K39" s="235" t="e">
+      <c r="K39" s="244" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -22690,7 +23124,7 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="284"/>
+      <c r="A40" s="283"/>
       <c r="B40" s="207"/>
       <c r="C40" s="207"/>
       <c r="D40" s="207"/>
@@ -22708,7 +23142,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K40" s="235" t="e">
+      <c r="K40" s="244" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -22734,7 +23168,7 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="284"/>
+      <c r="A41" s="283"/>
       <c r="B41" s="207"/>
       <c r="C41" s="207"/>
       <c r="D41" s="207"/>
@@ -22752,7 +23186,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K41" s="235" t="e">
+      <c r="K41" s="244" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -22778,7 +23212,7 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="284"/>
+      <c r="A42" s="283"/>
       <c r="B42" s="207"/>
       <c r="C42" s="207"/>
       <c r="D42" s="207"/>
@@ -22796,7 +23230,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K42" s="235" t="e">
+      <c r="K42" s="244" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -22822,7 +23256,7 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="284"/>
+      <c r="A43" s="283"/>
       <c r="B43" s="207"/>
       <c r="C43" s="207"/>
       <c r="D43" s="207"/>
@@ -22840,7 +23274,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K43" s="235" t="e">
+      <c r="K43" s="244" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -22866,16 +23300,16 @@
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="285"/>
-      <c r="B44" s="286"/>
-      <c r="C44" s="286"/>
-      <c r="D44" s="286"/>
+      <c r="A44" s="284"/>
+      <c r="B44" s="285"/>
+      <c r="C44" s="285"/>
+      <c r="D44" s="285"/>
       <c r="E44" s="239" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F44" s="286"/>
-      <c r="G44" s="286"/>
+      <c r="F44" s="285"/>
+      <c r="G44" s="285"/>
       <c r="H44" s="238" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
@@ -22884,7 +23318,7 @@
         <f>+(G44/C44)^2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K44" s="235" t="e">
+      <c r="K44" s="244" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -22964,7 +23398,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="210" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J50" s="233"/>
       <c r="K50" s="235"/>
@@ -23383,13 +23817,13 @@
         <v>117</v>
       </c>
       <c r="F15" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G15" s="145" t="s">
+        <v>179</v>
+      </c>
+      <c r="H15" s="145" t="s">
         <v>180</v>
-      </c>
-      <c r="H15" s="145" t="s">
-        <v>181</v>
       </c>
       <c r="L15" s="164" t="s">
         <v>52</v>
@@ -23512,7 +23946,7 @@
       <c r="E18" s="167" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="330" t="s">
+      <c r="F18" s="333" t="s">
         <v>121</v>
       </c>
       <c r="G18" s="167"/>
@@ -23562,7 +23996,7 @@
       <c r="E19" s="167" t="s">
         <v>113</v>
       </c>
-      <c r="F19" s="330"/>
+      <c r="F19" s="333"/>
       <c r="G19" s="167" t="s">
         <v>48</v>
       </c>
@@ -23587,30 +24021,30 @@
         <v>117</v>
       </c>
       <c r="C20" s="168" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D20" s="168" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E20" s="168" t="s">
-        <v>182</v>
-      </c>
-      <c r="F20" s="331"/>
+        <v>181</v>
+      </c>
+      <c r="F20" s="334"/>
       <c r="G20" s="168" t="s">
         <v>122</v>
       </c>
       <c r="H20" s="168" t="s">
         <v>118</v>
       </c>
-      <c r="L20" s="332" t="s">
+      <c r="L20" s="335" t="s">
         <v>123</v>
       </c>
-      <c r="M20" s="332"/>
-      <c r="N20" s="332"/>
-      <c r="O20" s="332"/>
-      <c r="P20" s="332"/>
-      <c r="Q20" s="332"/>
-      <c r="R20" s="332"/>
+      <c r="M20" s="335"/>
+      <c r="N20" s="335"/>
+      <c r="O20" s="335"/>
+      <c r="P20" s="335"/>
+      <c r="Q20" s="335"/>
+      <c r="R20" s="335"/>
       <c r="T20" s="158">
         <v>1.1906250009999999</v>
       </c>
@@ -23625,11 +24059,11 @@
       <c r="A21" s="165"/>
       <c r="B21" s="165"/>
       <c r="C21" s="166"/>
-      <c r="D21" s="291" t="str">
+      <c r="D21" s="290" t="str">
         <f t="shared" ref="D21:D28" si="0">IF(A21="","",B21*RefOutput*(RefDist/C21)^2)</f>
         <v/>
       </c>
-      <c r="E21" s="292"/>
+      <c r="E21" s="291"/>
       <c r="F21" s="170" t="str">
         <f>IF(OR(D21="TBD",D21=""),"",E21/(D21*1000))</f>
         <v/>
@@ -23677,11 +24111,11 @@
       <c r="A22" s="165"/>
       <c r="B22" s="165"/>
       <c r="C22" s="166"/>
-      <c r="D22" s="291" t="str">
+      <c r="D22" s="290" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E22" s="292"/>
+      <c r="E22" s="291"/>
       <c r="F22" s="170" t="str">
         <f t="shared" ref="F22:F28" si="2">IF(OR(D22="TBD",D22=""),"",E22/(D22*1000))</f>
         <v/>
@@ -23736,11 +24170,11 @@
       <c r="A23" s="165"/>
       <c r="B23" s="165"/>
       <c r="C23" s="166"/>
-      <c r="D23" s="291" t="str">
+      <c r="D23" s="290" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E23" s="292"/>
+      <c r="E23" s="291"/>
       <c r="F23" s="170" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -23795,11 +24229,11 @@
       <c r="A24" s="165"/>
       <c r="B24" s="165"/>
       <c r="C24" s="166"/>
-      <c r="D24" s="291" t="str">
+      <c r="D24" s="290" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E24" s="292"/>
+      <c r="E24" s="291"/>
       <c r="F24" s="170" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -23854,11 +24288,11 @@
       <c r="A25" s="165"/>
       <c r="B25" s="165"/>
       <c r="C25" s="166"/>
-      <c r="D25" s="291" t="str">
+      <c r="D25" s="290" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E25" s="292"/>
+      <c r="E25" s="291"/>
       <c r="F25" s="170" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -23913,11 +24347,11 @@
       <c r="A26" s="165"/>
       <c r="B26" s="165"/>
       <c r="C26" s="166"/>
-      <c r="D26" s="291" t="str">
+      <c r="D26" s="290" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E26" s="292"/>
+      <c r="E26" s="291"/>
       <c r="F26" s="170" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -27527,8 +27961,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="307" t="s">
-        <v>221</v>
+      <c r="A1" s="306" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -27536,52 +27970,52 @@
         <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="306" t="s">
-        <v>228</v>
+      <c r="A4" s="305" t="s">
+        <v>227</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="306" t="s">
-        <v>223</v>
+      <c r="A5" s="305" t="s">
+        <v>222</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="306" t="s">
-        <v>224</v>
+      <c r="A6" s="305" t="s">
+        <v>223</v>
       </c>
       <c r="B6">
         <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="306" t="s">
-        <v>225</v>
+      <c r="A7" s="305" t="s">
+        <v>224</v>
       </c>
       <c r="B7">
         <v>0.125</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="306" t="s">
-        <v>226</v>
+      <c r="A8" s="305" t="s">
+        <v>225</v>
       </c>
       <c r="B8">
         <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="306" t="s">
-        <v>227</v>
+      <c r="A9" s="305" t="s">
+        <v>226</v>
       </c>
       <c r="B9">
         <v>2.5000000000000001E-2</v>
@@ -27606,83 +28040,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="307" t="s">
+      <c r="A1" s="306" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="336" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="333" t="s">
+      <c r="C3" s="336"/>
+      <c r="D3" s="336"/>
+      <c r="E3" s="336" t="s">
         <v>230</v>
       </c>
-      <c r="C3" s="333"/>
-      <c r="D3" s="333"/>
-      <c r="E3" s="333" t="s">
+      <c r="F3" s="336"/>
+      <c r="G3" s="336"/>
+    </row>
+    <row r="4" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="311" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="311" t="s">
         <v>231</v>
       </c>
-      <c r="F3" s="333"/>
-      <c r="G3" s="333"/>
-    </row>
-    <row r="4" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="312" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="312" t="s">
+      <c r="C4" s="311" t="s">
         <v>232</v>
       </c>
-      <c r="C4" s="312" t="s">
+      <c r="D4" s="311" t="s">
         <v>233</v>
       </c>
-      <c r="D4" s="312" t="s">
+      <c r="E4" s="311" t="s">
         <v>234</v>
       </c>
-      <c r="E4" s="312" t="s">
+      <c r="F4" s="311" t="s">
         <v>235</v>
       </c>
-      <c r="F4" s="312" t="s">
+      <c r="G4" s="311" t="s">
         <v>236</v>
       </c>
-      <c r="G4" s="312" t="s">
+      <c r="H4" s="311" t="s">
         <v>237</v>
       </c>
-      <c r="H4" s="312" t="s">
+      <c r="I4" s="311" t="s">
         <v>238</v>
       </c>
-      <c r="I4" s="312" t="s">
+      <c r="J4" s="311" t="s">
         <v>239</v>
-      </c>
-      <c r="J4" s="312" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>25</v>
       </c>
-      <c r="B5" s="309">
+      <c r="B5" s="308">
         <v>0</v>
       </c>
-      <c r="C5" s="309">
+      <c r="C5" s="308">
         <v>0</v>
       </c>
-      <c r="D5" s="309">
+      <c r="D5" s="308">
         <v>0</v>
       </c>
-      <c r="E5" s="309">
+      <c r="E5" s="308">
         <v>0</v>
       </c>
-      <c r="F5" s="309">
+      <c r="F5" s="308">
         <v>0</v>
       </c>
-      <c r="G5" s="309">
+      <c r="G5" s="308">
         <v>0</v>
       </c>
-      <c r="H5" s="309">
+      <c r="H5" s="308">
         <v>0.92500000000000004</v>
       </c>
-      <c r="I5" s="309">
+      <c r="I5" s="308">
         <v>0</v>
       </c>
-      <c r="J5" s="309">
+      <c r="J5" s="308">
         <v>0</v>
       </c>
     </row>
@@ -27690,31 +28124,31 @@
       <c r="A6">
         <v>30</v>
       </c>
-      <c r="B6" s="309">
+      <c r="B6" s="308">
         <v>0</v>
       </c>
-      <c r="C6" s="309">
+      <c r="C6" s="308">
         <v>0</v>
       </c>
-      <c r="D6" s="309">
+      <c r="D6" s="308">
         <v>0</v>
       </c>
-      <c r="E6" s="309">
+      <c r="E6" s="308">
         <v>0</v>
       </c>
-      <c r="F6" s="309">
+      <c r="F6" s="308">
         <v>0</v>
       </c>
-      <c r="G6" s="309">
+      <c r="G6" s="308">
         <v>0</v>
       </c>
-      <c r="H6" s="309">
+      <c r="H6" s="308">
         <v>4.67</v>
       </c>
-      <c r="I6" s="309">
+      <c r="I6" s="308">
         <v>0</v>
       </c>
-      <c r="J6" s="309">
+      <c r="J6" s="308">
         <v>0</v>
       </c>
     </row>
@@ -27722,31 +28156,31 @@
       <c r="A7">
         <v>35</v>
       </c>
-      <c r="B7" s="309">
+      <c r="B7" s="308">
         <v>0</v>
       </c>
-      <c r="C7" s="309">
+      <c r="C7" s="308">
         <v>0</v>
       </c>
-      <c r="D7" s="309">
+      <c r="D7" s="308">
         <v>0</v>
       </c>
-      <c r="E7" s="309">
+      <c r="E7" s="308">
         <v>0</v>
       </c>
-      <c r="F7" s="309">
+      <c r="F7" s="308">
         <v>0</v>
       </c>
-      <c r="G7" s="309">
+      <c r="G7" s="308">
         <v>0</v>
       </c>
-      <c r="H7" s="309">
+      <c r="H7" s="308">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I7" s="309">
+      <c r="I7" s="308">
         <v>0</v>
       </c>
-      <c r="J7" s="309">
+      <c r="J7" s="308">
         <v>0</v>
       </c>
     </row>
@@ -27754,31 +28188,31 @@
       <c r="A8">
         <v>40</v>
       </c>
-      <c r="B8" s="309">
+      <c r="B8" s="308">
         <v>1.3799999999999999E-4</v>
       </c>
-      <c r="C8" s="309">
+      <c r="C8" s="308">
         <v>0</v>
       </c>
-      <c r="D8" s="309">
+      <c r="D8" s="308">
         <v>1.3799999999999999E-4</v>
       </c>
-      <c r="E8" s="309">
+      <c r="E8" s="308">
         <v>0</v>
       </c>
-      <c r="F8" s="309">
+      <c r="F8" s="308">
         <v>0</v>
       </c>
-      <c r="G8" s="309">
+      <c r="G8" s="308">
         <v>0</v>
       </c>
-      <c r="H8" s="309">
+      <c r="H8" s="308">
         <v>0</v>
       </c>
-      <c r="I8" s="309">
+      <c r="I8" s="308">
         <v>0</v>
       </c>
-      <c r="J8" s="309">
+      <c r="J8" s="308">
         <v>0</v>
       </c>
     </row>
@@ -27786,31 +28220,31 @@
       <c r="A9">
         <v>45</v>
       </c>
-      <c r="B9" s="309">
+      <c r="B9" s="308">
         <v>7.1000000000000002E-4</v>
       </c>
-      <c r="C9" s="309">
+      <c r="C9" s="308">
         <v>0</v>
       </c>
-      <c r="D9" s="309">
+      <c r="D9" s="308">
         <v>7.1000000000000002E-4</v>
       </c>
-      <c r="E9" s="309">
+      <c r="E9" s="308">
         <v>0</v>
       </c>
-      <c r="F9" s="309">
+      <c r="F9" s="308">
         <v>5.7799999999999995E-4</v>
       </c>
-      <c r="G9" s="309">
+      <c r="G9" s="308">
         <v>0</v>
       </c>
-      <c r="H9" s="309">
+      <c r="H9" s="308">
         <v>0</v>
       </c>
-      <c r="I9" s="309">
+      <c r="I9" s="308">
         <v>0</v>
       </c>
-      <c r="J9" s="309">
+      <c r="J9" s="308">
         <v>0</v>
       </c>
     </row>
@@ -27818,31 +28252,31 @@
       <c r="A10">
         <v>50</v>
       </c>
-      <c r="B10" s="309">
+      <c r="B10" s="308">
         <v>8.4799999999999997E-3</v>
       </c>
-      <c r="C10" s="309">
+      <c r="C10" s="308">
         <v>6.7799999999999996E-3</v>
       </c>
-      <c r="D10" s="309">
+      <c r="D10" s="308">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="E10" s="309">
+      <c r="E10" s="308">
         <v>0</v>
       </c>
-      <c r="F10" s="309">
+      <c r="F10" s="308">
         <v>7.6499999999999995E-4</v>
       </c>
-      <c r="G10" s="309">
+      <c r="G10" s="308">
         <v>0</v>
       </c>
-      <c r="H10" s="309">
+      <c r="H10" s="308">
         <v>0</v>
       </c>
-      <c r="I10" s="309">
+      <c r="I10" s="308">
         <v>0.34</v>
       </c>
-      <c r="J10" s="309">
+      <c r="J10" s="308">
         <v>8.9399999999999993E-2</v>
       </c>
     </row>
@@ -27850,31 +28284,31 @@
       <c r="A11">
         <v>55</v>
       </c>
-      <c r="B11" s="309">
+      <c r="B11" s="308">
         <v>1.09E-2</v>
       </c>
-      <c r="C11" s="309">
+      <c r="C11" s="308">
         <v>4.5600000000000003E-4</v>
       </c>
-      <c r="D11" s="309">
+      <c r="D11" s="308">
         <v>1.04E-2</v>
       </c>
-      <c r="E11" s="309">
+      <c r="E11" s="308">
         <v>7.0199999999999999E-2</v>
       </c>
-      <c r="F11" s="309">
+      <c r="F11" s="308">
         <v>7.2599999999999997E-4</v>
       </c>
-      <c r="G11" s="309">
+      <c r="G11" s="308">
         <v>0</v>
       </c>
-      <c r="H11" s="309">
+      <c r="H11" s="308">
         <v>0</v>
       </c>
-      <c r="I11" s="309">
+      <c r="I11" s="308">
         <v>0.42</v>
       </c>
-      <c r="J11" s="309">
+      <c r="J11" s="308">
         <v>3.9800000000000002E-2</v>
       </c>
     </row>
@@ -27882,31 +28316,31 @@
       <c r="A12">
         <v>60</v>
       </c>
-      <c r="B12" s="309">
+      <c r="B12" s="308">
         <v>9.8100000000000007E-2</v>
       </c>
-      <c r="C12" s="309">
+      <c r="C12" s="308">
         <v>8.9599999999999992E-3</v>
       </c>
-      <c r="D12" s="309">
+      <c r="D12" s="308">
         <v>8.9099999999999999E-2</v>
       </c>
-      <c r="E12" s="309">
+      <c r="E12" s="308">
         <v>0.113</v>
       </c>
-      <c r="F12" s="309">
+      <c r="F12" s="308">
         <v>1.52E-2</v>
       </c>
-      <c r="G12" s="309">
+      <c r="G12" s="308">
         <v>0</v>
       </c>
-      <c r="H12" s="309">
+      <c r="H12" s="308">
         <v>0</v>
       </c>
-      <c r="I12" s="309">
+      <c r="I12" s="308">
         <v>1.96</v>
       </c>
-      <c r="J12" s="309">
+      <c r="J12" s="308">
         <v>0.69899999999999995</v>
       </c>
     </row>
@@ -27914,31 +28348,31 @@
       <c r="A13">
         <v>65</v>
       </c>
-      <c r="B13" s="309">
+      <c r="B13" s="308">
         <v>0.104</v>
       </c>
-      <c r="C13" s="309">
+      <c r="C13" s="308">
         <v>3.4200000000000001E-2</v>
       </c>
-      <c r="D13" s="309">
+      <c r="D13" s="308">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E13" s="309">
+      <c r="E13" s="308">
         <v>0.187</v>
       </c>
-      <c r="F13" s="309">
+      <c r="F13" s="308">
         <v>2.52E-2</v>
       </c>
-      <c r="G13" s="309">
+      <c r="G13" s="308">
         <v>0</v>
       </c>
-      <c r="H13" s="309">
+      <c r="H13" s="308">
         <v>0</v>
       </c>
-      <c r="I13" s="309">
+      <c r="I13" s="308">
         <v>4.55</v>
       </c>
-      <c r="J13" s="309">
+      <c r="J13" s="308">
         <v>15</v>
       </c>
     </row>
@@ -27946,31 +28380,31 @@
       <c r="A14">
         <v>70</v>
       </c>
-      <c r="B14" s="309">
+      <c r="B14" s="308">
         <v>0.45800000000000002</v>
       </c>
-      <c r="C14" s="309">
+      <c r="C14" s="308">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="D14" s="309">
+      <c r="D14" s="308">
         <v>0.38500000000000001</v>
       </c>
-      <c r="E14" s="309">
+      <c r="E14" s="308">
         <v>0.14499999999999999</v>
       </c>
-      <c r="F14" s="309">
+      <c r="F14" s="308">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="G14" s="309">
+      <c r="G14" s="308">
         <v>2.0199999999999999E-2</v>
       </c>
-      <c r="H14" s="309">
+      <c r="H14" s="308">
         <v>0</v>
       </c>
-      <c r="I14" s="309">
+      <c r="I14" s="308">
         <v>6.03</v>
       </c>
-      <c r="J14" s="309">
+      <c r="J14" s="308">
         <v>12.2</v>
       </c>
     </row>
@@ -27978,31 +28412,31 @@
       <c r="A15">
         <v>75</v>
       </c>
-      <c r="B15" s="309">
+      <c r="B15" s="308">
         <v>0.501</v>
       </c>
-      <c r="C15" s="309">
+      <c r="C15" s="308">
         <v>9.5299999999999996E-2</v>
       </c>
-      <c r="D15" s="309">
+      <c r="D15" s="308">
         <v>0.40500000000000003</v>
       </c>
-      <c r="E15" s="309">
+      <c r="E15" s="308">
         <v>0.19400000000000001</v>
       </c>
-      <c r="F15" s="309">
+      <c r="F15" s="308">
         <v>0.224</v>
       </c>
-      <c r="G15" s="309">
+      <c r="G15" s="308">
         <v>2.3600000000000001E-3</v>
       </c>
-      <c r="H15" s="309">
+      <c r="H15" s="308">
         <v>0</v>
       </c>
-      <c r="I15" s="309">
+      <c r="I15" s="308">
         <v>8.02</v>
       </c>
-      <c r="J15" s="309">
+      <c r="J15" s="308">
         <v>15.3</v>
       </c>
     </row>
@@ -28010,31 +28444,31 @@
       <c r="A16">
         <v>80</v>
       </c>
-      <c r="B16" s="309">
+      <c r="B16" s="308">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C16" s="309">
+      <c r="C16" s="308">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D16" s="309">
+      <c r="D16" s="308">
         <v>0.42</v>
       </c>
-      <c r="E16" s="309">
+      <c r="E16" s="308">
         <v>1.72</v>
       </c>
-      <c r="F16" s="309">
+      <c r="F16" s="308">
         <v>0.42799999999999999</v>
       </c>
-      <c r="G16" s="309">
+      <c r="G16" s="308">
         <v>0</v>
       </c>
-      <c r="H16" s="309">
+      <c r="H16" s="308">
         <v>0</v>
       </c>
-      <c r="I16" s="309">
+      <c r="I16" s="308">
         <v>25.4</v>
       </c>
-      <c r="J16" s="309">
+      <c r="J16" s="308">
         <v>11</v>
       </c>
     </row>
@@ -28042,31 +28476,31 @@
       <c r="A17">
         <v>85</v>
       </c>
-      <c r="B17" s="309">
+      <c r="B17" s="308">
         <v>0.315</v>
       </c>
-      <c r="C17" s="309">
+      <c r="C17" s="308">
         <v>6.6199999999999995E-2</v>
       </c>
-      <c r="D17" s="309">
+      <c r="D17" s="308">
         <v>0.249</v>
       </c>
-      <c r="E17" s="309">
+      <c r="E17" s="308">
         <v>2.19</v>
       </c>
-      <c r="F17" s="309">
+      <c r="F17" s="308">
         <v>0.218</v>
       </c>
-      <c r="G17" s="309">
+      <c r="G17" s="308">
         <v>7.8299999999999995E-4</v>
       </c>
-      <c r="H17" s="309">
+      <c r="H17" s="308">
         <v>0</v>
       </c>
-      <c r="I17" s="309">
+      <c r="I17" s="308">
         <v>40.299999999999997</v>
       </c>
-      <c r="J17" s="309">
+      <c r="J17" s="308">
         <v>4.09</v>
       </c>
     </row>
@@ -28074,31 +28508,31 @@
       <c r="A18">
         <v>90</v>
       </c>
-      <c r="B18" s="309">
+      <c r="B18" s="308">
         <v>0.17599999999999999</v>
       </c>
-      <c r="C18" s="309">
+      <c r="C18" s="308">
         <v>1.41E-2</v>
       </c>
-      <c r="D18" s="309">
+      <c r="D18" s="308">
         <v>0.16200000000000001</v>
       </c>
-      <c r="E18" s="309">
+      <c r="E18" s="308">
         <v>1.46</v>
       </c>
-      <c r="F18" s="309">
+      <c r="F18" s="308">
         <v>5.33E-2</v>
       </c>
-      <c r="G18" s="309">
+      <c r="G18" s="308">
         <v>0</v>
       </c>
-      <c r="H18" s="309">
+      <c r="H18" s="308">
         <v>0</v>
       </c>
-      <c r="I18" s="309">
+      <c r="I18" s="308">
         <v>21</v>
       </c>
-      <c r="J18" s="309">
+      <c r="J18" s="308">
         <v>3.43</v>
       </c>
     </row>
@@ -28106,31 +28540,31 @@
       <c r="A19">
         <v>95</v>
       </c>
-      <c r="B19" s="309">
+      <c r="B19" s="308">
         <v>2.18E-2</v>
       </c>
-      <c r="C19" s="309">
+      <c r="C19" s="308">
         <v>3.5100000000000001E-3</v>
       </c>
-      <c r="D19" s="309">
+      <c r="D19" s="308">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="E19" s="309">
+      <c r="E19" s="308">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F19" s="309">
+      <c r="F19" s="308">
         <v>4.8899999999999999E-2</v>
       </c>
-      <c r="G19" s="309">
+      <c r="G19" s="308">
         <v>0</v>
       </c>
-      <c r="H19" s="309">
+      <c r="H19" s="308">
         <v>0</v>
       </c>
-      <c r="I19" s="309">
+      <c r="I19" s="308">
         <v>10.6</v>
       </c>
-      <c r="J19" s="309">
+      <c r="J19" s="308">
         <v>0.67300000000000004</v>
       </c>
     </row>
@@ -28138,31 +28572,31 @@
       <c r="A20">
         <v>100</v>
       </c>
-      <c r="B20" s="309">
+      <c r="B20" s="308">
         <v>1.55E-2</v>
       </c>
-      <c r="C20" s="309">
+      <c r="C20" s="308">
         <v>8.8400000000000002E-4</v>
       </c>
-      <c r="D20" s="309">
+      <c r="D20" s="308">
         <v>1.46E-2</v>
       </c>
-      <c r="E20" s="309">
+      <c r="E20" s="308">
         <v>1.1200000000000001</v>
       </c>
-      <c r="F20" s="309">
+      <c r="F20" s="308">
         <v>5.8700000000000002E-2</v>
       </c>
-      <c r="G20" s="309">
+      <c r="G20" s="308">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="H20" s="309">
+      <c r="H20" s="308">
         <v>0</v>
       </c>
-      <c r="I20" s="309">
+      <c r="I20" s="308">
         <v>7.4</v>
       </c>
-      <c r="J20" s="309">
+      <c r="J20" s="308">
         <v>1.53</v>
       </c>
     </row>
@@ -28170,31 +28604,31 @@
       <c r="A21">
         <v>105</v>
       </c>
-      <c r="B21" s="309">
+      <c r="B21" s="308">
         <v>3.48E-3</v>
       </c>
-      <c r="C21" s="309">
+      <c r="C21" s="308">
         <v>1.97E-3</v>
       </c>
-      <c r="D21" s="309">
+      <c r="D21" s="308">
         <v>1.5100000000000001E-3</v>
       </c>
-      <c r="E21" s="309">
+      <c r="E21" s="308">
         <v>0.96399999999999997</v>
       </c>
-      <c r="F21" s="309">
+      <c r="F21" s="308">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="G21" s="309">
+      <c r="G21" s="308">
         <v>0</v>
       </c>
-      <c r="H21" s="309">
+      <c r="H21" s="308">
         <v>0</v>
       </c>
-      <c r="I21" s="309">
+      <c r="I21" s="308">
         <v>7.02</v>
       </c>
-      <c r="J21" s="309">
+      <c r="J21" s="308">
         <v>9.2700000000000005E-2</v>
       </c>
     </row>
@@ -28202,31 +28636,31 @@
       <c r="A22">
         <v>110</v>
       </c>
-      <c r="B22" s="309">
+      <c r="B22" s="308">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="C22" s="309">
+      <c r="C22" s="308">
         <v>9.9100000000000004E-3</v>
       </c>
-      <c r="D22" s="309">
+      <c r="D22" s="308">
         <v>5.5099999999999995E-4</v>
       </c>
-      <c r="E22" s="309">
+      <c r="E22" s="308">
         <v>0.747</v>
       </c>
-      <c r="F22" s="309">
+      <c r="F22" s="308">
         <v>6.4600000000000005E-2</v>
       </c>
-      <c r="G22" s="309">
+      <c r="G22" s="308">
         <v>2.1399999999999999E-2</v>
       </c>
-      <c r="H22" s="309">
+      <c r="H22" s="308">
         <v>0</v>
       </c>
-      <c r="I22" s="309">
+      <c r="I22" s="308">
         <v>6.59</v>
       </c>
-      <c r="J22" s="309">
+      <c r="J22" s="308">
         <v>3.0499999999999999E-2</v>
       </c>
     </row>
@@ -28234,31 +28668,31 @@
       <c r="A23">
         <v>115</v>
       </c>
-      <c r="B23" s="309">
+      <c r="B23" s="308">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="C23" s="309">
+      <c r="C23" s="308">
         <v>3.7400000000000003E-2</v>
       </c>
-      <c r="D23" s="309">
+      <c r="D23" s="308">
         <v>3.6900000000000001E-3</v>
       </c>
-      <c r="E23" s="309">
+      <c r="E23" s="308">
         <v>1.44</v>
       </c>
-      <c r="F23" s="309">
+      <c r="F23" s="308">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="G23" s="309">
+      <c r="G23" s="308">
         <v>9.3600000000000003E-2</v>
       </c>
-      <c r="H23" s="309">
+      <c r="H23" s="308">
         <v>0</v>
       </c>
-      <c r="I23" s="309">
+      <c r="I23" s="308">
         <v>13.8</v>
       </c>
-      <c r="J23" s="309">
+      <c r="J23" s="308">
         <v>0</v>
       </c>
     </row>
@@ -28266,31 +28700,31 @@
       <c r="A24">
         <v>120</v>
       </c>
-      <c r="B24" s="309">
+      <c r="B24" s="308">
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="C24" s="309">
+      <c r="C24" s="308">
         <v>5.1200000000000002E-2</v>
       </c>
-      <c r="D24" s="309">
+      <c r="D24" s="308">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="E24" s="309">
+      <c r="E24" s="308">
         <v>0.93700000000000006</v>
       </c>
-      <c r="F24" s="309">
+      <c r="F24" s="308">
         <v>0.104</v>
       </c>
-      <c r="G24" s="309">
+      <c r="G24" s="308">
         <v>4.7399999999999998E-2</v>
       </c>
-      <c r="H24" s="309">
+      <c r="H24" s="308">
         <v>0</v>
       </c>
-      <c r="I24" s="309">
+      <c r="I24" s="308">
         <v>3.35</v>
       </c>
-      <c r="J24" s="309">
+      <c r="J24" s="308">
         <v>0</v>
       </c>
     </row>
@@ -28298,31 +28732,31 @@
       <c r="A25">
         <v>125</v>
       </c>
-      <c r="B25" s="309">
+      <c r="B25" s="308">
         <v>4.8399999999999999E-2</v>
       </c>
-      <c r="C25" s="309">
+      <c r="C25" s="308">
         <v>4.8099999999999997E-2</v>
       </c>
-      <c r="D25" s="309">
+      <c r="D25" s="308">
         <v>3.4699999999999998E-4</v>
       </c>
-      <c r="E25" s="309">
+      <c r="E25" s="308">
         <v>0.13800000000000001</v>
       </c>
-      <c r="F25" s="309">
+      <c r="F25" s="308">
         <v>8.1299999999999997E-2</v>
       </c>
-      <c r="G25" s="309">
+      <c r="G25" s="308">
         <v>0</v>
       </c>
-      <c r="H25" s="309">
+      <c r="H25" s="308">
         <v>0</v>
       </c>
-      <c r="I25" s="309">
+      <c r="I25" s="308">
         <v>2.75</v>
       </c>
-      <c r="J25" s="309">
+      <c r="J25" s="308">
         <v>0</v>
       </c>
     </row>
@@ -28330,31 +28764,31 @@
       <c r="A26">
         <v>130</v>
       </c>
-      <c r="B26" s="309">
+      <c r="B26" s="308">
         <v>1.8400000000000001E-3</v>
       </c>
-      <c r="C26" s="309">
+      <c r="C26" s="308">
         <v>1.7099999999999999E-3</v>
       </c>
-      <c r="D26" s="309">
+      <c r="D26" s="308">
         <v>1.25E-4</v>
       </c>
-      <c r="E26" s="309">
+      <c r="E26" s="308">
         <v>0.153</v>
       </c>
-      <c r="F26" s="309">
+      <c r="F26" s="308">
         <v>4.4600000000000001E-2</v>
       </c>
-      <c r="G26" s="309">
+      <c r="G26" s="308">
         <v>0</v>
       </c>
-      <c r="H26" s="309">
+      <c r="H26" s="308">
         <v>0</v>
       </c>
-      <c r="I26" s="309">
+      <c r="I26" s="308">
         <v>3.1E-2</v>
       </c>
-      <c r="J26" s="309">
+      <c r="J26" s="308">
         <v>0</v>
       </c>
     </row>
@@ -28362,31 +28796,31 @@
       <c r="A27">
         <v>135</v>
       </c>
-      <c r="B27" s="309">
+      <c r="B27" s="308">
         <v>7.7299999999999999E-3</v>
       </c>
-      <c r="C27" s="309">
+      <c r="C27" s="308">
         <v>7.7299999999999999E-3</v>
       </c>
-      <c r="D27" s="309">
+      <c r="D27" s="308">
         <v>0</v>
       </c>
-      <c r="E27" s="309">
+      <c r="E27" s="308">
         <v>0.14599999999999999</v>
       </c>
-      <c r="F27" s="309">
+      <c r="F27" s="308">
         <v>9.4699999999999993E-3</v>
       </c>
-      <c r="G27" s="309">
+      <c r="G27" s="308">
         <v>0</v>
       </c>
-      <c r="H27" s="309">
+      <c r="H27" s="308">
         <v>0</v>
       </c>
-      <c r="I27" s="309">
+      <c r="I27" s="308">
         <v>0</v>
       </c>
-      <c r="J27" s="309">
+      <c r="J27" s="308">
         <v>0</v>
       </c>
     </row>
@@ -28394,84 +28828,84 @@
       <c r="A28">
         <v>140</v>
       </c>
-      <c r="B28" s="309">
+      <c r="B28" s="308">
         <v>0</v>
       </c>
-      <c r="C28" s="309">
+      <c r="C28" s="308">
         <v>0</v>
       </c>
-      <c r="D28" s="309">
+      <c r="D28" s="308">
         <v>0</v>
       </c>
-      <c r="E28" s="309">
+      <c r="E28" s="308">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="F28" s="309">
+      <c r="F28" s="308">
         <v>4.2599999999999999E-3</v>
       </c>
-      <c r="G28" s="309">
+      <c r="G28" s="308">
         <v>0</v>
       </c>
-      <c r="H28" s="309">
+      <c r="H28" s="308">
         <v>0</v>
       </c>
-      <c r="I28" s="309">
+      <c r="I28" s="308">
         <v>0</v>
       </c>
-      <c r="J28" s="309">
+      <c r="J28" s="308">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>241</v>
-      </c>
-      <c r="B29" s="308">
+        <v>240</v>
+      </c>
+      <c r="B29" s="307">
         <f>SUM(B5:B28)</f>
         <v>2.4524780000000002</v>
       </c>
-      <c r="C29" s="308">
+      <c r="C29" s="307">
         <f t="shared" ref="C29:J29" si="0">SUM(C5:C28)</f>
         <v>0.60091000000000006</v>
       </c>
-      <c r="D29" s="308">
+      <c r="D29" s="307">
         <f t="shared" si="0"/>
         <v>1.8507709999999995</v>
       </c>
-      <c r="E29" s="308">
+      <c r="E29" s="307">
         <f t="shared" si="0"/>
         <v>12.8934</v>
       </c>
-      <c r="F29" s="308">
+      <c r="F29" s="307">
         <f t="shared" si="0"/>
         <v>1.5099989999999996</v>
       </c>
-      <c r="G29" s="308">
+      <c r="G29" s="307">
         <f t="shared" si="0"/>
         <v>0.21584300000000001</v>
       </c>
-      <c r="H29" s="308">
+      <c r="H29" s="307">
         <f t="shared" si="0"/>
         <v>6.6950000000000003</v>
       </c>
-      <c r="I29" s="308">
+      <c r="I29" s="307">
         <f t="shared" si="0"/>
         <v>159.56100000000001</v>
       </c>
-      <c r="J29" s="308">
+      <c r="J29" s="307">
         <f t="shared" si="0"/>
         <v>64.174399999999991</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>242</v>
-      </c>
-      <c r="B30" s="333">
+        <v>241</v>
+      </c>
+      <c r="B30" s="336">
         <v>110</v>
       </c>
-      <c r="C30" s="333"/>
-      <c r="D30" s="333"/>
+      <c r="C30" s="336"/>
+      <c r="D30" s="336"/>
       <c r="E30">
         <v>18</v>
       </c>
@@ -28516,48 +28950,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="307" t="s">
+      <c r="A1" s="306" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="306" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="307" t="s">
+    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="337" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="334" t="s">
+      <c r="D3" s="337"/>
+      <c r="E3" s="337" t="s">
         <v>245</v>
       </c>
-      <c r="D3" s="334"/>
-      <c r="E3" s="334" t="s">
+      <c r="F3" s="337"/>
+    </row>
+    <row r="4" spans="1:6" s="305" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="311" t="s">
         <v>246</v>
       </c>
-      <c r="F3" s="334"/>
-    </row>
-    <row r="4" spans="1:6" s="306" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="312" t="s">
+      <c r="B4" s="311" t="s">
         <v>247</v>
       </c>
-      <c r="B4" s="312" t="s">
+      <c r="C4" s="311" t="s">
         <v>248</v>
       </c>
-      <c r="C4" s="312" t="s">
+      <c r="D4" s="311" t="s">
         <v>249</v>
       </c>
-      <c r="D4" s="312" t="s">
-        <v>250</v>
-      </c>
-      <c r="E4" s="312" t="s">
+      <c r="E4" s="311" t="s">
+        <v>248</v>
+      </c>
+      <c r="F4" s="311" t="s">
         <v>249</v>
-      </c>
-      <c r="F4" s="312" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B5" s="208">
         <f>NCRP147_4.2!C29</f>
@@ -28569,18 +29003,18 @@
       <c r="D5">
         <v>160</v>
       </c>
-      <c r="E5" s="310">
+      <c r="E5" s="309">
         <f>$B$5*C5</f>
         <v>72.109200000000001</v>
       </c>
-      <c r="F5" s="310">
+      <c r="F5" s="309">
         <f>$B$5*D5</f>
         <v>96.145600000000002</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B6" s="208">
         <f>NCRP147_4.2!D29</f>
@@ -28592,18 +29026,18 @@
       <c r="D6">
         <v>160</v>
       </c>
-      <c r="E6" s="310">
+      <c r="E6" s="309">
         <f t="shared" ref="E6:E12" si="0">$B$5*C6</f>
         <v>72.109200000000001</v>
       </c>
-      <c r="F6" s="310">
+      <c r="F6" s="309">
         <f t="shared" ref="F6:F12" si="1">$B$5*D6</f>
         <v>96.145600000000002</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B7" s="208">
         <f>NCRP147_4.2!G29</f>
@@ -28615,18 +29049,18 @@
       <c r="D7">
         <v>400</v>
       </c>
-      <c r="E7" s="310">
+      <c r="E7" s="309">
         <f t="shared" si="0"/>
         <v>120.18200000000002</v>
       </c>
-      <c r="F7" s="310">
+      <c r="F7" s="309">
         <f t="shared" si="1"/>
         <v>240.36400000000003</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B8" s="208">
         <f>NCRP147_4.2!E29</f>
@@ -28638,18 +29072,18 @@
       <c r="D8">
         <v>30</v>
       </c>
-      <c r="E8" s="310">
+      <c r="E8" s="309">
         <f t="shared" si="0"/>
         <v>12.0182</v>
       </c>
-      <c r="F8" s="310">
+      <c r="F8" s="309">
         <f t="shared" si="1"/>
         <v>18.0273</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B9" s="208">
         <f>NCRP147_4.2!F29</f>
@@ -28661,18 +29095,18 @@
       <c r="D9">
         <v>40</v>
       </c>
-      <c r="E9" s="310">
+      <c r="E9" s="309">
         <f t="shared" si="0"/>
         <v>15.022750000000002</v>
       </c>
-      <c r="F9" s="310">
+      <c r="F9" s="309">
         <f t="shared" si="1"/>
         <v>24.0364</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B10" s="208">
         <f>NCRP147_4.2!H29</f>
@@ -28684,18 +29118,18 @@
       <c r="D10">
         <v>160</v>
       </c>
-      <c r="E10" s="310">
+      <c r="E10" s="309">
         <f t="shared" si="0"/>
         <v>48.072800000000001</v>
       </c>
-      <c r="F10" s="310">
+      <c r="F10" s="309">
         <f t="shared" si="1"/>
         <v>96.145600000000002</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B11" s="208">
         <f>NCRP147_4.2!I29</f>
@@ -28707,18 +29141,18 @@
       <c r="D11">
         <v>30</v>
       </c>
-      <c r="E11" s="310">
+      <c r="E11" s="309">
         <f t="shared" si="0"/>
         <v>12.0182</v>
       </c>
-      <c r="F11" s="310">
+      <c r="F11" s="309">
         <f t="shared" si="1"/>
         <v>18.0273</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B12" s="208">
         <f>NCRP147_4.2!J29</f>
@@ -28730,11 +29164,11 @@
       <c r="D12">
         <v>30</v>
       </c>
-      <c r="E12" s="310">
+      <c r="E12" s="309">
         <f t="shared" si="0"/>
         <v>12.0182</v>
       </c>
-      <c r="F12" s="310">
+      <c r="F12" s="309">
         <f t="shared" si="1"/>
         <v>18.0273</v>
       </c>
@@ -28763,8 +29197,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="307" t="s">
-        <v>253</v>
+      <c r="A1" s="306" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -28772,12 +29206,12 @@
         <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B4">
         <v>0.89</v>
@@ -28785,7 +29219,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B5">
         <v>0.09</v>
@@ -28793,7 +29227,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B6">
         <v>0.02</v>
@@ -28801,7 +29235,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B7">
         <v>1</v>

--- a/MUSCShield_form.xlsx
+++ b/MUSCShield_form.xlsx
@@ -9,55 +9,57 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="9720" windowHeight="3270" tabRatio="688" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="9720" windowHeight="3270" tabRatio="688" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
     <sheet name="RadFluoro" sheetId="5" r:id="rId2"/>
     <sheet name="CT" sheetId="4" r:id="rId3"/>
-    <sheet name="ShieldEvaluation" sheetId="2" r:id="rId4"/>
-    <sheet name="FitParameters" sheetId="3" r:id="rId5"/>
-    <sheet name="NCRP147_4.1" sheetId="16" r:id="rId6"/>
-    <sheet name="NCRP147_4.2" sheetId="17" r:id="rId7"/>
-    <sheet name="NCRP147_4.3" sheetId="18" r:id="rId8"/>
-    <sheet name="NCRP147_4.4" sheetId="19" r:id="rId9"/>
-    <sheet name="NCRP147_4.5" sheetId="26" r:id="rId10"/>
-    <sheet name="NCRP147_4.6" sheetId="27" r:id="rId11"/>
-    <sheet name="NCRP147_4.7" sheetId="20" r:id="rId12"/>
-    <sheet name="NCRP147_5.2" sheetId="21" r:id="rId13"/>
-    <sheet name="NCRP147_A1" sheetId="22" r:id="rId14"/>
-    <sheet name="NCRP147_B1" sheetId="23" r:id="rId15"/>
-    <sheet name="NCRP147_C1" sheetId="24" r:id="rId16"/>
-    <sheet name="W_Rh_Al_Ag" sheetId="25" r:id="rId17"/>
+    <sheet name="PET" sheetId="33" r:id="rId4"/>
+    <sheet name="ShieldEvaluation" sheetId="2" r:id="rId5"/>
+    <sheet name="FitParameters" sheetId="3" r:id="rId6"/>
+    <sheet name="NCRP147_4.1" sheetId="16" r:id="rId7"/>
+    <sheet name="NCRP147_4.2" sheetId="17" r:id="rId8"/>
+    <sheet name="NCRP147_4.3" sheetId="18" r:id="rId9"/>
+    <sheet name="NCRP147_4.4" sheetId="19" r:id="rId10"/>
+    <sheet name="NCRP147_4.5" sheetId="26" r:id="rId11"/>
+    <sheet name="NCRP147_4.6" sheetId="27" r:id="rId12"/>
+    <sheet name="NCRP147_4.7" sheetId="20" r:id="rId13"/>
+    <sheet name="NCRP147_5.2" sheetId="21" r:id="rId14"/>
+    <sheet name="NCRP147_A1" sheetId="22" r:id="rId15"/>
+    <sheet name="NCRP147_B1" sheetId="23" r:id="rId16"/>
+    <sheet name="NCRP147_C1" sheetId="24" r:id="rId17"/>
+    <sheet name="W_Rh_Al_Ag" sheetId="25" r:id="rId18"/>
+    <sheet name="AAPMTG108" sheetId="32" r:id="rId19"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId18"/>
-    <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
   </externalReferences>
   <definedNames>
     <definedName name="FitParams">FitParameters!$A$5:$AF$30</definedName>
     <definedName name="inch_value">Table!$AF$6:$AF$41</definedName>
-    <definedName name="minimum_Pb" localSheetId="9">[1]Table!$AG$6:$AG$41</definedName>
-    <definedName name="minimum_Pb" localSheetId="10">[2]Table!$AG$6:$AG$41</definedName>
+    <definedName name="minimum_Pb" localSheetId="10">[1]Table!$AG$6:$AG$41</definedName>
+    <definedName name="minimum_Pb" localSheetId="11">[2]Table!$AG$6:$AG$41</definedName>
     <definedName name="minimum_Pb">Table!$AG$6:$AG$41</definedName>
-    <definedName name="mm_value" localSheetId="9">[1]Table!$AE$6:$AE$41</definedName>
-    <definedName name="mm_value" localSheetId="10">[2]Table!$AE$6:$AE$41</definedName>
+    <definedName name="mm_value" localSheetId="10">[1]Table!$AE$6:$AE$41</definedName>
+    <definedName name="mm_value" localSheetId="11">[2]Table!$AE$6:$AE$41</definedName>
     <definedName name="mm_value">Table!$AE$6:$AE$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">CT!$A$1:$V$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">RadFluoro!$A$1:$J$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">ShieldEvaluation!$A$1:$H$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">ShieldEvaluation!$A$1:$H$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Table!$A$1:$N$112</definedName>
-    <definedName name="RefDist" localSheetId="9">[1]ShieldEvaluation!$F$16</definedName>
-    <definedName name="RefDist" localSheetId="10">[2]ShieldEvaluation!$F$16</definedName>
+    <definedName name="RefDist" localSheetId="10">[1]ShieldEvaluation!$F$16</definedName>
+    <definedName name="RefDist" localSheetId="11">[2]ShieldEvaluation!$F$16</definedName>
     <definedName name="RefDist">ShieldEvaluation!$F$16</definedName>
-    <definedName name="RefExp" localSheetId="9">[1]ShieldEvaluation!$G$16</definedName>
-    <definedName name="RefExp" localSheetId="10">[2]ShieldEvaluation!$G$16</definedName>
+    <definedName name="RefExp" localSheetId="10">[1]ShieldEvaluation!$G$16</definedName>
+    <definedName name="RefExp" localSheetId="11">[2]ShieldEvaluation!$G$16</definedName>
     <definedName name="RefExp">ShieldEvaluation!$G$16</definedName>
-    <definedName name="RefkV" localSheetId="9">[1]ShieldEvaluation!$C$16</definedName>
-    <definedName name="RefkV" localSheetId="10">[2]ShieldEvaluation!$C$16</definedName>
+    <definedName name="RefkV" localSheetId="10">[1]ShieldEvaluation!$C$16</definedName>
+    <definedName name="RefkV" localSheetId="11">[2]ShieldEvaluation!$C$16</definedName>
     <definedName name="RefkV">ShieldEvaluation!$C$16</definedName>
-    <definedName name="RefOutput" localSheetId="9">[1]ShieldEvaluation!$H$16</definedName>
-    <definedName name="RefOutput" localSheetId="10">[2]ShieldEvaluation!$H$16</definedName>
+    <definedName name="RefOutput" localSheetId="10">[1]ShieldEvaluation!$H$16</definedName>
+    <definedName name="RefOutput" localSheetId="11">[2]ShieldEvaluation!$H$16</definedName>
     <definedName name="RefOutput">ShieldEvaluation!$H$16</definedName>
   </definedNames>
   <calcPr calcId="162913" iterateCount="1"/>
@@ -471,6 +473,136 @@
     <author>Eugene Mah</author>
   </authors>
   <commentList>
+    <comment ref="F11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eugene Mah:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Average uptake activity while being scanned. Assumes patient transmission factor of 0.64</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eugene Mah:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Patient activity at the end of the uptake period. Assumes patient transmission factor of 0.64</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eugene Mah:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Patient activity post-void. Assumes 0.85 activity retention factor.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eugene Mah:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Average activity during scanning period.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eugene Mah:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Patient activity after scan completion</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Eugene Mah</author>
+  </authors>
+  <commentList>
     <comment ref="L11" authorId="0" shapeId="0">
       <text>
         <r>
@@ -738,7 +870,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="368">
   <si>
     <t>Shielding Calculations</t>
   </si>
@@ -2082,6 +2214,250 @@
   </si>
   <si>
     <t>Steel (mm)</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Table V: Fitting parameter for broad beam 511 keV transmission data.</t>
+  </si>
+  <si>
+    <t>Madsen MT, Anderson JA, et al., "AAPM Task Group 108: PET and PET/CT Shielding Requirements", MedPhys 33(1) 4-15</t>
+  </si>
+  <si>
+    <t>Table I: Physical properties of commonly used PET radionuclides</t>
+  </si>
+  <si>
+    <t>Nuclide</t>
+  </si>
+  <si>
+    <t>Decay mode</t>
+  </si>
+  <si>
+    <t>Max positron energy (MeV)</t>
+  </si>
+  <si>
+    <t>Photon emission (keV)</t>
+  </si>
+  <si>
+    <t>Photons/decay</t>
+  </si>
+  <si>
+    <t>C-11</t>
+  </si>
+  <si>
+    <t>T1/2 (min)</t>
+  </si>
+  <si>
+    <t>N-13</t>
+  </si>
+  <si>
+    <t>O-15</t>
+  </si>
+  <si>
+    <t>F-18</t>
+  </si>
+  <si>
+    <t>Cu-64</t>
+  </si>
+  <si>
+    <t>511, 1346</t>
+  </si>
+  <si>
+    <t>Ga-68</t>
+  </si>
+  <si>
+    <t>Rb-82</t>
+  </si>
+  <si>
+    <t>511, 776</t>
+  </si>
+  <si>
+    <t>1.9, 0.13</t>
+  </si>
+  <si>
+    <t>0.38, 0.005</t>
+  </si>
+  <si>
+    <t>I-124</t>
+  </si>
+  <si>
+    <t>1.54, 2.17</t>
+  </si>
+  <si>
+    <t>511, 603, 1693</t>
+  </si>
+  <si>
+    <t>0.5, 0.62, 0.3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+, EC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">-, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+, EC</t>
+    </r>
+  </si>
+  <si>
+    <t>Table II: Effective dose equivalent dose rate constants for commonly used PET radionuclides</t>
+  </si>
+  <si>
+    <t>Dose rate constant</t>
+  </si>
+  <si>
+    <t>1h integrated dose</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Sv-m^2/MBq-h</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Sv-m^2/MBq</t>
+    </r>
+  </si>
+  <si>
+    <t>Shielding Calculation</t>
+  </si>
+  <si>
+    <t>Activity calculations</t>
+  </si>
+  <si>
+    <t>Isotope</t>
+  </si>
+  <si>
+    <t>End scan activity (MBq)</t>
+  </si>
+  <si>
+    <t>Administered activity (MBq)</t>
+  </si>
+  <si>
+    <t>Uptake duration (min)</t>
+  </si>
+  <si>
+    <t>End uptake activity (MBq)</t>
+  </si>
+  <si>
+    <t>Post-void activity (MBq)</t>
+  </si>
+  <si>
+    <t>Avg Uptake activity (MBq)</t>
+  </si>
+  <si>
+    <t>Scan time (min)</t>
+  </si>
+  <si>
+    <t>Half life (min)</t>
+  </si>
+  <si>
+    <t>Usage</t>
+  </si>
+  <si>
+    <t>Pts/week</t>
+  </si>
+  <si>
+    <t>Avg scan activity (MBq)</t>
+  </si>
+  <si>
+    <t>Source locations</t>
   </si>
 </sst>
 </file>
@@ -2269,7 +2645,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2321,6 +2697,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2853,7 +3235,7 @@
     </xf>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="340">
+  <cellXfs count="360">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -3667,6 +4049,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3715,7 +4101,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3727,6 +4173,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4529,9 +4981,7 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4">
         <row r="16">
-          <cell r="H16" t="str">
-            <v/>
-          </cell>
+          <cell r="H16"/>
         </row>
       </sheetData>
       <sheetData sheetId="5"/>
@@ -4926,7 +5376,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT112"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:J5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14292,6 +14744,70 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="306" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14367,11 +14883,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -14386,9 +14902,9 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="339"/>
-      <c r="C2" s="339"/>
-      <c r="D2" s="339"/>
+      <c r="B2" s="324"/>
+      <c r="C2" s="324"/>
+      <c r="D2" s="324"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -14437,7 +14953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
@@ -14477,13 +14993,13 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E6" s="336" t="s">
+      <c r="E6" s="338" t="s">
         <v>262</v>
       </c>
-      <c r="F6" s="336"/>
-      <c r="G6" s="336"/>
-      <c r="H6" s="336"/>
-      <c r="I6" s="336"/>
+      <c r="F6" s="338"/>
+      <c r="G6" s="338"/>
+      <c r="H6" s="338"/>
+      <c r="I6" s="338"/>
     </row>
     <row r="7" spans="1:9" s="305" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="311" t="s">
@@ -14810,7 +15326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -14916,12 +15432,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="A4" sqref="A4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14932,48 +15448,48 @@
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B4" s="336" t="s">
+      <c r="B4" s="338" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="336"/>
-      <c r="D4" s="336"/>
-      <c r="E4" s="336"/>
-      <c r="F4" s="336"/>
-      <c r="G4" s="336" t="s">
+      <c r="C4" s="338"/>
+      <c r="D4" s="338"/>
+      <c r="E4" s="338"/>
+      <c r="F4" s="338"/>
+      <c r="G4" s="338" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="336"/>
-      <c r="I4" s="336"/>
-      <c r="J4" s="336"/>
-      <c r="K4" s="336"/>
-      <c r="L4" s="336" t="s">
+      <c r="H4" s="338"/>
+      <c r="I4" s="338"/>
+      <c r="J4" s="338"/>
+      <c r="K4" s="338"/>
+      <c r="L4" s="338" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="336"/>
-      <c r="N4" s="336"/>
-      <c r="O4" s="336"/>
-      <c r="P4" s="336"/>
-      <c r="Q4" s="336" t="s">
+      <c r="M4" s="338"/>
+      <c r="N4" s="338"/>
+      <c r="O4" s="338"/>
+      <c r="P4" s="338"/>
+      <c r="Q4" s="338" t="s">
         <v>54</v>
       </c>
-      <c r="R4" s="336"/>
-      <c r="S4" s="336"/>
-      <c r="T4" s="336"/>
-      <c r="U4" s="336"/>
-      <c r="V4" s="336" t="s">
+      <c r="R4" s="338"/>
+      <c r="S4" s="338"/>
+      <c r="T4" s="338"/>
+      <c r="U4" s="338"/>
+      <c r="V4" s="338" t="s">
         <v>96</v>
       </c>
-      <c r="W4" s="336"/>
-      <c r="X4" s="336"/>
-      <c r="Y4" s="336"/>
-      <c r="Z4" s="336"/>
-      <c r="AA4" s="336" t="s">
+      <c r="W4" s="338"/>
+      <c r="X4" s="338"/>
+      <c r="Y4" s="338"/>
+      <c r="Z4" s="338"/>
+      <c r="AA4" s="338" t="s">
         <v>58</v>
       </c>
-      <c r="AB4" s="336"/>
-      <c r="AC4" s="336"/>
-      <c r="AD4" s="336"/>
-      <c r="AE4" s="336"/>
+      <c r="AB4" s="338"/>
+      <c r="AC4" s="338"/>
+      <c r="AD4" s="338"/>
+      <c r="AE4" s="338"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -17710,7 +18226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S13"/>
   <sheetViews>
@@ -17729,42 +18245,42 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="338" t="s">
+      <c r="A3" s="340" t="s">
         <v>263</v>
       </c>
-      <c r="B3" s="336" t="s">
+      <c r="B3" s="338" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="336"/>
-      <c r="D3" s="336"/>
-      <c r="E3" s="336" t="s">
+      <c r="C3" s="338"/>
+      <c r="D3" s="338"/>
+      <c r="E3" s="338" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="336"/>
-      <c r="G3" s="336"/>
-      <c r="H3" s="336" t="s">
+      <c r="F3" s="338"/>
+      <c r="G3" s="338"/>
+      <c r="H3" s="338" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="336"/>
-      <c r="J3" s="336"/>
-      <c r="K3" s="336" t="s">
+      <c r="I3" s="338"/>
+      <c r="J3" s="338"/>
+      <c r="K3" s="338" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="336"/>
-      <c r="M3" s="336"/>
-      <c r="N3" s="336" t="s">
+      <c r="L3" s="338"/>
+      <c r="M3" s="338"/>
+      <c r="N3" s="338" t="s">
         <v>96</v>
       </c>
-      <c r="O3" s="336"/>
-      <c r="P3" s="336"/>
-      <c r="Q3" s="336" t="s">
+      <c r="O3" s="338"/>
+      <c r="P3" s="338"/>
+      <c r="Q3" s="338" t="s">
         <v>58</v>
       </c>
-      <c r="R3" s="336"/>
-      <c r="S3" s="336"/>
+      <c r="R3" s="338"/>
+      <c r="S3" s="338"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="338"/>
+      <c r="A4" s="340"/>
       <c r="B4" s="310" t="s">
         <v>40</v>
       </c>
@@ -18349,1015 +18865,6 @@
       </c>
       <c r="S13">
         <v>0.97540000000000004</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17:S17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="306" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="338" t="s">
-        <v>263</v>
-      </c>
-      <c r="B3" s="336" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="336"/>
-      <c r="D3" s="336"/>
-      <c r="E3" s="336" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="336"/>
-      <c r="G3" s="336"/>
-      <c r="H3" s="336" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="336"/>
-      <c r="J3" s="336"/>
-      <c r="K3" s="336" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="336"/>
-      <c r="M3" s="336"/>
-      <c r="N3" s="336" t="s">
-        <v>96</v>
-      </c>
-      <c r="O3" s="336"/>
-      <c r="P3" s="336"/>
-      <c r="Q3" s="336" t="s">
-        <v>58</v>
-      </c>
-      <c r="R3" s="336"/>
-      <c r="S3" s="336"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="338"/>
-      <c r="B4" s="310" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="310" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="310" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="310" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="310" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="310" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="310" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="310" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="310" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="310" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="310" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" s="310" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="310" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="310" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" s="310" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="310" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" s="310" t="s">
-        <v>41</v>
-      </c>
-      <c r="S4" s="310" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>30</v>
-      </c>
-      <c r="B5">
-        <v>38.79</v>
-      </c>
-      <c r="C5">
-        <v>180</v>
-      </c>
-      <c r="D5">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="E5">
-        <v>0.31740000000000002</v>
-      </c>
-      <c r="F5">
-        <v>1.724</v>
-      </c>
-      <c r="G5">
-        <v>0.3705</v>
-      </c>
-      <c r="H5">
-        <v>0.1198</v>
-      </c>
-      <c r="I5">
-        <v>0.7137</v>
-      </c>
-      <c r="J5">
-        <v>0.37030000000000002</v>
-      </c>
-      <c r="K5">
-        <v>7.4080000000000004</v>
-      </c>
-      <c r="L5">
-        <v>42.49</v>
-      </c>
-      <c r="M5">
-        <v>0.40610000000000002</v>
-      </c>
-      <c r="N5">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="O5">
-        <v>1.62</v>
-      </c>
-      <c r="P5">
-        <v>0.37930000000000003</v>
-      </c>
-      <c r="Q5">
-        <v>2.1579999999999998E-2</v>
-      </c>
-      <c r="R5">
-        <v>3.9710000000000002E-2</v>
-      </c>
-      <c r="S5">
-        <v>0.28520000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>50</v>
-      </c>
-      <c r="B6">
-        <v>8.8010000000000002</v>
-      </c>
-      <c r="C6">
-        <v>27.28</v>
-      </c>
-      <c r="D6">
-        <v>0.29570000000000002</v>
-      </c>
-      <c r="E6">
-        <v>9.0300000000000005E-2</v>
-      </c>
-      <c r="F6">
-        <v>0.17119999999999999</v>
-      </c>
-      <c r="G6">
-        <v>0.2324</v>
-      </c>
-      <c r="H6">
-        <v>3.8800000000000001E-2</v>
-      </c>
-      <c r="I6">
-        <v>8.7300000000000003E-2</v>
-      </c>
-      <c r="J6">
-        <v>0.51049999999999995</v>
-      </c>
-      <c r="K6">
-        <v>1.8169999999999999</v>
-      </c>
-      <c r="L6">
-        <v>4.84</v>
-      </c>
-      <c r="M6">
-        <v>0.40210000000000001</v>
-      </c>
-      <c r="N6">
-        <v>9.7210000000000005E-2</v>
-      </c>
-      <c r="O6">
-        <v>0.1799</v>
-      </c>
-      <c r="P6">
-        <v>0.49120000000000003</v>
-      </c>
-      <c r="Q6">
-        <v>1.076E-2</v>
-      </c>
-      <c r="R6">
-        <v>1.8619999999999999E-3</v>
-      </c>
-      <c r="S6">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>70</v>
-      </c>
-      <c r="B7">
-        <v>5.3689999999999998</v>
-      </c>
-      <c r="C7">
-        <v>23.49</v>
-      </c>
-      <c r="D7">
-        <v>0.58830000000000005</v>
-      </c>
-      <c r="E7">
-        <v>5.0900000000000001E-2</v>
-      </c>
-      <c r="F7">
-        <v>0.16969999999999999</v>
-      </c>
-      <c r="G7">
-        <v>0.38490000000000002</v>
-      </c>
-      <c r="H7">
-        <v>2.3E-2</v>
-      </c>
-      <c r="I7">
-        <v>7.1599999999999997E-2</v>
-      </c>
-      <c r="J7">
-        <v>0.73</v>
-      </c>
-      <c r="K7">
-        <v>0.71489999999999998</v>
-      </c>
-      <c r="L7">
-        <v>3.7890000000000001</v>
-      </c>
-      <c r="M7">
-        <v>0.53810000000000002</v>
-      </c>
-      <c r="N7">
-        <v>5.7910000000000003E-2</v>
-      </c>
-      <c r="O7">
-        <v>0.13569999999999999</v>
-      </c>
-      <c r="P7">
-        <v>0.5968</v>
-      </c>
-      <c r="Q7">
-        <v>8.5500000000000003E-3</v>
-      </c>
-      <c r="R7">
-        <v>5.3899999999999998E-4</v>
-      </c>
-      <c r="S7">
-        <v>1.194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>100</v>
-      </c>
-      <c r="B8">
-        <v>2.5070000000000001</v>
-      </c>
-      <c r="C8">
-        <v>15.33</v>
-      </c>
-      <c r="D8">
-        <v>0.91239999999999999</v>
-      </c>
-      <c r="E8">
-        <v>3.95E-2</v>
-      </c>
-      <c r="F8">
-        <v>8.4400000000000003E-2</v>
-      </c>
-      <c r="G8">
-        <v>0.51910000000000001</v>
-      </c>
-      <c r="H8">
-        <v>1.47E-2</v>
-      </c>
-      <c r="I8">
-        <v>0.04</v>
-      </c>
-      <c r="J8">
-        <v>0.97519999999999996</v>
-      </c>
-      <c r="K8">
-        <v>0.34239999999999998</v>
-      </c>
-      <c r="L8">
-        <v>2.456</v>
-      </c>
-      <c r="M8">
-        <v>0.93879999999999997</v>
-      </c>
-      <c r="N8">
-        <v>4.2790000000000002E-2</v>
-      </c>
-      <c r="O8">
-        <v>8.9480000000000004E-2</v>
-      </c>
-      <c r="P8">
-        <v>1.0289999999999999</v>
-      </c>
-      <c r="Q8">
-        <v>7.2300000000000003E-3</v>
-      </c>
-      <c r="R8">
-        <v>8.9400000000000005E-4</v>
-      </c>
-      <c r="S8">
-        <v>1.3160000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>125</v>
-      </c>
-      <c r="B9">
-        <v>2.2330000000000001</v>
-      </c>
-      <c r="C9">
-        <v>7.8879999999999999</v>
-      </c>
-      <c r="D9">
-        <v>0.72950000000000004</v>
-      </c>
-      <c r="E9">
-        <v>3.5099999999999999E-2</v>
-      </c>
-      <c r="F9">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="G9">
-        <v>0.78320000000000001</v>
-      </c>
-      <c r="H9">
-        <v>1.2E-2</v>
-      </c>
-      <c r="I9">
-        <v>2.6700000000000002E-2</v>
-      </c>
-      <c r="J9">
-        <v>10.79</v>
-      </c>
-      <c r="K9">
-        <v>0.21379999999999999</v>
-      </c>
-      <c r="L9">
-        <v>1.69</v>
-      </c>
-      <c r="M9">
-        <v>1.0860000000000001</v>
-      </c>
-      <c r="N9">
-        <v>3.6540000000000003E-2</v>
-      </c>
-      <c r="O9">
-        <v>5.79E-2</v>
-      </c>
-      <c r="P9">
-        <v>1.093</v>
-      </c>
-      <c r="Q9">
-        <v>6.587E-3</v>
-      </c>
-      <c r="R9">
-        <v>-1.14E-3</v>
-      </c>
-      <c r="S9">
-        <v>1.1719999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>150</v>
-      </c>
-      <c r="B10">
-        <v>1.7909999999999999</v>
-      </c>
-      <c r="C10">
-        <v>5.4779999999999998</v>
-      </c>
-      <c r="D10">
-        <v>0.56779999999999997</v>
-      </c>
-      <c r="E10">
-        <v>3.2399999999999998E-2</v>
-      </c>
-      <c r="F10">
-        <v>7.7499999999999999E-2</v>
-      </c>
-      <c r="G10">
-        <v>1.5660000000000001</v>
-      </c>
-      <c r="H10">
-        <v>1.04E-2</v>
-      </c>
-      <c r="I10">
-        <v>2.0199999999999999E-2</v>
-      </c>
-      <c r="J10">
-        <v>1.135</v>
-      </c>
-      <c r="K10">
-        <v>0.15110000000000001</v>
-      </c>
-      <c r="L10">
-        <v>1.1240000000000001</v>
-      </c>
-      <c r="M10">
-        <v>1.151</v>
-      </c>
-      <c r="N10">
-        <v>3.2669999999999998E-2</v>
-      </c>
-      <c r="O10">
-        <v>4.0739999999999998E-2</v>
-      </c>
-      <c r="P10">
-        <v>1.1339999999999999</v>
-      </c>
-      <c r="Q10">
-        <v>6.0270000000000002E-3</v>
-      </c>
-      <c r="R10">
-        <v>-1.6299999999999999E-3</v>
-      </c>
-      <c r="S10">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>286</v>
-      </c>
-      <c r="B11">
-        <v>2.298</v>
-      </c>
-      <c r="C11">
-        <v>17.38</v>
-      </c>
-      <c r="D11">
-        <v>0.61929999999999996</v>
-      </c>
-      <c r="E11">
-        <v>3.61E-2</v>
-      </c>
-      <c r="F11">
-        <v>0.14330000000000001</v>
-      </c>
-      <c r="G11">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="H11">
-        <v>1.38E-2</v>
-      </c>
-      <c r="I11">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="J11">
-        <v>0.79369999999999996</v>
-      </c>
-      <c r="K11">
-        <v>0.21909999999999999</v>
-      </c>
-      <c r="L11">
-        <v>3.49</v>
-      </c>
-      <c r="M11">
-        <v>0.73580000000000001</v>
-      </c>
-      <c r="N11">
-        <v>3.8730000000000001E-2</v>
-      </c>
-      <c r="O11">
-        <v>0.10539999999999999</v>
-      </c>
-      <c r="P11">
-        <v>0.63970000000000005</v>
-      </c>
-      <c r="Q11">
-        <v>7.5519999999999997E-3</v>
-      </c>
-      <c r="R11">
-        <v>7.3700000000000002E-4</v>
-      </c>
-      <c r="S11">
-        <v>1.044</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>287</v>
-      </c>
-      <c r="B12">
-        <v>2.2559999999999998</v>
-      </c>
-      <c r="C12">
-        <v>13.8</v>
-      </c>
-      <c r="D12">
-        <v>0.88370000000000004</v>
-      </c>
-      <c r="E12">
-        <v>3.56E-2</v>
-      </c>
-      <c r="F12">
-        <v>0.1079</v>
-      </c>
-      <c r="G12">
-        <v>0.77049999999999996</v>
-      </c>
-      <c r="H12">
-        <v>1.2699999999999999E-2</v>
-      </c>
-      <c r="I12">
-        <v>4.4499999999999998E-2</v>
-      </c>
-      <c r="J12">
-        <v>1.0489999999999999</v>
-      </c>
-      <c r="K12">
-        <v>0.22109999999999999</v>
-      </c>
-      <c r="L12">
-        <v>2.8359999999999999</v>
-      </c>
-      <c r="M12">
-        <v>1.123</v>
-      </c>
-      <c r="N12">
-        <v>3.7490000000000002E-2</v>
-      </c>
-      <c r="O12">
-        <v>8.7099999999999997E-2</v>
-      </c>
-      <c r="P12">
-        <v>0.90859999999999996</v>
-      </c>
-      <c r="Q12">
-        <v>7.058E-3</v>
-      </c>
-      <c r="R12">
-        <v>2.2900000000000001E-4</v>
-      </c>
-      <c r="S12">
-        <v>1.875</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>288</v>
-      </c>
-      <c r="B13">
-        <v>2.5129999999999999</v>
-      </c>
-      <c r="C13">
-        <v>17.34</v>
-      </c>
-      <c r="D13">
-        <v>0.49940000000000001</v>
-      </c>
-      <c r="E13">
-        <v>3.9199999999999999E-2</v>
-      </c>
-      <c r="F13">
-        <v>0.1464</v>
-      </c>
-      <c r="G13">
-        <v>0.4486</v>
-      </c>
-      <c r="H13">
-        <v>1.6400000000000001E-2</v>
-      </c>
-      <c r="I13">
-        <v>6.08E-2</v>
-      </c>
-      <c r="J13">
-        <v>0.74719999999999998</v>
-      </c>
-      <c r="K13">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="L13">
-        <v>3.012</v>
-      </c>
-      <c r="M13">
-        <v>0.50190000000000001</v>
-      </c>
-      <c r="N13">
-        <v>4.299E-2</v>
-      </c>
-      <c r="O13">
-        <v>0.107</v>
-      </c>
-      <c r="P13">
-        <v>0.55379999999999996</v>
-      </c>
-      <c r="Q13">
-        <v>7.8869999999999999E-3</v>
-      </c>
-      <c r="R13">
-        <v>8.7699999999999996E-4</v>
-      </c>
-      <c r="S13">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>289</v>
-      </c>
-      <c r="B14">
-        <v>2.3220000000000001</v>
-      </c>
-      <c r="C14">
-        <v>12.91</v>
-      </c>
-      <c r="D14">
-        <v>0.75749999999999995</v>
-      </c>
-      <c r="E14">
-        <v>3.6299999999999999E-2</v>
-      </c>
-      <c r="F14">
-        <v>9.3600000000000003E-2</v>
-      </c>
-      <c r="G14">
-        <v>0.59550000000000003</v>
-      </c>
-      <c r="H14">
-        <v>1.3299999999999999E-2</v>
-      </c>
-      <c r="I14">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="J14">
-        <v>0.95660000000000001</v>
-      </c>
-      <c r="K14">
-        <v>0.2331</v>
-      </c>
-      <c r="L14">
-        <v>2.2130000000000001</v>
-      </c>
-      <c r="M14">
-        <v>0.80510000000000004</v>
-      </c>
-      <c r="N14">
-        <v>3.8859999999999999E-2</v>
-      </c>
-      <c r="O14">
-        <v>8.0909999999999996E-2</v>
-      </c>
-      <c r="P14">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="Q14">
-        <v>7.0569999999999999E-3</v>
-      </c>
-      <c r="R14">
-        <v>4.2200000000000001E-4</v>
-      </c>
-      <c r="S14">
-        <v>1.6639999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>235</v>
-      </c>
-      <c r="B15">
-        <v>2.2719999999999998</v>
-      </c>
-      <c r="C15">
-        <v>13.6</v>
-      </c>
-      <c r="D15">
-        <v>0.71840000000000004</v>
-      </c>
-      <c r="E15">
-        <v>3.56E-2</v>
-      </c>
-      <c r="F15">
-        <v>0.1114</v>
-      </c>
-      <c r="G15">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="H15">
-        <v>1.29E-2</v>
-      </c>
-      <c r="I15">
-        <v>4.5699999999999998E-2</v>
-      </c>
-      <c r="J15">
-        <v>0.9355</v>
-      </c>
-      <c r="K15">
-        <v>0.21490000000000001</v>
-      </c>
-      <c r="L15">
-        <v>2.6949999999999998</v>
-      </c>
-      <c r="M15">
-        <v>0.87680000000000002</v>
-      </c>
-      <c r="N15">
-        <v>3.7620000000000001E-2</v>
-      </c>
-      <c r="O15">
-        <v>8.8569999999999996E-2</v>
-      </c>
-      <c r="P15">
-        <v>0.80869999999999997</v>
-      </c>
-      <c r="Q15">
-        <v>7.1019999999999998E-3</v>
-      </c>
-      <c r="R15">
-        <v>3.4499999999999998E-4</v>
-      </c>
-      <c r="S15">
-        <v>1.698</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>290</v>
-      </c>
-      <c r="B16">
-        <v>2.2879999999999998</v>
-      </c>
-      <c r="C16">
-        <v>9.8480000000000008</v>
-      </c>
-      <c r="D16">
-        <v>1.054</v>
-      </c>
-      <c r="E16">
-        <v>3.6400000000000002E-2</v>
-      </c>
-      <c r="F16">
-        <v>6.59E-2</v>
-      </c>
-      <c r="G16">
-        <v>0.75429999999999997</v>
-      </c>
-      <c r="H16">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="I16">
-        <v>2.9700000000000001E-2</v>
-      </c>
-      <c r="J16">
-        <v>1.1950000000000001</v>
-      </c>
-      <c r="K16">
-        <v>0.25180000000000002</v>
-      </c>
-      <c r="L16">
-        <v>1.829</v>
-      </c>
-      <c r="M16">
-        <v>1.2729999999999999</v>
-      </c>
-      <c r="N16">
-        <v>3.866E-2</v>
-      </c>
-      <c r="O16">
-        <v>6.2700000000000006E-2</v>
-      </c>
-      <c r="P16">
-        <v>1.1279999999999999</v>
-      </c>
-      <c r="Q16">
-        <v>7.4850000000000003E-3</v>
-      </c>
-      <c r="R16">
-        <v>-8.0999999999999996E-4</v>
-      </c>
-      <c r="S16">
-        <v>9.4589999999999994E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>291</v>
-      </c>
-      <c r="B17">
-        <v>29.91</v>
-      </c>
-      <c r="C17">
-        <v>184.4</v>
-      </c>
-      <c r="D17">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="E17">
-        <v>0.25390000000000001</v>
-      </c>
-      <c r="F17">
-        <v>1.8411</v>
-      </c>
-      <c r="G17">
-        <v>0.39240000000000003</v>
-      </c>
-      <c r="H17">
-        <v>8.8300000000000003E-2</v>
-      </c>
-      <c r="I17">
-        <v>0.75260000000000005</v>
-      </c>
-      <c r="J17">
-        <v>0.37859999999999999</v>
-      </c>
-      <c r="K17">
-        <v>5.7889999999999997</v>
-      </c>
-      <c r="L17">
-        <v>44.12</v>
-      </c>
-      <c r="M17">
-        <v>0.41239999999999999</v>
-      </c>
-      <c r="N17">
-        <v>0.2404</v>
-      </c>
-      <c r="O17">
-        <v>1.7090000000000001</v>
-      </c>
-      <c r="P17">
-        <v>0.39179999999999998</v>
-      </c>
-      <c r="Q17">
-        <v>1.8880000000000001E-2</v>
-      </c>
-      <c r="R17">
-        <v>4.172E-2</v>
-      </c>
-      <c r="S17">
-        <v>0.2903</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>292</v>
-      </c>
-      <c r="B18">
-        <v>2.3540000000000001</v>
-      </c>
-      <c r="C18">
-        <v>14.94</v>
-      </c>
-      <c r="D18">
-        <v>0.74809999999999999</v>
-      </c>
-      <c r="E18">
-        <v>3.7100000000000001E-2</v>
-      </c>
-      <c r="F18">
-        <v>0.1067</v>
-      </c>
-      <c r="G18">
-        <v>0.57330000000000003</v>
-      </c>
-      <c r="H18">
-        <v>1.3899999999999999E-2</v>
-      </c>
-      <c r="I18">
-        <v>4.6399999999999997E-2</v>
-      </c>
-      <c r="J18">
-        <v>0.91849999999999998</v>
-      </c>
-      <c r="K18">
-        <v>0.253</v>
-      </c>
-      <c r="L18">
-        <v>2.5920000000000001</v>
-      </c>
-      <c r="M18">
-        <v>0.79990000000000006</v>
-      </c>
-      <c r="N18">
-        <v>4.0009999999999997E-2</v>
-      </c>
-      <c r="O18">
-        <v>9.0300000000000005E-2</v>
-      </c>
-      <c r="P18">
-        <v>0.80189999999999995</v>
-      </c>
-      <c r="Q18">
-        <v>7.2659999999999999E-3</v>
-      </c>
-      <c r="R18">
-        <v>6.7400000000000001E-4</v>
-      </c>
-      <c r="S18">
-        <v>1.2335</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>293</v>
-      </c>
-      <c r="B19">
-        <v>2.661</v>
-      </c>
-      <c r="C19">
-        <v>19.54</v>
-      </c>
-      <c r="D19">
-        <v>0.50939999999999996</v>
-      </c>
-      <c r="E19">
-        <v>4.2189999999999998E-2</v>
-      </c>
-      <c r="F19">
-        <v>0.15590000000000001</v>
-      </c>
-      <c r="G19">
-        <v>0.44719999999999999</v>
-      </c>
-      <c r="H19">
-        <v>1.7469999999999999E-2</v>
-      </c>
-      <c r="I19">
-        <v>6.4219999999999999E-2</v>
-      </c>
-      <c r="J19">
-        <v>0.72989999999999999</v>
-      </c>
-      <c r="K19">
-        <v>0.3579</v>
-      </c>
-      <c r="L19">
-        <v>3.4660000000000002</v>
-      </c>
-      <c r="M19">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N19">
-        <v>4.6120000000000001E-2</v>
-      </c>
-      <c r="O19">
-        <v>0.1198</v>
-      </c>
-      <c r="P19">
-        <v>0.5907</v>
-      </c>
-      <c r="Q19">
-        <v>8.0789999999999994E-3</v>
-      </c>
-      <c r="R19">
-        <v>8.4699999999999999E-4</v>
-      </c>
-      <c r="S19">
-        <v>0.97419999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -19376,10 +18883,1019 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="306" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="340" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="338" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="338"/>
+      <c r="D3" s="338"/>
+      <c r="E3" s="338" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="338"/>
+      <c r="G3" s="338"/>
+      <c r="H3" s="338" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="338"/>
+      <c r="J3" s="338"/>
+      <c r="K3" s="338" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="338"/>
+      <c r="M3" s="338"/>
+      <c r="N3" s="338" t="s">
+        <v>96</v>
+      </c>
+      <c r="O3" s="338"/>
+      <c r="P3" s="338"/>
+      <c r="Q3" s="338" t="s">
+        <v>58</v>
+      </c>
+      <c r="R3" s="338"/>
+      <c r="S3" s="338"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="340"/>
+      <c r="B4" s="310" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="310" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="310" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="310" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="310" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="310" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="310" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="310" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="310" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="310" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="310" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="310" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="310" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="310" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="310" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="310" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="310" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4" s="310" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>38.79</v>
+      </c>
+      <c r="C5">
+        <v>180</v>
+      </c>
+      <c r="D5">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="E5">
+        <v>0.31740000000000002</v>
+      </c>
+      <c r="F5">
+        <v>1.724</v>
+      </c>
+      <c r="G5">
+        <v>0.3705</v>
+      </c>
+      <c r="H5">
+        <v>0.1198</v>
+      </c>
+      <c r="I5">
+        <v>0.7137</v>
+      </c>
+      <c r="J5">
+        <v>0.37030000000000002</v>
+      </c>
+      <c r="K5">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="L5">
+        <v>42.49</v>
+      </c>
+      <c r="M5">
+        <v>0.40610000000000002</v>
+      </c>
+      <c r="N5">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="O5">
+        <v>1.62</v>
+      </c>
+      <c r="P5">
+        <v>0.37930000000000003</v>
+      </c>
+      <c r="Q5">
+        <v>2.1579999999999998E-2</v>
+      </c>
+      <c r="R5">
+        <v>3.9710000000000002E-2</v>
+      </c>
+      <c r="S5">
+        <v>0.28520000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>8.8010000000000002</v>
+      </c>
+      <c r="C6">
+        <v>27.28</v>
+      </c>
+      <c r="D6">
+        <v>0.29570000000000002</v>
+      </c>
+      <c r="E6">
+        <v>9.0300000000000005E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.17119999999999999</v>
+      </c>
+      <c r="G6">
+        <v>0.2324</v>
+      </c>
+      <c r="H6">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="I6">
+        <v>8.7300000000000003E-2</v>
+      </c>
+      <c r="J6">
+        <v>0.51049999999999995</v>
+      </c>
+      <c r="K6">
+        <v>1.8169999999999999</v>
+      </c>
+      <c r="L6">
+        <v>4.84</v>
+      </c>
+      <c r="M6">
+        <v>0.40210000000000001</v>
+      </c>
+      <c r="N6">
+        <v>9.7210000000000005E-2</v>
+      </c>
+      <c r="O6">
+        <v>0.1799</v>
+      </c>
+      <c r="P6">
+        <v>0.49120000000000003</v>
+      </c>
+      <c r="Q6">
+        <v>1.076E-2</v>
+      </c>
+      <c r="R6">
+        <v>1.8619999999999999E-3</v>
+      </c>
+      <c r="S6">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>70</v>
+      </c>
+      <c r="B7">
+        <v>5.3689999999999998</v>
+      </c>
+      <c r="C7">
+        <v>23.49</v>
+      </c>
+      <c r="D7">
+        <v>0.58830000000000005</v>
+      </c>
+      <c r="E7">
+        <v>5.0900000000000001E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.16969999999999999</v>
+      </c>
+      <c r="G7">
+        <v>0.38490000000000002</v>
+      </c>
+      <c r="H7">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I7">
+        <v>7.1599999999999997E-2</v>
+      </c>
+      <c r="J7">
+        <v>0.73</v>
+      </c>
+      <c r="K7">
+        <v>0.71489999999999998</v>
+      </c>
+      <c r="L7">
+        <v>3.7890000000000001</v>
+      </c>
+      <c r="M7">
+        <v>0.53810000000000002</v>
+      </c>
+      <c r="N7">
+        <v>5.7910000000000003E-2</v>
+      </c>
+      <c r="O7">
+        <v>0.13569999999999999</v>
+      </c>
+      <c r="P7">
+        <v>0.5968</v>
+      </c>
+      <c r="Q7">
+        <v>8.5500000000000003E-3</v>
+      </c>
+      <c r="R7">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="S7">
+        <v>1.194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>2.5070000000000001</v>
+      </c>
+      <c r="C8">
+        <v>15.33</v>
+      </c>
+      <c r="D8">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="E8">
+        <v>3.95E-2</v>
+      </c>
+      <c r="F8">
+        <v>8.4400000000000003E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.51910000000000001</v>
+      </c>
+      <c r="H8">
+        <v>1.47E-2</v>
+      </c>
+      <c r="I8">
+        <v>0.04</v>
+      </c>
+      <c r="J8">
+        <v>0.97519999999999996</v>
+      </c>
+      <c r="K8">
+        <v>0.34239999999999998</v>
+      </c>
+      <c r="L8">
+        <v>2.456</v>
+      </c>
+      <c r="M8">
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="N8">
+        <v>4.2790000000000002E-2</v>
+      </c>
+      <c r="O8">
+        <v>8.9480000000000004E-2</v>
+      </c>
+      <c r="P8">
+        <v>1.0289999999999999</v>
+      </c>
+      <c r="Q8">
+        <v>7.2300000000000003E-3</v>
+      </c>
+      <c r="R8">
+        <v>8.9400000000000005E-4</v>
+      </c>
+      <c r="S8">
+        <v>1.3160000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>125</v>
+      </c>
+      <c r="B9">
+        <v>2.2330000000000001</v>
+      </c>
+      <c r="C9">
+        <v>7.8879999999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.72950000000000004</v>
+      </c>
+      <c r="E9">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="F9">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.78320000000000001</v>
+      </c>
+      <c r="H9">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I9">
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="J9">
+        <v>10.79</v>
+      </c>
+      <c r="K9">
+        <v>0.21379999999999999</v>
+      </c>
+      <c r="L9">
+        <v>1.69</v>
+      </c>
+      <c r="M9">
+        <v>1.0860000000000001</v>
+      </c>
+      <c r="N9">
+        <v>3.6540000000000003E-2</v>
+      </c>
+      <c r="O9">
+        <v>5.79E-2</v>
+      </c>
+      <c r="P9">
+        <v>1.093</v>
+      </c>
+      <c r="Q9">
+        <v>6.587E-3</v>
+      </c>
+      <c r="R9">
+        <v>-1.14E-3</v>
+      </c>
+      <c r="S9">
+        <v>1.1719999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>150</v>
+      </c>
+      <c r="B10">
+        <v>1.7909999999999999</v>
+      </c>
+      <c r="C10">
+        <v>5.4779999999999998</v>
+      </c>
+      <c r="D10">
+        <v>0.56779999999999997</v>
+      </c>
+      <c r="E10">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="F10">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G10">
+        <v>1.5660000000000001</v>
+      </c>
+      <c r="H10">
+        <v>1.04E-2</v>
+      </c>
+      <c r="I10">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="J10">
+        <v>1.135</v>
+      </c>
+      <c r="K10">
+        <v>0.15110000000000001</v>
+      </c>
+      <c r="L10">
+        <v>1.1240000000000001</v>
+      </c>
+      <c r="M10">
+        <v>1.151</v>
+      </c>
+      <c r="N10">
+        <v>3.2669999999999998E-2</v>
+      </c>
+      <c r="O10">
+        <v>4.0739999999999998E-2</v>
+      </c>
+      <c r="P10">
+        <v>1.1339999999999999</v>
+      </c>
+      <c r="Q10">
+        <v>6.0270000000000002E-3</v>
+      </c>
+      <c r="R10">
+        <v>-1.6299999999999999E-3</v>
+      </c>
+      <c r="S10">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>286</v>
+      </c>
+      <c r="B11">
+        <v>2.298</v>
+      </c>
+      <c r="C11">
+        <v>17.38</v>
+      </c>
+      <c r="D11">
+        <v>0.61929999999999996</v>
+      </c>
+      <c r="E11">
+        <v>3.61E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.14330000000000001</v>
+      </c>
+      <c r="G11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H11">
+        <v>1.38E-2</v>
+      </c>
+      <c r="I11">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="J11">
+        <v>0.79369999999999996</v>
+      </c>
+      <c r="K11">
+        <v>0.21909999999999999</v>
+      </c>
+      <c r="L11">
+        <v>3.49</v>
+      </c>
+      <c r="M11">
+        <v>0.73580000000000001</v>
+      </c>
+      <c r="N11">
+        <v>3.8730000000000001E-2</v>
+      </c>
+      <c r="O11">
+        <v>0.10539999999999999</v>
+      </c>
+      <c r="P11">
+        <v>0.63970000000000005</v>
+      </c>
+      <c r="Q11">
+        <v>7.5519999999999997E-3</v>
+      </c>
+      <c r="R11">
+        <v>7.3700000000000002E-4</v>
+      </c>
+      <c r="S11">
+        <v>1.044</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>287</v>
+      </c>
+      <c r="B12">
+        <v>2.2559999999999998</v>
+      </c>
+      <c r="C12">
+        <v>13.8</v>
+      </c>
+      <c r="D12">
+        <v>0.88370000000000004</v>
+      </c>
+      <c r="E12">
+        <v>3.56E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.1079</v>
+      </c>
+      <c r="G12">
+        <v>0.77049999999999996</v>
+      </c>
+      <c r="H12">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="I12">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="J12">
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="K12">
+        <v>0.22109999999999999</v>
+      </c>
+      <c r="L12">
+        <v>2.8359999999999999</v>
+      </c>
+      <c r="M12">
+        <v>1.123</v>
+      </c>
+      <c r="N12">
+        <v>3.7490000000000002E-2</v>
+      </c>
+      <c r="O12">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="P12">
+        <v>0.90859999999999996</v>
+      </c>
+      <c r="Q12">
+        <v>7.058E-3</v>
+      </c>
+      <c r="R12">
+        <v>2.2900000000000001E-4</v>
+      </c>
+      <c r="S12">
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>288</v>
+      </c>
+      <c r="B13">
+        <v>2.5129999999999999</v>
+      </c>
+      <c r="C13">
+        <v>17.34</v>
+      </c>
+      <c r="D13">
+        <v>0.49940000000000001</v>
+      </c>
+      <c r="E13">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.1464</v>
+      </c>
+      <c r="G13">
+        <v>0.4486</v>
+      </c>
+      <c r="H13">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="I13">
+        <v>6.08E-2</v>
+      </c>
+      <c r="J13">
+        <v>0.74719999999999998</v>
+      </c>
+      <c r="K13">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="L13">
+        <v>3.012</v>
+      </c>
+      <c r="M13">
+        <v>0.50190000000000001</v>
+      </c>
+      <c r="N13">
+        <v>4.299E-2</v>
+      </c>
+      <c r="O13">
+        <v>0.107</v>
+      </c>
+      <c r="P13">
+        <v>0.55379999999999996</v>
+      </c>
+      <c r="Q13">
+        <v>7.8869999999999999E-3</v>
+      </c>
+      <c r="R13">
+        <v>8.7699999999999996E-4</v>
+      </c>
+      <c r="S13">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>289</v>
+      </c>
+      <c r="B14">
+        <v>2.3220000000000001</v>
+      </c>
+      <c r="C14">
+        <v>12.91</v>
+      </c>
+      <c r="D14">
+        <v>0.75749999999999995</v>
+      </c>
+      <c r="E14">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="F14">
+        <v>9.3600000000000003E-2</v>
+      </c>
+      <c r="G14">
+        <v>0.59550000000000003</v>
+      </c>
+      <c r="H14">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="I14">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="J14">
+        <v>0.95660000000000001</v>
+      </c>
+      <c r="K14">
+        <v>0.2331</v>
+      </c>
+      <c r="L14">
+        <v>2.2130000000000001</v>
+      </c>
+      <c r="M14">
+        <v>0.80510000000000004</v>
+      </c>
+      <c r="N14">
+        <v>3.8859999999999999E-2</v>
+      </c>
+      <c r="O14">
+        <v>8.0909999999999996E-2</v>
+      </c>
+      <c r="P14">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="Q14">
+        <v>7.0569999999999999E-3</v>
+      </c>
+      <c r="R14">
+        <v>4.2200000000000001E-4</v>
+      </c>
+      <c r="S14">
+        <v>1.6639999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B15">
+        <v>2.2719999999999998</v>
+      </c>
+      <c r="C15">
+        <v>13.6</v>
+      </c>
+      <c r="D15">
+        <v>0.71840000000000004</v>
+      </c>
+      <c r="E15">
+        <v>3.56E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.1114</v>
+      </c>
+      <c r="G15">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="H15">
+        <v>1.29E-2</v>
+      </c>
+      <c r="I15">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="J15">
+        <v>0.9355</v>
+      </c>
+      <c r="K15">
+        <v>0.21490000000000001</v>
+      </c>
+      <c r="L15">
+        <v>2.6949999999999998</v>
+      </c>
+      <c r="M15">
+        <v>0.87680000000000002</v>
+      </c>
+      <c r="N15">
+        <v>3.7620000000000001E-2</v>
+      </c>
+      <c r="O15">
+        <v>8.8569999999999996E-2</v>
+      </c>
+      <c r="P15">
+        <v>0.80869999999999997</v>
+      </c>
+      <c r="Q15">
+        <v>7.1019999999999998E-3</v>
+      </c>
+      <c r="R15">
+        <v>3.4499999999999998E-4</v>
+      </c>
+      <c r="S15">
+        <v>1.698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>290</v>
+      </c>
+      <c r="B16">
+        <v>2.2879999999999998</v>
+      </c>
+      <c r="C16">
+        <v>9.8480000000000008</v>
+      </c>
+      <c r="D16">
+        <v>1.054</v>
+      </c>
+      <c r="E16">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="F16">
+        <v>6.59E-2</v>
+      </c>
+      <c r="G16">
+        <v>0.75429999999999997</v>
+      </c>
+      <c r="H16">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I16">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="J16">
+        <v>1.1950000000000001</v>
+      </c>
+      <c r="K16">
+        <v>0.25180000000000002</v>
+      </c>
+      <c r="L16">
+        <v>1.829</v>
+      </c>
+      <c r="M16">
+        <v>1.2729999999999999</v>
+      </c>
+      <c r="N16">
+        <v>3.866E-2</v>
+      </c>
+      <c r="O16">
+        <v>6.2700000000000006E-2</v>
+      </c>
+      <c r="P16">
+        <v>1.1279999999999999</v>
+      </c>
+      <c r="Q16">
+        <v>7.4850000000000003E-3</v>
+      </c>
+      <c r="R16">
+        <v>-8.0999999999999996E-4</v>
+      </c>
+      <c r="S16">
+        <v>9.4589999999999994E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>291</v>
+      </c>
+      <c r="B17">
+        <v>29.91</v>
+      </c>
+      <c r="C17">
+        <v>184.4</v>
+      </c>
+      <c r="D17">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="E17">
+        <v>0.25390000000000001</v>
+      </c>
+      <c r="F17">
+        <v>1.8411</v>
+      </c>
+      <c r="G17">
+        <v>0.39240000000000003</v>
+      </c>
+      <c r="H17">
+        <v>8.8300000000000003E-2</v>
+      </c>
+      <c r="I17">
+        <v>0.75260000000000005</v>
+      </c>
+      <c r="J17">
+        <v>0.37859999999999999</v>
+      </c>
+      <c r="K17">
+        <v>5.7889999999999997</v>
+      </c>
+      <c r="L17">
+        <v>44.12</v>
+      </c>
+      <c r="M17">
+        <v>0.41239999999999999</v>
+      </c>
+      <c r="N17">
+        <v>0.2404</v>
+      </c>
+      <c r="O17">
+        <v>1.7090000000000001</v>
+      </c>
+      <c r="P17">
+        <v>0.39179999999999998</v>
+      </c>
+      <c r="Q17">
+        <v>1.8880000000000001E-2</v>
+      </c>
+      <c r="R17">
+        <v>4.172E-2</v>
+      </c>
+      <c r="S17">
+        <v>0.2903</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>292</v>
+      </c>
+      <c r="B18">
+        <v>2.3540000000000001</v>
+      </c>
+      <c r="C18">
+        <v>14.94</v>
+      </c>
+      <c r="D18">
+        <v>0.74809999999999999</v>
+      </c>
+      <c r="E18">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="F18">
+        <v>0.1067</v>
+      </c>
+      <c r="G18">
+        <v>0.57330000000000003</v>
+      </c>
+      <c r="H18">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="I18">
+        <v>4.6399999999999997E-2</v>
+      </c>
+      <c r="J18">
+        <v>0.91849999999999998</v>
+      </c>
+      <c r="K18">
+        <v>0.253</v>
+      </c>
+      <c r="L18">
+        <v>2.5920000000000001</v>
+      </c>
+      <c r="M18">
+        <v>0.79990000000000006</v>
+      </c>
+      <c r="N18">
+        <v>4.0009999999999997E-2</v>
+      </c>
+      <c r="O18">
+        <v>9.0300000000000005E-2</v>
+      </c>
+      <c r="P18">
+        <v>0.80189999999999995</v>
+      </c>
+      <c r="Q18">
+        <v>7.2659999999999999E-3</v>
+      </c>
+      <c r="R18">
+        <v>6.7400000000000001E-4</v>
+      </c>
+      <c r="S18">
+        <v>1.2335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>293</v>
+      </c>
+      <c r="B19">
+        <v>2.661</v>
+      </c>
+      <c r="C19">
+        <v>19.54</v>
+      </c>
+      <c r="D19">
+        <v>0.50939999999999996</v>
+      </c>
+      <c r="E19">
+        <v>4.2189999999999998E-2</v>
+      </c>
+      <c r="F19">
+        <v>0.15590000000000001</v>
+      </c>
+      <c r="G19">
+        <v>0.44719999999999999</v>
+      </c>
+      <c r="H19">
+        <v>1.7469999999999999E-2</v>
+      </c>
+      <c r="I19">
+        <v>6.4219999999999999E-2</v>
+      </c>
+      <c r="J19">
+        <v>0.72989999999999999</v>
+      </c>
+      <c r="K19">
+        <v>0.3579</v>
+      </c>
+      <c r="L19">
+        <v>3.4660000000000002</v>
+      </c>
+      <c r="M19">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N19">
+        <v>4.6120000000000001E-2</v>
+      </c>
+      <c r="O19">
+        <v>0.1198</v>
+      </c>
+      <c r="P19">
+        <v>0.5907</v>
+      </c>
+      <c r="Q19">
+        <v>8.0789999999999994E-3</v>
+      </c>
+      <c r="R19">
+        <v>8.4699999999999999E-4</v>
+      </c>
+      <c r="S19">
+        <v>0.97419999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:B39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19393,36 +19909,36 @@
       <c r="A2" s="319" t="s">
         <v>303</v>
       </c>
-      <c r="B2" s="336" t="s">
+      <c r="B2" s="338" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="336"/>
-      <c r="D2" s="336"/>
-      <c r="E2" s="336" t="s">
+      <c r="C2" s="338"/>
+      <c r="D2" s="338"/>
+      <c r="E2" s="338" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="336"/>
-      <c r="G2" s="336"/>
-      <c r="H2" s="336" t="s">
+      <c r="F2" s="338"/>
+      <c r="G2" s="338"/>
+      <c r="H2" s="338" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="336"/>
-      <c r="J2" s="336"/>
-      <c r="K2" s="336" t="s">
+      <c r="I2" s="338"/>
+      <c r="J2" s="338"/>
+      <c r="K2" s="338" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="336"/>
-      <c r="M2" s="336"/>
-      <c r="N2" s="336" t="s">
+      <c r="L2" s="338"/>
+      <c r="M2" s="338"/>
+      <c r="N2" s="338" t="s">
         <v>96</v>
       </c>
-      <c r="O2" s="336"/>
-      <c r="P2" s="336"/>
-      <c r="Q2" s="336" t="s">
+      <c r="O2" s="338"/>
+      <c r="P2" s="338"/>
+      <c r="Q2" s="338" t="s">
         <v>58</v>
       </c>
-      <c r="R2" s="336"/>
-      <c r="S2" s="336"/>
+      <c r="R2" s="338"/>
+      <c r="S2" s="338"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -19736,36 +20252,36 @@
       <c r="A12" s="319" t="s">
         <v>302</v>
       </c>
-      <c r="B12" s="336" t="s">
+      <c r="B12" s="338" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="336"/>
-      <c r="D12" s="336"/>
-      <c r="E12" s="336" t="s">
+      <c r="C12" s="338"/>
+      <c r="D12" s="338"/>
+      <c r="E12" s="338" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="336"/>
-      <c r="G12" s="336"/>
-      <c r="H12" s="336" t="s">
+      <c r="F12" s="338"/>
+      <c r="G12" s="338"/>
+      <c r="H12" s="338" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="336"/>
-      <c r="J12" s="336"/>
-      <c r="K12" s="336" t="s">
+      <c r="I12" s="338"/>
+      <c r="J12" s="338"/>
+      <c r="K12" s="338" t="s">
         <v>54</v>
       </c>
-      <c r="L12" s="336"/>
-      <c r="M12" s="336"/>
-      <c r="N12" s="336" t="s">
+      <c r="L12" s="338"/>
+      <c r="M12" s="338"/>
+      <c r="N12" s="338" t="s">
         <v>96</v>
       </c>
-      <c r="O12" s="336"/>
-      <c r="P12" s="336"/>
-      <c r="Q12" s="336" t="s">
+      <c r="O12" s="338"/>
+      <c r="P12" s="338"/>
+      <c r="Q12" s="338" t="s">
         <v>58</v>
       </c>
-      <c r="R12" s="336"/>
-      <c r="S12" s="336"/>
+      <c r="R12" s="338"/>
+      <c r="S12" s="338"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -20197,36 +20713,36 @@
       <c r="A24" s="319" t="s">
         <v>301</v>
       </c>
-      <c r="B24" s="336" t="s">
+      <c r="B24" s="338" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="336"/>
-      <c r="D24" s="336"/>
-      <c r="E24" s="336" t="s">
+      <c r="C24" s="338"/>
+      <c r="D24" s="338"/>
+      <c r="E24" s="338" t="s">
         <v>95</v>
       </c>
-      <c r="F24" s="336"/>
-      <c r="G24" s="336"/>
-      <c r="H24" s="336" t="s">
+      <c r="F24" s="338"/>
+      <c r="G24" s="338"/>
+      <c r="H24" s="338" t="s">
         <v>52</v>
       </c>
-      <c r="I24" s="336"/>
-      <c r="J24" s="336"/>
-      <c r="K24" s="336" t="s">
+      <c r="I24" s="338"/>
+      <c r="J24" s="338"/>
+      <c r="K24" s="338" t="s">
         <v>54</v>
       </c>
-      <c r="L24" s="336"/>
-      <c r="M24" s="336"/>
-      <c r="N24" s="336" t="s">
+      <c r="L24" s="338"/>
+      <c r="M24" s="338"/>
+      <c r="N24" s="338" t="s">
         <v>96</v>
       </c>
-      <c r="O24" s="336"/>
-      <c r="P24" s="336"/>
-      <c r="Q24" s="336" t="s">
+      <c r="O24" s="338"/>
+      <c r="P24" s="338"/>
+      <c r="Q24" s="338" t="s">
         <v>58</v>
       </c>
-      <c r="R24" s="336"/>
-      <c r="S24" s="336"/>
+      <c r="R24" s="338"/>
+      <c r="S24" s="338"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -20537,36 +21053,36 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C34" s="336" t="s">
+      <c r="C34" s="338" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="336"/>
-      <c r="E34" s="336"/>
-      <c r="F34" s="336" t="s">
+      <c r="D34" s="338"/>
+      <c r="E34" s="338"/>
+      <c r="F34" s="338" t="s">
         <v>95</v>
       </c>
-      <c r="G34" s="336"/>
-      <c r="H34" s="336"/>
-      <c r="I34" s="336" t="s">
+      <c r="G34" s="338"/>
+      <c r="H34" s="338"/>
+      <c r="I34" s="338" t="s">
         <v>52</v>
       </c>
-      <c r="J34" s="336"/>
-      <c r="K34" s="336"/>
-      <c r="L34" s="336" t="s">
+      <c r="J34" s="338"/>
+      <c r="K34" s="338"/>
+      <c r="L34" s="338" t="s">
         <v>54</v>
       </c>
-      <c r="M34" s="336"/>
-      <c r="N34" s="336"/>
-      <c r="O34" s="336" t="s">
+      <c r="M34" s="338"/>
+      <c r="N34" s="338"/>
+      <c r="O34" s="338" t="s">
         <v>96</v>
       </c>
-      <c r="P34" s="336"/>
-      <c r="Q34" s="336"/>
-      <c r="R34" s="336" t="s">
+      <c r="P34" s="338"/>
+      <c r="Q34" s="338"/>
+      <c r="R34" s="338" t="s">
         <v>58</v>
       </c>
-      <c r="S34" s="336"/>
-      <c r="T34" s="336"/>
+      <c r="S34" s="338"/>
+      <c r="T34" s="338"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C35" s="310" t="s">
@@ -20752,18 +21268,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q24:S24"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="E12:G12"/>
@@ -20776,7 +21280,410 @@
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="K24:M24"/>
     <mergeCell ref="N24:P24"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="O34:Q34"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="343" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="305" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="305" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="305" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" s="305" t="s">
+        <v>325</v>
+      </c>
+      <c r="D2" s="305" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2" s="305" t="s">
+        <v>327</v>
+      </c>
+      <c r="F2" s="305" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B3">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="C3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D3">
+        <v>0.96</v>
+      </c>
+      <c r="E3">
+        <v>511</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B4">
+        <f>12.7*60</f>
+        <v>762</v>
+      </c>
+      <c r="C4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D4">
+        <v>0.65</v>
+      </c>
+      <c r="E4" t="s">
+        <v>335</v>
+      </c>
+      <c r="F4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B5">
+        <v>109.8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D5">
+        <v>0.63</v>
+      </c>
+      <c r="E5">
+        <v>511</v>
+      </c>
+      <c r="F5">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B6">
+        <v>68.3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>346</v>
+      </c>
+      <c r="D6">
+        <v>1.9</v>
+      </c>
+      <c r="E6">
+        <v>511</v>
+      </c>
+      <c r="F6">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B7">
+        <f>4.2*3600*24</f>
+        <v>362880</v>
+      </c>
+      <c r="C7" t="s">
+        <v>346</v>
+      </c>
+      <c r="D7" t="s">
+        <v>342</v>
+      </c>
+      <c r="E7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D8">
+        <v>1.19</v>
+      </c>
+      <c r="E8">
+        <v>511</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>332</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>345</v>
+      </c>
+      <c r="D9">
+        <v>1.72</v>
+      </c>
+      <c r="E9">
+        <v>511</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>337</v>
+      </c>
+      <c r="B10">
+        <f>76/60</f>
+        <v>1.2666666666666666</v>
+      </c>
+      <c r="C10" t="s">
+        <v>346</v>
+      </c>
+      <c r="D10">
+        <v>3.35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>338</v>
+      </c>
+      <c r="F10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="343" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="344"/>
+      <c r="B13" s="305" t="s">
+        <v>349</v>
+      </c>
+      <c r="C13" s="305" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="305" t="s">
+        <v>324</v>
+      </c>
+      <c r="B14" s="305" t="s">
+        <v>351</v>
+      </c>
+      <c r="C14" s="305" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>329</v>
+      </c>
+      <c r="B15">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="C15">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>334</v>
+      </c>
+      <c r="B16">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C16">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>333</v>
+      </c>
+      <c r="B17">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="C17">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>336</v>
+      </c>
+      <c r="B18">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="C18">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>341</v>
+      </c>
+      <c r="B19">
+        <v>0.185</v>
+      </c>
+      <c r="C19">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>331</v>
+      </c>
+      <c r="B20">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="C20">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>332</v>
+      </c>
+      <c r="B21">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="C21">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>337</v>
+      </c>
+      <c r="B22">
+        <v>0.159</v>
+      </c>
+      <c r="C22">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="342" t="s">
+        <v>321</v>
+      </c>
+      <c r="B24" s="324"/>
+      <c r="C24" s="324"/>
+      <c r="D24" s="324"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>319</v>
+      </c>
+      <c r="B25" s="310" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="310" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="310" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26">
+        <v>1.5429999999999999</v>
+      </c>
+      <c r="C26">
+        <v>-0.44080000000000003</v>
+      </c>
+      <c r="D26">
+        <v>2.1360000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27">
+        <v>0.15390000000000001</v>
+      </c>
+      <c r="C27">
+        <v>-0.11609999999999999</v>
+      </c>
+      <c r="D27">
+        <v>2.0752000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>320</v>
+      </c>
+      <c r="B28">
+        <v>0.57040000000000002</v>
+      </c>
+      <c r="C28">
+        <v>-0.30630000000000002</v>
+      </c>
+      <c r="D28">
+        <v>0.63260000000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="319" t="s">
+        <v>295</v>
+      </c>
+      <c r="B30" s="306" t="s">
+        <v>322</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A3:F10">
+    <sortCondition ref="A3:A10"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20797,22 +21704,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="323" t="s">
+      <c r="B1" s="325" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="323"/>
-      <c r="D1" s="323" t="s">
+      <c r="C1" s="325"/>
+      <c r="D1" s="325" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="323"/>
-      <c r="F1" s="323"/>
-      <c r="H1" s="324" t="s">
+      <c r="E1" s="325"/>
+      <c r="F1" s="325"/>
+      <c r="H1" s="326" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="323"/>
-      <c r="J1" s="323"/>
-      <c r="K1" s="323"/>
-      <c r="L1" s="323"/>
+      <c r="I1" s="325"/>
+      <c r="J1" s="325"/>
+      <c r="K1" s="325"/>
+      <c r="L1" s="325"/>
       <c r="M1" s="293"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -20907,13 +21814,13 @@
       <c r="D5" s="315"/>
       <c r="E5" s="315"/>
       <c r="F5" s="315"/>
-      <c r="H5" s="325" t="s">
+      <c r="H5" s="327" t="s">
         <v>184</v>
       </c>
-      <c r="I5" s="326"/>
-      <c r="J5" s="326"/>
-      <c r="K5" s="326"/>
-      <c r="L5" s="326"/>
+      <c r="I5" s="328"/>
+      <c r="J5" s="328"/>
+      <c r="K5" s="328"/>
+      <c r="L5" s="328"/>
       <c r="M5" s="293"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -21933,8 +22840,8 @@
   </sheetPr>
   <dimension ref="A1:V71"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30:K44"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22222,14 +23129,14 @@
       <c r="M18" s="264"/>
       <c r="N18" s="263"/>
       <c r="P18" s="278"/>
-      <c r="Q18" s="327" t="s">
+      <c r="Q18" s="329" t="s">
         <v>173</v>
       </c>
-      <c r="R18" s="327"/>
-      <c r="S18" s="327"/>
-      <c r="T18" s="327"/>
-      <c r="U18" s="327"/>
-      <c r="V18" s="328"/>
+      <c r="R18" s="329"/>
+      <c r="S18" s="329"/>
+      <c r="T18" s="329"/>
+      <c r="U18" s="329"/>
+      <c r="V18" s="330"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="215"/>
@@ -22260,16 +23167,16 @@
       </c>
       <c r="N19" s="275"/>
       <c r="P19" s="215"/>
-      <c r="Q19" s="329" t="s">
+      <c r="Q19" s="331" t="s">
         <v>172</v>
       </c>
-      <c r="R19" s="329"/>
-      <c r="S19" s="329"/>
-      <c r="T19" s="330" t="s">
+      <c r="R19" s="331"/>
+      <c r="S19" s="331"/>
+      <c r="T19" s="332" t="s">
         <v>95</v>
       </c>
-      <c r="U19" s="330"/>
-      <c r="V19" s="331"/>
+      <c r="U19" s="332"/>
+      <c r="V19" s="333"/>
     </row>
     <row r="20" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="215"/>
@@ -22466,14 +23373,14 @@
       <c r="N24" s="216"/>
       <c r="O24" s="216"/>
       <c r="P24" s="253"/>
-      <c r="Q24" s="327" t="s">
+      <c r="Q24" s="329" t="s">
         <v>173</v>
       </c>
-      <c r="R24" s="327"/>
-      <c r="S24" s="327"/>
-      <c r="T24" s="327"/>
-      <c r="U24" s="327"/>
-      <c r="V24" s="328"/>
+      <c r="R24" s="329"/>
+      <c r="S24" s="329"/>
+      <c r="T24" s="329"/>
+      <c r="U24" s="329"/>
+      <c r="V24" s="330"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="223" t="s">
@@ -22559,7 +23466,7 @@
       <c r="H27" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="J27" s="332" t="s">
+      <c r="J27" s="334" t="s">
         <v>162</v>
       </c>
       <c r="K27" s="210" t="s">
@@ -22622,7 +23529,7 @@
       <c r="H28" s="245" t="s">
         <v>122</v>
       </c>
-      <c r="J28" s="332"/>
+      <c r="J28" s="334"/>
       <c r="K28" s="210" t="s">
         <v>183</v>
       </c>
@@ -23551,6 +24458,237 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="12.83203125" style="323"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="345" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="346" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="355"/>
+      <c r="F2" s="347"/>
+      <c r="G2" s="347"/>
+      <c r="H2" s="348"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="349" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="356" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="350" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="357"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="341" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="354" t="s">
+        <v>355</v>
+      </c>
+      <c r="B7" s="358" t="s">
+        <v>333</v>
+      </c>
+      <c r="C7" s="358" t="s">
+        <v>337</v>
+      </c>
+      <c r="D7" s="358"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="352" t="s">
+        <v>365</v>
+      </c>
+      <c r="B8" s="358">
+        <f>16*5</f>
+        <v>80</v>
+      </c>
+      <c r="C8" s="358">
+        <v>5</v>
+      </c>
+      <c r="D8" s="358"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="343" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="351" t="s">
+        <v>355</v>
+      </c>
+      <c r="B11" s="351" t="s">
+        <v>357</v>
+      </c>
+      <c r="C11" s="351" t="s">
+        <v>358</v>
+      </c>
+      <c r="D11" s="351" t="s">
+        <v>362</v>
+      </c>
+      <c r="E11" s="352" t="s">
+        <v>363</v>
+      </c>
+      <c r="F11" s="351" t="s">
+        <v>361</v>
+      </c>
+      <c r="G11" s="351" t="s">
+        <v>359</v>
+      </c>
+      <c r="H11" s="351" t="s">
+        <v>360</v>
+      </c>
+      <c r="I11" s="351" t="s">
+        <v>366</v>
+      </c>
+      <c r="J11" s="351" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="359" t="str">
+        <f>IF(B7="","",B7)</f>
+        <v>F-18</v>
+      </c>
+      <c r="B12" s="359">
+        <v>370</v>
+      </c>
+      <c r="C12" s="359">
+        <v>55</v>
+      </c>
+      <c r="D12" s="359">
+        <v>15</v>
+      </c>
+      <c r="E12" s="353">
+        <f>IF(A12="","",VLOOKUP(A12,AAPMTG108!$A$3:$B$10,2,FALSE))</f>
+        <v>109.8</v>
+      </c>
+      <c r="F12" s="353">
+        <f>IF(B12="","",(B12*0.64)*1.443*E12*(1-EXP(-LN(2)*C12/E12))/C12)</f>
+        <v>200.10510580027605</v>
+      </c>
+      <c r="G12" s="353">
+        <f>IF(B12="","",(B12*0.64)*EXP(-LN(2)*C12/E12))</f>
+        <v>167.33721553195579</v>
+      </c>
+      <c r="H12" s="353">
+        <f>IF(G12="","",G12*0.85)</f>
+        <v>142.23663320216241</v>
+      </c>
+      <c r="I12" s="353">
+        <f>IF(H12="","",H12*1.443*E12*(1-EXP(-LN(2)*D12/E12))/D12)</f>
+        <v>135.73859264685737</v>
+      </c>
+      <c r="J12" s="353">
+        <f>IF(H12="","",H12*EXP(-LN(2)*D12/E12))</f>
+        <v>129.3859585066418</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="359" t="str">
+        <f>IF(C7="","",C7)</f>
+        <v>Rb-82</v>
+      </c>
+      <c r="B13" s="359">
+        <v>1110</v>
+      </c>
+      <c r="C13" s="359">
+        <v>10</v>
+      </c>
+      <c r="D13" s="359">
+        <v>5</v>
+      </c>
+      <c r="E13" s="353">
+        <f>IF(A13="","",VLOOKUP(A13,AAPMTG108!$A$3:$B$10,2,FALSE))</f>
+        <v>1.2666666666666666</v>
+      </c>
+      <c r="F13" s="353">
+        <f t="shared" ref="F13:F14" si="0">IF(B13="","",(B13*0.64)*1.443*E13*(1-EXP(-LN(2)*C13/E13))/C13)</f>
+        <v>129.30130613715559</v>
+      </c>
+      <c r="G13" s="353">
+        <f t="shared" ref="G13:G14" si="1">IF(B13="","",(B13*0.64)*EXP(-LN(2)*C13/E13))</f>
+        <v>2.9850413767610053</v>
+      </c>
+      <c r="H13" s="353">
+        <f t="shared" ref="H13:H14" si="2">IF(G13="","",G13*0.85)</f>
+        <v>2.5372851702468546</v>
+      </c>
+      <c r="I13" s="353">
+        <f t="shared" ref="I13:I14" si="3">IF(H13="","",H13*1.443*E13*(1-EXP(-LN(2)*D13/E13))/D13)</f>
+        <v>0.86740544283679122</v>
+      </c>
+      <c r="J13" s="353">
+        <f t="shared" ref="J13:J14" si="4">IF(H13="","",H13*EXP(-LN(2)*D13/E13))</f>
+        <v>0.16447238209500251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="359" t="str">
+        <f>IF(D7="","",D7)</f>
+        <v/>
+      </c>
+      <c r="B14" s="359"/>
+      <c r="C14" s="359"/>
+      <c r="D14" s="359"/>
+      <c r="E14" s="353" t="str">
+        <f>IF(A14="","",VLOOKUP(A14,AAPMTG108!$A$3:$B$10,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F14" s="353" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G14" s="353" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H14" s="353" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I14" s="353" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J14" s="353" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="343" t="s">
+        <v>367</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V47"/>
   <sheetViews>
@@ -23946,7 +25084,7 @@
       <c r="E18" s="167" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="333" t="s">
+      <c r="F18" s="335" t="s">
         <v>121</v>
       </c>
       <c r="G18" s="167"/>
@@ -23996,7 +25134,7 @@
       <c r="E19" s="167" t="s">
         <v>113</v>
       </c>
-      <c r="F19" s="333"/>
+      <c r="F19" s="335"/>
       <c r="G19" s="167" t="s">
         <v>48</v>
       </c>
@@ -24029,22 +25167,22 @@
       <c r="E20" s="168" t="s">
         <v>181</v>
       </c>
-      <c r="F20" s="334"/>
+      <c r="F20" s="336"/>
       <c r="G20" s="168" t="s">
         <v>122</v>
       </c>
       <c r="H20" s="168" t="s">
         <v>118</v>
       </c>
-      <c r="L20" s="335" t="s">
+      <c r="L20" s="337" t="s">
         <v>123</v>
       </c>
-      <c r="M20" s="335"/>
-      <c r="N20" s="335"/>
-      <c r="O20" s="335"/>
-      <c r="P20" s="335"/>
-      <c r="Q20" s="335"/>
-      <c r="R20" s="335"/>
+      <c r="M20" s="337"/>
+      <c r="N20" s="337"/>
+      <c r="O20" s="337"/>
+      <c r="P20" s="337"/>
+      <c r="Q20" s="337"/>
+      <c r="R20" s="337"/>
       <c r="T20" s="158">
         <v>1.1906250009999999</v>
       </c>
@@ -24851,7 +25989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF32"/>
   <sheetViews>
@@ -27948,7 +29086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -28026,7 +29164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
@@ -28045,16 +29183,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="336" t="s">
+      <c r="B3" s="338" t="s">
         <v>229</v>
       </c>
-      <c r="C3" s="336"/>
-      <c r="D3" s="336"/>
-      <c r="E3" s="336" t="s">
+      <c r="C3" s="338"/>
+      <c r="D3" s="338"/>
+      <c r="E3" s="338" t="s">
         <v>230</v>
       </c>
-      <c r="F3" s="336"/>
-      <c r="G3" s="336"/>
+      <c r="F3" s="338"/>
+      <c r="G3" s="338"/>
     </row>
     <row r="4" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="311" t="s">
@@ -28901,11 +30039,11 @@
       <c r="A30" t="s">
         <v>241</v>
       </c>
-      <c r="B30" s="336">
+      <c r="B30" s="338">
         <v>110</v>
       </c>
-      <c r="C30" s="336"/>
-      <c r="D30" s="336"/>
+      <c r="C30" s="338"/>
+      <c r="D30" s="338"/>
       <c r="E30">
         <v>18</v>
       </c>
@@ -28935,7 +30073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -28960,14 +30098,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="337" t="s">
+      <c r="C3" s="339" t="s">
         <v>244</v>
       </c>
-      <c r="D3" s="337"/>
-      <c r="E3" s="337" t="s">
+      <c r="D3" s="339"/>
+      <c r="E3" s="339" t="s">
         <v>245</v>
       </c>
-      <c r="F3" s="337"/>
+      <c r="F3" s="339"/>
     </row>
     <row r="4" spans="1:6" s="305" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="311" t="s">
@@ -29180,68 +30318,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="306" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B4">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B5">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B6">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>256</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/MUSCShield_form.xlsx
+++ b/MUSCShield_form.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8190" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8190" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -3794,6 +3794,12 @@
     <xf numFmtId="164" fontId="24" fillId="0" borderId="8" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3804,12 +3810,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5264,13 +5264,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>155067</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5809,9 +5809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:H5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -24989,6 +24987,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="AB34:AD34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="M34:Q34"/>
+    <mergeCell ref="R34:V34"/>
+    <mergeCell ref="W34:AA34"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="V2:X2"/>
     <mergeCell ref="AA24:AC24"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="G12:I12"/>
@@ -25001,18 +25011,6 @@
     <mergeCell ref="L24:N24"/>
     <mergeCell ref="Q24:S24"/>
     <mergeCell ref="V24:X24"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="AB34:AD34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="M34:Q34"/>
-    <mergeCell ref="R34:V34"/>
-    <mergeCell ref="W34:AA34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25020,11 +25018,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R88"/>
+  <dimension ref="A1:R82"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54:F66"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -25032,8 +25028,8 @@
     <col min="2" max="16" width="8.6640625" style="306" customWidth="1"/>
     <col min="17" max="17" width="8.6640625" style="321" customWidth="1"/>
     <col min="18" max="18" width="8.6640625" style="314" customWidth="1"/>
-    <col min="19" max="1026" width="8.6640625" style="306" customWidth="1"/>
-    <col min="1027" max="16384" width="9.33203125" style="306"/>
+    <col min="19" max="20" width="8.6640625" style="306" customWidth="1"/>
+    <col min="21" max="16384" width="9.33203125" style="306"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
@@ -25052,8 +25048,8 @@
       <c r="A2" s="321" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="331"/>
-      <c r="C2" s="332"/>
+      <c r="B2" s="333"/>
+      <c r="C2" s="334"/>
       <c r="R2" s="314" t="s">
         <v>318</v>
       </c>
@@ -25078,22 +25074,22 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="333" t="s">
+      <c r="B5" s="335" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="333"/>
-      <c r="D5" s="333" t="s">
+      <c r="C5" s="335"/>
+      <c r="D5" s="335" t="s">
         <v>328</v>
       </c>
-      <c r="E5" s="333"/>
-      <c r="F5" s="333"/>
-      <c r="J5" s="334" t="s">
+      <c r="E5" s="335"/>
+      <c r="F5" s="335"/>
+      <c r="J5" s="336" t="s">
         <v>305</v>
       </c>
-      <c r="K5" s="333"/>
-      <c r="L5" s="333"/>
-      <c r="M5" s="333"/>
-      <c r="N5" s="333"/>
+      <c r="K5" s="335"/>
+      <c r="L5" s="335"/>
+      <c r="M5" s="335"/>
+      <c r="N5" s="335"/>
       <c r="R5" s="314" t="s">
         <v>321</v>
       </c>
@@ -25256,13 +25252,13 @@
         <f>NCRP147_4.7!H8</f>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="J9" s="335" t="s">
+      <c r="J9" s="331" t="s">
         <v>306</v>
       </c>
-      <c r="K9" s="336"/>
-      <c r="L9" s="336"/>
-      <c r="M9" s="336"/>
-      <c r="N9" s="336"/>
+      <c r="K9" s="332"/>
+      <c r="L9" s="332"/>
+      <c r="M9" s="332"/>
+      <c r="N9" s="332"/>
       <c r="Q9" s="321" t="s">
         <v>195</v>
       </c>
@@ -25396,13 +25392,13 @@
         <v>309</v>
       </c>
       <c r="B13" s="312"/>
-      <c r="J13" s="335" t="s">
+      <c r="J13" s="331" t="s">
         <v>303</v>
       </c>
-      <c r="K13" s="336"/>
-      <c r="L13" s="336"/>
-      <c r="M13" s="336"/>
-      <c r="N13" s="336"/>
+      <c r="K13" s="332"/>
+      <c r="L13" s="332"/>
+      <c r="M13" s="332"/>
+      <c r="N13" s="332"/>
       <c r="Q13" s="321" t="s">
         <v>322</v>
       </c>
@@ -25494,13 +25490,13 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B17"/>
-      <c r="J17" s="335" t="s">
+      <c r="J17" s="331" t="s">
         <v>304</v>
       </c>
-      <c r="K17" s="336"/>
-      <c r="L17" s="336"/>
-      <c r="M17" s="336"/>
-      <c r="N17" s="336"/>
+      <c r="K17" s="332"/>
+      <c r="L17" s="332"/>
+      <c r="M17" s="332"/>
+      <c r="N17" s="332"/>
       <c r="Q17" s="321" t="s">
         <v>324</v>
       </c>
@@ -27099,30 +27095,6 @@
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" s="322"/>
-    </row>
-    <row r="83" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="Q83" s="2"/>
-      <c r="R83" s="322"/>
-    </row>
-    <row r="84" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="Q84" s="2"/>
-      <c r="R84" s="322"/>
-    </row>
-    <row r="85" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="Q85" s="2"/>
-      <c r="R85" s="322"/>
-    </row>
-    <row r="86" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="Q86" s="2"/>
-      <c r="R86" s="322"/>
-    </row>
-    <row r="87" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="Q87" s="2"/>
-      <c r="R87" s="322"/>
-    </row>
-    <row r="88" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="Q88" s="2"/>
-      <c r="R88" s="322"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -27145,9 +27117,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -28610,133 +28582,6 @@
       <c r="N50" s="232"/>
       <c r="O50" s="231"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J51" s="232"/>
-      <c r="K51" s="234"/>
-      <c r="L51" s="233"/>
-      <c r="M51" s="232"/>
-      <c r="N51" s="232"/>
-      <c r="O51" s="231"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J52" s="232"/>
-      <c r="K52" s="234"/>
-      <c r="L52" s="233"/>
-      <c r="M52" s="232"/>
-      <c r="N52" s="232"/>
-      <c r="O52" s="231"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J53" s="232"/>
-      <c r="K53" s="234"/>
-      <c r="L53" s="233"/>
-      <c r="M53" s="232"/>
-      <c r="N53" s="232"/>
-      <c r="O53" s="231"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J54" s="232"/>
-      <c r="K54" s="234"/>
-      <c r="L54" s="233"/>
-      <c r="M54" s="232"/>
-      <c r="N54" s="232"/>
-      <c r="O54" s="231"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J55" s="232"/>
-      <c r="K55" s="234"/>
-      <c r="L55" s="233"/>
-      <c r="M55" s="232"/>
-      <c r="N55" s="232"/>
-      <c r="O55" s="231"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J56" s="232"/>
-      <c r="K56" s="234"/>
-      <c r="L56" s="233"/>
-      <c r="M56" s="232"/>
-      <c r="N56" s="232"/>
-      <c r="O56" s="231"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J57" s="232"/>
-      <c r="K57" s="234"/>
-      <c r="L57" s="233"/>
-      <c r="M57" s="232"/>
-      <c r="N57" s="232"/>
-      <c r="O57" s="231"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J58" s="232"/>
-      <c r="K58" s="234"/>
-      <c r="L58" s="233"/>
-      <c r="M58" s="232"/>
-      <c r="N58" s="232"/>
-      <c r="O58" s="231"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J59" s="232"/>
-      <c r="K59" s="234"/>
-      <c r="L59" s="233"/>
-      <c r="M59" s="232"/>
-      <c r="N59" s="232"/>
-      <c r="O59" s="231"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J60" s="232"/>
-      <c r="K60" s="234"/>
-      <c r="L60" s="233"/>
-      <c r="M60" s="232"/>
-      <c r="N60" s="232"/>
-      <c r="O60" s="231"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J61" s="232"/>
-      <c r="K61" s="234"/>
-      <c r="L61" s="233"/>
-      <c r="M61" s="232"/>
-      <c r="N61" s="232"/>
-      <c r="O61" s="231"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J62" s="232"/>
-      <c r="K62" s="234"/>
-      <c r="L62" s="233"/>
-      <c r="M62" s="232"/>
-      <c r="N62" s="232"/>
-      <c r="O62" s="231"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J64"/>
-    </row>
-    <row r="65" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J65"/>
-      <c r="K65" s="215"/>
-    </row>
-    <row r="66" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J66"/>
-      <c r="K66" s="215"/>
-    </row>
-    <row r="67" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J67"/>
-      <c r="K67" s="215"/>
-    </row>
-    <row r="68" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J68"/>
-      <c r="K68" s="215"/>
-    </row>
-    <row r="69" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J69"/>
-      <c r="K69" s="215"/>
-    </row>
-    <row r="70" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J70"/>
-      <c r="K70" s="215"/>
-    </row>
-    <row r="71" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J71" s="215"/>
-      <c r="K71" s="215"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="Q18:V18"/>
@@ -28757,7 +28602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>

--- a/MUSCShield_form.xlsx
+++ b/MUSCShield_form.xlsx
@@ -9,26 +9,30 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8190" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8190" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
     <sheet name="RadFluoro" sheetId="5" r:id="rId2"/>
-    <sheet name="CT" sheetId="4" r:id="rId3"/>
-    <sheet name="ShieldEvaluation" sheetId="2" r:id="rId4"/>
-    <sheet name="FitParameters" sheetId="3" r:id="rId5"/>
-    <sheet name="NCRP147_4.1" sheetId="16" r:id="rId6"/>
-    <sheet name="NCRP147_4.2" sheetId="17" r:id="rId7"/>
-    <sheet name="NCRP147_4.3" sheetId="18" r:id="rId8"/>
-    <sheet name="NCRP147_4.4" sheetId="19" r:id="rId9"/>
-    <sheet name="NCRP147_4.5" sheetId="26" r:id="rId10"/>
-    <sheet name="NCRP147_4.7" sheetId="20" r:id="rId11"/>
-    <sheet name="NCRP147_5.2" sheetId="21" r:id="rId12"/>
-    <sheet name="NCRP147_A1" sheetId="22" r:id="rId13"/>
-    <sheet name="NCRP147_B1" sheetId="23" r:id="rId14"/>
-    <sheet name="NCRP147_C1" sheetId="24" r:id="rId15"/>
-    <sheet name="W_Rh_Al_Ag" sheetId="25" r:id="rId16"/>
+    <sheet name="NM" sheetId="27" r:id="rId3"/>
+    <sheet name="CT" sheetId="4" r:id="rId4"/>
+    <sheet name="ShieldEvaluation" sheetId="2" r:id="rId5"/>
+    <sheet name="FitParameters" sheetId="3" r:id="rId6"/>
+    <sheet name="NCRP147_4.1" sheetId="16" r:id="rId7"/>
+    <sheet name="NCRP147_4.2" sheetId="17" r:id="rId8"/>
+    <sheet name="NCRP147_4.3" sheetId="18" r:id="rId9"/>
+    <sheet name="NCRP147_4.4" sheetId="19" r:id="rId10"/>
+    <sheet name="NCRP147_4.5" sheetId="26" r:id="rId11"/>
+    <sheet name="NCRP147_4.7" sheetId="20" r:id="rId12"/>
+    <sheet name="NCRP147_5.2" sheetId="21" r:id="rId13"/>
+    <sheet name="NCRP147_A1" sheetId="22" r:id="rId14"/>
+    <sheet name="NCRP147_B1" sheetId="23" r:id="rId15"/>
+    <sheet name="NCRP147_C1" sheetId="24" r:id="rId16"/>
+    <sheet name="W_Rh_Al_Ag" sheetId="25" r:id="rId17"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId18"/>
+  </externalReferences>
   <definedNames>
     <definedName name="FitParams">FitParameters!$A$5:$AF$30</definedName>
     <definedName name="inch_value">Table!$AF$6:$AF$41</definedName>
@@ -52,11 +56,18 @@
     <definedName name="KsRFRadSS">RadFluoro!$F$11</definedName>
     <definedName name="minimum_Pb">Table!$AG$6:$AG$41</definedName>
     <definedName name="mm_value">Table!$AE$6:$AE$41</definedName>
+    <definedName name="NDAY">NM!$B$2</definedName>
     <definedName name="Nfl">RadFluoro!$B$13</definedName>
     <definedName name="Nrad">RadFluoro!$B$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">CT!$A$1:$H$50</definedName>
+    <definedName name="NWEEK">NM!$B$3</definedName>
+    <definedName name="PBHVL">NM!$M$18</definedName>
+    <definedName name="PBMU">NM!$M$17</definedName>
+    <definedName name="PBMURHO">NM!$M$15</definedName>
+    <definedName name="PBRHO">NM!$M$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">CT!$A$1:$H$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">NM!$A$1:$Q$73</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">RadFluoro!$A$1:$N$66</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">ShieldEvaluation!$A$1:$H$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">ShieldEvaluation!$A$1:$H$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Table!$A$1:$N$112</definedName>
     <definedName name="RefDist">ShieldEvaluation!$F$16</definedName>
     <definedName name="RefExp">ShieldEvaluation!$G$16</definedName>
@@ -293,6 +304,162 @@
     <author>Eugene Mah</author>
   </authors>
   <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eugene Mah:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Gamma ray exposure constant from Table 22-4, Cherry, Sorenson, Phelps, Physics in Nuclear Medicine 3ed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eugene Mah:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumes activity in patient is attenuated by ~1 HVL of soft tissue (about 5 cm)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eugene Mah:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction of hour @ avg. activity</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eugene Mah:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumes 0.15 voided activity factor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eugene Mah:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Type of area
+C - Controlled
+U - Uncontrolled</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B47" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eugene Mah:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sum of the exposures from the source areas to each target area</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Eugene Mah</author>
+  </authors>
+  <commentList>
     <comment ref="Q18" authorId="0" shapeId="0">
       <text>
         <r>
@@ -493,7 +660,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Eugene Mah</author>
@@ -766,7 +933,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="392">
   <si>
     <t>Shielding Calculations</t>
   </si>
@@ -2152,6 +2319,183 @@
   </si>
   <si>
     <t>Ksec(tot)</t>
+  </si>
+  <si>
+    <t>Tc-99m</t>
+  </si>
+  <si>
+    <t>mSv-m^2/MBq-h</t>
+  </si>
+  <si>
+    <t>Activity Calculations</t>
+  </si>
+  <si>
+    <t>N/day</t>
+  </si>
+  <si>
+    <t>mCi</t>
+  </si>
+  <si>
+    <t>MBq</t>
+  </si>
+  <si>
+    <t>N/week</t>
+  </si>
+  <si>
+    <t>Patients per week</t>
+  </si>
+  <si>
+    <t>Administered activity</t>
+  </si>
+  <si>
+    <t>Sources</t>
+  </si>
+  <si>
+    <t>Avg activity (MBq)</t>
+  </si>
+  <si>
+    <t>Work factor</t>
+  </si>
+  <si>
+    <t>MBq-h/wk</t>
+  </si>
+  <si>
+    <t>mSv-m^2/wk</t>
+  </si>
+  <si>
+    <t>Equivalent unshielded activity in patient</t>
+  </si>
+  <si>
+    <t>Hot lab</t>
+  </si>
+  <si>
+    <t>Uptake duration (minutes)</t>
+  </si>
+  <si>
+    <t>NM Hold 1</t>
+  </si>
+  <si>
+    <t>Avg activity during uptake</t>
+  </si>
+  <si>
+    <t>NM Hold 2</t>
+  </si>
+  <si>
+    <t>Activity at end of uptake</t>
+  </si>
+  <si>
+    <t>NM Camera 1</t>
+  </si>
+  <si>
+    <t>Activity following void</t>
+  </si>
+  <si>
+    <t>NM Camera 2</t>
+  </si>
+  <si>
+    <t>Scan duration (minutes)</t>
+  </si>
+  <si>
+    <t>Stress Lab</t>
+  </si>
+  <si>
+    <t>Avg activity during scan</t>
+  </si>
+  <si>
+    <t>Hot Toilet</t>
+  </si>
+  <si>
+    <t>Activty at end of scan</t>
+  </si>
+  <si>
+    <t>Radiology Waiting</t>
+  </si>
+  <si>
+    <t>Lead mass attenuation coeff</t>
+  </si>
+  <si>
+    <t>Lead density</t>
+  </si>
+  <si>
+    <t>Areas</t>
+  </si>
+  <si>
+    <t>Dose limit (mSv/wk)</t>
+  </si>
+  <si>
+    <t>Target limit</t>
+  </si>
+  <si>
+    <t>Lead attenuation coeff (1/cm)</t>
+  </si>
+  <si>
+    <t>Tech area</t>
+  </si>
+  <si>
+    <t>Lead HVL (mm)</t>
+  </si>
+  <si>
+    <t>CT Tech area</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>US 1</t>
+  </si>
+  <si>
+    <t>US 2</t>
+  </si>
+  <si>
+    <t>Office 2221</t>
+  </si>
+  <si>
+    <t>Office 2302</t>
+  </si>
+  <si>
+    <t>Consult A</t>
+  </si>
+  <si>
+    <t>Consult B</t>
+  </si>
+  <si>
+    <t>Lactation</t>
+  </si>
+  <si>
+    <t>Reading Room</t>
+  </si>
+  <si>
+    <t>Distances (m)</t>
+  </si>
+  <si>
+    <t>Unshielded exposures (mSv/wk)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Required shielding</t>
+  </si>
+  <si>
+    <t>Unshielded Exp</t>
+  </si>
+  <si>
+    <t>Atten factor</t>
+  </si>
+  <si>
+    <t>HVLs</t>
+  </si>
+  <si>
+    <t>Lead thickness (mm)</t>
+  </si>
+  <si>
+    <t>Target area</t>
+  </si>
+  <si>
+    <t>Source area</t>
+  </si>
+  <si>
+    <t>Required shielding for each target area from each source area</t>
   </si>
 </sst>
 </file>
@@ -2396,7 +2740,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -2935,6 +3279,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2950,7 +3307,7 @@
     </xf>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="349">
+  <cellXfs count="372">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -3848,6 +4205,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3857,7 +4283,15 @@
     <cellStyle name="Normal_shieldevaluation" xfId="1"/>
     <cellStyle name="Percent 2" xfId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3910,7 +4344,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4317,7 +4750,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4435,7 +4867,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4539,7 +4970,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4635,7 +5065,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5435,6 +5864,75 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Table"/>
+      <sheetName val="RadFluoro"/>
+      <sheetName val="CT"/>
+      <sheetName val="NM"/>
+      <sheetName val="ShieldEvaluation"/>
+      <sheetName val="FitParameters"/>
+      <sheetName val="NCRP147_4.1"/>
+      <sheetName val="NCRP147_4.2"/>
+      <sheetName val="NCRP147_4.3"/>
+      <sheetName val="NCRP147_4.4"/>
+      <sheetName val="NCRP147_4.5"/>
+      <sheetName val="NCRP147_4.7"/>
+      <sheetName val="NCRP147_5.2"/>
+      <sheetName val="NCRP147_A1"/>
+      <sheetName val="NCRP147_B1"/>
+      <sheetName val="NCRP147_C1"/>
+      <sheetName val="W_Rh_Al_Ag"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="AE6">
+            <v>-25.4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="7">
+          <cell r="C7">
+            <v>5.2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>Patients per day</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="16">
+          <cell r="H16" t="str">
+            <v/>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -15175,6 +15673,68 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="292" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15250,7 +15810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
@@ -15623,7 +16183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -15727,7 +16287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ61"/>
   <sheetViews>
@@ -19735,7 +20295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE13"/>
   <sheetViews>
@@ -20866,7 +21426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE21"/>
   <sheetViews>
@@ -22659,7 +23219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF39"/>
   <sheetViews>
@@ -24987,18 +25547,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AB34:AD34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="M34:Q34"/>
-    <mergeCell ref="R34:V34"/>
-    <mergeCell ref="W34:AA34"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="V2:X2"/>
     <mergeCell ref="AA24:AC24"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="G12:I12"/>
@@ -25011,6 +25559,18 @@
     <mergeCell ref="L24:N24"/>
     <mergeCell ref="Q24:S24"/>
     <mergeCell ref="V24:X24"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="AB34:AD34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="M34:Q34"/>
+    <mergeCell ref="R34:V34"/>
+    <mergeCell ref="W34:AA34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27113,6 +27673,2725 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" style="349" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="349" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="349" customWidth="1"/>
+    <col min="4" max="4" width="11" style="349" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="349" customWidth="1"/>
+    <col min="6" max="11" width="10.6640625" style="349" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" style="349" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="349" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.33203125" style="349"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="349" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" s="350">
+        <v>3.3170000000000003E-5</v>
+      </c>
+      <c r="C1" s="349" t="s">
+        <v>334</v>
+      </c>
+      <c r="H1" s="351"/>
+      <c r="L1" s="351" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="349" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" s="349">
+        <v>20</v>
+      </c>
+      <c r="C2" s="349" t="str">
+        <f>[1]CT!B19</f>
+        <v>Patients per day</v>
+      </c>
+      <c r="L2" s="349" t="s">
+        <v>337</v>
+      </c>
+      <c r="M2" s="349" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="349" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" s="349">
+        <f>NDAY*5</f>
+        <v>100</v>
+      </c>
+      <c r="C3" s="349" t="s">
+        <v>340</v>
+      </c>
+      <c r="L3" s="352">
+        <v>30</v>
+      </c>
+      <c r="M3" s="352">
+        <f>L3*37</f>
+        <v>1110</v>
+      </c>
+      <c r="N3" s="349" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L4" s="355">
+        <f>L3/(2^1)</f>
+        <v>15</v>
+      </c>
+      <c r="M4" s="355">
+        <f>M3/(2^1)</f>
+        <v>555</v>
+      </c>
+      <c r="N4" s="349" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="353" t="s">
+        <v>342</v>
+      </c>
+      <c r="L5" s="352"/>
+      <c r="M5" s="352">
+        <v>60</v>
+      </c>
+      <c r="N5" s="349" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="354" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B6" s="363" t="s">
+        <v>343</v>
+      </c>
+      <c r="C6" s="363" t="s">
+        <v>344</v>
+      </c>
+      <c r="D6" s="363" t="s">
+        <v>345</v>
+      </c>
+      <c r="E6" s="363" t="s">
+        <v>346</v>
+      </c>
+      <c r="L6" s="352">
+        <f>L4*1.443*109.8*(1-EXP(-LN(2)*M5/109.8))/M5</f>
+        <v>12.488993056193506</v>
+      </c>
+      <c r="M6" s="352">
+        <f>M4*1.443*109.8*(1-EXP(-LN(2)*M5/109.8))/M5</f>
+        <v>462.09274307915973</v>
+      </c>
+      <c r="N6" s="349" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="359" t="s">
+        <v>348</v>
+      </c>
+      <c r="B7" s="361">
+        <f>M3</f>
+        <v>1110</v>
+      </c>
+      <c r="C7" s="360">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="361">
+        <f>B7*C7*40*NWEEK</f>
+        <v>222000</v>
+      </c>
+      <c r="E7" s="362">
+        <f>D7*$B$1</f>
+        <v>7.3637400000000008</v>
+      </c>
+      <c r="L7" s="352">
+        <f>L4*EXP(-LN(2)*M5/109.8)</f>
+        <v>10.270556916490195</v>
+      </c>
+      <c r="M7" s="352">
+        <f>M4*EXP(-LN(2)*M5/109.8)</f>
+        <v>380.01060591013726</v>
+      </c>
+      <c r="N7" s="349" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="359" t="s">
+        <v>350</v>
+      </c>
+      <c r="B8" s="361">
+        <f>M4</f>
+        <v>555</v>
+      </c>
+      <c r="C8" s="360">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="361">
+        <f>B8*C8*40*NWEEK</f>
+        <v>444000</v>
+      </c>
+      <c r="E8" s="362">
+        <f t="shared" ref="E8:E14" si="0">D8*$B$1</f>
+        <v>14.727480000000002</v>
+      </c>
+      <c r="L8" s="352">
+        <f>L7*0.85</f>
+        <v>8.7299733790166663</v>
+      </c>
+      <c r="M8" s="352">
+        <f>M7*0.85</f>
+        <v>323.00901502361666</v>
+      </c>
+      <c r="N8" s="349" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="359" t="s">
+        <v>352</v>
+      </c>
+      <c r="B9" s="361">
+        <f>M4</f>
+        <v>555</v>
+      </c>
+      <c r="C9" s="360">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="361">
+        <f>B9*C9*40*NWEEK</f>
+        <v>444000</v>
+      </c>
+      <c r="E9" s="362">
+        <f t="shared" si="0"/>
+        <v>14.727480000000002</v>
+      </c>
+      <c r="L9" s="352"/>
+      <c r="M9" s="352">
+        <v>15</v>
+      </c>
+      <c r="N9" s="349" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="359" t="s">
+        <v>354</v>
+      </c>
+      <c r="B10" s="361">
+        <f>M8</f>
+        <v>323.00901502361666</v>
+      </c>
+      <c r="C10" s="360">
+        <v>0.4</v>
+      </c>
+      <c r="D10" s="361">
+        <f>B10*C10*40*NWEEK</f>
+        <v>516814.42403778672</v>
+      </c>
+      <c r="E10" s="362">
+        <f t="shared" si="0"/>
+        <v>17.142734445333389</v>
+      </c>
+      <c r="L10" s="352">
+        <f>L8*1.443*109.8*(1-EXP(-LN(2)*M9/109.8))/M9</f>
+        <v>8.3311470022494643</v>
+      </c>
+      <c r="M10" s="352">
+        <f>M8*1.443*109.8*(1-EXP(-LN(2)*M9/109.8))/M9</f>
+        <v>308.25243908323023</v>
+      </c>
+      <c r="N10" s="349" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="359" t="s">
+        <v>356</v>
+      </c>
+      <c r="B11" s="361">
+        <f>M8</f>
+        <v>323.00901502361666</v>
+      </c>
+      <c r="C11" s="360">
+        <v>0.4</v>
+      </c>
+      <c r="D11" s="361">
+        <f>B11*C11*40*NWEEK</f>
+        <v>516814.42403778672</v>
+      </c>
+      <c r="E11" s="362">
+        <f t="shared" si="0"/>
+        <v>17.142734445333389</v>
+      </c>
+      <c r="L11" s="352">
+        <f>L8*EXP(-LN(2)*M9/109.8)</f>
+        <v>7.9412451486820315</v>
+      </c>
+      <c r="M11" s="352">
+        <f>M8*EXP(-LN(2)*M9/109.8)</f>
+        <v>293.82607050123517</v>
+      </c>
+      <c r="N11" s="349" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="359" t="s">
+        <v>358</v>
+      </c>
+      <c r="B12" s="361">
+        <f>M4</f>
+        <v>555</v>
+      </c>
+      <c r="C12" s="360">
+        <v>0.4</v>
+      </c>
+      <c r="D12" s="361">
+        <f>B12*C12*40*NWEEK</f>
+        <v>888000</v>
+      </c>
+      <c r="E12" s="362">
+        <f t="shared" si="0"/>
+        <v>29.454960000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="359" t="s">
+        <v>360</v>
+      </c>
+      <c r="B13" s="361">
+        <f>M7</f>
+        <v>380.01060591013726</v>
+      </c>
+      <c r="C13" s="360">
+        <v>0.3</v>
+      </c>
+      <c r="D13" s="361">
+        <f>B13*C13*40*NWEEK</f>
+        <v>456012.72709216474</v>
+      </c>
+      <c r="E13" s="362">
+        <f t="shared" si="0"/>
+        <v>15.125942157647106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="359" t="s">
+        <v>362</v>
+      </c>
+      <c r="B14" s="361">
+        <f>M6</f>
+        <v>462.09274307915973</v>
+      </c>
+      <c r="C14" s="360">
+        <v>0.75</v>
+      </c>
+      <c r="D14" s="361">
+        <f>B14*C14*40*NWEEK</f>
+        <v>1386278.2292374792</v>
+      </c>
+      <c r="E14" s="362">
+        <f t="shared" si="0"/>
+        <v>45.982848863807185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M15" s="349">
+        <v>2.2650000000000001</v>
+      </c>
+      <c r="N15" s="349" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="351" t="s">
+        <v>365</v>
+      </c>
+      <c r="M16" s="349">
+        <v>11.34</v>
+      </c>
+      <c r="N16" s="349" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B17" s="360" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="360" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="360" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" s="360" t="s">
+        <v>366</v>
+      </c>
+      <c r="F17" s="360" t="s">
+        <v>367</v>
+      </c>
+      <c r="M17" s="349">
+        <f>M15*M16</f>
+        <v>25.685100000000002</v>
+      </c>
+      <c r="N17" s="349" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="360">
+        <v>1</v>
+      </c>
+      <c r="B18" s="360" t="s">
+        <v>369</v>
+      </c>
+      <c r="C18" s="360" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" s="360">
+        <v>1</v>
+      </c>
+      <c r="E18" s="360">
+        <f>IF(C18="U",0.02,IF(C18="C",0.1,""))</f>
+        <v>0.02</v>
+      </c>
+      <c r="F18" s="359">
+        <f>E18/D18</f>
+        <v>0.02</v>
+      </c>
+      <c r="M18" s="356">
+        <f>LN(2)/M17*10</f>
+        <v>0.26986353199323548</v>
+      </c>
+      <c r="N18" s="349" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="360">
+        <v>2</v>
+      </c>
+      <c r="B19" s="360" t="s">
+        <v>371</v>
+      </c>
+      <c r="C19" s="360" t="s">
+        <v>372</v>
+      </c>
+      <c r="D19" s="360">
+        <v>1</v>
+      </c>
+      <c r="E19" s="360">
+        <f t="shared" ref="E19:E29" si="1">IF(C19="U",0.02,IF(C19="C",0.1,""))</f>
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="359">
+        <f t="shared" ref="F19:F29" si="2">E19/D19</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="360">
+        <v>3</v>
+      </c>
+      <c r="B20" s="360" t="s">
+        <v>373</v>
+      </c>
+      <c r="C20" s="360" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" s="360">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="360">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="F20" s="359">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="360">
+        <v>4</v>
+      </c>
+      <c r="B21" s="360" t="s">
+        <v>374</v>
+      </c>
+      <c r="C21" s="360" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" s="360">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="360">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="F21" s="359">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="360">
+        <v>5</v>
+      </c>
+      <c r="B22" s="360" t="s">
+        <v>375</v>
+      </c>
+      <c r="C22" s="360" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="360">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="360">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="F22" s="359">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="360">
+        <v>6</v>
+      </c>
+      <c r="B23" s="360" t="s">
+        <v>376</v>
+      </c>
+      <c r="C23" s="360" t="s">
+        <v>191</v>
+      </c>
+      <c r="D23" s="360">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="360">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="F23" s="359">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="360">
+        <v>7</v>
+      </c>
+      <c r="B24" s="360" t="s">
+        <v>377</v>
+      </c>
+      <c r="C24" s="360" t="s">
+        <v>191</v>
+      </c>
+      <c r="D24" s="360">
+        <v>0.1</v>
+      </c>
+      <c r="E24" s="360">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="F24" s="359">
+        <f t="shared" si="2"/>
+        <v>0.19999999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="360">
+        <v>8</v>
+      </c>
+      <c r="B25" s="360" t="s">
+        <v>378</v>
+      </c>
+      <c r="C25" s="360" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" s="360">
+        <v>0.1</v>
+      </c>
+      <c r="E25" s="360">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="F25" s="359">
+        <f t="shared" si="2"/>
+        <v>0.19999999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="360">
+        <v>9</v>
+      </c>
+      <c r="B26" s="360" t="s">
+        <v>379</v>
+      </c>
+      <c r="C26" s="360" t="s">
+        <v>191</v>
+      </c>
+      <c r="D26" s="360">
+        <v>0.1</v>
+      </c>
+      <c r="E26" s="360">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="F26" s="359">
+        <f t="shared" si="2"/>
+        <v>0.19999999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="360">
+        <v>10</v>
+      </c>
+      <c r="B27" s="360" t="s">
+        <v>380</v>
+      </c>
+      <c r="C27" s="360" t="s">
+        <v>372</v>
+      </c>
+      <c r="D27" s="360">
+        <v>1</v>
+      </c>
+      <c r="E27" s="360">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="F27" s="359">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="360">
+        <v>11</v>
+      </c>
+      <c r="B28" s="360" t="s">
+        <v>196</v>
+      </c>
+      <c r="C28" s="360" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" s="360">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="360">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="F28" s="359">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="360">
+        <v>12</v>
+      </c>
+      <c r="B29" s="360" t="s">
+        <v>197</v>
+      </c>
+      <c r="C29" s="360" t="s">
+        <v>191</v>
+      </c>
+      <c r="D29" s="360">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="360">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="F29" s="359">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="358" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C32" s="364" t="s">
+        <v>389</v>
+      </c>
+      <c r="D32" s="364"/>
+      <c r="E32" s="364"/>
+      <c r="F32" s="364"/>
+      <c r="G32" s="364"/>
+      <c r="H32" s="364"/>
+      <c r="I32" s="364"/>
+      <c r="J32" s="364"/>
+      <c r="K32" s="364"/>
+      <c r="L32" s="364"/>
+      <c r="M32" s="364"/>
+      <c r="N32" s="364"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C33" s="360" t="s">
+        <v>369</v>
+      </c>
+      <c r="D33" s="360" t="s">
+        <v>371</v>
+      </c>
+      <c r="E33" s="360" t="s">
+        <v>373</v>
+      </c>
+      <c r="F33" s="360" t="s">
+        <v>374</v>
+      </c>
+      <c r="G33" s="360" t="s">
+        <v>375</v>
+      </c>
+      <c r="H33" s="360" t="s">
+        <v>376</v>
+      </c>
+      <c r="I33" s="360" t="s">
+        <v>377</v>
+      </c>
+      <c r="J33" s="360" t="s">
+        <v>378</v>
+      </c>
+      <c r="K33" s="360" t="s">
+        <v>379</v>
+      </c>
+      <c r="L33" s="360" t="s">
+        <v>380</v>
+      </c>
+      <c r="M33" s="359" t="s">
+        <v>196</v>
+      </c>
+      <c r="N33" s="359" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="364" t="s">
+        <v>390</v>
+      </c>
+      <c r="B34" s="359" t="str">
+        <f>A7</f>
+        <v>Hot lab</v>
+      </c>
+      <c r="C34" s="361">
+        <f>48*12*0.0254</f>
+        <v>14.6304</v>
+      </c>
+      <c r="D34" s="361">
+        <f>39*12*0.0254</f>
+        <v>11.8872</v>
+      </c>
+      <c r="E34" s="361">
+        <f>29*12*0.0254</f>
+        <v>8.8391999999999999</v>
+      </c>
+      <c r="F34" s="361">
+        <f>44*12*0.0254</f>
+        <v>13.411199999999999</v>
+      </c>
+      <c r="G34" s="361">
+        <f>24*12*0.0254</f>
+        <v>7.3151999999999999</v>
+      </c>
+      <c r="H34" s="361">
+        <f>34*12*0.0254</f>
+        <v>10.363199999999999</v>
+      </c>
+      <c r="I34" s="361">
+        <f>23*12*0.0254</f>
+        <v>7.0103999999999997</v>
+      </c>
+      <c r="J34" s="361">
+        <f>20*12*0.0254</f>
+        <v>6.0960000000000001</v>
+      </c>
+      <c r="K34" s="361">
+        <f>22*12*0.0254</f>
+        <v>6.7055999999999996</v>
+      </c>
+      <c r="L34" s="361">
+        <f>9*12*0.0254</f>
+        <v>2.7431999999999999</v>
+      </c>
+      <c r="M34" s="361">
+        <f>20*12*0.0254</f>
+        <v>6.0960000000000001</v>
+      </c>
+      <c r="N34" s="361">
+        <f t="shared" ref="N34:N41" si="3">SQRT(2*(18^2))*12*0.0254</f>
+        <v>7.7589412886037472</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="364"/>
+      <c r="B35" s="359" t="str">
+        <f>A8</f>
+        <v>NM Hold 1</v>
+      </c>
+      <c r="C35" s="361">
+        <f>39*12*0.0254</f>
+        <v>11.8872</v>
+      </c>
+      <c r="D35" s="361">
+        <f>52*12*0.0254</f>
+        <v>15.849599999999999</v>
+      </c>
+      <c r="E35" s="361">
+        <f>57.5*12*0.0254</f>
+        <v>17.526</v>
+      </c>
+      <c r="F35" s="361">
+        <f>74*12*0.0254</f>
+        <v>22.555199999999999</v>
+      </c>
+      <c r="G35" s="361">
+        <f>56*12*0.0254</f>
+        <v>17.0688</v>
+      </c>
+      <c r="H35" s="361">
+        <f>65*12*0.0254</f>
+        <v>19.811999999999998</v>
+      </c>
+      <c r="I35" s="361">
+        <f>46*12*0.0254</f>
+        <v>14.020799999999999</v>
+      </c>
+      <c r="J35" s="361">
+        <f>38*12*0.0254</f>
+        <v>11.5824</v>
+      </c>
+      <c r="K35" s="361">
+        <f>28*12*0.0254</f>
+        <v>8.5343999999999998</v>
+      </c>
+      <c r="L35" s="361">
+        <f>40*12*0.0254</f>
+        <v>12.192</v>
+      </c>
+      <c r="M35" s="361">
+        <f t="shared" ref="M35:M41" si="4">20*12*0.0254</f>
+        <v>6.0960000000000001</v>
+      </c>
+      <c r="N35" s="361">
+        <f t="shared" si="3"/>
+        <v>7.7589412886037472</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="364"/>
+      <c r="B36" s="359" t="str">
+        <f>A9</f>
+        <v>NM Hold 2</v>
+      </c>
+      <c r="C36" s="361">
+        <f>43*12*0.0254</f>
+        <v>13.106399999999999</v>
+      </c>
+      <c r="D36" s="361">
+        <f>40*12*0.0254</f>
+        <v>12.192</v>
+      </c>
+      <c r="E36" s="361">
+        <f>36*12*0.0254</f>
+        <v>10.972799999999999</v>
+      </c>
+      <c r="F36" s="361">
+        <f>52*12*0.0254</f>
+        <v>15.849599999999999</v>
+      </c>
+      <c r="G36" s="361">
+        <f>32*12*0.0254</f>
+        <v>9.7535999999999987</v>
+      </c>
+      <c r="H36" s="361">
+        <f>43*12*0.0254</f>
+        <v>13.106399999999999</v>
+      </c>
+      <c r="I36" s="361">
+        <f>28*12*0.0254</f>
+        <v>8.5343999999999998</v>
+      </c>
+      <c r="J36" s="361">
+        <f>22*12*0.0254</f>
+        <v>6.7055999999999996</v>
+      </c>
+      <c r="K36" s="361">
+        <f>20*12*0.0254</f>
+        <v>6.0960000000000001</v>
+      </c>
+      <c r="L36" s="361">
+        <f>17*12*0.0254</f>
+        <v>5.1815999999999995</v>
+      </c>
+      <c r="M36" s="361">
+        <f t="shared" si="4"/>
+        <v>6.0960000000000001</v>
+      </c>
+      <c r="N36" s="361">
+        <f t="shared" si="3"/>
+        <v>7.7589412886037472</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="364"/>
+      <c r="B37" s="359" t="str">
+        <f>A10</f>
+        <v>NM Camera 1</v>
+      </c>
+      <c r="C37" s="361">
+        <f>25*12*0.0254</f>
+        <v>7.62</v>
+      </c>
+      <c r="D37" s="361">
+        <f>49*12*0.0254</f>
+        <v>14.9352</v>
+      </c>
+      <c r="E37" s="361">
+        <f>63*12*0.0254</f>
+        <v>19.202400000000001</v>
+      </c>
+      <c r="F37" s="361">
+        <f>80*12*0.0254</f>
+        <v>24.384</v>
+      </c>
+      <c r="G37" s="361">
+        <f>65*12*0.0254</f>
+        <v>19.811999999999998</v>
+      </c>
+      <c r="H37" s="361">
+        <f>76*12*0.0254</f>
+        <v>23.1648</v>
+      </c>
+      <c r="I37" s="361">
+        <f>62*12*0.0254</f>
+        <v>18.897600000000001</v>
+      </c>
+      <c r="J37" s="361">
+        <f>55*12*0.0254</f>
+        <v>16.763999999999999</v>
+      </c>
+      <c r="K37" s="361">
+        <f>46*12*0.0254</f>
+        <v>14.020799999999999</v>
+      </c>
+      <c r="L37" s="361">
+        <f>50*12*0.0254</f>
+        <v>15.24</v>
+      </c>
+      <c r="M37" s="361">
+        <f t="shared" si="4"/>
+        <v>6.0960000000000001</v>
+      </c>
+      <c r="N37" s="361">
+        <f t="shared" si="3"/>
+        <v>7.7589412886037472</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="364"/>
+      <c r="B38" s="359" t="str">
+        <f>A11</f>
+        <v>NM Camera 2</v>
+      </c>
+      <c r="C38" s="361">
+        <f>32.5*12*0.0254</f>
+        <v>9.9059999999999988</v>
+      </c>
+      <c r="D38" s="361">
+        <f>23*12*0.0254</f>
+        <v>7.0103999999999997</v>
+      </c>
+      <c r="E38" s="361">
+        <f>28*12*0.0254</f>
+        <v>8.5343999999999998</v>
+      </c>
+      <c r="F38" s="361">
+        <f>45*12*0.0254</f>
+        <v>13.715999999999999</v>
+      </c>
+      <c r="G38" s="361">
+        <f>31*12*0.0254</f>
+        <v>9.4488000000000003</v>
+      </c>
+      <c r="H38" s="361">
+        <f>42*12*0.0254</f>
+        <v>12.801599999999999</v>
+      </c>
+      <c r="I38" s="361">
+        <f>39*12*0.0254</f>
+        <v>11.8872</v>
+      </c>
+      <c r="J38" s="361">
+        <f>37*12*0.0254</f>
+        <v>11.2776</v>
+      </c>
+      <c r="K38" s="361">
+        <f>37*12*0.0254</f>
+        <v>11.2776</v>
+      </c>
+      <c r="L38" s="361">
+        <f>17*12*0.0254</f>
+        <v>5.1815999999999995</v>
+      </c>
+      <c r="M38" s="361">
+        <f t="shared" si="4"/>
+        <v>6.0960000000000001</v>
+      </c>
+      <c r="N38" s="361">
+        <f t="shared" si="3"/>
+        <v>7.7589412886037472</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="364"/>
+      <c r="B39" s="359" t="str">
+        <f>A12</f>
+        <v>Stress Lab</v>
+      </c>
+      <c r="C39" s="361">
+        <f>51*12*0.0254</f>
+        <v>15.544799999999999</v>
+      </c>
+      <c r="D39" s="361">
+        <f>28*12*0.0254</f>
+        <v>8.5343999999999998</v>
+      </c>
+      <c r="E39" s="361">
+        <f>5*12*0.0254</f>
+        <v>1.524</v>
+      </c>
+      <c r="F39" s="361">
+        <f>20*12*0.0254</f>
+        <v>6.0960000000000001</v>
+      </c>
+      <c r="G39" s="361">
+        <f>10*12*0.0254</f>
+        <v>3.048</v>
+      </c>
+      <c r="H39" s="361">
+        <f>17*12*0.0254</f>
+        <v>5.1815999999999995</v>
+      </c>
+      <c r="I39" s="361">
+        <f>35*12*0.0254</f>
+        <v>10.667999999999999</v>
+      </c>
+      <c r="J39" s="361">
+        <f>38*12*0.0254</f>
+        <v>11.5824</v>
+      </c>
+      <c r="K39" s="361">
+        <f>43*12*0.0254</f>
+        <v>13.106399999999999</v>
+      </c>
+      <c r="L39" s="361">
+        <f>8*12*0.0254</f>
+        <v>2.4383999999999997</v>
+      </c>
+      <c r="M39" s="361">
+        <f t="shared" si="4"/>
+        <v>6.0960000000000001</v>
+      </c>
+      <c r="N39" s="361">
+        <f t="shared" si="3"/>
+        <v>7.7589412886037472</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="364"/>
+      <c r="B40" s="359" t="str">
+        <f>A13</f>
+        <v>Hot Toilet</v>
+      </c>
+      <c r="C40" s="361">
+        <f>41*12*0.0254</f>
+        <v>12.4968</v>
+      </c>
+      <c r="D40" s="361">
+        <f>62*12*0.0254</f>
+        <v>18.897600000000001</v>
+      </c>
+      <c r="E40" s="361">
+        <f>72*12*0.0254</f>
+        <v>21.945599999999999</v>
+      </c>
+      <c r="F40" s="361">
+        <f>88*12*0.0254</f>
+        <v>26.822399999999998</v>
+      </c>
+      <c r="G40" s="361">
+        <f>69*12*0.0254</f>
+        <v>21.031199999999998</v>
+      </c>
+      <c r="H40" s="361">
+        <f>79*12*0.0254</f>
+        <v>24.0792</v>
+      </c>
+      <c r="I40" s="361">
+        <f>62*12*0.0254</f>
+        <v>18.897600000000001</v>
+      </c>
+      <c r="J40" s="361">
+        <f>50*12*0.0254</f>
+        <v>15.24</v>
+      </c>
+      <c r="K40" s="361">
+        <f>41*12*0.0254</f>
+        <v>12.4968</v>
+      </c>
+      <c r="L40" s="361">
+        <f>55.5*12*0.0254</f>
+        <v>16.916399999999999</v>
+      </c>
+      <c r="M40" s="361">
+        <f t="shared" si="4"/>
+        <v>6.0960000000000001</v>
+      </c>
+      <c r="N40" s="361">
+        <f t="shared" si="3"/>
+        <v>7.7589412886037472</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="364"/>
+      <c r="B41" s="359" t="str">
+        <f>A14</f>
+        <v>Radiology Waiting</v>
+      </c>
+      <c r="C41" s="361">
+        <f>80*12*0.0254</f>
+        <v>24.384</v>
+      </c>
+      <c r="D41" s="361">
+        <f>63*12*0.0254</f>
+        <v>19.202400000000001</v>
+      </c>
+      <c r="E41" s="361">
+        <f>37*12*0.0254</f>
+        <v>11.2776</v>
+      </c>
+      <c r="F41" s="361">
+        <f>40*12*0.0254</f>
+        <v>12.192</v>
+      </c>
+      <c r="G41" s="361">
+        <f>24*12*0.0254</f>
+        <v>7.3151999999999999</v>
+      </c>
+      <c r="H41" s="361">
+        <f>26*12*0.0254</f>
+        <v>7.9247999999999994</v>
+      </c>
+      <c r="I41" s="361">
+        <f>12*12*0.0254</f>
+        <v>3.6576</v>
+      </c>
+      <c r="J41" s="361">
+        <f>22*12*0.0254</f>
+        <v>6.7055999999999996</v>
+      </c>
+      <c r="K41" s="361">
+        <f>33*12*0.0254</f>
+        <v>10.058399999999999</v>
+      </c>
+      <c r="L41" s="361">
+        <f>20*12*0.0254</f>
+        <v>6.0960000000000001</v>
+      </c>
+      <c r="M41" s="361">
+        <f t="shared" si="4"/>
+        <v>6.0960000000000001</v>
+      </c>
+      <c r="N41" s="361">
+        <f t="shared" si="3"/>
+        <v>7.7589412886037472</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="351" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C45" s="364" t="s">
+        <v>389</v>
+      </c>
+      <c r="D45" s="364"/>
+      <c r="E45" s="364"/>
+      <c r="F45" s="364"/>
+      <c r="G45" s="364"/>
+      <c r="H45" s="364"/>
+      <c r="I45" s="364"/>
+      <c r="J45" s="364"/>
+      <c r="K45" s="364"/>
+      <c r="L45" s="364"/>
+      <c r="M45" s="364"/>
+      <c r="N45" s="364"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C46" s="360" t="str">
+        <f>C33</f>
+        <v>Tech area</v>
+      </c>
+      <c r="D46" s="360" t="str">
+        <f>D33</f>
+        <v>CT Tech area</v>
+      </c>
+      <c r="E46" s="360" t="str">
+        <f>E33</f>
+        <v>US 1</v>
+      </c>
+      <c r="F46" s="360" t="str">
+        <f>F33</f>
+        <v>US 2</v>
+      </c>
+      <c r="G46" s="360" t="str">
+        <f>G33</f>
+        <v>Office 2221</v>
+      </c>
+      <c r="H46" s="360" t="str">
+        <f>H33</f>
+        <v>Office 2302</v>
+      </c>
+      <c r="I46" s="360" t="str">
+        <f>I33</f>
+        <v>Consult A</v>
+      </c>
+      <c r="J46" s="360" t="str">
+        <f>J33</f>
+        <v>Consult B</v>
+      </c>
+      <c r="K46" s="360" t="str">
+        <f>K33</f>
+        <v>Lactation</v>
+      </c>
+      <c r="L46" s="360" t="str">
+        <f>L33</f>
+        <v>Reading Room</v>
+      </c>
+      <c r="M46" s="360" t="str">
+        <f>M33</f>
+        <v>Floor</v>
+      </c>
+      <c r="N46" s="360" t="str">
+        <f>N33</f>
+        <v>Ceiling</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B47" s="367" t="s">
+        <v>383</v>
+      </c>
+      <c r="C47" s="368">
+        <f>SUM(C48:C55)</f>
+        <v>0.9903830236204284</v>
+      </c>
+      <c r="D47" s="368">
+        <f t="shared" ref="D47:N47" si="5">SUM(D48:D55)</f>
+        <v>1.2069456032276571</v>
+      </c>
+      <c r="E47" s="368">
+        <f t="shared" si="5"/>
+        <v>13.621340154463082</v>
+      </c>
+      <c r="F47" s="368">
+        <f t="shared" si="5"/>
+        <v>1.371468842771582</v>
+      </c>
+      <c r="G47" s="368">
+        <f t="shared" si="5"/>
+        <v>4.6426544264576028</v>
+      </c>
+      <c r="H47" s="368">
+        <f t="shared" si="5"/>
+        <v>2.1837049529420849</v>
+      </c>
+      <c r="I47" s="368">
+        <f t="shared" si="5"/>
+        <v>4.33463407109216</v>
+      </c>
+      <c r="J47" s="368">
+        <f t="shared" si="5"/>
+        <v>2.1385807499842233</v>
+      </c>
+      <c r="K47" s="368">
+        <f t="shared" si="5"/>
+        <v>1.7071011492309554</v>
+      </c>
+      <c r="L47" s="368">
+        <f t="shared" si="5"/>
+        <v>8.5826167963290843</v>
+      </c>
+      <c r="M47" s="368">
+        <f t="shared" si="5"/>
+        <v>4.3504475179746827</v>
+      </c>
+      <c r="N47" s="368">
+        <f t="shared" si="5"/>
+        <v>2.6854614308485707</v>
+      </c>
+      <c r="O47" s="365"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="364" t="s">
+        <v>390</v>
+      </c>
+      <c r="B48" s="359" t="str">
+        <f>A7</f>
+        <v>Hot lab</v>
+      </c>
+      <c r="C48" s="366">
+        <f>$E7/(C34^2)</f>
+        <v>3.4402186498238743E-2</v>
+      </c>
+      <c r="D48" s="366">
+        <f>$E7/(D34^2)</f>
+        <v>5.2112187831651585E-2</v>
+      </c>
+      <c r="E48" s="366">
+        <f>$E7/(E34^2)</f>
+        <v>9.4248082867945379E-2</v>
+      </c>
+      <c r="F48" s="366">
+        <f>$E7/(F34^2)</f>
+        <v>4.0941445088813054E-2</v>
+      </c>
+      <c r="G48" s="366">
+        <f>$E7/(G34^2)</f>
+        <v>0.13760874599295497</v>
+      </c>
+      <c r="H48" s="366">
+        <f>$E7/(H34^2)</f>
+        <v>6.8566295581264772E-2</v>
+      </c>
+      <c r="I48" s="366">
+        <f>$E7/(I34^2)</f>
+        <v>0.14983485386000389</v>
+      </c>
+      <c r="J48" s="366">
+        <f>$E7/(J34^2)</f>
+        <v>0.19815659422985513</v>
+      </c>
+      <c r="K48" s="366">
+        <f>$E7/(K34^2)</f>
+        <v>0.16376578035525222</v>
+      </c>
+      <c r="L48" s="366">
+        <f>$E7/(L34^2)</f>
+        <v>0.97855108261656876</v>
+      </c>
+      <c r="M48" s="366">
+        <f>$E7/(M34^2)</f>
+        <v>0.19815659422985513</v>
+      </c>
+      <c r="N48" s="366">
+        <f>$E7/(N34^2)</f>
+        <v>0.12231888532707112</v>
+      </c>
+      <c r="O48" s="357"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" s="364"/>
+      <c r="B49" s="359" t="str">
+        <f>A8</f>
+        <v>NM Hold 1</v>
+      </c>
+      <c r="C49" s="366">
+        <f>$E8/(C35^2)</f>
+        <v>0.10422437566330317</v>
+      </c>
+      <c r="D49" s="366">
+        <f>$E8/(D35^2)</f>
+        <v>5.8626211310608044E-2</v>
+      </c>
+      <c r="E49" s="366">
+        <f>$E8/(E35^2)</f>
+        <v>4.7947153235201254E-2</v>
+      </c>
+      <c r="F49" s="366">
+        <f>$E8/(F35^2)</f>
+        <v>2.8949100690994177E-2</v>
+      </c>
+      <c r="G49" s="366">
+        <f>$E8/(G35^2)</f>
+        <v>5.0550151589248762E-2</v>
+      </c>
+      <c r="H49" s="366">
+        <f>$E8/(H35^2)</f>
+        <v>3.7520775238789147E-2</v>
+      </c>
+      <c r="I49" s="366">
+        <f>$E8/(I35^2)</f>
+        <v>7.4917426930001946E-2</v>
+      </c>
+      <c r="J49" s="366">
+        <f>$E8/(J35^2)</f>
+        <v>0.1097820466647397</v>
+      </c>
+      <c r="K49" s="366">
+        <f>$E8/(K35^2)</f>
+        <v>0.20220060635699505</v>
+      </c>
+      <c r="L49" s="366">
+        <f>$E8/(L35^2)</f>
+        <v>9.9078297114927563E-2</v>
+      </c>
+      <c r="M49" s="366">
+        <f>$E8/(M35^2)</f>
+        <v>0.39631318845971025</v>
+      </c>
+      <c r="N49" s="366">
+        <f>$E8/(N35^2)</f>
+        <v>0.24463777065414224</v>
+      </c>
+      <c r="O49" s="357"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" s="364"/>
+      <c r="B50" s="359" t="str">
+        <f>A9</f>
+        <v>NM Hold 2</v>
+      </c>
+      <c r="C50" s="366">
+        <f>$E9/(C36^2)</f>
+        <v>8.5735681657049284E-2</v>
+      </c>
+      <c r="D50" s="366">
+        <f>$E9/(D36^2)</f>
+        <v>9.9078297114927563E-2</v>
+      </c>
+      <c r="E50" s="366">
+        <f>$E9/(E36^2)</f>
+        <v>0.12231888532707109</v>
+      </c>
+      <c r="F50" s="366">
+        <f>$E9/(F36^2)</f>
+        <v>5.8626211310608044E-2</v>
+      </c>
+      <c r="G50" s="366">
+        <f>$E9/(G36^2)</f>
+        <v>0.15480983924207437</v>
+      </c>
+      <c r="H50" s="366">
+        <f>$E9/(H36^2)</f>
+        <v>8.5735681657049284E-2</v>
+      </c>
+      <c r="I50" s="366">
+        <f>$E9/(I36^2)</f>
+        <v>0.20220060635699505</v>
+      </c>
+      <c r="J50" s="366">
+        <f>$E9/(J36^2)</f>
+        <v>0.32753156071050443</v>
+      </c>
+      <c r="K50" s="366">
+        <f>$E9/(K36^2)</f>
+        <v>0.39631318845971025</v>
+      </c>
+      <c r="L50" s="366">
+        <f>$E9/(L36^2)</f>
+        <v>0.54853036465011817</v>
+      </c>
+      <c r="M50" s="366">
+        <f>$E9/(M36^2)</f>
+        <v>0.39631318845971025</v>
+      </c>
+      <c r="N50" s="366">
+        <f>$E9/(N36^2)</f>
+        <v>0.24463777065414224</v>
+      </c>
+      <c r="O50" s="357"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" s="364"/>
+      <c r="B51" s="359" t="str">
+        <f>A10</f>
+        <v>NM Camera 1</v>
+      </c>
+      <c r="C51" s="366">
+        <f>$E10/(C37^2)</f>
+        <v>0.29523657258722019</v>
+      </c>
+      <c r="D51" s="366">
+        <f>$E10/(D37^2)</f>
+        <v>7.6852502235323875E-2</v>
+      </c>
+      <c r="E51" s="366">
+        <f>$E10/(E37^2)</f>
+        <v>4.6491019870751472E-2</v>
+      </c>
+      <c r="F51" s="366">
+        <f>$E10/(F37^2)</f>
+        <v>2.8831696541720721E-2</v>
+      </c>
+      <c r="G51" s="366">
+        <f>$E10/(G37^2)</f>
+        <v>4.3674049199292936E-2</v>
+      </c>
+      <c r="H51" s="366">
+        <f>$E10/(H37^2)</f>
+        <v>3.1946478162571443E-2</v>
+      </c>
+      <c r="I51" s="366">
+        <f>$E10/(I37^2)</f>
+        <v>4.8002824627214523E-2</v>
+      </c>
+      <c r="J51" s="366">
+        <f>$E10/(J37^2)</f>
+        <v>6.0999291856863688E-2</v>
+      </c>
+      <c r="K51" s="366">
+        <f>$E10/(K37^2)</f>
+        <v>8.7203619029779134E-2</v>
+      </c>
+      <c r="L51" s="366">
+        <f>$E10/(L37^2)</f>
+        <v>7.3809143146805048E-2</v>
+      </c>
+      <c r="M51" s="366">
+        <f>$E10/(M37^2)</f>
+        <v>0.46130714466753153</v>
+      </c>
+      <c r="N51" s="366">
+        <f>$E10/(N37^2)</f>
+        <v>0.28475749670835293</v>
+      </c>
+      <c r="O51" s="357"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" s="364"/>
+      <c r="B52" s="359" t="str">
+        <f>A11</f>
+        <v>NM Camera 2</v>
+      </c>
+      <c r="C52" s="366">
+        <f>$E11/(C38^2)</f>
+        <v>0.17469619679717174</v>
+      </c>
+      <c r="D52" s="366">
+        <f>$E11/(D38^2)</f>
+        <v>0.34881447611911653</v>
+      </c>
+      <c r="E52" s="366">
+        <f>$E11/(E38^2)</f>
+        <v>0.23536078809567937</v>
+      </c>
+      <c r="F52" s="366">
+        <f>$E11/(F38^2)</f>
+        <v>9.1122398946672914E-2</v>
+      </c>
+      <c r="G52" s="366">
+        <f>$E11/(G38^2)</f>
+        <v>0.19201129850885809</v>
+      </c>
+      <c r="H52" s="366">
+        <f>$E11/(H38^2)</f>
+        <v>0.10460479470919085</v>
+      </c>
+      <c r="I52" s="366">
+        <f>$E11/(I38^2)</f>
+        <v>0.12131680333136924</v>
+      </c>
+      <c r="J52" s="366">
+        <f>$E11/(J38^2)</f>
+        <v>0.13478660180205451</v>
+      </c>
+      <c r="K52" s="366">
+        <f>$E11/(K38^2)</f>
+        <v>0.13478660180205451</v>
+      </c>
+      <c r="L52" s="366">
+        <f>$E11/(L38^2)</f>
+        <v>0.63848739746371164</v>
+      </c>
+      <c r="M52" s="366">
+        <f>$E11/(M38^2)</f>
+        <v>0.46130714466753153</v>
+      </c>
+      <c r="N52" s="366">
+        <f>$E11/(N38^2)</f>
+        <v>0.28475749670835293</v>
+      </c>
+      <c r="O52" s="357"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" s="364"/>
+      <c r="B53" s="359" t="str">
+        <f>A12</f>
+        <v>Stress Lab</v>
+      </c>
+      <c r="C53" s="366">
+        <f>$E12/(C39^2)</f>
+        <v>0.12189563658891514</v>
+      </c>
+      <c r="D53" s="366">
+        <f>$E12/(D39^2)</f>
+        <v>0.4044012127139901</v>
+      </c>
+      <c r="E53" s="366">
+        <f>$E12/(E39^2)</f>
+        <v>12.682022030710728</v>
+      </c>
+      <c r="F53" s="366">
+        <f>$E12/(F39^2)</f>
+        <v>0.79262637691942051</v>
+      </c>
+      <c r="G53" s="366">
+        <f>$E12/(G39^2)</f>
+        <v>3.170505507677682</v>
+      </c>
+      <c r="H53" s="366">
+        <f>$E12/(H39^2)</f>
+        <v>1.0970607293002363</v>
+      </c>
+      <c r="I53" s="366">
+        <f>$E12/(I39^2)</f>
+        <v>0.2588167761369537</v>
+      </c>
+      <c r="J53" s="366">
+        <f>$E12/(J39^2)</f>
+        <v>0.2195640933294794</v>
+      </c>
+      <c r="K53" s="366">
+        <f>$E12/(K39^2)</f>
+        <v>0.17147136331409857</v>
+      </c>
+      <c r="L53" s="366">
+        <f>$E12/(L39^2)</f>
+        <v>4.9539148557463797</v>
+      </c>
+      <c r="M53" s="366">
+        <f>$E12/(M39^2)</f>
+        <v>0.79262637691942051</v>
+      </c>
+      <c r="N53" s="366">
+        <f>$E12/(N39^2)</f>
+        <v>0.48927554130828449</v>
+      </c>
+      <c r="O53" s="357"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" s="364"/>
+      <c r="B54" s="359" t="str">
+        <f>A13</f>
+        <v>Hot Toilet</v>
+      </c>
+      <c r="C54" s="366">
+        <f>$E13/(C40^2)</f>
+        <v>9.6855613535542187E-2</v>
+      </c>
+      <c r="D54" s="366">
+        <f>$E13/(D40^2)</f>
+        <v>4.2355433494601046E-2</v>
+      </c>
+      <c r="E54" s="366">
+        <f>$E13/(E40^2)</f>
+        <v>3.1407076842833032E-2</v>
+      </c>
+      <c r="F54" s="366">
+        <f>$E13/(F40^2)</f>
+        <v>2.1024572101400626E-2</v>
+      </c>
+      <c r="G54" s="366">
+        <f>$E13/(G40^2)</f>
+        <v>3.4197497658736913E-2</v>
+      </c>
+      <c r="H54" s="366">
+        <f>$E13/(H40^2)</f>
+        <v>2.6087852323865793E-2</v>
+      </c>
+      <c r="I54" s="366">
+        <f>$E13/(I40^2)</f>
+        <v>4.2355433494601046E-2</v>
+      </c>
+      <c r="J54" s="366">
+        <f>$E13/(J40^2)</f>
+        <v>6.5125714541298563E-2</v>
+      </c>
+      <c r="K54" s="366">
+        <f>$E13/(K40^2)</f>
+        <v>9.6855613535542187E-2</v>
+      </c>
+      <c r="L54" s="366">
+        <f>$E13/(L40^2)</f>
+        <v>5.2857490902766473E-2</v>
+      </c>
+      <c r="M54" s="366">
+        <f>$E13/(M40^2)</f>
+        <v>0.40703571588311599</v>
+      </c>
+      <c r="N54" s="366">
+        <f>$E13/(N40^2)</f>
+        <v>0.25125661474266431</v>
+      </c>
+      <c r="O54" s="357"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" s="364"/>
+      <c r="B55" s="359" t="str">
+        <f>A14</f>
+        <v>Radiology Waiting</v>
+      </c>
+      <c r="C55" s="366">
+        <f>$E14/(C41^2)</f>
+        <v>7.7336760292987958E-2</v>
+      </c>
+      <c r="D55" s="366">
+        <f>$E14/(D41^2)</f>
+        <v>0.12470528240743838</v>
+      </c>
+      <c r="E55" s="366">
+        <f>$E14/(E41^2)</f>
+        <v>0.36154511751287288</v>
+      </c>
+      <c r="F55" s="366">
+        <f>$E14/(F41^2)</f>
+        <v>0.30934704117195183</v>
+      </c>
+      <c r="G55" s="366">
+        <f>$E14/(G41^2)</f>
+        <v>0.85929733658875518</v>
+      </c>
+      <c r="H55" s="366">
+        <f>$E14/(H41^2)</f>
+        <v>0.73218234596911691</v>
+      </c>
+      <c r="I55" s="366">
+        <f>$E14/(I41^2)</f>
+        <v>3.4371893463550207</v>
+      </c>
+      <c r="J55" s="366">
+        <f>$E14/(J41^2)</f>
+        <v>1.0226348468494277</v>
+      </c>
+      <c r="K55" s="366">
+        <f>$E14/(K41^2)</f>
+        <v>0.45450437637752344</v>
+      </c>
+      <c r="L55" s="366">
+        <f>$E14/(L41^2)</f>
+        <v>1.2373881646878073</v>
+      </c>
+      <c r="M55" s="366">
+        <f>$E14/(M41^2)</f>
+        <v>1.2373881646878073</v>
+      </c>
+      <c r="N55" s="366">
+        <f>$E14/(N41^2)</f>
+        <v>0.76381985474556047</v>
+      </c>
+      <c r="O55" s="357"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" s="351" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B58" s="364" t="s">
+        <v>389</v>
+      </c>
+      <c r="C58" s="364"/>
+      <c r="D58" s="364"/>
+      <c r="E58" s="364"/>
+      <c r="F58" s="364"/>
+      <c r="G58" s="364"/>
+      <c r="H58" s="364"/>
+      <c r="I58" s="364"/>
+      <c r="J58" s="364"/>
+      <c r="K58" s="364"/>
+      <c r="L58" s="364"/>
+      <c r="M58" s="364"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" s="359" t="s">
+        <v>365</v>
+      </c>
+      <c r="B59" s="360" t="str">
+        <f>C33</f>
+        <v>Tech area</v>
+      </c>
+      <c r="C59" s="360" t="str">
+        <f>D33</f>
+        <v>CT Tech area</v>
+      </c>
+      <c r="D59" s="360" t="str">
+        <f>E33</f>
+        <v>US 1</v>
+      </c>
+      <c r="E59" s="360" t="str">
+        <f>F33</f>
+        <v>US 2</v>
+      </c>
+      <c r="F59" s="360" t="str">
+        <f>G33</f>
+        <v>Office 2221</v>
+      </c>
+      <c r="G59" s="360" t="str">
+        <f>H33</f>
+        <v>Office 2302</v>
+      </c>
+      <c r="H59" s="360" t="str">
+        <f>I33</f>
+        <v>Consult A</v>
+      </c>
+      <c r="I59" s="360" t="str">
+        <f>J33</f>
+        <v>Consult B</v>
+      </c>
+      <c r="J59" s="360" t="str">
+        <f>K33</f>
+        <v>Lactation</v>
+      </c>
+      <c r="K59" s="360" t="str">
+        <f>L33</f>
+        <v>Reading Room</v>
+      </c>
+      <c r="L59" s="360" t="str">
+        <f>M33</f>
+        <v>Floor</v>
+      </c>
+      <c r="M59" s="360" t="str">
+        <f>N33</f>
+        <v>Ceiling</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" s="359" t="s">
+        <v>385</v>
+      </c>
+      <c r="B60" s="366">
+        <f>C47</f>
+        <v>0.9903830236204284</v>
+      </c>
+      <c r="C60" s="366">
+        <f>D47</f>
+        <v>1.2069456032276571</v>
+      </c>
+      <c r="D60" s="366">
+        <f>E47</f>
+        <v>13.621340154463082</v>
+      </c>
+      <c r="E60" s="366">
+        <f>F47</f>
+        <v>1.371468842771582</v>
+      </c>
+      <c r="F60" s="366">
+        <f>G47</f>
+        <v>4.6426544264576028</v>
+      </c>
+      <c r="G60" s="366">
+        <f>H47</f>
+        <v>2.1837049529420849</v>
+      </c>
+      <c r="H60" s="366">
+        <f>I47</f>
+        <v>4.33463407109216</v>
+      </c>
+      <c r="I60" s="366">
+        <f>J47</f>
+        <v>2.1385807499842233</v>
+      </c>
+      <c r="J60" s="366">
+        <f>K47</f>
+        <v>1.7071011492309554</v>
+      </c>
+      <c r="K60" s="366">
+        <f>L47</f>
+        <v>8.5826167963290843</v>
+      </c>
+      <c r="L60" s="366">
+        <f>M47</f>
+        <v>4.3504475179746827</v>
+      </c>
+      <c r="M60" s="366">
+        <f>N47</f>
+        <v>2.6854614308485707</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" s="359" t="s">
+        <v>367</v>
+      </c>
+      <c r="B61" s="360">
+        <f>F18</f>
+        <v>0.02</v>
+      </c>
+      <c r="C61" s="360">
+        <f>F19</f>
+        <v>0.1</v>
+      </c>
+      <c r="D61" s="360">
+        <f>F20</f>
+        <v>0.04</v>
+      </c>
+      <c r="E61" s="360">
+        <f>F21</f>
+        <v>0.04</v>
+      </c>
+      <c r="F61" s="360">
+        <f>F22</f>
+        <v>0.04</v>
+      </c>
+      <c r="G61" s="360">
+        <f>F23</f>
+        <v>0.04</v>
+      </c>
+      <c r="H61" s="360">
+        <f>F24</f>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="I61" s="360">
+        <f>F25</f>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="J61" s="360">
+        <f>F26</f>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="K61" s="360">
+        <f>F27</f>
+        <v>0.1</v>
+      </c>
+      <c r="L61" s="360">
+        <f>F28</f>
+        <v>0.04</v>
+      </c>
+      <c r="M61" s="360">
+        <f>F29</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" s="359" t="s">
+        <v>386</v>
+      </c>
+      <c r="B62" s="366">
+        <f>B61/B60</f>
+        <v>2.0194207213779087E-2</v>
+      </c>
+      <c r="C62" s="366">
+        <f t="shared" ref="C62:M62" si="6">C61/C60</f>
+        <v>8.2853775458128706E-2</v>
+      </c>
+      <c r="D62" s="366">
+        <f t="shared" si="6"/>
+        <v>2.9365686155993875E-3</v>
+      </c>
+      <c r="E62" s="366">
+        <f t="shared" si="6"/>
+        <v>2.9165810226621385E-2</v>
+      </c>
+      <c r="F62" s="366">
+        <f t="shared" si="6"/>
+        <v>8.6157607966786467E-3</v>
+      </c>
+      <c r="G62" s="366">
+        <f t="shared" si="6"/>
+        <v>1.8317492913183339E-2</v>
+      </c>
+      <c r="H62" s="366">
+        <f t="shared" si="6"/>
+        <v>4.613999629952794E-2</v>
+      </c>
+      <c r="I62" s="366">
+        <f t="shared" si="6"/>
+        <v>9.3519966455077944E-2</v>
+      </c>
+      <c r="J62" s="366">
+        <f t="shared" si="6"/>
+        <v>0.11715767404298184</v>
+      </c>
+      <c r="K62" s="366">
+        <f t="shared" si="6"/>
+        <v>1.1651458101073734E-2</v>
+      </c>
+      <c r="L62" s="366">
+        <f t="shared" si="6"/>
+        <v>9.194456394366916E-3</v>
+      </c>
+      <c r="M62" s="366">
+        <f t="shared" si="6"/>
+        <v>1.4895019358874398E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" s="359" t="s">
+        <v>387</v>
+      </c>
+      <c r="B63" s="366">
+        <f>-LN(B62)/LN(2)</f>
+        <v>5.6299146800892492</v>
+      </c>
+      <c r="C63" s="366">
+        <f t="shared" ref="C63:M63" si="7">-LN(C62)/LN(2)</f>
+        <v>3.5932887504979729</v>
+      </c>
+      <c r="D63" s="366">
+        <f t="shared" si="7"/>
+        <v>8.4116529365497357</v>
+      </c>
+      <c r="E63" s="366">
+        <f t="shared" si="7"/>
+        <v>5.0995780369776718</v>
+      </c>
+      <c r="F63" s="366">
+        <f t="shared" si="7"/>
+        <v>6.8588060884285262</v>
+      </c>
+      <c r="G63" s="366">
+        <f t="shared" si="7"/>
+        <v>5.7706341322585439</v>
+      </c>
+      <c r="H63" s="366">
+        <f t="shared" si="7"/>
+        <v>4.4378383014593537</v>
+      </c>
+      <c r="I63" s="366">
+        <f t="shared" si="7"/>
+        <v>3.4185817773891309</v>
+      </c>
+      <c r="J63" s="366">
+        <f t="shared" si="7"/>
+        <v>3.093476638414439</v>
+      </c>
+      <c r="K63" s="366">
+        <f t="shared" si="7"/>
+        <v>6.4233456800833784</v>
+      </c>
+      <c r="L63" s="366">
+        <f t="shared" si="7"/>
+        <v>6.7650200042428716</v>
+      </c>
+      <c r="M63" s="366">
+        <f t="shared" si="7"/>
+        <v>6.0690261911329726</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64" s="359" t="s">
+        <v>388</v>
+      </c>
+      <c r="B64" s="362">
+        <f>B63*PBHVL</f>
+        <v>1.5193086603894512</v>
+      </c>
+      <c r="C64" s="362">
+        <f>C63*PBHVL</f>
+        <v>0.96969759368094288</v>
+      </c>
+      <c r="D64" s="362">
+        <f>D63*PBHVL</f>
+        <v>2.2699983713585827</v>
+      </c>
+      <c r="E64" s="362">
+        <f>E63*PBHVL</f>
+        <v>1.376190140733925</v>
+      </c>
+      <c r="F64" s="362">
+        <f>F63*PBHVL</f>
+        <v>1.8509416362800299</v>
+      </c>
+      <c r="G64" s="362">
+        <f>G63*PBHVL</f>
+        <v>1.5572837087720102</v>
+      </c>
+      <c r="H64" s="362">
+        <f>H63*PBHVL</f>
+        <v>1.1976107184466822</v>
+      </c>
+      <c r="I64" s="362">
+        <f>I63*PBHVL</f>
+        <v>0.92255055285394361</v>
+      </c>
+      <c r="J64" s="362">
+        <f>J63*PBHVL</f>
+        <v>0.83481653178108151</v>
+      </c>
+      <c r="K64" s="362">
+        <f>K63*PBHVL</f>
+        <v>1.7334267524407918</v>
+      </c>
+      <c r="L64" s="362">
+        <f>L63*PBHVL</f>
+        <v>1.8256321923498742</v>
+      </c>
+      <c r="M64" s="362">
+        <f>M63*PBHVL</f>
+        <v>1.6378088436985971</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66" s="349" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C67" s="364" t="s">
+        <v>389</v>
+      </c>
+      <c r="D67" s="364"/>
+      <c r="E67" s="364"/>
+      <c r="F67" s="364"/>
+      <c r="G67" s="364"/>
+      <c r="H67" s="364"/>
+      <c r="I67" s="364"/>
+      <c r="J67" s="364"/>
+      <c r="K67" s="364"/>
+      <c r="L67" s="364"/>
+      <c r="M67" s="364"/>
+      <c r="N67" s="364"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C68" s="360" t="str">
+        <f>C33</f>
+        <v>Tech area</v>
+      </c>
+      <c r="D68" s="360" t="str">
+        <f>D33</f>
+        <v>CT Tech area</v>
+      </c>
+      <c r="E68" s="360" t="str">
+        <f>E33</f>
+        <v>US 1</v>
+      </c>
+      <c r="F68" s="360" t="str">
+        <f>F33</f>
+        <v>US 2</v>
+      </c>
+      <c r="G68" s="360" t="str">
+        <f>G33</f>
+        <v>Office 2221</v>
+      </c>
+      <c r="H68" s="360" t="str">
+        <f>H33</f>
+        <v>Office 2302</v>
+      </c>
+      <c r="I68" s="360" t="str">
+        <f>I33</f>
+        <v>Consult A</v>
+      </c>
+      <c r="J68" s="360" t="str">
+        <f>J33</f>
+        <v>Consult B</v>
+      </c>
+      <c r="K68" s="360" t="str">
+        <f>K33</f>
+        <v>Lactation</v>
+      </c>
+      <c r="L68" s="360" t="str">
+        <f>L33</f>
+        <v>Reading Room</v>
+      </c>
+      <c r="M68" s="360" t="str">
+        <f>M33</f>
+        <v>Floor</v>
+      </c>
+      <c r="N68" s="360" t="str">
+        <f>N33</f>
+        <v>Ceiling</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" s="369" t="s">
+        <v>390</v>
+      </c>
+      <c r="B69" s="359" t="str">
+        <f>A7</f>
+        <v>Hot lab</v>
+      </c>
+      <c r="C69" s="362">
+        <f>-LN((B$61/C48))/LN(2)*PBHVL</f>
+        <v>0.2111682842584843</v>
+      </c>
+      <c r="D69" s="362">
+        <f>-LN((C$61/D48))/LN(2)*PBHVL</f>
+        <v>-0.25375464104747575</v>
+      </c>
+      <c r="E69" s="362">
+        <f>-LN((D$61/E48))/LN(2)*PBHVL</f>
+        <v>0.33367634585173811</v>
+      </c>
+      <c r="F69" s="362">
+        <f>-LN((E$61/F48))/LN(2)*PBHVL</f>
+        <v>9.0571666920018813E-3</v>
+      </c>
+      <c r="G69" s="362">
+        <f>-LN((F$61/G48))/LN(2)*PBHVL</f>
+        <v>0.4810318162517197</v>
+      </c>
+      <c r="H69" s="362">
+        <f>-LN((G$61/H48))/LN(2)*PBHVL</f>
+        <v>0.20981878280570193</v>
+      </c>
+      <c r="I69" s="362">
+        <f>-LN((H$61/I48))/LN(2)*PBHVL</f>
+        <v>-0.11243236477016001</v>
+      </c>
+      <c r="J69" s="362">
+        <f>-LN((I$61/J48))/LN(2)*PBHVL</f>
+        <v>-3.6051128808088388E-3</v>
+      </c>
+      <c r="K69" s="362">
+        <f>-LN((J$61/K48))/LN(2)*PBHVL</f>
+        <v>-7.781948604215512E-2</v>
+      </c>
+      <c r="L69" s="362">
+        <f>-LN((K$61/L48))/LN(2)*PBHVL</f>
+        <v>0.88802566644085579</v>
+      </c>
+      <c r="M69" s="362">
+        <f>-LN((L$61/M48))/LN(2)*PBHVL</f>
+        <v>0.62299860383981909</v>
+      </c>
+      <c r="N69" s="362">
+        <f>-LN((M$61/N48))/LN(2)*PBHVL</f>
+        <v>0.43517525518854178</v>
+      </c>
+      <c r="O69" s="356"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70" s="370"/>
+      <c r="B70" s="359" t="str">
+        <f>A8</f>
+        <v>NM Hold 1</v>
+      </c>
+      <c r="C70" s="362">
+        <f>-LN((B$61/C49))/LN(2)*PBHVL</f>
+        <v>0.64271260766638783</v>
+      </c>
+      <c r="D70" s="362">
+        <f>-LN((C$61/D49))/LN(2)*PBHVL</f>
+        <v>-0.20789807998429763</v>
+      </c>
+      <c r="E70" s="362">
+        <f>-LN((D$61/E49))/LN(2)*PBHVL</f>
+        <v>7.055451448891846E-2</v>
+      </c>
+      <c r="F70" s="362">
+        <f>-LN((E$61/F49))/LN(2)*PBHVL</f>
+        <v>-0.12588633674457109</v>
+      </c>
+      <c r="G70" s="362">
+        <f>-LN((F$61/G49))/LN(2)*PBHVL</f>
+        <v>9.1137075637720985E-2</v>
+      </c>
+      <c r="H70" s="362">
+        <f>-LN((G$61/H49))/LN(2)*PBHVL</f>
+        <v>-2.4911200725219192E-2</v>
+      </c>
+      <c r="I70" s="362">
+        <f>-LN((H$61/I49))/LN(2)*PBHVL</f>
+        <v>-0.38229589676339548</v>
+      </c>
+      <c r="J70" s="362">
+        <f>-LN((I$61/J49))/LN(2)*PBHVL</f>
+        <v>-0.23352852831810289</v>
+      </c>
+      <c r="K70" s="362">
+        <f>-LN((J$61/K49))/LN(2)*PBHVL</f>
+        <v>4.2604229035640177E-3</v>
+      </c>
+      <c r="L70" s="362">
+        <f>-LN((K$61/L49))/LN(2)*PBHVL</f>
+        <v>-3.6051128808089242E-3</v>
+      </c>
+      <c r="M70" s="362">
+        <f>-LN((L$61/M49))/LN(2)*PBHVL</f>
+        <v>0.89286213583305474</v>
+      </c>
+      <c r="N70" s="362">
+        <f>-LN((M$61/N49))/LN(2)*PBHVL</f>
+        <v>0.70503878718177726</v>
+      </c>
+      <c r="O70" s="356"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71" s="370"/>
+      <c r="B71" s="359" t="str">
+        <f>A9</f>
+        <v>NM Hold 2</v>
+      </c>
+      <c r="C71" s="362">
+        <f>-LN((B$61/C50))/LN(2)*PBHVL</f>
+        <v>0.56668528477185676</v>
+      </c>
+      <c r="D71" s="362">
+        <f>-LN((C$61/D50))/LN(2)*PBHVL</f>
+        <v>-3.6051128808089242E-3</v>
+      </c>
+      <c r="E71" s="362">
+        <f>-LN((D$61/E50))/LN(2)*PBHVL</f>
+        <v>0.43517525518854172</v>
+      </c>
+      <c r="F71" s="362">
+        <f>-LN((E$61/F50))/LN(2)*PBHVL</f>
+        <v>0.14884210474309492</v>
+      </c>
+      <c r="G71" s="362">
+        <f>-LN((F$61/G50))/LN(2)*PBHVL</f>
+        <v>0.52688837731489779</v>
+      </c>
+      <c r="H71" s="362">
+        <f>-LN((G$61/H50))/LN(2)*PBHVL</f>
+        <v>0.29682175277862122</v>
+      </c>
+      <c r="I71" s="362">
+        <f>-LN((H$61/I50))/LN(2)*PBHVL</f>
+        <v>4.2604229035640177E-3</v>
+      </c>
+      <c r="J71" s="362">
+        <f>-LN((I$61/J50))/LN(2)*PBHVL</f>
+        <v>0.19204404595108038</v>
+      </c>
+      <c r="K71" s="362">
+        <f>-LN((J$61/K50))/LN(2)*PBHVL</f>
+        <v>0.26625841911242665</v>
+      </c>
+      <c r="L71" s="362">
+        <f>-LN((K$61/L50))/LN(2)*PBHVL</f>
+        <v>0.66266919405801594</v>
+      </c>
+      <c r="M71" s="362">
+        <f>-LN((L$61/M50))/LN(2)*PBHVL</f>
+        <v>0.89286213583305474</v>
+      </c>
+      <c r="N71" s="362">
+        <f>-LN((M$61/N50))/LN(2)*PBHVL</f>
+        <v>0.70503878718177726</v>
+      </c>
+      <c r="O71" s="356"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" s="370"/>
+      <c r="B72" s="359" t="str">
+        <f>A10</f>
+        <v>NM Camera 1</v>
+      </c>
+      <c r="C72" s="362">
+        <f>-LN((B$61/C51))/LN(2)*PBHVL</f>
+        <v>1.0480958619497696</v>
+      </c>
+      <c r="D72" s="362">
+        <f>-LN((C$61/D51))/LN(2)*PBHVL</f>
+        <v>-0.10250384718858385</v>
+      </c>
+      <c r="E72" s="362">
+        <f>-LN((D$61/E51))/LN(2)*PBHVL</f>
+        <v>5.8547453103158328E-2</v>
+      </c>
+      <c r="F72" s="362">
+        <f>-LN((E$61/F51))/LN(2)*PBHVL</f>
+        <v>-0.12746849254809384</v>
+      </c>
+      <c r="G72" s="362">
+        <f>-LN((F$61/G51))/LN(2)*PBHVL</f>
+        <v>3.4212298866574294E-2</v>
+      </c>
+      <c r="H72" s="362">
+        <f>-LN((G$61/H51))/LN(2)*PBHVL</f>
+        <v>-8.7528375992152352E-2</v>
+      </c>
+      <c r="I72" s="362">
+        <f>-LN((H$61/I51))/LN(2)*PBHVL</f>
+        <v>-0.55559741288576814</v>
+      </c>
+      <c r="J72" s="362">
+        <f>-LN((I$61/J51))/LN(2)*PBHVL</f>
+        <v>-0.4623128239119112</v>
+      </c>
+      <c r="K72" s="362">
+        <f>-LN((J$61/K51))/LN(2)*PBHVL</f>
+        <v>-0.32317239717160196</v>
+      </c>
+      <c r="L72" s="362">
+        <f>-LN((K$61/L51))/LN(2)*PBHVL</f>
+        <v>-0.11823491875732949</v>
+      </c>
+      <c r="M72" s="362">
+        <f>-LN((L$61/M51))/LN(2)*PBHVL</f>
+        <v>0.95198563542484815</v>
+      </c>
+      <c r="N72" s="362">
+        <f>-LN((M$61/N51))/LN(2)*PBHVL</f>
+        <v>0.76416228677357079</v>
+      </c>
+      <c r="O72" s="356"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A73" s="370"/>
+      <c r="B73" s="359" t="str">
+        <f>A11</f>
+        <v>NM Camera 2</v>
+      </c>
+      <c r="C73" s="362">
+        <f>-LN((B$61/C52))/LN(2)*PBHVL</f>
+        <v>0.84380289484628079</v>
+      </c>
+      <c r="D73" s="362">
+        <f>-LN((C$61/D52))/LN(2)*PBHVL</f>
+        <v>0.4864181988081045</v>
+      </c>
+      <c r="E73" s="362">
+        <f>-LN((D$61/E52))/LN(2)*PBHVL</f>
+        <v>0.68998763921598549</v>
+      </c>
+      <c r="F73" s="362">
+        <f>-LN((E$61/F52))/LN(2)*PBHVL</f>
+        <v>0.32054544931202117</v>
+      </c>
+      <c r="G73" s="362">
+        <f>-LN((F$61/G52))/LN(2)*PBHVL</f>
+        <v>0.61073336782133081</v>
+      </c>
+      <c r="H73" s="362">
+        <f>-LN((G$61/H52))/LN(2)*PBHVL</f>
+        <v>0.37426754615957197</v>
+      </c>
+      <c r="I73" s="362">
+        <f>-LN((H$61/I52))/LN(2)*PBHVL</f>
+        <v>-0.19463114145568225</v>
+      </c>
+      <c r="J73" s="362">
+        <f>-LN((I$61/J52))/LN(2)*PBHVL</f>
+        <v>-0.15363948988693457</v>
+      </c>
+      <c r="K73" s="362">
+        <f>-LN((J$61/K52))/LN(2)*PBHVL</f>
+        <v>-0.15363948988693457</v>
+      </c>
+      <c r="L73" s="362">
+        <f>-LN((K$61/L52))/LN(2)*PBHVL</f>
+        <v>0.72179269364980936</v>
+      </c>
+      <c r="M73" s="362">
+        <f>-LN((L$61/M52))/LN(2)*PBHVL</f>
+        <v>0.95198563542484815</v>
+      </c>
+      <c r="N73" s="362">
+        <f>-LN((M$61/N52))/LN(2)*PBHVL</f>
+        <v>0.76416228677357079</v>
+      </c>
+      <c r="O73" s="356"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A74" s="370"/>
+      <c r="B74" s="359" t="str">
+        <f>A12</f>
+        <v>Stress Lab</v>
+      </c>
+      <c r="C74" s="362">
+        <f>-LN((B$61/C53))/LN(2)*PBHVL</f>
+        <v>0.70368928572899481</v>
+      </c>
+      <c r="D74" s="362">
+        <f>-LN((C$61/D53))/LN(2)*PBHVL</f>
+        <v>0.54398748689003495</v>
+      </c>
+      <c r="E74" s="362">
+        <f>-LN((D$61/E53))/LN(2)*PBHVL</f>
+        <v>2.2421797957992324</v>
+      </c>
+      <c r="F74" s="362">
+        <f>-LN((E$61/F53))/LN(2)*PBHVL</f>
+        <v>1.1627256678262901</v>
+      </c>
+      <c r="G74" s="362">
+        <f>-LN((F$61/G53))/LN(2)*PBHVL</f>
+        <v>1.7024527318127611</v>
+      </c>
+      <c r="H74" s="362">
+        <f>-LN((G$61/H53))/LN(2)*PBHVL</f>
+        <v>1.2892729107786438</v>
+      </c>
+      <c r="I74" s="362">
+        <f>-LN((H$61/I53))/LN(2)*PBHVL</f>
+        <v>0.10037064942848542</v>
+      </c>
+      <c r="J74" s="362">
+        <f>-LN((I$61/J53))/LN(2)*PBHVL</f>
+        <v>3.63350036751326E-2</v>
+      </c>
+      <c r="K74" s="362">
+        <f>-LN((J$61/K53))/LN(2)*PBHVL</f>
+        <v>-5.9918431948771236E-2</v>
+      </c>
+      <c r="L74" s="362">
+        <f>-LN((K$61/L53))/LN(2)*PBHVL</f>
+        <v>1.5194658525536828</v>
+      </c>
+      <c r="M74" s="362">
+        <f>-LN((L$61/M53))/LN(2)*PBHVL</f>
+        <v>1.1627256678262901</v>
+      </c>
+      <c r="N74" s="362">
+        <f>-LN((M$61/N53))/LN(2)*PBHVL</f>
+        <v>0.9749023191750128</v>
+      </c>
+      <c r="O74" s="356"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A75" s="370"/>
+      <c r="B75" s="359" t="str">
+        <f>A13</f>
+        <v>Hot Toilet</v>
+      </c>
+      <c r="C75" s="362">
+        <f>-LN((B$61/C54))/LN(2)*PBHVL</f>
+        <v>0.61416505123607945</v>
+      </c>
+      <c r="D75" s="362">
+        <f>-LN((C$61/D54))/LN(2)*PBHVL</f>
+        <v>-0.33446374488138481</v>
+      </c>
+      <c r="E75" s="362">
+        <f>-LN((D$61/E54))/LN(2)*PBHVL</f>
+        <v>-9.415817319498769E-2</v>
+      </c>
+      <c r="F75" s="362">
+        <f>-LN((E$61/F54))/LN(2)*PBHVL</f>
+        <v>-0.25041272969829204</v>
+      </c>
+      <c r="G75" s="362">
+        <f>-LN((F$61/G54))/LN(2)*PBHVL</f>
+        <v>-6.1018637496239404E-2</v>
+      </c>
+      <c r="H75" s="362">
+        <f>-LN((G$61/H54))/LN(2)*PBHVL</f>
+        <v>-0.16640374237787289</v>
+      </c>
+      <c r="I75" s="362">
+        <f>-LN((H$61/I54))/LN(2)*PBHVL</f>
+        <v>-0.60432727687462018</v>
+      </c>
+      <c r="J75" s="362">
+        <f>-LN((I$61/J54))/LN(2)*PBHVL</f>
+        <v>-0.43682831473941691</v>
+      </c>
+      <c r="K75" s="362">
+        <f>-LN((J$61/K54))/LN(2)*PBHVL</f>
+        <v>-0.28230219747778407</v>
+      </c>
+      <c r="L75" s="362">
+        <f>-LN((K$61/L54))/LN(2)*PBHVL</f>
+        <v>-0.24822591493896465</v>
+      </c>
+      <c r="M75" s="362">
+        <f>-LN((L$61/M54))/LN(2)*PBHVL</f>
+        <v>0.90325577143599622</v>
+      </c>
+      <c r="N75" s="362">
+        <f>-LN((M$61/N54))/LN(2)*PBHVL</f>
+        <v>0.71543242278471875</v>
+      </c>
+      <c r="O75" s="356"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A76" s="371"/>
+      <c r="B76" s="359" t="str">
+        <f>A14</f>
+        <v>Radiology Waiting</v>
+      </c>
+      <c r="C76" s="362">
+        <f>-LN((B$61/C55))/LN(2)*PBHVL</f>
+        <v>0.52654539892616026</v>
+      </c>
+      <c r="D76" s="362">
+        <f>-LN((C$61/D55))/LN(2)*PBHVL</f>
+        <v>8.5957627856784416E-2</v>
+      </c>
+      <c r="E76" s="362">
+        <f>-LN((D$61/E55))/LN(2)*PBHVL</f>
+        <v>0.85711458631471205</v>
+      </c>
+      <c r="F76" s="362">
+        <f>-LN((E$61/F55))/LN(2)*PBHVL</f>
+        <v>0.7964089309193958</v>
+      </c>
+      <c r="G76" s="362">
+        <f>-LN((F$61/G55))/LN(2)*PBHVL</f>
+        <v>1.1941692073177674</v>
+      </c>
+      <c r="H76" s="362">
+        <f>-LN((G$61/H55))/LN(2)*PBHVL</f>
+        <v>1.1318430278023779</v>
+      </c>
+      <c r="I76" s="362">
+        <f>-LN((H$61/I55))/LN(2)*PBHVL</f>
+        <v>1.1072925545836103</v>
+      </c>
+      <c r="J76" s="362">
+        <f>-LN((I$61/J55))/LN(2)*PBHVL</f>
+        <v>0.63531790502389252</v>
+      </c>
+      <c r="K76" s="362">
+        <f>-LN((J$61/K55))/LN(2)*PBHVL</f>
+        <v>0.31959781196747894</v>
+      </c>
+      <c r="L76" s="362">
+        <f>-LN((K$61/L55))/LN(2)*PBHVL</f>
+        <v>0.97939581017847421</v>
+      </c>
+      <c r="M76" s="362">
+        <f>-LN((L$61/M55))/LN(2)*PBHVL</f>
+        <v>1.3361359949058669</v>
+      </c>
+      <c r="N76" s="362">
+        <f>-LN((M$61/N55))/LN(2)*PBHVL</f>
+        <v>1.1483126462545894</v>
+      </c>
+      <c r="O76" s="356"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C67:N67"/>
+    <mergeCell ref="B58:M58"/>
+    <mergeCell ref="A69:A76"/>
+    <mergeCell ref="C32:N32"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="A48:A55"/>
+    <mergeCell ref="C45:N45"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C48:C55">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D55">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48:E55">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48:F55">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G48:G55">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48:H55">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48:I55">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48:J55">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:K55">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L48:L55">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C69:N76">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M48:N55">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="53" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -28598,11 +31877,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -29897,7 +33176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF32"/>
   <sheetViews>
@@ -32992,7 +36271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -33070,7 +36349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
@@ -33977,7 +37256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -34220,66 +37499,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="292" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B5">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>241</v>
-      </c>
-      <c r="B6">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/MUSCShield_form.xlsx
+++ b/MUSCShield_form.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,30 +9,28 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8190" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
     <sheet name="RadFluoro" sheetId="5" r:id="rId2"/>
-    <sheet name="NM" sheetId="27" r:id="rId3"/>
-    <sheet name="CT" sheetId="4" r:id="rId4"/>
-    <sheet name="ShieldEvaluation" sheetId="2" r:id="rId5"/>
-    <sheet name="FitParameters" sheetId="3" r:id="rId6"/>
-    <sheet name="NCRP147_4.1" sheetId="16" r:id="rId7"/>
-    <sheet name="NCRP147_4.2" sheetId="17" r:id="rId8"/>
-    <sheet name="NCRP147_4.3" sheetId="18" r:id="rId9"/>
-    <sheet name="NCRP147_4.4" sheetId="19" r:id="rId10"/>
-    <sheet name="NCRP147_4.5" sheetId="26" r:id="rId11"/>
-    <sheet name="NCRP147_4.7" sheetId="20" r:id="rId12"/>
-    <sheet name="NCRP147_5.2" sheetId="21" r:id="rId13"/>
-    <sheet name="NCRP147_A1" sheetId="22" r:id="rId14"/>
-    <sheet name="NCRP147_B1" sheetId="23" r:id="rId15"/>
-    <sheet name="NCRP147_C1" sheetId="24" r:id="rId16"/>
-    <sheet name="W_Rh_Al_Ag" sheetId="25" r:id="rId17"/>
+    <sheet name="Fluoro" sheetId="28" r:id="rId3"/>
+    <sheet name="NM" sheetId="27" r:id="rId4"/>
+    <sheet name="CT" sheetId="4" r:id="rId5"/>
+    <sheet name="ShieldEvaluation" sheetId="2" r:id="rId6"/>
+    <sheet name="FitParameters" sheetId="3" r:id="rId7"/>
+    <sheet name="NCRP147_4.1" sheetId="16" r:id="rId8"/>
+    <sheet name="NCRP147_4.2" sheetId="17" r:id="rId9"/>
+    <sheet name="NCRP147_4.3" sheetId="18" r:id="rId10"/>
+    <sheet name="NCRP147_4.4" sheetId="19" r:id="rId11"/>
+    <sheet name="NCRP147_4.5" sheetId="26" r:id="rId12"/>
+    <sheet name="NCRP147_4.7" sheetId="20" r:id="rId13"/>
+    <sheet name="NCRP147_5.2" sheetId="21" r:id="rId14"/>
+    <sheet name="NCRP147_A1" sheetId="22" r:id="rId15"/>
+    <sheet name="NCRP147_B1" sheetId="23" r:id="rId16"/>
+    <sheet name="NCRP147_C1" sheetId="24" r:id="rId17"/>
+    <sheet name="W_Rh_Al_Ag" sheetId="25" r:id="rId18"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId18"/>
-  </externalReferences>
   <definedNames>
     <definedName name="FitParams">FitParameters!$A$5:$AF$30</definedName>
     <definedName name="inch_value">Table!$AF$6:$AF$41</definedName>
@@ -57,6 +55,7 @@
     <definedName name="minimum_Pb">Table!$AG$6:$AG$41</definedName>
     <definedName name="mm_value">Table!$AE$6:$AE$41</definedName>
     <definedName name="NDAY">NM!$B$2</definedName>
+    <definedName name="Nfl" localSheetId="2">Fluoro!$B$5</definedName>
     <definedName name="Nfl">RadFluoro!$B$13</definedName>
     <definedName name="Nrad">RadFluoro!$B$14</definedName>
     <definedName name="NWEEK">NM!$B$3</definedName>
@@ -64,10 +63,11 @@
     <definedName name="PBMU">NM!$M$17</definedName>
     <definedName name="PBMURHO">NM!$M$15</definedName>
     <definedName name="PBRHO">NM!$M$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">CT!$A$1:$H$50</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">NM!$A$1:$Q$73</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">CT!$A$1:$H$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Fluoro!$A$1:$L$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">NM!$A$1:$Q$73</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">RadFluoro!$A$1:$N$66</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">ShieldEvaluation!$A$1:$H$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">ShieldEvaluation!$A$1:$H$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Table!$A$1:$N$112</definedName>
     <definedName name="RefDist">ShieldEvaluation!$F$16</definedName>
     <definedName name="RefExp">ShieldEvaluation!$G$16</definedName>
@@ -304,6 +304,208 @@
     <author>Eugene Mah</author>
   </authors>
   <commentList>
+    <comment ref="B6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eugene Mah:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Based on 90th percentile of one month of DAP data from Neuro 01</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eugene Mah:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Based on 90th percentile of one month of DAP data from Neuro 01</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eugene Mah:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Inverse square correction from isocontour distance to barrier distance</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eugene Mah:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Inverse square correction from isocontour distance to barrier distance</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eugene Mah:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Dose limits per NCRP 116 recommendations.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eugene Mah:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Occupancy factor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D28" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eugene Mah:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Barrier transmission factor (B) required to reduce barrier exposure to design limit.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E28" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eugene Mah:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Barrier thickness from Eq A2, NCRP 147</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Eugene Mah</author>
+  </authors>
+  <commentList>
     <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
@@ -454,7 +656,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Eugene Mah</author>
@@ -660,7 +862,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Eugene Mah</author>
@@ -933,7 +1135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="421">
   <si>
     <t>Shielding Calculations</t>
   </si>
@@ -2496,6 +2698,93 @@
   </si>
   <si>
     <t>Required shielding for each target area from each source area</t>
+  </si>
+  <si>
+    <t>mm Concrete</t>
+  </si>
+  <si>
+    <t>uGy/week</t>
+  </si>
+  <si>
+    <t>Exp @ Barrier</t>
+  </si>
+  <si>
+    <t>B Plane</t>
+  </si>
+  <si>
+    <t>A Plane</t>
+  </si>
+  <si>
+    <t>Wall C Offices</t>
+  </si>
+  <si>
+    <t>Wall B Offices</t>
+  </si>
+  <si>
+    <t>Wall D2</t>
+  </si>
+  <si>
+    <t>Wall D1</t>
+  </si>
+  <si>
+    <t>µGy·m²</t>
+  </si>
+  <si>
+    <t>Gy·cm²</t>
+  </si>
+  <si>
+    <t>uGy/Gy-cm^2</t>
+  </si>
+  <si>
+    <t>P (mSv)</t>
+  </si>
+  <si>
+    <t>Distance (m)</t>
+  </si>
+  <si>
+    <t>dGy·cm²</t>
+  </si>
+  <si>
+    <t>Isocontour @ barrier</t>
+  </si>
+  <si>
+    <t>B Plane Isocontour</t>
+  </si>
+  <si>
+    <t>A Plane Isocontour</t>
+  </si>
+  <si>
+    <t>cGy·cm²</t>
+  </si>
+  <si>
+    <t>mGy·cm²</t>
+  </si>
+  <si>
+    <t>B DAP/pt</t>
+  </si>
+  <si>
+    <t>KAP Conversion Table</t>
+  </si>
+  <si>
+    <t>A DAP/pt</t>
+  </si>
+  <si>
+    <t>Pts/wk</t>
+  </si>
+  <si>
+    <t>Neuro2</t>
+  </si>
+  <si>
+    <t>Neuro 1</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>EH649H</t>
   </si>
 </sst>
 </file>
@@ -3307,7 +3596,7 @@
     </xf>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="372">
+  <cellXfs count="401">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -4151,60 +4440,6 @@
     <xf numFmtId="164" fontId="24" fillId="0" borderId="8" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4250,9 +4485,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4265,6 +4497,113 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="48" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="46" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4272,6 +4611,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4344,6 +4719,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4750,6 +5126,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4867,6 +5244,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4970,6 +5348,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5065,6 +5444,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5864,75 +6244,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Table"/>
-      <sheetName val="RadFluoro"/>
-      <sheetName val="CT"/>
-      <sheetName val="NM"/>
-      <sheetName val="ShieldEvaluation"/>
-      <sheetName val="FitParameters"/>
-      <sheetName val="NCRP147_4.1"/>
-      <sheetName val="NCRP147_4.2"/>
-      <sheetName val="NCRP147_4.3"/>
-      <sheetName val="NCRP147_4.4"/>
-      <sheetName val="NCRP147_4.5"/>
-      <sheetName val="NCRP147_4.7"/>
-      <sheetName val="NCRP147_5.2"/>
-      <sheetName val="NCRP147_A1"/>
-      <sheetName val="NCRP147_B1"/>
-      <sheetName val="NCRP147_C1"/>
-      <sheetName val="W_Rh_Al_Ag"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="AE6">
-            <v>-25.4</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="7">
-          <cell r="C7">
-            <v>5.2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="19">
-          <cell r="B19" t="str">
-            <v>Patients per day</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="16">
-          <cell r="H16" t="str">
-            <v/>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6307,7 +6618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT112"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15673,6 +15984,253 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="292" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="292" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="399" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="399"/>
+      <c r="E3" s="399" t="s">
+        <v>231</v>
+      </c>
+      <c r="F3" s="399"/>
+    </row>
+    <row r="4" spans="1:6" s="291" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="297" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" s="297" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="297" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" s="297" t="s">
+        <v>235</v>
+      </c>
+      <c r="E4" s="297" t="s">
+        <v>234</v>
+      </c>
+      <c r="F4" s="297" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" s="207">
+        <f>NCRP147_4.2!C29</f>
+        <v>0.60091000000000006</v>
+      </c>
+      <c r="C5">
+        <v>120</v>
+      </c>
+      <c r="D5">
+        <v>160</v>
+      </c>
+      <c r="E5" s="295">
+        <f>B5*C5</f>
+        <v>72.109200000000001</v>
+      </c>
+      <c r="F5" s="295">
+        <f>B5*D5</f>
+        <v>96.145600000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="207">
+        <f>NCRP147_4.2!D29</f>
+        <v>1.8507709999999995</v>
+      </c>
+      <c r="C6">
+        <v>120</v>
+      </c>
+      <c r="D6">
+        <v>160</v>
+      </c>
+      <c r="E6" s="295">
+        <f t="shared" ref="E6:E12" si="0">B6*C6</f>
+        <v>222.09251999999995</v>
+      </c>
+      <c r="F6" s="295">
+        <f t="shared" ref="F6:F12" si="1">B6*D6</f>
+        <v>296.12335999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="207">
+        <f>NCRP147_4.2!G29</f>
+        <v>0.21584300000000001</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>400</v>
+      </c>
+      <c r="E7" s="295">
+        <f t="shared" si="0"/>
+        <v>43.168599999999998</v>
+      </c>
+      <c r="F7" s="295">
+        <f t="shared" si="1"/>
+        <v>86.337199999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" s="207">
+        <f>NCRP147_4.2!E29</f>
+        <v>12.8934</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8" s="295">
+        <f t="shared" si="0"/>
+        <v>257.86799999999999</v>
+      </c>
+      <c r="F8" s="295">
+        <f t="shared" si="1"/>
+        <v>386.80200000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="207">
+        <f>NCRP147_4.2!F29</f>
+        <v>1.5099989999999996</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9" s="295">
+        <f t="shared" si="0"/>
+        <v>37.749974999999992</v>
+      </c>
+      <c r="F9" s="295">
+        <f t="shared" si="1"/>
+        <v>60.399959999999986</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" s="207">
+        <f>NCRP147_4.2!H29</f>
+        <v>6.6950000000000003</v>
+      </c>
+      <c r="C10">
+        <v>80</v>
+      </c>
+      <c r="D10">
+        <v>160</v>
+      </c>
+      <c r="E10" s="295">
+        <f t="shared" si="0"/>
+        <v>535.6</v>
+      </c>
+      <c r="F10" s="295">
+        <f t="shared" si="1"/>
+        <v>1071.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B11" s="207">
+        <f>NCRP147_4.2!I29</f>
+        <v>159.56100000000001</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11" s="295">
+        <f t="shared" si="0"/>
+        <v>3191.2200000000003</v>
+      </c>
+      <c r="F11" s="295">
+        <f t="shared" si="1"/>
+        <v>4786.83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12" s="207">
+        <f>NCRP147_4.2!J29</f>
+        <v>64.174399999999991</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>30</v>
+      </c>
+      <c r="E12" s="295">
+        <f t="shared" si="0"/>
+        <v>1283.4879999999998</v>
+      </c>
+      <c r="F12" s="295">
+        <f t="shared" si="1"/>
+        <v>1925.2319999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15733,11 +16291,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15810,12 +16370,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15850,13 +16410,13 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E6" s="346" t="s">
+      <c r="E6" s="398" t="s">
         <v>248</v>
       </c>
-      <c r="F6" s="346"/>
-      <c r="G6" s="346"/>
-      <c r="H6" s="346"/>
-      <c r="I6" s="346"/>
+      <c r="F6" s="398"/>
+      <c r="G6" s="398"/>
+      <c r="H6" s="398"/>
+      <c r="I6" s="398"/>
     </row>
     <row r="7" spans="1:9" s="291" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="297" t="s">
@@ -16183,11 +16743,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16287,7 +16849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ61"/>
   <sheetViews>
@@ -16301,60 +16863,60 @@
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="B4" s="346" t="s">
+      <c r="B4" s="398" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="346"/>
-      <c r="D4" s="346"/>
-      <c r="E4" s="346"/>
-      <c r="F4" s="346"/>
-      <c r="G4" s="346"/>
-      <c r="H4" s="346"/>
-      <c r="I4" s="346" t="s">
+      <c r="C4" s="398"/>
+      <c r="D4" s="398"/>
+      <c r="E4" s="398"/>
+      <c r="F4" s="398"/>
+      <c r="G4" s="398"/>
+      <c r="H4" s="398"/>
+      <c r="I4" s="398" t="s">
         <v>95</v>
       </c>
-      <c r="J4" s="346"/>
-      <c r="K4" s="346"/>
-      <c r="L4" s="346"/>
-      <c r="M4" s="346"/>
-      <c r="N4" s="346"/>
-      <c r="O4" s="346"/>
-      <c r="P4" s="346" t="s">
+      <c r="J4" s="398"/>
+      <c r="K4" s="398"/>
+      <c r="L4" s="398"/>
+      <c r="M4" s="398"/>
+      <c r="N4" s="398"/>
+      <c r="O4" s="398"/>
+      <c r="P4" s="398" t="s">
         <v>52</v>
       </c>
-      <c r="Q4" s="346"/>
-      <c r="R4" s="346"/>
-      <c r="S4" s="346"/>
-      <c r="T4" s="346"/>
-      <c r="U4" s="346"/>
-      <c r="V4" s="346"/>
-      <c r="W4" s="346" t="s">
+      <c r="Q4" s="398"/>
+      <c r="R4" s="398"/>
+      <c r="S4" s="398"/>
+      <c r="T4" s="398"/>
+      <c r="U4" s="398"/>
+      <c r="V4" s="398"/>
+      <c r="W4" s="398" t="s">
         <v>54</v>
       </c>
-      <c r="X4" s="346"/>
-      <c r="Y4" s="346"/>
-      <c r="Z4" s="346"/>
-      <c r="AA4" s="346"/>
-      <c r="AB4" s="346"/>
-      <c r="AC4" s="346"/>
-      <c r="AD4" s="346" t="s">
+      <c r="X4" s="398"/>
+      <c r="Y4" s="398"/>
+      <c r="Z4" s="398"/>
+      <c r="AA4" s="398"/>
+      <c r="AB4" s="398"/>
+      <c r="AC4" s="398"/>
+      <c r="AD4" s="398" t="s">
         <v>96</v>
       </c>
-      <c r="AE4" s="346"/>
-      <c r="AF4" s="346"/>
-      <c r="AG4" s="346"/>
-      <c r="AH4" s="346"/>
-      <c r="AI4" s="346"/>
-      <c r="AJ4" s="346"/>
-      <c r="AK4" s="346" t="s">
+      <c r="AE4" s="398"/>
+      <c r="AF4" s="398"/>
+      <c r="AG4" s="398"/>
+      <c r="AH4" s="398"/>
+      <c r="AI4" s="398"/>
+      <c r="AJ4" s="398"/>
+      <c r="AK4" s="398" t="s">
         <v>58</v>
       </c>
-      <c r="AL4" s="346"/>
-      <c r="AM4" s="346"/>
-      <c r="AN4" s="346"/>
-      <c r="AO4" s="346"/>
-      <c r="AP4" s="346"/>
-      <c r="AQ4" s="346"/>
+      <c r="AL4" s="398"/>
+      <c r="AM4" s="398"/>
+      <c r="AN4" s="398"/>
+      <c r="AO4" s="398"/>
+      <c r="AP4" s="398"/>
+      <c r="AQ4" s="398"/>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -20295,7 +20857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE13"/>
   <sheetViews>
@@ -20312,52 +20874,52 @@
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3" s="348" t="s">
+      <c r="A3" s="400" t="s">
         <v>249</v>
       </c>
-      <c r="B3" s="346" t="s">
+      <c r="B3" s="398" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="346"/>
-      <c r="D3" s="346"/>
+      <c r="C3" s="398"/>
+      <c r="D3" s="398"/>
       <c r="E3" s="305"/>
       <c r="F3" s="305"/>
-      <c r="G3" s="346" t="s">
+      <c r="G3" s="398" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="346"/>
-      <c r="I3" s="346"/>
+      <c r="H3" s="398"/>
+      <c r="I3" s="398"/>
       <c r="J3" s="305"/>
       <c r="K3" s="305"/>
-      <c r="L3" s="346" t="s">
+      <c r="L3" s="398" t="s">
         <v>52</v>
       </c>
-      <c r="M3" s="346"/>
-      <c r="N3" s="346"/>
+      <c r="M3" s="398"/>
+      <c r="N3" s="398"/>
       <c r="O3" s="305"/>
       <c r="P3" s="305"/>
-      <c r="Q3" s="346" t="s">
+      <c r="Q3" s="398" t="s">
         <v>54</v>
       </c>
-      <c r="R3" s="346"/>
-      <c r="S3" s="346"/>
+      <c r="R3" s="398"/>
+      <c r="S3" s="398"/>
       <c r="T3" s="305"/>
       <c r="U3" s="305"/>
-      <c r="V3" s="346" t="s">
+      <c r="V3" s="398" t="s">
         <v>96</v>
       </c>
-      <c r="W3" s="346"/>
-      <c r="X3" s="346"/>
+      <c r="W3" s="398"/>
+      <c r="X3" s="398"/>
       <c r="Y3" s="305"/>
       <c r="Z3" s="305"/>
-      <c r="AA3" s="346" t="s">
+      <c r="AA3" s="398" t="s">
         <v>58</v>
       </c>
-      <c r="AB3" s="346"/>
-      <c r="AC3" s="346"/>
+      <c r="AB3" s="398"/>
+      <c r="AC3" s="398"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4" s="348"/>
+      <c r="A4" s="400"/>
       <c r="B4" s="296" t="s">
         <v>40</v>
       </c>
@@ -21426,7 +21988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE21"/>
   <sheetViews>
@@ -21445,52 +22007,52 @@
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3" s="348" t="s">
+      <c r="A3" s="400" t="s">
         <v>249</v>
       </c>
-      <c r="B3" s="346" t="s">
+      <c r="B3" s="398" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="346"/>
-      <c r="D3" s="346"/>
+      <c r="C3" s="398"/>
+      <c r="D3" s="398"/>
       <c r="E3" s="305"/>
       <c r="F3" s="305"/>
-      <c r="G3" s="346" t="s">
+      <c r="G3" s="398" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="346"/>
-      <c r="I3" s="346"/>
+      <c r="H3" s="398"/>
+      <c r="I3" s="398"/>
       <c r="J3" s="305"/>
       <c r="K3" s="305"/>
-      <c r="L3" s="346" t="s">
+      <c r="L3" s="398" t="s">
         <v>52</v>
       </c>
-      <c r="M3" s="346"/>
-      <c r="N3" s="346"/>
+      <c r="M3" s="398"/>
+      <c r="N3" s="398"/>
       <c r="O3" s="305"/>
       <c r="P3" s="305"/>
-      <c r="Q3" s="346" t="s">
+      <c r="Q3" s="398" t="s">
         <v>54</v>
       </c>
-      <c r="R3" s="346"/>
-      <c r="S3" s="346"/>
+      <c r="R3" s="398"/>
+      <c r="S3" s="398"/>
       <c r="T3" s="305"/>
       <c r="U3" s="305"/>
-      <c r="V3" s="346" t="s">
+      <c r="V3" s="398" t="s">
         <v>96</v>
       </c>
-      <c r="W3" s="346"/>
-      <c r="X3" s="346"/>
+      <c r="W3" s="398"/>
+      <c r="X3" s="398"/>
       <c r="Y3" s="305"/>
       <c r="Z3" s="305"/>
-      <c r="AA3" s="346" t="s">
+      <c r="AA3" s="398" t="s">
         <v>58</v>
       </c>
-      <c r="AB3" s="346"/>
-      <c r="AC3" s="346"/>
+      <c r="AB3" s="398"/>
+      <c r="AC3" s="398"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4" s="348"/>
+      <c r="A4" s="400"/>
       <c r="B4" s="296" t="s">
         <v>40</v>
       </c>
@@ -23219,11 +23781,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF39"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -23236,46 +23800,46 @@
       <c r="A2" s="298" t="s">
         <v>288</v>
       </c>
-      <c r="B2" s="346" t="s">
+      <c r="B2" s="398" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="346"/>
-      <c r="D2" s="346"/>
+      <c r="C2" s="398"/>
+      <c r="D2" s="398"/>
       <c r="E2" s="323"/>
       <c r="F2" s="323"/>
-      <c r="G2" s="346" t="s">
+      <c r="G2" s="398" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="346"/>
-      <c r="I2" s="346"/>
+      <c r="H2" s="398"/>
+      <c r="I2" s="398"/>
       <c r="J2" s="323"/>
       <c r="K2" s="323"/>
-      <c r="L2" s="346" t="s">
+      <c r="L2" s="398" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="346"/>
-      <c r="N2" s="346"/>
+      <c r="M2" s="398"/>
+      <c r="N2" s="398"/>
       <c r="O2" s="323"/>
       <c r="P2" s="323"/>
-      <c r="Q2" s="346" t="s">
+      <c r="Q2" s="398" t="s">
         <v>54</v>
       </c>
-      <c r="R2" s="346"/>
-      <c r="S2" s="346"/>
+      <c r="R2" s="398"/>
+      <c r="S2" s="398"/>
       <c r="T2" s="323"/>
       <c r="U2" s="323"/>
-      <c r="V2" s="346" t="s">
+      <c r="V2" s="398" t="s">
         <v>96</v>
       </c>
-      <c r="W2" s="346"/>
-      <c r="X2" s="346"/>
+      <c r="W2" s="398"/>
+      <c r="X2" s="398"/>
       <c r="Y2" s="323"/>
       <c r="Z2" s="323"/>
-      <c r="AA2" s="346" t="s">
+      <c r="AA2" s="398" t="s">
         <v>58</v>
       </c>
-      <c r="AB2" s="346"/>
-      <c r="AC2" s="346"/>
+      <c r="AB2" s="398"/>
+      <c r="AC2" s="398"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -23817,46 +24381,46 @@
       <c r="A12" s="298" t="s">
         <v>287</v>
       </c>
-      <c r="B12" s="346" t="s">
+      <c r="B12" s="398" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="346"/>
-      <c r="D12" s="346"/>
+      <c r="C12" s="398"/>
+      <c r="D12" s="398"/>
       <c r="E12" s="323"/>
       <c r="F12" s="323"/>
-      <c r="G12" s="346" t="s">
+      <c r="G12" s="398" t="s">
         <v>95</v>
       </c>
-      <c r="H12" s="346"/>
-      <c r="I12" s="346"/>
+      <c r="H12" s="398"/>
+      <c r="I12" s="398"/>
       <c r="J12" s="323"/>
       <c r="K12" s="323"/>
-      <c r="L12" s="346" t="s">
+      <c r="L12" s="398" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="346"/>
-      <c r="N12" s="346"/>
+      <c r="M12" s="398"/>
+      <c r="N12" s="398"/>
       <c r="O12" s="323"/>
       <c r="P12" s="323"/>
-      <c r="Q12" s="346" t="s">
+      <c r="Q12" s="398" t="s">
         <v>54</v>
       </c>
-      <c r="R12" s="346"/>
-      <c r="S12" s="346"/>
+      <c r="R12" s="398"/>
+      <c r="S12" s="398"/>
       <c r="T12" s="323"/>
       <c r="U12" s="323"/>
-      <c r="V12" s="346" t="s">
+      <c r="V12" s="398" t="s">
         <v>96</v>
       </c>
-      <c r="W12" s="346"/>
-      <c r="X12" s="346"/>
+      <c r="W12" s="398"/>
+      <c r="X12" s="398"/>
       <c r="Y12" s="323"/>
       <c r="Z12" s="323"/>
-      <c r="AA12" s="346" t="s">
+      <c r="AA12" s="398" t="s">
         <v>58</v>
       </c>
-      <c r="AB12" s="346"/>
-      <c r="AC12" s="346"/>
+      <c r="AB12" s="398"/>
+      <c r="AC12" s="398"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -24612,46 +25176,46 @@
       <c r="A24" s="298" t="s">
         <v>286</v>
       </c>
-      <c r="B24" s="346" t="s">
+      <c r="B24" s="398" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="346"/>
-      <c r="D24" s="346"/>
+      <c r="C24" s="398"/>
+      <c r="D24" s="398"/>
       <c r="E24" s="323"/>
       <c r="F24" s="323"/>
-      <c r="G24" s="346" t="s">
+      <c r="G24" s="398" t="s">
         <v>95</v>
       </c>
-      <c r="H24" s="346"/>
-      <c r="I24" s="346"/>
+      <c r="H24" s="398"/>
+      <c r="I24" s="398"/>
       <c r="J24" s="323"/>
       <c r="K24" s="323"/>
-      <c r="L24" s="346" t="s">
+      <c r="L24" s="398" t="s">
         <v>52</v>
       </c>
-      <c r="M24" s="346"/>
-      <c r="N24" s="346"/>
+      <c r="M24" s="398"/>
+      <c r="N24" s="398"/>
       <c r="O24" s="323"/>
       <c r="P24" s="323"/>
-      <c r="Q24" s="346" t="s">
+      <c r="Q24" s="398" t="s">
         <v>54</v>
       </c>
-      <c r="R24" s="346"/>
-      <c r="S24" s="346"/>
+      <c r="R24" s="398"/>
+      <c r="S24" s="398"/>
       <c r="T24" s="323"/>
       <c r="U24" s="323"/>
-      <c r="V24" s="346" t="s">
+      <c r="V24" s="398" t="s">
         <v>96</v>
       </c>
-      <c r="W24" s="346"/>
-      <c r="X24" s="346"/>
+      <c r="W24" s="398"/>
+      <c r="X24" s="398"/>
       <c r="Y24" s="323"/>
       <c r="Z24" s="323"/>
-      <c r="AA24" s="346" t="s">
+      <c r="AA24" s="398" t="s">
         <v>58</v>
       </c>
-      <c r="AB24" s="346"/>
-      <c r="AC24" s="346"/>
+      <c r="AB24" s="398"/>
+      <c r="AC24" s="398"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -25190,46 +25754,46 @@
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="C34" s="346" t="s">
+      <c r="C34" s="398" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="346"/>
-      <c r="E34" s="346"/>
-      <c r="F34" s="346"/>
-      <c r="G34" s="346"/>
-      <c r="H34" s="346" t="s">
+      <c r="D34" s="398"/>
+      <c r="E34" s="398"/>
+      <c r="F34" s="398"/>
+      <c r="G34" s="398"/>
+      <c r="H34" s="398" t="s">
         <v>95</v>
       </c>
-      <c r="I34" s="346"/>
-      <c r="J34" s="346"/>
-      <c r="K34" s="346"/>
-      <c r="L34" s="346"/>
-      <c r="M34" s="346" t="s">
+      <c r="I34" s="398"/>
+      <c r="J34" s="398"/>
+      <c r="K34" s="398"/>
+      <c r="L34" s="398"/>
+      <c r="M34" s="398" t="s">
         <v>52</v>
       </c>
-      <c r="N34" s="346"/>
-      <c r="O34" s="346"/>
-      <c r="P34" s="346"/>
-      <c r="Q34" s="346"/>
-      <c r="R34" s="346" t="s">
+      <c r="N34" s="398"/>
+      <c r="O34" s="398"/>
+      <c r="P34" s="398"/>
+      <c r="Q34" s="398"/>
+      <c r="R34" s="398" t="s">
         <v>54</v>
       </c>
-      <c r="S34" s="346"/>
-      <c r="T34" s="346"/>
-      <c r="U34" s="346"/>
-      <c r="V34" s="346"/>
-      <c r="W34" s="346" t="s">
+      <c r="S34" s="398"/>
+      <c r="T34" s="398"/>
+      <c r="U34" s="398"/>
+      <c r="V34" s="398"/>
+      <c r="W34" s="398" t="s">
         <v>96</v>
       </c>
-      <c r="X34" s="346"/>
-      <c r="Y34" s="346"/>
-      <c r="Z34" s="346"/>
-      <c r="AA34" s="346"/>
-      <c r="AB34" s="346" t="s">
+      <c r="X34" s="398"/>
+      <c r="Y34" s="398"/>
+      <c r="Z34" s="398"/>
+      <c r="AA34" s="398"/>
+      <c r="AB34" s="398" t="s">
         <v>58</v>
       </c>
-      <c r="AC34" s="346"/>
-      <c r="AD34" s="346"/>
+      <c r="AC34" s="398"/>
+      <c r="AD34" s="398"/>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C35" s="296" t="s">
@@ -25608,8 +26172,8 @@
       <c r="A2" s="321" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="333"/>
-      <c r="C2" s="334"/>
+      <c r="B2" s="375"/>
+      <c r="C2" s="376"/>
       <c r="R2" s="314" t="s">
         <v>318</v>
       </c>
@@ -25634,22 +26198,22 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="335" t="s">
+      <c r="B5" s="377" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="335"/>
-      <c r="D5" s="335" t="s">
+      <c r="C5" s="377"/>
+      <c r="D5" s="377" t="s">
         <v>328</v>
       </c>
-      <c r="E5" s="335"/>
-      <c r="F5" s="335"/>
-      <c r="J5" s="336" t="s">
+      <c r="E5" s="377"/>
+      <c r="F5" s="377"/>
+      <c r="J5" s="378" t="s">
         <v>305</v>
       </c>
-      <c r="K5" s="335"/>
-      <c r="L5" s="335"/>
-      <c r="M5" s="335"/>
-      <c r="N5" s="335"/>
+      <c r="K5" s="377"/>
+      <c r="L5" s="377"/>
+      <c r="M5" s="377"/>
+      <c r="N5" s="377"/>
       <c r="R5" s="314" t="s">
         <v>321</v>
       </c>
@@ -25812,13 +26376,13 @@
         <f>NCRP147_4.7!H8</f>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="J9" s="331" t="s">
+      <c r="J9" s="373" t="s">
         <v>306</v>
       </c>
-      <c r="K9" s="332"/>
-      <c r="L9" s="332"/>
-      <c r="M9" s="332"/>
-      <c r="N9" s="332"/>
+      <c r="K9" s="374"/>
+      <c r="L9" s="374"/>
+      <c r="M9" s="374"/>
+      <c r="N9" s="374"/>
       <c r="Q9" s="321" t="s">
         <v>195</v>
       </c>
@@ -25952,13 +26516,13 @@
         <v>309</v>
       </c>
       <c r="B13" s="312"/>
-      <c r="J13" s="331" t="s">
+      <c r="J13" s="373" t="s">
         <v>303</v>
       </c>
-      <c r="K13" s="332"/>
-      <c r="L13" s="332"/>
-      <c r="M13" s="332"/>
-      <c r="N13" s="332"/>
+      <c r="K13" s="374"/>
+      <c r="L13" s="374"/>
+      <c r="M13" s="374"/>
+      <c r="N13" s="374"/>
       <c r="Q13" s="321" t="s">
         <v>322</v>
       </c>
@@ -26050,13 +26614,13 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B17"/>
-      <c r="J17" s="331" t="s">
+      <c r="J17" s="373" t="s">
         <v>304</v>
       </c>
-      <c r="K17" s="332"/>
-      <c r="L17" s="332"/>
-      <c r="M17" s="332"/>
-      <c r="N17" s="332"/>
+      <c r="K17" s="374"/>
+      <c r="L17" s="374"/>
+      <c r="M17" s="374"/>
+      <c r="N17" s="374"/>
       <c r="Q17" s="321" t="s">
         <v>324</v>
       </c>
@@ -27677,2588 +28241,4272 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" style="349" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="349" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="349" customWidth="1"/>
-    <col min="4" max="4" width="11" style="349" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="349" customWidth="1"/>
-    <col min="6" max="11" width="10.6640625" style="349" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" style="349" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="349" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.33203125" style="349"/>
+    <col min="1" max="14" width="12.83203125" style="350" customWidth="1"/>
+    <col min="15" max="16" width="8.6640625" style="350" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" style="352" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="351" customWidth="1"/>
+    <col min="19" max="20" width="8.6640625" style="350" customWidth="1"/>
+    <col min="21" max="16384" width="9.33203125" style="350"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="352" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="351" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q1" s="381" t="s">
+        <v>131</v>
+      </c>
+      <c r="R1" s="381"/>
+      <c r="U1" s="350" t="s">
+        <v>419</v>
+      </c>
+      <c r="V1" s="350" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="352" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="382">
+        <v>43880</v>
+      </c>
+      <c r="C2" s="383"/>
+      <c r="Q2" s="352" t="s">
+        <v>417</v>
+      </c>
+      <c r="R2" s="351" t="s">
+        <v>416</v>
+      </c>
+      <c r="U2" s="350" t="s">
+        <v>187</v>
+      </c>
+      <c r="V2" s="350" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="352" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="351" t="s">
+        <v>102</v>
+      </c>
+      <c r="P3" s="350">
+        <v>2019</v>
+      </c>
+      <c r="Q3" s="352">
+        <f>SUM(62,52,69,81,54,66,82,66,55,65,61,35)</f>
+        <v>748</v>
+      </c>
+      <c r="R3" s="351">
+        <f>SUM(41,41,53,55,47,69,77,57,38,56,50,49)</f>
+        <v>633</v>
+      </c>
+      <c r="U3" s="350">
+        <v>7621.5</v>
+      </c>
+      <c r="V3" s="350">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P4" s="350" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q4" s="352">
+        <f>Q3/52</f>
+        <v>14.384615384615385</v>
+      </c>
+      <c r="R4" s="351">
+        <f>R3/52</f>
+        <v>12.173076923076923</v>
+      </c>
+      <c r="U4" s="350">
+        <v>5987.4</v>
+      </c>
+      <c r="V4" s="350">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="350" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="372">
+        <v>25</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="U5" s="350">
+        <v>5016.1000000000004</v>
+      </c>
+      <c r="V5" s="350">
+        <v>893.58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="350" t="s">
+        <v>414</v>
+      </c>
+      <c r="B6" s="370">
+        <f>U44</f>
+        <v>13489.4</v>
+      </c>
+      <c r="C6" s="350" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="371">
+        <f>IF(B6="","",B6/VLOOKUP(E6,$P$7:$Q$12,2,FALSE))</f>
+        <v>134.89400000000001</v>
+      </c>
+      <c r="E6" s="368" t="s">
+        <v>402</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="P6" s="384" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q6" s="384"/>
+      <c r="U6" s="350">
+        <v>4706.8999999999996</v>
+      </c>
+      <c r="V6" s="350">
+        <v>1113.0999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="350" t="s">
+        <v>412</v>
+      </c>
+      <c r="B7" s="370">
+        <f>V44</f>
+        <v>3694.099999999999</v>
+      </c>
+      <c r="C7" s="350" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="369">
+        <f>IF(B7="","",B7/VLOOKUP(E7,$P$7:$Q$12,2,FALSE))</f>
+        <v>36.940999999999988</v>
+      </c>
+      <c r="E7" s="368" t="s">
+        <v>402</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="P7" s="364"/>
+      <c r="Q7" s="364" t="s">
+        <v>401</v>
+      </c>
+      <c r="U7" s="350">
+        <v>8835</v>
+      </c>
+      <c r="V7" s="350">
+        <v>3051.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="P8" s="364" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q8" s="364">
+        <v>0.1</v>
+      </c>
+      <c r="U8" s="350">
+        <v>13859</v>
+      </c>
+      <c r="V8" s="350">
+        <v>3049.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="P9" s="364" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q9" s="364">
+        <v>1</v>
+      </c>
+      <c r="U9" s="350">
+        <v>6427.5</v>
+      </c>
+      <c r="V9" s="350">
+        <v>1677.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E10" s="381" t="s">
+        <v>409</v>
+      </c>
+      <c r="F10" s="381"/>
+      <c r="G10" s="365" t="s">
+        <v>159</v>
+      </c>
+      <c r="H10" s="367" t="s">
+        <v>407</v>
+      </c>
+      <c r="I10" s="381" t="s">
+        <v>408</v>
+      </c>
+      <c r="J10" s="381"/>
+      <c r="K10" s="365" t="s">
+        <v>159</v>
+      </c>
+      <c r="L10" s="367" t="s">
+        <v>407</v>
+      </c>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="P10" s="364" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q10" s="364">
+        <v>10</v>
+      </c>
+      <c r="U10" s="350">
+        <v>5911.4</v>
+      </c>
+      <c r="V10" s="350">
+        <v>960.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B11" s="350" t="s">
+        <v>405</v>
+      </c>
+      <c r="C11" s="355" t="s">
+        <v>404</v>
+      </c>
+      <c r="D11" s="350" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="350" t="s">
+        <v>403</v>
+      </c>
+      <c r="F11" s="350" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" s="366"/>
+      <c r="H11" s="350" t="s">
+        <v>403</v>
+      </c>
+      <c r="I11" s="350" t="s">
+        <v>403</v>
+      </c>
+      <c r="J11" s="350" t="s">
+        <v>164</v>
+      </c>
+      <c r="K11" s="365"/>
+      <c r="L11" s="350" t="s">
+        <v>403</v>
+      </c>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="P11" s="364" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q11" s="364">
+        <v>100</v>
+      </c>
+      <c r="U11" s="350">
+        <v>13179</v>
+      </c>
+      <c r="V11" s="350">
+        <v>2501.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="350" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="361">
+        <f>21*12*0.0254</f>
+        <v>6.4007999999999994</v>
+      </c>
+      <c r="C12" s="359">
+        <v>0.02</v>
+      </c>
+      <c r="D12" s="359">
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="359">
+        <v>0.4</v>
+      </c>
+      <c r="F12" s="359">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G12" s="358">
+        <f t="shared" ref="G12:G24" si="0">IF(OR(B12="",F12=""),"",(F12/B12)^2)</f>
+        <v>0.11813452702239247</v>
+      </c>
+      <c r="H12" s="358">
+        <f t="shared" ref="H12:H24" si="1">IF(E12="","",E12*G12)</f>
+        <v>4.7253810808956992E-2</v>
+      </c>
+      <c r="I12" s="360">
+        <v>0.6</v>
+      </c>
+      <c r="J12" s="359">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K12" s="358">
+        <f t="shared" ref="K12:K24" si="2">IF(OR(B12="",J12=""),"",(J12/B12)^2)</f>
+        <v>0.12911810908025947</v>
+      </c>
+      <c r="L12" s="358">
+        <f t="shared" ref="L12:L24" si="3">IF(I12="","",I12*K12)</f>
+        <v>7.7470865448155679E-2</v>
+      </c>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="P12" s="364" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q12" s="364">
+        <v>1</v>
+      </c>
+      <c r="U12" s="350">
+        <v>4248.3</v>
+      </c>
+      <c r="V12" s="350">
+        <v>696.59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="350" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" s="361">
+        <f>23.7*12*0.0254</f>
+        <v>7.2237599999999995</v>
+      </c>
+      <c r="C13" s="359">
+        <v>0.02</v>
+      </c>
+      <c r="D13" s="359">
+        <v>0.2</v>
+      </c>
+      <c r="E13" s="359">
+        <v>0.4</v>
+      </c>
+      <c r="F13" s="359">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G13" s="358">
+        <f t="shared" si="0"/>
+        <v>9.2751030669720069E-2</v>
+      </c>
+      <c r="H13" s="358">
+        <f t="shared" si="1"/>
+        <v>3.710041226788803E-2</v>
+      </c>
+      <c r="I13" s="360">
+        <v>0.6</v>
+      </c>
+      <c r="J13" s="359">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K13" s="358">
+        <f t="shared" si="2"/>
+        <v>0.10137457690967336</v>
+      </c>
+      <c r="L13" s="358">
+        <f t="shared" si="3"/>
+        <v>6.0824746145804014E-2</v>
+      </c>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="U13" s="350">
+        <v>3832.8</v>
+      </c>
+      <c r="V13" s="350">
+        <v>560.65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="350" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14" s="361">
+        <f>19*12*0.0254</f>
+        <v>5.7911999999999999</v>
+      </c>
+      <c r="C14" s="359">
+        <v>0.02</v>
+      </c>
+      <c r="D14" s="359">
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="359">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="359">
+        <v>2.6</v>
+      </c>
+      <c r="G14" s="358">
+        <f t="shared" si="0"/>
+        <v>0.20156242220763915</v>
+      </c>
+      <c r="H14" s="358">
+        <f t="shared" si="1"/>
+        <v>2.0156242220763915E-2</v>
+      </c>
+      <c r="I14" s="360">
+        <v>0.1</v>
+      </c>
+      <c r="J14" s="359">
+        <v>1.7</v>
+      </c>
+      <c r="K14" s="358">
+        <f t="shared" si="2"/>
+        <v>8.6170917186401935E-2</v>
+      </c>
+      <c r="L14" s="358">
+        <f t="shared" si="3"/>
+        <v>8.6170917186401946E-3</v>
+      </c>
+      <c r="M14"/>
+      <c r="O14" s="379" t="s">
+        <v>279</v>
+      </c>
+      <c r="P14" s="380"/>
+      <c r="Q14" s="380"/>
+      <c r="R14" s="380"/>
+      <c r="S14" s="380"/>
+      <c r="U14" s="350">
+        <v>3873.1</v>
+      </c>
+      <c r="V14" s="350">
+        <v>843.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="350" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" s="361">
+        <f>14.5*12*0.0254</f>
+        <v>4.4196</v>
+      </c>
+      <c r="C15" s="359">
+        <v>0.02</v>
+      </c>
+      <c r="D15" s="359">
+        <v>0.2</v>
+      </c>
+      <c r="E15" s="359">
+        <v>0.4</v>
+      </c>
+      <c r="F15" s="359">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G15" s="358">
+        <f t="shared" si="0"/>
+        <v>0.24778752160225953</v>
+      </c>
+      <c r="H15" s="358">
+        <f t="shared" si="1"/>
+        <v>9.9115008640903821E-2</v>
+      </c>
+      <c r="I15" s="360">
+        <v>0.6</v>
+      </c>
+      <c r="J15" s="359">
+        <v>2</v>
+      </c>
+      <c r="K15" s="358">
+        <f t="shared" si="2"/>
+        <v>0.20478307570434667</v>
+      </c>
+      <c r="L15" s="358">
+        <f t="shared" si="3"/>
+        <v>0.122869845422608</v>
+      </c>
+      <c r="M15"/>
+      <c r="O15" s="296" t="s">
+        <v>40</v>
+      </c>
+      <c r="P15" s="296" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q15" s="296" t="s">
+        <v>42</v>
+      </c>
+      <c r="R15" s="308" t="s">
+        <v>296</v>
+      </c>
+      <c r="S15" s="308" t="s">
+        <v>297</v>
+      </c>
+      <c r="U15" s="350">
+        <v>5724</v>
+      </c>
+      <c r="V15" s="350">
+        <v>1437.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" s="350" t="s">
+        <v>400</v>
+      </c>
+      <c r="B16" s="361">
+        <f>22.8*12*0.0254</f>
+        <v>6.9494400000000001</v>
+      </c>
+      <c r="C16" s="359">
+        <v>0.02</v>
+      </c>
+      <c r="D16" s="359">
+        <v>0.05</v>
+      </c>
+      <c r="E16" s="359">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="359">
+        <v>3</v>
+      </c>
+      <c r="G16" s="358">
+        <f t="shared" si="0"/>
+        <v>0.18635578976297992</v>
+      </c>
+      <c r="H16" s="358">
+        <f t="shared" si="1"/>
+        <v>1.8635578976297994E-2</v>
+      </c>
+      <c r="I16" s="360">
+        <v>1.2</v>
+      </c>
+      <c r="J16" s="359">
+        <v>2.9</v>
+      </c>
+      <c r="K16" s="358">
+        <f t="shared" si="2"/>
+        <v>0.17413913243407347</v>
+      </c>
+      <c r="L16" s="358">
+        <f t="shared" si="3"/>
+        <v>0.20896695892088815</v>
+      </c>
+      <c r="M16"/>
+      <c r="N16" s="350" t="s">
+        <v>14</v>
+      </c>
+      <c r="O16" s="363">
+        <v>2.661</v>
+      </c>
+      <c r="P16" s="363">
+        <v>19.54</v>
+      </c>
+      <c r="Q16" s="363">
+        <v>0.50939999999999996</v>
+      </c>
+      <c r="R16" s="363">
+        <v>7.3431040962044341</v>
+      </c>
+      <c r="S16" s="363">
+        <v>1.3555134</v>
+      </c>
+      <c r="U16" s="350">
+        <v>10504</v>
+      </c>
+      <c r="V16" s="350">
+        <v>882.74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="350" t="s">
+        <v>399</v>
+      </c>
+      <c r="B17" s="361">
+        <f>19.5*12*0.0254</f>
+        <v>5.9436</v>
+      </c>
+      <c r="C17" s="359">
+        <v>0.02</v>
+      </c>
+      <c r="D17" s="359">
+        <v>1</v>
+      </c>
+      <c r="E17" s="359">
+        <v>0.1</v>
+      </c>
+      <c r="F17" s="359">
+        <v>2.6</v>
+      </c>
+      <c r="G17" s="358">
+        <f t="shared" si="0"/>
+        <v>0.19135840740817286</v>
+      </c>
+      <c r="H17" s="358">
+        <f t="shared" si="1"/>
+        <v>1.9135840740817287E-2</v>
+      </c>
+      <c r="I17" s="360">
+        <v>0.3</v>
+      </c>
+      <c r="J17" s="359">
+        <v>2.6</v>
+      </c>
+      <c r="K17" s="358">
+        <f t="shared" si="2"/>
+        <v>0.19135840740817286</v>
+      </c>
+      <c r="L17" s="358">
+        <f t="shared" si="3"/>
+        <v>5.7407522222451858E-2</v>
+      </c>
+      <c r="N17" s="350" t="s">
+        <v>50</v>
+      </c>
+      <c r="O17" s="363">
+        <v>4.292E-2</v>
+      </c>
+      <c r="P17" s="363">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="Q17" s="363">
+        <v>0.42359999999999998</v>
+      </c>
+      <c r="R17" s="363">
+        <v>3.5834109972041004</v>
+      </c>
+      <c r="S17" s="363">
+        <v>1.8180912E-2</v>
+      </c>
+      <c r="U17" s="350">
+        <v>11838</v>
+      </c>
+      <c r="V17" s="350">
+        <v>3431.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="350" t="s">
+        <v>311</v>
+      </c>
+      <c r="B18" s="361">
+        <f>21.5*12*0.0254</f>
+        <v>6.5531999999999995</v>
+      </c>
+      <c r="C18" s="359">
+        <v>0.02</v>
+      </c>
+      <c r="D18" s="359">
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="359">
+        <v>0.4</v>
+      </c>
+      <c r="F18" s="359">
+        <v>2.4</v>
+      </c>
+      <c r="G18" s="358">
+        <f t="shared" si="0"/>
+        <v>0.13412682314818389</v>
+      </c>
+      <c r="H18" s="358">
+        <f t="shared" si="1"/>
+        <v>5.3650729259273555E-2</v>
+      </c>
+      <c r="I18" s="360">
+        <v>1.2</v>
+      </c>
+      <c r="J18" s="359">
+        <v>2.8</v>
+      </c>
+      <c r="K18" s="358">
+        <f t="shared" si="2"/>
+        <v>0.18256150928502807</v>
+      </c>
+      <c r="L18" s="358">
+        <f t="shared" si="3"/>
+        <v>0.21907381114203367</v>
+      </c>
+      <c r="U18" s="350">
+        <v>6734</v>
+      </c>
+      <c r="V18" s="350">
+        <v>928.06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="350" t="s">
+        <v>301</v>
+      </c>
+      <c r="B19" s="361">
+        <f>22*12*0.0254</f>
+        <v>6.7055999999999996</v>
+      </c>
+      <c r="C19" s="359">
+        <v>0.1</v>
+      </c>
+      <c r="D19" s="359">
+        <v>1</v>
+      </c>
+      <c r="E19" s="359">
+        <v>0.4</v>
+      </c>
+      <c r="F19" s="359">
+        <v>2</v>
+      </c>
+      <c r="G19" s="358">
+        <f t="shared" si="0"/>
+        <v>8.8957937328179526E-2</v>
+      </c>
+      <c r="H19" s="358">
+        <f t="shared" si="1"/>
+        <v>3.5583174931271812E-2</v>
+      </c>
+      <c r="I19" s="360">
+        <v>1.2</v>
+      </c>
+      <c r="J19" s="359">
+        <v>1.7</v>
+      </c>
+      <c r="K19" s="358">
+        <f t="shared" si="2"/>
+        <v>6.4272109719609699E-2</v>
+      </c>
+      <c r="L19" s="358">
+        <f t="shared" si="3"/>
+        <v>7.7126531663531631E-2</v>
+      </c>
+      <c r="U19" s="350">
+        <v>8790.9</v>
+      </c>
+      <c r="V19" s="350">
+        <v>2641.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="350" t="s">
+        <v>302</v>
+      </c>
+      <c r="B20" s="361">
+        <f>22*12*0.0254</f>
+        <v>6.7055999999999996</v>
+      </c>
+      <c r="C20" s="359">
+        <v>0.1</v>
+      </c>
+      <c r="D20" s="359">
+        <v>1</v>
+      </c>
+      <c r="E20" s="359">
+        <v>0.4</v>
+      </c>
+      <c r="F20" s="359">
+        <v>2</v>
+      </c>
+      <c r="G20" s="358">
+        <f t="shared" si="0"/>
+        <v>8.8957937328179526E-2</v>
+      </c>
+      <c r="H20" s="358">
+        <f t="shared" si="1"/>
+        <v>3.5583174931271812E-2</v>
+      </c>
+      <c r="I20" s="360">
+        <v>1.2</v>
+      </c>
+      <c r="J20" s="359">
+        <v>1.7</v>
+      </c>
+      <c r="K20" s="358">
+        <f t="shared" si="2"/>
+        <v>6.4272109719609699E-2</v>
+      </c>
+      <c r="L20" s="358">
+        <f t="shared" si="3"/>
+        <v>7.7126531663531631E-2</v>
+      </c>
+      <c r="U20" s="350">
+        <v>9545</v>
+      </c>
+      <c r="V20" s="350">
+        <v>2048.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" s="350" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21" s="361">
+        <v>3.3</v>
+      </c>
+      <c r="C21" s="359">
+        <v>0.02</v>
+      </c>
+      <c r="D21" s="359">
+        <v>1</v>
+      </c>
+      <c r="E21" s="359">
+        <v>3</v>
+      </c>
+      <c r="F21" s="359">
+        <v>0.8</v>
+      </c>
+      <c r="G21" s="358">
+        <f t="shared" si="0"/>
+        <v>5.8769513314967881E-2</v>
+      </c>
+      <c r="H21" s="358">
+        <f t="shared" si="1"/>
+        <v>0.17630853994490364</v>
+      </c>
+      <c r="I21" s="360">
+        <v>9</v>
+      </c>
+      <c r="J21" s="359">
+        <v>1</v>
+      </c>
+      <c r="K21" s="358">
+        <f t="shared" si="2"/>
+        <v>9.1827364554637289E-2</v>
+      </c>
+      <c r="L21" s="358">
+        <f t="shared" si="3"/>
+        <v>0.82644628099173556</v>
+      </c>
+      <c r="U21" s="350">
+        <v>16093</v>
+      </c>
+      <c r="V21" s="350">
+        <v>5085.3999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="350" t="s">
+        <v>197</v>
+      </c>
+      <c r="B22" s="361">
+        <v>3.3</v>
+      </c>
+      <c r="C22" s="359">
+        <v>0.02</v>
+      </c>
+      <c r="D22" s="359">
+        <v>1</v>
+      </c>
+      <c r="E22" s="359">
+        <v>3</v>
+      </c>
+      <c r="F22" s="359">
+        <v>0.8</v>
+      </c>
+      <c r="G22" s="358">
+        <f t="shared" si="0"/>
+        <v>5.8769513314967881E-2</v>
+      </c>
+      <c r="H22" s="358">
+        <f t="shared" si="1"/>
+        <v>0.17630853994490364</v>
+      </c>
+      <c r="I22" s="360">
+        <v>9</v>
+      </c>
+      <c r="J22" s="359">
+        <v>1</v>
+      </c>
+      <c r="K22" s="358">
+        <f t="shared" si="2"/>
+        <v>9.1827364554637289E-2</v>
+      </c>
+      <c r="L22" s="358">
+        <f t="shared" si="3"/>
+        <v>0.82644628099173556</v>
+      </c>
+      <c r="Q22" s="362"/>
+      <c r="R22" s="350"/>
+      <c r="U22" s="350">
+        <v>6166.3</v>
+      </c>
+      <c r="V22" s="350">
+        <v>1244.5999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" s="355" t="s">
+        <v>398</v>
+      </c>
+      <c r="B23" s="361">
+        <f>27.8*12*0.0254</f>
+        <v>8.4734400000000001</v>
+      </c>
+      <c r="C23" s="359">
+        <v>0.02</v>
+      </c>
+      <c r="D23" s="359">
+        <v>1</v>
+      </c>
+      <c r="E23" s="359">
+        <v>0.1</v>
+      </c>
+      <c r="F23" s="359">
+        <v>2.6</v>
+      </c>
+      <c r="G23" s="358">
+        <f t="shared" si="0"/>
+        <v>9.4151485969874382E-2</v>
+      </c>
+      <c r="H23" s="358">
+        <f t="shared" si="1"/>
+        <v>9.4151485969874386E-3</v>
+      </c>
+      <c r="I23" s="360">
+        <v>0.1</v>
+      </c>
+      <c r="J23" s="359">
+        <v>1.7</v>
+      </c>
+      <c r="K23" s="358">
+        <f t="shared" si="2"/>
+        <v>4.0251153025582388E-2</v>
+      </c>
+      <c r="L23" s="358">
+        <f t="shared" si="3"/>
+        <v>4.025115302558239E-3</v>
+      </c>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="U23" s="350">
+        <v>1502.5</v>
+      </c>
+      <c r="V23" s="350">
+        <v>177.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" s="355" t="s">
+        <v>397</v>
+      </c>
+      <c r="B24" s="361">
+        <f>19*12*0.0254</f>
+        <v>5.7911999999999999</v>
+      </c>
+      <c r="C24" s="359">
+        <v>0.02</v>
+      </c>
+      <c r="D24" s="359">
+        <v>1</v>
+      </c>
+      <c r="E24" s="359">
+        <v>0.4</v>
+      </c>
+      <c r="F24" s="359">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G24" s="358">
+        <f t="shared" si="0"/>
+        <v>0.14431392359245168</v>
+      </c>
+      <c r="H24" s="358">
+        <f t="shared" si="1"/>
+        <v>5.7725569436980678E-2</v>
+      </c>
+      <c r="I24" s="360">
+        <v>0.6</v>
+      </c>
+      <c r="J24" s="359">
+        <v>2</v>
+      </c>
+      <c r="K24" s="358">
+        <f t="shared" si="2"/>
+        <v>0.11926770544830718</v>
+      </c>
+      <c r="L24" s="358">
+        <f t="shared" si="3"/>
+        <v>7.1560623268984311E-2</v>
+      </c>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="U24" s="350">
+        <v>5005.2</v>
+      </c>
+      <c r="V24" s="350">
+        <v>1536.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="U25" s="350">
+        <v>13243</v>
+      </c>
+      <c r="V25" s="350">
+        <v>3494.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B26" s="355" t="s">
+        <v>396</v>
+      </c>
+      <c r="C26" s="355" t="s">
+        <v>395</v>
+      </c>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="U26" s="350">
+        <v>12704</v>
+      </c>
+      <c r="V26" s="350">
+        <v>2879.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B27" s="355" t="s">
+        <v>394</v>
+      </c>
+      <c r="C27" s="355" t="s">
+        <v>394</v>
+      </c>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="U27" s="350">
+        <v>8214.7000000000007</v>
+      </c>
+      <c r="V27" s="350">
+        <v>958.97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B28" s="350" t="s">
+        <v>393</v>
+      </c>
+      <c r="C28" s="350" t="s">
+        <v>393</v>
+      </c>
+      <c r="D28" s="357" t="s">
+        <v>168</v>
+      </c>
+      <c r="E28" s="356" t="s">
+        <v>167</v>
+      </c>
+      <c r="F28" s="355" t="s">
+        <v>392</v>
+      </c>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="U28" s="350">
+        <v>5234.7</v>
+      </c>
+      <c r="V28" s="350">
+        <v>1051.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" s="350" t="str">
+        <f t="shared" ref="A29:A41" si="4">IF(A12="","",A12)</f>
+        <v>Door A</v>
+      </c>
+      <c r="B29" s="353">
+        <f t="shared" ref="B29:B41" si="5">IF(OR(Nfl="",$D$6=""),"",Nfl*$D$6*H12)</f>
+        <v>159.35638888158613</v>
+      </c>
+      <c r="C29" s="353">
+        <f t="shared" ref="C29:C41" si="6">IF(OR(Nfl="",$D$7=""),"",Nfl*$D$7*L12)</f>
+        <v>71.546281013007956</v>
+      </c>
+      <c r="D29" s="354">
+        <f t="shared" ref="D29:D41" si="7">(C12*1000)/((B29+C29)*D12)</f>
+        <v>0.43308290911339181</v>
+      </c>
+      <c r="E29" s="353">
+        <f t="shared" ref="E29:E41" si="8">IF(D29&gt;1,0,LN((D29^(-$Q$16)+($P$16/$O$16))/(1+($P$16/$O$16)))/($O$16*$Q$16))</f>
+        <v>4.5564899460986304E-2</v>
+      </c>
+      <c r="F29" s="353">
+        <f t="shared" ref="F29:F41" si="9">IF(D29&gt;1,0,LN((D29^(-$Q$17)+($P$17/$O$17))/(1+($P$17/$O$17)))/($O$17*$Q$17))</f>
+        <v>4.8821962728287431</v>
+      </c>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="U29" s="350">
+        <v>11894</v>
+      </c>
+      <c r="V29" s="350">
+        <v>3993.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A30" s="350" t="str">
+        <f t="shared" si="4"/>
+        <v>Wall A</v>
+      </c>
+      <c r="B30" s="353">
+        <f t="shared" si="5"/>
+        <v>125.11557531161222</v>
+      </c>
+      <c r="C30" s="353">
+        <f t="shared" si="6"/>
+        <v>56.173173684303634</v>
+      </c>
+      <c r="D30" s="354">
+        <f t="shared" si="7"/>
+        <v>0.55160621138299559</v>
+      </c>
+      <c r="E30" s="353">
+        <f t="shared" si="8"/>
+        <v>3.065490532917943E-2</v>
+      </c>
+      <c r="F30" s="353">
+        <f t="shared" si="9"/>
+        <v>3.3361440909229043</v>
+      </c>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="U30" s="350">
+        <v>8587.4</v>
+      </c>
+      <c r="V30" s="350">
+        <v>2898.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A31" s="350" t="str">
+        <f t="shared" si="4"/>
+        <v>Wall B</v>
+      </c>
+      <c r="B31" s="353">
+        <f t="shared" si="5"/>
+        <v>67.973903453193202</v>
+      </c>
+      <c r="C31" s="353">
+        <f t="shared" si="6"/>
+        <v>7.958099629457184</v>
+      </c>
+      <c r="D31" s="354">
+        <f t="shared" si="7"/>
+        <v>1.3169677598410265</v>
+      </c>
+      <c r="E31" s="353">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="353">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="U31" s="350">
+        <v>4621.7</v>
+      </c>
+      <c r="V31" s="350">
+        <v>1462.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A32" s="350" t="str">
+        <f t="shared" si="4"/>
+        <v>Wall C</v>
+      </c>
+      <c r="B32" s="353">
+        <f t="shared" si="5"/>
+        <v>334.25049939015202</v>
+      </c>
+      <c r="C32" s="353">
+        <f t="shared" si="6"/>
+        <v>113.47337399391402</v>
+      </c>
+      <c r="D32" s="354">
+        <f t="shared" si="7"/>
+        <v>0.22335194959375795</v>
+      </c>
+      <c r="E32" s="353">
+        <f t="shared" si="8"/>
+        <v>9.4950156160457877E-2</v>
+      </c>
+      <c r="F32" s="353">
+        <f t="shared" si="9"/>
+        <v>9.7303769428424349</v>
+      </c>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="U32" s="350">
+        <v>20430</v>
+      </c>
+      <c r="V32" s="350">
+        <v>8160.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A33" s="350" t="str">
+        <f t="shared" si="4"/>
+        <v>Wall D1</v>
+      </c>
+      <c r="B33" s="353">
+        <f t="shared" si="5"/>
+        <v>62.845694760718544</v>
+      </c>
+      <c r="C33" s="353">
+        <f t="shared" si="6"/>
+        <v>192.98621073741319</v>
+      </c>
+      <c r="D33" s="354">
+        <f t="shared" si="7"/>
+        <v>1.5635266415311169</v>
+      </c>
+      <c r="E33" s="353">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="353">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="U33" s="350">
+        <v>6328</v>
+      </c>
+      <c r="V33" s="350">
+        <v>1524.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A34" s="350" t="str">
+        <f t="shared" si="4"/>
+        <v>Wall D2</v>
+      </c>
+      <c r="B34" s="353">
+        <f t="shared" si="5"/>
+        <v>64.532752522295183</v>
+      </c>
+      <c r="C34" s="353">
+        <f t="shared" si="6"/>
+        <v>53.017281960489839</v>
+      </c>
+      <c r="D34" s="354">
+        <f t="shared" si="7"/>
+        <v>0.17014031589185932</v>
+      </c>
+      <c r="E34" s="353">
+        <f t="shared" si="8"/>
+        <v>0.11934914396792326</v>
+      </c>
+      <c r="F34" s="353">
+        <f t="shared" si="9"/>
+        <v>12.00094812462822</v>
+      </c>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="U34" s="350">
+        <v>9629.7999999999993</v>
+      </c>
+      <c r="V34" s="350">
+        <v>1848.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A35" s="350" t="str">
+        <f t="shared" si="4"/>
+        <v>Door D</v>
+      </c>
+      <c r="B35" s="353">
+        <f t="shared" si="5"/>
+        <v>180.92903681751119</v>
+      </c>
+      <c r="C35" s="353">
+        <f t="shared" si="6"/>
+        <v>202.32014143494658</v>
+      </c>
+      <c r="D35" s="354">
+        <f t="shared" si="7"/>
+        <v>0.26092684779124814</v>
+      </c>
+      <c r="E35" s="353">
+        <f t="shared" si="8"/>
+        <v>8.2134451329023028E-2</v>
+      </c>
+      <c r="F35" s="353">
+        <f t="shared" si="9"/>
+        <v>8.5074778852485693</v>
+      </c>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="U35" s="350">
+        <v>22434</v>
+      </c>
+      <c r="V35" s="350">
+        <v>6217.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A36" s="350" t="str">
+        <f t="shared" si="4"/>
+        <v>Control Wall</v>
+      </c>
+      <c r="B36" s="353">
+        <f t="shared" si="5"/>
+        <v>119.99891997947451</v>
+      </c>
+      <c r="C36" s="353">
+        <f t="shared" si="6"/>
+        <v>71.228280154563024</v>
+      </c>
+      <c r="D36" s="354">
+        <f t="shared" si="7"/>
+        <v>0.52293815905847418</v>
+      </c>
+      <c r="E36" s="353">
+        <f t="shared" si="8"/>
+        <v>3.3813465537808313E-2</v>
+      </c>
+      <c r="F36" s="353">
+        <f t="shared" si="9"/>
+        <v>3.6674068262718866</v>
+      </c>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="U36" s="350">
+        <v>2592</v>
+      </c>
+      <c r="V36" s="350">
+        <v>454.73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A37" s="350" t="str">
+        <f t="shared" si="4"/>
+        <v>Control Window</v>
+      </c>
+      <c r="B37" s="353">
+        <f t="shared" si="5"/>
+        <v>119.99891997947451</v>
+      </c>
+      <c r="C37" s="353">
+        <f t="shared" si="6"/>
+        <v>71.228280154563024</v>
+      </c>
+      <c r="D37" s="354">
+        <f t="shared" si="7"/>
+        <v>0.52293815905847418</v>
+      </c>
+      <c r="E37" s="353">
+        <f t="shared" si="8"/>
+        <v>3.3813465537808313E-2</v>
+      </c>
+      <c r="F37" s="353">
+        <f t="shared" si="9"/>
+        <v>3.6674068262718866</v>
+      </c>
+      <c r="L37" s="351"/>
+      <c r="U37" s="350">
+        <v>5027.5</v>
+      </c>
+      <c r="V37" s="350">
+        <v>1371.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A38" s="350" t="str">
+        <f t="shared" si="4"/>
+        <v>Floor</v>
+      </c>
+      <c r="B38" s="353">
+        <f t="shared" si="5"/>
+        <v>594.57410468319586</v>
+      </c>
+      <c r="C38" s="353">
+        <f t="shared" si="6"/>
+        <v>763.24380165289233</v>
+      </c>
+      <c r="D38" s="354">
+        <f t="shared" si="7"/>
+        <v>1.4729515575448292E-2</v>
+      </c>
+      <c r="E38" s="353">
+        <f t="shared" si="8"/>
+        <v>0.47648819711003865</v>
+      </c>
+      <c r="F38" s="353">
+        <f t="shared" si="9"/>
+        <v>40.39552555100456</v>
+      </c>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="U38" s="350">
+        <v>7905.4</v>
+      </c>
+      <c r="V38" s="350">
+        <v>2938.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A39" s="350" t="str">
+        <f t="shared" si="4"/>
+        <v>Ceiling</v>
+      </c>
+      <c r="B39" s="353">
+        <f t="shared" si="5"/>
+        <v>594.57410468319586</v>
+      </c>
+      <c r="C39" s="353">
+        <f t="shared" si="6"/>
+        <v>763.24380165289233</v>
+      </c>
+      <c r="D39" s="354">
+        <f t="shared" si="7"/>
+        <v>1.4729515575448292E-2</v>
+      </c>
+      <c r="E39" s="353">
+        <f t="shared" si="8"/>
+        <v>0.47648819711003865</v>
+      </c>
+      <c r="F39" s="353">
+        <f t="shared" si="9"/>
+        <v>40.39552555100456</v>
+      </c>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="U39" s="350">
+        <v>7703.7</v>
+      </c>
+      <c r="V39" s="350">
+        <v>2274.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A40" s="350" t="str">
+        <f t="shared" si="4"/>
+        <v>Wall B Offices</v>
+      </c>
+      <c r="B40" s="353">
+        <f t="shared" si="5"/>
+        <v>31.75117637105059</v>
+      </c>
+      <c r="C40" s="353">
+        <f t="shared" si="6"/>
+        <v>3.7172946097950965</v>
+      </c>
+      <c r="D40" s="354">
+        <f t="shared" si="7"/>
+        <v>0.56388108782024338</v>
+      </c>
+      <c r="E40" s="353">
+        <f t="shared" si="8"/>
+        <v>2.9373341543286587E-2</v>
+      </c>
+      <c r="F40" s="353">
+        <f t="shared" si="9"/>
+        <v>3.2011341795083856</v>
+      </c>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A41" s="350" t="str">
+        <f t="shared" si="4"/>
+        <v>Wall C Offices</v>
+      </c>
+      <c r="B41" s="353">
+        <f t="shared" si="5"/>
+        <v>194.6708240908018</v>
+      </c>
+      <c r="C41" s="353">
+        <f t="shared" si="6"/>
+        <v>66.088024604488723</v>
+      </c>
+      <c r="D41" s="354">
+        <f t="shared" si="7"/>
+        <v>7.6699218837904065E-2</v>
+      </c>
+      <c r="E41" s="353">
+        <f t="shared" si="8"/>
+        <v>0.20677236411755776</v>
+      </c>
+      <c r="F41" s="353">
+        <f t="shared" si="9"/>
+        <v>19.645493173408106</v>
+      </c>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="U41" s="350">
+        <f>AVERAGE(U3:U39)</f>
+        <v>8431.1027027027048</v>
+      </c>
+      <c r="V41" s="350">
+        <f>AVERAGE(V3:V39)</f>
+        <v>2185.9254054054054</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="U42" s="350">
+        <f>STDEV(U3:U39)</f>
+        <v>4642.1016557090679</v>
+      </c>
+      <c r="V42" s="350">
+        <f>STDEV(V3:V39)</f>
+        <v>1652.6720630502098</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="U43" s="350">
+        <f>MEDIAN(U3:U39)</f>
+        <v>7621.5</v>
+      </c>
+      <c r="V43" s="350">
+        <f>MEDIAN(V3:V39)</f>
+        <v>1677.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="U44" s="350">
+        <f>PERCENTILE(U3:U39,0.9)</f>
+        <v>13489.4</v>
+      </c>
+      <c r="V44" s="350">
+        <f>PERCENTILE(V3:V39,0.9)</f>
+        <v>3694.099999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+    </row>
+    <row r="49" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+    </row>
+    <row r="50" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+    </row>
+    <row r="51" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+    </row>
+    <row r="52" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="L52" s="351"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="O14:S14"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="P6:Q6"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E7">
+      <formula1>$P$8:$P$12</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="87" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" style="331" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="331" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="331" customWidth="1"/>
+    <col min="4" max="4" width="11" style="331" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="331" customWidth="1"/>
+    <col min="6" max="11" width="10.6640625" style="331" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" style="331" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="331" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.33203125" style="331"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="349" t="s">
+      <c r="A1" s="331" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="350">
+      <c r="B1" s="332">
         <v>3.3170000000000003E-5</v>
       </c>
-      <c r="C1" s="349" t="s">
+      <c r="C1" s="331" t="s">
         <v>334</v>
       </c>
-      <c r="H1" s="351"/>
-      <c r="L1" s="351" t="s">
+      <c r="H1" s="333"/>
+      <c r="L1" s="333" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="349" t="s">
+      <c r="A2" s="331" t="s">
         <v>336</v>
       </c>
-      <c r="B2" s="349">
+      <c r="B2" s="331">
         <v>20</v>
       </c>
-      <c r="C2" s="349" t="str">
-        <f>[1]CT!B19</f>
-        <v>Patients per day</v>
-      </c>
-      <c r="L2" s="349" t="s">
+      <c r="C2" s="331" t="s">
+        <v>132</v>
+      </c>
+      <c r="L2" s="331" t="s">
         <v>337</v>
       </c>
-      <c r="M2" s="349" t="s">
+      <c r="M2" s="331" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="349" t="s">
+      <c r="A3" s="331" t="s">
         <v>339</v>
       </c>
-      <c r="B3" s="349">
+      <c r="B3" s="331">
         <f>NDAY*5</f>
         <v>100</v>
       </c>
-      <c r="C3" s="349" t="s">
+      <c r="C3" s="331" t="s">
         <v>340</v>
       </c>
-      <c r="L3" s="352">
+      <c r="L3" s="334">
         <v>30</v>
       </c>
-      <c r="M3" s="352">
+      <c r="M3" s="334">
         <f>L3*37</f>
         <v>1110</v>
       </c>
-      <c r="N3" s="349" t="s">
+      <c r="N3" s="331" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L4" s="355">
+      <c r="L4" s="337">
         <f>L3/(2^1)</f>
         <v>15</v>
       </c>
-      <c r="M4" s="355">
+      <c r="M4" s="337">
         <f>M3/(2^1)</f>
         <v>555</v>
       </c>
-      <c r="N4" s="349" t="s">
+      <c r="N4" s="331" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="353" t="s">
+      <c r="A5" s="335" t="s">
         <v>342</v>
       </c>
-      <c r="L5" s="352"/>
-      <c r="M5" s="352">
+      <c r="L5" s="334"/>
+      <c r="M5" s="334">
         <v>60</v>
       </c>
-      <c r="N5" s="349" t="s">
+      <c r="N5" s="331" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="354" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="363" t="s">
+    <row r="6" spans="1:14" s="336" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B6" s="345" t="s">
         <v>343</v>
       </c>
-      <c r="C6" s="363" t="s">
+      <c r="C6" s="345" t="s">
         <v>344</v>
       </c>
-      <c r="D6" s="363" t="s">
+      <c r="D6" s="345" t="s">
         <v>345</v>
       </c>
-      <c r="E6" s="363" t="s">
+      <c r="E6" s="345" t="s">
         <v>346</v>
       </c>
-      <c r="L6" s="352">
+      <c r="L6" s="334">
         <f>L4*1.443*109.8*(1-EXP(-LN(2)*M5/109.8))/M5</f>
         <v>12.488993056193506</v>
       </c>
-      <c r="M6" s="352">
+      <c r="M6" s="334">
         <f>M4*1.443*109.8*(1-EXP(-LN(2)*M5/109.8))/M5</f>
         <v>462.09274307915973</v>
       </c>
-      <c r="N6" s="349" t="s">
+      <c r="N6" s="331" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="359" t="s">
+      <c r="A7" s="341" t="s">
         <v>348</v>
       </c>
-      <c r="B7" s="361">
+      <c r="B7" s="343">
         <f>M3</f>
         <v>1110</v>
       </c>
-      <c r="C7" s="360">
+      <c r="C7" s="342">
         <v>0.05</v>
       </c>
-      <c r="D7" s="361">
-        <f>B7*C7*40*NWEEK</f>
+      <c r="D7" s="343">
+        <f t="shared" ref="D7:D14" si="0">B7*C7*40*NWEEK</f>
         <v>222000</v>
       </c>
-      <c r="E7" s="362">
+      <c r="E7" s="344">
         <f>D7*$B$1</f>
         <v>7.3637400000000008</v>
       </c>
-      <c r="L7" s="352">
+      <c r="L7" s="334">
         <f>L4*EXP(-LN(2)*M5/109.8)</f>
         <v>10.270556916490195</v>
       </c>
-      <c r="M7" s="352">
+      <c r="M7" s="334">
         <f>M4*EXP(-LN(2)*M5/109.8)</f>
         <v>380.01060591013726</v>
       </c>
-      <c r="N7" s="349" t="s">
+      <c r="N7" s="331" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="359" t="s">
+      <c r="A8" s="341" t="s">
         <v>350</v>
       </c>
-      <c r="B8" s="361">
+      <c r="B8" s="343">
         <f>M4</f>
         <v>555</v>
       </c>
-      <c r="C8" s="360">
+      <c r="C8" s="342">
         <v>0.2</v>
       </c>
-      <c r="D8" s="361">
-        <f>B8*C8*40*NWEEK</f>
+      <c r="D8" s="343">
+        <f t="shared" si="0"/>
         <v>444000</v>
       </c>
-      <c r="E8" s="362">
-        <f t="shared" ref="E8:E14" si="0">D8*$B$1</f>
+      <c r="E8" s="344">
+        <f t="shared" ref="E8:E14" si="1">D8*$B$1</f>
         <v>14.727480000000002</v>
       </c>
-      <c r="L8" s="352">
+      <c r="L8" s="334">
         <f>L7*0.85</f>
         <v>8.7299733790166663</v>
       </c>
-      <c r="M8" s="352">
+      <c r="M8" s="334">
         <f>M7*0.85</f>
         <v>323.00901502361666</v>
       </c>
-      <c r="N8" s="349" t="s">
+      <c r="N8" s="331" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="359" t="s">
+      <c r="A9" s="341" t="s">
         <v>352</v>
       </c>
-      <c r="B9" s="361">
+      <c r="B9" s="343">
         <f>M4</f>
         <v>555</v>
       </c>
-      <c r="C9" s="360">
+      <c r="C9" s="342">
         <v>0.2</v>
       </c>
-      <c r="D9" s="361">
-        <f>B9*C9*40*NWEEK</f>
+      <c r="D9" s="343">
+        <f t="shared" si="0"/>
         <v>444000</v>
       </c>
-      <c r="E9" s="362">
-        <f t="shared" si="0"/>
+      <c r="E9" s="344">
+        <f t="shared" si="1"/>
         <v>14.727480000000002</v>
       </c>
-      <c r="L9" s="352"/>
-      <c r="M9" s="352">
+      <c r="L9" s="334"/>
+      <c r="M9" s="334">
         <v>15</v>
       </c>
-      <c r="N9" s="349" t="s">
+      <c r="N9" s="331" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="359" t="s">
+      <c r="A10" s="341" t="s">
         <v>354</v>
       </c>
-      <c r="B10" s="361">
+      <c r="B10" s="343">
         <f>M8</f>
         <v>323.00901502361666</v>
       </c>
-      <c r="C10" s="360">
+      <c r="C10" s="342">
         <v>0.4</v>
       </c>
-      <c r="D10" s="361">
-        <f>B10*C10*40*NWEEK</f>
+      <c r="D10" s="343">
+        <f t="shared" si="0"/>
         <v>516814.42403778672</v>
       </c>
-      <c r="E10" s="362">
-        <f t="shared" si="0"/>
+      <c r="E10" s="344">
+        <f t="shared" si="1"/>
         <v>17.142734445333389</v>
       </c>
-      <c r="L10" s="352">
+      <c r="L10" s="334">
         <f>L8*1.443*109.8*(1-EXP(-LN(2)*M9/109.8))/M9</f>
         <v>8.3311470022494643</v>
       </c>
-      <c r="M10" s="352">
+      <c r="M10" s="334">
         <f>M8*1.443*109.8*(1-EXP(-LN(2)*M9/109.8))/M9</f>
         <v>308.25243908323023</v>
       </c>
-      <c r="N10" s="349" t="s">
+      <c r="N10" s="331" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="359" t="s">
+      <c r="A11" s="341" t="s">
         <v>356</v>
       </c>
-      <c r="B11" s="361">
+      <c r="B11" s="343">
         <f>M8</f>
         <v>323.00901502361666</v>
       </c>
-      <c r="C11" s="360">
+      <c r="C11" s="342">
         <v>0.4</v>
       </c>
-      <c r="D11" s="361">
-        <f>B11*C11*40*NWEEK</f>
+      <c r="D11" s="343">
+        <f t="shared" si="0"/>
         <v>516814.42403778672</v>
       </c>
-      <c r="E11" s="362">
-        <f t="shared" si="0"/>
+      <c r="E11" s="344">
+        <f t="shared" si="1"/>
         <v>17.142734445333389</v>
       </c>
-      <c r="L11" s="352">
+      <c r="L11" s="334">
         <f>L8*EXP(-LN(2)*M9/109.8)</f>
         <v>7.9412451486820315</v>
       </c>
-      <c r="M11" s="352">
+      <c r="M11" s="334">
         <f>M8*EXP(-LN(2)*M9/109.8)</f>
         <v>293.82607050123517</v>
       </c>
-      <c r="N11" s="349" t="s">
+      <c r="N11" s="331" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="359" t="s">
+      <c r="A12" s="341" t="s">
         <v>358</v>
       </c>
-      <c r="B12" s="361">
+      <c r="B12" s="343">
         <f>M4</f>
         <v>555</v>
       </c>
-      <c r="C12" s="360">
+      <c r="C12" s="342">
         <v>0.4</v>
       </c>
-      <c r="D12" s="361">
-        <f>B12*C12*40*NWEEK</f>
+      <c r="D12" s="343">
+        <f t="shared" si="0"/>
         <v>888000</v>
       </c>
-      <c r="E12" s="362">
-        <f t="shared" si="0"/>
+      <c r="E12" s="344">
+        <f t="shared" si="1"/>
         <v>29.454960000000003</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="359" t="s">
+      <c r="A13" s="341" t="s">
         <v>360</v>
       </c>
-      <c r="B13" s="361">
+      <c r="B13" s="343">
         <f>M7</f>
         <v>380.01060591013726</v>
       </c>
-      <c r="C13" s="360">
+      <c r="C13" s="342">
         <v>0.3</v>
       </c>
-      <c r="D13" s="361">
-        <f>B13*C13*40*NWEEK</f>
+      <c r="D13" s="343">
+        <f t="shared" si="0"/>
         <v>456012.72709216474</v>
       </c>
-      <c r="E13" s="362">
-        <f t="shared" si="0"/>
+      <c r="E13" s="344">
+        <f t="shared" si="1"/>
         <v>15.125942157647106</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="359" t="s">
+      <c r="A14" s="341" t="s">
         <v>362</v>
       </c>
-      <c r="B14" s="361">
+      <c r="B14" s="343">
         <f>M6</f>
         <v>462.09274307915973</v>
       </c>
-      <c r="C14" s="360">
+      <c r="C14" s="342">
         <v>0.75</v>
       </c>
-      <c r="D14" s="361">
-        <f>B14*C14*40*NWEEK</f>
+      <c r="D14" s="343">
+        <f t="shared" si="0"/>
         <v>1386278.2292374792</v>
       </c>
-      <c r="E14" s="362">
-        <f t="shared" si="0"/>
+      <c r="E14" s="344">
+        <f t="shared" si="1"/>
         <v>45.982848863807185</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="M15" s="349">
+      <c r="M15" s="331">
         <v>2.2650000000000001</v>
       </c>
-      <c r="N15" s="349" t="s">
+      <c r="N15" s="331" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="351" t="s">
+      <c r="A16" s="333" t="s">
         <v>365</v>
       </c>
-      <c r="M16" s="349">
+      <c r="M16" s="331">
         <v>11.34</v>
       </c>
-      <c r="N16" s="349" t="s">
+      <c r="N16" s="331" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B17" s="360" t="s">
+      <c r="B17" s="342" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="360" t="s">
+      <c r="C17" s="342" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="360" t="s">
+      <c r="D17" s="342" t="s">
         <v>162</v>
       </c>
-      <c r="E17" s="360" t="s">
+      <c r="E17" s="342" t="s">
         <v>366</v>
       </c>
-      <c r="F17" s="360" t="s">
+      <c r="F17" s="342" t="s">
         <v>367</v>
       </c>
-      <c r="M17" s="349">
+      <c r="M17" s="331">
         <f>M15*M16</f>
         <v>25.685100000000002</v>
       </c>
-      <c r="N17" s="349" t="s">
+      <c r="N17" s="331" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="360">
+      <c r="A18" s="342">
         <v>1</v>
       </c>
-      <c r="B18" s="360" t="s">
+      <c r="B18" s="342" t="s">
         <v>369</v>
       </c>
-      <c r="C18" s="360" t="s">
+      <c r="C18" s="342" t="s">
         <v>191</v>
       </c>
-      <c r="D18" s="360">
+      <c r="D18" s="342">
         <v>1</v>
       </c>
-      <c r="E18" s="360">
+      <c r="E18" s="342">
         <f>IF(C18="U",0.02,IF(C18="C",0.1,""))</f>
         <v>0.02</v>
       </c>
-      <c r="F18" s="359">
+      <c r="F18" s="341">
         <f>E18/D18</f>
         <v>0.02</v>
       </c>
-      <c r="M18" s="356">
+      <c r="M18" s="338">
         <f>LN(2)/M17*10</f>
         <v>0.26986353199323548</v>
       </c>
-      <c r="N18" s="349" t="s">
+      <c r="N18" s="331" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="360">
+      <c r="A19" s="342">
         <v>2</v>
       </c>
-      <c r="B19" s="360" t="s">
+      <c r="B19" s="342" t="s">
         <v>371</v>
       </c>
-      <c r="C19" s="360" t="s">
+      <c r="C19" s="342" t="s">
         <v>372</v>
       </c>
-      <c r="D19" s="360">
+      <c r="D19" s="342">
         <v>1</v>
       </c>
-      <c r="E19" s="360">
-        <f t="shared" ref="E19:E29" si="1">IF(C19="U",0.02,IF(C19="C",0.1,""))</f>
+      <c r="E19" s="342">
+        <f t="shared" ref="E19:E29" si="2">IF(C19="U",0.02,IF(C19="C",0.1,""))</f>
         <v>0.1</v>
       </c>
-      <c r="F19" s="359">
-        <f t="shared" ref="F19:F29" si="2">E19/D19</f>
+      <c r="F19" s="341">
+        <f t="shared" ref="F19:F29" si="3">E19/D19</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="360">
+      <c r="A20" s="342">
         <v>3</v>
       </c>
-      <c r="B20" s="360" t="s">
+      <c r="B20" s="342" t="s">
         <v>373</v>
       </c>
-      <c r="C20" s="360" t="s">
+      <c r="C20" s="342" t="s">
         <v>191</v>
       </c>
-      <c r="D20" s="360">
+      <c r="D20" s="342">
         <v>0.5</v>
       </c>
-      <c r="E20" s="360">
-        <f t="shared" si="1"/>
+      <c r="E20" s="342">
+        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
-      <c r="F20" s="359">
+      <c r="F20" s="341">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="342">
+        <v>4</v>
+      </c>
+      <c r="B21" s="342" t="s">
+        <v>374</v>
+      </c>
+      <c r="C21" s="342" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" s="342">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="342">
         <f t="shared" si="2"/>
+        <v>0.02</v>
+      </c>
+      <c r="F21" s="341">
+        <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="360">
-        <v>4</v>
-      </c>
-      <c r="B21" s="360" t="s">
-        <v>374</v>
-      </c>
-      <c r="C21" s="360" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="342">
+        <v>5</v>
+      </c>
+      <c r="B22" s="342" t="s">
+        <v>375</v>
+      </c>
+      <c r="C22" s="342" t="s">
         <v>191</v>
       </c>
-      <c r="D21" s="360">
+      <c r="D22" s="342">
         <v>0.5</v>
       </c>
-      <c r="E21" s="360">
-        <f t="shared" si="1"/>
+      <c r="E22" s="342">
+        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
-      <c r="F21" s="359">
+      <c r="F22" s="341">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="342">
+        <v>6</v>
+      </c>
+      <c r="B23" s="342" t="s">
+        <v>376</v>
+      </c>
+      <c r="C23" s="342" t="s">
+        <v>191</v>
+      </c>
+      <c r="D23" s="342">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="342">
         <f t="shared" si="2"/>
+        <v>0.02</v>
+      </c>
+      <c r="F23" s="341">
+        <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="360">
-        <v>5</v>
-      </c>
-      <c r="B22" s="360" t="s">
-        <v>375</v>
-      </c>
-      <c r="C22" s="360" t="s">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="342">
+        <v>7</v>
+      </c>
+      <c r="B24" s="342" t="s">
+        <v>377</v>
+      </c>
+      <c r="C24" s="342" t="s">
         <v>191</v>
       </c>
-      <c r="D22" s="360">
-        <v>0.5</v>
-      </c>
-      <c r="E22" s="360">
-        <f t="shared" si="1"/>
+      <c r="D24" s="342">
+        <v>0.1</v>
+      </c>
+      <c r="E24" s="342">
+        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
-      <c r="F22" s="359">
+      <c r="F24" s="341">
+        <f t="shared" si="3"/>
+        <v>0.19999999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="342">
+        <v>8</v>
+      </c>
+      <c r="B25" s="342" t="s">
+        <v>378</v>
+      </c>
+      <c r="C25" s="342" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" s="342">
+        <v>0.1</v>
+      </c>
+      <c r="E25" s="342">
         <f t="shared" si="2"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="360">
-        <v>6</v>
-      </c>
-      <c r="B23" s="360" t="s">
-        <v>376</v>
-      </c>
-      <c r="C23" s="360" t="s">
+        <v>0.02</v>
+      </c>
+      <c r="F25" s="341">
+        <f t="shared" si="3"/>
+        <v>0.19999999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="342">
+        <v>9</v>
+      </c>
+      <c r="B26" s="342" t="s">
+        <v>379</v>
+      </c>
+      <c r="C26" s="342" t="s">
         <v>191</v>
       </c>
-      <c r="D23" s="360">
-        <v>0.5</v>
-      </c>
-      <c r="E23" s="360">
-        <f t="shared" si="1"/>
+      <c r="D26" s="342">
+        <v>0.1</v>
+      </c>
+      <c r="E26" s="342">
+        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
-      <c r="F23" s="359">
-        <f t="shared" si="2"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="360">
-        <v>7</v>
-      </c>
-      <c r="B24" s="360" t="s">
-        <v>377</v>
-      </c>
-      <c r="C24" s="360" t="s">
-        <v>191</v>
-      </c>
-      <c r="D24" s="360">
-        <v>0.1</v>
-      </c>
-      <c r="E24" s="360">
-        <f t="shared" si="1"/>
-        <v>0.02</v>
-      </c>
-      <c r="F24" s="359">
-        <f t="shared" si="2"/>
+      <c r="F26" s="341">
+        <f t="shared" si="3"/>
         <v>0.19999999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="360">
-        <v>8</v>
-      </c>
-      <c r="B25" s="360" t="s">
-        <v>378</v>
-      </c>
-      <c r="C25" s="360" t="s">
-        <v>191</v>
-      </c>
-      <c r="D25" s="360">
-        <v>0.1</v>
-      </c>
-      <c r="E25" s="360">
-        <f t="shared" si="1"/>
-        <v>0.02</v>
-      </c>
-      <c r="F25" s="359">
-        <f t="shared" si="2"/>
-        <v>0.19999999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="360">
-        <v>9</v>
-      </c>
-      <c r="B26" s="360" t="s">
-        <v>379</v>
-      </c>
-      <c r="C26" s="360" t="s">
-        <v>191</v>
-      </c>
-      <c r="D26" s="360">
-        <v>0.1</v>
-      </c>
-      <c r="E26" s="360">
-        <f t="shared" si="1"/>
-        <v>0.02</v>
-      </c>
-      <c r="F26" s="359">
-        <f t="shared" si="2"/>
-        <v>0.19999999999999998</v>
-      </c>
-    </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="360">
+      <c r="A27" s="342">
         <v>10</v>
       </c>
-      <c r="B27" s="360" t="s">
+      <c r="B27" s="342" t="s">
         <v>380</v>
       </c>
-      <c r="C27" s="360" t="s">
+      <c r="C27" s="342" t="s">
         <v>372</v>
       </c>
-      <c r="D27" s="360">
+      <c r="D27" s="342">
         <v>1</v>
       </c>
-      <c r="E27" s="360">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="F27" s="359">
+      <c r="E27" s="342">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
+      <c r="F27" s="341">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="360">
+      <c r="A28" s="342">
         <v>11</v>
       </c>
-      <c r="B28" s="360" t="s">
+      <c r="B28" s="342" t="s">
         <v>196</v>
       </c>
-      <c r="C28" s="360" t="s">
+      <c r="C28" s="342" t="s">
         <v>191</v>
       </c>
-      <c r="D28" s="360">
+      <c r="D28" s="342">
         <v>0.5</v>
       </c>
-      <c r="E28" s="360">
-        <f t="shared" si="1"/>
+      <c r="E28" s="342">
+        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
-      <c r="F28" s="359">
+      <c r="F28" s="341">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="342">
+        <v>12</v>
+      </c>
+      <c r="B29" s="342" t="s">
+        <v>197</v>
+      </c>
+      <c r="C29" s="342" t="s">
+        <v>191</v>
+      </c>
+      <c r="D29" s="342">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="342">
         <f t="shared" si="2"/>
+        <v>0.02</v>
+      </c>
+      <c r="F29" s="341">
+        <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="360">
-        <v>12</v>
-      </c>
-      <c r="B29" s="360" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="340" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C32" s="385" t="s">
+        <v>389</v>
+      </c>
+      <c r="D32" s="385"/>
+      <c r="E32" s="385"/>
+      <c r="F32" s="385"/>
+      <c r="G32" s="385"/>
+      <c r="H32" s="385"/>
+      <c r="I32" s="385"/>
+      <c r="J32" s="385"/>
+      <c r="K32" s="385"/>
+      <c r="L32" s="385"/>
+      <c r="M32" s="385"/>
+      <c r="N32" s="385"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C33" s="342" t="s">
+        <v>369</v>
+      </c>
+      <c r="D33" s="342" t="s">
+        <v>371</v>
+      </c>
+      <c r="E33" s="342" t="s">
+        <v>373</v>
+      </c>
+      <c r="F33" s="342" t="s">
+        <v>374</v>
+      </c>
+      <c r="G33" s="342" t="s">
+        <v>375</v>
+      </c>
+      <c r="H33" s="342" t="s">
+        <v>376</v>
+      </c>
+      <c r="I33" s="342" t="s">
+        <v>377</v>
+      </c>
+      <c r="J33" s="342" t="s">
+        <v>378</v>
+      </c>
+      <c r="K33" s="342" t="s">
+        <v>379</v>
+      </c>
+      <c r="L33" s="342" t="s">
+        <v>380</v>
+      </c>
+      <c r="M33" s="341" t="s">
+        <v>196</v>
+      </c>
+      <c r="N33" s="341" t="s">
         <v>197</v>
       </c>
-      <c r="C29" s="360" t="s">
-        <v>191</v>
-      </c>
-      <c r="D29" s="360">
-        <v>0.5</v>
-      </c>
-      <c r="E29" s="360">
-        <f t="shared" si="1"/>
-        <v>0.02</v>
-      </c>
-      <c r="F29" s="359">
-        <f t="shared" si="2"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="358" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C32" s="364" t="s">
-        <v>389</v>
-      </c>
-      <c r="D32" s="364"/>
-      <c r="E32" s="364"/>
-      <c r="F32" s="364"/>
-      <c r="G32" s="364"/>
-      <c r="H32" s="364"/>
-      <c r="I32" s="364"/>
-      <c r="J32" s="364"/>
-      <c r="K32" s="364"/>
-      <c r="L32" s="364"/>
-      <c r="M32" s="364"/>
-      <c r="N32" s="364"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C33" s="360" t="s">
-        <v>369</v>
-      </c>
-      <c r="D33" s="360" t="s">
-        <v>371</v>
-      </c>
-      <c r="E33" s="360" t="s">
-        <v>373</v>
-      </c>
-      <c r="F33" s="360" t="s">
-        <v>374</v>
-      </c>
-      <c r="G33" s="360" t="s">
-        <v>375</v>
-      </c>
-      <c r="H33" s="360" t="s">
-        <v>376</v>
-      </c>
-      <c r="I33" s="360" t="s">
-        <v>377</v>
-      </c>
-      <c r="J33" s="360" t="s">
-        <v>378</v>
-      </c>
-      <c r="K33" s="360" t="s">
-        <v>379</v>
-      </c>
-      <c r="L33" s="360" t="s">
-        <v>380</v>
-      </c>
-      <c r="M33" s="359" t="s">
-        <v>196</v>
-      </c>
-      <c r="N33" s="359" t="s">
-        <v>197</v>
-      </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="364" t="s">
+      <c r="A34" s="385" t="s">
         <v>390</v>
       </c>
-      <c r="B34" s="359" t="str">
-        <f>A7</f>
+      <c r="B34" s="341" t="str">
+        <f t="shared" ref="B34:B41" si="4">A7</f>
         <v>Hot lab</v>
       </c>
-      <c r="C34" s="361">
+      <c r="C34" s="343">
         <f>48*12*0.0254</f>
         <v>14.6304</v>
       </c>
-      <c r="D34" s="361">
+      <c r="D34" s="343">
         <f>39*12*0.0254</f>
         <v>11.8872</v>
       </c>
-      <c r="E34" s="361">
+      <c r="E34" s="343">
         <f>29*12*0.0254</f>
         <v>8.8391999999999999</v>
       </c>
-      <c r="F34" s="361">
+      <c r="F34" s="343">
         <f>44*12*0.0254</f>
         <v>13.411199999999999</v>
       </c>
-      <c r="G34" s="361">
+      <c r="G34" s="343">
         <f>24*12*0.0254</f>
         <v>7.3151999999999999</v>
       </c>
-      <c r="H34" s="361">
+      <c r="H34" s="343">
         <f>34*12*0.0254</f>
         <v>10.363199999999999</v>
       </c>
-      <c r="I34" s="361">
+      <c r="I34" s="343">
         <f>23*12*0.0254</f>
         <v>7.0103999999999997</v>
       </c>
-      <c r="J34" s="361">
+      <c r="J34" s="343">
         <f>20*12*0.0254</f>
         <v>6.0960000000000001</v>
       </c>
-      <c r="K34" s="361">
+      <c r="K34" s="343">
         <f>22*12*0.0254</f>
         <v>6.7055999999999996</v>
       </c>
-      <c r="L34" s="361">
+      <c r="L34" s="343">
         <f>9*12*0.0254</f>
         <v>2.7431999999999999</v>
       </c>
-      <c r="M34" s="361">
+      <c r="M34" s="343">
         <f>20*12*0.0254</f>
         <v>6.0960000000000001</v>
       </c>
-      <c r="N34" s="361">
-        <f t="shared" ref="N34:N41" si="3">SQRT(2*(18^2))*12*0.0254</f>
+      <c r="N34" s="343">
+        <f t="shared" ref="N34:N41" si="5">SQRT(2*(18^2))*12*0.0254</f>
         <v>7.7589412886037472</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="364"/>
-      <c r="B35" s="359" t="str">
-        <f>A8</f>
+      <c r="A35" s="385"/>
+      <c r="B35" s="341" t="str">
+        <f t="shared" si="4"/>
         <v>NM Hold 1</v>
       </c>
-      <c r="C35" s="361">
+      <c r="C35" s="343">
         <f>39*12*0.0254</f>
         <v>11.8872</v>
       </c>
-      <c r="D35" s="361">
+      <c r="D35" s="343">
         <f>52*12*0.0254</f>
         <v>15.849599999999999</v>
       </c>
-      <c r="E35" s="361">
+      <c r="E35" s="343">
         <f>57.5*12*0.0254</f>
         <v>17.526</v>
       </c>
-      <c r="F35" s="361">
+      <c r="F35" s="343">
         <f>74*12*0.0254</f>
         <v>22.555199999999999</v>
       </c>
-      <c r="G35" s="361">
+      <c r="G35" s="343">
         <f>56*12*0.0254</f>
         <v>17.0688</v>
       </c>
-      <c r="H35" s="361">
+      <c r="H35" s="343">
         <f>65*12*0.0254</f>
         <v>19.811999999999998</v>
       </c>
-      <c r="I35" s="361">
+      <c r="I35" s="343">
         <f>46*12*0.0254</f>
         <v>14.020799999999999</v>
       </c>
-      <c r="J35" s="361">
+      <c r="J35" s="343">
         <f>38*12*0.0254</f>
         <v>11.5824</v>
       </c>
-      <c r="K35" s="361">
+      <c r="K35" s="343">
         <f>28*12*0.0254</f>
         <v>8.5343999999999998</v>
       </c>
-      <c r="L35" s="361">
+      <c r="L35" s="343">
         <f>40*12*0.0254</f>
         <v>12.192</v>
       </c>
-      <c r="M35" s="361">
-        <f t="shared" ref="M35:M41" si="4">20*12*0.0254</f>
+      <c r="M35" s="343">
+        <f t="shared" ref="M35:M41" si="6">20*12*0.0254</f>
         <v>6.0960000000000001</v>
       </c>
-      <c r="N35" s="361">
-        <f t="shared" si="3"/>
+      <c r="N35" s="343">
+        <f t="shared" si="5"/>
         <v>7.7589412886037472</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="364"/>
-      <c r="B36" s="359" t="str">
-        <f>A9</f>
+      <c r="A36" s="385"/>
+      <c r="B36" s="341" t="str">
+        <f t="shared" si="4"/>
         <v>NM Hold 2</v>
       </c>
-      <c r="C36" s="361">
+      <c r="C36" s="343">
         <f>43*12*0.0254</f>
         <v>13.106399999999999</v>
       </c>
-      <c r="D36" s="361">
+      <c r="D36" s="343">
         <f>40*12*0.0254</f>
         <v>12.192</v>
       </c>
-      <c r="E36" s="361">
+      <c r="E36" s="343">
         <f>36*12*0.0254</f>
         <v>10.972799999999999</v>
       </c>
-      <c r="F36" s="361">
+      <c r="F36" s="343">
         <f>52*12*0.0254</f>
         <v>15.849599999999999</v>
       </c>
-      <c r="G36" s="361">
+      <c r="G36" s="343">
         <f>32*12*0.0254</f>
         <v>9.7535999999999987</v>
       </c>
-      <c r="H36" s="361">
+      <c r="H36" s="343">
         <f>43*12*0.0254</f>
         <v>13.106399999999999</v>
       </c>
-      <c r="I36" s="361">
+      <c r="I36" s="343">
         <f>28*12*0.0254</f>
         <v>8.5343999999999998</v>
       </c>
-      <c r="J36" s="361">
+      <c r="J36" s="343">
         <f>22*12*0.0254</f>
         <v>6.7055999999999996</v>
       </c>
-      <c r="K36" s="361">
+      <c r="K36" s="343">
         <f>20*12*0.0254</f>
         <v>6.0960000000000001</v>
       </c>
-      <c r="L36" s="361">
+      <c r="L36" s="343">
         <f>17*12*0.0254</f>
         <v>5.1815999999999995</v>
       </c>
-      <c r="M36" s="361">
+      <c r="M36" s="343">
+        <f t="shared" si="6"/>
+        <v>6.0960000000000001</v>
+      </c>
+      <c r="N36" s="343">
+        <f t="shared" si="5"/>
+        <v>7.7589412886037472</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="385"/>
+      <c r="B37" s="341" t="str">
         <f t="shared" si="4"/>
-        <v>6.0960000000000001</v>
-      </c>
-      <c r="N36" s="361">
-        <f t="shared" si="3"/>
-        <v>7.7589412886037472</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="364"/>
-      <c r="B37" s="359" t="str">
-        <f>A10</f>
         <v>NM Camera 1</v>
       </c>
-      <c r="C37" s="361">
+      <c r="C37" s="343">
         <f>25*12*0.0254</f>
         <v>7.62</v>
       </c>
-      <c r="D37" s="361">
+      <c r="D37" s="343">
         <f>49*12*0.0254</f>
         <v>14.9352</v>
       </c>
-      <c r="E37" s="361">
+      <c r="E37" s="343">
         <f>63*12*0.0254</f>
         <v>19.202400000000001</v>
       </c>
-      <c r="F37" s="361">
+      <c r="F37" s="343">
         <f>80*12*0.0254</f>
         <v>24.384</v>
       </c>
-      <c r="G37" s="361">
+      <c r="G37" s="343">
         <f>65*12*0.0254</f>
         <v>19.811999999999998</v>
       </c>
-      <c r="H37" s="361">
+      <c r="H37" s="343">
         <f>76*12*0.0254</f>
         <v>23.1648</v>
       </c>
-      <c r="I37" s="361">
+      <c r="I37" s="343">
         <f>62*12*0.0254</f>
         <v>18.897600000000001</v>
       </c>
-      <c r="J37" s="361">
+      <c r="J37" s="343">
         <f>55*12*0.0254</f>
         <v>16.763999999999999</v>
       </c>
-      <c r="K37" s="361">
+      <c r="K37" s="343">
         <f>46*12*0.0254</f>
         <v>14.020799999999999</v>
       </c>
-      <c r="L37" s="361">
+      <c r="L37" s="343">
         <f>50*12*0.0254</f>
         <v>15.24</v>
       </c>
-      <c r="M37" s="361">
+      <c r="M37" s="343">
+        <f t="shared" si="6"/>
+        <v>6.0960000000000001</v>
+      </c>
+      <c r="N37" s="343">
+        <f t="shared" si="5"/>
+        <v>7.7589412886037472</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="385"/>
+      <c r="B38" s="341" t="str">
         <f t="shared" si="4"/>
-        <v>6.0960000000000001</v>
-      </c>
-      <c r="N37" s="361">
-        <f t="shared" si="3"/>
-        <v>7.7589412886037472</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="364"/>
-      <c r="B38" s="359" t="str">
-        <f>A11</f>
         <v>NM Camera 2</v>
       </c>
-      <c r="C38" s="361">
+      <c r="C38" s="343">
         <f>32.5*12*0.0254</f>
         <v>9.9059999999999988</v>
       </c>
-      <c r="D38" s="361">
+      <c r="D38" s="343">
         <f>23*12*0.0254</f>
         <v>7.0103999999999997</v>
       </c>
-      <c r="E38" s="361">
+      <c r="E38" s="343">
         <f>28*12*0.0254</f>
         <v>8.5343999999999998</v>
       </c>
-      <c r="F38" s="361">
+      <c r="F38" s="343">
         <f>45*12*0.0254</f>
         <v>13.715999999999999</v>
       </c>
-      <c r="G38" s="361">
+      <c r="G38" s="343">
         <f>31*12*0.0254</f>
         <v>9.4488000000000003</v>
       </c>
-      <c r="H38" s="361">
+      <c r="H38" s="343">
         <f>42*12*0.0254</f>
         <v>12.801599999999999</v>
       </c>
-      <c r="I38" s="361">
+      <c r="I38" s="343">
         <f>39*12*0.0254</f>
         <v>11.8872</v>
       </c>
-      <c r="J38" s="361">
+      <c r="J38" s="343">
         <f>37*12*0.0254</f>
         <v>11.2776</v>
       </c>
-      <c r="K38" s="361">
+      <c r="K38" s="343">
         <f>37*12*0.0254</f>
         <v>11.2776</v>
       </c>
-      <c r="L38" s="361">
+      <c r="L38" s="343">
         <f>17*12*0.0254</f>
         <v>5.1815999999999995</v>
       </c>
-      <c r="M38" s="361">
+      <c r="M38" s="343">
+        <f t="shared" si="6"/>
+        <v>6.0960000000000001</v>
+      </c>
+      <c r="N38" s="343">
+        <f t="shared" si="5"/>
+        <v>7.7589412886037472</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="385"/>
+      <c r="B39" s="341" t="str">
         <f t="shared" si="4"/>
-        <v>6.0960000000000001</v>
-      </c>
-      <c r="N38" s="361">
-        <f t="shared" si="3"/>
-        <v>7.7589412886037472</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="364"/>
-      <c r="B39" s="359" t="str">
-        <f>A12</f>
         <v>Stress Lab</v>
       </c>
-      <c r="C39" s="361">
+      <c r="C39" s="343">
         <f>51*12*0.0254</f>
         <v>15.544799999999999</v>
       </c>
-      <c r="D39" s="361">
+      <c r="D39" s="343">
         <f>28*12*0.0254</f>
         <v>8.5343999999999998</v>
       </c>
-      <c r="E39" s="361">
+      <c r="E39" s="343">
         <f>5*12*0.0254</f>
         <v>1.524</v>
       </c>
-      <c r="F39" s="361">
+      <c r="F39" s="343">
         <f>20*12*0.0254</f>
         <v>6.0960000000000001</v>
       </c>
-      <c r="G39" s="361">
+      <c r="G39" s="343">
         <f>10*12*0.0254</f>
         <v>3.048</v>
       </c>
-      <c r="H39" s="361">
+      <c r="H39" s="343">
         <f>17*12*0.0254</f>
         <v>5.1815999999999995</v>
       </c>
-      <c r="I39" s="361">
+      <c r="I39" s="343">
         <f>35*12*0.0254</f>
         <v>10.667999999999999</v>
       </c>
-      <c r="J39" s="361">
+      <c r="J39" s="343">
         <f>38*12*0.0254</f>
         <v>11.5824</v>
       </c>
-      <c r="K39" s="361">
+      <c r="K39" s="343">
         <f>43*12*0.0254</f>
         <v>13.106399999999999</v>
       </c>
-      <c r="L39" s="361">
+      <c r="L39" s="343">
         <f>8*12*0.0254</f>
         <v>2.4383999999999997</v>
       </c>
-      <c r="M39" s="361">
+      <c r="M39" s="343">
+        <f t="shared" si="6"/>
+        <v>6.0960000000000001</v>
+      </c>
+      <c r="N39" s="343">
+        <f t="shared" si="5"/>
+        <v>7.7589412886037472</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="385"/>
+      <c r="B40" s="341" t="str">
         <f t="shared" si="4"/>
-        <v>6.0960000000000001</v>
-      </c>
-      <c r="N39" s="361">
-        <f t="shared" si="3"/>
-        <v>7.7589412886037472</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="364"/>
-      <c r="B40" s="359" t="str">
-        <f>A13</f>
         <v>Hot Toilet</v>
       </c>
-      <c r="C40" s="361">
+      <c r="C40" s="343">
         <f>41*12*0.0254</f>
         <v>12.4968</v>
       </c>
-      <c r="D40" s="361">
+      <c r="D40" s="343">
         <f>62*12*0.0254</f>
         <v>18.897600000000001</v>
       </c>
-      <c r="E40" s="361">
+      <c r="E40" s="343">
         <f>72*12*0.0254</f>
         <v>21.945599999999999</v>
       </c>
-      <c r="F40" s="361">
+      <c r="F40" s="343">
         <f>88*12*0.0254</f>
         <v>26.822399999999998</v>
       </c>
-      <c r="G40" s="361">
+      <c r="G40" s="343">
         <f>69*12*0.0254</f>
         <v>21.031199999999998</v>
       </c>
-      <c r="H40" s="361">
+      <c r="H40" s="343">
         <f>79*12*0.0254</f>
         <v>24.0792</v>
       </c>
-      <c r="I40" s="361">
+      <c r="I40" s="343">
         <f>62*12*0.0254</f>
         <v>18.897600000000001</v>
       </c>
-      <c r="J40" s="361">
+      <c r="J40" s="343">
         <f>50*12*0.0254</f>
         <v>15.24</v>
       </c>
-      <c r="K40" s="361">
+      <c r="K40" s="343">
         <f>41*12*0.0254</f>
         <v>12.4968</v>
       </c>
-      <c r="L40" s="361">
+      <c r="L40" s="343">
         <f>55.5*12*0.0254</f>
         <v>16.916399999999999</v>
       </c>
-      <c r="M40" s="361">
+      <c r="M40" s="343">
+        <f t="shared" si="6"/>
+        <v>6.0960000000000001</v>
+      </c>
+      <c r="N40" s="343">
+        <f t="shared" si="5"/>
+        <v>7.7589412886037472</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="385"/>
+      <c r="B41" s="341" t="str">
         <f t="shared" si="4"/>
-        <v>6.0960000000000001</v>
-      </c>
-      <c r="N40" s="361">
-        <f t="shared" si="3"/>
-        <v>7.7589412886037472</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="364"/>
-      <c r="B41" s="359" t="str">
-        <f>A14</f>
         <v>Radiology Waiting</v>
       </c>
-      <c r="C41" s="361">
+      <c r="C41" s="343">
         <f>80*12*0.0254</f>
         <v>24.384</v>
       </c>
-      <c r="D41" s="361">
+      <c r="D41" s="343">
         <f>63*12*0.0254</f>
         <v>19.202400000000001</v>
       </c>
-      <c r="E41" s="361">
+      <c r="E41" s="343">
         <f>37*12*0.0254</f>
         <v>11.2776</v>
       </c>
-      <c r="F41" s="361">
+      <c r="F41" s="343">
         <f>40*12*0.0254</f>
         <v>12.192</v>
       </c>
-      <c r="G41" s="361">
+      <c r="G41" s="343">
         <f>24*12*0.0254</f>
         <v>7.3151999999999999</v>
       </c>
-      <c r="H41" s="361">
+      <c r="H41" s="343">
         <f>26*12*0.0254</f>
         <v>7.9247999999999994</v>
       </c>
-      <c r="I41" s="361">
+      <c r="I41" s="343">
         <f>12*12*0.0254</f>
         <v>3.6576</v>
       </c>
-      <c r="J41" s="361">
+      <c r="J41" s="343">
         <f>22*12*0.0254</f>
         <v>6.7055999999999996</v>
       </c>
-      <c r="K41" s="361">
+      <c r="K41" s="343">
         <f>33*12*0.0254</f>
         <v>10.058399999999999</v>
       </c>
-      <c r="L41" s="361">
+      <c r="L41" s="343">
         <f>20*12*0.0254</f>
         <v>6.0960000000000001</v>
       </c>
-      <c r="M41" s="361">
-        <f t="shared" si="4"/>
+      <c r="M41" s="343">
+        <f t="shared" si="6"/>
         <v>6.0960000000000001</v>
       </c>
-      <c r="N41" s="361">
-        <f t="shared" si="3"/>
+      <c r="N41" s="343">
+        <f t="shared" si="5"/>
         <v>7.7589412886037472</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="351" t="s">
+      <c r="A44" s="333" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C45" s="364" t="s">
+      <c r="C45" s="385" t="s">
         <v>389</v>
       </c>
-      <c r="D45" s="364"/>
-      <c r="E45" s="364"/>
-      <c r="F45" s="364"/>
-      <c r="G45" s="364"/>
-      <c r="H45" s="364"/>
-      <c r="I45" s="364"/>
-      <c r="J45" s="364"/>
-      <c r="K45" s="364"/>
-      <c r="L45" s="364"/>
-      <c r="M45" s="364"/>
-      <c r="N45" s="364"/>
+      <c r="D45" s="385"/>
+      <c r="E45" s="385"/>
+      <c r="F45" s="385"/>
+      <c r="G45" s="385"/>
+      <c r="H45" s="385"/>
+      <c r="I45" s="385"/>
+      <c r="J45" s="385"/>
+      <c r="K45" s="385"/>
+      <c r="L45" s="385"/>
+      <c r="M45" s="385"/>
+      <c r="N45" s="385"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C46" s="360" t="str">
-        <f>C33</f>
+      <c r="C46" s="342" t="str">
+        <f t="shared" ref="C46:N46" si="7">C33</f>
         <v>Tech area</v>
       </c>
-      <c r="D46" s="360" t="str">
-        <f>D33</f>
+      <c r="D46" s="342" t="str">
+        <f t="shared" si="7"/>
         <v>CT Tech area</v>
       </c>
-      <c r="E46" s="360" t="str">
-        <f>E33</f>
+      <c r="E46" s="342" t="str">
+        <f t="shared" si="7"/>
         <v>US 1</v>
       </c>
-      <c r="F46" s="360" t="str">
-        <f>F33</f>
+      <c r="F46" s="342" t="str">
+        <f t="shared" si="7"/>
         <v>US 2</v>
       </c>
-      <c r="G46" s="360" t="str">
-        <f>G33</f>
+      <c r="G46" s="342" t="str">
+        <f t="shared" si="7"/>
         <v>Office 2221</v>
       </c>
-      <c r="H46" s="360" t="str">
-        <f>H33</f>
+      <c r="H46" s="342" t="str">
+        <f t="shared" si="7"/>
         <v>Office 2302</v>
       </c>
-      <c r="I46" s="360" t="str">
-        <f>I33</f>
+      <c r="I46" s="342" t="str">
+        <f t="shared" si="7"/>
         <v>Consult A</v>
       </c>
-      <c r="J46" s="360" t="str">
-        <f>J33</f>
+      <c r="J46" s="342" t="str">
+        <f t="shared" si="7"/>
         <v>Consult B</v>
       </c>
-      <c r="K46" s="360" t="str">
-        <f>K33</f>
+      <c r="K46" s="342" t="str">
+        <f t="shared" si="7"/>
         <v>Lactation</v>
       </c>
-      <c r="L46" s="360" t="str">
-        <f>L33</f>
+      <c r="L46" s="342" t="str">
+        <f t="shared" si="7"/>
         <v>Reading Room</v>
       </c>
-      <c r="M46" s="360" t="str">
-        <f>M33</f>
+      <c r="M46" s="342" t="str">
+        <f t="shared" si="7"/>
         <v>Floor</v>
       </c>
-      <c r="N46" s="360" t="str">
-        <f>N33</f>
+      <c r="N46" s="342" t="str">
+        <f t="shared" si="7"/>
         <v>Ceiling</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B47" s="367" t="s">
+      <c r="B47" s="348" t="s">
         <v>383</v>
       </c>
-      <c r="C47" s="368">
+      <c r="C47" s="349">
         <f>SUM(C48:C55)</f>
         <v>0.9903830236204284</v>
       </c>
-      <c r="D47" s="368">
-        <f t="shared" ref="D47:N47" si="5">SUM(D48:D55)</f>
+      <c r="D47" s="349">
+        <f t="shared" ref="D47:N47" si="8">SUM(D48:D55)</f>
         <v>1.2069456032276571</v>
       </c>
-      <c r="E47" s="368">
-        <f t="shared" si="5"/>
+      <c r="E47" s="349">
+        <f t="shared" si="8"/>
         <v>13.621340154463082</v>
       </c>
-      <c r="F47" s="368">
-        <f t="shared" si="5"/>
+      <c r="F47" s="349">
+        <f t="shared" si="8"/>
         <v>1.371468842771582</v>
       </c>
-      <c r="G47" s="368">
-        <f t="shared" si="5"/>
+      <c r="G47" s="349">
+        <f t="shared" si="8"/>
         <v>4.6426544264576028</v>
       </c>
-      <c r="H47" s="368">
-        <f t="shared" si="5"/>
+      <c r="H47" s="349">
+        <f t="shared" si="8"/>
         <v>2.1837049529420849</v>
       </c>
-      <c r="I47" s="368">
-        <f t="shared" si="5"/>
+      <c r="I47" s="349">
+        <f t="shared" si="8"/>
         <v>4.33463407109216</v>
       </c>
-      <c r="J47" s="368">
-        <f t="shared" si="5"/>
+      <c r="J47" s="349">
+        <f t="shared" si="8"/>
         <v>2.1385807499842233</v>
       </c>
-      <c r="K47" s="368">
-        <f t="shared" si="5"/>
+      <c r="K47" s="349">
+        <f t="shared" si="8"/>
         <v>1.7071011492309554</v>
       </c>
-      <c r="L47" s="368">
-        <f t="shared" si="5"/>
+      <c r="L47" s="349">
+        <f t="shared" si="8"/>
         <v>8.5826167963290843</v>
       </c>
-      <c r="M47" s="368">
-        <f t="shared" si="5"/>
+      <c r="M47" s="349">
+        <f t="shared" si="8"/>
         <v>4.3504475179746827</v>
       </c>
-      <c r="N47" s="368">
-        <f t="shared" si="5"/>
+      <c r="N47" s="349">
+        <f t="shared" si="8"/>
         <v>2.6854614308485707</v>
       </c>
-      <c r="O47" s="365"/>
+      <c r="O47" s="346"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="364" t="s">
+      <c r="A48" s="385" t="s">
         <v>390</v>
       </c>
-      <c r="B48" s="359" t="str">
-        <f>A7</f>
+      <c r="B48" s="341" t="str">
+        <f t="shared" ref="B48:B55" si="9">A7</f>
         <v>Hot lab</v>
       </c>
-      <c r="C48" s="366">
-        <f>$E7/(C34^2)</f>
+      <c r="C48" s="347">
+        <f t="shared" ref="C48:N48" si="10">$E7/(C34^2)</f>
         <v>3.4402186498238743E-2</v>
       </c>
-      <c r="D48" s="366">
-        <f>$E7/(D34^2)</f>
+      <c r="D48" s="347">
+        <f t="shared" si="10"/>
         <v>5.2112187831651585E-2</v>
       </c>
-      <c r="E48" s="366">
-        <f>$E7/(E34^2)</f>
+      <c r="E48" s="347">
+        <f t="shared" si="10"/>
         <v>9.4248082867945379E-2</v>
       </c>
-      <c r="F48" s="366">
-        <f>$E7/(F34^2)</f>
+      <c r="F48" s="347">
+        <f t="shared" si="10"/>
         <v>4.0941445088813054E-2</v>
       </c>
-      <c r="G48" s="366">
-        <f>$E7/(G34^2)</f>
+      <c r="G48" s="347">
+        <f t="shared" si="10"/>
         <v>0.13760874599295497</v>
       </c>
-      <c r="H48" s="366">
-        <f>$E7/(H34^2)</f>
+      <c r="H48" s="347">
+        <f t="shared" si="10"/>
         <v>6.8566295581264772E-2</v>
       </c>
-      <c r="I48" s="366">
-        <f>$E7/(I34^2)</f>
+      <c r="I48" s="347">
+        <f t="shared" si="10"/>
         <v>0.14983485386000389</v>
       </c>
-      <c r="J48" s="366">
-        <f>$E7/(J34^2)</f>
+      <c r="J48" s="347">
+        <f t="shared" si="10"/>
         <v>0.19815659422985513</v>
       </c>
-      <c r="K48" s="366">
-        <f>$E7/(K34^2)</f>
+      <c r="K48" s="347">
+        <f t="shared" si="10"/>
         <v>0.16376578035525222</v>
       </c>
-      <c r="L48" s="366">
-        <f>$E7/(L34^2)</f>
+      <c r="L48" s="347">
+        <f t="shared" si="10"/>
         <v>0.97855108261656876</v>
       </c>
-      <c r="M48" s="366">
-        <f>$E7/(M34^2)</f>
+      <c r="M48" s="347">
+        <f t="shared" si="10"/>
         <v>0.19815659422985513</v>
       </c>
-      <c r="N48" s="366">
-        <f>$E7/(N34^2)</f>
+      <c r="N48" s="347">
+        <f t="shared" si="10"/>
         <v>0.12231888532707112</v>
       </c>
-      <c r="O48" s="357"/>
+      <c r="O48" s="339"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="364"/>
-      <c r="B49" s="359" t="str">
-        <f>A8</f>
+      <c r="A49" s="385"/>
+      <c r="B49" s="341" t="str">
+        <f t="shared" si="9"/>
         <v>NM Hold 1</v>
       </c>
-      <c r="C49" s="366">
-        <f>$E8/(C35^2)</f>
+      <c r="C49" s="347">
+        <f t="shared" ref="C49:N49" si="11">$E8/(C35^2)</f>
         <v>0.10422437566330317</v>
       </c>
-      <c r="D49" s="366">
-        <f>$E8/(D35^2)</f>
+      <c r="D49" s="347">
+        <f t="shared" si="11"/>
         <v>5.8626211310608044E-2</v>
       </c>
-      <c r="E49" s="366">
-        <f>$E8/(E35^2)</f>
+      <c r="E49" s="347">
+        <f t="shared" si="11"/>
         <v>4.7947153235201254E-2</v>
       </c>
-      <c r="F49" s="366">
-        <f>$E8/(F35^2)</f>
+      <c r="F49" s="347">
+        <f t="shared" si="11"/>
         <v>2.8949100690994177E-2</v>
       </c>
-      <c r="G49" s="366">
-        <f>$E8/(G35^2)</f>
+      <c r="G49" s="347">
+        <f t="shared" si="11"/>
         <v>5.0550151589248762E-2</v>
       </c>
-      <c r="H49" s="366">
-        <f>$E8/(H35^2)</f>
+      <c r="H49" s="347">
+        <f t="shared" si="11"/>
         <v>3.7520775238789147E-2</v>
       </c>
-      <c r="I49" s="366">
-        <f>$E8/(I35^2)</f>
+      <c r="I49" s="347">
+        <f t="shared" si="11"/>
         <v>7.4917426930001946E-2</v>
       </c>
-      <c r="J49" s="366">
-        <f>$E8/(J35^2)</f>
+      <c r="J49" s="347">
+        <f t="shared" si="11"/>
         <v>0.1097820466647397</v>
       </c>
-      <c r="K49" s="366">
-        <f>$E8/(K35^2)</f>
+      <c r="K49" s="347">
+        <f t="shared" si="11"/>
         <v>0.20220060635699505</v>
       </c>
-      <c r="L49" s="366">
-        <f>$E8/(L35^2)</f>
+      <c r="L49" s="347">
+        <f t="shared" si="11"/>
         <v>9.9078297114927563E-2</v>
       </c>
-      <c r="M49" s="366">
-        <f>$E8/(M35^2)</f>
+      <c r="M49" s="347">
+        <f t="shared" si="11"/>
         <v>0.39631318845971025</v>
       </c>
-      <c r="N49" s="366">
-        <f>$E8/(N35^2)</f>
+      <c r="N49" s="347">
+        <f t="shared" si="11"/>
         <v>0.24463777065414224</v>
       </c>
-      <c r="O49" s="357"/>
+      <c r="O49" s="339"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50" s="364"/>
-      <c r="B50" s="359" t="str">
-        <f>A9</f>
+      <c r="A50" s="385"/>
+      <c r="B50" s="341" t="str">
+        <f t="shared" si="9"/>
         <v>NM Hold 2</v>
       </c>
-      <c r="C50" s="366">
-        <f>$E9/(C36^2)</f>
+      <c r="C50" s="347">
+        <f t="shared" ref="C50:N50" si="12">$E9/(C36^2)</f>
         <v>8.5735681657049284E-2</v>
       </c>
-      <c r="D50" s="366">
-        <f>$E9/(D36^2)</f>
+      <c r="D50" s="347">
+        <f t="shared" si="12"/>
         <v>9.9078297114927563E-2</v>
       </c>
-      <c r="E50" s="366">
-        <f>$E9/(E36^2)</f>
+      <c r="E50" s="347">
+        <f t="shared" si="12"/>
         <v>0.12231888532707109</v>
       </c>
-      <c r="F50" s="366">
-        <f>$E9/(F36^2)</f>
+      <c r="F50" s="347">
+        <f t="shared" si="12"/>
         <v>5.8626211310608044E-2</v>
       </c>
-      <c r="G50" s="366">
-        <f>$E9/(G36^2)</f>
+      <c r="G50" s="347">
+        <f t="shared" si="12"/>
         <v>0.15480983924207437</v>
       </c>
-      <c r="H50" s="366">
-        <f>$E9/(H36^2)</f>
+      <c r="H50" s="347">
+        <f t="shared" si="12"/>
         <v>8.5735681657049284E-2</v>
       </c>
-      <c r="I50" s="366">
-        <f>$E9/(I36^2)</f>
+      <c r="I50" s="347">
+        <f t="shared" si="12"/>
         <v>0.20220060635699505</v>
       </c>
-      <c r="J50" s="366">
-        <f>$E9/(J36^2)</f>
+      <c r="J50" s="347">
+        <f t="shared" si="12"/>
         <v>0.32753156071050443</v>
       </c>
-      <c r="K50" s="366">
-        <f>$E9/(K36^2)</f>
+      <c r="K50" s="347">
+        <f t="shared" si="12"/>
         <v>0.39631318845971025</v>
       </c>
-      <c r="L50" s="366">
-        <f>$E9/(L36^2)</f>
+      <c r="L50" s="347">
+        <f t="shared" si="12"/>
         <v>0.54853036465011817</v>
       </c>
-      <c r="M50" s="366">
-        <f>$E9/(M36^2)</f>
+      <c r="M50" s="347">
+        <f t="shared" si="12"/>
         <v>0.39631318845971025</v>
       </c>
-      <c r="N50" s="366">
-        <f>$E9/(N36^2)</f>
+      <c r="N50" s="347">
+        <f t="shared" si="12"/>
         <v>0.24463777065414224</v>
       </c>
-      <c r="O50" s="357"/>
+      <c r="O50" s="339"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51" s="364"/>
-      <c r="B51" s="359" t="str">
-        <f>A10</f>
+      <c r="A51" s="385"/>
+      <c r="B51" s="341" t="str">
+        <f t="shared" si="9"/>
         <v>NM Camera 1</v>
       </c>
-      <c r="C51" s="366">
-        <f>$E10/(C37^2)</f>
+      <c r="C51" s="347">
+        <f t="shared" ref="C51:N51" si="13">$E10/(C37^2)</f>
         <v>0.29523657258722019</v>
       </c>
-      <c r="D51" s="366">
-        <f>$E10/(D37^2)</f>
+      <c r="D51" s="347">
+        <f t="shared" si="13"/>
         <v>7.6852502235323875E-2</v>
       </c>
-      <c r="E51" s="366">
-        <f>$E10/(E37^2)</f>
+      <c r="E51" s="347">
+        <f t="shared" si="13"/>
         <v>4.6491019870751472E-2</v>
       </c>
-      <c r="F51" s="366">
-        <f>$E10/(F37^2)</f>
+      <c r="F51" s="347">
+        <f t="shared" si="13"/>
         <v>2.8831696541720721E-2</v>
       </c>
-      <c r="G51" s="366">
-        <f>$E10/(G37^2)</f>
+      <c r="G51" s="347">
+        <f t="shared" si="13"/>
         <v>4.3674049199292936E-2</v>
       </c>
-      <c r="H51" s="366">
-        <f>$E10/(H37^2)</f>
+      <c r="H51" s="347">
+        <f t="shared" si="13"/>
         <v>3.1946478162571443E-2</v>
       </c>
-      <c r="I51" s="366">
-        <f>$E10/(I37^2)</f>
+      <c r="I51" s="347">
+        <f t="shared" si="13"/>
         <v>4.8002824627214523E-2</v>
       </c>
-      <c r="J51" s="366">
-        <f>$E10/(J37^2)</f>
+      <c r="J51" s="347">
+        <f t="shared" si="13"/>
         <v>6.0999291856863688E-2</v>
       </c>
-      <c r="K51" s="366">
-        <f>$E10/(K37^2)</f>
+      <c r="K51" s="347">
+        <f t="shared" si="13"/>
         <v>8.7203619029779134E-2</v>
       </c>
-      <c r="L51" s="366">
-        <f>$E10/(L37^2)</f>
+      <c r="L51" s="347">
+        <f t="shared" si="13"/>
         <v>7.3809143146805048E-2</v>
       </c>
-      <c r="M51" s="366">
-        <f>$E10/(M37^2)</f>
+      <c r="M51" s="347">
+        <f t="shared" si="13"/>
         <v>0.46130714466753153</v>
       </c>
-      <c r="N51" s="366">
-        <f>$E10/(N37^2)</f>
+      <c r="N51" s="347">
+        <f t="shared" si="13"/>
         <v>0.28475749670835293</v>
       </c>
-      <c r="O51" s="357"/>
+      <c r="O51" s="339"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A52" s="364"/>
-      <c r="B52" s="359" t="str">
-        <f>A11</f>
+      <c r="A52" s="385"/>
+      <c r="B52" s="341" t="str">
+        <f t="shared" si="9"/>
         <v>NM Camera 2</v>
       </c>
-      <c r="C52" s="366">
-        <f>$E11/(C38^2)</f>
+      <c r="C52" s="347">
+        <f t="shared" ref="C52:N52" si="14">$E11/(C38^2)</f>
         <v>0.17469619679717174</v>
       </c>
-      <c r="D52" s="366">
-        <f>$E11/(D38^2)</f>
+      <c r="D52" s="347">
+        <f t="shared" si="14"/>
         <v>0.34881447611911653</v>
       </c>
-      <c r="E52" s="366">
-        <f>$E11/(E38^2)</f>
+      <c r="E52" s="347">
+        <f t="shared" si="14"/>
         <v>0.23536078809567937</v>
       </c>
-      <c r="F52" s="366">
-        <f>$E11/(F38^2)</f>
+      <c r="F52" s="347">
+        <f t="shared" si="14"/>
         <v>9.1122398946672914E-2</v>
       </c>
-      <c r="G52" s="366">
-        <f>$E11/(G38^2)</f>
+      <c r="G52" s="347">
+        <f t="shared" si="14"/>
         <v>0.19201129850885809</v>
       </c>
-      <c r="H52" s="366">
-        <f>$E11/(H38^2)</f>
+      <c r="H52" s="347">
+        <f t="shared" si="14"/>
         <v>0.10460479470919085</v>
       </c>
-      <c r="I52" s="366">
-        <f>$E11/(I38^2)</f>
+      <c r="I52" s="347">
+        <f t="shared" si="14"/>
         <v>0.12131680333136924</v>
       </c>
-      <c r="J52" s="366">
-        <f>$E11/(J38^2)</f>
+      <c r="J52" s="347">
+        <f t="shared" si="14"/>
         <v>0.13478660180205451</v>
       </c>
-      <c r="K52" s="366">
-        <f>$E11/(K38^2)</f>
+      <c r="K52" s="347">
+        <f t="shared" si="14"/>
         <v>0.13478660180205451</v>
       </c>
-      <c r="L52" s="366">
-        <f>$E11/(L38^2)</f>
+      <c r="L52" s="347">
+        <f t="shared" si="14"/>
         <v>0.63848739746371164</v>
       </c>
-      <c r="M52" s="366">
-        <f>$E11/(M38^2)</f>
+      <c r="M52" s="347">
+        <f t="shared" si="14"/>
         <v>0.46130714466753153</v>
       </c>
-      <c r="N52" s="366">
-        <f>$E11/(N38^2)</f>
+      <c r="N52" s="347">
+        <f t="shared" si="14"/>
         <v>0.28475749670835293</v>
       </c>
-      <c r="O52" s="357"/>
+      <c r="O52" s="339"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A53" s="364"/>
-      <c r="B53" s="359" t="str">
-        <f>A12</f>
+      <c r="A53" s="385"/>
+      <c r="B53" s="341" t="str">
+        <f t="shared" si="9"/>
         <v>Stress Lab</v>
       </c>
-      <c r="C53" s="366">
-        <f>$E12/(C39^2)</f>
+      <c r="C53" s="347">
+        <f t="shared" ref="C53:N53" si="15">$E12/(C39^2)</f>
         <v>0.12189563658891514</v>
       </c>
-      <c r="D53" s="366">
-        <f>$E12/(D39^2)</f>
+      <c r="D53" s="347">
+        <f t="shared" si="15"/>
         <v>0.4044012127139901</v>
       </c>
-      <c r="E53" s="366">
-        <f>$E12/(E39^2)</f>
+      <c r="E53" s="347">
+        <f t="shared" si="15"/>
         <v>12.682022030710728</v>
       </c>
-      <c r="F53" s="366">
-        <f>$E12/(F39^2)</f>
+      <c r="F53" s="347">
+        <f t="shared" si="15"/>
         <v>0.79262637691942051</v>
       </c>
-      <c r="G53" s="366">
-        <f>$E12/(G39^2)</f>
+      <c r="G53" s="347">
+        <f t="shared" si="15"/>
         <v>3.170505507677682</v>
       </c>
-      <c r="H53" s="366">
-        <f>$E12/(H39^2)</f>
+      <c r="H53" s="347">
+        <f t="shared" si="15"/>
         <v>1.0970607293002363</v>
       </c>
-      <c r="I53" s="366">
-        <f>$E12/(I39^2)</f>
+      <c r="I53" s="347">
+        <f t="shared" si="15"/>
         <v>0.2588167761369537</v>
       </c>
-      <c r="J53" s="366">
-        <f>$E12/(J39^2)</f>
+      <c r="J53" s="347">
+        <f t="shared" si="15"/>
         <v>0.2195640933294794</v>
       </c>
-      <c r="K53" s="366">
-        <f>$E12/(K39^2)</f>
+      <c r="K53" s="347">
+        <f t="shared" si="15"/>
         <v>0.17147136331409857</v>
       </c>
-      <c r="L53" s="366">
-        <f>$E12/(L39^2)</f>
+      <c r="L53" s="347">
+        <f t="shared" si="15"/>
         <v>4.9539148557463797</v>
       </c>
-      <c r="M53" s="366">
-        <f>$E12/(M39^2)</f>
+      <c r="M53" s="347">
+        <f t="shared" si="15"/>
         <v>0.79262637691942051</v>
       </c>
-      <c r="N53" s="366">
-        <f>$E12/(N39^2)</f>
+      <c r="N53" s="347">
+        <f t="shared" si="15"/>
         <v>0.48927554130828449</v>
       </c>
-      <c r="O53" s="357"/>
+      <c r="O53" s="339"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A54" s="364"/>
-      <c r="B54" s="359" t="str">
-        <f>A13</f>
+      <c r="A54" s="385"/>
+      <c r="B54" s="341" t="str">
+        <f t="shared" si="9"/>
         <v>Hot Toilet</v>
       </c>
-      <c r="C54" s="366">
-        <f>$E13/(C40^2)</f>
+      <c r="C54" s="347">
+        <f t="shared" ref="C54:N54" si="16">$E13/(C40^2)</f>
         <v>9.6855613535542187E-2</v>
       </c>
-      <c r="D54" s="366">
-        <f>$E13/(D40^2)</f>
+      <c r="D54" s="347">
+        <f t="shared" si="16"/>
         <v>4.2355433494601046E-2</v>
       </c>
-      <c r="E54" s="366">
-        <f>$E13/(E40^2)</f>
+      <c r="E54" s="347">
+        <f t="shared" si="16"/>
         <v>3.1407076842833032E-2</v>
       </c>
-      <c r="F54" s="366">
-        <f>$E13/(F40^2)</f>
+      <c r="F54" s="347">
+        <f t="shared" si="16"/>
         <v>2.1024572101400626E-2</v>
       </c>
-      <c r="G54" s="366">
-        <f>$E13/(G40^2)</f>
+      <c r="G54" s="347">
+        <f t="shared" si="16"/>
         <v>3.4197497658736913E-2</v>
       </c>
-      <c r="H54" s="366">
-        <f>$E13/(H40^2)</f>
+      <c r="H54" s="347">
+        <f t="shared" si="16"/>
         <v>2.6087852323865793E-2</v>
       </c>
-      <c r="I54" s="366">
-        <f>$E13/(I40^2)</f>
+      <c r="I54" s="347">
+        <f t="shared" si="16"/>
         <v>4.2355433494601046E-2</v>
       </c>
-      <c r="J54" s="366">
-        <f>$E13/(J40^2)</f>
+      <c r="J54" s="347">
+        <f t="shared" si="16"/>
         <v>6.5125714541298563E-2</v>
       </c>
-      <c r="K54" s="366">
-        <f>$E13/(K40^2)</f>
+      <c r="K54" s="347">
+        <f t="shared" si="16"/>
         <v>9.6855613535542187E-2</v>
       </c>
-      <c r="L54" s="366">
-        <f>$E13/(L40^2)</f>
+      <c r="L54" s="347">
+        <f t="shared" si="16"/>
         <v>5.2857490902766473E-2</v>
       </c>
-      <c r="M54" s="366">
-        <f>$E13/(M40^2)</f>
+      <c r="M54" s="347">
+        <f t="shared" si="16"/>
         <v>0.40703571588311599</v>
       </c>
-      <c r="N54" s="366">
-        <f>$E13/(N40^2)</f>
+      <c r="N54" s="347">
+        <f t="shared" si="16"/>
         <v>0.25125661474266431</v>
       </c>
-      <c r="O54" s="357"/>
+      <c r="O54" s="339"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A55" s="364"/>
-      <c r="B55" s="359" t="str">
-        <f>A14</f>
+      <c r="A55" s="385"/>
+      <c r="B55" s="341" t="str">
+        <f t="shared" si="9"/>
         <v>Radiology Waiting</v>
       </c>
-      <c r="C55" s="366">
-        <f>$E14/(C41^2)</f>
+      <c r="C55" s="347">
+        <f t="shared" ref="C55:N55" si="17">$E14/(C41^2)</f>
         <v>7.7336760292987958E-2</v>
       </c>
-      <c r="D55" s="366">
-        <f>$E14/(D41^2)</f>
+      <c r="D55" s="347">
+        <f t="shared" si="17"/>
         <v>0.12470528240743838</v>
       </c>
-      <c r="E55" s="366">
-        <f>$E14/(E41^2)</f>
+      <c r="E55" s="347">
+        <f t="shared" si="17"/>
         <v>0.36154511751287288</v>
       </c>
-      <c r="F55" s="366">
-        <f>$E14/(F41^2)</f>
+      <c r="F55" s="347">
+        <f t="shared" si="17"/>
         <v>0.30934704117195183</v>
       </c>
-      <c r="G55" s="366">
-        <f>$E14/(G41^2)</f>
+      <c r="G55" s="347">
+        <f t="shared" si="17"/>
         <v>0.85929733658875518</v>
       </c>
-      <c r="H55" s="366">
-        <f>$E14/(H41^2)</f>
+      <c r="H55" s="347">
+        <f t="shared" si="17"/>
         <v>0.73218234596911691</v>
       </c>
-      <c r="I55" s="366">
-        <f>$E14/(I41^2)</f>
+      <c r="I55" s="347">
+        <f t="shared" si="17"/>
         <v>3.4371893463550207</v>
       </c>
-      <c r="J55" s="366">
-        <f>$E14/(J41^2)</f>
+      <c r="J55" s="347">
+        <f t="shared" si="17"/>
         <v>1.0226348468494277</v>
       </c>
-      <c r="K55" s="366">
-        <f>$E14/(K41^2)</f>
+      <c r="K55" s="347">
+        <f t="shared" si="17"/>
         <v>0.45450437637752344</v>
       </c>
-      <c r="L55" s="366">
-        <f>$E14/(L41^2)</f>
+      <c r="L55" s="347">
+        <f t="shared" si="17"/>
         <v>1.2373881646878073</v>
       </c>
-      <c r="M55" s="366">
-        <f>$E14/(M41^2)</f>
+      <c r="M55" s="347">
+        <f t="shared" si="17"/>
         <v>1.2373881646878073</v>
       </c>
-      <c r="N55" s="366">
-        <f>$E14/(N41^2)</f>
+      <c r="N55" s="347">
+        <f t="shared" si="17"/>
         <v>0.76381985474556047</v>
       </c>
-      <c r="O55" s="357"/>
+      <c r="O55" s="339"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57" s="351" t="s">
+      <c r="A57" s="333" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B58" s="364" t="s">
+      <c r="B58" s="385" t="s">
         <v>389</v>
       </c>
-      <c r="C58" s="364"/>
-      <c r="D58" s="364"/>
-      <c r="E58" s="364"/>
-      <c r="F58" s="364"/>
-      <c r="G58" s="364"/>
-      <c r="H58" s="364"/>
-      <c r="I58" s="364"/>
-      <c r="J58" s="364"/>
-      <c r="K58" s="364"/>
-      <c r="L58" s="364"/>
-      <c r="M58" s="364"/>
+      <c r="C58" s="385"/>
+      <c r="D58" s="385"/>
+      <c r="E58" s="385"/>
+      <c r="F58" s="385"/>
+      <c r="G58" s="385"/>
+      <c r="H58" s="385"/>
+      <c r="I58" s="385"/>
+      <c r="J58" s="385"/>
+      <c r="K58" s="385"/>
+      <c r="L58" s="385"/>
+      <c r="M58" s="385"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59" s="359" t="s">
+      <c r="A59" s="341" t="s">
         <v>365</v>
       </c>
-      <c r="B59" s="360" t="str">
-        <f>C33</f>
+      <c r="B59" s="342" t="str">
+        <f t="shared" ref="B59:M59" si="18">C33</f>
         <v>Tech area</v>
       </c>
-      <c r="C59" s="360" t="str">
-        <f>D33</f>
+      <c r="C59" s="342" t="str">
+        <f t="shared" si="18"/>
         <v>CT Tech area</v>
       </c>
-      <c r="D59" s="360" t="str">
-        <f>E33</f>
+      <c r="D59" s="342" t="str">
+        <f t="shared" si="18"/>
         <v>US 1</v>
       </c>
-      <c r="E59" s="360" t="str">
-        <f>F33</f>
+      <c r="E59" s="342" t="str">
+        <f t="shared" si="18"/>
         <v>US 2</v>
       </c>
-      <c r="F59" s="360" t="str">
-        <f>G33</f>
+      <c r="F59" s="342" t="str">
+        <f t="shared" si="18"/>
         <v>Office 2221</v>
       </c>
-      <c r="G59" s="360" t="str">
-        <f>H33</f>
+      <c r="G59" s="342" t="str">
+        <f t="shared" si="18"/>
         <v>Office 2302</v>
       </c>
-      <c r="H59" s="360" t="str">
-        <f>I33</f>
+      <c r="H59" s="342" t="str">
+        <f t="shared" si="18"/>
         <v>Consult A</v>
       </c>
-      <c r="I59" s="360" t="str">
-        <f>J33</f>
+      <c r="I59" s="342" t="str">
+        <f t="shared" si="18"/>
         <v>Consult B</v>
       </c>
-      <c r="J59" s="360" t="str">
-        <f>K33</f>
+      <c r="J59" s="342" t="str">
+        <f t="shared" si="18"/>
         <v>Lactation</v>
       </c>
-      <c r="K59" s="360" t="str">
-        <f>L33</f>
+      <c r="K59" s="342" t="str">
+        <f t="shared" si="18"/>
         <v>Reading Room</v>
       </c>
-      <c r="L59" s="360" t="str">
-        <f>M33</f>
+      <c r="L59" s="342" t="str">
+        <f t="shared" si="18"/>
         <v>Floor</v>
       </c>
-      <c r="M59" s="360" t="str">
-        <f>N33</f>
+      <c r="M59" s="342" t="str">
+        <f t="shared" si="18"/>
         <v>Ceiling</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A60" s="359" t="s">
+      <c r="A60" s="341" t="s">
         <v>385</v>
       </c>
-      <c r="B60" s="366">
-        <f>C47</f>
+      <c r="B60" s="347">
+        <f t="shared" ref="B60:M60" si="19">C47</f>
         <v>0.9903830236204284</v>
       </c>
-      <c r="C60" s="366">
-        <f>D47</f>
+      <c r="C60" s="347">
+        <f t="shared" si="19"/>
         <v>1.2069456032276571</v>
       </c>
-      <c r="D60" s="366">
-        <f>E47</f>
+      <c r="D60" s="347">
+        <f t="shared" si="19"/>
         <v>13.621340154463082</v>
       </c>
-      <c r="E60" s="366">
-        <f>F47</f>
+      <c r="E60" s="347">
+        <f t="shared" si="19"/>
         <v>1.371468842771582</v>
       </c>
-      <c r="F60" s="366">
-        <f>G47</f>
+      <c r="F60" s="347">
+        <f t="shared" si="19"/>
         <v>4.6426544264576028</v>
       </c>
-      <c r="G60" s="366">
-        <f>H47</f>
+      <c r="G60" s="347">
+        <f t="shared" si="19"/>
         <v>2.1837049529420849</v>
       </c>
-      <c r="H60" s="366">
-        <f>I47</f>
+      <c r="H60" s="347">
+        <f t="shared" si="19"/>
         <v>4.33463407109216</v>
       </c>
-      <c r="I60" s="366">
-        <f>J47</f>
+      <c r="I60" s="347">
+        <f t="shared" si="19"/>
         <v>2.1385807499842233</v>
       </c>
-      <c r="J60" s="366">
-        <f>K47</f>
+      <c r="J60" s="347">
+        <f t="shared" si="19"/>
         <v>1.7071011492309554</v>
       </c>
-      <c r="K60" s="366">
-        <f>L47</f>
+      <c r="K60" s="347">
+        <f t="shared" si="19"/>
         <v>8.5826167963290843</v>
       </c>
-      <c r="L60" s="366">
-        <f>M47</f>
+      <c r="L60" s="347">
+        <f t="shared" si="19"/>
         <v>4.3504475179746827</v>
       </c>
-      <c r="M60" s="366">
-        <f>N47</f>
+      <c r="M60" s="347">
+        <f t="shared" si="19"/>
         <v>2.6854614308485707</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61" s="359" t="s">
+      <c r="A61" s="341" t="s">
         <v>367</v>
       </c>
-      <c r="B61" s="360">
+      <c r="B61" s="342">
         <f>F18</f>
         <v>0.02</v>
       </c>
-      <c r="C61" s="360">
+      <c r="C61" s="342">
         <f>F19</f>
         <v>0.1</v>
       </c>
-      <c r="D61" s="360">
+      <c r="D61" s="342">
         <f>F20</f>
         <v>0.04</v>
       </c>
-      <c r="E61" s="360">
+      <c r="E61" s="342">
         <f>F21</f>
         <v>0.04</v>
       </c>
-      <c r="F61" s="360">
+      <c r="F61" s="342">
         <f>F22</f>
         <v>0.04</v>
       </c>
-      <c r="G61" s="360">
+      <c r="G61" s="342">
         <f>F23</f>
         <v>0.04</v>
       </c>
-      <c r="H61" s="360">
+      <c r="H61" s="342">
         <f>F24</f>
         <v>0.19999999999999998</v>
       </c>
-      <c r="I61" s="360">
+      <c r="I61" s="342">
         <f>F25</f>
         <v>0.19999999999999998</v>
       </c>
-      <c r="J61" s="360">
+      <c r="J61" s="342">
         <f>F26</f>
         <v>0.19999999999999998</v>
       </c>
-      <c r="K61" s="360">
+      <c r="K61" s="342">
         <f>F27</f>
         <v>0.1</v>
       </c>
-      <c r="L61" s="360">
+      <c r="L61" s="342">
         <f>F28</f>
         <v>0.04</v>
       </c>
-      <c r="M61" s="360">
+      <c r="M61" s="342">
         <f>F29</f>
         <v>0.04</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A62" s="359" t="s">
+      <c r="A62" s="341" t="s">
         <v>386</v>
       </c>
-      <c r="B62" s="366">
+      <c r="B62" s="347">
         <f>B61/B60</f>
         <v>2.0194207213779087E-2</v>
       </c>
-      <c r="C62" s="366">
-        <f t="shared" ref="C62:M62" si="6">C61/C60</f>
+      <c r="C62" s="347">
+        <f t="shared" ref="C62:M62" si="20">C61/C60</f>
         <v>8.2853775458128706E-2</v>
       </c>
-      <c r="D62" s="366">
-        <f t="shared" si="6"/>
+      <c r="D62" s="347">
+        <f t="shared" si="20"/>
         <v>2.9365686155993875E-3</v>
       </c>
-      <c r="E62" s="366">
-        <f t="shared" si="6"/>
+      <c r="E62" s="347">
+        <f t="shared" si="20"/>
         <v>2.9165810226621385E-2</v>
       </c>
-      <c r="F62" s="366">
-        <f t="shared" si="6"/>
+      <c r="F62" s="347">
+        <f t="shared" si="20"/>
         <v>8.6157607966786467E-3</v>
       </c>
-      <c r="G62" s="366">
-        <f t="shared" si="6"/>
+      <c r="G62" s="347">
+        <f t="shared" si="20"/>
         <v>1.8317492913183339E-2</v>
       </c>
-      <c r="H62" s="366">
-        <f t="shared" si="6"/>
+      <c r="H62" s="347">
+        <f t="shared" si="20"/>
         <v>4.613999629952794E-2</v>
       </c>
-      <c r="I62" s="366">
-        <f t="shared" si="6"/>
+      <c r="I62" s="347">
+        <f t="shared" si="20"/>
         <v>9.3519966455077944E-2</v>
       </c>
-      <c r="J62" s="366">
-        <f t="shared" si="6"/>
+      <c r="J62" s="347">
+        <f t="shared" si="20"/>
         <v>0.11715767404298184</v>
       </c>
-      <c r="K62" s="366">
-        <f t="shared" si="6"/>
+      <c r="K62" s="347">
+        <f t="shared" si="20"/>
         <v>1.1651458101073734E-2</v>
       </c>
-      <c r="L62" s="366">
-        <f t="shared" si="6"/>
+      <c r="L62" s="347">
+        <f t="shared" si="20"/>
         <v>9.194456394366916E-3</v>
       </c>
-      <c r="M62" s="366">
-        <f t="shared" si="6"/>
+      <c r="M62" s="347">
+        <f t="shared" si="20"/>
         <v>1.4895019358874398E-2</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A63" s="359" t="s">
+      <c r="A63" s="341" t="s">
         <v>387</v>
       </c>
-      <c r="B63" s="366">
+      <c r="B63" s="347">
         <f>-LN(B62)/LN(2)</f>
         <v>5.6299146800892492</v>
       </c>
-      <c r="C63" s="366">
-        <f t="shared" ref="C63:M63" si="7">-LN(C62)/LN(2)</f>
+      <c r="C63" s="347">
+        <f t="shared" ref="C63:M63" si="21">-LN(C62)/LN(2)</f>
         <v>3.5932887504979729</v>
       </c>
-      <c r="D63" s="366">
-        <f t="shared" si="7"/>
+      <c r="D63" s="347">
+        <f t="shared" si="21"/>
         <v>8.4116529365497357</v>
       </c>
-      <c r="E63" s="366">
-        <f t="shared" si="7"/>
+      <c r="E63" s="347">
+        <f t="shared" si="21"/>
         <v>5.0995780369776718</v>
       </c>
-      <c r="F63" s="366">
-        <f t="shared" si="7"/>
+      <c r="F63" s="347">
+        <f t="shared" si="21"/>
         <v>6.8588060884285262</v>
       </c>
-      <c r="G63" s="366">
-        <f t="shared" si="7"/>
+      <c r="G63" s="347">
+        <f t="shared" si="21"/>
         <v>5.7706341322585439</v>
       </c>
-      <c r="H63" s="366">
-        <f t="shared" si="7"/>
+      <c r="H63" s="347">
+        <f t="shared" si="21"/>
         <v>4.4378383014593537</v>
       </c>
-      <c r="I63" s="366">
-        <f t="shared" si="7"/>
+      <c r="I63" s="347">
+        <f t="shared" si="21"/>
         <v>3.4185817773891309</v>
       </c>
-      <c r="J63" s="366">
-        <f t="shared" si="7"/>
+      <c r="J63" s="347">
+        <f t="shared" si="21"/>
         <v>3.093476638414439</v>
       </c>
-      <c r="K63" s="366">
-        <f t="shared" si="7"/>
+      <c r="K63" s="347">
+        <f t="shared" si="21"/>
         <v>6.4233456800833784</v>
       </c>
-      <c r="L63" s="366">
-        <f t="shared" si="7"/>
+      <c r="L63" s="347">
+        <f t="shared" si="21"/>
         <v>6.7650200042428716</v>
       </c>
-      <c r="M63" s="366">
-        <f t="shared" si="7"/>
+      <c r="M63" s="347">
+        <f t="shared" si="21"/>
         <v>6.0690261911329726</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A64" s="359" t="s">
+      <c r="A64" s="341" t="s">
         <v>388</v>
       </c>
-      <c r="B64" s="362">
-        <f>B63*PBHVL</f>
+      <c r="B64" s="344">
+        <f t="shared" ref="B64:M64" si="22">B63*PBHVL</f>
         <v>1.5193086603894512</v>
       </c>
-      <c r="C64" s="362">
-        <f>C63*PBHVL</f>
+      <c r="C64" s="344">
+        <f t="shared" si="22"/>
         <v>0.96969759368094288</v>
       </c>
-      <c r="D64" s="362">
-        <f>D63*PBHVL</f>
+      <c r="D64" s="344">
+        <f t="shared" si="22"/>
         <v>2.2699983713585827</v>
       </c>
-      <c r="E64" s="362">
-        <f>E63*PBHVL</f>
+      <c r="E64" s="344">
+        <f t="shared" si="22"/>
         <v>1.376190140733925</v>
       </c>
-      <c r="F64" s="362">
-        <f>F63*PBHVL</f>
+      <c r="F64" s="344">
+        <f t="shared" si="22"/>
         <v>1.8509416362800299</v>
       </c>
-      <c r="G64" s="362">
-        <f>G63*PBHVL</f>
+      <c r="G64" s="344">
+        <f t="shared" si="22"/>
         <v>1.5572837087720102</v>
       </c>
-      <c r="H64" s="362">
-        <f>H63*PBHVL</f>
+      <c r="H64" s="344">
+        <f t="shared" si="22"/>
         <v>1.1976107184466822</v>
       </c>
-      <c r="I64" s="362">
-        <f>I63*PBHVL</f>
+      <c r="I64" s="344">
+        <f t="shared" si="22"/>
         <v>0.92255055285394361</v>
       </c>
-      <c r="J64" s="362">
-        <f>J63*PBHVL</f>
+      <c r="J64" s="344">
+        <f t="shared" si="22"/>
         <v>0.83481653178108151</v>
       </c>
-      <c r="K64" s="362">
-        <f>K63*PBHVL</f>
+      <c r="K64" s="344">
+        <f t="shared" si="22"/>
         <v>1.7334267524407918</v>
       </c>
-      <c r="L64" s="362">
-        <f>L63*PBHVL</f>
+      <c r="L64" s="344">
+        <f t="shared" si="22"/>
         <v>1.8256321923498742</v>
       </c>
-      <c r="M64" s="362">
-        <f>M63*PBHVL</f>
+      <c r="M64" s="344">
+        <f t="shared" si="22"/>
         <v>1.6378088436985971</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A66" s="349" t="s">
+      <c r="A66" s="331" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C67" s="364" t="s">
+      <c r="C67" s="385" t="s">
         <v>389</v>
       </c>
-      <c r="D67" s="364"/>
-      <c r="E67" s="364"/>
-      <c r="F67" s="364"/>
-      <c r="G67" s="364"/>
-      <c r="H67" s="364"/>
-      <c r="I67" s="364"/>
-      <c r="J67" s="364"/>
-      <c r="K67" s="364"/>
-      <c r="L67" s="364"/>
-      <c r="M67" s="364"/>
-      <c r="N67" s="364"/>
+      <c r="D67" s="385"/>
+      <c r="E67" s="385"/>
+      <c r="F67" s="385"/>
+      <c r="G67" s="385"/>
+      <c r="H67" s="385"/>
+      <c r="I67" s="385"/>
+      <c r="J67" s="385"/>
+      <c r="K67" s="385"/>
+      <c r="L67" s="385"/>
+      <c r="M67" s="385"/>
+      <c r="N67" s="385"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C68" s="360" t="str">
-        <f>C33</f>
+      <c r="C68" s="342" t="str">
+        <f t="shared" ref="C68:N68" si="23">C33</f>
         <v>Tech area</v>
       </c>
-      <c r="D68" s="360" t="str">
-        <f>D33</f>
+      <c r="D68" s="342" t="str">
+        <f t="shared" si="23"/>
         <v>CT Tech area</v>
       </c>
-      <c r="E68" s="360" t="str">
-        <f>E33</f>
+      <c r="E68" s="342" t="str">
+        <f t="shared" si="23"/>
         <v>US 1</v>
       </c>
-      <c r="F68" s="360" t="str">
-        <f>F33</f>
+      <c r="F68" s="342" t="str">
+        <f t="shared" si="23"/>
         <v>US 2</v>
       </c>
-      <c r="G68" s="360" t="str">
-        <f>G33</f>
+      <c r="G68" s="342" t="str">
+        <f t="shared" si="23"/>
         <v>Office 2221</v>
       </c>
-      <c r="H68" s="360" t="str">
-        <f>H33</f>
+      <c r="H68" s="342" t="str">
+        <f t="shared" si="23"/>
         <v>Office 2302</v>
       </c>
-      <c r="I68" s="360" t="str">
-        <f>I33</f>
+      <c r="I68" s="342" t="str">
+        <f t="shared" si="23"/>
         <v>Consult A</v>
       </c>
-      <c r="J68" s="360" t="str">
-        <f>J33</f>
+      <c r="J68" s="342" t="str">
+        <f t="shared" si="23"/>
         <v>Consult B</v>
       </c>
-      <c r="K68" s="360" t="str">
-        <f>K33</f>
+      <c r="K68" s="342" t="str">
+        <f t="shared" si="23"/>
         <v>Lactation</v>
       </c>
-      <c r="L68" s="360" t="str">
-        <f>L33</f>
+      <c r="L68" s="342" t="str">
+        <f t="shared" si="23"/>
         <v>Reading Room</v>
       </c>
-      <c r="M68" s="360" t="str">
-        <f>M33</f>
+      <c r="M68" s="342" t="str">
+        <f t="shared" si="23"/>
         <v>Floor</v>
       </c>
-      <c r="N68" s="360" t="str">
-        <f>N33</f>
+      <c r="N68" s="342" t="str">
+        <f t="shared" si="23"/>
         <v>Ceiling</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" s="369" t="s">
+      <c r="A69" s="386" t="s">
         <v>390</v>
       </c>
-      <c r="B69" s="359" t="str">
-        <f>A7</f>
+      <c r="B69" s="341" t="str">
+        <f t="shared" ref="B69:B76" si="24">A7</f>
         <v>Hot lab</v>
       </c>
-      <c r="C69" s="362">
-        <f>-LN((B$61/C48))/LN(2)*PBHVL</f>
+      <c r="C69" s="344">
+        <f t="shared" ref="C69:N69" si="25">-LN((B$61/C48))/LN(2)*PBHVL</f>
         <v>0.2111682842584843</v>
       </c>
-      <c r="D69" s="362">
-        <f>-LN((C$61/D48))/LN(2)*PBHVL</f>
+      <c r="D69" s="344">
+        <f t="shared" si="25"/>
         <v>-0.25375464104747575</v>
       </c>
-      <c r="E69" s="362">
-        <f>-LN((D$61/E48))/LN(2)*PBHVL</f>
+      <c r="E69" s="344">
+        <f t="shared" si="25"/>
         <v>0.33367634585173811</v>
       </c>
-      <c r="F69" s="362">
-        <f>-LN((E$61/F48))/LN(2)*PBHVL</f>
+      <c r="F69" s="344">
+        <f t="shared" si="25"/>
         <v>9.0571666920018813E-3</v>
       </c>
-      <c r="G69" s="362">
-        <f>-LN((F$61/G48))/LN(2)*PBHVL</f>
+      <c r="G69" s="344">
+        <f t="shared" si="25"/>
         <v>0.4810318162517197</v>
       </c>
-      <c r="H69" s="362">
-        <f>-LN((G$61/H48))/LN(2)*PBHVL</f>
+      <c r="H69" s="344">
+        <f t="shared" si="25"/>
         <v>0.20981878280570193</v>
       </c>
-      <c r="I69" s="362">
-        <f>-LN((H$61/I48))/LN(2)*PBHVL</f>
+      <c r="I69" s="344">
+        <f t="shared" si="25"/>
         <v>-0.11243236477016001</v>
       </c>
-      <c r="J69" s="362">
-        <f>-LN((I$61/J48))/LN(2)*PBHVL</f>
+      <c r="J69" s="344">
+        <f t="shared" si="25"/>
         <v>-3.6051128808088388E-3</v>
       </c>
-      <c r="K69" s="362">
-        <f>-LN((J$61/K48))/LN(2)*PBHVL</f>
+      <c r="K69" s="344">
+        <f t="shared" si="25"/>
         <v>-7.781948604215512E-2</v>
       </c>
-      <c r="L69" s="362">
-        <f>-LN((K$61/L48))/LN(2)*PBHVL</f>
+      <c r="L69" s="344">
+        <f t="shared" si="25"/>
         <v>0.88802566644085579</v>
       </c>
-      <c r="M69" s="362">
-        <f>-LN((L$61/M48))/LN(2)*PBHVL</f>
+      <c r="M69" s="344">
+        <f t="shared" si="25"/>
         <v>0.62299860383981909</v>
       </c>
-      <c r="N69" s="362">
-        <f>-LN((M$61/N48))/LN(2)*PBHVL</f>
+      <c r="N69" s="344">
+        <f t="shared" si="25"/>
         <v>0.43517525518854178</v>
       </c>
-      <c r="O69" s="356"/>
+      <c r="O69" s="338"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A70" s="370"/>
-      <c r="B70" s="359" t="str">
-        <f>A8</f>
+      <c r="A70" s="387"/>
+      <c r="B70" s="341" t="str">
+        <f t="shared" si="24"/>
         <v>NM Hold 1</v>
       </c>
-      <c r="C70" s="362">
-        <f>-LN((B$61/C49))/LN(2)*PBHVL</f>
+      <c r="C70" s="344">
+        <f t="shared" ref="C70:N70" si="26">-LN((B$61/C49))/LN(2)*PBHVL</f>
         <v>0.64271260766638783</v>
       </c>
-      <c r="D70" s="362">
-        <f>-LN((C$61/D49))/LN(2)*PBHVL</f>
+      <c r="D70" s="344">
+        <f t="shared" si="26"/>
         <v>-0.20789807998429763</v>
       </c>
-      <c r="E70" s="362">
-        <f>-LN((D$61/E49))/LN(2)*PBHVL</f>
+      <c r="E70" s="344">
+        <f t="shared" si="26"/>
         <v>7.055451448891846E-2</v>
       </c>
-      <c r="F70" s="362">
-        <f>-LN((E$61/F49))/LN(2)*PBHVL</f>
+      <c r="F70" s="344">
+        <f t="shared" si="26"/>
         <v>-0.12588633674457109</v>
       </c>
-      <c r="G70" s="362">
-        <f>-LN((F$61/G49))/LN(2)*PBHVL</f>
+      <c r="G70" s="344">
+        <f t="shared" si="26"/>
         <v>9.1137075637720985E-2</v>
       </c>
-      <c r="H70" s="362">
-        <f>-LN((G$61/H49))/LN(2)*PBHVL</f>
+      <c r="H70" s="344">
+        <f t="shared" si="26"/>
         <v>-2.4911200725219192E-2</v>
       </c>
-      <c r="I70" s="362">
-        <f>-LN((H$61/I49))/LN(2)*PBHVL</f>
+      <c r="I70" s="344">
+        <f t="shared" si="26"/>
         <v>-0.38229589676339548</v>
       </c>
-      <c r="J70" s="362">
-        <f>-LN((I$61/J49))/LN(2)*PBHVL</f>
+      <c r="J70" s="344">
+        <f t="shared" si="26"/>
         <v>-0.23352852831810289</v>
       </c>
-      <c r="K70" s="362">
-        <f>-LN((J$61/K49))/LN(2)*PBHVL</f>
+      <c r="K70" s="344">
+        <f t="shared" si="26"/>
         <v>4.2604229035640177E-3</v>
       </c>
-      <c r="L70" s="362">
-        <f>-LN((K$61/L49))/LN(2)*PBHVL</f>
+      <c r="L70" s="344">
+        <f t="shared" si="26"/>
         <v>-3.6051128808089242E-3</v>
       </c>
-      <c r="M70" s="362">
-        <f>-LN((L$61/M49))/LN(2)*PBHVL</f>
+      <c r="M70" s="344">
+        <f t="shared" si="26"/>
         <v>0.89286213583305474</v>
       </c>
-      <c r="N70" s="362">
-        <f>-LN((M$61/N49))/LN(2)*PBHVL</f>
+      <c r="N70" s="344">
+        <f t="shared" si="26"/>
         <v>0.70503878718177726</v>
       </c>
-      <c r="O70" s="356"/>
+      <c r="O70" s="338"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A71" s="370"/>
-      <c r="B71" s="359" t="str">
-        <f>A9</f>
+      <c r="A71" s="387"/>
+      <c r="B71" s="341" t="str">
+        <f t="shared" si="24"/>
         <v>NM Hold 2</v>
       </c>
-      <c r="C71" s="362">
-        <f>-LN((B$61/C50))/LN(2)*PBHVL</f>
+      <c r="C71" s="344">
+        <f t="shared" ref="C71:N71" si="27">-LN((B$61/C50))/LN(2)*PBHVL</f>
         <v>0.56668528477185676</v>
       </c>
-      <c r="D71" s="362">
-        <f>-LN((C$61/D50))/LN(2)*PBHVL</f>
+      <c r="D71" s="344">
+        <f t="shared" si="27"/>
         <v>-3.6051128808089242E-3</v>
       </c>
-      <c r="E71" s="362">
-        <f>-LN((D$61/E50))/LN(2)*PBHVL</f>
+      <c r="E71" s="344">
+        <f t="shared" si="27"/>
         <v>0.43517525518854172</v>
       </c>
-      <c r="F71" s="362">
-        <f>-LN((E$61/F50))/LN(2)*PBHVL</f>
+      <c r="F71" s="344">
+        <f t="shared" si="27"/>
         <v>0.14884210474309492</v>
       </c>
-      <c r="G71" s="362">
-        <f>-LN((F$61/G50))/LN(2)*PBHVL</f>
+      <c r="G71" s="344">
+        <f t="shared" si="27"/>
         <v>0.52688837731489779</v>
       </c>
-      <c r="H71" s="362">
-        <f>-LN((G$61/H50))/LN(2)*PBHVL</f>
+      <c r="H71" s="344">
+        <f t="shared" si="27"/>
         <v>0.29682175277862122</v>
       </c>
-      <c r="I71" s="362">
-        <f>-LN((H$61/I50))/LN(2)*PBHVL</f>
+      <c r="I71" s="344">
+        <f t="shared" si="27"/>
         <v>4.2604229035640177E-3</v>
       </c>
-      <c r="J71" s="362">
-        <f>-LN((I$61/J50))/LN(2)*PBHVL</f>
+      <c r="J71" s="344">
+        <f t="shared" si="27"/>
         <v>0.19204404595108038</v>
       </c>
-      <c r="K71" s="362">
-        <f>-LN((J$61/K50))/LN(2)*PBHVL</f>
+      <c r="K71" s="344">
+        <f t="shared" si="27"/>
         <v>0.26625841911242665</v>
       </c>
-      <c r="L71" s="362">
-        <f>-LN((K$61/L50))/LN(2)*PBHVL</f>
+      <c r="L71" s="344">
+        <f t="shared" si="27"/>
         <v>0.66266919405801594</v>
       </c>
-      <c r="M71" s="362">
-        <f>-LN((L$61/M50))/LN(2)*PBHVL</f>
+      <c r="M71" s="344">
+        <f t="shared" si="27"/>
         <v>0.89286213583305474</v>
       </c>
-      <c r="N71" s="362">
-        <f>-LN((M$61/N50))/LN(2)*PBHVL</f>
+      <c r="N71" s="344">
+        <f t="shared" si="27"/>
         <v>0.70503878718177726</v>
       </c>
-      <c r="O71" s="356"/>
+      <c r="O71" s="338"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A72" s="370"/>
-      <c r="B72" s="359" t="str">
-        <f>A10</f>
+      <c r="A72" s="387"/>
+      <c r="B72" s="341" t="str">
+        <f t="shared" si="24"/>
         <v>NM Camera 1</v>
       </c>
-      <c r="C72" s="362">
-        <f>-LN((B$61/C51))/LN(2)*PBHVL</f>
+      <c r="C72" s="344">
+        <f t="shared" ref="C72:N72" si="28">-LN((B$61/C51))/LN(2)*PBHVL</f>
         <v>1.0480958619497696</v>
       </c>
-      <c r="D72" s="362">
-        <f>-LN((C$61/D51))/LN(2)*PBHVL</f>
+      <c r="D72" s="344">
+        <f t="shared" si="28"/>
         <v>-0.10250384718858385</v>
       </c>
-      <c r="E72" s="362">
-        <f>-LN((D$61/E51))/LN(2)*PBHVL</f>
+      <c r="E72" s="344">
+        <f t="shared" si="28"/>
         <v>5.8547453103158328E-2</v>
       </c>
-      <c r="F72" s="362">
-        <f>-LN((E$61/F51))/LN(2)*PBHVL</f>
+      <c r="F72" s="344">
+        <f t="shared" si="28"/>
         <v>-0.12746849254809384</v>
       </c>
-      <c r="G72" s="362">
-        <f>-LN((F$61/G51))/LN(2)*PBHVL</f>
+      <c r="G72" s="344">
+        <f t="shared" si="28"/>
         <v>3.4212298866574294E-2</v>
       </c>
-      <c r="H72" s="362">
-        <f>-LN((G$61/H51))/LN(2)*PBHVL</f>
+      <c r="H72" s="344">
+        <f t="shared" si="28"/>
         <v>-8.7528375992152352E-2</v>
       </c>
-      <c r="I72" s="362">
-        <f>-LN((H$61/I51))/LN(2)*PBHVL</f>
+      <c r="I72" s="344">
+        <f t="shared" si="28"/>
         <v>-0.55559741288576814</v>
       </c>
-      <c r="J72" s="362">
-        <f>-LN((I$61/J51))/LN(2)*PBHVL</f>
+      <c r="J72" s="344">
+        <f t="shared" si="28"/>
         <v>-0.4623128239119112</v>
       </c>
-      <c r="K72" s="362">
-        <f>-LN((J$61/K51))/LN(2)*PBHVL</f>
+      <c r="K72" s="344">
+        <f t="shared" si="28"/>
         <v>-0.32317239717160196</v>
       </c>
-      <c r="L72" s="362">
-        <f>-LN((K$61/L51))/LN(2)*PBHVL</f>
+      <c r="L72" s="344">
+        <f t="shared" si="28"/>
         <v>-0.11823491875732949</v>
       </c>
-      <c r="M72" s="362">
-        <f>-LN((L$61/M51))/LN(2)*PBHVL</f>
+      <c r="M72" s="344">
+        <f t="shared" si="28"/>
         <v>0.95198563542484815</v>
       </c>
-      <c r="N72" s="362">
-        <f>-LN((M$61/N51))/LN(2)*PBHVL</f>
+      <c r="N72" s="344">
+        <f t="shared" si="28"/>
         <v>0.76416228677357079</v>
       </c>
-      <c r="O72" s="356"/>
+      <c r="O72" s="338"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A73" s="370"/>
-      <c r="B73" s="359" t="str">
-        <f>A11</f>
+      <c r="A73" s="387"/>
+      <c r="B73" s="341" t="str">
+        <f t="shared" si="24"/>
         <v>NM Camera 2</v>
       </c>
-      <c r="C73" s="362">
-        <f>-LN((B$61/C52))/LN(2)*PBHVL</f>
+      <c r="C73" s="344">
+        <f t="shared" ref="C73:N73" si="29">-LN((B$61/C52))/LN(2)*PBHVL</f>
         <v>0.84380289484628079</v>
       </c>
-      <c r="D73" s="362">
-        <f>-LN((C$61/D52))/LN(2)*PBHVL</f>
+      <c r="D73" s="344">
+        <f t="shared" si="29"/>
         <v>0.4864181988081045</v>
       </c>
-      <c r="E73" s="362">
-        <f>-LN((D$61/E52))/LN(2)*PBHVL</f>
+      <c r="E73" s="344">
+        <f t="shared" si="29"/>
         <v>0.68998763921598549</v>
       </c>
-      <c r="F73" s="362">
-        <f>-LN((E$61/F52))/LN(2)*PBHVL</f>
+      <c r="F73" s="344">
+        <f t="shared" si="29"/>
         <v>0.32054544931202117</v>
       </c>
-      <c r="G73" s="362">
-        <f>-LN((F$61/G52))/LN(2)*PBHVL</f>
+      <c r="G73" s="344">
+        <f t="shared" si="29"/>
         <v>0.61073336782133081</v>
       </c>
-      <c r="H73" s="362">
-        <f>-LN((G$61/H52))/LN(2)*PBHVL</f>
+      <c r="H73" s="344">
+        <f t="shared" si="29"/>
         <v>0.37426754615957197</v>
       </c>
-      <c r="I73" s="362">
-        <f>-LN((H$61/I52))/LN(2)*PBHVL</f>
+      <c r="I73" s="344">
+        <f t="shared" si="29"/>
         <v>-0.19463114145568225</v>
       </c>
-      <c r="J73" s="362">
-        <f>-LN((I$61/J52))/LN(2)*PBHVL</f>
+      <c r="J73" s="344">
+        <f t="shared" si="29"/>
         <v>-0.15363948988693457</v>
       </c>
-      <c r="K73" s="362">
-        <f>-LN((J$61/K52))/LN(2)*PBHVL</f>
+      <c r="K73" s="344">
+        <f t="shared" si="29"/>
         <v>-0.15363948988693457</v>
       </c>
-      <c r="L73" s="362">
-        <f>-LN((K$61/L52))/LN(2)*PBHVL</f>
+      <c r="L73" s="344">
+        <f t="shared" si="29"/>
         <v>0.72179269364980936</v>
       </c>
-      <c r="M73" s="362">
-        <f>-LN((L$61/M52))/LN(2)*PBHVL</f>
+      <c r="M73" s="344">
+        <f t="shared" si="29"/>
         <v>0.95198563542484815</v>
       </c>
-      <c r="N73" s="362">
-        <f>-LN((M$61/N52))/LN(2)*PBHVL</f>
+      <c r="N73" s="344">
+        <f t="shared" si="29"/>
         <v>0.76416228677357079</v>
       </c>
-      <c r="O73" s="356"/>
+      <c r="O73" s="338"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A74" s="370"/>
-      <c r="B74" s="359" t="str">
-        <f>A12</f>
+      <c r="A74" s="387"/>
+      <c r="B74" s="341" t="str">
+        <f t="shared" si="24"/>
         <v>Stress Lab</v>
       </c>
-      <c r="C74" s="362">
-        <f>-LN((B$61/C53))/LN(2)*PBHVL</f>
+      <c r="C74" s="344">
+        <f t="shared" ref="C74:N74" si="30">-LN((B$61/C53))/LN(2)*PBHVL</f>
         <v>0.70368928572899481</v>
       </c>
-      <c r="D74" s="362">
-        <f>-LN((C$61/D53))/LN(2)*PBHVL</f>
+      <c r="D74" s="344">
+        <f t="shared" si="30"/>
         <v>0.54398748689003495</v>
       </c>
-      <c r="E74" s="362">
-        <f>-LN((D$61/E53))/LN(2)*PBHVL</f>
+      <c r="E74" s="344">
+        <f t="shared" si="30"/>
         <v>2.2421797957992324</v>
       </c>
-      <c r="F74" s="362">
-        <f>-LN((E$61/F53))/LN(2)*PBHVL</f>
+      <c r="F74" s="344">
+        <f t="shared" si="30"/>
         <v>1.1627256678262901</v>
       </c>
-      <c r="G74" s="362">
-        <f>-LN((F$61/G53))/LN(2)*PBHVL</f>
+      <c r="G74" s="344">
+        <f t="shared" si="30"/>
         <v>1.7024527318127611</v>
       </c>
-      <c r="H74" s="362">
-        <f>-LN((G$61/H53))/LN(2)*PBHVL</f>
+      <c r="H74" s="344">
+        <f t="shared" si="30"/>
         <v>1.2892729107786438</v>
       </c>
-      <c r="I74" s="362">
-        <f>-LN((H$61/I53))/LN(2)*PBHVL</f>
+      <c r="I74" s="344">
+        <f t="shared" si="30"/>
         <v>0.10037064942848542</v>
       </c>
-      <c r="J74" s="362">
-        <f>-LN((I$61/J53))/LN(2)*PBHVL</f>
+      <c r="J74" s="344">
+        <f t="shared" si="30"/>
         <v>3.63350036751326E-2</v>
       </c>
-      <c r="K74" s="362">
-        <f>-LN((J$61/K53))/LN(2)*PBHVL</f>
+      <c r="K74" s="344">
+        <f t="shared" si="30"/>
         <v>-5.9918431948771236E-2</v>
       </c>
-      <c r="L74" s="362">
-        <f>-LN((K$61/L53))/LN(2)*PBHVL</f>
+      <c r="L74" s="344">
+        <f t="shared" si="30"/>
         <v>1.5194658525536828</v>
       </c>
-      <c r="M74" s="362">
-        <f>-LN((L$61/M53))/LN(2)*PBHVL</f>
+      <c r="M74" s="344">
+        <f t="shared" si="30"/>
         <v>1.1627256678262901</v>
       </c>
-      <c r="N74" s="362">
-        <f>-LN((M$61/N53))/LN(2)*PBHVL</f>
+      <c r="N74" s="344">
+        <f t="shared" si="30"/>
         <v>0.9749023191750128</v>
       </c>
-      <c r="O74" s="356"/>
+      <c r="O74" s="338"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A75" s="370"/>
-      <c r="B75" s="359" t="str">
-        <f>A13</f>
+      <c r="A75" s="387"/>
+      <c r="B75" s="341" t="str">
+        <f t="shared" si="24"/>
         <v>Hot Toilet</v>
       </c>
-      <c r="C75" s="362">
-        <f>-LN((B$61/C54))/LN(2)*PBHVL</f>
+      <c r="C75" s="344">
+        <f t="shared" ref="C75:N75" si="31">-LN((B$61/C54))/LN(2)*PBHVL</f>
         <v>0.61416505123607945</v>
       </c>
-      <c r="D75" s="362">
-        <f>-LN((C$61/D54))/LN(2)*PBHVL</f>
+      <c r="D75" s="344">
+        <f t="shared" si="31"/>
         <v>-0.33446374488138481</v>
       </c>
-      <c r="E75" s="362">
-        <f>-LN((D$61/E54))/LN(2)*PBHVL</f>
+      <c r="E75" s="344">
+        <f t="shared" si="31"/>
         <v>-9.415817319498769E-2</v>
       </c>
-      <c r="F75" s="362">
-        <f>-LN((E$61/F54))/LN(2)*PBHVL</f>
+      <c r="F75" s="344">
+        <f t="shared" si="31"/>
         <v>-0.25041272969829204</v>
       </c>
-      <c r="G75" s="362">
-        <f>-LN((F$61/G54))/LN(2)*PBHVL</f>
+      <c r="G75" s="344">
+        <f t="shared" si="31"/>
         <v>-6.1018637496239404E-2</v>
       </c>
-      <c r="H75" s="362">
-        <f>-LN((G$61/H54))/LN(2)*PBHVL</f>
+      <c r="H75" s="344">
+        <f t="shared" si="31"/>
         <v>-0.16640374237787289</v>
       </c>
-      <c r="I75" s="362">
-        <f>-LN((H$61/I54))/LN(2)*PBHVL</f>
+      <c r="I75" s="344">
+        <f t="shared" si="31"/>
         <v>-0.60432727687462018</v>
       </c>
-      <c r="J75" s="362">
-        <f>-LN((I$61/J54))/LN(2)*PBHVL</f>
+      <c r="J75" s="344">
+        <f t="shared" si="31"/>
         <v>-0.43682831473941691</v>
       </c>
-      <c r="K75" s="362">
-        <f>-LN((J$61/K54))/LN(2)*PBHVL</f>
+      <c r="K75" s="344">
+        <f t="shared" si="31"/>
         <v>-0.28230219747778407</v>
       </c>
-      <c r="L75" s="362">
-        <f>-LN((K$61/L54))/LN(2)*PBHVL</f>
+      <c r="L75" s="344">
+        <f t="shared" si="31"/>
         <v>-0.24822591493896465</v>
       </c>
-      <c r="M75" s="362">
-        <f>-LN((L$61/M54))/LN(2)*PBHVL</f>
+      <c r="M75" s="344">
+        <f t="shared" si="31"/>
         <v>0.90325577143599622</v>
       </c>
-      <c r="N75" s="362">
-        <f>-LN((M$61/N54))/LN(2)*PBHVL</f>
+      <c r="N75" s="344">
+        <f t="shared" si="31"/>
         <v>0.71543242278471875</v>
       </c>
-      <c r="O75" s="356"/>
+      <c r="O75" s="338"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A76" s="371"/>
-      <c r="B76" s="359" t="str">
-        <f>A14</f>
+      <c r="A76" s="388"/>
+      <c r="B76" s="341" t="str">
+        <f t="shared" si="24"/>
         <v>Radiology Waiting</v>
       </c>
-      <c r="C76" s="362">
-        <f>-LN((B$61/C55))/LN(2)*PBHVL</f>
+      <c r="C76" s="344">
+        <f t="shared" ref="C76:N76" si="32">-LN((B$61/C55))/LN(2)*PBHVL</f>
         <v>0.52654539892616026</v>
       </c>
-      <c r="D76" s="362">
-        <f>-LN((C$61/D55))/LN(2)*PBHVL</f>
+      <c r="D76" s="344">
+        <f t="shared" si="32"/>
         <v>8.5957627856784416E-2</v>
       </c>
-      <c r="E76" s="362">
-        <f>-LN((D$61/E55))/LN(2)*PBHVL</f>
+      <c r="E76" s="344">
+        <f t="shared" si="32"/>
         <v>0.85711458631471205</v>
       </c>
-      <c r="F76" s="362">
-        <f>-LN((E$61/F55))/LN(2)*PBHVL</f>
+      <c r="F76" s="344">
+        <f t="shared" si="32"/>
         <v>0.7964089309193958</v>
       </c>
-      <c r="G76" s="362">
-        <f>-LN((F$61/G55))/LN(2)*PBHVL</f>
+      <c r="G76" s="344">
+        <f t="shared" si="32"/>
         <v>1.1941692073177674</v>
       </c>
-      <c r="H76" s="362">
-        <f>-LN((G$61/H55))/LN(2)*PBHVL</f>
+      <c r="H76" s="344">
+        <f t="shared" si="32"/>
         <v>1.1318430278023779</v>
       </c>
-      <c r="I76" s="362">
-        <f>-LN((H$61/I55))/LN(2)*PBHVL</f>
+      <c r="I76" s="344">
+        <f t="shared" si="32"/>
         <v>1.1072925545836103</v>
       </c>
-      <c r="J76" s="362">
-        <f>-LN((I$61/J55))/LN(2)*PBHVL</f>
+      <c r="J76" s="344">
+        <f t="shared" si="32"/>
         <v>0.63531790502389252</v>
       </c>
-      <c r="K76" s="362">
-        <f>-LN((J$61/K55))/LN(2)*PBHVL</f>
+      <c r="K76" s="344">
+        <f t="shared" si="32"/>
         <v>0.31959781196747894</v>
       </c>
-      <c r="L76" s="362">
-        <f>-LN((K$61/L55))/LN(2)*PBHVL</f>
+      <c r="L76" s="344">
+        <f t="shared" si="32"/>
         <v>0.97939581017847421</v>
       </c>
-      <c r="M76" s="362">
-        <f>-LN((L$61/M55))/LN(2)*PBHVL</f>
+      <c r="M76" s="344">
+        <f t="shared" si="32"/>
         <v>1.3361359949058669</v>
       </c>
-      <c r="N76" s="362">
-        <f>-LN((M$61/N55))/LN(2)*PBHVL</f>
+      <c r="N76" s="344">
+        <f t="shared" si="32"/>
         <v>1.1483126462545894</v>
       </c>
-      <c r="O76" s="356"/>
+      <c r="O76" s="338"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -30391,7 +32639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -30683,14 +32931,14 @@
       <c r="M18" s="263"/>
       <c r="N18" s="262"/>
       <c r="P18" s="277"/>
-      <c r="Q18" s="337" t="s">
+      <c r="Q18" s="389" t="s">
         <v>170</v>
       </c>
-      <c r="R18" s="337"/>
-      <c r="S18" s="337"/>
-      <c r="T18" s="337"/>
-      <c r="U18" s="337"/>
-      <c r="V18" s="338"/>
+      <c r="R18" s="389"/>
+      <c r="S18" s="389"/>
+      <c r="T18" s="389"/>
+      <c r="U18" s="389"/>
+      <c r="V18" s="390"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="214"/>
@@ -30721,16 +32969,16 @@
       </c>
       <c r="N19" s="274"/>
       <c r="P19" s="214"/>
-      <c r="Q19" s="339" t="s">
+      <c r="Q19" s="391" t="s">
         <v>169</v>
       </c>
-      <c r="R19" s="339"/>
-      <c r="S19" s="339"/>
-      <c r="T19" s="340" t="s">
+      <c r="R19" s="391"/>
+      <c r="S19" s="391"/>
+      <c r="T19" s="392" t="s">
         <v>95</v>
       </c>
-      <c r="U19" s="340"/>
-      <c r="V19" s="341"/>
+      <c r="U19" s="392"/>
+      <c r="V19" s="393"/>
     </row>
     <row r="20" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="214"/>
@@ -30927,14 +33175,14 @@
       <c r="N24" s="215"/>
       <c r="O24" s="215"/>
       <c r="P24" s="252"/>
-      <c r="Q24" s="337" t="s">
+      <c r="Q24" s="389" t="s">
         <v>170</v>
       </c>
-      <c r="R24" s="337"/>
-      <c r="S24" s="337"/>
-      <c r="T24" s="337"/>
-      <c r="U24" s="337"/>
-      <c r="V24" s="338"/>
+      <c r="R24" s="389"/>
+      <c r="S24" s="389"/>
+      <c r="T24" s="389"/>
+      <c r="U24" s="389"/>
+      <c r="V24" s="390"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="222" t="s">
@@ -31020,7 +33268,7 @@
       <c r="H27" s="247" t="s">
         <v>48</v>
       </c>
-      <c r="J27" s="342" t="s">
+      <c r="J27" s="394" t="s">
         <v>159</v>
       </c>
       <c r="K27" s="209" t="s">
@@ -31076,7 +33324,7 @@
       <c r="H28" s="244" t="s">
         <v>122</v>
       </c>
-      <c r="J28" s="342"/>
+      <c r="J28" s="394"/>
       <c r="K28" s="209" t="s">
         <v>180</v>
       </c>
@@ -31877,7 +34125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V47"/>
   <sheetViews>
@@ -32271,7 +34519,7 @@
       <c r="E18" s="166" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="343" t="s">
+      <c r="F18" s="395" t="s">
         <v>121</v>
       </c>
       <c r="G18" s="166"/>
@@ -32321,7 +34569,7 @@
       <c r="E19" s="166" t="s">
         <v>113</v>
       </c>
-      <c r="F19" s="343"/>
+      <c r="F19" s="395"/>
       <c r="G19" s="166" t="s">
         <v>48</v>
       </c>
@@ -32354,22 +34602,22 @@
       <c r="E20" s="167" t="s">
         <v>178</v>
       </c>
-      <c r="F20" s="344"/>
+      <c r="F20" s="396"/>
       <c r="G20" s="167" t="s">
         <v>122</v>
       </c>
       <c r="H20" s="167" t="s">
         <v>118</v>
       </c>
-      <c r="L20" s="345" t="s">
+      <c r="L20" s="397" t="s">
         <v>123</v>
       </c>
-      <c r="M20" s="345"/>
-      <c r="N20" s="345"/>
-      <c r="O20" s="345"/>
-      <c r="P20" s="345"/>
-      <c r="Q20" s="345"/>
-      <c r="R20" s="345"/>
+      <c r="M20" s="397"/>
+      <c r="N20" s="397"/>
+      <c r="O20" s="397"/>
+      <c r="P20" s="397"/>
+      <c r="Q20" s="397"/>
+      <c r="R20" s="397"/>
       <c r="T20" s="157">
         <v>1.1906250009999999</v>
       </c>
@@ -33176,7 +35424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF32"/>
   <sheetViews>
@@ -36271,7 +38519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -36349,7 +38597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
@@ -36366,16 +38614,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="346" t="s">
+      <c r="B3" s="398" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="346"/>
-      <c r="D3" s="346"/>
-      <c r="E3" s="346" t="s">
+      <c r="C3" s="398"/>
+      <c r="D3" s="398"/>
+      <c r="E3" s="398" t="s">
         <v>216</v>
       </c>
-      <c r="F3" s="346"/>
-      <c r="G3" s="346"/>
+      <c r="F3" s="398"/>
+      <c r="G3" s="398"/>
     </row>
     <row r="4" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="297" t="s">
@@ -37222,11 +39470,11 @@
       <c r="A30" t="s">
         <v>227</v>
       </c>
-      <c r="B30" s="346">
+      <c r="B30" s="398">
         <v>110</v>
       </c>
-      <c r="C30" s="346"/>
-      <c r="D30" s="346"/>
+      <c r="C30" s="398"/>
+      <c r="D30" s="398"/>
       <c r="E30">
         <v>18</v>
       </c>
@@ -37254,249 +39502,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="292" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="292" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="347" t="s">
-        <v>230</v>
-      </c>
-      <c r="D3" s="347"/>
-      <c r="E3" s="347" t="s">
-        <v>231</v>
-      </c>
-      <c r="F3" s="347"/>
-    </row>
-    <row r="4" spans="1:6" s="291" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="297" t="s">
-        <v>232</v>
-      </c>
-      <c r="B4" s="297" t="s">
-        <v>233</v>
-      </c>
-      <c r="C4" s="297" t="s">
-        <v>234</v>
-      </c>
-      <c r="D4" s="297" t="s">
-        <v>235</v>
-      </c>
-      <c r="E4" s="297" t="s">
-        <v>234</v>
-      </c>
-      <c r="F4" s="297" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B5" s="207">
-        <f>NCRP147_4.2!C29</f>
-        <v>0.60091000000000006</v>
-      </c>
-      <c r="C5">
-        <v>120</v>
-      </c>
-      <c r="D5">
-        <v>160</v>
-      </c>
-      <c r="E5" s="295">
-        <f>$B$5*C5</f>
-        <v>72.109200000000001</v>
-      </c>
-      <c r="F5" s="295">
-        <f>$B$5*D5</f>
-        <v>96.145600000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>219</v>
-      </c>
-      <c r="B6" s="207">
-        <f>NCRP147_4.2!D29</f>
-        <v>1.8507709999999995</v>
-      </c>
-      <c r="C6">
-        <v>120</v>
-      </c>
-      <c r="D6">
-        <v>160</v>
-      </c>
-      <c r="E6" s="295">
-        <f t="shared" ref="E6:E12" si="0">$B$5*C6</f>
-        <v>72.109200000000001</v>
-      </c>
-      <c r="F6" s="295">
-        <f t="shared" ref="F6:F12" si="1">$B$5*D6</f>
-        <v>96.145600000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>222</v>
-      </c>
-      <c r="B7" s="207">
-        <f>NCRP147_4.2!G29</f>
-        <v>0.21584300000000001</v>
-      </c>
-      <c r="C7">
-        <v>200</v>
-      </c>
-      <c r="D7">
-        <v>400</v>
-      </c>
-      <c r="E7" s="295">
-        <f t="shared" si="0"/>
-        <v>120.18200000000002</v>
-      </c>
-      <c r="F7" s="295">
-        <f t="shared" si="1"/>
-        <v>240.36400000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>220</v>
-      </c>
-      <c r="B8" s="207">
-        <f>NCRP147_4.2!E29</f>
-        <v>12.8934</v>
-      </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
-      <c r="D8">
-        <v>30</v>
-      </c>
-      <c r="E8" s="295">
-        <f t="shared" si="0"/>
-        <v>12.0182</v>
-      </c>
-      <c r="F8" s="295">
-        <f t="shared" si="1"/>
-        <v>18.0273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>221</v>
-      </c>
-      <c r="B9" s="207">
-        <f>NCRP147_4.2!F29</f>
-        <v>1.5099989999999996</v>
-      </c>
-      <c r="C9">
-        <v>25</v>
-      </c>
-      <c r="D9">
-        <v>40</v>
-      </c>
-      <c r="E9" s="295">
-        <f t="shared" si="0"/>
-        <v>15.022750000000002</v>
-      </c>
-      <c r="F9" s="295">
-        <f t="shared" si="1"/>
-        <v>24.0364</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B10" s="207">
-        <f>NCRP147_4.2!H29</f>
-        <v>6.6950000000000003</v>
-      </c>
-      <c r="C10">
-        <v>80</v>
-      </c>
-      <c r="D10">
-        <v>160</v>
-      </c>
-      <c r="E10" s="295">
-        <f t="shared" si="0"/>
-        <v>48.072800000000001</v>
-      </c>
-      <c r="F10" s="295">
-        <f t="shared" si="1"/>
-        <v>96.145600000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>224</v>
-      </c>
-      <c r="B11" s="207">
-        <f>NCRP147_4.2!I29</f>
-        <v>159.56100000000001</v>
-      </c>
-      <c r="C11">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>30</v>
-      </c>
-      <c r="E11" s="295">
-        <f t="shared" si="0"/>
-        <v>12.0182</v>
-      </c>
-      <c r="F11" s="295">
-        <f t="shared" si="1"/>
-        <v>18.0273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>225</v>
-      </c>
-      <c r="B12" s="207">
-        <f>NCRP147_4.2!J29</f>
-        <v>64.174399999999991</v>
-      </c>
-      <c r="C12">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>30</v>
-      </c>
-      <c r="E12" s="295">
-        <f t="shared" si="0"/>
-        <v>12.0182</v>
-      </c>
-      <c r="F12" s="295">
-        <f t="shared" si="1"/>
-        <v>18.0273</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/MUSCShield_form.xlsx
+++ b/MUSCShield_form.xlsx
@@ -13,23 +13,23 @@
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
-    <sheet name="RadFluoro" sheetId="5" r:id="rId2"/>
-    <sheet name="Fluoro" sheetId="28" r:id="rId3"/>
-    <sheet name="NM" sheetId="27" r:id="rId4"/>
-    <sheet name="CT" sheetId="4" r:id="rId5"/>
-    <sheet name="ShieldEvaluation" sheetId="2" r:id="rId6"/>
-    <sheet name="FitParameters" sheetId="3" r:id="rId7"/>
-    <sheet name="NCRP147_4.1" sheetId="16" r:id="rId8"/>
-    <sheet name="NCRP147_4.2" sheetId="17" r:id="rId9"/>
-    <sheet name="NCRP147_4.3" sheetId="18" r:id="rId10"/>
-    <sheet name="NCRP147_4.4" sheetId="19" r:id="rId11"/>
-    <sheet name="NCRP147_4.5" sheetId="26" r:id="rId12"/>
-    <sheet name="NCRP147_4.7" sheetId="20" r:id="rId13"/>
-    <sheet name="NCRP147_5.2" sheetId="21" r:id="rId14"/>
-    <sheet name="NCRP147_A1" sheetId="22" r:id="rId15"/>
-    <sheet name="NCRP147_B1" sheetId="23" r:id="rId16"/>
-    <sheet name="NCRP147_C1" sheetId="24" r:id="rId17"/>
-    <sheet name="W_Rh_Al_Ag" sheetId="25" r:id="rId18"/>
+    <sheet name="RadFluoro" sheetId="2" r:id="rId2"/>
+    <sheet name="Fluoro" sheetId="3" r:id="rId3"/>
+    <sheet name="NM" sheetId="4" r:id="rId4"/>
+    <sheet name="CT" sheetId="5" r:id="rId5"/>
+    <sheet name="ShieldEvaluation" sheetId="6" r:id="rId6"/>
+    <sheet name="FitParameters" sheetId="7" r:id="rId7"/>
+    <sheet name="NCRP147_4.1" sheetId="8" r:id="rId8"/>
+    <sheet name="NCRP147_4.2" sheetId="9" r:id="rId9"/>
+    <sheet name="NCRP147_4.3" sheetId="10" r:id="rId10"/>
+    <sheet name="NCRP147_4.4" sheetId="11" r:id="rId11"/>
+    <sheet name="NCRP147_4.5" sheetId="12" r:id="rId12"/>
+    <sheet name="NCRP147_4.7" sheetId="13" r:id="rId13"/>
+    <sheet name="NCRP147_5.2" sheetId="14" r:id="rId14"/>
+    <sheet name="NCRP147_A1" sheetId="15" r:id="rId15"/>
+    <sheet name="NCRP147_B1" sheetId="16" r:id="rId16"/>
+    <sheet name="NCRP147_C1" sheetId="17" r:id="rId17"/>
+    <sheet name="W_Rh_Al_Ag" sheetId="18" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="FitParams">FitParameters!$A$5:$AF$30</definedName>
@@ -73,8 +73,17 @@
     <definedName name="RefExp">ShieldEvaluation!$G$16</definedName>
     <definedName name="RefkV">ShieldEvaluation!$C$16</definedName>
     <definedName name="RefOutput">ShieldEvaluation!$H$16</definedName>
+    <definedName name="Z_488A6099_7FEF_4C88_B110_024D46F0253F_.wvu.PrintArea" localSheetId="4" hidden="1">CT!$A$1:$H$50</definedName>
+    <definedName name="Z_488A6099_7FEF_4C88_B110_024D46F0253F_.wvu.PrintArea" localSheetId="2" hidden="1">Fluoro!$A$1:$L$41</definedName>
+    <definedName name="Z_488A6099_7FEF_4C88_B110_024D46F0253F_.wvu.PrintArea" localSheetId="3" hidden="1">NM!$A$1:$Q$73</definedName>
+    <definedName name="Z_488A6099_7FEF_4C88_B110_024D46F0253F_.wvu.PrintArea" localSheetId="1" hidden="1">RadFluoro!$A$1:$N$66</definedName>
+    <definedName name="Z_488A6099_7FEF_4C88_B110_024D46F0253F_.wvu.PrintArea" localSheetId="5" hidden="1">ShieldEvaluation!$A$1:$H$34</definedName>
+    <definedName name="Z_488A6099_7FEF_4C88_B110_024D46F0253F_.wvu.PrintArea" localSheetId="0" hidden="1">Table!$A$1:$N$112</definedName>
   </definedNames>
   <calcPr calcId="162913" iterateCount="1"/>
+  <customWorkbookViews>
+    <customWorkbookView name="Eugene Mah - Personal View" guid="{488A6099-7FEF-4C88-B110-024D46F0253F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="784" activeSheetId="1"/>
+  </customWorkbookViews>
 </workbook>
 </file>
 
@@ -84,7 +93,7 @@
     <author>Eugene Mah</author>
   </authors>
   <commentList>
-    <comment ref="K24" authorId="0" shapeId="0">
+    <comment ref="K24" authorId="0" guid="{A54D3B20-D548-4C0D-819A-BC57EEA8A953}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F25" authorId="0" shapeId="0">
+    <comment ref="F25" authorId="0" guid="{AC1E79F1-7911-4DCB-A234-C83519D2D5B4}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G25" authorId="0" shapeId="0">
+    <comment ref="G25" authorId="0" guid="{484AD04E-1C35-4B42-B523-527F1C6280C2}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -156,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H25" authorId="0" shapeId="0">
+    <comment ref="H25" authorId="0" guid="{BB7E0804-2760-4E8C-B908-C36DF42BEEEC}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -183,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K43" authorId="0" shapeId="0">
+    <comment ref="K43" authorId="0" guid="{2C367521-37CE-41D4-850A-E1028B940203}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -218,7 +227,7 @@
     <author>Eugene Mah</author>
   </authors>
   <commentList>
-    <comment ref="E6" authorId="0" shapeId="0">
+    <comment ref="E6" authorId="0" guid="{F2EE60CF-A872-4EE8-905B-1046255D334E}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -244,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0" shapeId="0">
+    <comment ref="F6" authorId="0" guid="{4D365BFC-D589-4FB7-B8F8-E6D576ABA83C}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -270,7 +279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="1" shapeId="0">
+    <comment ref="G6" authorId="1" guid="{CDA0C39E-59E9-40E2-B816-F8C9895C7A96}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -304,7 +313,7 @@
     <author>Eugene Mah</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0" shapeId="0">
+    <comment ref="B6" authorId="0" guid="{16213089-000C-4D85-B9C6-E25F684E43F4}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -328,7 +337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0">
+    <comment ref="B7" authorId="0" guid="{2E435240-35C7-41D7-9114-E8558C60EAE9}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -352,7 +361,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" guid="{E0B66C4F-D330-4C04-AB7D-1593A2511242}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -376,7 +385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K10" authorId="0" shapeId="0">
+    <comment ref="K10" authorId="0" guid="{609FBDC6-4B23-4F49-992C-9FC71C2000C2}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -400,7 +409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment ref="C11" authorId="0" guid="{951ECB1C-8446-4C60-864B-9BF05BB4DC6D}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -424,7 +433,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0" shapeId="0">
+    <comment ref="D11" authorId="0" guid="{D748A59A-6E23-4CED-BCA2-88FA32133691}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -448,7 +457,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D28" authorId="0" shapeId="0">
+    <comment ref="D28" authorId="0" guid="{8A00D5DC-0F86-4CE0-BC96-2AB17B6493E1}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -472,7 +481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E28" authorId="0" shapeId="0">
+    <comment ref="E28" authorId="0" guid="{640FAD60-AC0C-4FB9-A538-B01D60AC75A1}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -506,7 +515,7 @@
     <author>Eugene Mah</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" guid="{A31E8ECD-7813-46DF-A833-56E18AD8FE93}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -530,7 +539,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0" shapeId="0">
+    <comment ref="N4" authorId="0" guid="{97004C08-E98C-4235-9031-8DD948FF812E}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -554,7 +563,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0">
+    <comment ref="C6" authorId="0" guid="{CA1198F6-A1F4-4E6E-AB0F-4FDDFE19249F}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -578,7 +587,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N8" authorId="0" shapeId="0">
+    <comment ref="N8" authorId="0" guid="{4E0D1A1F-2EC3-4A24-8CB5-8B1F44DE4ACE}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -602,7 +611,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0" shapeId="0">
+    <comment ref="C17" authorId="0" guid="{01FF8792-9D2B-451F-9F69-1D57913ACBDF}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -628,7 +637,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B47" authorId="0" shapeId="0">
+    <comment ref="B47" authorId="0" guid="{48277E40-4B17-4176-8775-6E254303938C}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -662,7 +671,7 @@
     <author>Eugene Mah</author>
   </authors>
   <commentList>
-    <comment ref="Q18" authorId="0" shapeId="0">
+    <comment ref="Q18" authorId="0" guid="{794EBF58-FEB9-4016-A8BC-D6B9E2BE0B29}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -687,7 +696,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q24" authorId="0" shapeId="0">
+    <comment ref="Q24" authorId="0" guid="{74A3C24B-AEEA-44C2-A91A-B4EAAF3F5029}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -711,7 +720,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J27" authorId="0" shapeId="0">
+    <comment ref="J27" authorId="0" guid="{D8AA594C-68DA-4EF2-B51B-54E2D3FCE43A}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -735,7 +744,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K27" authorId="0" shapeId="0">
+    <comment ref="K27" authorId="0" guid="{C1690B31-F8CD-447B-BB92-5D0724CD4B55}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -759,7 +768,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C28" authorId="0" shapeId="0">
+    <comment ref="C28" authorId="0" guid="{52D99202-BDBA-4238-A7EC-E5D79EFA479C}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -786,7 +795,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L28" authorId="0" shapeId="0">
+    <comment ref="L28" authorId="0" guid="{B9439FC8-7257-42B9-9B7B-03D0B55A7D14}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -810,7 +819,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M28" authorId="0" shapeId="0">
+    <comment ref="M28" authorId="0" guid="{673B77F2-313F-4E9C-972A-97ACE9D9ABC3}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -834,7 +843,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O28" authorId="0" shapeId="0">
+    <comment ref="O28" authorId="0" guid="{8CD26A22-025D-48B9-AA27-7F17D46A1E78}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -868,7 +877,7 @@
     <author>Eugene Mah</author>
   </authors>
   <commentList>
-    <comment ref="L11" authorId="0" shapeId="0">
+    <comment ref="L11" authorId="0" guid="{CB6F28AA-5C7C-49C2-9EF1-E6C2719BC9A1}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -987,7 +996,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0" shapeId="0">
+    <comment ref="F14" authorId="0" guid="{65DD9A48-BA53-4E19-9805-AEBBFCF0813B}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1000,7 +1009,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G14" authorId="0" shapeId="0">
+    <comment ref="G14" authorId="0" guid="{C1F0F6D6-C41B-41E8-AC5C-0E47A2210A9E}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1013,7 +1022,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C15" authorId="0" shapeId="0">
+    <comment ref="C15" authorId="0" guid="{546CFB77-D1F3-42FF-9B28-3E42181167D9}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1026,7 +1035,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D15" authorId="0" shapeId="0">
+    <comment ref="D15" authorId="0" guid="{32E074A4-B70C-46D3-AC02-39A1394FBED4}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1039,7 +1048,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E15" authorId="0" shapeId="0">
+    <comment ref="E15" authorId="0" guid="{340B8057-1A8F-456D-AA2A-7882A2EA632C}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1052,7 +1061,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F18" authorId="0" shapeId="0">
+    <comment ref="F18" authorId="0" guid="{BC8AD7AA-D96D-4A2E-B3C3-8A28DEBC2BA9}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1065,7 +1074,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0" shapeId="0">
+    <comment ref="C19" authorId="0" guid="{62E52DEA-38CA-4FC4-B810-A5AD2D69D8BD}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1078,7 +1087,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0" shapeId="0">
+    <comment ref="D19" authorId="0" guid="{BF150470-71C3-4A84-BCDC-4B6973D4E316}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1091,7 +1100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="0" shapeId="0">
+    <comment ref="E19" authorId="0" guid="{283A4AD4-F2E7-429C-A97D-D8313B5B4A5F}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1104,7 +1113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G19" authorId="0" shapeId="0">
+    <comment ref="G19" authorId="0" guid="{20D3CEAA-A42E-44C9-A539-11B332CFD500}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1117,7 +1126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L20" authorId="0" shapeId="0">
+    <comment ref="L20" authorId="0" guid="{2A62E9ED-6216-4E2B-A719-A75351A3B396}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4719,7 +4728,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5126,7 +5134,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5244,7 +5251,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5348,7 +5354,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5444,7 +5449,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6244,6 +6248,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{F4C4B5C2-26DD-4D3F-B577-BB44D7CCA2A1}">
+  <header guid="{F4C4B5C2-26DD-4D3F-B577-BB44D7CCA2A1}" dateTime="2020-06-03T09:46:10" maxSheetId="19" userName="Eugene Mah" r:id="rId1">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -15966,10 +16005,25 @@
       <c r="N112" s="7"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{488A6099-7FEF-4C88-B110-024D46F0253F}">
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="40" max="13" man="1"/>
+        <brk id="76" max="13" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0" footer="0.5"/>
+      <printOptions horizontalCentered="1"/>
+      <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="180" r:id="rId1"/>
+      <headerFooter alignWithMargins="0">
+        <oddHeader>&amp;A</oddHeader>
+        <oddFooter>&amp;CPage &amp;P&amp;R&amp;D</oddFooter>
+      </headerFooter>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0" footer="0.5"/>
-  <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="180" r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="180" r:id="rId2"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P&amp;R&amp;D</oddFooter>
@@ -15978,7 +16032,7 @@
     <brk id="40" max="13" man="1"/>
     <brk id="76" max="13" man="1"/>
   </rowBreaks>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -16221,6 +16275,12 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{488A6099-7FEF-4C88-B110-024D46F0253F}">
+      <selection activeCell="E5" sqref="E5:F12"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="2">
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -16287,6 +16347,11 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{488A6099-7FEF-4C88-B110-024D46F0253F}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16366,6 +16431,12 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{488A6099-7FEF-4C88-B110-024D46F0253F}">
+      <selection activeCell="C5" sqref="C5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16736,6 +16807,12 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{488A6099-7FEF-4C88-B110-024D46F0253F}">
+      <selection activeCell="J8" sqref="J8"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="1">
     <mergeCell ref="E6:I6"/>
   </mergeCells>
@@ -16845,6 +16922,12 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{488A6099-7FEF-4C88-B110-024D46F0253F}">
+      <selection activeCell="D5" sqref="D5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20845,6 +20928,11 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{488A6099-7FEF-4C88-B110-024D46F0253F}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="6">
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="B4:H4"/>
@@ -21975,6 +22063,11 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{488A6099-7FEF-4C88-B110-024D46F0253F}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="7">
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="AA3:AC3"/>
@@ -23767,6 +23860,12 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{488A6099-7FEF-4C88-B110-024D46F0253F}">
+      <selection activeCell="E5" sqref="E5:F5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="7">
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="AA3:AC3"/>
@@ -26110,7 +26209,25 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{488A6099-7FEF-4C88-B110-024D46F0253F}" scale="75">
+      <selection activeCell="B2" sqref="B2:D2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="24">
+    <mergeCell ref="AB34:AD34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="M34:Q34"/>
+    <mergeCell ref="R34:V34"/>
+    <mergeCell ref="W34:AA34"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="V2:X2"/>
     <mergeCell ref="AA24:AC24"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="G12:I12"/>
@@ -26123,18 +26240,6 @@
     <mergeCell ref="L24:N24"/>
     <mergeCell ref="Q24:S24"/>
     <mergeCell ref="V24:X24"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="AB34:AD34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="M34:Q34"/>
-    <mergeCell ref="R34:V34"/>
-    <mergeCell ref="W34:AA34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28221,6 +28326,12 @@
       <c r="R82" s="322"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{488A6099-7FEF-4C88-B110-024D46F0253F}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup scale="77" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="7">
     <mergeCell ref="J17:N17"/>
     <mergeCell ref="J13:N13"/>
@@ -28231,8 +28342,8 @@
     <mergeCell ref="J9:N9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="77" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup scale="77" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -29900,6 +30011,13 @@
       <c r="L52" s="351"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{488A6099-7FEF-4C88-B110-024D46F0253F}" fitToPage="1">
+      <selection activeCell="M12" sqref="M12"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup scale="87" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="6">
     <mergeCell ref="O14:S14"/>
     <mergeCell ref="I10:J10"/>
@@ -29914,8 +30032,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="87" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup scale="87" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -32509,6 +32627,13 @@
       <c r="O76" s="338"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{488A6099-7FEF-4C88-B110-024D46F0253F}" fitToPage="1">
+      <selection activeCell="B7" sqref="B7"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup scale="53" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="7">
     <mergeCell ref="C67:N67"/>
     <mergeCell ref="B58:M58"/>
@@ -32634,8 +32759,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="53" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup scale="53" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -34110,6 +34235,13 @@
       <c r="O50" s="231"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{488A6099-7FEF-4C88-B110-024D46F0253F}" fitToPage="1">
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <pageSetup scale="96" fitToHeight="3" orientation="portrait" r:id="rId1"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="5">
     <mergeCell ref="Q18:V18"/>
     <mergeCell ref="Q19:S19"/>
@@ -34118,10 +34250,10 @@
     <mergeCell ref="J27:J28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="96" fitToHeight="3" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="96" fitToHeight="3" orientation="portrait" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -35409,18 +35541,27 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{488A6099-7FEF-4C88-B110-024D46F0253F}">
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <pageSetup scale="97" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+      <headerFooter alignWithMargins="0">
+        <oddFooter>&amp;R&amp;P</oddFooter>
+      </headerFooter>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="2">
     <mergeCell ref="F18:F20"/>
     <mergeCell ref="L20:R20"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="97" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="97" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;R&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -38513,6 +38654,12 @@
     </row>
     <row r="32" spans="1:32" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{488A6099-7FEF-4C88-B110-024D46F0253F}">
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
@@ -38593,6 +38740,11 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{488A6099-7FEF-4C88-B110-024D46F0253F}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -39495,6 +39647,11 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{488A6099-7FEF-4C88-B110-024D46F0253F}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="3">
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>

--- a/MUSCShield_form.xlsx
+++ b/MUSCShield_form.xlsx
@@ -93,7 +93,7 @@
     <author>Eugene Mah</author>
   </authors>
   <commentList>
-    <comment ref="K24" authorId="0" guid="{A54D3B20-D548-4C0D-819A-BC57EEA8A953}" shapeId="0">
+    <comment ref="K24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F25" authorId="0" guid="{AC1E79F1-7911-4DCB-A234-C83519D2D5B4}" shapeId="0">
+    <comment ref="F25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G25" authorId="0" guid="{484AD04E-1C35-4B42-B523-527F1C6280C2}" shapeId="0">
+    <comment ref="G25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -165,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H25" authorId="0" guid="{BB7E0804-2760-4E8C-B908-C36DF42BEEEC}" shapeId="0">
+    <comment ref="H25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K43" authorId="0" guid="{2C367521-37CE-41D4-850A-E1028B940203}" shapeId="0">
+    <comment ref="K43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -227,7 +227,7 @@
     <author>Eugene Mah</author>
   </authors>
   <commentList>
-    <comment ref="E6" authorId="0" guid="{F2EE60CF-A872-4EE8-905B-1046255D334E}" shapeId="0">
+    <comment ref="E6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -253,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0" guid="{4D365BFC-D589-4FB7-B8F8-E6D576ABA83C}" shapeId="0">
+    <comment ref="F6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -279,7 +279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="1" guid="{CDA0C39E-59E9-40E2-B816-F8C9895C7A96}" shapeId="0">
+    <comment ref="G6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -313,7 +313,7 @@
     <author>Eugene Mah</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0" guid="{16213089-000C-4D85-B9C6-E25F684E43F4}" shapeId="0">
+    <comment ref="B6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -337,7 +337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" guid="{2E435240-35C7-41D7-9114-E8558C60EAE9}" shapeId="0">
+    <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -361,7 +361,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" guid="{E0B66C4F-D330-4C04-AB7D-1593A2511242}" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -385,7 +385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K10" authorId="0" guid="{609FBDC6-4B23-4F49-992C-9FC71C2000C2}" shapeId="0">
+    <comment ref="K10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -409,7 +409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" guid="{951ECB1C-8446-4C60-864B-9BF05BB4DC6D}" shapeId="0">
+    <comment ref="C11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -433,7 +433,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0" guid="{D748A59A-6E23-4CED-BCA2-88FA32133691}" shapeId="0">
+    <comment ref="D11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -457,7 +457,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D28" authorId="0" guid="{8A00D5DC-0F86-4CE0-BC96-2AB17B6493E1}" shapeId="0">
+    <comment ref="D28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -481,7 +481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E28" authorId="0" guid="{640FAD60-AC0C-4FB9-A538-B01D60AC75A1}" shapeId="0">
+    <comment ref="E28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -515,7 +515,7 @@
     <author>Eugene Mah</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" guid="{A31E8ECD-7813-46DF-A833-56E18AD8FE93}" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -539,7 +539,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0" guid="{97004C08-E98C-4235-9031-8DD948FF812E}" shapeId="0">
+    <comment ref="N4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -563,7 +563,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" guid="{CA1198F6-A1F4-4E6E-AB0F-4FDDFE19249F}" shapeId="0">
+    <comment ref="C6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -587,7 +587,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N8" authorId="0" guid="{4E0D1A1F-2EC3-4A24-8CB5-8B1F44DE4ACE}" shapeId="0">
+    <comment ref="N8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -611,7 +611,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0" guid="{01FF8792-9D2B-451F-9F69-1D57913ACBDF}" shapeId="0">
+    <comment ref="C17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -637,7 +637,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B47" authorId="0" guid="{48277E40-4B17-4176-8775-6E254303938C}" shapeId="0">
+    <comment ref="B47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -671,7 +671,7 @@
     <author>Eugene Mah</author>
   </authors>
   <commentList>
-    <comment ref="Q18" authorId="0" guid="{794EBF58-FEB9-4016-A8BC-D6B9E2BE0B29}" shapeId="0">
+    <comment ref="Q18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -696,7 +696,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q24" authorId="0" guid="{74A3C24B-AEEA-44C2-A91A-B4EAAF3F5029}" shapeId="0">
+    <comment ref="Q24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -720,7 +720,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J27" authorId="0" guid="{D8AA594C-68DA-4EF2-B51B-54E2D3FCE43A}" shapeId="0">
+    <comment ref="J27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -744,7 +744,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K27" authorId="0" guid="{C1690B31-F8CD-447B-BB92-5D0724CD4B55}" shapeId="0">
+    <comment ref="K27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -768,7 +768,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C28" authorId="0" guid="{52D99202-BDBA-4238-A7EC-E5D79EFA479C}" shapeId="0">
+    <comment ref="C28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -795,7 +795,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L28" authorId="0" guid="{B9439FC8-7257-42B9-9B7B-03D0B55A7D14}" shapeId="0">
+    <comment ref="L28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -819,7 +819,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M28" authorId="0" guid="{673B77F2-313F-4E9C-972A-97ACE9D9ABC3}" shapeId="0">
+    <comment ref="M28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -843,7 +843,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O28" authorId="0" guid="{8CD26A22-025D-48B9-AA27-7F17D46A1E78}" shapeId="0">
+    <comment ref="O28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -877,7 +877,7 @@
     <author>Eugene Mah</author>
   </authors>
   <commentList>
-    <comment ref="L11" authorId="0" guid="{CB6F28AA-5C7C-49C2-9EF1-E6C2719BC9A1}" shapeId="0">
+    <comment ref="L11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -996,7 +996,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0" guid="{65DD9A48-BA53-4E19-9805-AEBBFCF0813B}" shapeId="0">
+    <comment ref="F14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1009,7 +1009,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G14" authorId="0" guid="{C1F0F6D6-C41B-41E8-AC5C-0E47A2210A9E}" shapeId="0">
+    <comment ref="G14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1022,7 +1022,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C15" authorId="0" guid="{546CFB77-D1F3-42FF-9B28-3E42181167D9}" shapeId="0">
+    <comment ref="C15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1035,7 +1035,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D15" authorId="0" guid="{32E074A4-B70C-46D3-AC02-39A1394FBED4}" shapeId="0">
+    <comment ref="D15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1048,7 +1048,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E15" authorId="0" guid="{340B8057-1A8F-456D-AA2A-7882A2EA632C}" shapeId="0">
+    <comment ref="E15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1061,7 +1061,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F18" authorId="0" guid="{BC8AD7AA-D96D-4A2E-B3C3-8A28DEBC2BA9}" shapeId="0">
+    <comment ref="F18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1074,7 +1074,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0" guid="{62E52DEA-38CA-4FC4-B810-A5AD2D69D8BD}" shapeId="0">
+    <comment ref="C19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1087,7 +1087,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0" guid="{BF150470-71C3-4A84-BCDC-4B6973D4E316}" shapeId="0">
+    <comment ref="D19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1100,7 +1100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="0" guid="{283A4AD4-F2E7-429C-A97D-D8313B5B4A5F}" shapeId="0">
+    <comment ref="E19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1113,7 +1113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G19" authorId="0" guid="{20D3CEAA-A42E-44C9-A539-11B332CFD500}" shapeId="0">
+    <comment ref="G19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1126,7 +1126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L20" authorId="0" guid="{2A62E9ED-6216-4E2B-A719-A75351A3B396}" shapeId="0">
+    <comment ref="L20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6248,41 +6248,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{F4C4B5C2-26DD-4D3F-B577-BB44D7CCA2A1}">
-  <header guid="{F4C4B5C2-26DD-4D3F-B577-BB44D7CCA2A1}" dateTime="2020-06-03T09:46:10" maxSheetId="19" userName="Eugene Mah" r:id="rId1">
-    <sheetIdMap count="18">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="11"/>
-      <sheetId val="12"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-      <sheetId val="15"/>
-      <sheetId val="16"/>
-      <sheetId val="17"/>
-      <sheetId val="18"/>
-    </sheetIdMap>
-  </header>
-</headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -26216,18 +26181,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="24">
-    <mergeCell ref="AB34:AD34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="M34:Q34"/>
-    <mergeCell ref="R34:V34"/>
-    <mergeCell ref="W34:AA34"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="V2:X2"/>
     <mergeCell ref="AA24:AC24"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="G12:I12"/>
@@ -26240,6 +26193,18 @@
     <mergeCell ref="L24:N24"/>
     <mergeCell ref="Q24:S24"/>
     <mergeCell ref="V24:X24"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="AB34:AD34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="M34:Q34"/>
+    <mergeCell ref="R34:V34"/>
+    <mergeCell ref="W34:AA34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MUSCShield_form.xlsx
+++ b/MUSCShield_form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugenem\Documents\GitHub\EquipTestingSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F8667C-0188-4B12-8226-64CDDBCD58C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6632152C-5115-4CE9-8ADA-B55FC668A0F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -1118,7 +1118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="420">
   <si>
     <t>Shielding Calculations</t>
   </si>
@@ -2816,6 +2816,9 @@
   </si>
   <si>
     <t>W/Rh, W/Ag, W/Al</t>
+  </si>
+  <si>
+    <t>MUSC Health West Rad 04</t>
   </si>
 </sst>
 </file>
@@ -3567,7 +3570,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="351">
+  <cellXfs count="350">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -4340,8 +4343,6 @@
     <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="12" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="12" fillId="7" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="12" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="173" fontId="12" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
@@ -4396,18 +4397,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="171" fontId="12" fillId="7" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4421,6 +4411,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6112,12 +6114,12 @@
       <c r="J12" s="42"/>
       <c r="V12" s="43"/>
       <c r="W12" s="44"/>
-      <c r="X12" s="329" t="s">
+      <c r="X12" s="324" t="s">
         <v>33</v>
       </c>
-      <c r="Y12" s="329"/>
-      <c r="Z12" s="329"/>
-      <c r="AA12" s="329"/>
+      <c r="Y12" s="324"/>
+      <c r="Z12" s="324"/>
+      <c r="AA12" s="324"/>
       <c r="AB12" s="45"/>
       <c r="AD12" s="31"/>
       <c r="AE12" s="31">
@@ -6148,12 +6150,12 @@
       <c r="J13" s="42"/>
       <c r="V13" s="48"/>
       <c r="W13" s="49"/>
-      <c r="X13" s="330" t="s">
+      <c r="X13" s="325" t="s">
         <v>36</v>
       </c>
-      <c r="Y13" s="330"/>
-      <c r="Z13" s="330"/>
-      <c r="AA13" s="330"/>
+      <c r="Y13" s="325"/>
+      <c r="Z13" s="325"/>
+      <c r="AA13" s="325"/>
       <c r="AB13" s="50"/>
       <c r="AD13" s="31"/>
       <c r="AE13" s="31">
@@ -6786,12 +6788,12 @@
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
-      <c r="B24" s="331" t="s">
+      <c r="B24" s="326" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="331"/>
-      <c r="D24" s="331"/>
-      <c r="E24" s="331"/>
+      <c r="C24" s="326"/>
+      <c r="D24" s="326"/>
+      <c r="E24" s="326"/>
       <c r="F24" s="49"/>
       <c r="G24" s="49"/>
       <c r="H24" s="49"/>
@@ -8132,60 +8134,60 @@
       <c r="N42" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="O42" s="332" t="s">
+      <c r="O42" s="327" t="s">
         <v>89</v>
       </c>
-      <c r="P42" s="332"/>
-      <c r="Q42" s="332"/>
-      <c r="R42" s="332"/>
-      <c r="S42" s="332"/>
-      <c r="T42" s="332"/>
-      <c r="U42" s="332"/>
-      <c r="V42" s="332"/>
-      <c r="W42" s="332"/>
-      <c r="X42" s="332"/>
-      <c r="Y42" s="332"/>
-      <c r="Z42" s="332"/>
-      <c r="AA42" s="332"/>
-      <c r="AB42" s="332"/>
-      <c r="AC42" s="332"/>
-      <c r="AD42" s="332"/>
-      <c r="AE42" s="333" t="s">
+      <c r="P42" s="327"/>
+      <c r="Q42" s="327"/>
+      <c r="R42" s="327"/>
+      <c r="S42" s="327"/>
+      <c r="T42" s="327"/>
+      <c r="U42" s="327"/>
+      <c r="V42" s="327"/>
+      <c r="W42" s="327"/>
+      <c r="X42" s="327"/>
+      <c r="Y42" s="327"/>
+      <c r="Z42" s="327"/>
+      <c r="AA42" s="327"/>
+      <c r="AB42" s="327"/>
+      <c r="AC42" s="327"/>
+      <c r="AD42" s="327"/>
+      <c r="AE42" s="328" t="s">
         <v>89</v>
       </c>
-      <c r="AF42" s="333"/>
-      <c r="AG42" s="333"/>
-      <c r="AH42" s="333"/>
-      <c r="AI42" s="333"/>
-      <c r="AJ42" s="333"/>
-      <c r="AK42" s="333"/>
-      <c r="AL42" s="333"/>
-      <c r="AM42" s="333"/>
-      <c r="AN42" s="333"/>
-      <c r="AO42" s="333"/>
-      <c r="AP42" s="333"/>
-      <c r="AQ42" s="333"/>
-      <c r="AR42" s="333"/>
-      <c r="AS42" s="333"/>
-      <c r="AT42" s="333"/>
+      <c r="AF42" s="328"/>
+      <c r="AG42" s="328"/>
+      <c r="AH42" s="328"/>
+      <c r="AI42" s="328"/>
+      <c r="AJ42" s="328"/>
+      <c r="AK42" s="328"/>
+      <c r="AL42" s="328"/>
+      <c r="AM42" s="328"/>
+      <c r="AN42" s="328"/>
+      <c r="AO42" s="328"/>
+      <c r="AP42" s="328"/>
+      <c r="AQ42" s="328"/>
+      <c r="AR42" s="328"/>
+      <c r="AS42" s="328"/>
+      <c r="AT42" s="328"/>
     </row>
     <row r="43" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A43" s="12"/>
-      <c r="B43" s="327" t="s">
+      <c r="B43" s="329" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="327"/>
-      <c r="D43" s="327"/>
-      <c r="E43" s="328" t="s">
+      <c r="C43" s="329"/>
+      <c r="D43" s="329"/>
+      <c r="E43" s="330" t="s">
         <v>61</v>
       </c>
-      <c r="F43" s="328"/>
-      <c r="G43" s="328"/>
-      <c r="H43" s="327" t="s">
+      <c r="F43" s="330"/>
+      <c r="G43" s="330"/>
+      <c r="H43" s="329" t="s">
         <v>90</v>
       </c>
-      <c r="I43" s="327"/>
-      <c r="J43" s="327"/>
+      <c r="I43" s="329"/>
+      <c r="J43" s="329"/>
       <c r="K43" s="97" t="s">
         <v>91</v>
       </c>
@@ -8283,46 +8285,46 @@
         <v>93</v>
       </c>
       <c r="O44" s="48"/>
-      <c r="P44" s="326" t="s">
+      <c r="P44" s="331" t="s">
         <v>94</v>
       </c>
-      <c r="Q44" s="326"/>
-      <c r="R44" s="326"/>
+      <c r="Q44" s="331"/>
+      <c r="R44" s="331"/>
       <c r="S44" s="49"/>
       <c r="T44" s="49"/>
-      <c r="U44" s="326" t="s">
+      <c r="U44" s="331" t="s">
         <v>95</v>
       </c>
-      <c r="V44" s="326"/>
-      <c r="W44" s="326"/>
+      <c r="V44" s="331"/>
+      <c r="W44" s="331"/>
       <c r="X44" s="49"/>
       <c r="Y44" s="49"/>
-      <c r="Z44" s="326" t="s">
+      <c r="Z44" s="331" t="s">
         <v>52</v>
       </c>
-      <c r="AA44" s="326"/>
-      <c r="AB44" s="326"/>
+      <c r="AA44" s="331"/>
+      <c r="AB44" s="331"/>
       <c r="AC44" s="49"/>
       <c r="AD44" s="49"/>
-      <c r="AE44" s="327" t="s">
+      <c r="AE44" s="329" t="s">
         <v>54</v>
       </c>
-      <c r="AF44" s="327"/>
-      <c r="AG44" s="327"/>
+      <c r="AF44" s="329"/>
+      <c r="AG44" s="329"/>
       <c r="AH44" s="49"/>
       <c r="AI44" s="49"/>
-      <c r="AJ44" s="326" t="s">
+      <c r="AJ44" s="331" t="s">
         <v>96</v>
       </c>
-      <c r="AK44" s="326"/>
-      <c r="AL44" s="326"/>
+      <c r="AK44" s="331"/>
+      <c r="AL44" s="331"/>
       <c r="AM44" s="49"/>
       <c r="AN44" s="49"/>
-      <c r="AO44" s="326" t="s">
+      <c r="AO44" s="331" t="s">
         <v>58</v>
       </c>
-      <c r="AP44" s="326"/>
-      <c r="AQ44" s="326"/>
+      <c r="AP44" s="331"/>
+      <c r="AQ44" s="331"/>
       <c r="AR44" s="49"/>
       <c r="AS44" s="49"/>
       <c r="AT44" s="57"/>
@@ -10842,21 +10844,21 @@
     </row>
     <row r="61" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A61" s="12"/>
-      <c r="B61" s="325" t="s">
+      <c r="B61" s="332" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="325"/>
-      <c r="D61" s="325"/>
-      <c r="E61" s="325" t="s">
+      <c r="C61" s="332"/>
+      <c r="D61" s="332"/>
+      <c r="E61" s="332" t="s">
         <v>61</v>
       </c>
-      <c r="F61" s="325"/>
-      <c r="G61" s="325"/>
-      <c r="H61" s="325" t="s">
+      <c r="F61" s="332"/>
+      <c r="G61" s="332"/>
+      <c r="H61" s="332" t="s">
         <v>90</v>
       </c>
-      <c r="I61" s="325"/>
-      <c r="J61" s="325"/>
+      <c r="I61" s="332"/>
+      <c r="J61" s="332"/>
       <c r="K61" s="116" t="s">
         <v>91</v>
       </c>
@@ -12963,21 +12965,21 @@
     </row>
     <row r="79" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A79" s="12"/>
-      <c r="B79" s="325" t="s">
+      <c r="B79" s="332" t="s">
         <v>59</v>
       </c>
-      <c r="C79" s="325"/>
-      <c r="D79" s="325"/>
-      <c r="E79" s="325" t="s">
+      <c r="C79" s="332"/>
+      <c r="D79" s="332"/>
+      <c r="E79" s="332" t="s">
         <v>61</v>
       </c>
-      <c r="F79" s="325"/>
-      <c r="G79" s="325"/>
-      <c r="H79" s="325" t="s">
+      <c r="F79" s="332"/>
+      <c r="G79" s="332"/>
+      <c r="H79" s="332" t="s">
         <v>90</v>
       </c>
-      <c r="I79" s="325"/>
-      <c r="J79" s="325"/>
+      <c r="I79" s="332"/>
+      <c r="J79" s="332"/>
       <c r="K79" s="116" t="s">
         <v>91</v>
       </c>
@@ -13890,21 +13892,21 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="12"/>
-      <c r="B97" s="325" t="s">
+      <c r="B97" s="332" t="s">
         <v>59</v>
       </c>
-      <c r="C97" s="325"/>
-      <c r="D97" s="325"/>
-      <c r="E97" s="325" t="s">
+      <c r="C97" s="332"/>
+      <c r="D97" s="332"/>
+      <c r="E97" s="332" t="s">
         <v>61</v>
       </c>
-      <c r="F97" s="325"/>
-      <c r="G97" s="325"/>
-      <c r="H97" s="325" t="s">
+      <c r="F97" s="332"/>
+      <c r="G97" s="332"/>
+      <c r="H97" s="332" t="s">
         <v>90</v>
       </c>
-      <c r="I97" s="325"/>
-      <c r="J97" s="325"/>
+      <c r="I97" s="332"/>
+      <c r="J97" s="332"/>
       <c r="K97" s="116" t="s">
         <v>91</v>
       </c>
@@ -14738,16 +14740,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="O42:AD42"/>
-    <mergeCell ref="AE42:AT42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="U44:W44"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="H97:J97"/>
     <mergeCell ref="Z44:AB44"/>
     <mergeCell ref="AE44:AG44"/>
     <mergeCell ref="AJ44:AL44"/>
@@ -14755,12 +14753,16 @@
     <mergeCell ref="B61:D61"/>
     <mergeCell ref="E61:G61"/>
     <mergeCell ref="H61:J61"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="H97:J97"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="U44:W44"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="O42:AD42"/>
+    <mergeCell ref="AE42:AT42"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0" footer="0.5"/>
@@ -14792,42 +14794,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="316" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="318" t="s">
+      <c r="A2" s="316" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="350" t="s">
+      <c r="C3" s="349" t="s">
         <v>356</v>
       </c>
-      <c r="D3" s="350"/>
-      <c r="E3" s="350" t="s">
+      <c r="D3" s="349"/>
+      <c r="E3" s="349" t="s">
         <v>357</v>
       </c>
-      <c r="F3" s="350"/>
-    </row>
-    <row r="4" spans="1:6" s="319" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="320" t="s">
+      <c r="F3" s="349"/>
+    </row>
+    <row r="4" spans="1:6" s="317" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="318" t="s">
         <v>358</v>
       </c>
-      <c r="B4" s="320" t="s">
+      <c r="B4" s="318" t="s">
         <v>359</v>
       </c>
-      <c r="C4" s="320" t="s">
+      <c r="C4" s="318" t="s">
         <v>360</v>
       </c>
-      <c r="D4" s="320" t="s">
+      <c r="D4" s="318" t="s">
         <v>361</v>
       </c>
-      <c r="E4" s="320" t="s">
+      <c r="E4" s="318" t="s">
         <v>360</v>
       </c>
-      <c r="F4" s="320" t="s">
+      <c r="F4" s="318" t="s">
         <v>361</v>
       </c>
     </row>
@@ -14845,11 +14847,11 @@
       <c r="D5">
         <v>160</v>
       </c>
-      <c r="E5" s="323">
+      <c r="E5" s="321">
         <f t="shared" ref="E5:E12" si="0">B5*C5</f>
         <v>72.109200000000001</v>
       </c>
-      <c r="F5" s="323">
+      <c r="F5" s="321">
         <f t="shared" ref="F5:F12" si="1">B5*D5</f>
         <v>96.145600000000002</v>
       </c>
@@ -14868,11 +14870,11 @@
       <c r="D6">
         <v>160</v>
       </c>
-      <c r="E6" s="323">
+      <c r="E6" s="321">
         <f t="shared" si="0"/>
         <v>222.09251999999995</v>
       </c>
-      <c r="F6" s="323">
+      <c r="F6" s="321">
         <f t="shared" si="1"/>
         <v>296.12335999999993</v>
       </c>
@@ -14891,11 +14893,11 @@
       <c r="D7">
         <v>400</v>
       </c>
-      <c r="E7" s="323">
+      <c r="E7" s="321">
         <f t="shared" si="0"/>
         <v>43.168599999999998</v>
       </c>
-      <c r="F7" s="323">
+      <c r="F7" s="321">
         <f t="shared" si="1"/>
         <v>86.337199999999996</v>
       </c>
@@ -14914,11 +14916,11 @@
       <c r="D8">
         <v>30</v>
       </c>
-      <c r="E8" s="323">
+      <c r="E8" s="321">
         <f t="shared" si="0"/>
         <v>257.86799999999999</v>
       </c>
-      <c r="F8" s="323">
+      <c r="F8" s="321">
         <f t="shared" si="1"/>
         <v>386.80200000000002</v>
       </c>
@@ -14937,11 +14939,11 @@
       <c r="D9">
         <v>40</v>
       </c>
-      <c r="E9" s="323">
+      <c r="E9" s="321">
         <f t="shared" si="0"/>
         <v>37.749974999999992</v>
       </c>
-      <c r="F9" s="323">
+      <c r="F9" s="321">
         <f t="shared" si="1"/>
         <v>60.399959999999986</v>
       </c>
@@ -14960,11 +14962,11 @@
       <c r="D10">
         <v>160</v>
       </c>
-      <c r="E10" s="323">
+      <c r="E10" s="321">
         <f t="shared" si="0"/>
         <v>535.6</v>
       </c>
-      <c r="F10" s="323">
+      <c r="F10" s="321">
         <f t="shared" si="1"/>
         <v>1071.2</v>
       </c>
@@ -14983,11 +14985,11 @@
       <c r="D11">
         <v>30</v>
       </c>
-      <c r="E11" s="323">
+      <c r="E11" s="321">
         <f t="shared" si="0"/>
         <v>3191.2200000000003</v>
       </c>
-      <c r="F11" s="323">
+      <c r="F11" s="321">
         <f t="shared" si="1"/>
         <v>4786.83</v>
       </c>
@@ -15006,11 +15008,11 @@
       <c r="D12">
         <v>30</v>
       </c>
-      <c r="E12" s="323">
+      <c r="E12" s="321">
         <f t="shared" si="0"/>
         <v>1283.4879999999998</v>
       </c>
-      <c r="F12" s="323">
+      <c r="F12" s="321">
         <f t="shared" si="1"/>
         <v>1925.2319999999997</v>
       </c>
@@ -15038,7 +15040,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="316" t="s">
         <v>364</v>
       </c>
     </row>
@@ -15108,13 +15110,13 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="320" t="s">
+      <c r="A3" s="318" t="s">
         <v>370</v>
       </c>
-      <c r="B3" s="320" t="s">
+      <c r="B3" s="318" t="s">
         <v>371</v>
       </c>
-      <c r="C3" s="320" t="s">
+      <c r="C3" s="318" t="s">
         <v>372</v>
       </c>
     </row>
@@ -15183,65 +15185,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="316" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="318" t="s">
+      <c r="A2" s="316" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="318" t="s">
+      <c r="A3" s="316" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="318" t="s">
+      <c r="A4" s="316" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="318" t="s">
+      <c r="A5" s="316" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E6" s="330" t="s">
+      <c r="E6" s="325" t="s">
         <v>378</v>
       </c>
-      <c r="F6" s="330"/>
-      <c r="G6" s="330"/>
-      <c r="H6" s="330"/>
-      <c r="I6" s="330"/>
-    </row>
-    <row r="7" spans="1:9" s="319" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="320" t="s">
+      <c r="F6" s="325"/>
+      <c r="G6" s="325"/>
+      <c r="H6" s="325"/>
+      <c r="I6" s="325"/>
+    </row>
+    <row r="7" spans="1:9" s="317" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="318" t="s">
         <v>370</v>
       </c>
-      <c r="B7" s="320" t="s">
+      <c r="B7" s="318" t="s">
         <v>379</v>
       </c>
-      <c r="C7" s="320" t="s">
+      <c r="C7" s="318" t="s">
         <v>380</v>
       </c>
-      <c r="D7" s="320" t="s">
+      <c r="D7" s="318" t="s">
         <v>381</v>
       </c>
-      <c r="E7" s="320" t="s">
+      <c r="E7" s="318" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="320" t="s">
+      <c r="F7" s="318" t="s">
         <v>382</v>
       </c>
-      <c r="G7" s="320" t="s">
+      <c r="G7" s="318" t="s">
         <v>383</v>
       </c>
-      <c r="H7" s="320" t="s">
+      <c r="H7" s="318" t="s">
         <v>384</v>
       </c>
-      <c r="I7" s="320" t="s">
+      <c r="I7" s="318" t="s">
         <v>385</v>
       </c>
     </row>
@@ -15556,12 +15558,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="316" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="318" t="s">
+      <c r="A2" s="316" t="s">
         <v>387</v>
       </c>
     </row>
@@ -15658,65 +15660,65 @@
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="316" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="B4" s="330" t="s">
+      <c r="B4" s="325" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="330"/>
-      <c r="D4" s="330"/>
-      <c r="E4" s="330"/>
-      <c r="F4" s="330"/>
-      <c r="G4" s="330"/>
-      <c r="H4" s="330"/>
-      <c r="I4" s="330" t="s">
+      <c r="C4" s="325"/>
+      <c r="D4" s="325"/>
+      <c r="E4" s="325"/>
+      <c r="F4" s="325"/>
+      <c r="G4" s="325"/>
+      <c r="H4" s="325"/>
+      <c r="I4" s="325" t="s">
         <v>95</v>
       </c>
-      <c r="J4" s="330"/>
-      <c r="K4" s="330"/>
-      <c r="L4" s="330"/>
-      <c r="M4" s="330"/>
-      <c r="N4" s="330"/>
-      <c r="O4" s="330"/>
-      <c r="P4" s="330" t="s">
+      <c r="J4" s="325"/>
+      <c r="K4" s="325"/>
+      <c r="L4" s="325"/>
+      <c r="M4" s="325"/>
+      <c r="N4" s="325"/>
+      <c r="O4" s="325"/>
+      <c r="P4" s="325" t="s">
         <v>52</v>
       </c>
-      <c r="Q4" s="330"/>
-      <c r="R4" s="330"/>
-      <c r="S4" s="330"/>
-      <c r="T4" s="330"/>
-      <c r="U4" s="330"/>
-      <c r="V4" s="330"/>
-      <c r="W4" s="330" t="s">
+      <c r="Q4" s="325"/>
+      <c r="R4" s="325"/>
+      <c r="S4" s="325"/>
+      <c r="T4" s="325"/>
+      <c r="U4" s="325"/>
+      <c r="V4" s="325"/>
+      <c r="W4" s="325" t="s">
         <v>54</v>
       </c>
-      <c r="X4" s="330"/>
-      <c r="Y4" s="330"/>
-      <c r="Z4" s="330"/>
-      <c r="AA4" s="330"/>
-      <c r="AB4" s="330"/>
-      <c r="AC4" s="330"/>
-      <c r="AD4" s="330" t="s">
+      <c r="X4" s="325"/>
+      <c r="Y4" s="325"/>
+      <c r="Z4" s="325"/>
+      <c r="AA4" s="325"/>
+      <c r="AB4" s="325"/>
+      <c r="AC4" s="325"/>
+      <c r="AD4" s="325" t="s">
         <v>96</v>
       </c>
-      <c r="AE4" s="330"/>
-      <c r="AF4" s="330"/>
-      <c r="AG4" s="330"/>
-      <c r="AH4" s="330"/>
-      <c r="AI4" s="330"/>
-      <c r="AJ4" s="330"/>
-      <c r="AK4" s="330" t="s">
+      <c r="AE4" s="325"/>
+      <c r="AF4" s="325"/>
+      <c r="AG4" s="325"/>
+      <c r="AH4" s="325"/>
+      <c r="AI4" s="325"/>
+      <c r="AJ4" s="325"/>
+      <c r="AK4" s="325" t="s">
         <v>58</v>
       </c>
-      <c r="AL4" s="330"/>
-      <c r="AM4" s="330"/>
-      <c r="AN4" s="330"/>
-      <c r="AO4" s="330"/>
-      <c r="AP4" s="330"/>
-      <c r="AQ4" s="330"/>
+      <c r="AL4" s="325"/>
+      <c r="AM4" s="325"/>
+      <c r="AN4" s="325"/>
+      <c r="AO4" s="325"/>
+      <c r="AP4" s="325"/>
+      <c r="AQ4" s="325"/>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -19338,7 +19340,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="318" t="s">
+      <c r="A34" s="316" t="s">
         <v>398</v>
       </c>
     </row>
@@ -19610,57 +19612,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="316" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3" s="339" t="s">
+      <c r="A3" s="338" t="s">
         <v>370</v>
       </c>
-      <c r="B3" s="330" t="s">
+      <c r="B3" s="325" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="330"/>
-      <c r="D3" s="330"/>
+      <c r="C3" s="325"/>
+      <c r="D3" s="325"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="330" t="s">
+      <c r="G3" s="325" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="330"/>
-      <c r="I3" s="330"/>
+      <c r="H3" s="325"/>
+      <c r="I3" s="325"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="330" t="s">
+      <c r="L3" s="325" t="s">
         <v>52</v>
       </c>
-      <c r="M3" s="330"/>
-      <c r="N3" s="330"/>
+      <c r="M3" s="325"/>
+      <c r="N3" s="325"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="330" t="s">
+      <c r="Q3" s="325" t="s">
         <v>54</v>
       </c>
-      <c r="R3" s="330"/>
-      <c r="S3" s="330"/>
+      <c r="R3" s="325"/>
+      <c r="S3" s="325"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
-      <c r="V3" s="330" t="s">
+      <c r="V3" s="325" t="s">
         <v>96</v>
       </c>
-      <c r="W3" s="330"/>
-      <c r="X3" s="330"/>
+      <c r="W3" s="325"/>
+      <c r="X3" s="325"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="330" t="s">
+      <c r="AA3" s="325" t="s">
         <v>58</v>
       </c>
-      <c r="AB3" s="330"/>
-      <c r="AC3" s="330"/>
+      <c r="AB3" s="325"/>
+      <c r="AC3" s="325"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4" s="339"/>
+      <c r="A4" s="338"/>
       <c r="B4" s="165" t="s">
         <v>40</v>
       </c>
@@ -20744,57 +20746,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="316" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3" s="339" t="s">
+      <c r="A3" s="338" t="s">
         <v>370</v>
       </c>
-      <c r="B3" s="330" t="s">
+      <c r="B3" s="325" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="330"/>
-      <c r="D3" s="330"/>
+      <c r="C3" s="325"/>
+      <c r="D3" s="325"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="330" t="s">
+      <c r="G3" s="325" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="330"/>
-      <c r="I3" s="330"/>
+      <c r="H3" s="325"/>
+      <c r="I3" s="325"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="330" t="s">
+      <c r="L3" s="325" t="s">
         <v>52</v>
       </c>
-      <c r="M3" s="330"/>
-      <c r="N3" s="330"/>
+      <c r="M3" s="325"/>
+      <c r="N3" s="325"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="330" t="s">
+      <c r="Q3" s="325" t="s">
         <v>54</v>
       </c>
-      <c r="R3" s="330"/>
-      <c r="S3" s="330"/>
+      <c r="R3" s="325"/>
+      <c r="S3" s="325"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
-      <c r="V3" s="330" t="s">
+      <c r="V3" s="325" t="s">
         <v>96</v>
       </c>
-      <c r="W3" s="330"/>
-      <c r="X3" s="330"/>
+      <c r="W3" s="325"/>
+      <c r="X3" s="325"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="330" t="s">
+      <c r="AA3" s="325" t="s">
         <v>58</v>
       </c>
-      <c r="AB3" s="330"/>
-      <c r="AC3" s="330"/>
+      <c r="AB3" s="325"/>
+      <c r="AC3" s="325"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4" s="339"/>
+      <c r="A4" s="338"/>
       <c r="B4" s="165" t="s">
         <v>40</v>
       </c>
@@ -22535,54 +22537,54 @@
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="316" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2" s="324" t="s">
+      <c r="A2" s="322" t="s">
         <v>409</v>
       </c>
-      <c r="B2" s="330" t="s">
+      <c r="B2" s="325" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="330"/>
-      <c r="D2" s="330"/>
+      <c r="C2" s="325"/>
+      <c r="D2" s="325"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="330" t="s">
+      <c r="G2" s="325" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="330"/>
-      <c r="I2" s="330"/>
+      <c r="H2" s="325"/>
+      <c r="I2" s="325"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="330" t="s">
+      <c r="L2" s="325" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="330"/>
-      <c r="N2" s="330"/>
+      <c r="M2" s="325"/>
+      <c r="N2" s="325"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="330" t="s">
+      <c r="Q2" s="325" t="s">
         <v>54</v>
       </c>
-      <c r="R2" s="330"/>
-      <c r="S2" s="330"/>
+      <c r="R2" s="325"/>
+      <c r="S2" s="325"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
-      <c r="V2" s="330" t="s">
+      <c r="V2" s="325" t="s">
         <v>96</v>
       </c>
-      <c r="W2" s="330"/>
-      <c r="X2" s="330"/>
+      <c r="W2" s="325"/>
+      <c r="X2" s="325"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="330" t="s">
+      <c r="AA2" s="325" t="s">
         <v>58</v>
       </c>
-      <c r="AB2" s="330"/>
-      <c r="AC2" s="330"/>
+      <c r="AB2" s="325"/>
+      <c r="AC2" s="325"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -23108,62 +23110,62 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9" s="324" t="s">
+      <c r="A9" s="322" t="s">
         <v>410</v>
       </c>
-      <c r="B9" s="318" t="s">
+      <c r="B9" s="316" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A11" s="318" t="s">
+      <c r="A11" s="316" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A12" s="324" t="s">
+      <c r="A12" s="322" t="s">
         <v>413</v>
       </c>
-      <c r="B12" s="330" t="s">
+      <c r="B12" s="325" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="330"/>
-      <c r="D12" s="330"/>
+      <c r="C12" s="325"/>
+      <c r="D12" s="325"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="330" t="s">
+      <c r="G12" s="325" t="s">
         <v>95</v>
       </c>
-      <c r="H12" s="330"/>
-      <c r="I12" s="330"/>
+      <c r="H12" s="325"/>
+      <c r="I12" s="325"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="330" t="s">
+      <c r="L12" s="325" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="330"/>
-      <c r="N12" s="330"/>
+      <c r="M12" s="325"/>
+      <c r="N12" s="325"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="330" t="s">
+      <c r="Q12" s="325" t="s">
         <v>54</v>
       </c>
-      <c r="R12" s="330"/>
-      <c r="S12" s="330"/>
+      <c r="R12" s="325"/>
+      <c r="S12" s="325"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
-      <c r="V12" s="330" t="s">
+      <c r="V12" s="325" t="s">
         <v>96</v>
       </c>
-      <c r="W12" s="330"/>
-      <c r="X12" s="330"/>
+      <c r="W12" s="325"/>
+      <c r="X12" s="325"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="330" t="s">
+      <c r="AA12" s="325" t="s">
         <v>58</v>
       </c>
-      <c r="AB12" s="330"/>
-      <c r="AC12" s="330"/>
+      <c r="AB12" s="325"/>
+      <c r="AC12" s="325"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -23903,62 +23905,62 @@
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A21" s="324" t="s">
+      <c r="A21" s="322" t="s">
         <v>410</v>
       </c>
-      <c r="B21" s="318" t="s">
+      <c r="B21" s="316" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A23" s="318" t="s">
+      <c r="A23" s="316" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A24" s="324" t="s">
+      <c r="A24" s="322" t="s">
         <v>416</v>
       </c>
-      <c r="B24" s="330" t="s">
+      <c r="B24" s="325" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="330"/>
-      <c r="D24" s="330"/>
+      <c r="C24" s="325"/>
+      <c r="D24" s="325"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="330" t="s">
+      <c r="G24" s="325" t="s">
         <v>95</v>
       </c>
-      <c r="H24" s="330"/>
-      <c r="I24" s="330"/>
+      <c r="H24" s="325"/>
+      <c r="I24" s="325"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="330" t="s">
+      <c r="L24" s="325" t="s">
         <v>52</v>
       </c>
-      <c r="M24" s="330"/>
-      <c r="N24" s="330"/>
+      <c r="M24" s="325"/>
+      <c r="N24" s="325"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="330" t="s">
+      <c r="Q24" s="325" t="s">
         <v>54</v>
       </c>
-      <c r="R24" s="330"/>
-      <c r="S24" s="330"/>
+      <c r="R24" s="325"/>
+      <c r="S24" s="325"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
-      <c r="V24" s="330" t="s">
+      <c r="V24" s="325" t="s">
         <v>96</v>
       </c>
-      <c r="W24" s="330"/>
-      <c r="X24" s="330"/>
+      <c r="W24" s="325"/>
+      <c r="X24" s="325"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
-      <c r="AA24" s="330" t="s">
+      <c r="AA24" s="325" t="s">
         <v>58</v>
       </c>
-      <c r="AB24" s="330"/>
-      <c r="AC24" s="330"/>
+      <c r="AB24" s="325"/>
+      <c r="AC24" s="325"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -24484,59 +24486,59 @@
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A31" s="324" t="s">
+      <c r="A31" s="322" t="s">
         <v>410</v>
       </c>
-      <c r="B31" s="318" t="s">
+      <c r="B31" s="316" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A33" s="318" t="s">
+      <c r="A33" s="316" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="C34" s="330" t="s">
+      <c r="C34" s="325" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="330"/>
-      <c r="E34" s="330"/>
-      <c r="F34" s="330"/>
-      <c r="G34" s="330"/>
-      <c r="H34" s="330" t="s">
+      <c r="D34" s="325"/>
+      <c r="E34" s="325"/>
+      <c r="F34" s="325"/>
+      <c r="G34" s="325"/>
+      <c r="H34" s="325" t="s">
         <v>95</v>
       </c>
-      <c r="I34" s="330"/>
-      <c r="J34" s="330"/>
-      <c r="K34" s="330"/>
-      <c r="L34" s="330"/>
-      <c r="M34" s="330" t="s">
+      <c r="I34" s="325"/>
+      <c r="J34" s="325"/>
+      <c r="K34" s="325"/>
+      <c r="L34" s="325"/>
+      <c r="M34" s="325" t="s">
         <v>52</v>
       </c>
-      <c r="N34" s="330"/>
-      <c r="O34" s="330"/>
-      <c r="P34" s="330"/>
-      <c r="Q34" s="330"/>
-      <c r="R34" s="330" t="s">
+      <c r="N34" s="325"/>
+      <c r="O34" s="325"/>
+      <c r="P34" s="325"/>
+      <c r="Q34" s="325"/>
+      <c r="R34" s="325" t="s">
         <v>54</v>
       </c>
-      <c r="S34" s="330"/>
-      <c r="T34" s="330"/>
-      <c r="U34" s="330"/>
-      <c r="V34" s="330"/>
-      <c r="W34" s="330" t="s">
+      <c r="S34" s="325"/>
+      <c r="T34" s="325"/>
+      <c r="U34" s="325"/>
+      <c r="V34" s="325"/>
+      <c r="W34" s="325" t="s">
         <v>96</v>
       </c>
-      <c r="X34" s="330"/>
-      <c r="Y34" s="330"/>
-      <c r="Z34" s="330"/>
-      <c r="AA34" s="330"/>
-      <c r="AB34" s="330" t="s">
+      <c r="X34" s="325"/>
+      <c r="Y34" s="325"/>
+      <c r="Z34" s="325"/>
+      <c r="AA34" s="325"/>
+      <c r="AB34" s="325" t="s">
         <v>58</v>
       </c>
-      <c r="AC34" s="330"/>
-      <c r="AD34" s="330"/>
+      <c r="AC34" s="325"/>
+      <c r="AD34" s="325"/>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C35" s="165" t="s">
@@ -24845,15 +24847,27 @@
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A39" s="324" t="s">
+      <c r="A39" s="322" t="s">
         <v>410</v>
       </c>
-      <c r="B39" s="318" t="s">
+      <c r="B39" s="316" t="s">
         <v>411</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="AA24:AC24"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="M34:Q34"/>
+    <mergeCell ref="R34:V34"/>
+    <mergeCell ref="W34:AA34"/>
+    <mergeCell ref="AB34:AD34"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="V24:X24"/>
     <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="G12:I12"/>
@@ -24866,18 +24880,6 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="AA24:AC24"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="M34:Q34"/>
-    <mergeCell ref="R34:V34"/>
-    <mergeCell ref="W34:AA34"/>
-    <mergeCell ref="AB34:AD34"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="V24:X24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -24914,8 +24916,8 @@
       <c r="A2" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="335"/>
-      <c r="C2" s="335"/>
+      <c r="B2" s="334"/>
+      <c r="C2" s="334"/>
       <c r="R2" s="126" t="s">
         <v>104</v>
       </c>
@@ -24940,22 +24942,22 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="336" t="s">
+      <c r="B5" s="335" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="336"/>
-      <c r="D5" s="336" t="s">
+      <c r="C5" s="335"/>
+      <c r="D5" s="335" t="s">
         <v>109</v>
       </c>
-      <c r="E5" s="336"/>
-      <c r="F5" s="336"/>
-      <c r="J5" s="337" t="s">
+      <c r="E5" s="335"/>
+      <c r="F5" s="335"/>
+      <c r="J5" s="336" t="s">
         <v>110</v>
       </c>
-      <c r="K5" s="337"/>
-      <c r="L5" s="337"/>
-      <c r="M5" s="337"/>
-      <c r="N5" s="337"/>
+      <c r="K5" s="336"/>
+      <c r="L5" s="336"/>
+      <c r="M5" s="336"/>
+      <c r="N5" s="336"/>
       <c r="R5" s="126" t="s">
         <v>111</v>
       </c>
@@ -25118,13 +25120,13 @@
         <f>NCRP147_4.7!H8</f>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="J9" s="334" t="s">
+      <c r="J9" s="333" t="s">
         <v>122</v>
       </c>
-      <c r="K9" s="334"/>
-      <c r="L9" s="334"/>
-      <c r="M9" s="334"/>
-      <c r="N9" s="334"/>
+      <c r="K9" s="333"/>
+      <c r="L9" s="333"/>
+      <c r="M9" s="333"/>
+      <c r="N9" s="333"/>
       <c r="Q9" s="125" t="s">
         <v>123</v>
       </c>
@@ -25258,13 +25260,13 @@
         <v>126</v>
       </c>
       <c r="B13" s="132"/>
-      <c r="J13" s="334" t="s">
+      <c r="J13" s="333" t="s">
         <v>127</v>
       </c>
-      <c r="K13" s="334"/>
-      <c r="L13" s="334"/>
-      <c r="M13" s="334"/>
-      <c r="N13" s="334"/>
+      <c r="K13" s="333"/>
+      <c r="L13" s="333"/>
+      <c r="M13" s="333"/>
+      <c r="N13" s="333"/>
       <c r="Q13" s="125" t="s">
         <v>128</v>
       </c>
@@ -25354,13 +25356,13 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="J17" s="334" t="s">
+      <c r="J17" s="333" t="s">
         <v>133</v>
       </c>
-      <c r="K17" s="334"/>
-      <c r="L17" s="334"/>
-      <c r="M17" s="334"/>
-      <c r="N17" s="334"/>
+      <c r="K17" s="333"/>
+      <c r="L17" s="333"/>
+      <c r="M17" s="333"/>
+      <c r="N17" s="333"/>
       <c r="Q17" s="125" t="s">
         <v>134</v>
       </c>
@@ -26968,10 +26970,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="151"/>
-      <c r="Q1" s="336" t="s">
+      <c r="Q1" s="335" t="s">
         <v>163</v>
       </c>
-      <c r="R1" s="336"/>
+      <c r="R1" s="335"/>
       <c r="U1" s="149" t="s">
         <v>164</v>
       </c>
@@ -26983,8 +26985,8 @@
       <c r="A2" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="338"/>
-      <c r="C2" s="338"/>
+      <c r="B2" s="337"/>
+      <c r="C2" s="337"/>
       <c r="Q2" s="150" t="s">
         <v>166</v>
       </c>
@@ -27069,10 +27071,10 @@
       <c r="E6" s="155" t="s">
         <v>170</v>
       </c>
-      <c r="P6" s="339" t="s">
+      <c r="P6" s="338" t="s">
         <v>171</v>
       </c>
-      <c r="Q6" s="339"/>
+      <c r="Q6" s="338"/>
       <c r="U6" s="149">
         <v>4706.8999999999996</v>
       </c>
@@ -27135,20 +27137,20 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="E10" s="336" t="s">
+      <c r="E10" s="335" t="s">
         <v>176</v>
       </c>
-      <c r="F10" s="336"/>
+      <c r="F10" s="335"/>
       <c r="G10" s="158" t="s">
         <v>177</v>
       </c>
       <c r="H10" s="159" t="s">
         <v>178</v>
       </c>
-      <c r="I10" s="336" t="s">
+      <c r="I10" s="335" t="s">
         <v>179</v>
       </c>
-      <c r="J10" s="336"/>
+      <c r="J10" s="335"/>
       <c r="K10" s="158" t="s">
         <v>177</v>
       </c>
@@ -27312,13 +27314,13 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O14" s="334" t="s">
+      <c r="O14" s="333" t="s">
         <v>185</v>
       </c>
-      <c r="P14" s="334"/>
-      <c r="Q14" s="334"/>
-      <c r="R14" s="334"/>
-      <c r="S14" s="334"/>
+      <c r="P14" s="333"/>
+      <c r="Q14" s="333"/>
+      <c r="R14" s="333"/>
+      <c r="S14" s="333"/>
       <c r="U14" s="149">
         <v>3873.1</v>
       </c>
@@ -28982,20 +28984,20 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C32" s="340" t="s">
+      <c r="C32" s="339" t="s">
         <v>249</v>
       </c>
-      <c r="D32" s="340"/>
-      <c r="E32" s="340"/>
-      <c r="F32" s="340"/>
-      <c r="G32" s="340"/>
-      <c r="H32" s="340"/>
-      <c r="I32" s="340"/>
-      <c r="J32" s="340"/>
-      <c r="K32" s="340"/>
-      <c r="L32" s="340"/>
-      <c r="M32" s="340"/>
-      <c r="N32" s="340"/>
+      <c r="D32" s="339"/>
+      <c r="E32" s="339"/>
+      <c r="F32" s="339"/>
+      <c r="G32" s="339"/>
+      <c r="H32" s="339"/>
+      <c r="I32" s="339"/>
+      <c r="J32" s="339"/>
+      <c r="K32" s="339"/>
+      <c r="L32" s="339"/>
+      <c r="M32" s="339"/>
+      <c r="N32" s="339"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C33" s="180" t="s">
@@ -29036,7 +29038,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="340" t="s">
+      <c r="A34" s="339" t="s">
         <v>250</v>
       </c>
       <c r="B34" s="178" t="str">
@@ -29093,7 +29095,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="340"/>
+      <c r="A35" s="339"/>
       <c r="B35" s="178" t="str">
         <f t="shared" si="4"/>
         <v>NM Hold 1</v>
@@ -29148,7 +29150,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="340"/>
+      <c r="A36" s="339"/>
       <c r="B36" s="178" t="str">
         <f t="shared" si="4"/>
         <v>NM Hold 2</v>
@@ -29203,7 +29205,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="340"/>
+      <c r="A37" s="339"/>
       <c r="B37" s="178" t="str">
         <f t="shared" si="4"/>
         <v>NM Camera 1</v>
@@ -29258,7 +29260,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="340"/>
+      <c r="A38" s="339"/>
       <c r="B38" s="178" t="str">
         <f t="shared" si="4"/>
         <v>NM Camera 2</v>
@@ -29313,7 +29315,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="340"/>
+      <c r="A39" s="339"/>
       <c r="B39" s="178" t="str">
         <f t="shared" si="4"/>
         <v>Stress Lab</v>
@@ -29368,7 +29370,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="340"/>
+      <c r="A40" s="339"/>
       <c r="B40" s="178" t="str">
         <f t="shared" si="4"/>
         <v>Hot Toilet</v>
@@ -29423,7 +29425,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="340"/>
+      <c r="A41" s="339"/>
       <c r="B41" s="178" t="str">
         <f t="shared" si="4"/>
         <v>Radiology Waiting</v>
@@ -29483,20 +29485,20 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C45" s="340" t="s">
+      <c r="C45" s="339" t="s">
         <v>249</v>
       </c>
-      <c r="D45" s="340"/>
-      <c r="E45" s="340"/>
-      <c r="F45" s="340"/>
-      <c r="G45" s="340"/>
-      <c r="H45" s="340"/>
-      <c r="I45" s="340"/>
-      <c r="J45" s="340"/>
-      <c r="K45" s="340"/>
-      <c r="L45" s="340"/>
-      <c r="M45" s="340"/>
-      <c r="N45" s="340"/>
+      <c r="D45" s="339"/>
+      <c r="E45" s="339"/>
+      <c r="F45" s="339"/>
+      <c r="G45" s="339"/>
+      <c r="H45" s="339"/>
+      <c r="I45" s="339"/>
+      <c r="J45" s="339"/>
+      <c r="K45" s="339"/>
+      <c r="L45" s="339"/>
+      <c r="M45" s="339"/>
+      <c r="N45" s="339"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C46" s="180" t="str">
@@ -29602,7 +29604,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="340" t="s">
+      <c r="A48" s="339" t="s">
         <v>250</v>
       </c>
       <c r="B48" s="178" t="str">
@@ -29659,7 +29661,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="340"/>
+      <c r="A49" s="339"/>
       <c r="B49" s="178" t="str">
         <f t="shared" si="9"/>
         <v>NM Hold 1</v>
@@ -29714,7 +29716,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="340"/>
+      <c r="A50" s="339"/>
       <c r="B50" s="178" t="str">
         <f t="shared" si="9"/>
         <v>NM Hold 2</v>
@@ -29769,7 +29771,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="340"/>
+      <c r="A51" s="339"/>
       <c r="B51" s="178" t="str">
         <f t="shared" si="9"/>
         <v>NM Camera 1</v>
@@ -29824,7 +29826,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="340"/>
+      <c r="A52" s="339"/>
       <c r="B52" s="178" t="str">
         <f t="shared" si="9"/>
         <v>NM Camera 2</v>
@@ -29879,7 +29881,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="340"/>
+      <c r="A53" s="339"/>
       <c r="B53" s="178" t="str">
         <f t="shared" si="9"/>
         <v>Stress Lab</v>
@@ -29934,7 +29936,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="340"/>
+      <c r="A54" s="339"/>
       <c r="B54" s="178" t="str">
         <f t="shared" si="9"/>
         <v>Hot Toilet</v>
@@ -29989,7 +29991,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="340"/>
+      <c r="A55" s="339"/>
       <c r="B55" s="178" t="str">
         <f t="shared" si="9"/>
         <v>Radiology Waiting</v>
@@ -30049,20 +30051,20 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B58" s="340" t="s">
+      <c r="B58" s="339" t="s">
         <v>249</v>
       </c>
-      <c r="C58" s="340"/>
-      <c r="D58" s="340"/>
-      <c r="E58" s="340"/>
-      <c r="F58" s="340"/>
-      <c r="G58" s="340"/>
-      <c r="H58" s="340"/>
-      <c r="I58" s="340"/>
-      <c r="J58" s="340"/>
-      <c r="K58" s="340"/>
-      <c r="L58" s="340"/>
-      <c r="M58" s="340"/>
+      <c r="C58" s="339"/>
+      <c r="D58" s="339"/>
+      <c r="E58" s="339"/>
+      <c r="F58" s="339"/>
+      <c r="G58" s="339"/>
+      <c r="H58" s="339"/>
+      <c r="I58" s="339"/>
+      <c r="J58" s="339"/>
+      <c r="K58" s="339"/>
+      <c r="L58" s="339"/>
+      <c r="M58" s="339"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="178" t="s">
@@ -30388,20 +30390,20 @@
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C67" s="340" t="s">
+      <c r="C67" s="339" t="s">
         <v>249</v>
       </c>
-      <c r="D67" s="340"/>
-      <c r="E67" s="340"/>
-      <c r="F67" s="340"/>
-      <c r="G67" s="340"/>
-      <c r="H67" s="340"/>
-      <c r="I67" s="340"/>
-      <c r="J67" s="340"/>
-      <c r="K67" s="340"/>
-      <c r="L67" s="340"/>
-      <c r="M67" s="340"/>
-      <c r="N67" s="340"/>
+      <c r="D67" s="339"/>
+      <c r="E67" s="339"/>
+      <c r="F67" s="339"/>
+      <c r="G67" s="339"/>
+      <c r="H67" s="339"/>
+      <c r="I67" s="339"/>
+      <c r="J67" s="339"/>
+      <c r="K67" s="339"/>
+      <c r="L67" s="339"/>
+      <c r="M67" s="339"/>
+      <c r="N67" s="339"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C68" s="180" t="str">
@@ -30454,7 +30456,7 @@
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="340" t="s">
+      <c r="A69" s="339" t="s">
         <v>250</v>
       </c>
       <c r="B69" s="178" t="str">
@@ -30511,7 +30513,7 @@
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="340"/>
+      <c r="A70" s="339"/>
       <c r="B70" s="178" t="str">
         <f t="shared" si="24"/>
         <v>NM Hold 1</v>
@@ -30566,7 +30568,7 @@
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="340"/>
+      <c r="A71" s="339"/>
       <c r="B71" s="178" t="str">
         <f t="shared" si="24"/>
         <v>NM Hold 2</v>
@@ -30621,7 +30623,7 @@
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="340"/>
+      <c r="A72" s="339"/>
       <c r="B72" s="178" t="str">
         <f t="shared" si="24"/>
         <v>NM Camera 1</v>
@@ -30676,7 +30678,7 @@
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="340"/>
+      <c r="A73" s="339"/>
       <c r="B73" s="178" t="str">
         <f t="shared" si="24"/>
         <v>NM Camera 2</v>
@@ -30731,7 +30733,7 @@
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A74" s="340"/>
+      <c r="A74" s="339"/>
       <c r="B74" s="178" t="str">
         <f t="shared" si="24"/>
         <v>Stress Lab</v>
@@ -30786,7 +30788,7 @@
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" s="340"/>
+      <c r="A75" s="339"/>
       <c r="B75" s="178" t="str">
         <f t="shared" si="24"/>
         <v>Hot Toilet</v>
@@ -30841,7 +30843,7 @@
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A76" s="340"/>
+      <c r="A76" s="339"/>
       <c r="B76" s="178" t="str">
         <f t="shared" si="24"/>
         <v>Radiology Waiting</v>
@@ -31033,8 +31035,8 @@
   </sheetPr>
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31319,14 +31321,14 @@
       <c r="M18" s="190"/>
       <c r="N18" s="191"/>
       <c r="P18" s="210"/>
-      <c r="Q18" s="341" t="s">
+      <c r="Q18" s="340" t="s">
         <v>277</v>
       </c>
-      <c r="R18" s="341"/>
-      <c r="S18" s="341"/>
-      <c r="T18" s="341"/>
-      <c r="U18" s="341"/>
-      <c r="V18" s="341"/>
+      <c r="R18" s="340"/>
+      <c r="S18" s="340"/>
+      <c r="T18" s="340"/>
+      <c r="U18" s="340"/>
+      <c r="V18" s="340"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="209"/>
@@ -31357,16 +31359,16 @@
       </c>
       <c r="N19" s="194"/>
       <c r="P19" s="209"/>
-      <c r="Q19" s="342" t="s">
+      <c r="Q19" s="341" t="s">
         <v>281</v>
       </c>
-      <c r="R19" s="342"/>
-      <c r="S19" s="342"/>
-      <c r="T19" s="331" t="s">
+      <c r="R19" s="341"/>
+      <c r="S19" s="341"/>
+      <c r="T19" s="326" t="s">
         <v>95</v>
       </c>
-      <c r="U19" s="331"/>
-      <c r="V19" s="331"/>
+      <c r="U19" s="326"/>
+      <c r="V19" s="326"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="209"/>
@@ -31563,14 +31565,14 @@
       <c r="N24" s="193"/>
       <c r="O24" s="193"/>
       <c r="P24" s="232"/>
-      <c r="Q24" s="341" t="s">
+      <c r="Q24" s="340" t="s">
         <v>277</v>
       </c>
-      <c r="R24" s="341"/>
-      <c r="S24" s="341"/>
-      <c r="T24" s="341"/>
-      <c r="U24" s="341"/>
-      <c r="V24" s="341"/>
+      <c r="R24" s="340"/>
+      <c r="S24" s="340"/>
+      <c r="T24" s="340"/>
+      <c r="U24" s="340"/>
+      <c r="V24" s="340"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="207" t="s">
@@ -31656,7 +31658,7 @@
       <c r="H27" s="239" t="s">
         <v>48</v>
       </c>
-      <c r="J27" s="343" t="s">
+      <c r="J27" s="342" t="s">
         <v>177</v>
       </c>
       <c r="K27" s="187" t="s">
@@ -31712,7 +31714,7 @@
       <c r="H28" s="243" t="s">
         <v>305</v>
       </c>
-      <c r="J28" s="343"/>
+      <c r="J28" s="342"/>
       <c r="K28" s="187" t="s">
         <v>306</v>
       </c>
@@ -32516,7 +32518,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -32544,9 +32548,8 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="267">
-        <f>Table!B3</f>
-        <v>0</v>
+      <c r="A2" s="267" t="s">
+        <v>419</v>
       </c>
       <c r="L2" s="266" t="s">
         <v>3</v>
@@ -32905,7 +32908,7 @@
       <c r="E18" s="285" t="s">
         <v>325</v>
       </c>
-      <c r="F18" s="344" t="s">
+      <c r="F18" s="343" t="s">
         <v>326</v>
       </c>
       <c r="G18" s="285"/>
@@ -32955,7 +32958,7 @@
       <c r="E19" s="285" t="s">
         <v>296</v>
       </c>
-      <c r="F19" s="344"/>
+      <c r="F19" s="343"/>
       <c r="G19" s="285" t="s">
         <v>48</v>
       </c>
@@ -32983,27 +32986,27 @@
         <v>302</v>
       </c>
       <c r="D20" s="286" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="E20" s="286" t="s">
         <v>327</v>
       </c>
-      <c r="F20" s="344"/>
+      <c r="F20" s="343"/>
       <c r="G20" s="286" t="s">
         <v>305</v>
       </c>
       <c r="H20" s="286" t="s">
         <v>328</v>
       </c>
-      <c r="L20" s="345" t="s">
+      <c r="L20" s="344" t="s">
         <v>329</v>
       </c>
-      <c r="M20" s="345"/>
-      <c r="N20" s="345"/>
-      <c r="O20" s="345"/>
-      <c r="P20" s="345"/>
-      <c r="Q20" s="345"/>
-      <c r="R20" s="345"/>
+      <c r="M20" s="344"/>
+      <c r="N20" s="344"/>
+      <c r="O20" s="344"/>
+      <c r="P20" s="344"/>
+      <c r="Q20" s="344"/>
+      <c r="R20" s="344"/>
       <c r="T20" s="263">
         <v>1.1906250009999999</v>
       </c>
@@ -33018,22 +33021,19 @@
       <c r="A21" s="283"/>
       <c r="B21" s="283"/>
       <c r="C21" s="284"/>
-      <c r="D21" s="287" t="e">
-        <f t="shared" ref="D21:D28" si="0">RefOutput*(C21/RefDist)^2</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E21" s="288"/>
-      <c r="F21" s="289" t="e">
-        <f t="shared" ref="F21:F28" si="1">IF(OR(D21="TBD",D21=""),"",E21/(D21*1000))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G21" s="290" t="e">
-        <f t="shared" ref="G21:G28" si="2">IF(M22="","",M22)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H21" s="291" t="e">
-        <f t="shared" ref="H21:H30" si="3">IF(M22="","",VLOOKUP(G21,$T$12:$U$47,2))</f>
-        <v>#VALUE!</v>
+      <c r="D21" s="291"/>
+      <c r="E21" s="323"/>
+      <c r="F21" s="287" t="str">
+        <f t="shared" ref="F21:F28" si="0">IF(OR(D21="TBD",D21=""),"",E21/(D21*1000))</f>
+        <v/>
+      </c>
+      <c r="G21" s="288" t="str">
+        <f t="shared" ref="G21:G28" si="1">IF(M22="","",M22)</f>
+        <v/>
+      </c>
+      <c r="H21" s="289" t="str">
+        <f t="shared" ref="H21:H30" si="2">IF(M22="","",VLOOKUP(G21,$T$12:$U$47,2))</f>
+        <v/>
       </c>
       <c r="L21" s="266" t="s">
         <v>330</v>
@@ -33070,50 +33070,47 @@
       <c r="A22" s="283"/>
       <c r="B22" s="283"/>
       <c r="C22" s="284"/>
-      <c r="D22" s="287" t="e">
+      <c r="D22" s="291"/>
+      <c r="E22" s="323"/>
+      <c r="F22" s="287" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E22" s="288"/>
-      <c r="F22" s="289" t="e">
+        <v/>
+      </c>
+      <c r="G22" s="288" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G22" s="290" t="e">
+        <v/>
+      </c>
+      <c r="H22" s="289" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H22" s="291" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L22" s="292" t="e">
-        <f t="shared" ref="L22:L31" si="4">IF(F21="","",F21)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M22" s="292" t="e">
-        <f t="shared" ref="M22:M31" si="5">IF($L22="","",LN(($L22^(-$O$13)+($N$13/$M$13))/(1+$N$13/$M$13))/($M$13*$O$13))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N22" s="292" t="e">
-        <f t="shared" ref="N22:N31" si="6">IF($L22="","",LN(($L22^(-$O$14)+($N$14/$M$14))/(1+$N$14/$M$14))/($M$14*$O$14))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O22" s="292" t="e">
-        <f t="shared" ref="O22:O31" si="7">IF($L22="","",LN(($L22^(-$O$15)+($N$15/$M$15))/(1+$N$15/$M$15))/($M$15*$O$15))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P22" s="292" t="e">
-        <f t="shared" ref="P22:P31" si="8">IF($L22="","",LN(($L22^(-$O$16)+($N$16/$M$16))/(1+$N$16/$M$16))/($M$16*$O$16))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q22" s="292" t="e">
-        <f t="shared" ref="Q22:Q31" si="9">IF($L22="","",LN(($L22^(-$O$17)+($N$17/$M$17))/(1+$N$17/$M$17))/($M$17*$O$17))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R22" s="292" t="e">
-        <f t="shared" ref="R22:R31" si="10">IF($L22="","",LN(($L22^(-$O$18)+($N$18/$M$18))/(1+$N$18/$M$18))/($M$18*$O$18))</f>
-        <v>#VALUE!</v>
+        <v/>
+      </c>
+      <c r="L22" s="290" t="str">
+        <f t="shared" ref="L22:L31" si="3">IF(F21="","",F21)</f>
+        <v/>
+      </c>
+      <c r="M22" s="290" t="str">
+        <f t="shared" ref="M22:M31" si="4">IF($L22="","",LN(($L22^(-$O$13)+($N$13/$M$13))/(1+$N$13/$M$13))/($M$13*$O$13))</f>
+        <v/>
+      </c>
+      <c r="N22" s="290" t="str">
+        <f t="shared" ref="N22:N31" si="5">IF($L22="","",LN(($L22^(-$O$14)+($N$14/$M$14))/(1+$N$14/$M$14))/($M$14*$O$14))</f>
+        <v/>
+      </c>
+      <c r="O22" s="290" t="str">
+        <f t="shared" ref="O22:O31" si="6">IF($L22="","",LN(($L22^(-$O$15)+($N$15/$M$15))/(1+$N$15/$M$15))/($M$15*$O$15))</f>
+        <v/>
+      </c>
+      <c r="P22" s="290" t="str">
+        <f t="shared" ref="P22:P31" si="7">IF($L22="","",LN(($L22^(-$O$16)+($N$16/$M$16))/(1+$N$16/$M$16))/($M$16*$O$16))</f>
+        <v/>
+      </c>
+      <c r="Q22" s="290" t="str">
+        <f t="shared" ref="Q22:Q31" si="8">IF($L22="","",LN(($L22^(-$O$17)+($N$17/$M$17))/(1+$N$17/$M$17))/($M$17*$O$17))</f>
+        <v/>
+      </c>
+      <c r="R22" s="290" t="str">
+        <f t="shared" ref="R22:R31" si="9">IF($L22="","",LN(($L22^(-$O$18)+($N$18/$M$18))/(1+$N$18/$M$18))/($M$18*$O$18))</f>
+        <v/>
       </c>
       <c r="T22" s="263">
         <v>1.587500001</v>
@@ -33129,50 +33126,47 @@
       <c r="A23" s="283"/>
       <c r="B23" s="283"/>
       <c r="C23" s="284"/>
-      <c r="D23" s="287" t="e">
+      <c r="D23" s="291"/>
+      <c r="E23" s="323"/>
+      <c r="F23" s="287" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E23" s="288"/>
-      <c r="F23" s="289" t="e">
+        <v/>
+      </c>
+      <c r="G23" s="288" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G23" s="290" t="e">
+        <v/>
+      </c>
+      <c r="H23" s="289" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H23" s="291" t="e">
+        <v/>
+      </c>
+      <c r="L23" s="290" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L23" s="292" t="e">
+        <v/>
+      </c>
+      <c r="M23" s="290" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M23" s="292" t="e">
+        <v/>
+      </c>
+      <c r="N23" s="290" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N23" s="292" t="e">
+        <v/>
+      </c>
+      <c r="O23" s="290" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O23" s="292" t="e">
+        <v/>
+      </c>
+      <c r="P23" s="290" t="str">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P23" s="292" t="e">
+        <v/>
+      </c>
+      <c r="Q23" s="290" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q23" s="292" t="e">
+        <v/>
+      </c>
+      <c r="R23" s="290" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R23" s="292" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="T23" s="263">
         <v>1.785937501</v>
@@ -33188,50 +33182,47 @@
       <c r="A24" s="283"/>
       <c r="B24" s="283"/>
       <c r="C24" s="284"/>
-      <c r="D24" s="287" t="e">
+      <c r="D24" s="291"/>
+      <c r="E24" s="323"/>
+      <c r="F24" s="287" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E24" s="288"/>
-      <c r="F24" s="289" t="e">
+        <v/>
+      </c>
+      <c r="G24" s="288" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G24" s="290" t="e">
+        <v/>
+      </c>
+      <c r="H24" s="289" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H24" s="291" t="e">
+        <v/>
+      </c>
+      <c r="L24" s="290" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L24" s="292" t="e">
+        <v/>
+      </c>
+      <c r="M24" s="290" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M24" s="292" t="e">
+        <v/>
+      </c>
+      <c r="N24" s="290" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N24" s="292" t="e">
+        <v/>
+      </c>
+      <c r="O24" s="290" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O24" s="292" t="e">
+        <v/>
+      </c>
+      <c r="P24" s="290" t="str">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P24" s="292" t="e">
+        <v/>
+      </c>
+      <c r="Q24" s="290" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q24" s="292" t="e">
+        <v/>
+      </c>
+      <c r="R24" s="290" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R24" s="292" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="T24" s="263">
         <v>1.9843750010000001</v>
@@ -33247,50 +33238,47 @@
       <c r="A25" s="283"/>
       <c r="B25" s="283"/>
       <c r="C25" s="284"/>
-      <c r="D25" s="287" t="e">
+      <c r="D25" s="291"/>
+      <c r="E25" s="323"/>
+      <c r="F25" s="287" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E25" s="288"/>
-      <c r="F25" s="289" t="e">
+        <v/>
+      </c>
+      <c r="G25" s="288" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G25" s="290" t="e">
+        <v/>
+      </c>
+      <c r="H25" s="289" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H25" s="291" t="e">
+        <v/>
+      </c>
+      <c r="L25" s="290" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L25" s="292" t="e">
+        <v/>
+      </c>
+      <c r="M25" s="290" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M25" s="292" t="e">
+        <v/>
+      </c>
+      <c r="N25" s="290" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N25" s="292" t="e">
+        <v/>
+      </c>
+      <c r="O25" s="290" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O25" s="292" t="e">
+        <v/>
+      </c>
+      <c r="P25" s="290" t="str">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P25" s="292" t="e">
+        <v/>
+      </c>
+      <c r="Q25" s="290" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q25" s="292" t="e">
+        <v/>
+      </c>
+      <c r="R25" s="290" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R25" s="292" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="T25" s="263">
         <v>2.1828125009999999</v>
@@ -33306,50 +33294,47 @@
       <c r="A26" s="283"/>
       <c r="B26" s="283"/>
       <c r="C26" s="284"/>
-      <c r="D26" s="287" t="e">
+      <c r="D26" s="291"/>
+      <c r="E26" s="323"/>
+      <c r="F26" s="287" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E26" s="288"/>
-      <c r="F26" s="289" t="e">
+        <v/>
+      </c>
+      <c r="G26" s="288" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G26" s="290" t="e">
+        <v/>
+      </c>
+      <c r="H26" s="289" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H26" s="291" t="e">
+        <v/>
+      </c>
+      <c r="L26" s="290" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L26" s="292" t="e">
+        <v/>
+      </c>
+      <c r="M26" s="290" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M26" s="292" t="e">
+        <v/>
+      </c>
+      <c r="N26" s="290" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N26" s="292" t="e">
+        <v/>
+      </c>
+      <c r="O26" s="290" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O26" s="292" t="e">
+        <v/>
+      </c>
+      <c r="P26" s="290" t="str">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P26" s="292" t="e">
+        <v/>
+      </c>
+      <c r="Q26" s="290" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q26" s="292" t="e">
+        <v/>
+      </c>
+      <c r="R26" s="290" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R26" s="292" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="T26" s="263">
         <v>2.3812500010000002</v>
@@ -33365,50 +33350,47 @@
       <c r="A27" s="283"/>
       <c r="B27" s="283"/>
       <c r="C27" s="284"/>
-      <c r="D27" s="287" t="e">
+      <c r="D27" s="291"/>
+      <c r="E27" s="323"/>
+      <c r="F27" s="287" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E27" s="283"/>
-      <c r="F27" s="289" t="e">
+        <v/>
+      </c>
+      <c r="G27" s="288" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G27" s="290" t="e">
+        <v/>
+      </c>
+      <c r="H27" s="289" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H27" s="291" t="e">
+        <v/>
+      </c>
+      <c r="L27" s="290" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L27" s="292" t="e">
+        <v/>
+      </c>
+      <c r="M27" s="290" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M27" s="292" t="e">
+        <v/>
+      </c>
+      <c r="N27" s="290" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N27" s="292" t="e">
+        <v/>
+      </c>
+      <c r="O27" s="290" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O27" s="292" t="e">
+        <v/>
+      </c>
+      <c r="P27" s="290" t="str">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P27" s="292" t="e">
+        <v/>
+      </c>
+      <c r="Q27" s="290" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q27" s="292" t="e">
+        <v/>
+      </c>
+      <c r="R27" s="290" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R27" s="292" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="T27" s="263">
         <v>2.579687501</v>
@@ -33424,50 +33406,47 @@
       <c r="A28" s="283"/>
       <c r="B28" s="283"/>
       <c r="C28" s="284"/>
-      <c r="D28" s="287" t="e">
+      <c r="D28" s="291"/>
+      <c r="E28" s="323"/>
+      <c r="F28" s="287" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E28" s="283"/>
-      <c r="F28" s="289" t="e">
+        <v/>
+      </c>
+      <c r="G28" s="291" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G28" s="293" t="e">
+        <v/>
+      </c>
+      <c r="H28" s="289" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H28" s="291" t="e">
+        <v/>
+      </c>
+      <c r="L28" s="290" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L28" s="292" t="e">
+        <v/>
+      </c>
+      <c r="M28" s="290" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M28" s="292" t="e">
+        <v/>
+      </c>
+      <c r="N28" s="290" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N28" s="292" t="e">
+        <v/>
+      </c>
+      <c r="O28" s="290" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O28" s="292" t="e">
+        <v/>
+      </c>
+      <c r="P28" s="290" t="str">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P28" s="292" t="e">
+        <v/>
+      </c>
+      <c r="Q28" s="290" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q28" s="292" t="e">
+        <v/>
+      </c>
+      <c r="R28" s="290" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R28" s="292" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="T28" s="263">
         <v>2.7781250009999998</v>
@@ -33480,39 +33459,39 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F29" s="293"/>
-      <c r="G29" s="293"/>
-      <c r="H29" s="291" t="str">
+      <c r="F29" s="291"/>
+      <c r="G29" s="291"/>
+      <c r="H29" s="289" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L29" s="290" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L29" s="292" t="e">
+      <c r="M29" s="290" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M29" s="292" t="e">
+        <v/>
+      </c>
+      <c r="N29" s="290" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N29" s="292" t="e">
+        <v/>
+      </c>
+      <c r="O29" s="290" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O29" s="292" t="e">
+        <v/>
+      </c>
+      <c r="P29" s="290" t="str">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P29" s="292" t="e">
+        <v/>
+      </c>
+      <c r="Q29" s="290" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q29" s="292" t="e">
+        <v/>
+      </c>
+      <c r="R29" s="290" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R29" s="292" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="T29" s="263">
         <v>2.9765625010000001</v>
@@ -33525,38 +33504,38 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F30" s="293"/>
-      <c r="G30" s="293"/>
-      <c r="H30" s="291" t="str">
+      <c r="F30" s="291"/>
+      <c r="G30" s="291"/>
+      <c r="H30" s="289" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L30" s="290" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L30" s="292" t="str">
+      <c r="M30" s="290" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M30" s="292" t="str">
+      <c r="N30" s="290" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N30" s="292" t="str">
+      <c r="O30" s="290" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="O30" s="292" t="str">
+      <c r="P30" s="290" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P30" s="292" t="str">
+      <c r="Q30" s="290" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q30" s="292" t="str">
+      <c r="R30" s="290" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="R30" s="292" t="str">
-        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T30" s="263">
@@ -33570,32 +33549,32 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="L31" s="292" t="str">
+      <c r="L31" s="290" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M31" s="290" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M31" s="292" t="str">
+      <c r="N31" s="290" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N31" s="292" t="str">
+      <c r="O31" s="290" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="O31" s="292" t="str">
+      <c r="P31" s="290" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P31" s="292" t="str">
+      <c r="Q31" s="290" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q31" s="292" t="str">
+      <c r="R31" s="290" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="R31" s="292" t="str">
-        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T31" s="263">
@@ -33813,3084 +33792,3084 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="32" width="10.33203125" style="294"/>
+    <col min="1" max="32" width="10.33203125" style="292"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A1" s="346" t="s">
+      <c r="A1" s="345" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="346"/>
-      <c r="C1" s="346"/>
-      <c r="D1" s="346"/>
-      <c r="E1" s="346"/>
-      <c r="F1" s="346"/>
-      <c r="G1" s="346"/>
-      <c r="H1" s="346"/>
-      <c r="I1" s="346"/>
-      <c r="J1" s="346"/>
-      <c r="K1" s="346"/>
-      <c r="L1" s="346"/>
-      <c r="M1" s="346"/>
-      <c r="N1" s="346"/>
-      <c r="O1" s="346"/>
-      <c r="P1" s="346"/>
-      <c r="Q1" s="347" t="s">
+      <c r="B1" s="345"/>
+      <c r="C1" s="345"/>
+      <c r="D1" s="345"/>
+      <c r="E1" s="345"/>
+      <c r="F1" s="345"/>
+      <c r="G1" s="345"/>
+      <c r="H1" s="345"/>
+      <c r="I1" s="345"/>
+      <c r="J1" s="345"/>
+      <c r="K1" s="345"/>
+      <c r="L1" s="345"/>
+      <c r="M1" s="345"/>
+      <c r="N1" s="345"/>
+      <c r="O1" s="345"/>
+      <c r="P1" s="345"/>
+      <c r="Q1" s="346" t="s">
         <v>89</v>
       </c>
-      <c r="R1" s="347"/>
-      <c r="S1" s="347"/>
-      <c r="T1" s="347"/>
-      <c r="U1" s="347"/>
-      <c r="V1" s="347"/>
-      <c r="W1" s="347"/>
-      <c r="X1" s="347"/>
-      <c r="Y1" s="347"/>
-      <c r="Z1" s="347"/>
-      <c r="AA1" s="347"/>
-      <c r="AB1" s="347"/>
-      <c r="AC1" s="347"/>
-      <c r="AD1" s="347"/>
-      <c r="AE1" s="347"/>
-      <c r="AF1" s="347"/>
+      <c r="R1" s="346"/>
+      <c r="S1" s="346"/>
+      <c r="T1" s="346"/>
+      <c r="U1" s="346"/>
+      <c r="V1" s="346"/>
+      <c r="W1" s="346"/>
+      <c r="X1" s="346"/>
+      <c r="Y1" s="346"/>
+      <c r="Z1" s="346"/>
+      <c r="AA1" s="346"/>
+      <c r="AB1" s="346"/>
+      <c r="AC1" s="346"/>
+      <c r="AD1" s="346"/>
+      <c r="AE1" s="346"/>
+      <c r="AF1" s="346"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A2" s="295"/>
-      <c r="B2" s="296"/>
-      <c r="C2" s="297"/>
-      <c r="D2" s="297"/>
-      <c r="E2" s="298"/>
-      <c r="F2" s="299"/>
-      <c r="G2" s="297"/>
-      <c r="H2" s="297"/>
-      <c r="I2" s="297"/>
-      <c r="J2" s="298"/>
-      <c r="K2" s="299"/>
-      <c r="L2" s="298"/>
-      <c r="M2" s="298"/>
-      <c r="N2" s="298"/>
-      <c r="O2" s="298"/>
-      <c r="P2" s="299"/>
-      <c r="Q2" s="300"/>
-      <c r="R2" s="298"/>
-      <c r="S2" s="298"/>
-      <c r="T2" s="298"/>
-      <c r="U2" s="299"/>
-      <c r="V2" s="298"/>
-      <c r="W2" s="298"/>
-      <c r="X2" s="298"/>
-      <c r="Y2" s="298"/>
-      <c r="Z2" s="299"/>
-      <c r="AA2" s="298"/>
-      <c r="AB2" s="298"/>
-      <c r="AC2" s="298"/>
-      <c r="AD2" s="298"/>
-      <c r="AE2" s="299"/>
-      <c r="AF2" s="301"/>
+      <c r="A2" s="293"/>
+      <c r="B2" s="294"/>
+      <c r="C2" s="295"/>
+      <c r="D2" s="295"/>
+      <c r="E2" s="296"/>
+      <c r="F2" s="297"/>
+      <c r="G2" s="295"/>
+      <c r="H2" s="295"/>
+      <c r="I2" s="295"/>
+      <c r="J2" s="296"/>
+      <c r="K2" s="297"/>
+      <c r="L2" s="296"/>
+      <c r="M2" s="296"/>
+      <c r="N2" s="296"/>
+      <c r="O2" s="296"/>
+      <c r="P2" s="297"/>
+      <c r="Q2" s="298"/>
+      <c r="R2" s="296"/>
+      <c r="S2" s="296"/>
+      <c r="T2" s="296"/>
+      <c r="U2" s="297"/>
+      <c r="V2" s="296"/>
+      <c r="W2" s="296"/>
+      <c r="X2" s="296"/>
+      <c r="Y2" s="296"/>
+      <c r="Z2" s="297"/>
+      <c r="AA2" s="296"/>
+      <c r="AB2" s="296"/>
+      <c r="AC2" s="296"/>
+      <c r="AD2" s="296"/>
+      <c r="AE2" s="297"/>
+      <c r="AF2" s="299"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A3" s="302"/>
-      <c r="B3" s="348" t="s">
+      <c r="A3" s="300"/>
+      <c r="B3" s="347" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="348"/>
-      <c r="D3" s="348"/>
-      <c r="E3" s="303"/>
-      <c r="F3" s="303"/>
-      <c r="G3" s="348" t="s">
+      <c r="C3" s="347"/>
+      <c r="D3" s="347"/>
+      <c r="E3" s="301"/>
+      <c r="F3" s="301"/>
+      <c r="G3" s="347" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="348"/>
-      <c r="I3" s="348"/>
-      <c r="J3" s="303"/>
-      <c r="K3" s="303"/>
-      <c r="L3" s="348" t="s">
+      <c r="H3" s="347"/>
+      <c r="I3" s="347"/>
+      <c r="J3" s="301"/>
+      <c r="K3" s="301"/>
+      <c r="L3" s="347" t="s">
         <v>52</v>
       </c>
-      <c r="M3" s="348"/>
-      <c r="N3" s="348"/>
-      <c r="O3" s="303"/>
-      <c r="P3" s="303"/>
-      <c r="Q3" s="349" t="s">
+      <c r="M3" s="347"/>
+      <c r="N3" s="347"/>
+      <c r="O3" s="301"/>
+      <c r="P3" s="301"/>
+      <c r="Q3" s="348" t="s">
         <v>54</v>
       </c>
-      <c r="R3" s="349"/>
-      <c r="S3" s="349"/>
-      <c r="T3" s="303"/>
-      <c r="U3" s="303"/>
-      <c r="V3" s="348" t="s">
+      <c r="R3" s="348"/>
+      <c r="S3" s="348"/>
+      <c r="T3" s="301"/>
+      <c r="U3" s="301"/>
+      <c r="V3" s="347" t="s">
         <v>96</v>
       </c>
-      <c r="W3" s="348"/>
-      <c r="X3" s="348"/>
-      <c r="Y3" s="303"/>
-      <c r="Z3" s="303"/>
-      <c r="AA3" s="348" t="s">
+      <c r="W3" s="347"/>
+      <c r="X3" s="347"/>
+      <c r="Y3" s="301"/>
+      <c r="Z3" s="301"/>
+      <c r="AA3" s="347" t="s">
         <v>58</v>
       </c>
-      <c r="AB3" s="348"/>
-      <c r="AC3" s="348"/>
-      <c r="AD3" s="303"/>
-      <c r="AE3" s="303"/>
-      <c r="AF3" s="304"/>
+      <c r="AB3" s="347"/>
+      <c r="AC3" s="347"/>
+      <c r="AD3" s="301"/>
+      <c r="AE3" s="301"/>
+      <c r="AF3" s="302"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A4" s="305" t="s">
+      <c r="A4" s="303" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="306" t="s">
+      <c r="B4" s="304" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="306" t="s">
+      <c r="C4" s="304" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="306" t="s">
+      <c r="D4" s="304" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="307" t="s">
+      <c r="E4" s="305" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="307" t="s">
+      <c r="F4" s="305" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="306" t="s">
+      <c r="G4" s="304" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="306" t="s">
+      <c r="H4" s="304" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="306" t="s">
+      <c r="I4" s="304" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="307" t="s">
+      <c r="J4" s="305" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="307" t="s">
+      <c r="K4" s="305" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="306" t="s">
+      <c r="L4" s="304" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="306" t="s">
+      <c r="M4" s="304" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="306" t="s">
+      <c r="N4" s="304" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="307" t="s">
+      <c r="O4" s="305" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="307" t="s">
+      <c r="P4" s="305" t="s">
         <v>45</v>
       </c>
-      <c r="Q4" s="308" t="s">
+      <c r="Q4" s="306" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="306" t="s">
+      <c r="R4" s="304" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="306" t="s">
+      <c r="S4" s="304" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="307" t="s">
+      <c r="T4" s="305" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="307" t="s">
+      <c r="U4" s="305" t="s">
         <v>45</v>
       </c>
-      <c r="V4" s="306" t="s">
+      <c r="V4" s="304" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="306" t="s">
+      <c r="W4" s="304" t="s">
         <v>41</v>
       </c>
-      <c r="X4" s="306" t="s">
+      <c r="X4" s="304" t="s">
         <v>42</v>
       </c>
-      <c r="Y4" s="307" t="s">
+      <c r="Y4" s="305" t="s">
         <v>44</v>
       </c>
-      <c r="Z4" s="307" t="s">
+      <c r="Z4" s="305" t="s">
         <v>45</v>
       </c>
-      <c r="AA4" s="306" t="s">
+      <c r="AA4" s="304" t="s">
         <v>40</v>
       </c>
-      <c r="AB4" s="306" t="s">
+      <c r="AB4" s="304" t="s">
         <v>41</v>
       </c>
-      <c r="AC4" s="306" t="s">
+      <c r="AC4" s="304" t="s">
         <v>42</v>
       </c>
-      <c r="AD4" s="307" t="s">
+      <c r="AD4" s="305" t="s">
         <v>44</v>
       </c>
-      <c r="AE4" s="307" t="s">
+      <c r="AE4" s="305" t="s">
         <v>45</v>
       </c>
-      <c r="AF4" s="309" t="s">
+      <c r="AF4" s="307" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A5" s="310">
+      <c r="A5" s="308">
         <v>25</v>
       </c>
-      <c r="B5" s="311">
+      <c r="B5" s="309">
         <v>49.52</v>
       </c>
-      <c r="C5" s="311">
+      <c r="C5" s="309">
         <v>194</v>
       </c>
-      <c r="D5" s="311">
+      <c r="D5" s="309">
         <v>0.30370000000000003</v>
       </c>
-      <c r="E5" s="311">
+      <c r="E5" s="309">
         <f t="shared" ref="E5:E30" si="0">IF(B5="","",LN(2)/B5)</f>
         <v>1.3997317862680639E-2</v>
       </c>
-      <c r="F5" s="311">
+      <c r="F5" s="309">
         <f t="shared" ref="F5:F30" si="1">IF(E5="","",(LN(10)/LN(2))*E5)</f>
         <v>4.6498083461107544E-2</v>
       </c>
-      <c r="G5" s="311">
+      <c r="G5" s="309">
         <v>0.39040000000000002</v>
       </c>
-      <c r="H5" s="311">
+      <c r="H5" s="309">
         <v>1.645</v>
       </c>
-      <c r="I5" s="311">
+      <c r="I5" s="309">
         <v>0.2757</v>
       </c>
-      <c r="J5" s="311">
+      <c r="J5" s="309">
         <f t="shared" ref="J5:J30" si="2">IF(G5="","",LN(2)/G5)</f>
         <v>1.775479458401499</v>
       </c>
-      <c r="K5" s="311">
+      <c r="K5" s="309">
         <f t="shared" ref="K5:K30" si="3">IF(J5="","",(LN(10)/LN(2))*J5)</f>
         <v>5.8980150947593382</v>
       </c>
-      <c r="L5" s="311">
+      <c r="L5" s="309">
         <v>0.15759999999999999</v>
       </c>
-      <c r="M5" s="311">
+      <c r="M5" s="309">
         <v>0.71750000000000003</v>
       </c>
-      <c r="N5" s="311">
+      <c r="N5" s="309">
         <v>0.30480000000000002</v>
       </c>
-      <c r="O5" s="311">
+      <c r="O5" s="309">
         <f t="shared" ref="O5:O30" si="4">IF(L5="","",LN(2)/L5)</f>
         <v>4.3981420086290948</v>
       </c>
-      <c r="P5" s="311">
+      <c r="P5" s="309">
         <f t="shared" ref="P5:P30" si="5">IF(O5="","",(LN(10)/LN(2))*O5)</f>
         <v>14.610311503769328</v>
       </c>
-      <c r="Q5" s="302">
+      <c r="Q5" s="300">
         <v>9.3640000000000008</v>
       </c>
-      <c r="R5" s="311">
+      <c r="R5" s="309">
         <v>41.25</v>
       </c>
-      <c r="S5" s="311">
+      <c r="S5" s="309">
         <v>0.32019999999999998</v>
       </c>
-      <c r="T5" s="311">
+      <c r="T5" s="309">
         <f t="shared" ref="T5:T30" si="6">IF(Q5="","",LN(2)/Q5)</f>
         <v>7.4022552387862581E-2</v>
       </c>
-      <c r="U5" s="311">
+      <c r="U5" s="309">
         <f t="shared" ref="U5:U30" si="7">IF(T5="","",(LN(10)/LN(2))*T5)</f>
         <v>0.24589759643251233</v>
       </c>
-      <c r="V5" s="311">
+      <c r="V5" s="309">
         <v>0.38040000000000002</v>
       </c>
-      <c r="W5" s="311">
+      <c r="W5" s="309">
         <v>1.5429999999999999</v>
       </c>
-      <c r="X5" s="311">
+      <c r="X5" s="309">
         <v>0.28689999999999999</v>
       </c>
-      <c r="Y5" s="311">
+      <c r="Y5" s="309">
         <f t="shared" ref="Y5:Y30" si="8">IF(V5="","",LN(2)/V5)</f>
         <v>1.8221534715035363</v>
       </c>
-      <c r="Z5" s="311">
+      <c r="Z5" s="309">
         <f t="shared" ref="Z5:Z30" si="9">IF(Y5="","",(LN(10)/LN(2))*Y5)</f>
         <v>6.0530628101841364</v>
       </c>
-      <c r="AA5" s="311">
+      <c r="AA5" s="309">
         <v>2.23E-2</v>
       </c>
-      <c r="AB5" s="311">
+      <c r="AB5" s="309">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="AC5" s="311">
+      <c r="AC5" s="309">
         <v>0.19370000000000001</v>
       </c>
-      <c r="AD5" s="311">
+      <c r="AD5" s="309">
         <f t="shared" ref="AD5:AD30" si="10">IF(AA5="","",LN(2)/AA5)</f>
         <v>31.082833208966157</v>
       </c>
-      <c r="AE5" s="311">
+      <c r="AE5" s="309">
         <f t="shared" ref="AE5:AE30" si="11">IF(AD5="","",(LN(10)/LN(2))*AD5)</f>
         <v>103.2549369055626</v>
       </c>
-      <c r="AF5" s="304">
+      <c r="AF5" s="302">
         <f>0.1965*A5-3.429</f>
         <v>1.4835000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A6" s="310">
+      <c r="A6" s="308">
         <v>30</v>
       </c>
-      <c r="B6" s="311">
+      <c r="B6" s="309">
         <v>38.799999999999997</v>
       </c>
-      <c r="C6" s="311">
+      <c r="C6" s="309">
         <v>178</v>
       </c>
-      <c r="D6" s="311">
+      <c r="D6" s="309">
         <v>0.3473</v>
       </c>
-      <c r="E6" s="311">
+      <c r="E6" s="309">
         <f t="shared" si="0"/>
         <v>1.7864618055668694E-2</v>
       </c>
-      <c r="F6" s="311">
+      <c r="F6" s="309">
         <f t="shared" si="1"/>
         <v>5.9344976623557887E-2</v>
       </c>
-      <c r="G6" s="311">
+      <c r="G6" s="309">
         <v>0.31730000000000003</v>
       </c>
-      <c r="H6" s="311">
+      <c r="H6" s="309">
         <v>1.698</v>
       </c>
-      <c r="I6" s="311">
+      <c r="I6" s="309">
         <v>0.35930000000000001</v>
       </c>
-      <c r="J6" s="311">
+      <c r="J6" s="309">
         <f t="shared" si="2"/>
         <v>2.1845167997477</v>
       </c>
-      <c r="K6" s="311">
+      <c r="K6" s="309">
         <f t="shared" si="3"/>
         <v>7.2568077308353152</v>
       </c>
-      <c r="L6" s="311">
+      <c r="L6" s="309">
         <v>0.1208</v>
       </c>
-      <c r="M6" s="311">
+      <c r="M6" s="309">
         <v>0.70430000000000004</v>
       </c>
-      <c r="N6" s="311">
+      <c r="N6" s="309">
         <v>0.36130000000000001</v>
       </c>
-      <c r="O6" s="311">
+      <c r="O6" s="309">
         <f t="shared" si="4"/>
         <v>5.7379733490061691</v>
       </c>
-      <c r="P6" s="311">
+      <c r="P6" s="309">
         <f t="shared" si="5"/>
         <v>19.061134875778524</v>
       </c>
-      <c r="Q6" s="302">
+      <c r="Q6" s="300">
         <v>7.4059999999999997</v>
       </c>
-      <c r="R6" s="311">
+      <c r="R6" s="309">
         <v>41.93</v>
       </c>
-      <c r="S6" s="311">
+      <c r="S6" s="309">
         <v>0.39589999999999997</v>
       </c>
-      <c r="T6" s="311">
+      <c r="T6" s="309">
         <f t="shared" si="6"/>
         <v>9.3592651979468713E-2</v>
       </c>
-      <c r="U6" s="311">
+      <c r="U6" s="309">
         <f t="shared" si="7"/>
         <v>0.31090806008561245</v>
       </c>
-      <c r="V6" s="311">
+      <c r="V6" s="309">
         <v>0.30609999999999998</v>
       </c>
-      <c r="W6" s="311">
+      <c r="W6" s="309">
         <v>1.599</v>
       </c>
-      <c r="X6" s="311">
+      <c r="X6" s="309">
         <v>0.36930000000000002</v>
       </c>
-      <c r="Y6" s="311">
+      <c r="Y6" s="309">
         <f t="shared" si="8"/>
         <v>2.2644468492647674</v>
       </c>
-      <c r="Z6" s="311">
+      <c r="Z6" s="309">
         <f t="shared" si="9"/>
         <v>7.5223296079517992</v>
       </c>
-      <c r="AA6" s="311">
+      <c r="AA6" s="309">
         <v>2.1659999999999999E-2</v>
       </c>
-      <c r="AB6" s="311">
+      <c r="AB6" s="309">
         <v>3.9660000000000001E-2</v>
       </c>
-      <c r="AC6" s="311">
+      <c r="AC6" s="309">
         <v>0.2843</v>
       </c>
-      <c r="AD6" s="311">
+      <c r="AD6" s="309">
         <f t="shared" si="10"/>
         <v>32.001254873497011</v>
       </c>
-      <c r="AE6" s="311">
+      <c r="AE6" s="309">
         <f t="shared" si="11"/>
         <v>106.30586763592085</v>
       </c>
-      <c r="AF6" s="304">
+      <c r="AF6" s="302">
         <f>0.1965*A6-3.429</f>
         <v>2.4660000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A7" s="310">
+      <c r="A7" s="308">
         <v>35</v>
       </c>
-      <c r="B7" s="311">
+      <c r="B7" s="309">
         <v>29.55</v>
       </c>
-      <c r="C7" s="311">
+      <c r="C7" s="309">
         <v>164.7</v>
       </c>
-      <c r="D7" s="311">
+      <c r="D7" s="309">
         <v>0.39479999999999998</v>
       </c>
-      <c r="E7" s="311">
+      <c r="E7" s="309">
         <f t="shared" si="0"/>
         <v>2.345675737935517E-2</v>
       </c>
-      <c r="F7" s="311">
+      <c r="F7" s="309">
         <f t="shared" si="1"/>
         <v>7.7921661353436408E-2</v>
       </c>
-      <c r="G7" s="311">
+      <c r="G7" s="309">
         <v>0.25280000000000002</v>
       </c>
-      <c r="H7" s="311">
+      <c r="H7" s="309">
         <v>1.8069999999999999</v>
       </c>
-      <c r="I7" s="311">
+      <c r="I7" s="309">
         <v>0.46479999999999999</v>
       </c>
-      <c r="J7" s="311">
+      <c r="J7" s="309">
         <f t="shared" si="2"/>
         <v>2.741879669936492</v>
       </c>
-      <c r="K7" s="311">
+      <c r="K7" s="309">
         <f t="shared" si="3"/>
         <v>9.1083271083625217</v>
       </c>
-      <c r="L7" s="311">
+      <c r="L7" s="309">
         <v>8.8779999999999998E-2</v>
       </c>
-      <c r="M7" s="311">
+      <c r="M7" s="309">
         <v>0.69879999999999998</v>
       </c>
-      <c r="N7" s="311">
+      <c r="N7" s="309">
         <v>0.42449999999999999</v>
       </c>
-      <c r="O7" s="311">
+      <c r="O7" s="309">
         <f t="shared" si="4"/>
         <v>7.8074699319660432</v>
       </c>
-      <c r="P7" s="311">
+      <c r="P7" s="309">
         <f t="shared" si="5"/>
         <v>25.935853716986326</v>
       </c>
-      <c r="Q7" s="302">
+      <c r="Q7" s="300">
         <v>5.7160000000000002</v>
       </c>
-      <c r="R7" s="311">
+      <c r="R7" s="309">
         <v>43.41</v>
       </c>
-      <c r="S7" s="311">
+      <c r="S7" s="309">
         <v>0.48570000000000002</v>
       </c>
-      <c r="T7" s="311">
+      <c r="T7" s="309">
         <f t="shared" si="6"/>
         <v>0.12126437728480498</v>
       </c>
-      <c r="U7" s="311">
+      <c r="U7" s="309">
         <f t="shared" si="7"/>
         <v>0.40283154181141456</v>
       </c>
-      <c r="V7" s="311">
+      <c r="V7" s="309">
         <v>0.23960000000000001</v>
       </c>
-      <c r="W7" s="311">
+      <c r="W7" s="309">
         <v>1.694</v>
       </c>
-      <c r="X7" s="311">
+      <c r="X7" s="309">
         <v>0.46829999999999999</v>
       </c>
-      <c r="Y7" s="311">
+      <c r="Y7" s="309">
         <f t="shared" si="8"/>
         <v>2.892934810350356</v>
       </c>
-      <c r="Z7" s="311">
+      <c r="Z7" s="309">
         <f t="shared" si="9"/>
         <v>9.6101214231804928</v>
       </c>
-      <c r="AA7" s="311">
+      <c r="AA7" s="309">
         <v>1.9009999999999999E-2</v>
       </c>
-      <c r="AB7" s="311">
+      <c r="AB7" s="309">
         <v>3.8730000000000001E-2</v>
       </c>
-      <c r="AC7" s="311">
+      <c r="AC7" s="309">
         <v>0.37319999999999998</v>
       </c>
-      <c r="AD7" s="311">
+      <c r="AD7" s="309">
         <f t="shared" si="10"/>
         <v>36.462239903205962</v>
       </c>
-      <c r="AE7" s="311">
+      <c r="AE7" s="309">
         <f t="shared" si="11"/>
         <v>121.12493913698296</v>
       </c>
-      <c r="AF7" s="304">
+      <c r="AF7" s="302">
         <f>0.1965*A7-3.429</f>
         <v>3.4485000000000006</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A8" s="310">
+      <c r="A8" s="308">
         <v>40</v>
       </c>
-      <c r="B8" s="311"/>
-      <c r="C8" s="311"/>
-      <c r="D8" s="311"/>
-      <c r="E8" s="311" t="str">
+      <c r="B8" s="309"/>
+      <c r="C8" s="309"/>
+      <c r="D8" s="309"/>
+      <c r="E8" s="309" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F8" s="311" t="str">
+      <c r="F8" s="309" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G8" s="311">
+      <c r="G8" s="309">
         <v>0.12970000000000001</v>
       </c>
-      <c r="H8" s="311">
+      <c r="H8" s="309">
         <v>0.17799999999999999</v>
       </c>
-      <c r="I8" s="311">
+      <c r="I8" s="309">
         <v>0.21890000000000001</v>
       </c>
-      <c r="J8" s="311">
+      <c r="J8" s="309">
         <f t="shared" si="2"/>
         <v>5.3442342371622606</v>
       </c>
-      <c r="K8" s="311">
+      <c r="K8" s="309">
         <f t="shared" si="3"/>
         <v>17.753161858088248</v>
       </c>
-      <c r="L8" s="311"/>
-      <c r="M8" s="311"/>
-      <c r="N8" s="311"/>
-      <c r="O8" s="311" t="str">
+      <c r="L8" s="309"/>
+      <c r="M8" s="309"/>
+      <c r="N8" s="309"/>
+      <c r="O8" s="309" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P8" s="311" t="str">
+      <c r="P8" s="309" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q8" s="302"/>
-      <c r="R8" s="311"/>
-      <c r="S8" s="311"/>
-      <c r="T8" s="311" t="str">
+      <c r="Q8" s="300"/>
+      <c r="R8" s="309"/>
+      <c r="S8" s="309"/>
+      <c r="T8" s="309" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="U8" s="311" t="str">
+      <c r="U8" s="309" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="V8" s="311"/>
-      <c r="W8" s="311"/>
-      <c r="X8" s="311"/>
-      <c r="Y8" s="311" t="str">
+      <c r="V8" s="309"/>
+      <c r="W8" s="309"/>
+      <c r="X8" s="309"/>
+      <c r="Y8" s="309" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Z8" s="311" t="str">
+      <c r="Z8" s="309" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AA8" s="311"/>
-      <c r="AB8" s="311"/>
-      <c r="AC8" s="311"/>
-      <c r="AD8" s="311" t="str">
+      <c r="AA8" s="309"/>
+      <c r="AB8" s="309"/>
+      <c r="AC8" s="309"/>
+      <c r="AD8" s="309" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AE8" s="311" t="str">
+      <c r="AE8" s="309" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AF8" s="304">
+      <c r="AF8" s="302">
         <f t="shared" ref="AF8:AF30" si="12">1.222-0.05664*A8+0.001227*A8^2-0.000003136*A8^3</f>
         <v>0.71889599999999998</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A9" s="310">
+      <c r="A9" s="308">
         <v>45</v>
       </c>
-      <c r="B9" s="311"/>
-      <c r="C9" s="311"/>
-      <c r="D9" s="311"/>
-      <c r="E9" s="311" t="str">
+      <c r="B9" s="309"/>
+      <c r="C9" s="309"/>
+      <c r="D9" s="309"/>
+      <c r="E9" s="309" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F9" s="311" t="str">
+      <c r="F9" s="309" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G9" s="311">
+      <c r="G9" s="309">
         <v>0.1095</v>
       </c>
-      <c r="H9" s="311">
+      <c r="H9" s="309">
         <v>0.1741</v>
       </c>
-      <c r="I9" s="311">
+      <c r="I9" s="309">
         <v>0.22689999999999999</v>
       </c>
-      <c r="J9" s="311">
+      <c r="J9" s="309">
         <f t="shared" si="2"/>
         <v>6.3301112379903683</v>
       </c>
-      <c r="K9" s="311">
+      <c r="K9" s="309">
         <f t="shared" si="3"/>
         <v>21.028174365242428</v>
       </c>
-      <c r="L9" s="311"/>
-      <c r="M9" s="311"/>
-      <c r="N9" s="311"/>
-      <c r="O9" s="311" t="str">
+      <c r="L9" s="309"/>
+      <c r="M9" s="309"/>
+      <c r="N9" s="309"/>
+      <c r="O9" s="309" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P9" s="311" t="str">
+      <c r="P9" s="309" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q9" s="302"/>
-      <c r="R9" s="311"/>
-      <c r="S9" s="311"/>
-      <c r="T9" s="311" t="str">
+      <c r="Q9" s="300"/>
+      <c r="R9" s="309"/>
+      <c r="S9" s="309"/>
+      <c r="T9" s="309" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="U9" s="311" t="str">
+      <c r="U9" s="309" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="V9" s="311"/>
-      <c r="W9" s="311"/>
-      <c r="X9" s="311"/>
-      <c r="Y9" s="311" t="str">
+      <c r="V9" s="309"/>
+      <c r="W9" s="309"/>
+      <c r="X9" s="309"/>
+      <c r="Y9" s="309" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Z9" s="311" t="str">
+      <c r="Z9" s="309" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AA9" s="311"/>
-      <c r="AB9" s="311"/>
-      <c r="AC9" s="311"/>
-      <c r="AD9" s="311" t="str">
+      <c r="AA9" s="309"/>
+      <c r="AB9" s="309"/>
+      <c r="AC9" s="309"/>
+      <c r="AD9" s="309" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AE9" s="311" t="str">
+      <c r="AE9" s="309" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AF9" s="304">
+      <c r="AF9" s="302">
         <f t="shared" si="12"/>
         <v>0.87210700000000019</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A10" s="310">
+      <c r="A10" s="308">
         <v>50</v>
       </c>
-      <c r="B10" s="311">
+      <c r="B10" s="309">
         <v>8.8010000000000002</v>
       </c>
-      <c r="C10" s="311">
+      <c r="C10" s="309">
         <v>27.28</v>
       </c>
-      <c r="D10" s="311">
+      <c r="D10" s="309">
         <v>0.29570000000000002</v>
       </c>
-      <c r="E10" s="311">
+      <c r="E10" s="309">
         <f t="shared" si="0"/>
         <v>7.8757775316435089E-2</v>
       </c>
-      <c r="F10" s="311">
+      <c r="F10" s="309">
         <f t="shared" si="1"/>
         <v>0.26162766651449215</v>
       </c>
-      <c r="G10" s="311">
+      <c r="G10" s="309">
         <v>9.3200000000000005E-2</v>
       </c>
-      <c r="H10" s="311">
+      <c r="H10" s="309">
         <v>0.17119999999999999</v>
       </c>
-      <c r="I10" s="311">
+      <c r="I10" s="309">
         <v>0.2324</v>
       </c>
-      <c r="J10" s="311">
+      <c r="J10" s="309">
         <f t="shared" si="2"/>
         <v>7.4372015081539189</v>
       </c>
-      <c r="K10" s="311">
+      <c r="K10" s="309">
         <f t="shared" si="3"/>
         <v>24.705848637275167</v>
       </c>
-      <c r="L10" s="311">
+      <c r="L10" s="309">
         <v>3.8830000000000003E-2</v>
       </c>
-      <c r="M10" s="311">
+      <c r="M10" s="309">
         <v>8.7300000000000003E-2</v>
       </c>
-      <c r="N10" s="311">
+      <c r="N10" s="309">
         <v>0.51049999999999995</v>
       </c>
-      <c r="O10" s="311">
+      <c r="O10" s="309">
         <f t="shared" si="4"/>
         <v>17.85081587844309</v>
       </c>
-      <c r="P10" s="311">
+      <c r="P10" s="309">
         <f t="shared" si="5"/>
         <v>59.299126783261535</v>
       </c>
-      <c r="Q10" s="302">
+      <c r="Q10" s="300">
         <v>1.8169999999999999</v>
       </c>
-      <c r="R10" s="311">
+      <c r="R10" s="309">
         <v>4.84</v>
       </c>
-      <c r="S10" s="311">
+      <c r="S10" s="309">
         <v>0.40210000000000001</v>
       </c>
-      <c r="T10" s="311">
+      <c r="T10" s="309">
         <f t="shared" si="6"/>
         <v>0.38147891059985983</v>
       </c>
-      <c r="U10" s="311">
+      <c r="U10" s="309">
         <f t="shared" si="7"/>
         <v>1.2672455107286988</v>
       </c>
-      <c r="V10" s="311">
+      <c r="V10" s="309">
         <v>9.7210000000000005E-2</v>
       </c>
-      <c r="W10" s="311">
+      <c r="W10" s="309">
         <v>0.1799</v>
       </c>
-      <c r="X10" s="311">
+      <c r="X10" s="309">
         <v>0.49120000000000003</v>
       </c>
-      <c r="Y10" s="311">
+      <c r="Y10" s="309">
         <f t="shared" si="8"/>
         <v>7.1304102516196401</v>
       </c>
-      <c r="Z10" s="311">
+      <c r="Z10" s="309">
         <f t="shared" si="9"/>
         <v>23.686710142928153</v>
       </c>
-      <c r="AA10" s="311">
+      <c r="AA10" s="309">
         <v>1.076E-2</v>
       </c>
-      <c r="AB10" s="311">
+      <c r="AB10" s="309">
         <v>1.8619999999999999E-3</v>
       </c>
-      <c r="AC10" s="311">
+      <c r="AC10" s="309">
         <v>1.17</v>
       </c>
-      <c r="AD10" s="311">
+      <c r="AD10" s="309">
         <f t="shared" si="10"/>
         <v>64.418882951667769</v>
       </c>
-      <c r="AE10" s="311">
+      <c r="AE10" s="309">
         <f t="shared" si="11"/>
         <v>213.9948971184057</v>
       </c>
-      <c r="AF10" s="304">
+      <c r="AF10" s="302">
         <f t="shared" si="12"/>
         <v>1.0654999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A11" s="310">
+      <c r="A11" s="308">
         <v>55</v>
       </c>
-      <c r="B11" s="311">
+      <c r="B11" s="309">
         <v>7.8390000000000004</v>
       </c>
-      <c r="C11" s="311">
+      <c r="C11" s="309">
         <v>25.92</v>
       </c>
-      <c r="D11" s="311">
+      <c r="D11" s="309">
         <v>0.34989999999999999</v>
       </c>
-      <c r="E11" s="311">
+      <c r="E11" s="309">
         <f t="shared" si="0"/>
         <v>8.8422908605682513E-2</v>
       </c>
-      <c r="F11" s="311">
+      <c r="F11" s="309">
         <f t="shared" si="1"/>
         <v>0.2937345443288743</v>
       </c>
-      <c r="G11" s="311">
+      <c r="G11" s="309">
         <v>7.4219999999999994E-2</v>
       </c>
-      <c r="H11" s="311">
+      <c r="H11" s="309">
         <v>0.16969999999999999</v>
       </c>
-      <c r="I11" s="311">
+      <c r="I11" s="309">
         <v>0.24540000000000001</v>
       </c>
-      <c r="J11" s="311">
+      <c r="J11" s="309">
         <f t="shared" si="2"/>
         <v>9.3390889323625075</v>
       </c>
-      <c r="K11" s="311">
+      <c r="K11" s="309">
         <f t="shared" si="3"/>
         <v>31.023781905066638</v>
       </c>
-      <c r="L11" s="311">
+      <c r="L11" s="309">
         <v>3.4189999999999998E-2</v>
       </c>
-      <c r="M11" s="311">
+      <c r="M11" s="309">
         <v>8.3150000000000002E-2</v>
       </c>
-      <c r="N11" s="311">
+      <c r="N11" s="309">
         <v>0.56059999999999999</v>
       </c>
-      <c r="O11" s="311">
+      <c r="O11" s="309">
         <f t="shared" si="4"/>
         <v>20.273389311492991</v>
       </c>
-      <c r="P11" s="311">
+      <c r="P11" s="309">
         <f t="shared" si="5"/>
         <v>67.346741532437733</v>
       </c>
-      <c r="Q11" s="302">
+      <c r="Q11" s="300">
         <v>1.4930000000000001</v>
       </c>
-      <c r="R11" s="311">
+      <c r="R11" s="309">
         <v>4.5149999999999997</v>
       </c>
-      <c r="S11" s="311">
+      <c r="S11" s="309">
         <v>0.42930000000000001</v>
       </c>
-      <c r="T11" s="311">
+      <c r="T11" s="309">
         <f t="shared" si="6"/>
         <v>0.46426468892159761</v>
       </c>
-      <c r="U11" s="311">
+      <c r="U11" s="309">
         <f t="shared" si="7"/>
         <v>1.5422539135927968</v>
       </c>
-      <c r="V11" s="311">
+      <c r="V11" s="309">
         <v>8.5519999999999999E-2</v>
       </c>
-      <c r="W11" s="311">
+      <c r="W11" s="309">
         <v>0.1661</v>
       </c>
-      <c r="X11" s="311">
+      <c r="X11" s="309">
         <v>0.51119999999999999</v>
       </c>
-      <c r="Y11" s="311">
+      <c r="Y11" s="309">
         <f t="shared" si="8"/>
         <v>8.1050886407851408</v>
       </c>
-      <c r="Z11" s="311">
+      <c r="Z11" s="309">
         <f t="shared" si="9"/>
         <v>26.924521667376585</v>
       </c>
-      <c r="AA11" s="311">
+      <c r="AA11" s="309">
         <v>1.0120000000000001E-2</v>
       </c>
-      <c r="AB11" s="311">
+      <c r="AB11" s="309">
         <v>1.4040000000000001E-3</v>
       </c>
-      <c r="AC11" s="311">
+      <c r="AC11" s="309">
         <v>1.2689999999999999</v>
       </c>
-      <c r="AD11" s="311">
+      <c r="AD11" s="309">
         <f t="shared" si="10"/>
         <v>68.49280440315664</v>
       </c>
-      <c r="AE11" s="311">
+      <c r="AE11" s="309">
         <f t="shared" si="11"/>
         <v>227.52817124447091</v>
       </c>
-      <c r="AF11" s="304">
+      <c r="AF11" s="302">
         <f t="shared" si="12"/>
         <v>1.2967229999999998</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A12" s="310">
+      <c r="A12" s="308">
         <v>60</v>
       </c>
-      <c r="B12" s="311">
+      <c r="B12" s="309">
         <v>6.9509999999999996</v>
       </c>
-      <c r="C12" s="311">
+      <c r="C12" s="309">
         <v>24.89</v>
       </c>
-      <c r="D12" s="311">
+      <c r="D12" s="309">
         <v>0.41980000000000001</v>
       </c>
-      <c r="E12" s="311">
+      <c r="E12" s="309">
         <f t="shared" si="0"/>
         <v>9.971905920873908E-2</v>
       </c>
-      <c r="F12" s="311">
+      <c r="F12" s="309">
         <f t="shared" si="1"/>
         <v>0.33125954438124672</v>
       </c>
-      <c r="G12" s="311">
+      <c r="G12" s="309">
         <v>6.2509999999999996E-2</v>
       </c>
-      <c r="H12" s="311">
+      <c r="H12" s="309">
         <v>0.16919999999999999</v>
       </c>
-      <c r="I12" s="311">
+      <c r="I12" s="309">
         <v>0.27329999999999999</v>
       </c>
-      <c r="J12" s="311">
+      <c r="J12" s="309">
         <f t="shared" si="2"/>
         <v>11.088580716044557</v>
       </c>
-      <c r="K12" s="311">
+      <c r="K12" s="309">
         <f t="shared" si="3"/>
         <v>36.835467813054642</v>
       </c>
-      <c r="L12" s="311">
+      <c r="L12" s="309">
         <v>2.9850000000000002E-2</v>
       </c>
-      <c r="M12" s="311">
+      <c r="M12" s="309">
         <v>7.961E-2</v>
       </c>
-      <c r="N12" s="311">
+      <c r="N12" s="309">
         <v>0.6169</v>
       </c>
-      <c r="O12" s="311">
+      <c r="O12" s="309">
         <f t="shared" si="4"/>
         <v>23.221011074035015</v>
       </c>
-      <c r="P12" s="311">
+      <c r="P12" s="309">
         <f t="shared" si="5"/>
         <v>77.138529078527483</v>
       </c>
-      <c r="Q12" s="302">
+      <c r="Q12" s="300">
         <v>1.1830000000000001</v>
       </c>
-      <c r="R12" s="311">
+      <c r="R12" s="309">
         <v>4.2190000000000003</v>
       </c>
-      <c r="S12" s="311">
+      <c r="S12" s="309">
         <v>0.45710000000000001</v>
       </c>
-      <c r="T12" s="311">
+      <c r="T12" s="309">
         <f t="shared" si="6"/>
         <v>0.58592322955194021</v>
       </c>
-      <c r="U12" s="311">
+      <c r="U12" s="309">
         <f t="shared" si="7"/>
         <v>1.9463948376957276</v>
       </c>
-      <c r="V12" s="311">
+      <c r="V12" s="309">
         <v>7.4520000000000003E-2</v>
       </c>
-      <c r="W12" s="311">
+      <c r="W12" s="309">
         <v>0.15390000000000001</v>
       </c>
-      <c r="X12" s="311">
+      <c r="X12" s="309">
         <v>0.53039999999999998</v>
       </c>
-      <c r="Y12" s="311">
+      <c r="Y12" s="309">
         <f t="shared" si="8"/>
         <v>9.3014919559842362</v>
       </c>
-      <c r="Z12" s="311">
+      <c r="Z12" s="309">
         <f t="shared" si="9"/>
         <v>30.898887452952842</v>
       </c>
-      <c r="AA12" s="311">
+      <c r="AA12" s="309">
         <v>9.5119999999999996E-3</v>
       </c>
-      <c r="AB12" s="311">
+      <c r="AB12" s="309">
         <v>9.6719999999999998E-4</v>
       </c>
-      <c r="AC12" s="311">
+      <c r="AC12" s="309">
         <v>1.333</v>
       </c>
-      <c r="AD12" s="311">
+      <c r="AD12" s="309">
         <f t="shared" si="10"/>
         <v>72.870813767866409</v>
       </c>
-      <c r="AE12" s="311">
+      <c r="AE12" s="309">
         <f t="shared" si="11"/>
         <v>242.07160355278026</v>
       </c>
-      <c r="AF12" s="304">
+      <c r="AF12" s="302">
         <f t="shared" si="12"/>
         <v>1.5634240000000001</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A13" s="310">
+      <c r="A13" s="308">
         <v>65</v>
       </c>
-      <c r="B13" s="312">
+      <c r="B13" s="310">
         <v>6.13</v>
       </c>
-      <c r="C13" s="312">
+      <c r="C13" s="310">
         <v>24.09</v>
       </c>
-      <c r="D13" s="312">
+      <c r="D13" s="310">
         <v>0.50190000000000001</v>
       </c>
-      <c r="E13" s="311">
+      <c r="E13" s="309">
         <f t="shared" si="0"/>
         <v>0.1130745808417529</v>
       </c>
-      <c r="F13" s="311">
+      <c r="F13" s="309">
         <f t="shared" si="1"/>
         <v>0.37562562691583129</v>
       </c>
-      <c r="G13" s="312">
+      <c r="G13" s="310">
         <v>5.5280000000000003E-2</v>
       </c>
-      <c r="H13" s="312">
+      <c r="H13" s="310">
         <v>0.1696</v>
       </c>
-      <c r="I13" s="312">
+      <c r="I13" s="310">
         <v>0.32169999999999999</v>
       </c>
-      <c r="J13" s="311">
+      <c r="J13" s="309">
         <f t="shared" si="2"/>
         <v>12.53884190593244</v>
       </c>
-      <c r="K13" s="311">
+      <c r="K13" s="309">
         <f t="shared" si="3"/>
         <v>41.653131204667979</v>
       </c>
-      <c r="L13" s="312">
+      <c r="L13" s="310">
         <v>2.6089999999999999E-2</v>
       </c>
-      <c r="M13" s="312">
+      <c r="M13" s="310">
         <v>7.5969999999999996E-2</v>
       </c>
-      <c r="N13" s="312">
+      <c r="N13" s="310">
         <v>0.67559999999999998</v>
       </c>
-      <c r="O13" s="311">
+      <c r="O13" s="309">
         <f t="shared" si="4"/>
         <v>26.56754237485417</v>
       </c>
-      <c r="P13" s="311">
+      <c r="P13" s="309">
         <f t="shared" si="5"/>
         <v>88.255465427138589</v>
       </c>
-      <c r="Q13" s="302">
+      <c r="Q13" s="300">
         <v>0.91720000000000002</v>
       </c>
-      <c r="R13" s="312">
+      <c r="R13" s="310">
         <v>3.9820000000000002</v>
       </c>
-      <c r="S13" s="312">
+      <c r="S13" s="310">
         <v>0.49220000000000003</v>
       </c>
-      <c r="T13" s="311">
+      <c r="T13" s="309">
         <f t="shared" si="6"/>
         <v>0.75572086846919462</v>
       </c>
-      <c r="U13" s="311">
+      <c r="U13" s="309">
         <f t="shared" si="7"/>
         <v>2.5104503848604947</v>
       </c>
-      <c r="V13" s="312">
+      <c r="V13" s="310">
         <v>6.5140000000000003E-2</v>
       </c>
-      <c r="W13" s="312">
+      <c r="W13" s="310">
         <v>0.14430000000000001</v>
       </c>
-      <c r="X13" s="312">
+      <c r="X13" s="310">
         <v>0.55820000000000003</v>
       </c>
-      <c r="Y13" s="311">
+      <c r="Y13" s="309">
         <f t="shared" si="8"/>
         <v>10.640883950874198</v>
       </c>
-      <c r="Z13" s="311">
+      <c r="Z13" s="309">
         <f t="shared" si="9"/>
         <v>35.348251350845032</v>
       </c>
-      <c r="AA13" s="312">
+      <c r="AA13" s="310">
         <v>8.9899999999999997E-3</v>
       </c>
-      <c r="AB13" s="312">
+      <c r="AB13" s="310">
         <v>6.4700000000000001E-4</v>
       </c>
-      <c r="AC13" s="312">
+      <c r="AC13" s="310">
         <v>1.353</v>
       </c>
-      <c r="AD13" s="311">
+      <c r="AD13" s="309">
         <f t="shared" si="10"/>
         <v>77.102022309226399</v>
       </c>
-      <c r="AE13" s="311">
+      <c r="AE13" s="309">
         <f t="shared" si="11"/>
         <v>256.1273740816514</v>
       </c>
-      <c r="AF13" s="304">
+      <c r="AF13" s="302">
         <f t="shared" si="12"/>
         <v>1.863251</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A14" s="310">
+      <c r="A14" s="308">
         <v>70</v>
       </c>
-      <c r="B14" s="312">
+      <c r="B14" s="310">
         <v>5.3689999999999998</v>
       </c>
-      <c r="C14" s="312">
+      <c r="C14" s="310">
         <v>23.49</v>
       </c>
-      <c r="D14" s="312">
+      <c r="D14" s="310">
         <v>0.58809999999999996</v>
       </c>
-      <c r="E14" s="311">
+      <c r="E14" s="309">
         <f t="shared" si="0"/>
         <v>0.12910172854534277</v>
       </c>
-      <c r="F14" s="311">
+      <c r="F14" s="309">
         <f t="shared" si="1"/>
         <v>0.42886665915329597</v>
       </c>
-      <c r="G14" s="312">
+      <c r="G14" s="310">
         <v>5.0869999999999999E-2</v>
       </c>
-      <c r="H14" s="312">
+      <c r="H14" s="310">
         <v>0.1696</v>
       </c>
-      <c r="I14" s="312">
+      <c r="I14" s="310">
         <v>0.38469999999999999</v>
       </c>
-      <c r="J14" s="311">
+      <c r="J14" s="309">
         <f t="shared" si="2"/>
         <v>13.625853755847166</v>
       </c>
-      <c r="K14" s="311">
+      <c r="K14" s="309">
         <f t="shared" si="3"/>
         <v>45.264106408375191</v>
       </c>
-      <c r="L14" s="312">
+      <c r="L14" s="310">
         <v>2.3019999999999999E-2</v>
       </c>
-      <c r="M14" s="312">
+      <c r="M14" s="310">
         <v>7.1629999999999999E-2</v>
       </c>
-      <c r="N14" s="312">
+      <c r="N14" s="310">
         <v>0.72989999999999999</v>
       </c>
-      <c r="O14" s="311">
+      <c r="O14" s="309">
         <f t="shared" si="4"/>
         <v>30.110650762812568</v>
       </c>
-      <c r="P14" s="311">
+      <c r="P14" s="309">
         <f t="shared" si="5"/>
         <v>100.02541672432866</v>
       </c>
-      <c r="Q14" s="302">
+      <c r="Q14" s="300">
         <v>0.71489999999999998</v>
       </c>
-      <c r="R14" s="312">
+      <c r="R14" s="310">
         <v>3.798</v>
       </c>
-      <c r="S14" s="312">
+      <c r="S14" s="310">
         <v>0.53779999999999994</v>
       </c>
-      <c r="T14" s="311">
+      <c r="T14" s="309">
         <f t="shared" si="6"/>
         <v>0.96957222067414361</v>
       </c>
-      <c r="U14" s="311">
+      <c r="U14" s="309">
         <f t="shared" si="7"/>
         <v>3.2208491998797673</v>
       </c>
-      <c r="V14" s="312">
+      <c r="V14" s="310">
         <v>5.7910000000000003E-2</v>
       </c>
-      <c r="W14" s="312">
+      <c r="W14" s="310">
         <v>0.13569999999999999</v>
       </c>
-      <c r="X14" s="312">
+      <c r="X14" s="310">
         <v>0.59670000000000001</v>
       </c>
-      <c r="Y14" s="311">
+      <c r="Y14" s="309">
         <f t="shared" si="8"/>
         <v>11.969386644101974</v>
       </c>
-      <c r="Z14" s="311">
+      <c r="Z14" s="309">
         <f t="shared" si="9"/>
         <v>39.761441771611914</v>
       </c>
-      <c r="AA14" s="312">
+      <c r="AA14" s="310">
         <v>8.5500000000000003E-3</v>
       </c>
-      <c r="AB14" s="312">
+      <c r="AB14" s="310">
         <v>5.3899999999999998E-4</v>
       </c>
-      <c r="AC14" s="312">
+      <c r="AC14" s="310">
         <v>1.194</v>
       </c>
-      <c r="AD14" s="311">
+      <c r="AD14" s="309">
         <f t="shared" si="10"/>
         <v>81.069845679525756</v>
       </c>
-      <c r="AE14" s="311">
+      <c r="AE14" s="309">
         <f t="shared" si="11"/>
         <v>269.30819801099949</v>
       </c>
-      <c r="AF14" s="304">
+      <c r="AF14" s="302">
         <f t="shared" si="12"/>
         <v>2.1938519999999997</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A15" s="310">
+      <c r="A15" s="308">
         <v>75</v>
       </c>
-      <c r="B15" s="312">
+      <c r="B15" s="310">
         <v>4.6660000000000004</v>
       </c>
-      <c r="C15" s="312">
+      <c r="C15" s="310">
         <v>22.69</v>
       </c>
-      <c r="D15" s="312">
+      <c r="D15" s="310">
         <v>0.66180000000000005</v>
       </c>
-      <c r="E15" s="311">
+      <c r="E15" s="309">
         <f t="shared" si="0"/>
         <v>0.14855276051434746</v>
       </c>
-      <c r="F15" s="311">
+      <c r="F15" s="309">
         <f t="shared" si="1"/>
         <v>0.49348158872568487</v>
       </c>
-      <c r="G15" s="312">
+      <c r="G15" s="310">
         <v>4.7969999999999999E-2</v>
       </c>
-      <c r="H15" s="312">
+      <c r="H15" s="310">
         <v>0.1663</v>
       </c>
-      <c r="I15" s="312">
+      <c r="I15" s="310">
         <v>0.44919999999999999</v>
       </c>
-      <c r="J15" s="311">
+      <c r="J15" s="309">
         <f t="shared" si="2"/>
         <v>14.449597259952998</v>
       </c>
-      <c r="K15" s="311">
+      <c r="K15" s="309">
         <f t="shared" si="3"/>
         <v>48.000523097645321</v>
       </c>
-      <c r="L15" s="312">
+      <c r="L15" s="310">
         <v>2.0660000000000001E-2</v>
       </c>
-      <c r="M15" s="312">
+      <c r="M15" s="310">
         <v>6.6489999999999994E-2</v>
       </c>
-      <c r="N15" s="312">
+      <c r="N15" s="310">
         <v>0.77500000000000002</v>
       </c>
-      <c r="O15" s="311">
+      <c r="O15" s="309">
         <f t="shared" si="4"/>
         <v>33.550202350432976</v>
       </c>
-      <c r="P15" s="311">
+      <c r="P15" s="309">
         <f t="shared" si="5"/>
         <v>111.45135977705932</v>
       </c>
-      <c r="Q15" s="300">
+      <c r="Q15" s="298">
         <v>0.57930000000000004</v>
       </c>
-      <c r="R15" s="312">
+      <c r="R15" s="310">
         <v>3.629</v>
       </c>
-      <c r="S15" s="312">
+      <c r="S15" s="310">
         <v>0.59079999999999999</v>
       </c>
-      <c r="T15" s="311">
+      <c r="T15" s="309">
         <f t="shared" si="6"/>
         <v>1.1965254282063615</v>
       </c>
-      <c r="U15" s="311">
+      <c r="U15" s="309">
         <f t="shared" si="7"/>
         <v>3.9747714362058444</v>
       </c>
-      <c r="V15" s="312">
+      <c r="V15" s="310">
         <v>5.2909999999999999E-2</v>
       </c>
-      <c r="W15" s="312">
+      <c r="W15" s="310">
         <v>0.128</v>
       </c>
-      <c r="X15" s="312">
+      <c r="X15" s="310">
         <v>0.64780000000000004</v>
       </c>
-      <c r="Y15" s="311">
+      <c r="Y15" s="309">
         <f t="shared" si="8"/>
         <v>13.100494813077779</v>
       </c>
-      <c r="Z15" s="311">
+      <c r="Z15" s="309">
         <f t="shared" si="9"/>
         <v>43.518901776489244</v>
       </c>
-      <c r="AA15" s="312">
+      <c r="AA15" s="310">
         <v>5.2030000000000002E-3</v>
       </c>
-      <c r="AB15" s="312">
+      <c r="AB15" s="310">
         <v>6.4210000000000005E-4</v>
       </c>
-      <c r="AC15" s="312">
+      <c r="AC15" s="310">
         <v>1.0620000000000001</v>
       </c>
-      <c r="AD15" s="311">
+      <c r="AD15" s="309">
         <f t="shared" si="10"/>
         <v>133.22067664038926</v>
       </c>
-      <c r="AE15" s="311">
+      <c r="AE15" s="309">
         <f t="shared" si="11"/>
         <v>442.54950855161366</v>
       </c>
-      <c r="AF15" s="304">
+      <c r="AF15" s="302">
         <f t="shared" si="12"/>
         <v>2.5528750000000002</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A16" s="310">
+      <c r="A16" s="308">
         <v>80</v>
       </c>
-      <c r="B16" s="312">
+      <c r="B16" s="310">
         <v>4.04</v>
       </c>
-      <c r="C16" s="312">
+      <c r="C16" s="310">
         <v>21.69</v>
       </c>
-      <c r="D16" s="312">
+      <c r="D16" s="310">
         <v>0.71870000000000001</v>
       </c>
-      <c r="E16" s="311">
+      <c r="E16" s="309">
         <f t="shared" si="0"/>
         <v>0.17157108429701615</v>
       </c>
-      <c r="F16" s="311">
+      <c r="F16" s="309">
         <f t="shared" si="1"/>
         <v>0.56994680519654595</v>
       </c>
-      <c r="G16" s="312">
+      <c r="G16" s="310">
         <v>4.5830000000000003E-2</v>
       </c>
-      <c r="H16" s="312">
+      <c r="H16" s="310">
         <v>0.15490000000000001</v>
       </c>
-      <c r="I16" s="312">
+      <c r="I16" s="310">
         <v>0.49259999999999998</v>
       </c>
-      <c r="J16" s="311">
+      <c r="J16" s="309">
         <f t="shared" si="2"/>
         <v>15.124311162119687</v>
       </c>
-      <c r="K16" s="311">
+      <c r="K16" s="309">
         <f t="shared" si="3"/>
         <v>50.241874165263923</v>
       </c>
-      <c r="L16" s="312">
+      <c r="L16" s="310">
         <v>1.8859999999999998E-2</v>
       </c>
-      <c r="M16" s="312">
+      <c r="M16" s="310">
         <v>6.0929999999999998E-2</v>
       </c>
-      <c r="N16" s="312">
+      <c r="N16" s="310">
         <v>0.81030000000000002</v>
       </c>
-      <c r="O16" s="311">
+      <c r="O16" s="309">
         <f t="shared" si="4"/>
         <v>36.752236509010885</v>
       </c>
-      <c r="P16" s="311">
+      <c r="P16" s="309">
         <f t="shared" si="5"/>
         <v>122.08828700922831</v>
       </c>
-      <c r="Q16" s="300">
+      <c r="Q16" s="298">
         <v>0.49209999999999998</v>
       </c>
-      <c r="R16" s="312">
+      <c r="R16" s="310">
         <v>3.4279999999999999</v>
       </c>
-      <c r="S16" s="312">
+      <c r="S16" s="310">
         <v>0.64270000000000005</v>
       </c>
-      <c r="T16" s="311">
+      <c r="T16" s="309">
         <f t="shared" si="6"/>
         <v>1.4085494423083627</v>
       </c>
-      <c r="U16" s="311">
+      <c r="U16" s="309">
         <f t="shared" si="7"/>
         <v>4.6790999654420764</v>
       </c>
-      <c r="V16" s="312">
+      <c r="V16" s="310">
         <v>4.9549999999999997E-2</v>
       </c>
-      <c r="W16" s="312">
+      <c r="W16" s="310">
         <v>0.1208</v>
       </c>
-      <c r="X16" s="312">
+      <c r="X16" s="310">
         <v>0.7097</v>
       </c>
-      <c r="Y16" s="311">
+      <c r="Y16" s="309">
         <f t="shared" si="8"/>
         <v>13.988843199998897</v>
       </c>
-      <c r="Z16" s="311">
+      <c r="Z16" s="309">
         <f t="shared" si="9"/>
         <v>46.469931241050375</v>
       </c>
-      <c r="AA16" s="312">
+      <c r="AA16" s="310">
         <v>7.9030000000000003E-3</v>
       </c>
-      <c r="AB16" s="312">
+      <c r="AB16" s="310">
         <v>8.6399999999999997E-4</v>
       </c>
-      <c r="AC16" s="312">
+      <c r="AC16" s="310">
         <v>0.97030000000000005</v>
       </c>
-      <c r="AD16" s="311">
+      <c r="AD16" s="309">
         <f t="shared" si="10"/>
         <v>87.706843041875899</v>
       </c>
-      <c r="AE16" s="311">
+      <c r="AE16" s="309">
         <f t="shared" si="11"/>
         <v>291.35582601468377</v>
       </c>
-      <c r="AF16" s="304">
+      <c r="AF16" s="302">
         <f t="shared" si="12"/>
         <v>2.9379679999999997</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A17" s="310">
+      <c r="A17" s="308">
         <v>85</v>
       </c>
-      <c r="B17" s="312">
+      <c r="B17" s="310">
         <v>3.504</v>
       </c>
-      <c r="C17" s="312">
+      <c r="C17" s="310">
         <v>20.37</v>
       </c>
-      <c r="D17" s="312">
+      <c r="D17" s="310">
         <v>0.755</v>
       </c>
-      <c r="E17" s="311">
+      <c r="E17" s="309">
         <f t="shared" si="0"/>
         <v>0.19781597618719901</v>
       </c>
-      <c r="F17" s="311">
+      <c r="F17" s="309">
         <f t="shared" si="1"/>
         <v>0.65713044891382588</v>
       </c>
-      <c r="G17" s="312">
+      <c r="G17" s="310">
         <v>4.3979999999999998E-2</v>
       </c>
-      <c r="H17" s="312">
+      <c r="H17" s="310">
         <v>0.1348</v>
       </c>
-      <c r="I17" s="312">
+      <c r="I17" s="310">
         <v>0.49430000000000002</v>
       </c>
-      <c r="J17" s="311">
+      <c r="J17" s="309">
         <f t="shared" si="2"/>
         <v>15.760508880398939</v>
       </c>
-      <c r="K17" s="311">
+      <c r="K17" s="309">
         <f t="shared" si="3"/>
         <v>52.355277239519012</v>
       </c>
-      <c r="L17" s="312">
+      <c r="L17" s="310">
         <v>1.746E-2</v>
       </c>
-      <c r="M17" s="312">
+      <c r="M17" s="310">
         <v>5.5579999999999997E-2</v>
       </c>
-      <c r="N17" s="312">
+      <c r="N17" s="310">
         <v>0.83919999999999995</v>
       </c>
-      <c r="O17" s="311">
+      <c r="O17" s="309">
         <f t="shared" si="4"/>
         <v>39.699151234819318</v>
       </c>
-      <c r="P17" s="311">
+      <c r="P17" s="309">
         <f t="shared" si="5"/>
         <v>131.87772583012864</v>
       </c>
-      <c r="Q17" s="300">
+      <c r="Q17" s="298">
         <v>0.4355</v>
       </c>
-      <c r="R17" s="312">
+      <c r="R17" s="310">
         <v>3.1779999999999999</v>
       </c>
-      <c r="S17" s="312">
+      <c r="S17" s="310">
         <v>0.68610000000000004</v>
       </c>
-      <c r="T17" s="311">
+      <c r="T17" s="309">
         <f t="shared" si="6"/>
         <v>1.5916123549022854</v>
       </c>
-      <c r="U17" s="311">
+      <c r="U17" s="309">
         <f t="shared" si="7"/>
         <v>5.287221797919738</v>
       </c>
-      <c r="V17" s="312">
+      <c r="V17" s="310">
         <v>4.7210000000000002E-2</v>
       </c>
-      <c r="W17" s="312">
+      <c r="W17" s="310">
         <v>0.114</v>
       </c>
-      <c r="X17" s="312">
+      <c r="X17" s="310">
         <v>0.77859999999999996</v>
       </c>
-      <c r="Y17" s="311">
+      <c r="Y17" s="309">
         <f t="shared" si="8"/>
         <v>14.682210984112375</v>
       </c>
-      <c r="Z17" s="311">
+      <c r="Z17" s="309">
         <f t="shared" si="9"/>
         <v>48.773249163186733</v>
       </c>
-      <c r="AA17" s="312">
+      <c r="AA17" s="310">
         <v>7.6860000000000001E-3</v>
       </c>
-      <c r="AB17" s="312">
+      <c r="AB17" s="310">
         <v>1.0560000000000001E-3</v>
       </c>
-      <c r="AC17" s="312">
+      <c r="AC17" s="310">
         <v>1.0149999999999999</v>
       </c>
-      <c r="AD17" s="311">
+      <c r="AD17" s="309">
         <f t="shared" si="10"/>
         <v>90.183083601345984</v>
       </c>
-      <c r="AE17" s="311">
+      <c r="AE17" s="309">
         <f t="shared" si="11"/>
         <v>299.58171909888699</v>
       </c>
-      <c r="AF17" s="304">
+      <c r="AF17" s="302">
         <f t="shared" si="12"/>
         <v>3.3467790000000015</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A18" s="310">
+      <c r="A18" s="308">
         <v>90</v>
       </c>
-      <c r="B18" s="312">
+      <c r="B18" s="310">
         <v>3.0670000000000002</v>
       </c>
-      <c r="C18" s="312">
+      <c r="C18" s="310">
         <v>18.829999999999998</v>
       </c>
-      <c r="D18" s="312">
+      <c r="D18" s="310">
         <v>0.77259999999999995</v>
       </c>
-      <c r="E18" s="311">
+      <c r="E18" s="309">
         <f t="shared" si="0"/>
         <v>0.22600168912942459</v>
       </c>
-      <c r="F18" s="311">
+      <c r="F18" s="309">
         <f t="shared" si="1"/>
         <v>0.75076136061103538</v>
       </c>
-      <c r="G18" s="312">
+      <c r="G18" s="310">
         <v>4.2279999999999998E-2</v>
       </c>
-      <c r="H18" s="312">
+      <c r="H18" s="310">
         <v>0.1137</v>
       </c>
-      <c r="I18" s="312">
+      <c r="I18" s="310">
         <v>0.46899999999999997</v>
       </c>
-      <c r="J18" s="311">
+      <c r="J18" s="309">
         <f t="shared" si="2"/>
         <v>16.394209568589055</v>
       </c>
-      <c r="K18" s="311">
+      <c r="K18" s="309">
         <f t="shared" si="3"/>
         <v>54.460385359367208</v>
       </c>
-      <c r="L18" s="312">
+      <c r="L18" s="310">
         <v>1.6629999999999999E-2</v>
       </c>
-      <c r="M18" s="312">
+      <c r="M18" s="310">
         <v>5.0389999999999997E-2</v>
       </c>
-      <c r="N18" s="312">
+      <c r="N18" s="310">
         <v>0.85850000000000004</v>
       </c>
-      <c r="O18" s="311">
+      <c r="O18" s="309">
         <f t="shared" si="4"/>
         <v>41.680527995186132</v>
       </c>
-      <c r="P18" s="311">
+      <c r="P18" s="309">
         <f t="shared" si="5"/>
         <v>138.45971695694806</v>
       </c>
-      <c r="Q18" s="300">
+      <c r="Q18" s="298">
         <v>0.39710000000000001</v>
       </c>
-      <c r="R18" s="312">
+      <c r="R18" s="310">
         <v>2.9129999999999998</v>
       </c>
-      <c r="S18" s="312">
+      <c r="S18" s="310">
         <v>0.72040000000000004</v>
       </c>
-      <c r="T18" s="311">
+      <c r="T18" s="309">
         <f t="shared" si="6"/>
         <v>1.7455229930998371</v>
       </c>
-      <c r="U18" s="311">
+      <c r="U18" s="309">
         <f t="shared" si="7"/>
         <v>5.7985018710502283</v>
       </c>
-      <c r="V18" s="312">
+      <c r="V18" s="310">
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="W18" s="312">
+      <c r="W18" s="310">
         <v>0.1077</v>
       </c>
-      <c r="X18" s="312">
+      <c r="X18" s="310">
         <v>0.85219999999999996</v>
       </c>
-      <c r="Y18" s="311">
+      <c r="Y18" s="309">
         <f t="shared" si="8"/>
         <v>15.234003968350446</v>
       </c>
-      <c r="Z18" s="311">
+      <c r="Z18" s="309">
         <f t="shared" si="9"/>
         <v>50.606265780088918</v>
       </c>
-      <c r="AA18" s="312">
+      <c r="AA18" s="310">
         <v>7.5110000000000003E-3</v>
       </c>
-      <c r="AB18" s="312">
+      <c r="AB18" s="310">
         <v>1.1590000000000001E-3</v>
       </c>
-      <c r="AC18" s="312">
+      <c r="AC18" s="310">
         <v>1.081</v>
       </c>
-      <c r="AD18" s="311">
+      <c r="AD18" s="309">
         <f t="shared" si="10"/>
         <v>92.284273806409971</v>
       </c>
-      <c r="AE18" s="311">
+      <c r="AE18" s="309">
         <f t="shared" si="11"/>
         <v>306.56172187379121</v>
       </c>
-      <c r="AF18" s="304">
+      <c r="AF18" s="302">
         <f t="shared" si="12"/>
         <v>3.7769560000000002</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A19" s="310">
+      <c r="A19" s="308">
         <v>95</v>
       </c>
-      <c r="B19" s="312">
+      <c r="B19" s="310">
         <v>2.7309999999999999</v>
       </c>
-      <c r="C19" s="312">
+      <c r="C19" s="310">
         <v>17.07</v>
       </c>
-      <c r="D19" s="312">
+      <c r="D19" s="310">
         <v>0.77139999999999997</v>
       </c>
-      <c r="E19" s="311">
+      <c r="E19" s="309">
         <f t="shared" si="0"/>
         <v>0.25380709650675404</v>
       </c>
-      <c r="F19" s="311">
+      <c r="F19" s="309">
         <f t="shared" si="1"/>
         <v>0.84312892456757438</v>
       </c>
-      <c r="G19" s="312">
+      <c r="G19" s="310">
         <v>4.0680000000000001E-2</v>
       </c>
-      <c r="H19" s="312">
+      <c r="H19" s="310">
         <v>9.7049999999999997E-2</v>
       </c>
-      <c r="I19" s="312">
+      <c r="I19" s="310">
         <v>0.44059999999999999</v>
       </c>
-      <c r="J19" s="311">
+      <c r="J19" s="309">
         <f t="shared" si="2"/>
         <v>17.039016237953422</v>
       </c>
-      <c r="K19" s="311">
+      <c r="K19" s="309">
         <f t="shared" si="3"/>
         <v>56.602386750099448</v>
       </c>
-      <c r="L19" s="312">
+      <c r="L19" s="310">
         <v>1.5429999999999999E-2</v>
       </c>
-      <c r="M19" s="312">
+      <c r="M19" s="310">
         <v>4.5710000000000001E-2</v>
       </c>
-      <c r="N19" s="312">
+      <c r="N19" s="310">
         <v>0.87629999999999997</v>
       </c>
-      <c r="O19" s="311">
+      <c r="O19" s="309">
         <f t="shared" si="4"/>
         <v>44.922046698635469</v>
       </c>
-      <c r="P19" s="311">
+      <c r="P19" s="309">
         <f t="shared" si="5"/>
         <v>149.22780900803926</v>
       </c>
-      <c r="Q19" s="300">
+      <c r="Q19" s="298">
         <v>0.36809999999999998</v>
       </c>
-      <c r="R19" s="312">
+      <c r="R19" s="310">
         <v>2.6539999999999999</v>
       </c>
-      <c r="S19" s="312">
+      <c r="S19" s="310">
         <v>0.74609999999999999</v>
       </c>
-      <c r="T19" s="311">
+      <c r="T19" s="309">
         <f t="shared" si="6"/>
         <v>1.8830404253190582</v>
       </c>
-      <c r="U19" s="311">
+      <c r="U19" s="309">
         <f t="shared" si="7"/>
         <v>6.2553248926760281</v>
       </c>
-      <c r="V19" s="312">
+      <c r="V19" s="310">
         <v>4.41E-2</v>
       </c>
-      <c r="W19" s="312">
+      <c r="W19" s="310">
         <v>0.1013</v>
       </c>
-      <c r="X19" s="312">
+      <c r="X19" s="310">
         <v>0.92220000000000002</v>
       </c>
-      <c r="Y19" s="311">
+      <c r="Y19" s="309">
         <f t="shared" si="8"/>
         <v>15.717623141948872</v>
       </c>
-      <c r="Z19" s="311">
+      <c r="Z19" s="309">
         <f t="shared" si="9"/>
         <v>52.212813900091739</v>
       </c>
-      <c r="AA19" s="312">
+      <c r="AA19" s="310">
         <v>7.345E-3</v>
       </c>
-      <c r="AB19" s="312">
+      <c r="AB19" s="310">
         <v>1.1329999999999999E-3</v>
       </c>
-      <c r="AC19" s="312">
+      <c r="AC19" s="310">
         <v>1.1160000000000001</v>
       </c>
-      <c r="AD19" s="311">
+      <c r="AD19" s="309">
         <f t="shared" si="10"/>
         <v>94.369936087126661</v>
       </c>
-      <c r="AE19" s="311">
+      <c r="AE19" s="309">
         <f t="shared" si="11"/>
         <v>313.49014200055086</v>
       </c>
-      <c r="AF19" s="304">
+      <c r="AF19" s="302">
         <f t="shared" si="12"/>
         <v>4.2261469999999983</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A20" s="310">
+      <c r="A20" s="308">
         <v>100</v>
       </c>
-      <c r="B20" s="312">
+      <c r="B20" s="310">
         <v>2.5</v>
       </c>
-      <c r="C20" s="312">
+      <c r="C20" s="310">
         <v>15.28</v>
       </c>
-      <c r="D20" s="312">
+      <c r="D20" s="310">
         <v>0.75570000000000004</v>
       </c>
-      <c r="E20" s="311">
+      <c r="E20" s="309">
         <f t="shared" si="0"/>
         <v>0.2772588722239781</v>
       </c>
-      <c r="F20" s="311">
+      <c r="F20" s="309">
         <f t="shared" si="1"/>
         <v>0.92103403719761834</v>
       </c>
-      <c r="G20" s="312">
+      <c r="G20" s="310">
         <v>3.925E-2</v>
       </c>
-      <c r="H20" s="312">
+      <c r="H20" s="310">
         <v>8.5669999999999996E-2</v>
       </c>
-      <c r="I20" s="312">
+      <c r="I20" s="310">
         <v>0.42730000000000001</v>
       </c>
-      <c r="J20" s="311">
+      <c r="J20" s="309">
         <f t="shared" si="2"/>
         <v>17.659800778597333</v>
       </c>
-      <c r="K20" s="311">
+      <c r="K20" s="309">
         <f t="shared" si="3"/>
         <v>58.6645883565362</v>
       </c>
-      <c r="L20" s="312">
+      <c r="L20" s="310">
         <v>1.4659999999999999E-2</v>
       </c>
-      <c r="M20" s="312">
+      <c r="M20" s="310">
         <v>4.1709999999999997E-2</v>
       </c>
-      <c r="N20" s="312">
+      <c r="N20" s="310">
         <v>0.89390000000000003</v>
       </c>
-      <c r="O20" s="311">
+      <c r="O20" s="309">
         <f t="shared" si="4"/>
         <v>47.281526641196812</v>
       </c>
-      <c r="P20" s="311">
+      <c r="P20" s="309">
         <f t="shared" si="5"/>
         <v>157.06583171855701</v>
       </c>
-      <c r="Q20" s="300">
+      <c r="Q20" s="298">
         <v>0.34150000000000003</v>
       </c>
-      <c r="R20" s="312">
+      <c r="R20" s="310">
         <v>2.42</v>
       </c>
-      <c r="S20" s="312">
+      <c r="S20" s="310">
         <v>0.76449999999999996</v>
       </c>
-      <c r="T20" s="311">
+      <c r="T20" s="309">
         <f t="shared" si="6"/>
         <v>2.0297135594727531</v>
       </c>
-      <c r="U20" s="311">
+      <c r="U20" s="309">
         <f t="shared" si="7"/>
         <v>6.7425624977863707</v>
       </c>
-      <c r="V20" s="312">
+      <c r="V20" s="310">
         <v>4.2779999999999999E-2</v>
       </c>
-      <c r="W20" s="312">
+      <c r="W20" s="310">
         <v>9.4659999999999994E-2</v>
       </c>
-      <c r="X20" s="312">
+      <c r="X20" s="310">
         <v>0.97909999999999997</v>
       </c>
-      <c r="Y20" s="311">
+      <c r="Y20" s="309">
         <f t="shared" si="8"/>
         <v>16.202598891069314</v>
       </c>
-      <c r="Z20" s="311">
+      <c r="Z20" s="309">
         <f t="shared" si="9"/>
         <v>53.823868466433979</v>
       </c>
-      <c r="AA20" s="312">
+      <c r="AA20" s="310">
         <v>7.2300000000000003E-3</v>
       </c>
-      <c r="AB20" s="312">
+      <c r="AB20" s="310">
         <v>9.343E-4</v>
       </c>
-      <c r="AC20" s="312">
+      <c r="AC20" s="310">
         <v>1.3089999999999999</v>
       </c>
-      <c r="AD20" s="311">
+      <c r="AD20" s="309">
         <f t="shared" si="10"/>
         <v>95.870979330559507</v>
       </c>
-      <c r="AE20" s="311">
+      <c r="AE20" s="309">
         <f t="shared" si="11"/>
         <v>318.47649972255124</v>
       </c>
-      <c r="AF20" s="304">
+      <c r="AF20" s="302">
         <f t="shared" si="12"/>
         <v>4.6919999999999993</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A21" s="310">
+      <c r="A21" s="308">
         <v>105</v>
       </c>
-      <c r="B21" s="312">
+      <c r="B21" s="310">
         <v>2.3639999999999999</v>
       </c>
-      <c r="C21" s="312">
+      <c r="C21" s="310">
         <v>13.41</v>
       </c>
-      <c r="D21" s="312">
+      <c r="D21" s="310">
         <v>0.72389999999999999</v>
       </c>
-      <c r="E21" s="311">
+      <c r="E21" s="309">
         <f t="shared" si="0"/>
         <v>0.29320946724193964</v>
       </c>
-      <c r="F21" s="311">
+      <c r="F21" s="309">
         <f t="shared" si="1"/>
         <v>0.97402076691795514</v>
       </c>
-      <c r="G21" s="312">
+      <c r="G21" s="310">
         <v>3.8080000000000003E-2</v>
       </c>
-      <c r="H21" s="312">
+      <c r="H21" s="310">
         <v>7.8619999999999995E-2</v>
       </c>
-      <c r="I21" s="312">
+      <c r="I21" s="310">
         <v>0.43940000000000001</v>
       </c>
-      <c r="J21" s="311">
+      <c r="J21" s="309">
         <f t="shared" si="2"/>
         <v>18.202394447477552</v>
       </c>
-      <c r="K21" s="311">
+      <c r="K21" s="309">
         <f t="shared" si="3"/>
         <v>60.467045509297414</v>
       </c>
-      <c r="L21" s="312">
+      <c r="L21" s="310">
         <v>1.397E-2</v>
       </c>
-      <c r="M21" s="312">
+      <c r="M21" s="310">
         <v>3.8150000000000003E-2</v>
       </c>
-      <c r="N21" s="312">
+      <c r="N21" s="310">
         <v>0.90800000000000003</v>
       </c>
-      <c r="O21" s="311">
+      <c r="O21" s="309">
         <f t="shared" si="4"/>
         <v>49.616834685751272</v>
       </c>
-      <c r="P21" s="311">
+      <c r="P21" s="309">
         <f t="shared" si="5"/>
         <v>164.82355712197892</v>
       </c>
-      <c r="Q21" s="300">
+      <c r="Q21" s="298">
         <v>0.3135</v>
       </c>
-      <c r="R21" s="312">
+      <c r="R21" s="310">
         <v>2.2269999999999999</v>
       </c>
-      <c r="S21" s="312">
+      <c r="S21" s="310">
         <v>0.77880000000000005</v>
       </c>
-      <c r="T21" s="311">
+      <c r="T21" s="309">
         <f t="shared" si="6"/>
         <v>2.2109957912597937</v>
       </c>
-      <c r="U21" s="311">
+      <c r="U21" s="309">
         <f t="shared" si="7"/>
         <v>7.3447690366636236</v>
       </c>
-      <c r="V21" s="312">
+      <c r="V21" s="310">
         <v>4.1430000000000002E-2</v>
       </c>
-      <c r="W21" s="312">
+      <c r="W21" s="310">
         <v>8.7510000000000004E-2</v>
       </c>
-      <c r="X21" s="312">
+      <c r="X21" s="310">
         <v>1.014</v>
       </c>
-      <c r="Y21" s="311">
+      <c r="Y21" s="309">
         <f t="shared" si="8"/>
         <v>16.730561925173674</v>
       </c>
-      <c r="Z21" s="311">
+      <c r="Z21" s="309">
         <f t="shared" si="9"/>
         <v>55.577723702487233</v>
       </c>
-      <c r="AA21" s="312">
+      <c r="AA21" s="310">
         <v>7.0499999999999998E-3</v>
       </c>
-      <c r="AB21" s="312">
+      <c r="AB21" s="310">
         <v>6.1990000000000005E-4</v>
       </c>
-      <c r="AC21" s="312">
+      <c r="AC21" s="310">
         <v>1.365</v>
       </c>
-      <c r="AD21" s="311">
+      <c r="AD21" s="309">
         <f t="shared" si="10"/>
         <v>98.318749015595074</v>
       </c>
-      <c r="AE21" s="311">
+      <c r="AE21" s="309">
         <f t="shared" si="11"/>
         <v>326.60781460908453</v>
       </c>
-      <c r="AF21" s="304">
+      <c r="AF21" s="302">
         <f t="shared" si="12"/>
         <v>5.1721629999999994</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A22" s="310">
+      <c r="A22" s="308">
         <v>110</v>
       </c>
-      <c r="B22" s="312">
+      <c r="B22" s="310">
         <v>2.2959999999999998</v>
       </c>
-      <c r="C22" s="312">
+      <c r="C22" s="310">
         <v>11.7</v>
       </c>
-      <c r="D22" s="312">
+      <c r="D22" s="310">
         <v>0.68269999999999997</v>
       </c>
-      <c r="E22" s="311">
+      <c r="E22" s="309">
         <f t="shared" si="0"/>
         <v>0.301893371324018</v>
       </c>
-      <c r="F22" s="311">
+      <c r="F22" s="309">
         <f t="shared" si="1"/>
         <v>1.0028680718615182</v>
       </c>
-      <c r="G22" s="312">
+      <c r="G22" s="310">
         <v>3.7150000000000002E-2</v>
       </c>
-      <c r="H22" s="312">
+      <c r="H22" s="310">
         <v>7.4359999999999996E-2</v>
       </c>
-      <c r="I22" s="312">
+      <c r="I22" s="310">
         <v>0.47520000000000001</v>
       </c>
-      <c r="J22" s="311">
+      <c r="J22" s="309">
         <f t="shared" si="2"/>
         <v>18.658066771465553</v>
       </c>
-      <c r="K22" s="311">
+      <c r="K22" s="309">
         <f t="shared" si="3"/>
         <v>61.980756204415769</v>
       </c>
-      <c r="L22" s="312">
+      <c r="L22" s="310">
         <v>1.336E-2</v>
       </c>
-      <c r="M22" s="312">
+      <c r="M22" s="310">
         <v>3.5209999999999998E-2</v>
       </c>
-      <c r="N22" s="312">
+      <c r="N22" s="310">
         <v>0.9244</v>
       </c>
-      <c r="O22" s="311">
+      <c r="O22" s="309">
         <f t="shared" si="4"/>
         <v>51.882273994007882</v>
       </c>
-      <c r="P22" s="311">
+      <c r="P22" s="309">
         <f t="shared" si="5"/>
         <v>172.34918360733877</v>
       </c>
-      <c r="Q22" s="300">
+      <c r="Q22" s="298">
         <v>0.28489999999999999</v>
       </c>
-      <c r="R22" s="312">
+      <c r="R22" s="310">
         <v>2.0609999999999999</v>
       </c>
-      <c r="S22" s="312">
+      <c r="S22" s="310">
         <v>0.78969999999999996</v>
       </c>
-      <c r="T22" s="311">
+      <c r="T22" s="309">
         <f t="shared" si="6"/>
         <v>2.4329490367144446</v>
       </c>
-      <c r="U22" s="311">
+      <c r="U22" s="309">
         <f t="shared" si="7"/>
         <v>8.08208175849086</v>
       </c>
-      <c r="V22" s="312">
+      <c r="V22" s="310">
         <v>4.0079999999999998E-2</v>
       </c>
-      <c r="W22" s="312">
+      <c r="W22" s="310">
         <v>8.047E-2</v>
       </c>
-      <c r="X22" s="312">
+      <c r="X22" s="310">
         <v>1.03</v>
       </c>
-      <c r="Y22" s="311">
+      <c r="Y22" s="309">
         <f t="shared" si="8"/>
         <v>17.294091331335963</v>
       </c>
-      <c r="Z22" s="311">
+      <c r="Z22" s="309">
         <f t="shared" si="9"/>
         <v>57.449727869112927</v>
       </c>
-      <c r="AA22" s="312">
+      <c r="AA22" s="310">
         <v>6.9210000000000001E-3</v>
       </c>
-      <c r="AB22" s="312">
+      <c r="AB22" s="310">
         <v>1.9760000000000001E-4</v>
       </c>
-      <c r="AC22" s="312">
+      <c r="AC22" s="310">
         <v>3.3090000000000002</v>
       </c>
-      <c r="AD22" s="311">
+      <c r="AD22" s="309">
         <f t="shared" si="10"/>
         <v>100.15130480565601</v>
       </c>
-      <c r="AE22" s="311">
+      <c r="AE22" s="309">
         <f t="shared" si="11"/>
         <v>332.69543317353646</v>
       </c>
-      <c r="AF22" s="304">
+      <c r="AF22" s="302">
         <f t="shared" si="12"/>
         <v>5.6642840000000003</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A23" s="310">
+      <c r="A23" s="308">
         <v>115</v>
       </c>
-      <c r="B23" s="312">
+      <c r="B23" s="310">
         <v>2.2650000000000001</v>
       </c>
-      <c r="C23" s="312">
+      <c r="C23" s="310">
         <v>10.210000000000001</v>
       </c>
-      <c r="D23" s="312">
+      <c r="D23" s="310">
         <v>0.63629999999999998</v>
       </c>
-      <c r="E23" s="311">
+      <c r="E23" s="309">
         <f t="shared" si="0"/>
         <v>0.30602524528032904</v>
       </c>
-      <c r="F23" s="311">
+      <c r="F23" s="309">
         <f t="shared" si="1"/>
         <v>1.0165938600415214</v>
       </c>
-      <c r="G23" s="312">
+      <c r="G23" s="310">
         <v>3.6360000000000003E-2</v>
       </c>
-      <c r="H23" s="312">
+      <c r="H23" s="310">
         <v>7.2010000000000005E-2</v>
       </c>
-      <c r="I23" s="312">
+      <c r="I23" s="310">
         <v>0.53190000000000004</v>
       </c>
-      <c r="J23" s="311">
+      <c r="J23" s="309">
         <f t="shared" si="2"/>
         <v>19.063453810779571</v>
       </c>
-      <c r="K23" s="311">
+      <c r="K23" s="309">
         <f t="shared" si="3"/>
         <v>63.327422799616215</v>
       </c>
-      <c r="L23" s="312">
+      <c r="L23" s="310">
         <v>1.2829999999999999E-2</v>
       </c>
-      <c r="M23" s="312">
+      <c r="M23" s="310">
         <v>6.2710000000000002E-2</v>
       </c>
-      <c r="N23" s="312">
+      <c r="N23" s="310">
         <v>0.94230000000000003</v>
       </c>
-      <c r="O23" s="311">
+      <c r="O23" s="309">
         <f t="shared" si="4"/>
         <v>54.025501212778281</v>
       </c>
-      <c r="P23" s="311">
+      <c r="P23" s="309">
         <f t="shared" si="5"/>
         <v>179.46883031909945</v>
       </c>
-      <c r="Q23" s="300">
+      <c r="Q23" s="298">
         <v>0.25790000000000002</v>
       </c>
-      <c r="R23" s="312">
+      <c r="R23" s="310">
         <v>1.9219999999999999</v>
       </c>
-      <c r="S23" s="312">
+      <c r="S23" s="310">
         <v>0.80079999999999996</v>
       </c>
-      <c r="T23" s="311">
+      <c r="T23" s="309">
         <f t="shared" si="6"/>
         <v>2.6876587070955611</v>
       </c>
-      <c r="U23" s="311">
+      <c r="U23" s="309">
         <f t="shared" si="7"/>
         <v>8.9282089685693897</v>
       </c>
-      <c r="V23" s="312">
+      <c r="V23" s="310">
         <v>3.8780000000000002E-2</v>
       </c>
-      <c r="W23" s="312">
+      <c r="W23" s="310">
         <v>7.3940000000000006E-2</v>
       </c>
-      <c r="X23" s="312">
+      <c r="X23" s="310">
         <v>1.0329999999999999</v>
       </c>
-      <c r="Y23" s="311">
+      <c r="Y23" s="309">
         <f t="shared" si="8"/>
         <v>17.873831370808283</v>
       </c>
-      <c r="Z23" s="311">
+      <c r="Z23" s="309">
         <f t="shared" si="9"/>
         <v>59.375582593967138</v>
       </c>
-      <c r="AA23" s="312">
+      <c r="AA23" s="310">
         <v>6.8640000000000003E-3</v>
       </c>
-      <c r="AB23" s="312">
+      <c r="AB23" s="310">
         <v>-3.9080000000000001E-4</v>
       </c>
-      <c r="AC23" s="312">
+      <c r="AC23" s="310">
         <v>0.64690000000000003</v>
       </c>
-      <c r="AD23" s="311">
+      <c r="AD23" s="309">
         <f t="shared" si="10"/>
         <v>100.98298085080788</v>
       </c>
-      <c r="AE23" s="311">
+      <c r="AE23" s="309">
         <f t="shared" si="11"/>
         <v>335.45820119377123</v>
       </c>
-      <c r="AF23" s="304">
+      <c r="AF23" s="302">
         <f t="shared" si="12"/>
         <v>6.1660109999999984</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A24" s="310">
+      <c r="A24" s="308">
         <v>120</v>
       </c>
-      <c r="B24" s="312">
+      <c r="B24" s="310">
         <v>2.246</v>
       </c>
-      <c r="C24" s="312">
+      <c r="C24" s="310">
         <v>8.9499999999999993</v>
       </c>
-      <c r="D24" s="312">
+      <c r="D24" s="310">
         <v>0.58730000000000004</v>
       </c>
-      <c r="E24" s="311">
+      <c r="E24" s="309">
         <f t="shared" si="0"/>
         <v>0.30861406080140041</v>
       </c>
-      <c r="F24" s="311">
+      <c r="F24" s="309">
         <f t="shared" si="1"/>
         <v>1.0251937190534488</v>
       </c>
-      <c r="G24" s="312">
+      <c r="G24" s="310">
         <v>3.5659999999999997E-2</v>
       </c>
-      <c r="H24" s="312">
+      <c r="H24" s="310">
         <v>7.109E-2</v>
       </c>
-      <c r="I24" s="312">
+      <c r="I24" s="310">
         <v>0.60729999999999995</v>
       </c>
-      <c r="J24" s="311">
+      <c r="J24" s="309">
         <f t="shared" si="2"/>
         <v>19.437666308467339</v>
       </c>
-      <c r="K24" s="311">
+      <c r="K24" s="309">
         <f t="shared" si="3"/>
         <v>64.570529809143181</v>
       </c>
-      <c r="L24" s="312">
+      <c r="L24" s="310">
         <v>1.235E-2</v>
       </c>
-      <c r="M24" s="312">
+      <c r="M24" s="310">
         <v>3.0470000000000001E-2</v>
       </c>
-      <c r="N24" s="312">
+      <c r="N24" s="310">
         <v>0.95660000000000001</v>
       </c>
-      <c r="O24" s="311">
+      <c r="O24" s="309">
         <f t="shared" si="4"/>
         <v>56.125277778133224</v>
       </c>
-      <c r="P24" s="311">
+      <c r="P24" s="309">
         <f t="shared" si="5"/>
         <v>186.44413708453814</v>
       </c>
-      <c r="Q24" s="300">
+      <c r="Q24" s="298">
         <v>0.2336</v>
       </c>
-      <c r="R24" s="312">
+      <c r="R24" s="310">
         <v>1.7969999999999999</v>
       </c>
-      <c r="S24" s="312">
+      <c r="S24" s="310">
         <v>0.81159999999999999</v>
       </c>
-      <c r="T24" s="311">
+      <c r="T24" s="309">
         <f t="shared" si="6"/>
         <v>2.9672396428079848</v>
       </c>
-      <c r="U24" s="311">
+      <c r="U24" s="309">
         <f t="shared" si="7"/>
         <v>9.8569567337073867</v>
       </c>
-      <c r="V24" s="312">
+      <c r="V24" s="310">
         <v>3.7580000000000002E-2</v>
       </c>
-      <c r="W24" s="312">
+      <c r="W24" s="310">
         <v>6.8080000000000002E-2</v>
       </c>
-      <c r="X24" s="312">
+      <c r="X24" s="310">
         <v>1.0309999999999999</v>
       </c>
-      <c r="Y24" s="311">
+      <c r="Y24" s="309">
         <f t="shared" si="8"/>
         <v>18.44457638530988</v>
       </c>
-      <c r="Z24" s="311">
+      <c r="Z24" s="309">
         <f t="shared" si="9"/>
         <v>61.271556492656885</v>
       </c>
-      <c r="AA24" s="312">
+      <c r="AA24" s="310">
         <v>6.7260000000000002E-3</v>
       </c>
-      <c r="AB24" s="312">
+      <c r="AB24" s="310">
         <v>-8.3080000000000003E-4</v>
       </c>
-      <c r="AC24" s="312">
+      <c r="AC24" s="310">
         <v>1.006</v>
       </c>
-      <c r="AD24" s="311">
+      <c r="AD24" s="309">
         <f t="shared" si="10"/>
         <v>103.05488857566834</v>
       </c>
-      <c r="AE24" s="311">
+      <c r="AE24" s="309">
         <f t="shared" si="11"/>
         <v>342.34092967499936</v>
       </c>
-      <c r="AF24" s="304">
+      <c r="AF24" s="302">
         <f t="shared" si="12"/>
         <v>6.6749920000000014</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A25" s="310">
+      <c r="A25" s="308">
         <v>125</v>
       </c>
-      <c r="B25" s="312">
+      <c r="B25" s="310">
         <v>2.2189999999999999</v>
       </c>
-      <c r="C25" s="312">
+      <c r="C25" s="310">
         <v>7.923</v>
       </c>
-      <c r="D25" s="312">
+      <c r="D25" s="310">
         <v>0.53859999999999997</v>
       </c>
-      <c r="E25" s="311">
+      <c r="E25" s="309">
         <f t="shared" si="0"/>
         <v>0.31236916654346342</v>
       </c>
-      <c r="F25" s="311">
+      <c r="F25" s="309">
         <f t="shared" si="1"/>
         <v>1.0376679103172808</v>
       </c>
-      <c r="G25" s="312">
+      <c r="G25" s="310">
         <v>3.5020000000000003E-2</v>
       </c>
-      <c r="H25" s="312">
+      <c r="H25" s="310">
         <v>7.1129999999999999E-2</v>
       </c>
-      <c r="I25" s="312">
+      <c r="I25" s="310">
         <v>0.69740000000000002</v>
       </c>
-      <c r="J25" s="311">
+      <c r="J25" s="309">
         <f t="shared" si="2"/>
         <v>19.792894933179475</v>
       </c>
-      <c r="K25" s="311">
+      <c r="K25" s="309">
         <f t="shared" si="3"/>
         <v>65.750573757682631</v>
       </c>
-      <c r="L25" s="312">
+      <c r="L25" s="310">
         <v>1.192E-2</v>
       </c>
-      <c r="M25" s="312">
+      <c r="M25" s="310">
         <v>2.8629999999999999E-2</v>
       </c>
-      <c r="N25" s="312">
+      <c r="N25" s="310">
         <v>0.96840000000000004</v>
       </c>
-      <c r="O25" s="311">
+      <c r="O25" s="309">
         <f t="shared" si="4"/>
         <v>58.149931255028967</v>
       </c>
-      <c r="P25" s="311">
+      <c r="P25" s="309">
         <f t="shared" si="5"/>
         <v>193.16989035184949</v>
       </c>
-      <c r="Q25" s="300">
+      <c r="Q25" s="298">
         <v>0.21299999999999999</v>
       </c>
-      <c r="R25" s="312">
+      <c r="R25" s="310">
         <v>1.677</v>
       </c>
-      <c r="S25" s="312">
+      <c r="S25" s="310">
         <v>0.82169999999999999</v>
       </c>
-      <c r="T25" s="311">
+      <c r="T25" s="309">
         <f t="shared" si="6"/>
         <v>3.2542121153049077</v>
       </c>
-      <c r="U25" s="311">
+      <c r="U25" s="309">
         <f t="shared" si="7"/>
         <v>10.810258652554207</v>
       </c>
-      <c r="V25" s="312">
+      <c r="V25" s="310">
         <v>3.6519999999999997E-2</v>
       </c>
-      <c r="W25" s="312">
+      <c r="W25" s="310">
         <v>6.3039999999999999E-2</v>
       </c>
-      <c r="X25" s="312">
+      <c r="X25" s="310">
         <v>1.0309999999999999</v>
       </c>
-      <c r="Y25" s="311">
+      <c r="Y25" s="309">
         <f t="shared" si="8"/>
         <v>18.979933750272327</v>
       </c>
-      <c r="Z25" s="311">
+      <c r="Z25" s="309">
         <f t="shared" si="9"/>
         <v>63.049975164130508</v>
       </c>
-      <c r="AA25" s="312">
+      <c r="AA25" s="310">
         <v>6.5839999999999996E-3</v>
       </c>
-      <c r="AB25" s="312">
+      <c r="AB25" s="310">
         <v>-1.214E-3</v>
       </c>
-      <c r="AC25" s="312">
+      <c r="AC25" s="310">
         <v>1.1919999999999999</v>
       </c>
-      <c r="AD25" s="311">
+      <c r="AD25" s="309">
         <f t="shared" si="10"/>
         <v>105.27751831104881</v>
       </c>
-      <c r="AE25" s="311">
+      <c r="AE25" s="309">
         <f t="shared" si="11"/>
         <v>349.7243458374918</v>
       </c>
-      <c r="AF25" s="304">
+      <c r="AF25" s="302">
         <f t="shared" si="12"/>
         <v>7.1888749999999995</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A26" s="310">
+      <c r="A26" s="308">
         <v>130</v>
       </c>
-      <c r="B26" s="312">
+      <c r="B26" s="310">
         <v>2.17</v>
       </c>
-      <c r="C26" s="312">
+      <c r="C26" s="310">
         <v>7.0940000000000003</v>
       </c>
-      <c r="D26" s="312">
+      <c r="D26" s="310">
         <v>0.4909</v>
       </c>
-      <c r="E26" s="311">
+      <c r="E26" s="309">
         <f t="shared" si="0"/>
         <v>0.31942266385250934</v>
       </c>
-      <c r="F26" s="311">
+      <c r="F26" s="309">
         <f t="shared" si="1"/>
         <v>1.0610991211954128</v>
       </c>
-      <c r="G26" s="312">
+      <c r="G26" s="310">
         <v>3.4450000000000001E-2</v>
       </c>
-      <c r="H26" s="312">
+      <c r="H26" s="310">
         <v>7.1599999999999997E-2</v>
       </c>
-      <c r="I26" s="312">
+      <c r="I26" s="310">
         <v>0.79690000000000005</v>
       </c>
-      <c r="J26" s="311">
+      <c r="J26" s="309">
         <f t="shared" si="2"/>
         <v>20.120382599708137</v>
       </c>
-      <c r="K26" s="311">
+      <c r="K26" s="309">
         <f t="shared" si="3"/>
         <v>66.838464237853287</v>
       </c>
-      <c r="L26" s="312">
+      <c r="L26" s="310">
         <v>1.155E-2</v>
       </c>
-      <c r="M26" s="312">
+      <c r="M26" s="310">
         <v>2.7019999999999999E-2</v>
       </c>
-      <c r="N26" s="312">
+      <c r="N26" s="310">
         <v>0.98019999999999996</v>
       </c>
-      <c r="O26" s="311">
+      <c r="O26" s="309">
         <f t="shared" si="4"/>
         <v>60.012742905622972</v>
       </c>
-      <c r="P26" s="311">
+      <c r="P26" s="309">
         <f t="shared" si="5"/>
         <v>199.35801670944122</v>
       </c>
-      <c r="Q26" s="300">
+      <c r="Q26" s="298">
         <v>0.19689999999999999</v>
       </c>
-      <c r="R26" s="312">
+      <c r="R26" s="310">
         <v>1.5569999999999999</v>
       </c>
-      <c r="S26" s="312">
+      <c r="S26" s="310">
         <v>0.83089999999999997</v>
       </c>
-      <c r="T26" s="311">
+      <c r="T26" s="309">
         <f t="shared" si="6"/>
         <v>3.5203005615030234</v>
       </c>
-      <c r="U26" s="311">
+      <c r="U26" s="309">
         <f t="shared" si="7"/>
         <v>11.694185337704651</v>
       </c>
-      <c r="V26" s="312">
+      <c r="V26" s="310">
         <v>3.5610000000000003E-2</v>
       </c>
-      <c r="W26" s="312">
+      <c r="W26" s="310">
         <v>5.8740000000000001E-2</v>
       </c>
-      <c r="X26" s="312">
+      <c r="X26" s="310">
         <v>1.0369999999999999</v>
       </c>
-      <c r="Y26" s="311">
+      <c r="Y26" s="309">
         <f t="shared" si="8"/>
         <v>19.464958735185206</v>
       </c>
-      <c r="Z26" s="311">
+      <c r="Z26" s="309">
         <f t="shared" si="9"/>
         <v>64.661193288234927</v>
       </c>
-      <c r="AA26" s="312">
+      <c r="AA26" s="310">
         <v>6.4720000000000003E-3</v>
       </c>
-      <c r="AB26" s="312">
+      <c r="AB26" s="310">
         <v>-1.539E-3</v>
       </c>
-      <c r="AC26" s="312">
+      <c r="AC26" s="310">
         <v>1.2849999999999999</v>
       </c>
-      <c r="AD26" s="311">
+      <c r="AD26" s="309">
         <f t="shared" si="10"/>
         <v>107.09937894931169</v>
       </c>
-      <c r="AE26" s="311">
+      <c r="AE26" s="309">
         <f t="shared" si="11"/>
         <v>355.77643587670667</v>
       </c>
-      <c r="AF26" s="304">
+      <c r="AF26" s="302">
         <f t="shared" si="12"/>
         <v>7.7053080000000005</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A27" s="310">
+      <c r="A27" s="308">
         <v>135</v>
       </c>
-      <c r="B27" s="312">
+      <c r="B27" s="310">
         <v>2.1019999999999999</v>
       </c>
-      <c r="C27" s="312">
+      <c r="C27" s="310">
         <v>6.45</v>
       </c>
-      <c r="D27" s="312">
+      <c r="D27" s="310">
         <v>0.44690000000000002</v>
       </c>
-      <c r="E27" s="311">
+      <c r="E27" s="309">
         <f t="shared" si="0"/>
         <v>0.32975603261652964</v>
       </c>
-      <c r="F27" s="311">
+      <c r="F27" s="309">
         <f t="shared" si="1"/>
         <v>1.0954258292074432</v>
       </c>
-      <c r="G27" s="312">
+      <c r="G27" s="310">
         <v>3.3939999999999998E-2</v>
       </c>
-      <c r="H27" s="312">
+      <c r="H27" s="310">
         <v>7.263E-2</v>
       </c>
-      <c r="I27" s="312">
+      <c r="I27" s="310">
         <v>0.90990000000000004</v>
       </c>
-      <c r="J27" s="311">
+      <c r="J27" s="309">
         <f t="shared" si="2"/>
         <v>20.4227218786077</v>
       </c>
-      <c r="K27" s="311">
+      <c r="K27" s="309">
         <f t="shared" si="3"/>
         <v>67.842813582617737</v>
       </c>
-      <c r="L27" s="312">
+      <c r="L27" s="310">
         <v>1.1220000000000001E-2</v>
       </c>
-      <c r="M27" s="312">
+      <c r="M27" s="310">
         <v>2.5610000000000001E-2</v>
       </c>
-      <c r="N27" s="312">
+      <c r="N27" s="310">
         <v>0.99009999999999998</v>
       </c>
-      <c r="O27" s="311">
+      <c r="O27" s="309">
         <f t="shared" si="4"/>
         <v>61.777823579317754</v>
       </c>
-      <c r="P27" s="311">
+      <c r="P27" s="309">
         <f t="shared" si="5"/>
         <v>205.22148778913061</v>
       </c>
-      <c r="Q27" s="300">
+      <c r="Q27" s="298">
         <v>0.18379999999999999</v>
       </c>
-      <c r="R27" s="312">
+      <c r="R27" s="310">
         <v>1.44</v>
       </c>
-      <c r="S27" s="312">
+      <c r="S27" s="310">
         <v>0.83909999999999996</v>
       </c>
-      <c r="T27" s="311">
+      <c r="T27" s="309">
         <f t="shared" si="6"/>
         <v>3.7712033762782662</v>
       </c>
-      <c r="U27" s="311">
+      <c r="U27" s="309">
         <f t="shared" si="7"/>
         <v>12.52766644719285</v>
       </c>
-      <c r="V27" s="312">
+      <c r="V27" s="310">
         <v>3.4810000000000001E-2</v>
       </c>
-      <c r="W27" s="312">
+      <c r="W27" s="310">
         <v>5.5190000000000003E-2</v>
       </c>
-      <c r="X27" s="312">
+      <c r="X27" s="310">
         <v>1.0489999999999999</v>
       </c>
-      <c r="Y27" s="311">
+      <c r="Y27" s="309">
         <f t="shared" si="8"/>
         <v>19.912300504451171</v>
       </c>
-      <c r="Z27" s="311">
+      <c r="Z27" s="309">
         <f t="shared" si="9"/>
         <v>66.147230479576152</v>
       </c>
-      <c r="AA27" s="312">
+      <c r="AA27" s="310">
         <v>6.306E-3</v>
       </c>
-      <c r="AB27" s="312">
+      <c r="AB27" s="310">
         <v>-1.7309999999999999E-3</v>
       </c>
-      <c r="AC27" s="312">
+      <c r="AC27" s="310">
         <v>1.4650000000000001</v>
       </c>
-      <c r="AD27" s="311">
+      <c r="AD27" s="309">
         <f t="shared" si="10"/>
         <v>109.91867753884321</v>
       </c>
-      <c r="AE27" s="311">
+      <c r="AE27" s="309">
         <f t="shared" si="11"/>
         <v>365.14194306914777</v>
       </c>
-      <c r="AF27" s="304">
+      <c r="AF27" s="302">
         <f t="shared" si="12"/>
         <v>8.221938999999999</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A28" s="310">
+      <c r="A28" s="308">
         <v>140</v>
       </c>
-      <c r="B28" s="312">
+      <c r="B28" s="310">
         <v>2.0089999999999999</v>
       </c>
-      <c r="C28" s="312">
+      <c r="C28" s="310">
         <v>5.9160000000000004</v>
       </c>
-      <c r="D28" s="312">
+      <c r="D28" s="310">
         <v>0.40179999999999999</v>
       </c>
-      <c r="E28" s="311">
+      <c r="E28" s="309">
         <f t="shared" si="0"/>
         <v>0.34502099579887774</v>
       </c>
-      <c r="F28" s="311">
+      <c r="F28" s="309">
         <f t="shared" si="1"/>
         <v>1.1461349392703066</v>
       </c>
-      <c r="G28" s="312">
+      <c r="G28" s="310">
         <v>3.3450000000000001E-2</v>
       </c>
-      <c r="H28" s="312">
+      <c r="H28" s="310">
         <v>7.4759999999999993E-2</v>
       </c>
-      <c r="I28" s="312">
+      <c r="I28" s="310">
         <v>1.0469999999999999</v>
       </c>
-      <c r="J28" s="311">
+      <c r="J28" s="309">
         <f t="shared" si="2"/>
         <v>20.721888805977436</v>
       </c>
-      <c r="K28" s="311">
+      <c r="K28" s="309">
         <f t="shared" si="3"/>
         <v>68.836624603708387</v>
       </c>
-      <c r="L28" s="312">
+      <c r="L28" s="310">
         <v>1.0880000000000001E-2</v>
       </c>
-      <c r="M28" s="312">
+      <c r="M28" s="310">
         <v>2.436E-2</v>
       </c>
-      <c r="N28" s="312">
+      <c r="N28" s="310">
         <v>0.99639999999999995</v>
       </c>
-      <c r="O28" s="311">
+      <c r="O28" s="309">
         <f t="shared" si="4"/>
         <v>63.708380566171435</v>
       </c>
-      <c r="P28" s="311">
+      <c r="P28" s="309">
         <f t="shared" si="5"/>
         <v>211.63465928254095</v>
       </c>
-      <c r="Q28" s="300">
+      <c r="Q28" s="298">
         <v>0.1724</v>
       </c>
-      <c r="R28" s="312">
+      <c r="R28" s="310">
         <v>1.3280000000000001</v>
       </c>
-      <c r="S28" s="312">
+      <c r="S28" s="310">
         <v>0.8458</v>
       </c>
-      <c r="T28" s="311">
+      <c r="T28" s="309">
         <f t="shared" si="6"/>
         <v>4.0205752932711443</v>
       </c>
-      <c r="U28" s="311">
+      <c r="U28" s="309">
         <f t="shared" si="7"/>
         <v>13.356062024327411</v>
       </c>
-      <c r="V28" s="312">
+      <c r="V28" s="310">
         <v>3.4070000000000003E-2</v>
       </c>
-      <c r="W28" s="312">
+      <c r="W28" s="310">
         <v>5.1450000000000003E-2</v>
       </c>
-      <c r="X28" s="312">
+      <c r="X28" s="310">
         <v>1.0569999999999999</v>
       </c>
-      <c r="Y28" s="311">
+      <c r="Y28" s="309">
         <f t="shared" si="8"/>
         <v>20.344795437626804</v>
       </c>
-      <c r="Z28" s="311">
+      <c r="Z28" s="309">
         <f t="shared" si="9"/>
         <v>67.583947548988718</v>
       </c>
-      <c r="AA28" s="312">
+      <c r="AA28" s="310">
         <v>6.1910000000000003E-3</v>
       </c>
-      <c r="AB28" s="312">
+      <c r="AB28" s="310">
         <v>-1.8489999999999999E-3</v>
       </c>
-      <c r="AC28" s="312">
+      <c r="AC28" s="310">
         <v>1.53</v>
       </c>
-      <c r="AD28" s="311">
+      <c r="AD28" s="309">
         <f t="shared" si="10"/>
         <v>111.96045559036428</v>
       </c>
-      <c r="AE28" s="311">
+      <c r="AE28" s="309">
         <f t="shared" si="11"/>
         <v>371.92458294201998</v>
       </c>
-      <c r="AF28" s="304">
+      <c r="AF28" s="302">
         <f t="shared" si="12"/>
         <v>8.7364160000000002</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A29" s="310">
+      <c r="A29" s="308">
         <v>145</v>
       </c>
-      <c r="B29" s="312">
+      <c r="B29" s="310">
         <v>1.895</v>
       </c>
-      <c r="C29" s="312">
+      <c r="C29" s="310">
         <v>5.4980000000000002</v>
       </c>
-      <c r="D29" s="312">
+      <c r="D29" s="310">
         <v>0.35799999999999998</v>
       </c>
-      <c r="E29" s="311">
+      <c r="E29" s="309">
         <f t="shared" si="0"/>
         <v>0.36577687628493155</v>
       </c>
-      <c r="F29" s="311">
+      <c r="F29" s="309">
         <f t="shared" si="1"/>
         <v>1.2150844817910531</v>
       </c>
-      <c r="G29" s="312">
+      <c r="G29" s="310">
         <v>3.2960000000000003E-2</v>
       </c>
-      <c r="H29" s="312">
+      <c r="H29" s="310">
         <v>7.8750000000000001E-2</v>
       </c>
-      <c r="I29" s="312">
+      <c r="I29" s="310">
         <v>1.224</v>
       </c>
-      <c r="J29" s="311">
+      <c r="J29" s="309">
         <f t="shared" si="2"/>
         <v>21.029950866503192</v>
       </c>
-      <c r="K29" s="311">
+      <c r="K29" s="309">
         <f t="shared" si="3"/>
         <v>69.859984617537791</v>
       </c>
-      <c r="L29" s="312">
+      <c r="L29" s="310">
         <v>1.056E-2</v>
       </c>
-      <c r="M29" s="312">
+      <c r="M29" s="310">
         <v>2.3130000000000001E-2</v>
       </c>
-      <c r="N29" s="312">
+      <c r="N29" s="310">
         <v>0.99870000000000003</v>
       </c>
-      <c r="O29" s="311">
+      <c r="O29" s="309">
         <f t="shared" si="4"/>
         <v>65.638937553025116</v>
       </c>
-      <c r="P29" s="311">
+      <c r="P29" s="309">
         <f t="shared" si="5"/>
         <v>218.0478307759513</v>
       </c>
-      <c r="Q29" s="300">
+      <c r="Q29" s="298">
         <v>0.16159999999999999</v>
       </c>
-      <c r="R29" s="312">
+      <c r="R29" s="310">
         <v>1.2250000000000001</v>
       </c>
-      <c r="S29" s="312">
+      <c r="S29" s="310">
         <v>0.85189999999999999</v>
       </c>
-      <c r="T29" s="311">
+      <c r="T29" s="309">
         <f t="shared" si="6"/>
         <v>4.2892771074254039</v>
       </c>
-      <c r="U29" s="311">
+      <c r="U29" s="309">
         <f t="shared" si="7"/>
         <v>14.24867012991365</v>
       </c>
-      <c r="V29" s="312">
+      <c r="V29" s="310">
         <v>3.3360000000000001E-2</v>
       </c>
-      <c r="W29" s="312">
+      <c r="W29" s="310">
         <v>4.795E-2</v>
       </c>
-      <c r="X29" s="312">
+      <c r="X29" s="310">
         <v>1.0629999999999999</v>
       </c>
-      <c r="Y29" s="311">
+      <c r="Y29" s="309">
         <f t="shared" si="8"/>
         <v>20.777793182252555</v>
       </c>
-      <c r="Z29" s="311">
+      <c r="Z29" s="309">
         <f t="shared" si="9"/>
         <v>69.022334921883868</v>
       </c>
-      <c r="AA29" s="312">
+      <c r="AA29" s="310">
         <v>6.1149999999999998E-3</v>
       </c>
-      <c r="AB29" s="312">
+      <c r="AB29" s="310">
         <v>-1.869E-3</v>
       </c>
-      <c r="AC29" s="312">
+      <c r="AC29" s="310">
         <v>1.498</v>
       </c>
-      <c r="AD29" s="311">
+      <c r="AD29" s="309">
         <f t="shared" si="10"/>
         <v>113.35195103187985</v>
       </c>
-      <c r="AE29" s="311">
+      <c r="AE29" s="309">
         <f t="shared" si="11"/>
         <v>376.54703074309822</v>
       </c>
-      <c r="AF29" s="304">
+      <c r="AF29" s="302">
         <f t="shared" si="12"/>
         <v>9.2463870000000004</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A30" s="310">
+      <c r="A30" s="308">
         <v>150</v>
       </c>
-      <c r="B30" s="312">
+      <c r="B30" s="310">
         <v>1.7569999999999999</v>
       </c>
-      <c r="C30" s="312">
+      <c r="C30" s="310">
         <v>5.1769999999999996</v>
       </c>
-      <c r="D30" s="312">
+      <c r="D30" s="310">
         <v>0.31559999999999999</v>
       </c>
-      <c r="E30" s="311">
+      <c r="E30" s="309">
         <f t="shared" si="0"/>
         <v>0.39450607886166494</v>
       </c>
-      <c r="F30" s="311">
+      <c r="F30" s="309">
         <f t="shared" si="1"/>
         <v>1.3105208269744142</v>
       </c>
-      <c r="G30" s="312">
+      <c r="G30" s="310">
         <v>3.243E-2</v>
       </c>
-      <c r="H30" s="312">
+      <c r="H30" s="310">
         <v>8.5989999999999997E-2</v>
       </c>
-      <c r="I30" s="312">
+      <c r="I30" s="310">
         <v>1.4670000000000001</v>
       </c>
-      <c r="J30" s="311">
+      <c r="J30" s="309">
         <f t="shared" si="2"/>
         <v>21.373641090346755</v>
       </c>
-      <c r="K30" s="311">
+      <c r="K30" s="309">
         <f t="shared" si="3"/>
         <v>71.001698828061848</v>
       </c>
-      <c r="L30" s="312">
+      <c r="L30" s="310">
         <v>1.03E-2</v>
       </c>
-      <c r="M30" s="312">
+      <c r="M30" s="310">
         <v>2.198E-2</v>
       </c>
-      <c r="N30" s="312">
+      <c r="N30" s="310">
         <v>1.0129999999999999</v>
       </c>
-      <c r="O30" s="311">
+      <c r="O30" s="309">
         <f t="shared" si="4"/>
         <v>67.295842772810218</v>
       </c>
-      <c r="P30" s="311">
+      <c r="P30" s="309">
         <f t="shared" si="5"/>
         <v>223.55195077612095</v>
       </c>
-      <c r="Q30" s="300">
+      <c r="Q30" s="298">
         <v>0.15010000000000001</v>
       </c>
-      <c r="R30" s="312">
+      <c r="R30" s="310">
         <v>1.1319999999999999</v>
       </c>
-      <c r="S30" s="312">
+      <c r="S30" s="310">
         <v>0.85660000000000003</v>
       </c>
-      <c r="T30" s="311">
+      <c r="T30" s="309">
         <f t="shared" si="6"/>
         <v>4.6179026019983027</v>
       </c>
-      <c r="U30" s="311">
+      <c r="U30" s="309">
         <f t="shared" si="7"/>
         <v>15.340340393031617</v>
       </c>
-      <c r="V30" s="312">
+      <c r="V30" s="310">
         <v>3.2660000000000002E-2</v>
       </c>
-      <c r="W30" s="312">
+      <c r="W30" s="310">
         <v>4.4909999999999999E-2</v>
       </c>
-      <c r="X30" s="312">
+      <c r="X30" s="310">
         <v>1.073</v>
       </c>
-      <c r="Y30" s="311">
+      <c r="Y30" s="309">
         <f t="shared" si="8"/>
         <v>21.223122491118961</v>
       </c>
-      <c r="Z30" s="311">
+      <c r="Z30" s="309">
         <f t="shared" si="9"/>
         <v>70.501686864483943</v>
       </c>
-      <c r="AA30" s="312">
+      <c r="AA30" s="310">
         <v>6.0200000000000002E-3</v>
       </c>
-      <c r="AB30" s="312">
+      <c r="AB30" s="310">
         <v>-1.7520000000000001E-3</v>
       </c>
-      <c r="AC30" s="312">
+      <c r="AC30" s="310">
         <v>1.4830000000000001</v>
       </c>
-      <c r="AD30" s="311">
+      <c r="AD30" s="309">
         <f t="shared" si="10"/>
         <v>115.14072766776499</v>
       </c>
-      <c r="AE30" s="311">
+      <c r="AE30" s="309">
         <f t="shared" si="11"/>
         <v>382.48921810532318</v>
       </c>
-      <c r="AF30" s="304">
+      <c r="AF30" s="302">
         <f t="shared" si="12"/>
         <v>9.7495000000000012</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A31" s="313"/>
-      <c r="B31" s="314"/>
-      <c r="C31" s="314"/>
-      <c r="D31" s="314"/>
-      <c r="E31" s="314"/>
-      <c r="F31" s="315"/>
-      <c r="G31" s="314"/>
-      <c r="H31" s="314"/>
-      <c r="I31" s="314"/>
-      <c r="J31" s="314"/>
-      <c r="K31" s="315"/>
-      <c r="L31" s="314"/>
-      <c r="M31" s="314"/>
-      <c r="N31" s="314"/>
-      <c r="O31" s="314"/>
-      <c r="P31" s="315"/>
-      <c r="Q31" s="316"/>
-      <c r="R31" s="314"/>
-      <c r="S31" s="314"/>
-      <c r="T31" s="314"/>
-      <c r="U31" s="315"/>
-      <c r="V31" s="314"/>
-      <c r="W31" s="314"/>
-      <c r="X31" s="314"/>
-      <c r="Y31" s="314"/>
-      <c r="Z31" s="315"/>
-      <c r="AA31" s="314"/>
-      <c r="AB31" s="314"/>
-      <c r="AC31" s="314"/>
-      <c r="AD31" s="314"/>
-      <c r="AE31" s="315"/>
-      <c r="AF31" s="317"/>
+      <c r="A31" s="311"/>
+      <c r="B31" s="312"/>
+      <c r="C31" s="312"/>
+      <c r="D31" s="312"/>
+      <c r="E31" s="312"/>
+      <c r="F31" s="313"/>
+      <c r="G31" s="312"/>
+      <c r="H31" s="312"/>
+      <c r="I31" s="312"/>
+      <c r="J31" s="312"/>
+      <c r="K31" s="313"/>
+      <c r="L31" s="312"/>
+      <c r="M31" s="312"/>
+      <c r="N31" s="312"/>
+      <c r="O31" s="312"/>
+      <c r="P31" s="313"/>
+      <c r="Q31" s="314"/>
+      <c r="R31" s="312"/>
+      <c r="S31" s="312"/>
+      <c r="T31" s="312"/>
+      <c r="U31" s="313"/>
+      <c r="V31" s="312"/>
+      <c r="W31" s="312"/>
+      <c r="X31" s="312"/>
+      <c r="Y31" s="312"/>
+      <c r="Z31" s="313"/>
+      <c r="AA31" s="312"/>
+      <c r="AB31" s="312"/>
+      <c r="AC31" s="312"/>
+      <c r="AD31" s="312"/>
+      <c r="AE31" s="313"/>
+      <c r="AF31" s="315"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -36923,7 +36902,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="316" t="s">
         <v>332</v>
       </c>
     </row>
@@ -36936,7 +36915,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="319" t="s">
+      <c r="A4" s="317" t="s">
         <v>334</v>
       </c>
       <c r="B4">
@@ -36944,7 +36923,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="319" t="s">
+      <c r="A5" s="317" t="s">
         <v>335</v>
       </c>
       <c r="B5">
@@ -36952,7 +36931,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="319" t="s">
+      <c r="A6" s="317" t="s">
         <v>336</v>
       </c>
       <c r="B6">
@@ -36960,7 +36939,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="319" t="s">
+      <c r="A7" s="317" t="s">
         <v>337</v>
       </c>
       <c r="B7">
@@ -36968,7 +36947,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="319" t="s">
+      <c r="A8" s="317" t="s">
         <v>338</v>
       </c>
       <c r="B8">
@@ -36976,7 +36955,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="319" t="s">
+      <c r="A9" s="317" t="s">
         <v>339</v>
       </c>
       <c r="B9">
@@ -37001,51 +36980,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="316" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="330" t="s">
+      <c r="B3" s="325" t="s">
         <v>341</v>
       </c>
-      <c r="C3" s="330"/>
-      <c r="D3" s="330"/>
-      <c r="E3" s="330" t="s">
+      <c r="C3" s="325"/>
+      <c r="D3" s="325"/>
+      <c r="E3" s="325" t="s">
         <v>342</v>
       </c>
-      <c r="F3" s="330"/>
-      <c r="G3" s="330"/>
+      <c r="F3" s="325"/>
+      <c r="G3" s="325"/>
     </row>
     <row r="4" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="320" t="s">
+      <c r="A4" s="318" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="320" t="s">
+      <c r="B4" s="318" t="s">
         <v>343</v>
       </c>
-      <c r="C4" s="320" t="s">
+      <c r="C4" s="318" t="s">
         <v>344</v>
       </c>
-      <c r="D4" s="320" t="s">
+      <c r="D4" s="318" t="s">
         <v>345</v>
       </c>
-      <c r="E4" s="320" t="s">
+      <c r="E4" s="318" t="s">
         <v>346</v>
       </c>
-      <c r="F4" s="320" t="s">
+      <c r="F4" s="318" t="s">
         <v>347</v>
       </c>
-      <c r="G4" s="320" t="s">
+      <c r="G4" s="318" t="s">
         <v>348</v>
       </c>
-      <c r="H4" s="320" t="s">
+      <c r="H4" s="318" t="s">
         <v>349</v>
       </c>
-      <c r="I4" s="320" t="s">
+      <c r="I4" s="318" t="s">
         <v>350</v>
       </c>
-      <c r="J4" s="320" t="s">
+      <c r="J4" s="318" t="s">
         <v>351</v>
       </c>
     </row>
@@ -37053,31 +37032,31 @@
       <c r="A5">
         <v>25</v>
       </c>
-      <c r="B5" s="321">
+      <c r="B5" s="319">
         <v>0</v>
       </c>
-      <c r="C5" s="321">
+      <c r="C5" s="319">
         <v>0</v>
       </c>
-      <c r="D5" s="321">
+      <c r="D5" s="319">
         <v>0</v>
       </c>
-      <c r="E5" s="321">
+      <c r="E5" s="319">
         <v>0</v>
       </c>
-      <c r="F5" s="321">
+      <c r="F5" s="319">
         <v>0</v>
       </c>
-      <c r="G5" s="321">
+      <c r="G5" s="319">
         <v>0</v>
       </c>
-      <c r="H5" s="321">
+      <c r="H5" s="319">
         <v>0.92500000000000004</v>
       </c>
-      <c r="I5" s="321">
+      <c r="I5" s="319">
         <v>0</v>
       </c>
-      <c r="J5" s="321">
+      <c r="J5" s="319">
         <v>0</v>
       </c>
     </row>
@@ -37085,31 +37064,31 @@
       <c r="A6">
         <v>30</v>
       </c>
-      <c r="B6" s="321">
+      <c r="B6" s="319">
         <v>0</v>
       </c>
-      <c r="C6" s="321">
+      <c r="C6" s="319">
         <v>0</v>
       </c>
-      <c r="D6" s="321">
+      <c r="D6" s="319">
         <v>0</v>
       </c>
-      <c r="E6" s="321">
+      <c r="E6" s="319">
         <v>0</v>
       </c>
-      <c r="F6" s="321">
+      <c r="F6" s="319">
         <v>0</v>
       </c>
-      <c r="G6" s="321">
+      <c r="G6" s="319">
         <v>0</v>
       </c>
-      <c r="H6" s="321">
+      <c r="H6" s="319">
         <v>4.67</v>
       </c>
-      <c r="I6" s="321">
+      <c r="I6" s="319">
         <v>0</v>
       </c>
-      <c r="J6" s="321">
+      <c r="J6" s="319">
         <v>0</v>
       </c>
     </row>
@@ -37117,31 +37096,31 @@
       <c r="A7">
         <v>35</v>
       </c>
-      <c r="B7" s="321">
+      <c r="B7" s="319">
         <v>0</v>
       </c>
-      <c r="C7" s="321">
+      <c r="C7" s="319">
         <v>0</v>
       </c>
-      <c r="D7" s="321">
+      <c r="D7" s="319">
         <v>0</v>
       </c>
-      <c r="E7" s="321">
+      <c r="E7" s="319">
         <v>0</v>
       </c>
-      <c r="F7" s="321">
+      <c r="F7" s="319">
         <v>0</v>
       </c>
-      <c r="G7" s="321">
+      <c r="G7" s="319">
         <v>0</v>
       </c>
-      <c r="H7" s="321">
+      <c r="H7" s="319">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I7" s="321">
+      <c r="I7" s="319">
         <v>0</v>
       </c>
-      <c r="J7" s="321">
+      <c r="J7" s="319">
         <v>0</v>
       </c>
     </row>
@@ -37149,31 +37128,31 @@
       <c r="A8">
         <v>40</v>
       </c>
-      <c r="B8" s="321">
+      <c r="B8" s="319">
         <v>1.3799999999999999E-4</v>
       </c>
-      <c r="C8" s="321">
+      <c r="C8" s="319">
         <v>0</v>
       </c>
-      <c r="D8" s="321">
+      <c r="D8" s="319">
         <v>1.3799999999999999E-4</v>
       </c>
-      <c r="E8" s="321">
+      <c r="E8" s="319">
         <v>0</v>
       </c>
-      <c r="F8" s="321">
+      <c r="F8" s="319">
         <v>0</v>
       </c>
-      <c r="G8" s="321">
+      <c r="G8" s="319">
         <v>0</v>
       </c>
-      <c r="H8" s="321">
+      <c r="H8" s="319">
         <v>0</v>
       </c>
-      <c r="I8" s="321">
+      <c r="I8" s="319">
         <v>0</v>
       </c>
-      <c r="J8" s="321">
+      <c r="J8" s="319">
         <v>0</v>
       </c>
     </row>
@@ -37181,31 +37160,31 @@
       <c r="A9">
         <v>45</v>
       </c>
-      <c r="B9" s="321">
+      <c r="B9" s="319">
         <v>7.1000000000000002E-4</v>
       </c>
-      <c r="C9" s="321">
+      <c r="C9" s="319">
         <v>0</v>
       </c>
-      <c r="D9" s="321">
+      <c r="D9" s="319">
         <v>7.1000000000000002E-4</v>
       </c>
-      <c r="E9" s="321">
+      <c r="E9" s="319">
         <v>0</v>
       </c>
-      <c r="F9" s="321">
+      <c r="F9" s="319">
         <v>5.7799999999999995E-4</v>
       </c>
-      <c r="G9" s="321">
+      <c r="G9" s="319">
         <v>0</v>
       </c>
-      <c r="H9" s="321">
+      <c r="H9" s="319">
         <v>0</v>
       </c>
-      <c r="I9" s="321">
+      <c r="I9" s="319">
         <v>0</v>
       </c>
-      <c r="J9" s="321">
+      <c r="J9" s="319">
         <v>0</v>
       </c>
     </row>
@@ -37213,31 +37192,31 @@
       <c r="A10">
         <v>50</v>
       </c>
-      <c r="B10" s="321">
+      <c r="B10" s="319">
         <v>8.4799999999999997E-3</v>
       </c>
-      <c r="C10" s="321">
+      <c r="C10" s="319">
         <v>6.7799999999999996E-3</v>
       </c>
-      <c r="D10" s="321">
+      <c r="D10" s="319">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="E10" s="321">
+      <c r="E10" s="319">
         <v>0</v>
       </c>
-      <c r="F10" s="321">
+      <c r="F10" s="319">
         <v>7.6499999999999995E-4</v>
       </c>
-      <c r="G10" s="321">
+      <c r="G10" s="319">
         <v>0</v>
       </c>
-      <c r="H10" s="321">
+      <c r="H10" s="319">
         <v>0</v>
       </c>
-      <c r="I10" s="321">
+      <c r="I10" s="319">
         <v>0.34</v>
       </c>
-      <c r="J10" s="321">
+      <c r="J10" s="319">
         <v>8.9399999999999993E-2</v>
       </c>
     </row>
@@ -37245,31 +37224,31 @@
       <c r="A11">
         <v>55</v>
       </c>
-      <c r="B11" s="321">
+      <c r="B11" s="319">
         <v>1.09E-2</v>
       </c>
-      <c r="C11" s="321">
+      <c r="C11" s="319">
         <v>4.5600000000000003E-4</v>
       </c>
-      <c r="D11" s="321">
+      <c r="D11" s="319">
         <v>1.04E-2</v>
       </c>
-      <c r="E11" s="321">
+      <c r="E11" s="319">
         <v>7.0199999999999999E-2</v>
       </c>
-      <c r="F11" s="321">
+      <c r="F11" s="319">
         <v>7.2599999999999997E-4</v>
       </c>
-      <c r="G11" s="321">
+      <c r="G11" s="319">
         <v>0</v>
       </c>
-      <c r="H11" s="321">
+      <c r="H11" s="319">
         <v>0</v>
       </c>
-      <c r="I11" s="321">
+      <c r="I11" s="319">
         <v>0.42</v>
       </c>
-      <c r="J11" s="321">
+      <c r="J11" s="319">
         <v>3.9800000000000002E-2</v>
       </c>
     </row>
@@ -37277,31 +37256,31 @@
       <c r="A12">
         <v>60</v>
       </c>
-      <c r="B12" s="321">
+      <c r="B12" s="319">
         <v>9.8100000000000007E-2</v>
       </c>
-      <c r="C12" s="321">
+      <c r="C12" s="319">
         <v>8.9599999999999992E-3</v>
       </c>
-      <c r="D12" s="321">
+      <c r="D12" s="319">
         <v>8.9099999999999999E-2</v>
       </c>
-      <c r="E12" s="321">
+      <c r="E12" s="319">
         <v>0.113</v>
       </c>
-      <c r="F12" s="321">
+      <c r="F12" s="319">
         <v>1.52E-2</v>
       </c>
-      <c r="G12" s="321">
+      <c r="G12" s="319">
         <v>0</v>
       </c>
-      <c r="H12" s="321">
+      <c r="H12" s="319">
         <v>0</v>
       </c>
-      <c r="I12" s="321">
+      <c r="I12" s="319">
         <v>1.96</v>
       </c>
-      <c r="J12" s="321">
+      <c r="J12" s="319">
         <v>0.69899999999999995</v>
       </c>
     </row>
@@ -37309,31 +37288,31 @@
       <c r="A13">
         <v>65</v>
       </c>
-      <c r="B13" s="321">
+      <c r="B13" s="319">
         <v>0.104</v>
       </c>
-      <c r="C13" s="321">
+      <c r="C13" s="319">
         <v>3.4200000000000001E-2</v>
       </c>
-      <c r="D13" s="321">
+      <c r="D13" s="319">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E13" s="321">
+      <c r="E13" s="319">
         <v>0.187</v>
       </c>
-      <c r="F13" s="321">
+      <c r="F13" s="319">
         <v>2.52E-2</v>
       </c>
-      <c r="G13" s="321">
+      <c r="G13" s="319">
         <v>0</v>
       </c>
-      <c r="H13" s="321">
+      <c r="H13" s="319">
         <v>0</v>
       </c>
-      <c r="I13" s="321">
+      <c r="I13" s="319">
         <v>4.55</v>
       </c>
-      <c r="J13" s="321">
+      <c r="J13" s="319">
         <v>15</v>
       </c>
     </row>
@@ -37341,31 +37320,31 @@
       <c r="A14">
         <v>70</v>
       </c>
-      <c r="B14" s="321">
+      <c r="B14" s="319">
         <v>0.45800000000000002</v>
       </c>
-      <c r="C14" s="321">
+      <c r="C14" s="319">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="D14" s="321">
+      <c r="D14" s="319">
         <v>0.38500000000000001</v>
       </c>
-      <c r="E14" s="321">
+      <c r="E14" s="319">
         <v>0.14499999999999999</v>
       </c>
-      <c r="F14" s="321">
+      <c r="F14" s="319">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="G14" s="321">
+      <c r="G14" s="319">
         <v>2.0199999999999999E-2</v>
       </c>
-      <c r="H14" s="321">
+      <c r="H14" s="319">
         <v>0</v>
       </c>
-      <c r="I14" s="321">
+      <c r="I14" s="319">
         <v>6.03</v>
       </c>
-      <c r="J14" s="321">
+      <c r="J14" s="319">
         <v>12.2</v>
       </c>
     </row>
@@ -37373,31 +37352,31 @@
       <c r="A15">
         <v>75</v>
       </c>
-      <c r="B15" s="321">
+      <c r="B15" s="319">
         <v>0.501</v>
       </c>
-      <c r="C15" s="321">
+      <c r="C15" s="319">
         <v>9.5299999999999996E-2</v>
       </c>
-      <c r="D15" s="321">
+      <c r="D15" s="319">
         <v>0.40500000000000003</v>
       </c>
-      <c r="E15" s="321">
+      <c r="E15" s="319">
         <v>0.19400000000000001</v>
       </c>
-      <c r="F15" s="321">
+      <c r="F15" s="319">
         <v>0.224</v>
       </c>
-      <c r="G15" s="321">
+      <c r="G15" s="319">
         <v>2.3600000000000001E-3</v>
       </c>
-      <c r="H15" s="321">
+      <c r="H15" s="319">
         <v>0</v>
       </c>
-      <c r="I15" s="321">
+      <c r="I15" s="319">
         <v>8.02</v>
       </c>
-      <c r="J15" s="321">
+      <c r="J15" s="319">
         <v>15.3</v>
       </c>
     </row>
@@ -37405,31 +37384,31 @@
       <c r="A16">
         <v>80</v>
       </c>
-      <c r="B16" s="321">
+      <c r="B16" s="319">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C16" s="321">
+      <c r="C16" s="319">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D16" s="321">
+      <c r="D16" s="319">
         <v>0.42</v>
       </c>
-      <c r="E16" s="321">
+      <c r="E16" s="319">
         <v>1.72</v>
       </c>
-      <c r="F16" s="321">
+      <c r="F16" s="319">
         <v>0.42799999999999999</v>
       </c>
-      <c r="G16" s="321">
+      <c r="G16" s="319">
         <v>0</v>
       </c>
-      <c r="H16" s="321">
+      <c r="H16" s="319">
         <v>0</v>
       </c>
-      <c r="I16" s="321">
+      <c r="I16" s="319">
         <v>25.4</v>
       </c>
-      <c r="J16" s="321">
+      <c r="J16" s="319">
         <v>11</v>
       </c>
     </row>
@@ -37437,31 +37416,31 @@
       <c r="A17">
         <v>85</v>
       </c>
-      <c r="B17" s="321">
+      <c r="B17" s="319">
         <v>0.315</v>
       </c>
-      <c r="C17" s="321">
+      <c r="C17" s="319">
         <v>6.6199999999999995E-2</v>
       </c>
-      <c r="D17" s="321">
+      <c r="D17" s="319">
         <v>0.249</v>
       </c>
-      <c r="E17" s="321">
+      <c r="E17" s="319">
         <v>2.19</v>
       </c>
-      <c r="F17" s="321">
+      <c r="F17" s="319">
         <v>0.218</v>
       </c>
-      <c r="G17" s="321">
+      <c r="G17" s="319">
         <v>7.8299999999999995E-4</v>
       </c>
-      <c r="H17" s="321">
+      <c r="H17" s="319">
         <v>0</v>
       </c>
-      <c r="I17" s="321">
+      <c r="I17" s="319">
         <v>40.299999999999997</v>
       </c>
-      <c r="J17" s="321">
+      <c r="J17" s="319">
         <v>4.09</v>
       </c>
     </row>
@@ -37469,31 +37448,31 @@
       <c r="A18">
         <v>90</v>
       </c>
-      <c r="B18" s="321">
+      <c r="B18" s="319">
         <v>0.17599999999999999</v>
       </c>
-      <c r="C18" s="321">
+      <c r="C18" s="319">
         <v>1.41E-2</v>
       </c>
-      <c r="D18" s="321">
+      <c r="D18" s="319">
         <v>0.16200000000000001</v>
       </c>
-      <c r="E18" s="321">
+      <c r="E18" s="319">
         <v>1.46</v>
       </c>
-      <c r="F18" s="321">
+      <c r="F18" s="319">
         <v>5.33E-2</v>
       </c>
-      <c r="G18" s="321">
+      <c r="G18" s="319">
         <v>0</v>
       </c>
-      <c r="H18" s="321">
+      <c r="H18" s="319">
         <v>0</v>
       </c>
-      <c r="I18" s="321">
+      <c r="I18" s="319">
         <v>21</v>
       </c>
-      <c r="J18" s="321">
+      <c r="J18" s="319">
         <v>3.43</v>
       </c>
     </row>
@@ -37501,31 +37480,31 @@
       <c r="A19">
         <v>95</v>
       </c>
-      <c r="B19" s="321">
+      <c r="B19" s="319">
         <v>2.18E-2</v>
       </c>
-      <c r="C19" s="321">
+      <c r="C19" s="319">
         <v>3.5100000000000001E-3</v>
       </c>
-      <c r="D19" s="321">
+      <c r="D19" s="319">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="E19" s="321">
+      <c r="E19" s="319">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F19" s="321">
+      <c r="F19" s="319">
         <v>4.8899999999999999E-2</v>
       </c>
-      <c r="G19" s="321">
+      <c r="G19" s="319">
         <v>0</v>
       </c>
-      <c r="H19" s="321">
+      <c r="H19" s="319">
         <v>0</v>
       </c>
-      <c r="I19" s="321">
+      <c r="I19" s="319">
         <v>10.6</v>
       </c>
-      <c r="J19" s="321">
+      <c r="J19" s="319">
         <v>0.67300000000000004</v>
       </c>
     </row>
@@ -37533,31 +37512,31 @@
       <c r="A20">
         <v>100</v>
       </c>
-      <c r="B20" s="321">
+      <c r="B20" s="319">
         <v>1.55E-2</v>
       </c>
-      <c r="C20" s="321">
+      <c r="C20" s="319">
         <v>8.8400000000000002E-4</v>
       </c>
-      <c r="D20" s="321">
+      <c r="D20" s="319">
         <v>1.46E-2</v>
       </c>
-      <c r="E20" s="321">
+      <c r="E20" s="319">
         <v>1.1200000000000001</v>
       </c>
-      <c r="F20" s="321">
+      <c r="F20" s="319">
         <v>5.8700000000000002E-2</v>
       </c>
-      <c r="G20" s="321">
+      <c r="G20" s="319">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="H20" s="321">
+      <c r="H20" s="319">
         <v>0</v>
       </c>
-      <c r="I20" s="321">
+      <c r="I20" s="319">
         <v>7.4</v>
       </c>
-      <c r="J20" s="321">
+      <c r="J20" s="319">
         <v>1.53</v>
       </c>
     </row>
@@ -37565,31 +37544,31 @@
       <c r="A21">
         <v>105</v>
       </c>
-      <c r="B21" s="321">
+      <c r="B21" s="319">
         <v>3.48E-3</v>
       </c>
-      <c r="C21" s="321">
+      <c r="C21" s="319">
         <v>1.97E-3</v>
       </c>
-      <c r="D21" s="321">
+      <c r="D21" s="319">
         <v>1.5100000000000001E-3</v>
       </c>
-      <c r="E21" s="321">
+      <c r="E21" s="319">
         <v>0.96399999999999997</v>
       </c>
-      <c r="F21" s="321">
+      <c r="F21" s="319">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="G21" s="321">
+      <c r="G21" s="319">
         <v>0</v>
       </c>
-      <c r="H21" s="321">
+      <c r="H21" s="319">
         <v>0</v>
       </c>
-      <c r="I21" s="321">
+      <c r="I21" s="319">
         <v>7.02</v>
       </c>
-      <c r="J21" s="321">
+      <c r="J21" s="319">
         <v>9.2700000000000005E-2</v>
       </c>
     </row>
@@ -37597,31 +37576,31 @@
       <c r="A22">
         <v>110</v>
       </c>
-      <c r="B22" s="321">
+      <c r="B22" s="319">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="C22" s="321">
+      <c r="C22" s="319">
         <v>9.9100000000000004E-3</v>
       </c>
-      <c r="D22" s="321">
+      <c r="D22" s="319">
         <v>5.5099999999999995E-4</v>
       </c>
-      <c r="E22" s="321">
+      <c r="E22" s="319">
         <v>0.747</v>
       </c>
-      <c r="F22" s="321">
+      <c r="F22" s="319">
         <v>6.4600000000000005E-2</v>
       </c>
-      <c r="G22" s="321">
+      <c r="G22" s="319">
         <v>2.1399999999999999E-2</v>
       </c>
-      <c r="H22" s="321">
+      <c r="H22" s="319">
         <v>0</v>
       </c>
-      <c r="I22" s="321">
+      <c r="I22" s="319">
         <v>6.59</v>
       </c>
-      <c r="J22" s="321">
+      <c r="J22" s="319">
         <v>3.0499999999999999E-2</v>
       </c>
     </row>
@@ -37629,31 +37608,31 @@
       <c r="A23">
         <v>115</v>
       </c>
-      <c r="B23" s="321">
+      <c r="B23" s="319">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="C23" s="321">
+      <c r="C23" s="319">
         <v>3.7400000000000003E-2</v>
       </c>
-      <c r="D23" s="321">
+      <c r="D23" s="319">
         <v>3.6900000000000001E-3</v>
       </c>
-      <c r="E23" s="321">
+      <c r="E23" s="319">
         <v>1.44</v>
       </c>
-      <c r="F23" s="321">
+      <c r="F23" s="319">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="G23" s="321">
+      <c r="G23" s="319">
         <v>9.3600000000000003E-2</v>
       </c>
-      <c r="H23" s="321">
+      <c r="H23" s="319">
         <v>0</v>
       </c>
-      <c r="I23" s="321">
+      <c r="I23" s="319">
         <v>13.8</v>
       </c>
-      <c r="J23" s="321">
+      <c r="J23" s="319">
         <v>0</v>
       </c>
     </row>
@@ -37661,31 +37640,31 @@
       <c r="A24">
         <v>120</v>
       </c>
-      <c r="B24" s="321">
+      <c r="B24" s="319">
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="C24" s="321">
+      <c r="C24" s="319">
         <v>5.1200000000000002E-2</v>
       </c>
-      <c r="D24" s="321">
+      <c r="D24" s="319">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="E24" s="321">
+      <c r="E24" s="319">
         <v>0.93700000000000006</v>
       </c>
-      <c r="F24" s="321">
+      <c r="F24" s="319">
         <v>0.104</v>
       </c>
-      <c r="G24" s="321">
+      <c r="G24" s="319">
         <v>4.7399999999999998E-2</v>
       </c>
-      <c r="H24" s="321">
+      <c r="H24" s="319">
         <v>0</v>
       </c>
-      <c r="I24" s="321">
+      <c r="I24" s="319">
         <v>3.35</v>
       </c>
-      <c r="J24" s="321">
+      <c r="J24" s="319">
         <v>0</v>
       </c>
     </row>
@@ -37693,31 +37672,31 @@
       <c r="A25">
         <v>125</v>
       </c>
-      <c r="B25" s="321">
+      <c r="B25" s="319">
         <v>4.8399999999999999E-2</v>
       </c>
-      <c r="C25" s="321">
+      <c r="C25" s="319">
         <v>4.8099999999999997E-2</v>
       </c>
-      <c r="D25" s="321">
+      <c r="D25" s="319">
         <v>3.4699999999999998E-4</v>
       </c>
-      <c r="E25" s="321">
+      <c r="E25" s="319">
         <v>0.13800000000000001</v>
       </c>
-      <c r="F25" s="321">
+      <c r="F25" s="319">
         <v>8.1299999999999997E-2</v>
       </c>
-      <c r="G25" s="321">
+      <c r="G25" s="319">
         <v>0</v>
       </c>
-      <c r="H25" s="321">
+      <c r="H25" s="319">
         <v>0</v>
       </c>
-      <c r="I25" s="321">
+      <c r="I25" s="319">
         <v>2.75</v>
       </c>
-      <c r="J25" s="321">
+      <c r="J25" s="319">
         <v>0</v>
       </c>
     </row>
@@ -37725,31 +37704,31 @@
       <c r="A26">
         <v>130</v>
       </c>
-      <c r="B26" s="321">
+      <c r="B26" s="319">
         <v>1.8400000000000001E-3</v>
       </c>
-      <c r="C26" s="321">
+      <c r="C26" s="319">
         <v>1.7099999999999999E-3</v>
       </c>
-      <c r="D26" s="321">
+      <c r="D26" s="319">
         <v>1.25E-4</v>
       </c>
-      <c r="E26" s="321">
+      <c r="E26" s="319">
         <v>0.153</v>
       </c>
-      <c r="F26" s="321">
+      <c r="F26" s="319">
         <v>4.4600000000000001E-2</v>
       </c>
-      <c r="G26" s="321">
+      <c r="G26" s="319">
         <v>0</v>
       </c>
-      <c r="H26" s="321">
+      <c r="H26" s="319">
         <v>0</v>
       </c>
-      <c r="I26" s="321">
+      <c r="I26" s="319">
         <v>3.1E-2</v>
       </c>
-      <c r="J26" s="321">
+      <c r="J26" s="319">
         <v>0</v>
       </c>
     </row>
@@ -37757,31 +37736,31 @@
       <c r="A27">
         <v>135</v>
       </c>
-      <c r="B27" s="321">
+      <c r="B27" s="319">
         <v>7.7299999999999999E-3</v>
       </c>
-      <c r="C27" s="321">
+      <c r="C27" s="319">
         <v>7.7299999999999999E-3</v>
       </c>
-      <c r="D27" s="321">
+      <c r="D27" s="319">
         <v>0</v>
       </c>
-      <c r="E27" s="321">
+      <c r="E27" s="319">
         <v>0.14599999999999999</v>
       </c>
-      <c r="F27" s="321">
+      <c r="F27" s="319">
         <v>9.4699999999999993E-3</v>
       </c>
-      <c r="G27" s="321">
+      <c r="G27" s="319">
         <v>0</v>
       </c>
-      <c r="H27" s="321">
+      <c r="H27" s="319">
         <v>0</v>
       </c>
-      <c r="I27" s="321">
+      <c r="I27" s="319">
         <v>0</v>
       </c>
-      <c r="J27" s="321">
+      <c r="J27" s="319">
         <v>0</v>
       </c>
     </row>
@@ -37789,31 +37768,31 @@
       <c r="A28">
         <v>140</v>
       </c>
-      <c r="B28" s="321">
+      <c r="B28" s="319">
         <v>0</v>
       </c>
-      <c r="C28" s="321">
+      <c r="C28" s="319">
         <v>0</v>
       </c>
-      <c r="D28" s="321">
+      <c r="D28" s="319">
         <v>0</v>
       </c>
-      <c r="E28" s="321">
+      <c r="E28" s="319">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="F28" s="321">
+      <c r="F28" s="319">
         <v>4.2599999999999999E-3</v>
       </c>
-      <c r="G28" s="321">
+      <c r="G28" s="319">
         <v>0</v>
       </c>
-      <c r="H28" s="321">
+      <c r="H28" s="319">
         <v>0</v>
       </c>
-      <c r="I28" s="321">
+      <c r="I28" s="319">
         <v>0</v>
       </c>
-      <c r="J28" s="321">
+      <c r="J28" s="319">
         <v>0</v>
       </c>
     </row>
@@ -37821,39 +37800,39 @@
       <c r="A29" t="s">
         <v>352</v>
       </c>
-      <c r="B29" s="322">
+      <c r="B29" s="320">
         <f t="shared" ref="B29:J29" si="0">SUM(B5:B28)</f>
         <v>2.4524780000000002</v>
       </c>
-      <c r="C29" s="322">
+      <c r="C29" s="320">
         <f t="shared" si="0"/>
         <v>0.60091000000000006</v>
       </c>
-      <c r="D29" s="322">
+      <c r="D29" s="320">
         <f t="shared" si="0"/>
         <v>1.8507709999999995</v>
       </c>
-      <c r="E29" s="322">
+      <c r="E29" s="320">
         <f t="shared" si="0"/>
         <v>12.8934</v>
       </c>
-      <c r="F29" s="322">
+      <c r="F29" s="320">
         <f t="shared" si="0"/>
         <v>1.5099989999999996</v>
       </c>
-      <c r="G29" s="322">
+      <c r="G29" s="320">
         <f t="shared" si="0"/>
         <v>0.21584300000000001</v>
       </c>
-      <c r="H29" s="322">
+      <c r="H29" s="320">
         <f t="shared" si="0"/>
         <v>6.6950000000000003</v>
       </c>
-      <c r="I29" s="322">
+      <c r="I29" s="320">
         <f t="shared" si="0"/>
         <v>159.56100000000001</v>
       </c>
-      <c r="J29" s="322">
+      <c r="J29" s="320">
         <f t="shared" si="0"/>
         <v>64.174399999999991</v>
       </c>
@@ -37862,11 +37841,11 @@
       <c r="A30" t="s">
         <v>353</v>
       </c>
-      <c r="B30" s="330">
+      <c r="B30" s="325">
         <v>110</v>
       </c>
-      <c r="C30" s="330"/>
-      <c r="D30" s="330"/>
+      <c r="C30" s="325"/>
+      <c r="D30" s="325"/>
       <c r="E30">
         <v>18</v>
       </c>

--- a/MUSCShield_form.xlsx
+++ b/MUSCShield_form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\workspace\EquipTestingSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A809ADC5-2033-494D-8804-931867EEBD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E528B03B-67FF-4B01-B5BB-8C1AE25C54F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" firstSheet="13" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="NCRP147_B1" sheetId="14" r:id="rId15"/>
     <sheet name="NCRP147_C1" sheetId="15" r:id="rId16"/>
     <sheet name="W_Rh_Al_Ag" sheetId="16" r:id="rId17"/>
+    <sheet name="TG108_PETCT" sheetId="18" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="FitParams">FitParameters!$A$5:$AF$30</definedName>
@@ -665,8 +666,26 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={D8F59C1D-D167-4D6D-B978-748DDFF55108}</author>
+  </authors>
+  <commentList>
+    <comment ref="A36" authorId="0" shapeId="0" xr:uid="{D8F59C1D-D167-4D6D-B978-748DDFF55108}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This table contains numeric values for the broad beam transmission from figures 1, 2, and 3</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="359">
   <si>
     <t>Shielding Calculations</t>
   </si>
@@ -2074,6 +2093,117 @@
   <si>
     <t>Fit parameters from NCRP 147 Fig A2/A3</t>
   </si>
+  <si>
+    <t>Table 1: Physical properties of commonly used PET radionuclides</t>
+  </si>
+  <si>
+    <t>Nuclide</t>
+  </si>
+  <si>
+    <t>Max positron energy (MeV)</t>
+  </si>
+  <si>
+    <t>Photon emission (keV)</t>
+  </si>
+  <si>
+    <t>Photons/decay</t>
+  </si>
+  <si>
+    <t>C-11</t>
+  </si>
+  <si>
+    <t>Half life (min)</t>
+  </si>
+  <si>
+    <t>N-13</t>
+  </si>
+  <si>
+    <t>O-15</t>
+  </si>
+  <si>
+    <t>F-18</t>
+  </si>
+  <si>
+    <t>Cu-64</t>
+  </si>
+  <si>
+    <t>Ga-68</t>
+  </si>
+  <si>
+    <t>Rb-82</t>
+  </si>
+  <si>
+    <t>I-124</t>
+  </si>
+  <si>
+    <t>Table 2: Effective dose equivalent dose rate constants for commonly used PET radionuclides</t>
+  </si>
+  <si>
+    <t>Dose rate constant (uSv-m^2/MBq-h)</t>
+  </si>
+  <si>
+    <t>1h integrated dose ( uSv-m^2/MBq-h)</t>
+  </si>
+  <si>
+    <t>Table 3: Reported values of F-18 exposure and dose rate constants</t>
+  </si>
+  <si>
+    <t>F-18 rate constants</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Exposure rate constant</t>
+  </si>
+  <si>
+    <t>uR-m^2/MBq-h</t>
+  </si>
+  <si>
+    <t>Air kerma rate constant</t>
+  </si>
+  <si>
+    <t>uSv-m^2/MB-h</t>
+  </si>
+  <si>
+    <t>Eff dose eqquivalent (ANS-1991)</t>
+  </si>
+  <si>
+    <t>Tissue dose constant</t>
+  </si>
+  <si>
+    <t>Deep dose equivalent (ANS-1977)</t>
+  </si>
+  <si>
+    <t>Maximum dose (ANS-1977)</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Dose to 1 cc of tissue in air</t>
+  </si>
+  <si>
+    <t>Table 4: Broadbeam transmission factors at 511 keV in lead, concrete, iron</t>
+  </si>
+  <si>
+    <t>Thickness (mm for lead, cm for concrete/iron)</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Concrete (2.35 g/cc)</t>
+  </si>
+  <si>
+    <t>Table 5: Fit parameters for broadbeam 511 keV transmission data</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
 </sst>
 </file>
 
@@ -2094,7 +2224,7 @@
     <numFmt numFmtId="175" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="176" formatCode="#\ ???/???"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
@@ -2235,6 +2365,12 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2280,7 +2416,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -2784,6 +2920,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2801,7 +2976,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="248">
+  <cellXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -3353,18 +3528,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3378,6 +3541,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2">
@@ -3415,6 +3590,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3525,6 +3736,3286 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Broadbeam transmission for lead</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>TG108_PETCT!$A$38:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>TG108_PETCT!$B$38:$B$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7873</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6905</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60209999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52270000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.39029999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3362</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28920000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2485</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.18310000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.9000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.2800000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.3499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.47E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.14E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.3999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E7DE-4EF2-89E9-D735698F3AA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1242403807"/>
+        <c:axId val="1242404767"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1242403807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Thickness (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1242404767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1242404767"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Transmission factor</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1242403807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Broadbeam transmission for concrete</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>TG108_PETCT!$A$38:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>TG108_PETCT!$C$38:$C$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95830000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90880000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78890000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7218</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65280000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.58420000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3987</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.30080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2243</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.16619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1227</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.0399999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.19E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.1999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.9999999999999998E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EFF4-4054-B284-7EF25849BC27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="231549520"/>
+        <c:axId val="231549040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="231549520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Thickness (cm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="231549040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="231549040"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Transmission factor</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="231549520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Broadbeam transmission</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> for iron</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>TG108_PETCT!$A$38:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>TG108_PETCT!$D$38:$D$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74839999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53249999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3614</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1479</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0499999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1899999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8599999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E039-479B-8E6F-58AB60360A50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="225419456"/>
+        <c:axId val="231548080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="225419456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Thickness (cm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="231548080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="231548080"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Transmission factor</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="225419456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3667,6 +7158,125 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F0A20B8-8144-69B8-45BB-6DF2DB4087F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBFEF627-9B54-5FC4-582A-26A359F1172D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14C24DCC-4A52-19C6-1E42-3C9E2F16AD4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Mah, Eugene" id="{4B05CA6C-EC74-458D-AFC2-F68D6CE527AA}" userId="S::maheug@musc.edu::f8451260-f6c1-4971-9303-8b7e318e449f" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3846,6 +7456,14 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A36" dT="2025-02-17T16:38:22.64" personId="{4B05CA6C-EC74-458D-AFC2-F68D6CE527AA}" id="{D8F59C1D-D167-4D6D-B978-748DDFF55108}">
+    <text>This table contains numeric values for the broad beam transmission from figures 1, 2, and 3</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT112"/>
@@ -4101,12 +7719,12 @@
       <c r="I12" s="8"/>
       <c r="V12" s="33"/>
       <c r="W12" s="34"/>
-      <c r="X12" s="231" t="s">
+      <c r="X12" s="227" t="s">
         <v>34</v>
       </c>
-      <c r="Y12" s="231"/>
-      <c r="Z12" s="231"/>
-      <c r="AA12" s="231"/>
+      <c r="Y12" s="227"/>
+      <c r="Z12" s="227"/>
+      <c r="AA12" s="227"/>
       <c r="AB12" s="35"/>
       <c r="AD12" s="23"/>
       <c r="AE12" s="23">
@@ -4136,12 +7754,12 @@
       <c r="I13" s="8"/>
       <c r="V13" s="3"/>
       <c r="W13"/>
-      <c r="X13" s="232" t="s">
+      <c r="X13" s="228" t="s">
         <v>37</v>
       </c>
-      <c r="Y13" s="232"/>
-      <c r="Z13" s="232"/>
-      <c r="AA13" s="232"/>
+      <c r="Y13" s="228"/>
+      <c r="Z13" s="228"/>
+      <c r="AA13" s="228"/>
       <c r="AB13" s="37"/>
       <c r="AD13" s="23"/>
       <c r="AE13" s="23">
@@ -4772,12 +8390,12 @@
       <c r="AJ23" s="23"/>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B24" s="233" t="s">
+      <c r="B24" s="229" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="233"/>
-      <c r="D24" s="233"/>
-      <c r="E24" s="233"/>
+      <c r="C24" s="229"/>
+      <c r="D24" s="229"/>
+      <c r="E24" s="229"/>
       <c r="I24" s="2" t="s">
         <v>62</v>
       </c>
@@ -6104,60 +9722,60 @@
       <c r="N42" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="O42" s="234" t="s">
+      <c r="O42" s="230" t="s">
         <v>90</v>
       </c>
-      <c r="P42" s="234"/>
-      <c r="Q42" s="234"/>
-      <c r="R42" s="234"/>
-      <c r="S42" s="234"/>
-      <c r="T42" s="234"/>
-      <c r="U42" s="234"/>
-      <c r="V42" s="234"/>
-      <c r="W42" s="234"/>
-      <c r="X42" s="234"/>
-      <c r="Y42" s="234"/>
-      <c r="Z42" s="234"/>
-      <c r="AA42" s="234"/>
-      <c r="AB42" s="234"/>
-      <c r="AC42" s="234"/>
-      <c r="AD42" s="234"/>
-      <c r="AE42" s="235" t="s">
+      <c r="P42" s="230"/>
+      <c r="Q42" s="230"/>
+      <c r="R42" s="230"/>
+      <c r="S42" s="230"/>
+      <c r="T42" s="230"/>
+      <c r="U42" s="230"/>
+      <c r="V42" s="230"/>
+      <c r="W42" s="230"/>
+      <c r="X42" s="230"/>
+      <c r="Y42" s="230"/>
+      <c r="Z42" s="230"/>
+      <c r="AA42" s="230"/>
+      <c r="AB42" s="230"/>
+      <c r="AC42" s="230"/>
+      <c r="AD42" s="230"/>
+      <c r="AE42" s="231" t="s">
         <v>90</v>
       </c>
-      <c r="AF42" s="235"/>
-      <c r="AG42" s="235"/>
-      <c r="AH42" s="235"/>
-      <c r="AI42" s="235"/>
-      <c r="AJ42" s="235"/>
-      <c r="AK42" s="235"/>
-      <c r="AL42" s="235"/>
-      <c r="AM42" s="235"/>
-      <c r="AN42" s="235"/>
-      <c r="AO42" s="235"/>
-      <c r="AP42" s="235"/>
-      <c r="AQ42" s="235"/>
-      <c r="AR42" s="235"/>
-      <c r="AS42" s="235"/>
-      <c r="AT42" s="235"/>
+      <c r="AF42" s="231"/>
+      <c r="AG42" s="231"/>
+      <c r="AH42" s="231"/>
+      <c r="AI42" s="231"/>
+      <c r="AJ42" s="231"/>
+      <c r="AK42" s="231"/>
+      <c r="AL42" s="231"/>
+      <c r="AM42" s="231"/>
+      <c r="AN42" s="231"/>
+      <c r="AO42" s="231"/>
+      <c r="AP42" s="231"/>
+      <c r="AQ42" s="231"/>
+      <c r="AR42" s="231"/>
+      <c r="AS42" s="231"/>
+      <c r="AT42" s="231"/>
     </row>
     <row r="43" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A43" s="13"/>
-      <c r="B43" s="229" t="s">
+      <c r="B43" s="232" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="229"/>
-      <c r="D43" s="229"/>
-      <c r="E43" s="230" t="s">
+      <c r="C43" s="232"/>
+      <c r="D43" s="232"/>
+      <c r="E43" s="233" t="s">
         <v>62</v>
       </c>
-      <c r="F43" s="230"/>
-      <c r="G43" s="230"/>
-      <c r="H43" s="229" t="s">
+      <c r="F43" s="233"/>
+      <c r="G43" s="233"/>
+      <c r="H43" s="232" t="s">
         <v>91</v>
       </c>
-      <c r="I43" s="229"/>
-      <c r="J43" s="229"/>
+      <c r="I43" s="232"/>
+      <c r="J43" s="232"/>
       <c r="K43" s="77" t="s">
         <v>92</v>
       </c>
@@ -6238,41 +9856,41 @@
         <v>94</v>
       </c>
       <c r="O44" s="3"/>
-      <c r="P44" s="228" t="s">
+      <c r="P44" s="234" t="s">
         <v>95</v>
       </c>
-      <c r="Q44" s="228"/>
-      <c r="R44" s="228"/>
+      <c r="Q44" s="234"/>
+      <c r="R44" s="234"/>
       <c r="S44"/>
       <c r="T44"/>
-      <c r="U44" s="228" t="s">
+      <c r="U44" s="234" t="s">
         <v>96</v>
       </c>
-      <c r="V44" s="228"/>
-      <c r="W44" s="228"/>
+      <c r="V44" s="234"/>
+      <c r="W44" s="234"/>
       <c r="X44"/>
       <c r="Y44"/>
-      <c r="Z44" s="228" t="s">
+      <c r="Z44" s="234" t="s">
         <v>53</v>
       </c>
-      <c r="AA44" s="228"/>
-      <c r="AB44" s="228"/>
+      <c r="AA44" s="234"/>
+      <c r="AB44" s="234"/>
       <c r="AC44"/>
-      <c r="AE44" s="229" t="s">
+      <c r="AE44" s="232" t="s">
         <v>55</v>
       </c>
-      <c r="AF44" s="229"/>
-      <c r="AG44" s="229"/>
-      <c r="AJ44" s="228" t="s">
+      <c r="AF44" s="232"/>
+      <c r="AG44" s="232"/>
+      <c r="AJ44" s="234" t="s">
         <v>97</v>
       </c>
-      <c r="AK44" s="228"/>
-      <c r="AL44" s="228"/>
-      <c r="AO44" s="228" t="s">
+      <c r="AK44" s="234"/>
+      <c r="AL44" s="234"/>
+      <c r="AO44" s="234" t="s">
         <v>59</v>
       </c>
-      <c r="AP44" s="228"/>
-      <c r="AQ44" s="228"/>
+      <c r="AP44" s="234"/>
+      <c r="AQ44" s="234"/>
       <c r="AT44" s="42"/>
     </row>
     <row r="45" spans="1:46" x14ac:dyDescent="0.2">
@@ -8788,21 +12406,21 @@
     </row>
     <row r="61" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A61" s="13"/>
-      <c r="B61" s="227" t="s">
+      <c r="B61" s="235" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="227"/>
-      <c r="D61" s="227"/>
-      <c r="E61" s="227" t="s">
+      <c r="C61" s="235"/>
+      <c r="D61" s="235"/>
+      <c r="E61" s="235" t="s">
         <v>62</v>
       </c>
-      <c r="F61" s="227"/>
-      <c r="G61" s="227"/>
-      <c r="H61" s="227" t="s">
+      <c r="F61" s="235"/>
+      <c r="G61" s="235"/>
+      <c r="H61" s="235" t="s">
         <v>91</v>
       </c>
-      <c r="I61" s="227"/>
-      <c r="J61" s="227"/>
+      <c r="I61" s="235"/>
+      <c r="J61" s="235"/>
       <c r="K61" s="93" t="s">
         <v>92</v>
       </c>
@@ -10901,21 +14519,21 @@
     </row>
     <row r="79" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A79" s="13"/>
-      <c r="B79" s="227" t="s">
+      <c r="B79" s="235" t="s">
         <v>60</v>
       </c>
-      <c r="C79" s="227"/>
-      <c r="D79" s="227"/>
-      <c r="E79" s="227" t="s">
+      <c r="C79" s="235"/>
+      <c r="D79" s="235"/>
+      <c r="E79" s="235" t="s">
         <v>62</v>
       </c>
-      <c r="F79" s="227"/>
-      <c r="G79" s="227"/>
-      <c r="H79" s="227" t="s">
+      <c r="F79" s="235"/>
+      <c r="G79" s="235"/>
+      <c r="H79" s="235" t="s">
         <v>91</v>
       </c>
-      <c r="I79" s="227"/>
-      <c r="J79" s="227"/>
+      <c r="I79" s="235"/>
+      <c r="J79" s="235"/>
       <c r="K79" s="93" t="s">
         <v>92</v>
       </c>
@@ -11825,21 +15443,21 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="13"/>
-      <c r="B97" s="227" t="s">
+      <c r="B97" s="235" t="s">
         <v>60</v>
       </c>
-      <c r="C97" s="227"/>
-      <c r="D97" s="227"/>
-      <c r="E97" s="227" t="s">
+      <c r="C97" s="235"/>
+      <c r="D97" s="235"/>
+      <c r="E97" s="235" t="s">
         <v>62</v>
       </c>
-      <c r="F97" s="227"/>
-      <c r="G97" s="227"/>
-      <c r="H97" s="227" t="s">
+      <c r="F97" s="235"/>
+      <c r="G97" s="235"/>
+      <c r="H97" s="235" t="s">
         <v>91</v>
       </c>
-      <c r="I97" s="227"/>
-      <c r="J97" s="227"/>
+      <c r="I97" s="235"/>
+      <c r="J97" s="235"/>
       <c r="K97" s="93" t="s">
         <v>92</v>
       </c>
@@ -12657,16 +16275,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="O42:AD42"/>
-    <mergeCell ref="AE42:AT42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="U44:W44"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="H97:J97"/>
     <mergeCell ref="Z44:AB44"/>
     <mergeCell ref="AE44:AG44"/>
     <mergeCell ref="AJ44:AL44"/>
@@ -12674,12 +16288,16 @@
     <mergeCell ref="B61:D61"/>
     <mergeCell ref="E61:G61"/>
     <mergeCell ref="H61:J61"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="H97:J97"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="U44:W44"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="O42:AD42"/>
+    <mergeCell ref="AE42:AT42"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0" footer="0.5"/>
@@ -12814,13 +16432,13 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E6" s="232" t="s">
+      <c r="E6" s="228" t="s">
         <v>278</v>
       </c>
-      <c r="F6" s="232"/>
-      <c r="G6" s="232"/>
-      <c r="H6" s="232"/>
-      <c r="I6" s="232"/>
+      <c r="F6" s="228"/>
+      <c r="G6" s="228"/>
+      <c r="H6" s="228"/>
+      <c r="I6" s="228"/>
     </row>
     <row r="7" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="222" t="s">
@@ -13271,48 +16889,48 @@
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B4" s="232" t="s">
+      <c r="B4" s="228" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="232"/>
-      <c r="D4" s="232"/>
-      <c r="E4" s="232"/>
-      <c r="F4" s="232"/>
-      <c r="G4" s="232" t="s">
+      <c r="C4" s="228"/>
+      <c r="D4" s="228"/>
+      <c r="E4" s="228"/>
+      <c r="F4" s="228"/>
+      <c r="G4" s="228" t="s">
         <v>96</v>
       </c>
-      <c r="H4" s="232"/>
-      <c r="I4" s="232"/>
-      <c r="J4" s="232"/>
-      <c r="K4" s="232"/>
-      <c r="L4" s="232" t="s">
+      <c r="H4" s="228"/>
+      <c r="I4" s="228"/>
+      <c r="J4" s="228"/>
+      <c r="K4" s="228"/>
+      <c r="L4" s="228" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="232"/>
-      <c r="N4" s="232"/>
-      <c r="O4" s="232"/>
-      <c r="P4" s="232"/>
-      <c r="Q4" s="232" t="s">
+      <c r="M4" s="228"/>
+      <c r="N4" s="228"/>
+      <c r="O4" s="228"/>
+      <c r="P4" s="228"/>
+      <c r="Q4" s="228" t="s">
         <v>55</v>
       </c>
-      <c r="R4" s="232"/>
-      <c r="S4" s="232"/>
-      <c r="T4" s="232"/>
-      <c r="U4" s="232"/>
-      <c r="V4" s="232" t="s">
+      <c r="R4" s="228"/>
+      <c r="S4" s="228"/>
+      <c r="T4" s="228"/>
+      <c r="U4" s="228"/>
+      <c r="V4" s="228" t="s">
         <v>97</v>
       </c>
-      <c r="W4" s="232"/>
-      <c r="X4" s="232"/>
-      <c r="Y4" s="232"/>
-      <c r="Z4" s="232"/>
-      <c r="AA4" s="232" t="s">
+      <c r="W4" s="228"/>
+      <c r="X4" s="228"/>
+      <c r="Y4" s="228"/>
+      <c r="Z4" s="228"/>
+      <c r="AA4" s="228" t="s">
         <v>59</v>
       </c>
-      <c r="AB4" s="232"/>
-      <c r="AC4" s="232"/>
-      <c r="AD4" s="232"/>
-      <c r="AE4" s="232"/>
+      <c r="AB4" s="228"/>
+      <c r="AC4" s="228"/>
+      <c r="AD4" s="228"/>
+      <c r="AE4" s="228"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -16006,16 +19624,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="232" t="s">
+      <c r="B3" s="228" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232" t="s">
+      <c r="C3" s="228"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="228" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
+      <c r="F3" s="228"/>
+      <c r="G3" s="228"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -16100,7 +19718,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G4"/>
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16117,36 +19735,36 @@
       <c r="A3" s="247" t="s">
         <v>270</v>
       </c>
-      <c r="B3" s="232" t="s">
+      <c r="B3" s="228" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232" t="s">
+      <c r="C3" s="228"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="228" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232" t="s">
+      <c r="F3" s="228"/>
+      <c r="G3" s="228"/>
+      <c r="H3" s="228" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="232"/>
-      <c r="J3" s="232"/>
-      <c r="K3" s="232" t="s">
+      <c r="I3" s="228"/>
+      <c r="J3" s="228"/>
+      <c r="K3" s="228" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="232"/>
-      <c r="M3" s="232"/>
-      <c r="N3" s="232" t="s">
+      <c r="L3" s="228"/>
+      <c r="M3" s="228"/>
+      <c r="N3" s="228" t="s">
         <v>97</v>
       </c>
-      <c r="O3" s="232"/>
-      <c r="P3" s="232"/>
-      <c r="Q3" s="232" t="s">
+      <c r="O3" s="228"/>
+      <c r="P3" s="228"/>
+      <c r="Q3" s="228" t="s">
         <v>59</v>
       </c>
-      <c r="R3" s="232"/>
-      <c r="S3" s="232"/>
+      <c r="R3" s="228"/>
+      <c r="S3" s="228"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="247"/>
@@ -16776,36 +20394,36 @@
       <c r="A3" s="247" t="s">
         <v>270</v>
       </c>
-      <c r="B3" s="232" t="s">
+      <c r="B3" s="228" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232" t="s">
+      <c r="C3" s="228"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="228" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232" t="s">
+      <c r="F3" s="228"/>
+      <c r="G3" s="228"/>
+      <c r="H3" s="228" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="232"/>
-      <c r="J3" s="232"/>
-      <c r="K3" s="232" t="s">
+      <c r="I3" s="228"/>
+      <c r="J3" s="228"/>
+      <c r="K3" s="228" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="232"/>
-      <c r="M3" s="232"/>
-      <c r="N3" s="232" t="s">
+      <c r="L3" s="228"/>
+      <c r="M3" s="228"/>
+      <c r="N3" s="228" t="s">
         <v>97</v>
       </c>
-      <c r="O3" s="232"/>
-      <c r="P3" s="232"/>
-      <c r="Q3" s="232" t="s">
+      <c r="O3" s="228"/>
+      <c r="P3" s="228"/>
+      <c r="Q3" s="228" t="s">
         <v>59</v>
       </c>
-      <c r="R3" s="232"/>
-      <c r="S3" s="232"/>
+      <c r="R3" s="228"/>
+      <c r="S3" s="228"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="247"/>
@@ -17783,36 +21401,36 @@
       <c r="A2" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="B2" s="232" t="s">
+      <c r="B2" s="228" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232" t="s">
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="232"/>
-      <c r="G2" s="232"/>
-      <c r="H2" s="232" t="s">
+      <c r="F2" s="228"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="232"/>
-      <c r="J2" s="232"/>
-      <c r="K2" s="232" t="s">
+      <c r="I2" s="228"/>
+      <c r="J2" s="228"/>
+      <c r="K2" s="228" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="232"/>
-      <c r="M2" s="232"/>
-      <c r="N2" s="232" t="s">
+      <c r="L2" s="228"/>
+      <c r="M2" s="228"/>
+      <c r="N2" s="228" t="s">
         <v>97</v>
       </c>
-      <c r="O2" s="232"/>
-      <c r="P2" s="232"/>
-      <c r="Q2" s="232" t="s">
+      <c r="O2" s="228"/>
+      <c r="P2" s="228"/>
+      <c r="Q2" s="228" t="s">
         <v>59</v>
       </c>
-      <c r="R2" s="232"/>
-      <c r="S2" s="232"/>
+      <c r="R2" s="228"/>
+      <c r="S2" s="228"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -18126,36 +21744,36 @@
       <c r="A12" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="B12" s="232" t="s">
+      <c r="B12" s="228" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="232"/>
-      <c r="D12" s="232"/>
-      <c r="E12" s="232" t="s">
+      <c r="C12" s="228"/>
+      <c r="D12" s="228"/>
+      <c r="E12" s="228" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="232"/>
-      <c r="G12" s="232"/>
-      <c r="H12" s="232" t="s">
+      <c r="F12" s="228"/>
+      <c r="G12" s="228"/>
+      <c r="H12" s="228" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="232"/>
-      <c r="J12" s="232"/>
-      <c r="K12" s="232" t="s">
+      <c r="I12" s="228"/>
+      <c r="J12" s="228"/>
+      <c r="K12" s="228" t="s">
         <v>55</v>
       </c>
-      <c r="L12" s="232"/>
-      <c r="M12" s="232"/>
-      <c r="N12" s="232" t="s">
+      <c r="L12" s="228"/>
+      <c r="M12" s="228"/>
+      <c r="N12" s="228" t="s">
         <v>97</v>
       </c>
-      <c r="O12" s="232"/>
-      <c r="P12" s="232"/>
-      <c r="Q12" s="232" t="s">
+      <c r="O12" s="228"/>
+      <c r="P12" s="228"/>
+      <c r="Q12" s="228" t="s">
         <v>59</v>
       </c>
-      <c r="R12" s="232"/>
-      <c r="S12" s="232"/>
+      <c r="R12" s="228"/>
+      <c r="S12" s="228"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -18587,36 +22205,36 @@
       <c r="A24" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B24" s="232" t="s">
+      <c r="B24" s="228" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="232"/>
-      <c r="D24" s="232"/>
-      <c r="E24" s="232" t="s">
+      <c r="C24" s="228"/>
+      <c r="D24" s="228"/>
+      <c r="E24" s="228" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="232"/>
-      <c r="G24" s="232"/>
-      <c r="H24" s="232" t="s">
+      <c r="F24" s="228"/>
+      <c r="G24" s="228"/>
+      <c r="H24" s="228" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="232"/>
-      <c r="J24" s="232"/>
-      <c r="K24" s="232" t="s">
+      <c r="I24" s="228"/>
+      <c r="J24" s="228"/>
+      <c r="K24" s="228" t="s">
         <v>55</v>
       </c>
-      <c r="L24" s="232"/>
-      <c r="M24" s="232"/>
-      <c r="N24" s="232" t="s">
+      <c r="L24" s="228"/>
+      <c r="M24" s="228"/>
+      <c r="N24" s="228" t="s">
         <v>97</v>
       </c>
-      <c r="O24" s="232"/>
-      <c r="P24" s="232"/>
-      <c r="Q24" s="232" t="s">
+      <c r="O24" s="228"/>
+      <c r="P24" s="228"/>
+      <c r="Q24" s="228" t="s">
         <v>59</v>
       </c>
-      <c r="R24" s="232"/>
-      <c r="S24" s="232"/>
+      <c r="R24" s="228"/>
+      <c r="S24" s="228"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -18927,36 +22545,36 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C34" s="232" t="s">
+      <c r="C34" s="228" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="232"/>
-      <c r="E34" s="232"/>
-      <c r="F34" s="232" t="s">
+      <c r="D34" s="228"/>
+      <c r="E34" s="228"/>
+      <c r="F34" s="228" t="s">
         <v>96</v>
       </c>
-      <c r="G34" s="232"/>
-      <c r="H34" s="232"/>
-      <c r="I34" s="232" t="s">
+      <c r="G34" s="228"/>
+      <c r="H34" s="228"/>
+      <c r="I34" s="228" t="s">
         <v>53</v>
       </c>
-      <c r="J34" s="232"/>
-      <c r="K34" s="232"/>
-      <c r="L34" s="232" t="s">
+      <c r="J34" s="228"/>
+      <c r="K34" s="228"/>
+      <c r="L34" s="228" t="s">
         <v>55</v>
       </c>
-      <c r="M34" s="232"/>
-      <c r="N34" s="232"/>
-      <c r="O34" s="232" t="s">
+      <c r="M34" s="228"/>
+      <c r="N34" s="228"/>
+      <c r="O34" s="228" t="s">
         <v>97</v>
       </c>
-      <c r="P34" s="232"/>
-      <c r="Q34" s="232"/>
-      <c r="R34" s="232" t="s">
+      <c r="P34" s="228"/>
+      <c r="Q34" s="228"/>
+      <c r="R34" s="228" t="s">
         <v>59</v>
       </c>
-      <c r="S34" s="232"/>
-      <c r="T34" s="232"/>
+      <c r="S34" s="228"/>
+      <c r="T34" s="228"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C35" s="225" t="s">
@@ -19142,6 +22760,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:P24"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="E12:G12"/>
@@ -19154,21 +22784,812 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:P24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B19FC0C-B374-4655-B499-1D327735B887}">
+  <dimension ref="A1:F63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" style="248" customWidth="1"/>
+    <col min="2" max="2" width="14" style="248" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="248" customWidth="1"/>
+    <col min="4" max="16384" width="9.33203125" style="248"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="248" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="249" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" s="250" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" s="250" t="s">
+        <v>324</v>
+      </c>
+      <c r="D2" s="250" t="s">
+        <v>325</v>
+      </c>
+      <c r="E2" s="250" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="249" t="s">
+        <v>327</v>
+      </c>
+      <c r="B3" s="249">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="C3" s="249">
+        <v>0.96</v>
+      </c>
+      <c r="D3" s="249">
+        <v>511</v>
+      </c>
+      <c r="E3" s="249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="249" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4" s="249">
+        <v>10</v>
+      </c>
+      <c r="C4" s="249">
+        <v>1.19</v>
+      </c>
+      <c r="D4" s="249">
+        <v>511</v>
+      </c>
+      <c r="E4" s="249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="249" t="s">
+        <v>330</v>
+      </c>
+      <c r="B5" s="249">
+        <v>2</v>
+      </c>
+      <c r="C5" s="249">
+        <v>1.72</v>
+      </c>
+      <c r="D5" s="249">
+        <v>511</v>
+      </c>
+      <c r="E5" s="249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="249" t="s">
+        <v>331</v>
+      </c>
+      <c r="B6" s="249">
+        <v>109.8</v>
+      </c>
+      <c r="C6" s="249">
+        <v>0.63</v>
+      </c>
+      <c r="D6" s="249">
+        <v>511</v>
+      </c>
+      <c r="E6" s="249">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="254" t="s">
+        <v>332</v>
+      </c>
+      <c r="B7" s="251">
+        <f>12.7*60</f>
+        <v>762</v>
+      </c>
+      <c r="C7" s="254">
+        <v>0.65</v>
+      </c>
+      <c r="D7" s="249">
+        <v>511</v>
+      </c>
+      <c r="E7" s="249">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="255"/>
+      <c r="B8" s="251"/>
+      <c r="C8" s="255"/>
+      <c r="D8" s="249">
+        <v>1346</v>
+      </c>
+      <c r="E8" s="249">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="249" t="s">
+        <v>333</v>
+      </c>
+      <c r="B9" s="249">
+        <v>68.3</v>
+      </c>
+      <c r="C9" s="249">
+        <v>1.9</v>
+      </c>
+      <c r="D9" s="249">
+        <v>511</v>
+      </c>
+      <c r="E9" s="249">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="254" t="s">
+        <v>334</v>
+      </c>
+      <c r="B10" s="252">
+        <f>76/60</f>
+        <v>1.2666666666666666</v>
+      </c>
+      <c r="C10" s="254">
+        <v>3.35</v>
+      </c>
+      <c r="D10" s="249">
+        <v>511</v>
+      </c>
+      <c r="E10" s="249">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="255"/>
+      <c r="B11" s="252"/>
+      <c r="C11" s="255"/>
+      <c r="D11" s="249">
+        <v>776</v>
+      </c>
+      <c r="E11" s="249">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="254" t="s">
+        <v>335</v>
+      </c>
+      <c r="B12" s="251">
+        <f>4.2*60*24</f>
+        <v>6048</v>
+      </c>
+      <c r="C12" s="249">
+        <v>1.54</v>
+      </c>
+      <c r="D12" s="249">
+        <v>511</v>
+      </c>
+      <c r="E12" s="249">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="256"/>
+      <c r="B13" s="251"/>
+      <c r="C13" s="249">
+        <v>2.17</v>
+      </c>
+      <c r="D13" s="249">
+        <v>603</v>
+      </c>
+      <c r="E13" s="249">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="255"/>
+      <c r="B14" s="251"/>
+      <c r="C14" s="249"/>
+      <c r="D14" s="249">
+        <v>1693</v>
+      </c>
+      <c r="E14" s="249">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="248" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="249" t="s">
+        <v>323</v>
+      </c>
+      <c r="B17" s="250" t="s">
+        <v>337</v>
+      </c>
+      <c r="C17" s="250" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="249" t="s">
+        <v>327</v>
+      </c>
+      <c r="B18" s="249">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="C18" s="249">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="249" t="s">
+        <v>329</v>
+      </c>
+      <c r="B19" s="249">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="C19" s="249">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="249" t="s">
+        <v>330</v>
+      </c>
+      <c r="B20" s="249">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="C20" s="249">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="249" t="s">
+        <v>331</v>
+      </c>
+      <c r="B21" s="249">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="C21" s="249">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="249" t="s">
+        <v>332</v>
+      </c>
+      <c r="B22" s="249">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C22" s="249">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="249" t="s">
+        <v>333</v>
+      </c>
+      <c r="B23" s="249">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="C23" s="249">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="249" t="s">
+        <v>334</v>
+      </c>
+      <c r="B24" s="249">
+        <v>0.159</v>
+      </c>
+      <c r="C24" s="249">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="249" t="s">
+        <v>335</v>
+      </c>
+      <c r="B25" s="249">
+        <v>0.185</v>
+      </c>
+      <c r="C25" s="249">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="248" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="251" t="s">
+        <v>340</v>
+      </c>
+      <c r="B28" s="251"/>
+      <c r="C28" s="249" t="s">
+        <v>341</v>
+      </c>
+      <c r="D28" s="257" t="s">
+        <v>342</v>
+      </c>
+      <c r="E28" s="258"/>
+      <c r="F28" s="253" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="251" t="s">
+        <v>343</v>
+      </c>
+      <c r="B29" s="251"/>
+      <c r="C29" s="249">
+        <v>15.4</v>
+      </c>
+      <c r="D29" s="257" t="s">
+        <v>344</v>
+      </c>
+      <c r="E29" s="258"/>
+      <c r="F29" s="253"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="251" t="s">
+        <v>345</v>
+      </c>
+      <c r="B30" s="251"/>
+      <c r="C30" s="249">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D30" s="251" t="s">
+        <v>346</v>
+      </c>
+      <c r="E30" s="251"/>
+      <c r="F30" s="253"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="251" t="s">
+        <v>347</v>
+      </c>
+      <c r="B31" s="251"/>
+      <c r="C31" s="249">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D31" s="251"/>
+      <c r="E31" s="251"/>
+      <c r="F31" s="253"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="251" t="s">
+        <v>348</v>
+      </c>
+      <c r="B32" s="251"/>
+      <c r="C32" s="249">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="D32" s="251"/>
+      <c r="E32" s="251"/>
+      <c r="F32" s="253" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="251" t="s">
+        <v>349</v>
+      </c>
+      <c r="B33" s="251"/>
+      <c r="C33" s="249">
+        <v>0.183</v>
+      </c>
+      <c r="D33" s="251"/>
+      <c r="E33" s="251"/>
+      <c r="F33" s="253"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="251" t="s">
+        <v>350</v>
+      </c>
+      <c r="B34" s="251"/>
+      <c r="C34" s="249">
+        <v>0.188</v>
+      </c>
+      <c r="D34" s="251"/>
+      <c r="E34" s="251"/>
+      <c r="F34" s="253"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="248" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="250" t="s">
+        <v>354</v>
+      </c>
+      <c r="B37" s="250" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="250" t="s">
+        <v>356</v>
+      </c>
+      <c r="D37" s="250" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="249">
+        <v>0</v>
+      </c>
+      <c r="B38" s="249">
+        <v>1</v>
+      </c>
+      <c r="C38" s="249">
+        <v>1</v>
+      </c>
+      <c r="D38" s="249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="249">
+        <v>1</v>
+      </c>
+      <c r="B39" s="249">
+        <v>0.89119999999999999</v>
+      </c>
+      <c r="C39" s="249">
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="D39" s="249">
+        <v>0.74839999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="249">
+        <v>2</v>
+      </c>
+      <c r="B40" s="249">
+        <v>0.7873</v>
+      </c>
+      <c r="C40" s="249">
+        <v>0.90880000000000005</v>
+      </c>
+      <c r="D40" s="249">
+        <v>0.53249999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="249">
+        <v>3</v>
+      </c>
+      <c r="B41" s="249">
+        <v>0.6905</v>
+      </c>
+      <c r="C41" s="249">
+        <v>0.85189999999999999</v>
+      </c>
+      <c r="D41" s="249">
+        <v>0.3614</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="249">
+        <v>4</v>
+      </c>
+      <c r="B42" s="249">
+        <v>0.60209999999999997</v>
+      </c>
+      <c r="C42" s="249">
+        <v>0.78890000000000005</v>
+      </c>
+      <c r="D42" s="249">
+        <v>0.23530000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="249">
+        <v>5</v>
+      </c>
+      <c r="B43" s="249">
+        <v>0.52270000000000005</v>
+      </c>
+      <c r="C43" s="249">
+        <v>0.7218</v>
+      </c>
+      <c r="D43" s="249">
+        <v>0.1479</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="249">
+        <v>6</v>
+      </c>
+      <c r="B44" s="249">
+        <v>0.45219999999999999</v>
+      </c>
+      <c r="C44" s="249">
+        <v>0.65280000000000005</v>
+      </c>
+      <c r="D44" s="249">
+        <v>9.0499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="249">
+        <v>7</v>
+      </c>
+      <c r="B45" s="249">
+        <v>0.39029999999999998</v>
+      </c>
+      <c r="C45" s="249">
+        <v>0.58420000000000005</v>
+      </c>
+      <c r="D45" s="249">
+        <v>5.4199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="249">
+        <v>8</v>
+      </c>
+      <c r="B46" s="249">
+        <v>0.3362</v>
+      </c>
+      <c r="C46" s="249">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="D46" s="249">
+        <v>3.1899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="249">
+        <v>9</v>
+      </c>
+      <c r="B47" s="249">
+        <v>0.28920000000000001</v>
+      </c>
+      <c r="C47" s="249">
+        <v>0.45579999999999998</v>
+      </c>
+      <c r="D47" s="249">
+        <v>1.8599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="249">
+        <v>10</v>
+      </c>
+      <c r="B48" s="249">
+        <v>0.2485</v>
+      </c>
+      <c r="C48" s="249">
+        <v>0.3987</v>
+      </c>
+      <c r="D48" s="249">
+        <v>1.0699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="249">
+        <v>12</v>
+      </c>
+      <c r="B49" s="249">
+        <v>0.18310000000000001</v>
+      </c>
+      <c r="C49" s="249">
+        <v>0.30080000000000001</v>
+      </c>
+      <c r="D49" s="249">
+        <v>3.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="249">
+        <v>14</v>
+      </c>
+      <c r="B50" s="249">
+        <v>0.13469999999999999</v>
+      </c>
+      <c r="C50" s="249">
+        <v>0.2243</v>
+      </c>
+      <c r="D50" s="249">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="249">
+        <v>16</v>
+      </c>
+      <c r="B51" s="249">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="C51" s="249">
+        <v>0.16619999999999999</v>
+      </c>
+      <c r="D51" s="249">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="249">
+        <v>18</v>
+      </c>
+      <c r="B52" s="249">
+        <v>7.2800000000000004E-2</v>
+      </c>
+      <c r="C52" s="249">
+        <v>0.1227</v>
+      </c>
+      <c r="D52" s="249">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="249">
+        <v>20</v>
+      </c>
+      <c r="B53" s="249">
+        <v>5.3499999999999999E-2</v>
+      </c>
+      <c r="C53" s="249">
+        <v>9.0399999999999994E-2</v>
+      </c>
+      <c r="D53" s="249"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="249">
+        <v>25</v>
+      </c>
+      <c r="B54" s="249">
+        <v>2.47E-2</v>
+      </c>
+      <c r="C54" s="249">
+        <v>4.19E-2</v>
+      </c>
+      <c r="D54" s="249"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="249">
+        <v>30</v>
+      </c>
+      <c r="B55" s="249">
+        <v>1.14E-2</v>
+      </c>
+      <c r="C55" s="249">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="D55" s="249"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="249">
+        <v>40</v>
+      </c>
+      <c r="B56" s="249">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="C56" s="249">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="D56" s="249"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="249">
+        <v>50</v>
+      </c>
+      <c r="B57" s="249">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C57" s="249">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="D57" s="249"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="248" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="249" t="s">
+        <v>358</v>
+      </c>
+      <c r="B60" s="259" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="259" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" s="259" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="249" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="249">
+        <v>0.15429999999999999</v>
+      </c>
+      <c r="C61" s="249">
+        <v>-0.44080000000000003</v>
+      </c>
+      <c r="D61" s="249">
+        <v>2.1360000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="249" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" s="249">
+        <v>0.15390000000000001</v>
+      </c>
+      <c r="C62" s="249">
+        <v>-0.11609999999999999</v>
+      </c>
+      <c r="D62" s="249">
+        <v>2.0752000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="249" t="s">
+        <v>355</v>
+      </c>
+      <c r="B63" s="249">
+        <v>0.57040000000000002</v>
+      </c>
+      <c r="C63" s="249">
+        <v>-0.30630000000000002</v>
+      </c>
+      <c r="D63" s="249">
+        <v>0.63260000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D30:E34"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -20322,7 +24743,7 @@
   </sheetPr>
   <dimension ref="A1:V62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
@@ -20588,16 +25009,16 @@
         <v>172</v>
       </c>
       <c r="N19" s="122"/>
-      <c r="P19" s="232" t="s">
+      <c r="P19" s="228" t="s">
         <v>95</v>
       </c>
-      <c r="Q19" s="232"/>
-      <c r="R19" s="232"/>
-      <c r="S19" s="232" t="s">
+      <c r="Q19" s="228"/>
+      <c r="R19" s="228"/>
+      <c r="S19" s="228" t="s">
         <v>96</v>
       </c>
-      <c r="T19" s="232"/>
-      <c r="U19" s="232"/>
+      <c r="T19" s="228"/>
+      <c r="U19" s="228"/>
       <c r="V19"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
@@ -26336,16 +30757,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="232" t="s">
+      <c r="B3" s="228" t="s">
         <v>241</v>
       </c>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232" t="s">
+      <c r="C3" s="228"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="228" t="s">
         <v>242</v>
       </c>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
+      <c r="F3" s="228"/>
+      <c r="G3" s="228"/>
     </row>
     <row r="4" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="222" t="s">
@@ -27192,11 +31613,11 @@
       <c r="A30" t="s">
         <v>253</v>
       </c>
-      <c r="B30" s="232">
+      <c r="B30" s="228">
         <v>110</v>
       </c>
-      <c r="C30" s="232"/>
-      <c r="D30" s="232"/>
+      <c r="C30" s="228"/>
+      <c r="D30" s="228"/>
       <c r="E30">
         <v>18</v>
       </c>

--- a/MUSCShield_form.xlsx
+++ b/MUSCShield_form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\workspace\EquipTestingSpreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maheug\Documents\EquipTestingSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E528B03B-67FF-4B01-B5BB-8C1AE25C54F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BDB4AD-A29B-486F-85EC-8F75D95D887A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" firstSheet="13" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" firstSheet="13" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="NCRP147_C1" sheetId="15" r:id="rId16"/>
     <sheet name="W_Rh_Al_Ag" sheetId="16" r:id="rId17"/>
     <sheet name="TG108_PETCT" sheetId="18" r:id="rId18"/>
+    <sheet name="Kusano_Caldwell" sheetId="19" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="FitParams">FitParameters!$A$5:$AF$30</definedName>
@@ -46,7 +47,7 @@
     <definedName name="RefkV">ShieldEvaluation!$C$16</definedName>
     <definedName name="RefOutput">ShieldEvaluation!$H$16</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateCount="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -685,7 +686,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="375">
   <si>
     <t>Shielding Calculations</t>
   </si>
@@ -2204,6 +2205,54 @@
   <si>
     <t>Material</t>
   </si>
+  <si>
+    <t>Health Phys, 2014 Jul; 107(1):60-72</t>
+  </si>
+  <si>
+    <t>DOI: 10.1097/HP.0000000000000051</t>
+  </si>
+  <si>
+    <t>Table 3: Dose equivalent rate constants for soft tissue and TVL in lead and concrete</t>
+  </si>
+  <si>
+    <t>Dose equiv rate constant (uSv-m^2/GBq-h)</t>
+  </si>
+  <si>
+    <t>TVL Lead (mm)</t>
+  </si>
+  <si>
+    <t>TVL concrete (cm)</t>
+  </si>
+  <si>
+    <t>Ga-67</t>
+  </si>
+  <si>
+    <t>I-123</t>
+  </si>
+  <si>
+    <t>I-131</t>
+  </si>
+  <si>
+    <t>In-111</t>
+  </si>
+  <si>
+    <t>Tc-99m</t>
+  </si>
+  <si>
+    <t>Tl-201</t>
+  </si>
+  <si>
+    <t>Xe-133</t>
+  </si>
+  <si>
+    <t>Table 7: Archer fitting parameters for lead</t>
+  </si>
+  <si>
+    <t>Table 8: Archer fitting parameters for concrete</t>
+  </si>
+  <si>
+    <t>Dose equivalent rate constants and barrier transmission data for nuclear medicine facility dose calculations and shielding design</t>
+  </si>
 </sst>
 </file>
 
@@ -2224,7 +2273,7 @@
     <numFmt numFmtId="175" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="176" formatCode="#\ ???/???"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
@@ -2364,12 +2413,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2976,7 +3019,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="260">
+  <cellXfs count="264">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -3528,6 +3571,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3591,24 +3661,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3624,8 +3676,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -7719,12 +7774,12 @@
       <c r="I12" s="8"/>
       <c r="V12" s="33"/>
       <c r="W12" s="34"/>
-      <c r="X12" s="227" t="s">
+      <c r="X12" s="236" t="s">
         <v>34</v>
       </c>
-      <c r="Y12" s="227"/>
-      <c r="Z12" s="227"/>
-      <c r="AA12" s="227"/>
+      <c r="Y12" s="236"/>
+      <c r="Z12" s="236"/>
+      <c r="AA12" s="236"/>
       <c r="AB12" s="35"/>
       <c r="AD12" s="23"/>
       <c r="AE12" s="23">
@@ -7754,12 +7809,12 @@
       <c r="I13" s="8"/>
       <c r="V13" s="3"/>
       <c r="W13"/>
-      <c r="X13" s="228" t="s">
+      <c r="X13" s="237" t="s">
         <v>37</v>
       </c>
-      <c r="Y13" s="228"/>
-      <c r="Z13" s="228"/>
-      <c r="AA13" s="228"/>
+      <c r="Y13" s="237"/>
+      <c r="Z13" s="237"/>
+      <c r="AA13" s="237"/>
       <c r="AB13" s="37"/>
       <c r="AD13" s="23"/>
       <c r="AE13" s="23">
@@ -8390,12 +8445,12 @@
       <c r="AJ23" s="23"/>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B24" s="229" t="s">
+      <c r="B24" s="238" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="229"/>
-      <c r="D24" s="229"/>
-      <c r="E24" s="229"/>
+      <c r="C24" s="238"/>
+      <c r="D24" s="238"/>
+      <c r="E24" s="238"/>
       <c r="I24" s="2" t="s">
         <v>62</v>
       </c>
@@ -9722,60 +9777,60 @@
       <c r="N42" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="O42" s="230" t="s">
+      <c r="O42" s="239" t="s">
         <v>90</v>
       </c>
-      <c r="P42" s="230"/>
-      <c r="Q42" s="230"/>
-      <c r="R42" s="230"/>
-      <c r="S42" s="230"/>
-      <c r="T42" s="230"/>
-      <c r="U42" s="230"/>
-      <c r="V42" s="230"/>
-      <c r="W42" s="230"/>
-      <c r="X42" s="230"/>
-      <c r="Y42" s="230"/>
-      <c r="Z42" s="230"/>
-      <c r="AA42" s="230"/>
-      <c r="AB42" s="230"/>
-      <c r="AC42" s="230"/>
-      <c r="AD42" s="230"/>
-      <c r="AE42" s="231" t="s">
+      <c r="P42" s="239"/>
+      <c r="Q42" s="239"/>
+      <c r="R42" s="239"/>
+      <c r="S42" s="239"/>
+      <c r="T42" s="239"/>
+      <c r="U42" s="239"/>
+      <c r="V42" s="239"/>
+      <c r="W42" s="239"/>
+      <c r="X42" s="239"/>
+      <c r="Y42" s="239"/>
+      <c r="Z42" s="239"/>
+      <c r="AA42" s="239"/>
+      <c r="AB42" s="239"/>
+      <c r="AC42" s="239"/>
+      <c r="AD42" s="239"/>
+      <c r="AE42" s="240" t="s">
         <v>90</v>
       </c>
-      <c r="AF42" s="231"/>
-      <c r="AG42" s="231"/>
-      <c r="AH42" s="231"/>
-      <c r="AI42" s="231"/>
-      <c r="AJ42" s="231"/>
-      <c r="AK42" s="231"/>
-      <c r="AL42" s="231"/>
-      <c r="AM42" s="231"/>
-      <c r="AN42" s="231"/>
-      <c r="AO42" s="231"/>
-      <c r="AP42" s="231"/>
-      <c r="AQ42" s="231"/>
-      <c r="AR42" s="231"/>
-      <c r="AS42" s="231"/>
-      <c r="AT42" s="231"/>
+      <c r="AF42" s="240"/>
+      <c r="AG42" s="240"/>
+      <c r="AH42" s="240"/>
+      <c r="AI42" s="240"/>
+      <c r="AJ42" s="240"/>
+      <c r="AK42" s="240"/>
+      <c r="AL42" s="240"/>
+      <c r="AM42" s="240"/>
+      <c r="AN42" s="240"/>
+      <c r="AO42" s="240"/>
+      <c r="AP42" s="240"/>
+      <c r="AQ42" s="240"/>
+      <c r="AR42" s="240"/>
+      <c r="AS42" s="240"/>
+      <c r="AT42" s="240"/>
     </row>
     <row r="43" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A43" s="13"/>
-      <c r="B43" s="232" t="s">
+      <c r="B43" s="241" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="232"/>
-      <c r="D43" s="232"/>
-      <c r="E43" s="233" t="s">
+      <c r="C43" s="241"/>
+      <c r="D43" s="241"/>
+      <c r="E43" s="242" t="s">
         <v>62</v>
       </c>
-      <c r="F43" s="233"/>
-      <c r="G43" s="233"/>
-      <c r="H43" s="232" t="s">
+      <c r="F43" s="242"/>
+      <c r="G43" s="242"/>
+      <c r="H43" s="241" t="s">
         <v>91</v>
       </c>
-      <c r="I43" s="232"/>
-      <c r="J43" s="232"/>
+      <c r="I43" s="241"/>
+      <c r="J43" s="241"/>
       <c r="K43" s="77" t="s">
         <v>92</v>
       </c>
@@ -9856,41 +9911,41 @@
         <v>94</v>
       </c>
       <c r="O44" s="3"/>
-      <c r="P44" s="234" t="s">
+      <c r="P44" s="243" t="s">
         <v>95</v>
       </c>
-      <c r="Q44" s="234"/>
-      <c r="R44" s="234"/>
+      <c r="Q44" s="243"/>
+      <c r="R44" s="243"/>
       <c r="S44"/>
       <c r="T44"/>
-      <c r="U44" s="234" t="s">
+      <c r="U44" s="243" t="s">
         <v>96</v>
       </c>
-      <c r="V44" s="234"/>
-      <c r="W44" s="234"/>
+      <c r="V44" s="243"/>
+      <c r="W44" s="243"/>
       <c r="X44"/>
       <c r="Y44"/>
-      <c r="Z44" s="234" t="s">
+      <c r="Z44" s="243" t="s">
         <v>53</v>
       </c>
-      <c r="AA44" s="234"/>
-      <c r="AB44" s="234"/>
+      <c r="AA44" s="243"/>
+      <c r="AB44" s="243"/>
       <c r="AC44"/>
-      <c r="AE44" s="232" t="s">
+      <c r="AE44" s="241" t="s">
         <v>55</v>
       </c>
-      <c r="AF44" s="232"/>
-      <c r="AG44" s="232"/>
-      <c r="AJ44" s="234" t="s">
+      <c r="AF44" s="241"/>
+      <c r="AG44" s="241"/>
+      <c r="AJ44" s="243" t="s">
         <v>97</v>
       </c>
-      <c r="AK44" s="234"/>
-      <c r="AL44" s="234"/>
-      <c r="AO44" s="234" t="s">
+      <c r="AK44" s="243"/>
+      <c r="AL44" s="243"/>
+      <c r="AO44" s="243" t="s">
         <v>59</v>
       </c>
-      <c r="AP44" s="234"/>
-      <c r="AQ44" s="234"/>
+      <c r="AP44" s="243"/>
+      <c r="AQ44" s="243"/>
       <c r="AT44" s="42"/>
     </row>
     <row r="45" spans="1:46" x14ac:dyDescent="0.2">
@@ -12406,21 +12461,21 @@
     </row>
     <row r="61" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A61" s="13"/>
-      <c r="B61" s="235" t="s">
+      <c r="B61" s="244" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="235"/>
-      <c r="D61" s="235"/>
-      <c r="E61" s="235" t="s">
+      <c r="C61" s="244"/>
+      <c r="D61" s="244"/>
+      <c r="E61" s="244" t="s">
         <v>62</v>
       </c>
-      <c r="F61" s="235"/>
-      <c r="G61" s="235"/>
-      <c r="H61" s="235" t="s">
+      <c r="F61" s="244"/>
+      <c r="G61" s="244"/>
+      <c r="H61" s="244" t="s">
         <v>91</v>
       </c>
-      <c r="I61" s="235"/>
-      <c r="J61" s="235"/>
+      <c r="I61" s="244"/>
+      <c r="J61" s="244"/>
       <c r="K61" s="93" t="s">
         <v>92</v>
       </c>
@@ -14519,21 +14574,21 @@
     </row>
     <row r="79" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A79" s="13"/>
-      <c r="B79" s="235" t="s">
+      <c r="B79" s="244" t="s">
         <v>60</v>
       </c>
-      <c r="C79" s="235"/>
-      <c r="D79" s="235"/>
-      <c r="E79" s="235" t="s">
+      <c r="C79" s="244"/>
+      <c r="D79" s="244"/>
+      <c r="E79" s="244" t="s">
         <v>62</v>
       </c>
-      <c r="F79" s="235"/>
-      <c r="G79" s="235"/>
-      <c r="H79" s="235" t="s">
+      <c r="F79" s="244"/>
+      <c r="G79" s="244"/>
+      <c r="H79" s="244" t="s">
         <v>91</v>
       </c>
-      <c r="I79" s="235"/>
-      <c r="J79" s="235"/>
+      <c r="I79" s="244"/>
+      <c r="J79" s="244"/>
       <c r="K79" s="93" t="s">
         <v>92</v>
       </c>
@@ -15443,21 +15498,21 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="13"/>
-      <c r="B97" s="235" t="s">
+      <c r="B97" s="244" t="s">
         <v>60</v>
       </c>
-      <c r="C97" s="235"/>
-      <c r="D97" s="235"/>
-      <c r="E97" s="235" t="s">
+      <c r="C97" s="244"/>
+      <c r="D97" s="244"/>
+      <c r="E97" s="244" t="s">
         <v>62</v>
       </c>
-      <c r="F97" s="235"/>
-      <c r="G97" s="235"/>
-      <c r="H97" s="235" t="s">
+      <c r="F97" s="244"/>
+      <c r="G97" s="244"/>
+      <c r="H97" s="244" t="s">
         <v>91</v>
       </c>
-      <c r="I97" s="235"/>
-      <c r="J97" s="235"/>
+      <c r="I97" s="244"/>
+      <c r="J97" s="244"/>
       <c r="K97" s="93" t="s">
         <v>92</v>
       </c>
@@ -16432,13 +16487,13 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E6" s="228" t="s">
+      <c r="E6" s="237" t="s">
         <v>278</v>
       </c>
-      <c r="F6" s="228"/>
-      <c r="G6" s="228"/>
-      <c r="H6" s="228"/>
-      <c r="I6" s="228"/>
+      <c r="F6" s="237"/>
+      <c r="G6" s="237"/>
+      <c r="H6" s="237"/>
+      <c r="I6" s="237"/>
     </row>
     <row r="7" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="222" t="s">
@@ -16889,48 +16944,48 @@
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B4" s="228" t="s">
+      <c r="B4" s="237" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="228"/>
-      <c r="D4" s="228"/>
-      <c r="E4" s="228"/>
-      <c r="F4" s="228"/>
-      <c r="G4" s="228" t="s">
+      <c r="C4" s="237"/>
+      <c r="D4" s="237"/>
+      <c r="E4" s="237"/>
+      <c r="F4" s="237"/>
+      <c r="G4" s="237" t="s">
         <v>96</v>
       </c>
-      <c r="H4" s="228"/>
-      <c r="I4" s="228"/>
-      <c r="J4" s="228"/>
-      <c r="K4" s="228"/>
-      <c r="L4" s="228" t="s">
+      <c r="H4" s="237"/>
+      <c r="I4" s="237"/>
+      <c r="J4" s="237"/>
+      <c r="K4" s="237"/>
+      <c r="L4" s="237" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="228"/>
-      <c r="N4" s="228"/>
-      <c r="O4" s="228"/>
-      <c r="P4" s="228"/>
-      <c r="Q4" s="228" t="s">
+      <c r="M4" s="237"/>
+      <c r="N4" s="237"/>
+      <c r="O4" s="237"/>
+      <c r="P4" s="237"/>
+      <c r="Q4" s="237" t="s">
         <v>55</v>
       </c>
-      <c r="R4" s="228"/>
-      <c r="S4" s="228"/>
-      <c r="T4" s="228"/>
-      <c r="U4" s="228"/>
-      <c r="V4" s="228" t="s">
+      <c r="R4" s="237"/>
+      <c r="S4" s="237"/>
+      <c r="T4" s="237"/>
+      <c r="U4" s="237"/>
+      <c r="V4" s="237" t="s">
         <v>97</v>
       </c>
-      <c r="W4" s="228"/>
-      <c r="X4" s="228"/>
-      <c r="Y4" s="228"/>
-      <c r="Z4" s="228"/>
-      <c r="AA4" s="228" t="s">
+      <c r="W4" s="237"/>
+      <c r="X4" s="237"/>
+      <c r="Y4" s="237"/>
+      <c r="Z4" s="237"/>
+      <c r="AA4" s="237" t="s">
         <v>59</v>
       </c>
-      <c r="AB4" s="228"/>
-      <c r="AC4" s="228"/>
-      <c r="AD4" s="228"/>
-      <c r="AE4" s="228"/>
+      <c r="AB4" s="237"/>
+      <c r="AC4" s="237"/>
+      <c r="AD4" s="237"/>
+      <c r="AE4" s="237"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -19624,16 +19679,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="228" t="s">
+      <c r="B3" s="237" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="228"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="228" t="s">
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="228"/>
-      <c r="G3" s="228"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="237"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -19732,42 +19787,42 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="256" t="s">
         <v>270</v>
       </c>
-      <c r="B3" s="228" t="s">
+      <c r="B3" s="237" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="228"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="228" t="s">
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="228"/>
-      <c r="G3" s="228"/>
-      <c r="H3" s="228" t="s">
+      <c r="F3" s="237"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="228"/>
-      <c r="J3" s="228"/>
-      <c r="K3" s="228" t="s">
+      <c r="I3" s="237"/>
+      <c r="J3" s="237"/>
+      <c r="K3" s="237" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="228"/>
-      <c r="M3" s="228"/>
-      <c r="N3" s="228" t="s">
+      <c r="L3" s="237"/>
+      <c r="M3" s="237"/>
+      <c r="N3" s="237" t="s">
         <v>97</v>
       </c>
-      <c r="O3" s="228"/>
-      <c r="P3" s="228"/>
-      <c r="Q3" s="228" t="s">
+      <c r="O3" s="237"/>
+      <c r="P3" s="237"/>
+      <c r="Q3" s="237" t="s">
         <v>59</v>
       </c>
-      <c r="R3" s="228"/>
-      <c r="S3" s="228"/>
+      <c r="R3" s="237"/>
+      <c r="S3" s="237"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="247"/>
+      <c r="A4" s="256"/>
       <c r="B4" s="225" t="s">
         <v>41</v>
       </c>
@@ -20391,42 +20446,42 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="256" t="s">
         <v>270</v>
       </c>
-      <c r="B3" s="228" t="s">
+      <c r="B3" s="237" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="228"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="228" t="s">
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="228"/>
-      <c r="G3" s="228"/>
-      <c r="H3" s="228" t="s">
+      <c r="F3" s="237"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="228"/>
-      <c r="J3" s="228"/>
-      <c r="K3" s="228" t="s">
+      <c r="I3" s="237"/>
+      <c r="J3" s="237"/>
+      <c r="K3" s="237" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="228"/>
-      <c r="M3" s="228"/>
-      <c r="N3" s="228" t="s">
+      <c r="L3" s="237"/>
+      <c r="M3" s="237"/>
+      <c r="N3" s="237" t="s">
         <v>97</v>
       </c>
-      <c r="O3" s="228"/>
-      <c r="P3" s="228"/>
-      <c r="Q3" s="228" t="s">
+      <c r="O3" s="237"/>
+      <c r="P3" s="237"/>
+      <c r="Q3" s="237" t="s">
         <v>59</v>
       </c>
-      <c r="R3" s="228"/>
-      <c r="S3" s="228"/>
+      <c r="R3" s="237"/>
+      <c r="S3" s="237"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="247"/>
+      <c r="A4" s="256"/>
       <c r="B4" s="225" t="s">
         <v>41</v>
       </c>
@@ -21401,36 +21456,36 @@
       <c r="A2" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="B2" s="228" t="s">
+      <c r="B2" s="237" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228" t="s">
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228" t="s">
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="237" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="228"/>
-      <c r="J2" s="228"/>
-      <c r="K2" s="228" t="s">
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="228"/>
-      <c r="M2" s="228"/>
-      <c r="N2" s="228" t="s">
+      <c r="L2" s="237"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="237" t="s">
         <v>97</v>
       </c>
-      <c r="O2" s="228"/>
-      <c r="P2" s="228"/>
-      <c r="Q2" s="228" t="s">
+      <c r="O2" s="237"/>
+      <c r="P2" s="237"/>
+      <c r="Q2" s="237" t="s">
         <v>59</v>
       </c>
-      <c r="R2" s="228"/>
-      <c r="S2" s="228"/>
+      <c r="R2" s="237"/>
+      <c r="S2" s="237"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -21744,36 +21799,36 @@
       <c r="A12" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="B12" s="228" t="s">
+      <c r="B12" s="237" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="228"/>
-      <c r="D12" s="228"/>
-      <c r="E12" s="228" t="s">
+      <c r="C12" s="237"/>
+      <c r="D12" s="237"/>
+      <c r="E12" s="237" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="228"/>
-      <c r="G12" s="228"/>
-      <c r="H12" s="228" t="s">
+      <c r="F12" s="237"/>
+      <c r="G12" s="237"/>
+      <c r="H12" s="237" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="228"/>
-      <c r="J12" s="228"/>
-      <c r="K12" s="228" t="s">
+      <c r="I12" s="237"/>
+      <c r="J12" s="237"/>
+      <c r="K12" s="237" t="s">
         <v>55</v>
       </c>
-      <c r="L12" s="228"/>
-      <c r="M12" s="228"/>
-      <c r="N12" s="228" t="s">
+      <c r="L12" s="237"/>
+      <c r="M12" s="237"/>
+      <c r="N12" s="237" t="s">
         <v>97</v>
       </c>
-      <c r="O12" s="228"/>
-      <c r="P12" s="228"/>
-      <c r="Q12" s="228" t="s">
+      <c r="O12" s="237"/>
+      <c r="P12" s="237"/>
+      <c r="Q12" s="237" t="s">
         <v>59</v>
       </c>
-      <c r="R12" s="228"/>
-      <c r="S12" s="228"/>
+      <c r="R12" s="237"/>
+      <c r="S12" s="237"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -22205,36 +22260,36 @@
       <c r="A24" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B24" s="228" t="s">
+      <c r="B24" s="237" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="228"/>
-      <c r="D24" s="228"/>
-      <c r="E24" s="228" t="s">
+      <c r="C24" s="237"/>
+      <c r="D24" s="237"/>
+      <c r="E24" s="237" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="228"/>
-      <c r="G24" s="228"/>
-      <c r="H24" s="228" t="s">
+      <c r="F24" s="237"/>
+      <c r="G24" s="237"/>
+      <c r="H24" s="237" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="228"/>
-      <c r="J24" s="228"/>
-      <c r="K24" s="228" t="s">
+      <c r="I24" s="237"/>
+      <c r="J24" s="237"/>
+      <c r="K24" s="237" t="s">
         <v>55</v>
       </c>
-      <c r="L24" s="228"/>
-      <c r="M24" s="228"/>
-      <c r="N24" s="228" t="s">
+      <c r="L24" s="237"/>
+      <c r="M24" s="237"/>
+      <c r="N24" s="237" t="s">
         <v>97</v>
       </c>
-      <c r="O24" s="228"/>
-      <c r="P24" s="228"/>
-      <c r="Q24" s="228" t="s">
+      <c r="O24" s="237"/>
+      <c r="P24" s="237"/>
+      <c r="Q24" s="237" t="s">
         <v>59</v>
       </c>
-      <c r="R24" s="228"/>
-      <c r="S24" s="228"/>
+      <c r="R24" s="237"/>
+      <c r="S24" s="237"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -22545,36 +22600,36 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C34" s="228" t="s">
+      <c r="C34" s="237" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="228"/>
-      <c r="E34" s="228"/>
-      <c r="F34" s="228" t="s">
+      <c r="D34" s="237"/>
+      <c r="E34" s="237"/>
+      <c r="F34" s="237" t="s">
         <v>96</v>
       </c>
-      <c r="G34" s="228"/>
-      <c r="H34" s="228"/>
-      <c r="I34" s="228" t="s">
+      <c r="G34" s="237"/>
+      <c r="H34" s="237"/>
+      <c r="I34" s="237" t="s">
         <v>53</v>
       </c>
-      <c r="J34" s="228"/>
-      <c r="K34" s="228"/>
-      <c r="L34" s="228" t="s">
+      <c r="J34" s="237"/>
+      <c r="K34" s="237"/>
+      <c r="L34" s="237" t="s">
         <v>55</v>
       </c>
-      <c r="M34" s="228"/>
-      <c r="N34" s="228"/>
-      <c r="O34" s="228" t="s">
+      <c r="M34" s="237"/>
+      <c r="N34" s="237"/>
+      <c r="O34" s="237" t="s">
         <v>97</v>
       </c>
-      <c r="P34" s="228"/>
-      <c r="Q34" s="228"/>
-      <c r="R34" s="228" t="s">
+      <c r="P34" s="237"/>
+      <c r="Q34" s="237"/>
+      <c r="R34" s="237" t="s">
         <v>59</v>
       </c>
-      <c r="S34" s="228"/>
-      <c r="T34" s="228"/>
+      <c r="S34" s="237"/>
+      <c r="T34" s="237"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C35" s="225" t="s">
@@ -22794,775 +22849,775 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B19FC0C-B374-4655-B499-1D327735B887}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="248" customWidth="1"/>
-    <col min="2" max="2" width="14" style="248" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="248" customWidth="1"/>
-    <col min="4" max="16384" width="9.33203125" style="248"/>
+    <col min="1" max="1" width="16.5" style="228" customWidth="1"/>
+    <col min="2" max="2" width="14" style="228" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="228" customWidth="1"/>
+    <col min="4" max="16384" width="9.33203125" style="228"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="248" t="s">
+      <c r="A1" s="228" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="249" t="s">
+      <c r="A2" s="229" t="s">
         <v>323</v>
       </c>
-      <c r="B2" s="250" t="s">
+      <c r="B2" s="230" t="s">
         <v>328</v>
       </c>
-      <c r="C2" s="250" t="s">
+      <c r="C2" s="230" t="s">
         <v>324</v>
       </c>
-      <c r="D2" s="250" t="s">
+      <c r="D2" s="230" t="s">
         <v>325</v>
       </c>
-      <c r="E2" s="250" t="s">
+      <c r="E2" s="230" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="249" t="s">
+      <c r="A3" s="229" t="s">
         <v>327</v>
       </c>
-      <c r="B3" s="249">
+      <c r="B3" s="229">
         <v>20.399999999999999</v>
       </c>
-      <c r="C3" s="249">
+      <c r="C3" s="229">
         <v>0.96</v>
       </c>
-      <c r="D3" s="249">
+      <c r="D3" s="229">
         <v>511</v>
       </c>
-      <c r="E3" s="249">
+      <c r="E3" s="229">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="249" t="s">
+      <c r="A4" s="229" t="s">
         <v>329</v>
       </c>
-      <c r="B4" s="249">
+      <c r="B4" s="229">
         <v>10</v>
       </c>
-      <c r="C4" s="249">
+      <c r="C4" s="229">
         <v>1.19</v>
       </c>
-      <c r="D4" s="249">
+      <c r="D4" s="229">
         <v>511</v>
       </c>
-      <c r="E4" s="249">
+      <c r="E4" s="229">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="249" t="s">
+      <c r="A5" s="229" t="s">
         <v>330</v>
       </c>
-      <c r="B5" s="249">
+      <c r="B5" s="229">
         <v>2</v>
       </c>
-      <c r="C5" s="249">
+      <c r="C5" s="229">
         <v>1.72</v>
       </c>
-      <c r="D5" s="249">
+      <c r="D5" s="229">
         <v>511</v>
       </c>
-      <c r="E5" s="249">
+      <c r="E5" s="229">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="249" t="s">
+      <c r="A6" s="229" t="s">
         <v>331</v>
       </c>
-      <c r="B6" s="249">
+      <c r="B6" s="229">
         <v>109.8</v>
       </c>
-      <c r="C6" s="249">
+      <c r="C6" s="229">
         <v>0.63</v>
       </c>
-      <c r="D6" s="249">
+      <c r="D6" s="229">
         <v>511</v>
       </c>
-      <c r="E6" s="249">
+      <c r="E6" s="229">
         <v>1.93</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="254" t="s">
+      <c r="A7" s="257" t="s">
         <v>332</v>
       </c>
-      <c r="B7" s="251">
+      <c r="B7" s="262">
         <f>12.7*60</f>
         <v>762</v>
       </c>
-      <c r="C7" s="254">
+      <c r="C7" s="257">
         <v>0.65</v>
       </c>
-      <c r="D7" s="249">
+      <c r="D7" s="229">
         <v>511</v>
       </c>
-      <c r="E7" s="249">
+      <c r="E7" s="229">
         <v>0.38</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="255"/>
-      <c r="B8" s="251"/>
-      <c r="C8" s="255"/>
-      <c r="D8" s="249">
+      <c r="A8" s="258"/>
+      <c r="B8" s="262"/>
+      <c r="C8" s="258"/>
+      <c r="D8" s="229">
         <v>1346</v>
       </c>
-      <c r="E8" s="249">
+      <c r="E8" s="229">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="249" t="s">
+      <c r="A9" s="229" t="s">
         <v>333</v>
       </c>
-      <c r="B9" s="249">
+      <c r="B9" s="229">
         <v>68.3</v>
       </c>
-      <c r="C9" s="249">
+      <c r="C9" s="229">
         <v>1.9</v>
       </c>
-      <c r="D9" s="249">
+      <c r="D9" s="229">
         <v>511</v>
       </c>
-      <c r="E9" s="249">
+      <c r="E9" s="229">
         <v>1.84</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="254" t="s">
+      <c r="A10" s="257" t="s">
         <v>334</v>
       </c>
-      <c r="B10" s="252">
+      <c r="B10" s="263">
         <f>76/60</f>
         <v>1.2666666666666666</v>
       </c>
-      <c r="C10" s="254">
+      <c r="C10" s="257">
         <v>3.35</v>
       </c>
-      <c r="D10" s="249">
+      <c r="D10" s="229">
         <v>511</v>
       </c>
-      <c r="E10" s="249">
+      <c r="E10" s="229">
         <v>1.9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="255"/>
-      <c r="B11" s="252"/>
-      <c r="C11" s="255"/>
-      <c r="D11" s="249">
+      <c r="A11" s="258"/>
+      <c r="B11" s="263"/>
+      <c r="C11" s="258"/>
+      <c r="D11" s="229">
         <v>776</v>
       </c>
-      <c r="E11" s="249">
+      <c r="E11" s="229">
         <v>0.13</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="254" t="s">
+      <c r="A12" s="257" t="s">
         <v>335</v>
       </c>
-      <c r="B12" s="251">
+      <c r="B12" s="262">
         <f>4.2*60*24</f>
         <v>6048</v>
       </c>
-      <c r="C12" s="249">
+      <c r="C12" s="229">
         <v>1.54</v>
       </c>
-      <c r="D12" s="249">
+      <c r="D12" s="229">
         <v>511</v>
       </c>
-      <c r="E12" s="249">
+      <c r="E12" s="229">
         <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="256"/>
-      <c r="B13" s="251"/>
-      <c r="C13" s="249">
+      <c r="A13" s="259"/>
+      <c r="B13" s="262"/>
+      <c r="C13" s="229">
         <v>2.17</v>
       </c>
-      <c r="D13" s="249">
+      <c r="D13" s="229">
         <v>603</v>
       </c>
-      <c r="E13" s="249">
+      <c r="E13" s="229">
         <v>0.62</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="255"/>
-      <c r="B14" s="251"/>
-      <c r="C14" s="249"/>
-      <c r="D14" s="249">
+      <c r="A14" s="258"/>
+      <c r="B14" s="262"/>
+      <c r="C14" s="229"/>
+      <c r="D14" s="229">
         <v>1693</v>
       </c>
-      <c r="E14" s="249">
+      <c r="E14" s="229">
         <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="248" t="s">
+      <c r="A16" s="228" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="249" t="s">
+      <c r="A17" s="229" t="s">
         <v>323</v>
       </c>
-      <c r="B17" s="250" t="s">
+      <c r="B17" s="230" t="s">
         <v>337</v>
       </c>
-      <c r="C17" s="250" t="s">
+      <c r="C17" s="230" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="249" t="s">
+      <c r="A18" s="229" t="s">
         <v>327</v>
       </c>
-      <c r="B18" s="249">
+      <c r="B18" s="229">
         <v>0.14799999999999999</v>
       </c>
-      <c r="C18" s="249">
+      <c r="C18" s="229">
         <v>6.3E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="249" t="s">
+      <c r="A19" s="229" t="s">
         <v>329</v>
       </c>
-      <c r="B19" s="249">
+      <c r="B19" s="229">
         <v>0.14799999999999999</v>
       </c>
-      <c r="C19" s="249">
+      <c r="C19" s="229">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="249" t="s">
+      <c r="A20" s="229" t="s">
         <v>330</v>
       </c>
-      <c r="B20" s="249">
+      <c r="B20" s="229">
         <v>0.14799999999999999</v>
       </c>
-      <c r="C20" s="249">
+      <c r="C20" s="229">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="249" t="s">
+      <c r="A21" s="229" t="s">
         <v>331</v>
       </c>
-      <c r="B21" s="249">
+      <c r="B21" s="229">
         <v>0.14299999999999999</v>
       </c>
-      <c r="C21" s="249">
+      <c r="C21" s="229">
         <v>0.11899999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="249" t="s">
+      <c r="A22" s="229" t="s">
         <v>332</v>
       </c>
-      <c r="B22" s="249">
+      <c r="B22" s="229">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="C22" s="249">
+      <c r="C22" s="229">
         <v>0.24</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="249" t="s">
+      <c r="A23" s="229" t="s">
         <v>333</v>
       </c>
-      <c r="B23" s="249">
+      <c r="B23" s="229">
         <v>0.13400000000000001</v>
       </c>
-      <c r="C23" s="249">
+      <c r="C23" s="229">
         <v>0.10100000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="249" t="s">
+      <c r="A24" s="229" t="s">
         <v>334</v>
       </c>
-      <c r="B24" s="249">
+      <c r="B24" s="229">
         <v>0.159</v>
       </c>
-      <c r="C24" s="249">
+      <c r="C24" s="229">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="249" t="s">
+      <c r="A25" s="229" t="s">
         <v>335</v>
       </c>
-      <c r="B25" s="249">
+      <c r="B25" s="229">
         <v>0.185</v>
       </c>
-      <c r="C25" s="249">
+      <c r="C25" s="229">
         <v>0.184</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="248" t="s">
+      <c r="A27" s="228" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="251" t="s">
+      <c r="A28" s="262" t="s">
         <v>340</v>
       </c>
-      <c r="B28" s="251"/>
-      <c r="C28" s="249" t="s">
+      <c r="B28" s="262"/>
+      <c r="C28" s="229" t="s">
         <v>341</v>
       </c>
-      <c r="D28" s="257" t="s">
+      <c r="D28" s="260" t="s">
         <v>342</v>
       </c>
-      <c r="E28" s="258"/>
-      <c r="F28" s="253" t="s">
+      <c r="E28" s="261"/>
+      <c r="F28" s="231" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="251" t="s">
+      <c r="A29" s="262" t="s">
         <v>343</v>
       </c>
-      <c r="B29" s="251"/>
-      <c r="C29" s="249">
+      <c r="B29" s="262"/>
+      <c r="C29" s="229">
         <v>15.4</v>
       </c>
-      <c r="D29" s="257" t="s">
+      <c r="D29" s="260" t="s">
         <v>344</v>
       </c>
-      <c r="E29" s="258"/>
-      <c r="F29" s="253"/>
+      <c r="E29" s="261"/>
+      <c r="F29" s="231"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="251" t="s">
+      <c r="A30" s="262" t="s">
         <v>345</v>
       </c>
-      <c r="B30" s="251"/>
-      <c r="C30" s="249">
+      <c r="B30" s="262"/>
+      <c r="C30" s="229">
         <v>0.13400000000000001</v>
       </c>
-      <c r="D30" s="251" t="s">
+      <c r="D30" s="262" t="s">
         <v>346</v>
       </c>
-      <c r="E30" s="251"/>
-      <c r="F30" s="253"/>
+      <c r="E30" s="262"/>
+      <c r="F30" s="231"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="251" t="s">
+      <c r="A31" s="262" t="s">
         <v>347</v>
       </c>
-      <c r="B31" s="251"/>
-      <c r="C31" s="249">
+      <c r="B31" s="262"/>
+      <c r="C31" s="229">
         <v>0.14299999999999999</v>
       </c>
-      <c r="D31" s="251"/>
-      <c r="E31" s="251"/>
-      <c r="F31" s="253"/>
+      <c r="D31" s="262"/>
+      <c r="E31" s="262"/>
+      <c r="F31" s="231"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="251" t="s">
+      <c r="A32" s="262" t="s">
         <v>348</v>
       </c>
-      <c r="B32" s="251"/>
-      <c r="C32" s="249">
+      <c r="B32" s="262"/>
+      <c r="C32" s="229">
         <v>0.14799999999999999</v>
       </c>
-      <c r="D32" s="251"/>
-      <c r="E32" s="251"/>
-      <c r="F32" s="253" t="s">
+      <c r="D32" s="262"/>
+      <c r="E32" s="262"/>
+      <c r="F32" s="231" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="251" t="s">
+      <c r="A33" s="262" t="s">
         <v>349</v>
       </c>
-      <c r="B33" s="251"/>
-      <c r="C33" s="249">
+      <c r="B33" s="262"/>
+      <c r="C33" s="229">
         <v>0.183</v>
       </c>
-      <c r="D33" s="251"/>
-      <c r="E33" s="251"/>
-      <c r="F33" s="253"/>
+      <c r="D33" s="262"/>
+      <c r="E33" s="262"/>
+      <c r="F33" s="231"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="251" t="s">
+      <c r="A34" s="262" t="s">
         <v>350</v>
       </c>
-      <c r="B34" s="251"/>
-      <c r="C34" s="249">
+      <c r="B34" s="262"/>
+      <c r="C34" s="229">
         <v>0.188</v>
       </c>
-      <c r="D34" s="251"/>
-      <c r="E34" s="251"/>
-      <c r="F34" s="253"/>
+      <c r="D34" s="262"/>
+      <c r="E34" s="262"/>
+      <c r="F34" s="231"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="248" t="s">
+      <c r="A36" s="228" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="250" t="s">
+      <c r="A37" s="230" t="s">
         <v>354</v>
       </c>
-      <c r="B37" s="250" t="s">
+      <c r="B37" s="230" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="250" t="s">
+      <c r="C37" s="230" t="s">
         <v>356</v>
       </c>
-      <c r="D37" s="250" t="s">
+      <c r="D37" s="230" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="249">
+      <c r="A38" s="229">
         <v>0</v>
       </c>
-      <c r="B38" s="249">
+      <c r="B38" s="229">
         <v>1</v>
       </c>
-      <c r="C38" s="249">
+      <c r="C38" s="229">
         <v>1</v>
       </c>
-      <c r="D38" s="249">
+      <c r="D38" s="229">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="249">
+      <c r="A39" s="229">
         <v>1</v>
       </c>
-      <c r="B39" s="249">
+      <c r="B39" s="229">
         <v>0.89119999999999999</v>
       </c>
-      <c r="C39" s="249">
+      <c r="C39" s="229">
         <v>0.95830000000000004</v>
       </c>
-      <c r="D39" s="249">
+      <c r="D39" s="229">
         <v>0.74839999999999995</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="249">
+      <c r="A40" s="229">
         <v>2</v>
       </c>
-      <c r="B40" s="249">
+      <c r="B40" s="229">
         <v>0.7873</v>
       </c>
-      <c r="C40" s="249">
+      <c r="C40" s="229">
         <v>0.90880000000000005</v>
       </c>
-      <c r="D40" s="249">
+      <c r="D40" s="229">
         <v>0.53249999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="249">
+      <c r="A41" s="229">
         <v>3</v>
       </c>
-      <c r="B41" s="249">
+      <c r="B41" s="229">
         <v>0.6905</v>
       </c>
-      <c r="C41" s="249">
+      <c r="C41" s="229">
         <v>0.85189999999999999</v>
       </c>
-      <c r="D41" s="249">
+      <c r="D41" s="229">
         <v>0.3614</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="249">
+      <c r="A42" s="229">
         <v>4</v>
       </c>
-      <c r="B42" s="249">
+      <c r="B42" s="229">
         <v>0.60209999999999997</v>
       </c>
-      <c r="C42" s="249">
+      <c r="C42" s="229">
         <v>0.78890000000000005</v>
       </c>
-      <c r="D42" s="249">
+      <c r="D42" s="229">
         <v>0.23530000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="249">
+      <c r="A43" s="229">
         <v>5</v>
       </c>
-      <c r="B43" s="249">
+      <c r="B43" s="229">
         <v>0.52270000000000005</v>
       </c>
-      <c r="C43" s="249">
+      <c r="C43" s="229">
         <v>0.7218</v>
       </c>
-      <c r="D43" s="249">
+      <c r="D43" s="229">
         <v>0.1479</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="249">
+      <c r="A44" s="229">
         <v>6</v>
       </c>
-      <c r="B44" s="249">
+      <c r="B44" s="229">
         <v>0.45219999999999999</v>
       </c>
-      <c r="C44" s="249">
+      <c r="C44" s="229">
         <v>0.65280000000000005</v>
       </c>
-      <c r="D44" s="249">
+      <c r="D44" s="229">
         <v>9.0499999999999997E-2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="249">
+      <c r="A45" s="229">
         <v>7</v>
       </c>
-      <c r="B45" s="249">
+      <c r="B45" s="229">
         <v>0.39029999999999998</v>
       </c>
-      <c r="C45" s="249">
+      <c r="C45" s="229">
         <v>0.58420000000000005</v>
       </c>
-      <c r="D45" s="249">
+      <c r="D45" s="229">
         <v>5.4199999999999998E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="249">
+      <c r="A46" s="229">
         <v>8</v>
       </c>
-      <c r="B46" s="249">
+      <c r="B46" s="229">
         <v>0.3362</v>
       </c>
-      <c r="C46" s="249">
+      <c r="C46" s="229">
         <v>0.51800000000000002</v>
       </c>
-      <c r="D46" s="249">
+      <c r="D46" s="229">
         <v>3.1899999999999998E-2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="249">
+      <c r="A47" s="229">
         <v>9</v>
       </c>
-      <c r="B47" s="249">
+      <c r="B47" s="229">
         <v>0.28920000000000001</v>
       </c>
-      <c r="C47" s="249">
+      <c r="C47" s="229">
         <v>0.45579999999999998</v>
       </c>
-      <c r="D47" s="249">
+      <c r="D47" s="229">
         <v>1.8599999999999998E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="249">
+      <c r="A48" s="229">
         <v>10</v>
       </c>
-      <c r="B48" s="249">
+      <c r="B48" s="229">
         <v>0.2485</v>
       </c>
-      <c r="C48" s="249">
+      <c r="C48" s="229">
         <v>0.3987</v>
       </c>
-      <c r="D48" s="249">
+      <c r="D48" s="229">
         <v>1.0699999999999999E-2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="249">
+      <c r="A49" s="229">
         <v>12</v>
       </c>
-      <c r="B49" s="249">
+      <c r="B49" s="229">
         <v>0.18310000000000001</v>
       </c>
-      <c r="C49" s="249">
+      <c r="C49" s="229">
         <v>0.30080000000000001</v>
       </c>
-      <c r="D49" s="249">
+      <c r="D49" s="229">
         <v>3.5000000000000001E-3</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="249">
+      <c r="A50" s="229">
         <v>14</v>
       </c>
-      <c r="B50" s="249">
+      <c r="B50" s="229">
         <v>0.13469999999999999</v>
       </c>
-      <c r="C50" s="249">
+      <c r="C50" s="229">
         <v>0.2243</v>
       </c>
-      <c r="D50" s="249">
+      <c r="D50" s="229">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="249">
+      <c r="A51" s="229">
         <v>16</v>
       </c>
-      <c r="B51" s="249">
+      <c r="B51" s="229">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="C51" s="249">
+      <c r="C51" s="229">
         <v>0.16619999999999999</v>
       </c>
-      <c r="D51" s="249">
+      <c r="D51" s="229">
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="249">
+      <c r="A52" s="229">
         <v>18</v>
       </c>
-      <c r="B52" s="249">
+      <c r="B52" s="229">
         <v>7.2800000000000004E-2</v>
       </c>
-      <c r="C52" s="249">
+      <c r="C52" s="229">
         <v>0.1227</v>
       </c>
-      <c r="D52" s="249">
+      <c r="D52" s="229">
         <v>1E-4</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="249">
+      <c r="A53" s="229">
         <v>20</v>
       </c>
-      <c r="B53" s="249">
+      <c r="B53" s="229">
         <v>5.3499999999999999E-2</v>
       </c>
-      <c r="C53" s="249">
+      <c r="C53" s="229">
         <v>9.0399999999999994E-2</v>
       </c>
-      <c r="D53" s="249"/>
+      <c r="D53" s="229"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="249">
+      <c r="A54" s="229">
         <v>25</v>
       </c>
-      <c r="B54" s="249">
+      <c r="B54" s="229">
         <v>2.47E-2</v>
       </c>
-      <c r="C54" s="249">
+      <c r="C54" s="229">
         <v>4.19E-2</v>
       </c>
-      <c r="D54" s="249"/>
+      <c r="D54" s="229"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="249">
+      <c r="A55" s="229">
         <v>30</v>
       </c>
-      <c r="B55" s="249">
+      <c r="B55" s="229">
         <v>1.14E-2</v>
       </c>
-      <c r="C55" s="249">
+      <c r="C55" s="229">
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="D55" s="249"/>
+      <c r="D55" s="229"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="249">
+      <c r="A56" s="229">
         <v>40</v>
       </c>
-      <c r="B56" s="249">
+      <c r="B56" s="229">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="C56" s="249">
+      <c r="C56" s="229">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="D56" s="249"/>
+      <c r="D56" s="229"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="249">
+      <c r="A57" s="229">
         <v>50</v>
       </c>
-      <c r="B57" s="249">
+      <c r="B57" s="229">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C57" s="249">
+      <c r="C57" s="229">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="D57" s="249"/>
+      <c r="D57" s="229"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="248" t="s">
+      <c r="A59" s="228" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="249" t="s">
+      <c r="A60" s="229" t="s">
         <v>358</v>
       </c>
-      <c r="B60" s="259" t="s">
+      <c r="B60" s="232" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="259" t="s">
+      <c r="C60" s="232" t="s">
         <v>42</v>
       </c>
-      <c r="D60" s="259" t="s">
+      <c r="D60" s="232" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="249" t="s">
+      <c r="A61" s="229" t="s">
         <v>49</v>
       </c>
-      <c r="B61" s="249">
+      <c r="B61" s="229">
         <v>0.15429999999999999</v>
       </c>
-      <c r="C61" s="249">
+      <c r="C61" s="229">
         <v>-0.44080000000000003</v>
       </c>
-      <c r="D61" s="249">
+      <c r="D61" s="229">
         <v>2.1360000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="249" t="s">
+      <c r="A62" s="229" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="249">
+      <c r="B62" s="229">
         <v>0.15390000000000001</v>
       </c>
-      <c r="C62" s="249">
+      <c r="C62" s="229">
         <v>-0.11609999999999999</v>
       </c>
-      <c r="D62" s="249">
+      <c r="D62" s="229">
         <v>2.0752000000000002</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="249" t="s">
+      <c r="A63" s="229" t="s">
         <v>355</v>
       </c>
-      <c r="B63" s="249">
+      <c r="B63" s="229">
         <v>0.57040000000000002</v>
       </c>
-      <c r="C63" s="249">
+      <c r="C63" s="229">
         <v>-0.30630000000000002</v>
       </c>
-      <c r="D63" s="249">
+      <c r="D63" s="229">
         <v>0.63260000000000005</v>
       </c>
     </row>
@@ -23574,11 +23629,6 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
@@ -23586,10 +23636,399 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DE8792-DD2B-477A-AF5C-DCF89AF48366}">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" style="227"/>
+    <col min="2" max="4" width="15.83203125" style="227" customWidth="1"/>
+    <col min="5" max="16384" width="9.33203125" style="227"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="233" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="233" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="233" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="233" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="234" t="s">
+        <v>323</v>
+      </c>
+      <c r="B6" s="230" t="s">
+        <v>362</v>
+      </c>
+      <c r="C6" s="230" t="s">
+        <v>363</v>
+      </c>
+      <c r="D6" s="230" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="234" t="s">
+        <v>365</v>
+      </c>
+      <c r="B7" s="235">
+        <v>20.85</v>
+      </c>
+      <c r="C7" s="235">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D7" s="235">
+        <v>17.739999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="234" t="s">
+        <v>366</v>
+      </c>
+      <c r="B8" s="235">
+        <v>41.57</v>
+      </c>
+      <c r="C8" s="235">
+        <v>1.23</v>
+      </c>
+      <c r="D8" s="235">
+        <v>12.58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="234" t="s">
+        <v>367</v>
+      </c>
+      <c r="B9" s="235">
+        <v>57.44</v>
+      </c>
+      <c r="C9" s="235">
+        <v>10.28</v>
+      </c>
+      <c r="D9" s="235">
+        <v>21.23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="234" t="s">
+        <v>368</v>
+      </c>
+      <c r="B10" s="235">
+        <v>83.14</v>
+      </c>
+      <c r="C10" s="235">
+        <v>2.33</v>
+      </c>
+      <c r="D10" s="235">
+        <v>15.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="234" t="s">
+        <v>369</v>
+      </c>
+      <c r="B11" s="235">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C11" s="235">
+        <v>1.08</v>
+      </c>
+      <c r="D11" s="235">
+        <v>14.32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="234" t="s">
+        <v>370</v>
+      </c>
+      <c r="B12" s="235">
+        <v>11.29</v>
+      </c>
+      <c r="C12" s="235">
+        <v>0.89</v>
+      </c>
+      <c r="D12" s="235">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="234" t="s">
+        <v>371</v>
+      </c>
+      <c r="B13" s="235">
+        <v>13.87</v>
+      </c>
+      <c r="C13" s="235">
+        <v>0.4</v>
+      </c>
+      <c r="D13" s="235">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="233" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="229" t="s">
+        <v>323</v>
+      </c>
+      <c r="B16" s="232" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="232" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="232" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="234" t="s">
+        <v>365</v>
+      </c>
+      <c r="B17" s="229">
+        <v>4.4119999999999999E-2</v>
+      </c>
+      <c r="C17" s="229">
+        <v>0.73260000000000003</v>
+      </c>
+      <c r="D17" s="229">
+        <v>0.38690000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="234" t="s">
+        <v>366</v>
+      </c>
+      <c r="B18" s="229">
+        <v>0.13220000000000001</v>
+      </c>
+      <c r="C18" s="229">
+        <v>14.85</v>
+      </c>
+      <c r="D18" s="229">
+        <v>1.488</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="234" t="s">
+        <v>367</v>
+      </c>
+      <c r="B19" s="229">
+        <v>0.10780000000000001</v>
+      </c>
+      <c r="C19" s="229">
+        <v>0.20030000000000001</v>
+      </c>
+      <c r="D19" s="229">
+        <v>0.49569999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="234" t="s">
+        <v>368</v>
+      </c>
+      <c r="B20" s="229">
+        <v>0.70940000000000003</v>
+      </c>
+      <c r="C20" s="229">
+        <v>30.63</v>
+      </c>
+      <c r="D20" s="229">
+        <v>5.9790000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="234" t="s">
+        <v>369</v>
+      </c>
+      <c r="B21" s="229">
+        <v>2.4790000000000001</v>
+      </c>
+      <c r="C21" s="229">
+        <v>-1.093</v>
+      </c>
+      <c r="D21" s="229">
+        <v>1.3759999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="234" t="s">
+        <v>370</v>
+      </c>
+      <c r="B22" s="229">
+        <v>1.67</v>
+      </c>
+      <c r="C22" s="229">
+        <v>1.3580000000000001</v>
+      </c>
+      <c r="D22" s="229">
+        <v>0.36919999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="234" t="s">
+        <v>371</v>
+      </c>
+      <c r="B23" s="229">
+        <v>2.66</v>
+      </c>
+      <c r="C23" s="229">
+        <v>55.84</v>
+      </c>
+      <c r="D23" s="229">
+        <v>2.419</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="233" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="229" t="s">
+        <v>323</v>
+      </c>
+      <c r="B26" s="232" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="232" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="232" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="234" t="s">
+        <v>365</v>
+      </c>
+      <c r="B27" s="229">
+        <v>0.1865</v>
+      </c>
+      <c r="C27" s="229">
+        <v>-0.15290000000000001</v>
+      </c>
+      <c r="D27" s="229">
+        <v>1.6830000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="234" t="s">
+        <v>366</v>
+      </c>
+      <c r="B28" s="229">
+        <v>0.18659999999999999</v>
+      </c>
+      <c r="C28" s="229">
+        <v>1253</v>
+      </c>
+      <c r="D28" s="229">
+        <v>74.930000000000007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="234" t="s">
+        <v>367</v>
+      </c>
+      <c r="B29" s="229">
+        <v>0.17050000000000001</v>
+      </c>
+      <c r="C29" s="229">
+        <v>-0.1308</v>
+      </c>
+      <c r="D29" s="229">
+        <v>1.038</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="234" t="s">
+        <v>368</v>
+      </c>
+      <c r="B30" s="229">
+        <v>0.2339</v>
+      </c>
+      <c r="C30" s="229">
+        <v>-0.1265</v>
+      </c>
+      <c r="D30" s="229">
+        <v>0.46179999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="234" t="s">
+        <v>369</v>
+      </c>
+      <c r="B31" s="229">
+        <v>0.28129999999999999</v>
+      </c>
+      <c r="C31" s="229">
+        <v>-0.2349</v>
+      </c>
+      <c r="D31" s="229">
+        <v>0.96530000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="234" t="s">
+        <v>370</v>
+      </c>
+      <c r="B32" s="229">
+        <v>0.26069999999999999</v>
+      </c>
+      <c r="C32" s="229">
+        <v>-0.26069999999999999</v>
+      </c>
+      <c r="D32" s="229">
+        <v>20.99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="234" t="s">
+        <v>371</v>
+      </c>
+      <c r="B33" s="229">
+        <v>0.36969999999999997</v>
+      </c>
+      <c r="C33" s="229">
+        <v>2.8370000000000002</v>
+      </c>
+      <c r="D33" s="229">
+        <v>7.149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -23609,22 +24048,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="236" t="s">
+      <c r="B1" s="245" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236" t="s">
+      <c r="C1" s="245"/>
+      <c r="D1" s="245" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="H1" s="237" t="s">
+      <c r="E1" s="245"/>
+      <c r="F1" s="245"/>
+      <c r="H1" s="246" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
-      <c r="K1" s="237"/>
-      <c r="L1" s="237"/>
+      <c r="I1" s="246"/>
+      <c r="J1" s="246"/>
+      <c r="K1" s="246"/>
+      <c r="L1" s="246"/>
       <c r="M1" s="98"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -23719,13 +24158,13 @@
       <c r="D5" s="101"/>
       <c r="E5" s="101"/>
       <c r="F5" s="101"/>
-      <c r="H5" s="238" t="s">
+      <c r="H5" s="247" t="s">
         <v>103</v>
       </c>
-      <c r="I5" s="238"/>
-      <c r="J5" s="238"/>
-      <c r="K5" s="238"/>
-      <c r="L5" s="238"/>
+      <c r="I5" s="247"/>
+      <c r="J5" s="247"/>
+      <c r="K5" s="247"/>
+      <c r="L5" s="247"/>
       <c r="M5" s="98"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -25009,16 +25448,16 @@
         <v>172</v>
       </c>
       <c r="N19" s="122"/>
-      <c r="P19" s="228" t="s">
+      <c r="P19" s="237" t="s">
         <v>95</v>
       </c>
-      <c r="Q19" s="228"/>
-      <c r="R19" s="228"/>
-      <c r="S19" s="228" t="s">
+      <c r="Q19" s="237"/>
+      <c r="R19" s="237"/>
+      <c r="S19" s="237" t="s">
         <v>96</v>
       </c>
-      <c r="T19" s="228"/>
-      <c r="U19" s="228"/>
+      <c r="T19" s="237"/>
+      <c r="U19" s="237"/>
       <c r="V19"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
@@ -25239,7 +25678,7 @@
       <c r="H27" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="J27" s="239" t="s">
+      <c r="J27" s="248" t="s">
         <v>191</v>
       </c>
       <c r="K27" s="115" t="s">
@@ -25281,7 +25720,7 @@
       <c r="H28" s="158" t="s">
         <v>199</v>
       </c>
-      <c r="J28" s="239"/>
+      <c r="J28" s="248"/>
       <c r="K28" s="115" t="s">
         <v>200</v>
       </c>
@@ -26608,7 +27047,7 @@
       <c r="E18" s="169" t="s">
         <v>224</v>
       </c>
-      <c r="F18" s="240" t="s">
+      <c r="F18" s="249" t="s">
         <v>225</v>
       </c>
       <c r="L18" s="188" t="s">
@@ -26654,7 +27093,7 @@
       <c r="E19" s="169" t="s">
         <v>187</v>
       </c>
-      <c r="F19" s="240"/>
+      <c r="F19" s="249"/>
       <c r="G19" s="169" t="s">
         <v>49</v>
       </c>
@@ -26687,22 +27126,22 @@
       <c r="E20" s="191" t="s">
         <v>226</v>
       </c>
-      <c r="F20" s="240"/>
+      <c r="F20" s="249"/>
       <c r="G20" s="191" t="s">
         <v>199</v>
       </c>
       <c r="H20" s="191" t="s">
         <v>227</v>
       </c>
-      <c r="L20" s="241" t="s">
+      <c r="L20" s="250" t="s">
         <v>228</v>
       </c>
-      <c r="M20" s="241"/>
-      <c r="N20" s="241"/>
-      <c r="O20" s="241"/>
-      <c r="P20" s="241"/>
-      <c r="Q20" s="241"/>
-      <c r="R20" s="241"/>
+      <c r="M20" s="250"/>
+      <c r="N20" s="250"/>
+      <c r="O20" s="250"/>
+      <c r="P20" s="250"/>
+      <c r="Q20" s="250"/>
+      <c r="R20" s="250"/>
       <c r="T20" s="169">
         <v>1.1906250009999999</v>
       </c>
@@ -27589,42 +28028,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="251" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
-      <c r="I1" s="242"/>
-      <c r="J1" s="242"/>
-      <c r="K1" s="242"/>
-      <c r="L1" s="242"/>
-      <c r="M1" s="242"/>
-      <c r="N1" s="242"/>
-      <c r="O1" s="242"/>
-      <c r="P1" s="242"/>
-      <c r="Q1" s="243" t="s">
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="251"/>
+      <c r="O1" s="251"/>
+      <c r="P1" s="251"/>
+      <c r="Q1" s="252" t="s">
         <v>90</v>
       </c>
-      <c r="R1" s="243"/>
-      <c r="S1" s="243"/>
-      <c r="T1" s="243"/>
-      <c r="U1" s="243"/>
-      <c r="V1" s="243"/>
-      <c r="W1" s="243"/>
-      <c r="X1" s="243"/>
-      <c r="Y1" s="243"/>
-      <c r="Z1" s="243"/>
-      <c r="AA1" s="243"/>
-      <c r="AB1" s="243"/>
-      <c r="AC1" s="243"/>
-      <c r="AD1" s="243"/>
-      <c r="AE1" s="243"/>
-      <c r="AF1" s="243"/>
+      <c r="R1" s="252"/>
+      <c r="S1" s="252"/>
+      <c r="T1" s="252"/>
+      <c r="U1" s="252"/>
+      <c r="V1" s="252"/>
+      <c r="W1" s="252"/>
+      <c r="X1" s="252"/>
+      <c r="Y1" s="252"/>
+      <c r="Z1" s="252"/>
+      <c r="AA1" s="252"/>
+      <c r="AB1" s="252"/>
+      <c r="AC1" s="252"/>
+      <c r="AD1" s="252"/>
+      <c r="AE1" s="252"/>
+      <c r="AF1" s="252"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="199"/>
@@ -27639,46 +28078,46 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="204"/>
-      <c r="B3" s="244" t="s">
+      <c r="B3" s="253" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
+      <c r="C3" s="253"/>
+      <c r="D3" s="253"/>
       <c r="E3" s="205"/>
       <c r="F3" s="205"/>
-      <c r="G3" s="244" t="s">
+      <c r="G3" s="253" t="s">
         <v>96</v>
       </c>
-      <c r="H3" s="244"/>
-      <c r="I3" s="244"/>
+      <c r="H3" s="253"/>
+      <c r="I3" s="253"/>
       <c r="J3" s="205"/>
       <c r="K3" s="205"/>
-      <c r="L3" s="244" t="s">
+      <c r="L3" s="253" t="s">
         <v>53</v>
       </c>
-      <c r="M3" s="244"/>
-      <c r="N3" s="244"/>
+      <c r="M3" s="253"/>
+      <c r="N3" s="253"/>
       <c r="O3" s="205"/>
       <c r="P3" s="205"/>
-      <c r="Q3" s="245" t="s">
+      <c r="Q3" s="254" t="s">
         <v>55</v>
       </c>
-      <c r="R3" s="245"/>
-      <c r="S3" s="245"/>
+      <c r="R3" s="254"/>
+      <c r="S3" s="254"/>
       <c r="T3" s="205"/>
       <c r="U3" s="205"/>
-      <c r="V3" s="244" t="s">
+      <c r="V3" s="253" t="s">
         <v>97</v>
       </c>
-      <c r="W3" s="244"/>
-      <c r="X3" s="244"/>
+      <c r="W3" s="253"/>
+      <c r="X3" s="253"/>
       <c r="Y3" s="205"/>
       <c r="Z3" s="205"/>
-      <c r="AA3" s="244" t="s">
+      <c r="AA3" s="253" t="s">
         <v>59</v>
       </c>
-      <c r="AB3" s="244"/>
-      <c r="AC3" s="244"/>
+      <c r="AB3" s="253"/>
+      <c r="AC3" s="253"/>
       <c r="AD3" s="205"/>
       <c r="AE3" s="205"/>
       <c r="AF3" s="206"/>
@@ -30757,16 +31196,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="228" t="s">
+      <c r="B3" s="237" t="s">
         <v>241</v>
       </c>
-      <c r="C3" s="228"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="228" t="s">
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237" t="s">
         <v>242</v>
       </c>
-      <c r="F3" s="228"/>
-      <c r="G3" s="228"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="237"/>
     </row>
     <row r="4" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="222" t="s">
@@ -31613,11 +32052,11 @@
       <c r="A30" t="s">
         <v>253</v>
       </c>
-      <c r="B30" s="228">
+      <c r="B30" s="237">
         <v>110</v>
       </c>
-      <c r="C30" s="228"/>
-      <c r="D30" s="228"/>
+      <c r="C30" s="237"/>
+      <c r="D30" s="237"/>
       <c r="E30">
         <v>18</v>
       </c>
@@ -31673,14 +32112,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="246" t="s">
+      <c r="C3" s="255" t="s">
         <v>256</v>
       </c>
-      <c r="D3" s="246"/>
-      <c r="E3" s="246" t="s">
+      <c r="D3" s="255"/>
+      <c r="E3" s="255" t="s">
         <v>257</v>
       </c>
-      <c r="F3" s="246"/>
+      <c r="F3" s="255"/>
     </row>
     <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="222" t="s">
